--- a/players.xlsx
+++ b/players.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411CD9DB-0E0D-4270-896C-5C9A42988FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277DE55-03A0-4171-9A6C-BEB30BCB9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="2514">
   <si>
     <t>id</t>
   </si>
@@ -7075,6 +7075,519 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1390430/unique-tournament/454/season/69426/statistics/overall</t>
+  </si>
+  <si>
+    <t>Fabjan</t>
+  </si>
+  <si>
+    <t>Perndreca</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/fabjan-perndreca/profil/spieler/1104120</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/fabjan-perndreca/1428486</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1428486</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1428486/unique-tournament/720/season/64056/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1428486/unique-tournament/720/season/64056/statistics/overall</t>
+  </si>
+  <si>
+    <t>Opoku</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/michael-opoku/profil/spieler/695226</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/opoku-michael/1799505</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1799505</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1799505/unique-tournament/2084/season/75672/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1799505/unique-tournament/2084/season/75672/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>Kiilerich</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kasper-kiilerich/profil/spieler/806930</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kasper-kiilerich/1176736</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1176736</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1176736/unique-tournament/65/season/61929/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1176736/unique-tournament/65/season/61929/statistics/overall</t>
+  </si>
+  <si>
+    <t>Huldahl</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/martin-huldahl/profil/spieler/934050</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/martin-huldahl/1196904</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1196904</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1196904/unique-tournament/47/season/61669/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1196904/unique-tournament/47/season/61669/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Pajo</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tristan-pajo/profil/spieler/707987</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/pajo-tristan/1066106</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1066106</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1066106/unique-tournament/178/season/71438/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1066106/unique-tournament/178/season/71438/statistics/overall</t>
+  </si>
+  <si>
+    <t>Oto</t>
+  </si>
+  <si>
+    <t>Ruoppi</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/otto-ruoppi/profil/spieler/901877</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/otto-ruoppi/1175898</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1175898</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1175898/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1175898/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Pyry</t>
+  </si>
+  <si>
+    <t>Mentu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/pyry-mentu/profil/spieler/937990</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/pyry-mentu/1563529</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1563529</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1563529/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1563529/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Samuel Friday</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/samuel-friday-james/profil/spieler/1129907</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/samuel-friday-james/1809096</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1809096</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1809096/unique-tournament/55/season/71183/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1809096/unique-tournament/55/season/71183/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jouhi</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/adam-jouhi/profil/spieler/1148048</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/adam-jouhi/1502507</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1502507</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1502507/unique-tournament/55/season/71183/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1502507/unique-tournament/55/season/71183/statistics/overall</t>
+  </si>
+  <si>
+    <t>Antton</t>
+  </si>
+  <si>
+    <t>Nylund</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/antton-nylund/profil/spieler/1139732</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/antton-nylund/1871454</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1871454</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1871454/unique-tournament/55/season/71183/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1871454/unique-tournament/55/season/71183/statistics/overall</t>
+  </si>
+  <si>
+    <t>Giorgi</t>
+  </si>
+  <si>
+    <t>Gvasalia</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/giorgi-gvasalia/profil/spieler/1193792</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/gvasalia-giorgi/1567327</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1567327/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1567327</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1567327/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Zétény</t>
+  </si>
+  <si>
+    <t>Garai</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/zeteny-garai/profil/spieler/1136767</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/zeteny-garai/1898388</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1898388</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1898388/unique-tournament/1339/season/63675/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1898388/unique-tournament/1339/season/63675/statistics/overall</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/daniel-job/profil/spieler/1237900</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/job-daniel/1805067</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1805067</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1805067/unique-tournament/20/season/57322/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1805067/unique-tournament/20/season/57322/statistics/overall</t>
+  </si>
+  <si>
+    <t>Matei</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/david-matei/profil/spieler/1112690</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/david-matei/1500748</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1500748</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1500748/unique-tournament/258/season/74810/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1500748/unique-tournament/258/season/74810/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bârstan</t>
+  </si>
+  <si>
+    <t>Ioan</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ioan-barstan/profil/spieler/1161049</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ioan-barstan/1530600</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1530600</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1530600/unique-tournament/562/season/64111/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1530600/unique-tournament/562/season/64111/statistics/overall</t>
+  </si>
+  <si>
+    <t>Chintes</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/alin-chintes/profil/spieler/1040558</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/alin-chintes/1426614</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426614</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426614/unique-tournament/258/season/74810/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426614/unique-tournament/258/season/74810/statistics/overall</t>
+  </si>
+  <si>
+    <t>Eduard</t>
+  </si>
+  <si>
+    <t>Chioveanu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/eduard-chioveanu/profil/spieler/892722</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/eduard-chioveanu/1655120</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1655120</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1655120/unique-tournament/562/season/64111/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1655120/unique-tournament/562/season/64111/statistics/overall</t>
+  </si>
+  <si>
+    <t>Vidojević</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/nemanja-vidojevic/profil/spieler/845559</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nemanja-vidojevic/1146281</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146281</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146281/unique-tournament/721/season/61446/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146281/unique-tournament/721/season/61446/statistics/overall</t>
+  </si>
+  <si>
+    <t>Turudija</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/luka-turudija/profil/spieler/940788</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/turudija-luka/1146352</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146352</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146352/unique-tournament/212/season/62660/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146352/unique-tournament/212/season/62660/statistics/overall</t>
+  </si>
+  <si>
+    <t>Stanislav</t>
+  </si>
+  <si>
+    <t>Petkov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/stanislav-petkov/profil/spieler/906282</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/stanislav-hristov-petkov/1808549</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1808549</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1808549/unique-tournament/532/season/62737/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1808549/unique-tournament/532/season/62737/statistics/overall</t>
+  </si>
+  <si>
+    <t>Schaubach</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/rok-schaubach/profil/spieler/953958</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/rok-schaubach/1131670</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1131670</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1131670/unique-tournament/532/season/62737/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1131670/unique-tournament/532/season/62737/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Petek</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jan-petek/profil/spieler/1157538</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/petek-jan/1514921</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1514921</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1514921/unique-tournament/532/season/62737/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1514921/unique-tournament/532/season/62737/statistics/overall</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Andersen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/silas-andersen/profil/spieler/685657</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/silas-andersen/1083407</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1083407</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1083407/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1083407/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Bibout</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/aaron-bibout/profil/spieler/1122196</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bibout-aaron/1502620</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1502620</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1502620/unique-tournament/46/season/70171/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1502620/unique-tournament/46/season/70171/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/max-nilsson/profil/spieler/1111164</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nilsson-max/113766</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/113766</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/113766/unique-tournament/46/season/70171/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/113766/unique-tournament/46/season/70171/statistics/overall</t>
+  </si>
+  <si>
+    <t>Denys</t>
+  </si>
+  <si>
+    <t>Marchenko</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/denys-marchenko/profil/spieler/1159511</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/denys-marchenko/1516153</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1516153</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1516153/unique-tournament/218/season/62656/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1516153/unique-tournament/218/season/62656/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -7151,8 +7664,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J340" totalsRowShown="0">
-  <autoFilter ref="A1:J340" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J366" totalsRowShown="0">
+  <autoFilter ref="A1:J366" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G302">
     <sortCondition ref="A1:A302"/>
   </sortState>
@@ -7469,10 +7982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J340"/>
+  <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17864,6 +18377,784 @@
       </c>
       <c r="J340" s="2" t="s">
         <v>2342</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D341" t="s">
+        <v>44</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>591</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D342" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" t="s">
+        <v>69</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D343" t="s">
+        <v>187</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>76</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D344" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D345" t="s">
+        <v>224</v>
+      </c>
+      <c r="E345" t="s">
+        <v>15</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D347" t="s">
+        <v>64</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D348" t="s">
+        <v>187</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>648</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D349" t="s">
+        <v>64</v>
+      </c>
+      <c r="E349" t="s">
+        <v>38</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D350" t="s">
+        <v>64</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D351" t="s">
+        <v>95</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D352" t="s">
+        <v>44</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>585</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" t="s">
+        <v>8</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>607</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D354" t="s">
+        <v>64</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="J354" s="2" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C355" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D355" t="s">
+        <v>44</v>
+      </c>
+      <c r="E355" t="s">
+        <v>8</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="J355" s="2" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>700</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D356" t="s">
+        <v>95</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D357" t="s">
+        <v>187</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="J357" s="2" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>660</v>
+      </c>
+      <c r="C358" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D358" t="s">
+        <v>49</v>
+      </c>
+      <c r="E358" t="s">
+        <v>38</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="J358" s="2" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>247</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D359" t="s">
+        <v>64</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="J359" s="2" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D360" t="s">
+        <v>38</v>
+      </c>
+      <c r="E360" t="s">
+        <v>64</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="J360" s="2" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D361" t="s">
+        <v>49</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J361" s="2" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D362" t="s">
+        <v>187</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="J362" s="2" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D363" t="s">
+        <v>38</v>
+      </c>
+      <c r="E363" t="s">
+        <v>64</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="J363" s="2" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D364" t="s">
+        <v>15</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="J364" s="2" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>530</v>
+      </c>
+      <c r="C365" t="s">
+        <v>964</v>
+      </c>
+      <c r="D365" t="s">
+        <v>64</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="J365" s="2" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D366" t="s">
+        <v>187</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="J366" s="2" t="s">
+        <v>2513</v>
       </c>
     </row>
   </sheetData>
@@ -19195,11 +20486,141 @@
     <hyperlink ref="H340" r:id="rId1324" xr:uid="{81B290E9-C3F1-4494-9959-3161A7D5AE7F}"/>
     <hyperlink ref="I340" r:id="rId1325" xr:uid="{EF4DC084-6A67-4085-93F5-7C33D3796807}"/>
     <hyperlink ref="J340" r:id="rId1326" xr:uid="{572C26F4-7F21-4599-8B22-EC6E94FE76E2}"/>
+    <hyperlink ref="F341" r:id="rId1327" xr:uid="{146C3D7D-D09B-4E01-8678-ED32089DF083}"/>
+    <hyperlink ref="G341" r:id="rId1328" xr:uid="{FDC5218E-F86E-45E2-BAAB-997DFDFD0A99}"/>
+    <hyperlink ref="H341" r:id="rId1329" xr:uid="{CC2C789A-D116-40D2-B433-0EEFBD5E9701}"/>
+    <hyperlink ref="I341" r:id="rId1330" xr:uid="{660A044D-A525-493A-A3DC-0ECC9EA5B88E}"/>
+    <hyperlink ref="J341" r:id="rId1331" xr:uid="{8958B57E-5BEC-4404-BE0F-0976ECD5611F}"/>
+    <hyperlink ref="F342" r:id="rId1332" xr:uid="{21F8FA53-85D7-4F8E-B6D1-5CD62F5E25FC}"/>
+    <hyperlink ref="G342" r:id="rId1333" xr:uid="{0D678289-E9A3-42CF-B8A8-3774241AEA9C}"/>
+    <hyperlink ref="H342" r:id="rId1334" xr:uid="{0136375C-8C6B-42D4-913D-462F5AAC4EA8}"/>
+    <hyperlink ref="I342" r:id="rId1335" xr:uid="{1F447115-01E0-4F54-BF9C-D0330474E59F}"/>
+    <hyperlink ref="J342" r:id="rId1336" xr:uid="{ADB959B9-502F-475D-87F0-CB74E3091100}"/>
+    <hyperlink ref="F343" r:id="rId1337" xr:uid="{5B74805C-A15A-465C-893F-3A0AEF94E96C}"/>
+    <hyperlink ref="G343" r:id="rId1338" xr:uid="{C4E99094-31FD-4FC5-98CE-51B752A46BFB}"/>
+    <hyperlink ref="H343" r:id="rId1339" xr:uid="{9BEB1A14-66FF-4BF8-B6F4-1779C35761BD}"/>
+    <hyperlink ref="I343" r:id="rId1340" xr:uid="{B19906E4-E5C7-4996-B095-626C6C3BBAA2}"/>
+    <hyperlink ref="J343" r:id="rId1341" xr:uid="{4F32A3E0-D8C5-4877-96BF-F2131C8252DB}"/>
+    <hyperlink ref="F344" r:id="rId1342" xr:uid="{3DB42F7C-C28A-4984-8688-5486405F03A5}"/>
+    <hyperlink ref="G344" r:id="rId1343" xr:uid="{FC20C8CB-094C-4CC9-9D6E-8B74E81D2CD9}"/>
+    <hyperlink ref="H344" r:id="rId1344" xr:uid="{1F6C4CCC-432B-46DB-9D5A-C39EB8F0ADE4}"/>
+    <hyperlink ref="I344" r:id="rId1345" xr:uid="{9189A195-48BA-4C63-BB76-7956A1B29476}"/>
+    <hyperlink ref="J344" r:id="rId1346" xr:uid="{A81CC3F5-4B4D-43AF-9616-AEB864294802}"/>
+    <hyperlink ref="F345" r:id="rId1347" xr:uid="{750BD0F7-0039-4226-95B7-7D75C6DC9187}"/>
+    <hyperlink ref="G345" r:id="rId1348" xr:uid="{3134928A-8372-4C3D-8C25-1C52C6644493}"/>
+    <hyperlink ref="H345" r:id="rId1349" xr:uid="{A9ECEB9C-51BA-4654-9B26-37DDA49685F5}"/>
+    <hyperlink ref="I345" r:id="rId1350" xr:uid="{6A8E043B-26BB-4104-8026-DE2F1C54220E}"/>
+    <hyperlink ref="J345" r:id="rId1351" xr:uid="{4D66A959-B067-4F98-A7FA-0FA047C0D0D9}"/>
+    <hyperlink ref="F346" r:id="rId1352" xr:uid="{F6B8416A-EC53-49B8-8151-A7DFA1BF4A1E}"/>
+    <hyperlink ref="G346" r:id="rId1353" xr:uid="{0322ED6A-20BE-4C03-938E-2E2F953A0C0D}"/>
+    <hyperlink ref="H346" r:id="rId1354" xr:uid="{D9330B43-4ECC-41B5-9F10-6808B504CB25}"/>
+    <hyperlink ref="I346" r:id="rId1355" xr:uid="{96A9EAA0-D499-4817-AC92-E36542AE07B3}"/>
+    <hyperlink ref="J346" r:id="rId1356" xr:uid="{F2C19F14-AC15-4835-9393-FA7B3C06567B}"/>
+    <hyperlink ref="F347" r:id="rId1357" xr:uid="{DB191819-6495-4DDB-9B62-C17CD43658A1}"/>
+    <hyperlink ref="G347" r:id="rId1358" xr:uid="{29C73C3F-7439-47A8-B503-56B1181245F8}"/>
+    <hyperlink ref="H347" r:id="rId1359" xr:uid="{EF36C57A-3CF3-4934-87AA-AB852C1349EC}"/>
+    <hyperlink ref="I347" r:id="rId1360" xr:uid="{0F8310BF-6C4E-46E8-9FA6-79BF972AF3FE}"/>
+    <hyperlink ref="J347" r:id="rId1361" xr:uid="{8CA479F8-0B20-458B-B01C-E604B61B59CB}"/>
+    <hyperlink ref="F348" r:id="rId1362" xr:uid="{879083A8-6728-4BC4-A442-5E9404990829}"/>
+    <hyperlink ref="G348" r:id="rId1363" xr:uid="{E81D8F9E-6305-4148-909F-CC23B16CD22E}"/>
+    <hyperlink ref="H348" r:id="rId1364" xr:uid="{1626CCFB-AF8A-4215-BD9B-1AB2647081E1}"/>
+    <hyperlink ref="I348" r:id="rId1365" xr:uid="{11E86CBE-8BC2-48DC-945C-7545A22C9477}"/>
+    <hyperlink ref="J348" r:id="rId1366" xr:uid="{61BB22AF-99A6-4DB7-B85A-7BAE94DFF893}"/>
+    <hyperlink ref="F349" r:id="rId1367" xr:uid="{CAF3C85D-D665-4388-ADF1-13F0D7EE8578}"/>
+    <hyperlink ref="G349" r:id="rId1368" xr:uid="{45D1EB5B-4A05-425A-835A-53B3F3C41EDC}"/>
+    <hyperlink ref="H349" r:id="rId1369" xr:uid="{D6C18DF0-C1D9-4133-84C1-E8520A511DC2}"/>
+    <hyperlink ref="I349" r:id="rId1370" xr:uid="{648D5471-25B6-4D73-9657-2994AE70883E}"/>
+    <hyperlink ref="J349" r:id="rId1371" xr:uid="{B32ABF16-33A4-4942-86D3-196B2ACCB89D}"/>
+    <hyperlink ref="F350" r:id="rId1372" xr:uid="{FF323097-48DE-44B8-A1F1-10332A9BADAA}"/>
+    <hyperlink ref="G350" r:id="rId1373" xr:uid="{CA1FF121-95D4-4752-BD21-69C8B946265C}"/>
+    <hyperlink ref="H350" r:id="rId1374" xr:uid="{8B9321E1-666A-48F7-8587-2B3A9B442E54}"/>
+    <hyperlink ref="I350" r:id="rId1375" xr:uid="{C48176F1-A04F-49BF-BE75-4106030B2C34}"/>
+    <hyperlink ref="J350" r:id="rId1376" xr:uid="{157FA14E-C8EF-4149-A655-7243010FB812}"/>
+    <hyperlink ref="F351" r:id="rId1377" xr:uid="{586DADED-96DE-4C9A-903C-28FA59A925D0}"/>
+    <hyperlink ref="G351" r:id="rId1378" xr:uid="{A366EB2F-CA0D-42C7-A600-79D2FEBC3C93}"/>
+    <hyperlink ref="I351" r:id="rId1379" xr:uid="{04BA23A6-C096-483C-BC02-02BCE4EF6519}"/>
+    <hyperlink ref="H351" r:id="rId1380" xr:uid="{D3BDDB1C-DBD3-4E92-BD0A-53F4CC4C04ED}"/>
+    <hyperlink ref="J351" r:id="rId1381" xr:uid="{A079C6DD-70CC-4548-AB82-9BA0EF936D87}"/>
+    <hyperlink ref="F352" r:id="rId1382" xr:uid="{81343FBE-E65A-422C-AF0E-4C3AE6793083}"/>
+    <hyperlink ref="G352" r:id="rId1383" xr:uid="{CBAFFB5D-760D-4AB2-B52C-A9CF8218DE40}"/>
+    <hyperlink ref="H352" r:id="rId1384" xr:uid="{EE2E839D-92A3-4F0A-8D32-3E8A81F36AA4}"/>
+    <hyperlink ref="I352" r:id="rId1385" xr:uid="{EB733B23-19CF-4EA4-8492-987EC9838D02}"/>
+    <hyperlink ref="J352" r:id="rId1386" xr:uid="{63790407-535E-4477-9C61-61EB5770D11E}"/>
+    <hyperlink ref="F353" r:id="rId1387" xr:uid="{92543641-491A-4450-974A-8072614BBD77}"/>
+    <hyperlink ref="G353" r:id="rId1388" xr:uid="{1017C65D-5952-4F94-B326-54851C5839D9}"/>
+    <hyperlink ref="H353" r:id="rId1389" xr:uid="{35631DF0-DEE2-487B-9FE3-EDF524EF985C}"/>
+    <hyperlink ref="I353" r:id="rId1390" xr:uid="{AB9A5476-6739-4481-A9DA-E8D3F8FE7E69}"/>
+    <hyperlink ref="J353" r:id="rId1391" xr:uid="{B50C27C8-3324-4539-8515-5522DB5B246D}"/>
+    <hyperlink ref="F354" r:id="rId1392" xr:uid="{C59215FE-ABB1-4C8C-A0EC-C4514078867A}"/>
+    <hyperlink ref="G354" r:id="rId1393" xr:uid="{08D02FF9-68C7-4C88-818D-043BDFE86F6E}"/>
+    <hyperlink ref="H354" r:id="rId1394" xr:uid="{AB22499D-9629-4135-9EDE-88BFAD66C765}"/>
+    <hyperlink ref="I354" r:id="rId1395" xr:uid="{F3C516D3-1FA4-4298-8EB1-316C79BF9AD7}"/>
+    <hyperlink ref="J354" r:id="rId1396" xr:uid="{CD4965E0-9CEB-4CF9-9B9A-D9D433A2FC88}"/>
+    <hyperlink ref="F355" r:id="rId1397" xr:uid="{42E0CA48-BB1A-4CCE-9478-A67D6E6C1B3E}"/>
+    <hyperlink ref="G355" r:id="rId1398" xr:uid="{673AC1E3-2B90-403C-8C78-EDE0165AB17C}"/>
+    <hyperlink ref="H355" r:id="rId1399" xr:uid="{58C1CF6E-FA47-4C01-BFD5-58FCE4BE61DF}"/>
+    <hyperlink ref="I355" r:id="rId1400" xr:uid="{B12F3145-6C88-46BF-A7CD-BB9F815301F8}"/>
+    <hyperlink ref="J355" r:id="rId1401" xr:uid="{44BC3985-8ADE-4288-8389-D0A6E6759806}"/>
+    <hyperlink ref="F356" r:id="rId1402" xr:uid="{460E1973-3D7A-49C8-8104-43A39EA7374C}"/>
+    <hyperlink ref="G356" r:id="rId1403" xr:uid="{C79FCDA9-68A5-4D56-9314-06ACAB45D77A}"/>
+    <hyperlink ref="H356" r:id="rId1404" xr:uid="{ABD50DA7-C32F-4B79-9D88-FE6E57C116FF}"/>
+    <hyperlink ref="I356" r:id="rId1405" xr:uid="{07E00231-54B4-4FEE-89CB-3AE5E19DF11D}"/>
+    <hyperlink ref="J356" r:id="rId1406" xr:uid="{73430424-1CCB-429F-B5F3-2C054FEE8CFF}"/>
+    <hyperlink ref="F357" r:id="rId1407" xr:uid="{E30AF31D-6130-40CE-BEFB-674D5D4783C0}"/>
+    <hyperlink ref="G357" r:id="rId1408" xr:uid="{04716AC3-053E-4A35-AA59-220E432F8DA4}"/>
+    <hyperlink ref="H357" r:id="rId1409" xr:uid="{82D444BA-FCFB-4062-9059-FBC157D106B6}"/>
+    <hyperlink ref="I357" r:id="rId1410" xr:uid="{56CA47D9-1316-4E16-B3E7-715367EF044C}"/>
+    <hyperlink ref="J357" r:id="rId1411" xr:uid="{1C6E2840-C475-4715-BA3D-15723C36F450}"/>
+    <hyperlink ref="F358" r:id="rId1412" xr:uid="{D38C1ADC-F7E6-48D7-B1E7-FD89577830EF}"/>
+    <hyperlink ref="G358" r:id="rId1413" xr:uid="{12FB7D4E-3B64-407F-A78E-9142A0F9A945}"/>
+    <hyperlink ref="H358" r:id="rId1414" xr:uid="{C3D40E90-EA5E-490B-8228-361AA11472ED}"/>
+    <hyperlink ref="I358" r:id="rId1415" xr:uid="{6E2559B1-9D34-41FB-9A47-82C86D1AB9A4}"/>
+    <hyperlink ref="J358" r:id="rId1416" xr:uid="{167B2436-9ABF-4C74-9A87-4CA4598F05FB}"/>
+    <hyperlink ref="F359" r:id="rId1417" xr:uid="{44EB926A-6367-4B55-8DD4-81DB7CBE5D08}"/>
+    <hyperlink ref="G359" r:id="rId1418" xr:uid="{ACB252AB-C434-4AB7-A3FE-B4958A40712D}"/>
+    <hyperlink ref="H359" r:id="rId1419" xr:uid="{F41B58EC-5F08-48D3-9258-50F5D82C3994}"/>
+    <hyperlink ref="I359" r:id="rId1420" xr:uid="{5CEFA0E9-7FF3-49B7-AB71-192B49AEAF54}"/>
+    <hyperlink ref="J359" r:id="rId1421" xr:uid="{5872E17D-3077-4333-8565-F0F5FF9A1169}"/>
+    <hyperlink ref="F360" r:id="rId1422" xr:uid="{91DC10A4-58AB-4816-9282-9424C1ED52A7}"/>
+    <hyperlink ref="G360" r:id="rId1423" xr:uid="{926BD1B5-EC5F-4E49-802E-87DC68C67BAD}"/>
+    <hyperlink ref="H360" r:id="rId1424" xr:uid="{74828C29-41EB-4835-BCCC-BB38FB0BEE7E}"/>
+    <hyperlink ref="I360" r:id="rId1425" xr:uid="{EF7B6E86-C5B6-4EB0-AC48-620C1B151E66}"/>
+    <hyperlink ref="J360" r:id="rId1426" xr:uid="{BD696699-3B5E-411F-96E6-6CBA80F63B35}"/>
+    <hyperlink ref="F361" r:id="rId1427" xr:uid="{A57F1CC3-A35A-4426-903E-E413A90C2AD5}"/>
+    <hyperlink ref="G361" r:id="rId1428" xr:uid="{E6510140-273C-4127-9586-F559FDE04BD7}"/>
+    <hyperlink ref="H361" r:id="rId1429" xr:uid="{73477446-0737-4EF4-8834-FFCE3CEC2817}"/>
+    <hyperlink ref="I361" r:id="rId1430" xr:uid="{DD72FFD4-312D-48B9-9D30-6702FBB7FB2C}"/>
+    <hyperlink ref="J361" r:id="rId1431" xr:uid="{D7B6B04B-5847-4A13-AE94-2B9BE587769C}"/>
+    <hyperlink ref="F362" r:id="rId1432" xr:uid="{5A133571-3863-4508-92CC-569FDE08E0F0}"/>
+    <hyperlink ref="G362" r:id="rId1433" xr:uid="{54A3F039-FA25-4146-9F69-BEDE9ECFAA4B}"/>
+    <hyperlink ref="H362" r:id="rId1434" xr:uid="{444665AE-FA73-4D22-938A-2F09A20F350B}"/>
+    <hyperlink ref="I362" r:id="rId1435" xr:uid="{0357CBBA-72B4-43E1-9AE0-3F6525122D7D}"/>
+    <hyperlink ref="J362" r:id="rId1436" xr:uid="{B5B674BE-ABF9-4D52-B666-3D89499FAA0C}"/>
+    <hyperlink ref="F363" r:id="rId1437" xr:uid="{65D8E38E-B3B4-4CD2-A60E-C4D416BAF732}"/>
+    <hyperlink ref="G363" r:id="rId1438" xr:uid="{FEFE22C8-3FBB-4F45-BBC9-2DEA711884F7}"/>
+    <hyperlink ref="H363" r:id="rId1439" xr:uid="{20ED6621-6416-4F01-804A-D92BB2E253CE}"/>
+    <hyperlink ref="I363" r:id="rId1440" xr:uid="{E1159693-681B-430F-9A0C-F83F55DE9E94}"/>
+    <hyperlink ref="J363" r:id="rId1441" xr:uid="{AFEDF2F9-D380-46EA-9ABD-0C90CDF27DFD}"/>
+    <hyperlink ref="F364" r:id="rId1442" xr:uid="{362A92CF-BF78-4FE0-A8D4-E5CB12CFA30F}"/>
+    <hyperlink ref="G364" r:id="rId1443" xr:uid="{A4444524-5DE3-48C8-9559-FA972332B6E9}"/>
+    <hyperlink ref="H364" r:id="rId1444" xr:uid="{8290E776-9F6C-4DFA-9BF1-A0FD25FD2598}"/>
+    <hyperlink ref="I364" r:id="rId1445" xr:uid="{0B8B9973-8FEF-4D75-A8A7-EF71690FF9ED}"/>
+    <hyperlink ref="J364" r:id="rId1446" xr:uid="{8A5BF2CD-D93E-42DF-AC55-5911A1D444EC}"/>
+    <hyperlink ref="F365" r:id="rId1447" xr:uid="{4098C36E-B3A1-4A16-83D5-F3721D3CC356}"/>
+    <hyperlink ref="G365" r:id="rId1448" xr:uid="{64537CA2-01AA-4170-A4EA-A70E633499C0}"/>
+    <hyperlink ref="H365" r:id="rId1449" xr:uid="{4D56D057-6BFF-4BE3-B590-11F5E685A459}"/>
+    <hyperlink ref="I365" r:id="rId1450" xr:uid="{1EA712E6-6D44-431F-80E0-6FEB897E07A9}"/>
+    <hyperlink ref="J365" r:id="rId1451" xr:uid="{7FEDF3B7-EDA6-4588-831D-4AFED1794B47}"/>
+    <hyperlink ref="F366" r:id="rId1452" xr:uid="{31BD11F4-3C3A-46AF-9E25-6BEBE6DA507D}"/>
+    <hyperlink ref="G366" r:id="rId1453" xr:uid="{80384F50-5E30-41D2-95E6-CA0FAD87D0AB}"/>
+    <hyperlink ref="H366" r:id="rId1454" xr:uid="{F8F934B7-5E5B-493D-87EF-F2CEB9F18E79}"/>
+    <hyperlink ref="I366" r:id="rId1455" xr:uid="{B5568C3A-9ABE-4519-8F0F-7BD0746A429F}"/>
+    <hyperlink ref="J366" r:id="rId1456" xr:uid="{5C2681B6-2168-4B10-B56F-2EDEC639E625}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1327"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1457"/>
   <tableParts count="1">
-    <tablePart r:id="rId1328"/>
+    <tablePart r:id="rId1458"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277DE55-03A0-4171-9A6C-BEB30BCB9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2645969-9079-4AD0-9AF8-7EFB5DAB4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="2515">
   <si>
     <t>id</t>
   </si>
@@ -7588,6 +7588,9 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1516153/unique-tournament/218/season/62656/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/resley-kessels/2030419</t>
   </si>
 </sst>
 </file>
@@ -7984,8 +7987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="E369" sqref="E369"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10610,6 +10613,9 @@
       </c>
       <c r="F86" s="2" t="s">
         <v>385</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>2514</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>1428</v>
@@ -20616,11 +20622,12 @@
     <hyperlink ref="H366" r:id="rId1454" xr:uid="{F8F934B7-5E5B-493D-87EF-F2CEB9F18E79}"/>
     <hyperlink ref="I366" r:id="rId1455" xr:uid="{B5568C3A-9ABE-4519-8F0F-7BD0746A429F}"/>
     <hyperlink ref="J366" r:id="rId1456" xr:uid="{5C2681B6-2168-4B10-B56F-2EDEC639E625}"/>
+    <hyperlink ref="G86" r:id="rId1457" xr:uid="{A860FADC-2AA6-410F-80E2-FB77DF39BBAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1457"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1458"/>
   <tableParts count="1">
-    <tablePart r:id="rId1458"/>
+    <tablePart r:id="rId1459"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2645969-9079-4AD0-9AF8-7EFB5DAB4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A88F508-81A7-4EA0-81C6-B8EE19173D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -7218,9 +7218,6 @@
     <t>https://www.sofascore.com/api/v1/player/1563529/unique-tournament/41/season/70853/statistics/overall</t>
   </si>
   <si>
-    <t>Samuel</t>
-  </si>
-  <si>
     <t>Samuel Friday</t>
   </si>
   <si>
@@ -7591,6 +7588,9 @@
   </si>
   <si>
     <t>https://www.sofascore.com/cs/football/player/resley-kessels/2030419</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
 </sst>
 </file>
@@ -7987,8 +7987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10615,7 +10615,7 @@
         <v>385</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>1428</v>
@@ -18602,25 +18602,25 @@
         <v>2390</v>
       </c>
       <c r="C348" t="s">
-        <v>2391</v>
+        <v>2514</v>
       </c>
       <c r="D348" t="s">
         <v>187</v>
       </c>
       <c r="F348" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G348" s="2" t="s">
         <v>2392</v>
       </c>
-      <c r="G348" s="2" t="s">
+      <c r="H348" s="2" t="s">
         <v>2393</v>
       </c>
-      <c r="H348" s="2" t="s">
+      <c r="I348" s="2" t="s">
         <v>2394</v>
       </c>
-      <c r="I348" s="2" t="s">
+      <c r="J348" s="2" t="s">
         <v>2395</v>
-      </c>
-      <c r="J348" s="2" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -18631,7 +18631,7 @@
         <v>648</v>
       </c>
       <c r="C349" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D349" t="s">
         <v>64</v>
@@ -18640,19 +18640,19 @@
         <v>38</v>
       </c>
       <c r="F349" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="G349" s="2" t="s">
         <v>2398</v>
       </c>
-      <c r="G349" s="2" t="s">
+      <c r="H349" s="2" t="s">
         <v>2399</v>
       </c>
-      <c r="H349" s="2" t="s">
+      <c r="I349" s="2" t="s">
         <v>2400</v>
       </c>
-      <c r="I349" s="2" t="s">
+      <c r="J349" s="2" t="s">
         <v>2401</v>
-      </c>
-      <c r="J349" s="2" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -18660,28 +18660,28 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C350" t="s">
         <v>2403</v>
-      </c>
-      <c r="C350" t="s">
-        <v>2404</v>
       </c>
       <c r="D350" t="s">
         <v>64</v>
       </c>
       <c r="F350" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G350" s="2" t="s">
         <v>2405</v>
       </c>
-      <c r="G350" s="2" t="s">
+      <c r="H350" s="2" t="s">
         <v>2406</v>
       </c>
-      <c r="H350" s="2" t="s">
+      <c r="I350" s="2" t="s">
         <v>2407</v>
       </c>
-      <c r="I350" s="2" t="s">
+      <c r="J350" s="2" t="s">
         <v>2408</v>
-      </c>
-      <c r="J350" s="2" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -18689,28 +18689,28 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C351" t="s">
         <v>2410</v>
-      </c>
-      <c r="C351" t="s">
-        <v>2411</v>
       </c>
       <c r="D351" t="s">
         <v>95</v>
       </c>
       <c r="F351" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G351" s="2" t="s">
         <v>2412</v>
       </c>
-      <c r="G351" s="2" t="s">
+      <c r="H351" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="I351" s="2" t="s">
         <v>2413</v>
       </c>
-      <c r="H351" s="2" t="s">
+      <c r="J351" s="2" t="s">
         <v>2415</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>2414</v>
-      </c>
-      <c r="J351" s="2" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -18718,28 +18718,28 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C352" t="s">
         <v>2417</v>
-      </c>
-      <c r="C352" t="s">
-        <v>2418</v>
       </c>
       <c r="D352" t="s">
         <v>44</v>
       </c>
       <c r="F352" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G352" s="2" t="s">
         <v>2419</v>
       </c>
-      <c r="G352" s="2" t="s">
+      <c r="H352" s="2" t="s">
         <v>2420</v>
       </c>
-      <c r="H352" s="2" t="s">
+      <c r="I352" s="2" t="s">
         <v>2421</v>
       </c>
-      <c r="I352" s="2" t="s">
+      <c r="J352" s="2" t="s">
         <v>2422</v>
-      </c>
-      <c r="J352" s="2" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -18750,7 +18750,7 @@
         <v>585</v>
       </c>
       <c r="C353" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D353" t="s">
         <v>69</v>
@@ -18759,19 +18759,19 @@
         <v>8</v>
       </c>
       <c r="F353" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G353" s="2" t="s">
         <v>2425</v>
       </c>
-      <c r="G353" s="2" t="s">
+      <c r="H353" s="2" t="s">
         <v>2426</v>
       </c>
-      <c r="H353" s="2" t="s">
+      <c r="I353" s="2" t="s">
         <v>2427</v>
       </c>
-      <c r="I353" s="2" t="s">
+      <c r="J353" s="2" t="s">
         <v>2428</v>
-      </c>
-      <c r="J353" s="2" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -18782,25 +18782,25 @@
         <v>607</v>
       </c>
       <c r="C354" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D354" t="s">
         <v>64</v>
       </c>
       <c r="F354" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G354" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="G354" s="2" t="s">
+      <c r="H354" s="2" t="s">
         <v>2432</v>
       </c>
-      <c r="H354" s="2" t="s">
+      <c r="I354" s="2" t="s">
         <v>2433</v>
       </c>
-      <c r="I354" s="2" t="s">
+      <c r="J354" s="2" t="s">
         <v>2434</v>
-      </c>
-      <c r="J354" s="2" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -18808,10 +18808,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C355" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D355" t="s">
         <v>44</v>
@@ -18820,19 +18820,19 @@
         <v>8</v>
       </c>
       <c r="F355" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G355" s="2" t="s">
         <v>2438</v>
       </c>
-      <c r="G355" s="2" t="s">
+      <c r="H355" s="2" t="s">
         <v>2439</v>
       </c>
-      <c r="H355" s="2" t="s">
+      <c r="I355" s="2" t="s">
         <v>2440</v>
       </c>
-      <c r="I355" s="2" t="s">
+      <c r="J355" s="2" t="s">
         <v>2441</v>
-      </c>
-      <c r="J355" s="2" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -18843,25 +18843,25 @@
         <v>700</v>
       </c>
       <c r="C356" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D356" t="s">
         <v>95</v>
       </c>
       <c r="F356" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>2444</v>
       </c>
-      <c r="G356" s="2" t="s">
+      <c r="H356" s="2" t="s">
         <v>2445</v>
       </c>
-      <c r="H356" s="2" t="s">
+      <c r="I356" s="2" t="s">
         <v>2446</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="2" t="s">
         <v>2447</v>
-      </c>
-      <c r="J356" s="2" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -18869,28 +18869,28 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C357" t="s">
         <v>2449</v>
-      </c>
-      <c r="C357" t="s">
-        <v>2450</v>
       </c>
       <c r="D357" t="s">
         <v>187</v>
       </c>
       <c r="F357" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G357" s="2" t="s">
         <v>2451</v>
       </c>
-      <c r="G357" s="2" t="s">
+      <c r="H357" s="2" t="s">
         <v>2452</v>
       </c>
-      <c r="H357" s="2" t="s">
+      <c r="I357" s="2" t="s">
         <v>2453</v>
       </c>
-      <c r="I357" s="2" t="s">
+      <c r="J357" s="2" t="s">
         <v>2454</v>
-      </c>
-      <c r="J357" s="2" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -18901,7 +18901,7 @@
         <v>660</v>
       </c>
       <c r="C358" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D358" t="s">
         <v>49</v>
@@ -18910,19 +18910,19 @@
         <v>38</v>
       </c>
       <c r="F358" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G358" s="2" t="s">
         <v>2457</v>
       </c>
-      <c r="G358" s="2" t="s">
+      <c r="H358" s="2" t="s">
         <v>2458</v>
       </c>
-      <c r="H358" s="2" t="s">
+      <c r="I358" s="2" t="s">
         <v>2459</v>
       </c>
-      <c r="I358" s="2" t="s">
+      <c r="J358" s="2" t="s">
         <v>2460</v>
-      </c>
-      <c r="J358" s="2" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -18933,25 +18933,25 @@
         <v>247</v>
       </c>
       <c r="C359" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D359" t="s">
         <v>64</v>
       </c>
       <c r="F359" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>2463</v>
       </c>
-      <c r="G359" s="2" t="s">
+      <c r="H359" s="2" t="s">
         <v>2464</v>
       </c>
-      <c r="H359" s="2" t="s">
+      <c r="I359" s="2" t="s">
         <v>2465</v>
       </c>
-      <c r="I359" s="2" t="s">
+      <c r="J359" s="2" t="s">
         <v>2466</v>
-      </c>
-      <c r="J359" s="2" t="s">
-        <v>2467</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -18959,10 +18959,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C360" t="s">
         <v>2468</v>
-      </c>
-      <c r="C360" t="s">
-        <v>2469</v>
       </c>
       <c r="D360" t="s">
         <v>38</v>
@@ -18971,19 +18971,19 @@
         <v>64</v>
       </c>
       <c r="F360" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="G360" s="2" t="s">
         <v>2470</v>
       </c>
-      <c r="G360" s="2" t="s">
+      <c r="H360" s="2" t="s">
         <v>2471</v>
       </c>
-      <c r="H360" s="2" t="s">
+      <c r="I360" s="2" t="s">
         <v>2472</v>
       </c>
-      <c r="I360" s="2" t="s">
+      <c r="J360" s="2" t="s">
         <v>2473</v>
-      </c>
-      <c r="J360" s="2" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -18994,25 +18994,25 @@
         <v>1192</v>
       </c>
       <c r="C361" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D361" t="s">
         <v>49</v>
       </c>
       <c r="F361" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G361" s="2" t="s">
         <v>2476</v>
       </c>
-      <c r="G361" s="2" t="s">
+      <c r="H361" s="2" t="s">
         <v>2477</v>
       </c>
-      <c r="H361" s="2" t="s">
+      <c r="I361" s="2" t="s">
         <v>2478</v>
       </c>
-      <c r="I361" s="2" t="s">
+      <c r="J361" s="2" t="s">
         <v>2479</v>
-      </c>
-      <c r="J361" s="2" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -19020,28 +19020,28 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C362" t="s">
         <v>2481</v>
-      </c>
-      <c r="C362" t="s">
-        <v>2482</v>
       </c>
       <c r="D362" t="s">
         <v>187</v>
       </c>
       <c r="F362" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G362" s="2" t="s">
         <v>2483</v>
       </c>
-      <c r="G362" s="2" t="s">
+      <c r="H362" s="2" t="s">
         <v>2484</v>
       </c>
-      <c r="H362" s="2" t="s">
+      <c r="I362" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="I362" s="2" t="s">
+      <c r="J362" s="2" t="s">
         <v>2486</v>
-      </c>
-      <c r="J362" s="2" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -19049,10 +19049,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C363" t="s">
         <v>2488</v>
-      </c>
-      <c r="C363" t="s">
-        <v>2489</v>
       </c>
       <c r="D363" t="s">
         <v>38</v>
@@ -19061,19 +19061,19 @@
         <v>64</v>
       </c>
       <c r="F363" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>2490</v>
       </c>
-      <c r="G363" s="2" t="s">
+      <c r="H363" s="2" t="s">
         <v>2491</v>
       </c>
-      <c r="H363" s="2" t="s">
+      <c r="I363" s="2" t="s">
         <v>2492</v>
       </c>
-      <c r="I363" s="2" t="s">
+      <c r="J363" s="2" t="s">
         <v>2493</v>
-      </c>
-      <c r="J363" s="2" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -19081,28 +19081,28 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C364" t="s">
         <v>2495</v>
-      </c>
-      <c r="C364" t="s">
-        <v>2496</v>
       </c>
       <c r="D364" t="s">
         <v>15</v>
       </c>
       <c r="F364" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G364" s="2" t="s">
         <v>2497</v>
       </c>
-      <c r="G364" s="2" t="s">
+      <c r="H364" s="2" t="s">
         <v>2498</v>
       </c>
-      <c r="H364" s="2" t="s">
+      <c r="I364" s="2" t="s">
         <v>2499</v>
       </c>
-      <c r="I364" s="2" t="s">
+      <c r="J364" s="2" t="s">
         <v>2500</v>
-      </c>
-      <c r="J364" s="2" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -19119,19 +19119,19 @@
         <v>64</v>
       </c>
       <c r="F365" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G365" s="2" t="s">
         <v>2502</v>
       </c>
-      <c r="G365" s="2" t="s">
+      <c r="H365" s="2" t="s">
         <v>2503</v>
       </c>
-      <c r="H365" s="2" t="s">
+      <c r="I365" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="I365" s="2" t="s">
+      <c r="J365" s="2" t="s">
         <v>2505</v>
-      </c>
-      <c r="J365" s="2" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -19139,28 +19139,28 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C366" t="s">
         <v>2507</v>
-      </c>
-      <c r="C366" t="s">
-        <v>2508</v>
       </c>
       <c r="D366" t="s">
         <v>187</v>
       </c>
       <c r="F366" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G366" s="2" t="s">
         <v>2509</v>
       </c>
-      <c r="G366" s="2" t="s">
+      <c r="H366" s="2" t="s">
         <v>2510</v>
       </c>
-      <c r="H366" s="2" t="s">
+      <c r="I366" s="2" t="s">
         <v>2511</v>
       </c>
-      <c r="I366" s="2" t="s">
+      <c r="J366" s="2" t="s">
         <v>2512</v>
-      </c>
-      <c r="J366" s="2" t="s">
-        <v>2513</v>
       </c>
     </row>
   </sheetData>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A88F508-81A7-4EA0-81C6-B8EE19173D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCC76F-E1AE-4E9E-A878-ACE1A1F2578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="2515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="2516">
   <si>
     <t>id</t>
   </si>
@@ -7591,6 +7591,9 @@
   </si>
   <si>
     <t>James</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/yirajang-alasana/1804850</t>
   </si>
 </sst>
 </file>
@@ -7987,8 +7990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C349" sqref="C349"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="G300" sqref="G300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17122,6 +17125,9 @@
       </c>
       <c r="F299" s="2" t="s">
         <v>1226</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>2515</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>1624</v>
@@ -20623,11 +20629,12 @@
     <hyperlink ref="I366" r:id="rId1455" xr:uid="{B5568C3A-9ABE-4519-8F0F-7BD0746A429F}"/>
     <hyperlink ref="J366" r:id="rId1456" xr:uid="{5C2681B6-2168-4B10-B56F-2EDEC639E625}"/>
     <hyperlink ref="G86" r:id="rId1457" xr:uid="{A860FADC-2AA6-410F-80E2-FB77DF39BBAD}"/>
+    <hyperlink ref="G299" r:id="rId1458" xr:uid="{8A841F73-B635-497F-A66B-CE933744436B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1458"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1459"/>
   <tableParts count="1">
-    <tablePart r:id="rId1459"/>
+    <tablePart r:id="rId1460"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCC76F-E1AE-4E9E-A878-ACE1A1F2578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFA8E0-D158-40E8-9ADB-086EE0843377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="2516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="2650">
   <si>
     <t>id</t>
   </si>
@@ -7594,6 +7594,408 @@
   </si>
   <si>
     <t>https://www.sofascore.com/cs/football/player/yirajang-alasana/1804850</t>
+  </si>
+  <si>
+    <t>Eriksson</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/simon-eriksson/profil/spieler/1088712</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/simon-eriksson/1472960</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1472960/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1472960</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1472960/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Rachide</t>
+  </si>
+  <si>
+    <t>Gnanou</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/rachide-gnanou/profil/spieler/1370276</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/rachide-gnanou/2045370</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2045370</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2045370/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2045370/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>Purosalo</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/valentin-purosalo/profil/spieler/741579</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/purosalo-valentin/1175816</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1175816</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1175816/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1175816/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Lasse</t>
+  </si>
+  <si>
+    <t>Flø</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/lasse-flo/profil/spieler/802547</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/lasse-flo/1496001</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1496001</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1496001/unique-tournament/39/season/61326/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1496001/unique-tournament/39/season/61326/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bence</t>
+  </si>
+  <si>
+    <t>Szakos</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/bence-szakos/profil/spieler/1350521</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bence-szakos/1896609</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1896609</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1896609/unique-tournament/187/season/61714/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1896609/unique-tournament/187/season/61714/statistics/overall</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Nielsen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/julius-nielsen/profil/spieler/1003295</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/julius-nielsen/1426595</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426595</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426595/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426595/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Eemil</t>
+  </si>
+  <si>
+    <t>Toivonen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/eemil-toivonen/profil/spieler/1102180</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/eemil-toivonen/1465814</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1465814</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1465814/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1465814/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Dorobanțu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/andrei-dorobantu/profil/spieler/940366</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/andrei-dorobantu/1890319</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890319</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890319/unique-tournament/152/season/77312/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890319/unique-tournament/152/season/77312/statistics/overall</t>
+  </si>
+  <si>
+    <t>Wilfred George</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/wilfred-george-igor/profil/spieler/1167645</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/igor-wilfred-george/1521952</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1521952</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1521952/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1521952/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Langhoff</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/peter-langhoff/profil/spieler/925827</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/langhoff-peter/1548134</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1548134</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1548134/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1548134/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Haidara</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mohamed-cherif-haidara/profil/spieler/1179260</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mohamed-haidara/1888940</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1888940</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1888940/unique-tournament/39/season/61326/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1888940/unique-tournament/39/season/61326/statistics/overall</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Söderbäck</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/marius-soderback/profil/spieler/909689</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/marius-soderback/1200811</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1200811</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1200811/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1200811/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Lauri</t>
+  </si>
+  <si>
+    <t>Laine</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/lauri-laine/profil/spieler/741546</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/lauri-laine/1149151</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149151</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149151/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149151/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Basceanu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/luca-basceanu/profil/spieler/937066</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/luca-basceanu/1426622</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426622</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426622/unique-tournament/258/season/74810/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426622/unique-tournament/258/season/74810/statistics/overall</t>
+  </si>
+  <si>
+    <t>Simmelhack</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/alexander-simmelhack/profil/spieler/935358</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/simmelhack-alexander/1186047</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1186047</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1186047/unique-tournament/2084/season/75672/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1186047/unique-tournament/2084/season/75672/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ejike</t>
+  </si>
+  <si>
+    <t>Opara</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ejike-opara/profil/spieler/1184662</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ejike-opara/1617764</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1617764</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1617764/unique-tournament/210/season/61448/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1617764/unique-tournament/210/season/61448/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kaius</t>
+  </si>
+  <si>
+    <t>Simojoki</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kaius-simojoki/profil/spieler/1015336</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kaius-simojoki/1416556</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1416556</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1416556/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1416556/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Áki</t>
+  </si>
+  <si>
+    <t>Samuelsen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/aki-samuelsen/profil/spieler/668731</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/aki-samuelsen/1000261</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1000261</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1000261/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1000261/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Yovkov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/stanislav-yovkov/profil/spieler/1254223</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/stanislav-yovkov/1596529</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596529</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596529/unique-tournament/247/season/61477/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596529/unique-tournament/247/season/61477/statistics/overall</t>
+  </si>
+  <si>
+    <t>Hagen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/oliver-jordan-hagen/profil/spieler/923531</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/oliver-jordan-hagen/1467868</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1467868</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1467868/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1467868/unique-tournament/22/season/70186/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -7670,8 +8072,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J366" totalsRowShown="0">
-  <autoFilter ref="A1:J366" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J386" totalsRowShown="0">
+  <autoFilter ref="A1:J386" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G302">
     <sortCondition ref="A1:A302"/>
   </sortState>
@@ -7988,10 +8390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J366"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="G300" sqref="G300"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19167,6 +19569,598 @@
       </c>
       <c r="J366" s="2" t="s">
         <v>2512</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D367" t="s">
+        <v>187</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="J367" s="2" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C368" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D368" t="s">
+        <v>49</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="J368" s="2" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D369" t="s">
+        <v>95</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D370" t="s">
+        <v>95</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="J370" s="2" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D371" t="s">
+        <v>95</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="J371" s="2" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="J372" s="2" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D373" t="s">
+        <v>95</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="J373" s="2" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D374" t="s">
+        <v>95</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="H374" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="J374" s="2" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" t="s">
+        <v>38</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H375" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="J375" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" t="s">
+        <v>38</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J376" s="2" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" t="s">
+        <v>38</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I377" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="J377" s="2" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D378" t="s">
+        <v>69</v>
+      </c>
+      <c r="E378" t="s">
+        <v>224</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="J378" s="2" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D379" t="s">
+        <v>69</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="J379" s="2" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>499</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D380" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="J380" s="2" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D381" t="s">
+        <v>15</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="J381" s="2" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D382" t="s">
+        <v>15</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J382" s="2" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D383" t="s">
+        <v>44</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H383" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="J383" s="2" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D384" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="J384" s="2" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D385" t="s">
+        <v>44</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="J385" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>194</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D386" t="s">
+        <v>69</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="J386" s="2" t="s">
+        <v>2649</v>
       </c>
     </row>
   </sheetData>
@@ -20630,11 +21624,111 @@
     <hyperlink ref="J366" r:id="rId1456" xr:uid="{5C2681B6-2168-4B10-B56F-2EDEC639E625}"/>
     <hyperlink ref="G86" r:id="rId1457" xr:uid="{A860FADC-2AA6-410F-80E2-FB77DF39BBAD}"/>
     <hyperlink ref="G299" r:id="rId1458" xr:uid="{8A841F73-B635-497F-A66B-CE933744436B}"/>
+    <hyperlink ref="F367" r:id="rId1459" xr:uid="{183028FC-790A-444C-8782-C430EAD41FBC}"/>
+    <hyperlink ref="G367" r:id="rId1460" xr:uid="{AC3E11CC-9B5E-4B23-A069-4C413F766004}"/>
+    <hyperlink ref="I367" r:id="rId1461" xr:uid="{D26EE1DA-2A7C-4F8A-96C9-1315101E4815}"/>
+    <hyperlink ref="H367" r:id="rId1462" xr:uid="{1D73C390-F3A0-49F9-9A84-D9808B4E51FB}"/>
+    <hyperlink ref="J367" r:id="rId1463" xr:uid="{16D36F39-E5A1-4B1B-B9D5-A06243D25FBA}"/>
+    <hyperlink ref="F368" r:id="rId1464" xr:uid="{B96ADCB1-9F2F-4088-9A15-720E1C057228}"/>
+    <hyperlink ref="G368" r:id="rId1465" xr:uid="{3B196D0E-0AB7-49C8-9B82-8398BD6E43C5}"/>
+    <hyperlink ref="H368" r:id="rId1466" xr:uid="{FEE8A0E2-FBA6-44B9-B38D-7BC4DF71B817}"/>
+    <hyperlink ref="I368" r:id="rId1467" xr:uid="{97BF7C10-9712-4191-8382-D4C7ABD2A82F}"/>
+    <hyperlink ref="J368" r:id="rId1468" xr:uid="{E983983F-AED6-4208-929D-9CC6242637C6}"/>
+    <hyperlink ref="F369" r:id="rId1469" xr:uid="{AB45ADCD-0EF2-4641-A3FD-D21F47659E51}"/>
+    <hyperlink ref="G369" r:id="rId1470" xr:uid="{3D06D7E9-8A99-49B8-BA90-74D7C20E3749}"/>
+    <hyperlink ref="H369" r:id="rId1471" xr:uid="{9751A50A-1A0A-498F-89F3-C2FDE8539746}"/>
+    <hyperlink ref="I369" r:id="rId1472" xr:uid="{FA9078C2-34A3-4D1F-8D15-AEEC57A55A16}"/>
+    <hyperlink ref="J369" r:id="rId1473" xr:uid="{A68D6DC1-E8C2-4953-85AD-39CC22DB6D82}"/>
+    <hyperlink ref="F370" r:id="rId1474" xr:uid="{13907297-673A-4D53-A00D-91DC7BB93A8C}"/>
+    <hyperlink ref="G370" r:id="rId1475" xr:uid="{A86FBB18-DDD4-4D8F-B616-D4C77D8B12BA}"/>
+    <hyperlink ref="H370" r:id="rId1476" xr:uid="{ED60E192-02F4-4FFA-AECD-F79137AC4AC9}"/>
+    <hyperlink ref="I370" r:id="rId1477" xr:uid="{DF3BB3FE-510F-45A3-BC8F-678491F1838D}"/>
+    <hyperlink ref="J370" r:id="rId1478" xr:uid="{1535F1CE-B284-4E84-8C6F-518369416E39}"/>
+    <hyperlink ref="F371" r:id="rId1479" xr:uid="{C4BA5B78-B1BE-4311-8F68-E66A53D1842E}"/>
+    <hyperlink ref="G371" r:id="rId1480" xr:uid="{7FD5B296-F2F9-4805-8ABE-7BB35FD9D798}"/>
+    <hyperlink ref="H371" r:id="rId1481" xr:uid="{FB93A1AE-7787-4DE2-92FE-576850814389}"/>
+    <hyperlink ref="I371" r:id="rId1482" xr:uid="{23D49FB0-1D86-46EF-B1CB-4091C8E71046}"/>
+    <hyperlink ref="J371" r:id="rId1483" xr:uid="{BC34C7A3-7461-4E90-B71E-0D2EB94A07E9}"/>
+    <hyperlink ref="F372" r:id="rId1484" xr:uid="{502ED552-6A70-4E05-9B78-8BB7C40D79B7}"/>
+    <hyperlink ref="G372" r:id="rId1485" xr:uid="{2C81645B-01BB-4B38-BD54-3679FC264AE0}"/>
+    <hyperlink ref="H372" r:id="rId1486" xr:uid="{44BC8DE8-479E-4D83-BB3E-FF64119E82E0}"/>
+    <hyperlink ref="I372" r:id="rId1487" xr:uid="{409E433D-17A1-49B1-8499-FBF43888B563}"/>
+    <hyperlink ref="J372" r:id="rId1488" xr:uid="{DD1513FE-97EF-48DC-B660-9E52837D6444}"/>
+    <hyperlink ref="F373" r:id="rId1489" xr:uid="{A2876857-2B07-4720-B579-8A4E20AD4C31}"/>
+    <hyperlink ref="G373" r:id="rId1490" xr:uid="{CD90B99A-7B05-4CE0-9F4C-84B2EE8BC74C}"/>
+    <hyperlink ref="H373" r:id="rId1491" xr:uid="{A0D7F291-6DEE-44D7-B945-D6C0CF188FF6}"/>
+    <hyperlink ref="I373" r:id="rId1492" xr:uid="{477C354B-B13D-4FE8-A060-DD15CA8F1A71}"/>
+    <hyperlink ref="J373" r:id="rId1493" xr:uid="{D546856F-DA64-4193-A2C5-C02FDFE36EB3}"/>
+    <hyperlink ref="F374" r:id="rId1494" xr:uid="{E2EA7897-FE25-4134-83AC-ABA82A029600}"/>
+    <hyperlink ref="G374" r:id="rId1495" xr:uid="{0371E68A-EFD7-4CBD-ABBF-793B9D3B6282}"/>
+    <hyperlink ref="H374" r:id="rId1496" xr:uid="{9532103B-841B-4B76-B936-57F5A4784659}"/>
+    <hyperlink ref="I374" r:id="rId1497" xr:uid="{14B1CEF3-336D-4B7E-A246-3A95002A666C}"/>
+    <hyperlink ref="J374" r:id="rId1498" xr:uid="{F2F89E69-FA39-4051-B9D3-B30FFE5FC835}"/>
+    <hyperlink ref="F375" r:id="rId1499" xr:uid="{AC4201E5-964F-4E41-BADD-DE3C62E7150C}"/>
+    <hyperlink ref="G375" r:id="rId1500" xr:uid="{560AA62A-1D4C-4E5C-A5A9-C334FA87FF45}"/>
+    <hyperlink ref="H375" r:id="rId1501" xr:uid="{6423BBA3-E72A-44EF-ABD7-9F4657D29BA1}"/>
+    <hyperlink ref="I375" r:id="rId1502" xr:uid="{78C89169-4433-49E6-A9B9-41CCE8BAA68F}"/>
+    <hyperlink ref="J375" r:id="rId1503" xr:uid="{CFC851E8-F993-46D3-B6AC-A3F95D61D901}"/>
+    <hyperlink ref="F376" r:id="rId1504" xr:uid="{6F4B009A-1C7C-44BB-8AF3-F31511E4B9A7}"/>
+    <hyperlink ref="G376" r:id="rId1505" xr:uid="{37AF9731-8FCA-4F1A-BA3B-0077877F1030}"/>
+    <hyperlink ref="H376" r:id="rId1506" xr:uid="{7B97644E-0D27-4DFD-9F79-157C4F84846C}"/>
+    <hyperlink ref="I376" r:id="rId1507" xr:uid="{55750FDB-195C-4209-8262-74E62FEEE377}"/>
+    <hyperlink ref="J376" r:id="rId1508" xr:uid="{02B9EF8D-2E4B-4BAF-9861-61023D803ABE}"/>
+    <hyperlink ref="F377" r:id="rId1509" xr:uid="{6EB64C34-02F4-4CAB-96AC-364C9523614A}"/>
+    <hyperlink ref="G377" r:id="rId1510" xr:uid="{5BC77779-F22E-427D-AB5A-681762574E00}"/>
+    <hyperlink ref="H377" r:id="rId1511" xr:uid="{17EEC316-6CDF-48B6-A29C-A541784EF18A}"/>
+    <hyperlink ref="I377" r:id="rId1512" xr:uid="{D71C9032-B682-4428-B97A-E84BA04C882B}"/>
+    <hyperlink ref="J377" r:id="rId1513" xr:uid="{F5183ED3-9B6B-4B92-8D3B-F2439C77FABD}"/>
+    <hyperlink ref="F378" r:id="rId1514" xr:uid="{DD97752D-4022-44D6-B36A-23B6D8BF3865}"/>
+    <hyperlink ref="G378" r:id="rId1515" xr:uid="{17AB6675-94DF-493D-B3B9-8406072AACCA}"/>
+    <hyperlink ref="H378" r:id="rId1516" xr:uid="{F0B67F85-EF85-439B-8486-4B18E5D4473C}"/>
+    <hyperlink ref="I378" r:id="rId1517" xr:uid="{860380D5-70B4-4EA6-B6B6-725F1F6A51FC}"/>
+    <hyperlink ref="J378" r:id="rId1518" xr:uid="{BD5E03E2-D9B6-4A60-88E3-51F0CFF9B0E0}"/>
+    <hyperlink ref="F379" r:id="rId1519" xr:uid="{52D7CD22-8AC0-47F6-A298-5A6886952159}"/>
+    <hyperlink ref="G379" r:id="rId1520" xr:uid="{BA53A26F-342E-4960-BB0B-FF705C1B7033}"/>
+    <hyperlink ref="H379" r:id="rId1521" xr:uid="{73B6EBB9-4932-44FF-8729-D594BED183B2}"/>
+    <hyperlink ref="I379" r:id="rId1522" xr:uid="{AC866113-3383-4BD3-9F48-A4C8F6985ED1}"/>
+    <hyperlink ref="J379" r:id="rId1523" xr:uid="{A78F3641-4061-42AE-9ED5-5495A9DA7E49}"/>
+    <hyperlink ref="F380" r:id="rId1524" xr:uid="{365057D4-2A34-4A3E-8A7F-94B9F9CDC3D6}"/>
+    <hyperlink ref="G380" r:id="rId1525" xr:uid="{FFC72F6A-AB2C-4105-B8B3-3B8CDCAE4C26}"/>
+    <hyperlink ref="H380" r:id="rId1526" xr:uid="{1D63FB2E-C6F3-4FE4-B8E1-1E84723C8CBD}"/>
+    <hyperlink ref="I380" r:id="rId1527" xr:uid="{021FF603-7A00-4581-ABC0-209E8B8F801E}"/>
+    <hyperlink ref="J380" r:id="rId1528" xr:uid="{6BAB3F3C-5B30-4949-946D-D16EEF5F86D3}"/>
+    <hyperlink ref="F381" r:id="rId1529" xr:uid="{8B74CE73-E4EE-4E29-A442-B95BE3A42258}"/>
+    <hyperlink ref="G381" r:id="rId1530" xr:uid="{F21977A4-BDDE-4642-8B09-5365A93D5CCD}"/>
+    <hyperlink ref="H381" r:id="rId1531" xr:uid="{3767FDAC-E2A8-431A-9859-FEAF31B2703D}"/>
+    <hyperlink ref="I381" r:id="rId1532" xr:uid="{6E30F300-2AEC-44A8-ABF2-FBF3F7C2B82F}"/>
+    <hyperlink ref="J381" r:id="rId1533" xr:uid="{038EA53D-F776-4601-BAE9-160252020071}"/>
+    <hyperlink ref="F382" r:id="rId1534" xr:uid="{113A5CB2-5BED-4328-9E63-E6A6838ABDEA}"/>
+    <hyperlink ref="G382" r:id="rId1535" xr:uid="{1926BF1B-EE78-4947-B98B-E67F0181D5E8}"/>
+    <hyperlink ref="H382" r:id="rId1536" xr:uid="{9699A348-7699-424D-9225-55C91C8C3325}"/>
+    <hyperlink ref="I382" r:id="rId1537" xr:uid="{B96854D0-D22B-4E4D-B026-D20D288E5DF7}"/>
+    <hyperlink ref="J382" r:id="rId1538" xr:uid="{C1ED6627-B75D-463D-A569-45EA09C16CBD}"/>
+    <hyperlink ref="F383" r:id="rId1539" xr:uid="{083B7D20-275F-454F-8DA4-EB5452247228}"/>
+    <hyperlink ref="G383" r:id="rId1540" xr:uid="{7F4252B2-35CB-4B6C-8077-53DD8C5D65A4}"/>
+    <hyperlink ref="H383" r:id="rId1541" xr:uid="{8C8D41E5-F63A-4B7E-A2E8-26EFA801E212}"/>
+    <hyperlink ref="I383" r:id="rId1542" xr:uid="{32943F0C-D86D-4F92-BE2F-D81F0D171C8E}"/>
+    <hyperlink ref="J383" r:id="rId1543" xr:uid="{6F6BBBCE-87AC-497E-8926-A11F71FBD857}"/>
+    <hyperlink ref="F384" r:id="rId1544" xr:uid="{2A3827DC-5C52-49C7-A758-97D75425C459}"/>
+    <hyperlink ref="G384" r:id="rId1545" xr:uid="{0AF23C53-35A7-416E-B5EE-5B190FC25180}"/>
+    <hyperlink ref="H384" r:id="rId1546" xr:uid="{511526EB-23D6-4405-B8A9-B38DE20900E8}"/>
+    <hyperlink ref="I384" r:id="rId1547" xr:uid="{F32678E9-6501-4293-A2CB-CBFC429D6590}"/>
+    <hyperlink ref="J384" r:id="rId1548" xr:uid="{BDF42605-D4D9-45CB-8F1B-C404A521AF5E}"/>
+    <hyperlink ref="F385" r:id="rId1549" xr:uid="{9588F379-2821-481C-960F-507C6BC538D5}"/>
+    <hyperlink ref="G385" r:id="rId1550" xr:uid="{918EC857-2EE3-4FF2-9377-4C6E1DE6A505}"/>
+    <hyperlink ref="H385" r:id="rId1551" xr:uid="{BCE5EFED-7888-4DAB-9B86-5BCECD928B6E}"/>
+    <hyperlink ref="I385" r:id="rId1552" xr:uid="{5EDE5E6E-4B87-489E-8998-542BF1EE9547}"/>
+    <hyperlink ref="J385" r:id="rId1553" xr:uid="{C3A811AB-402C-45BD-95D1-77E28EA7BCB9}"/>
+    <hyperlink ref="F386" r:id="rId1554" xr:uid="{A6E2E570-4F0E-4523-8807-E2F12761493F}"/>
+    <hyperlink ref="G386" r:id="rId1555" xr:uid="{6862CC05-5159-4452-A790-CB9527FA998F}"/>
+    <hyperlink ref="H386" r:id="rId1556" xr:uid="{F2093DF3-5046-4249-9A27-30B3EE671F46}"/>
+    <hyperlink ref="I386" r:id="rId1557" xr:uid="{913EA409-13B9-4B51-8738-64EA0528DE13}"/>
+    <hyperlink ref="J386" r:id="rId1558" xr:uid="{376309B9-283B-4836-A38E-585FDCB0DD4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1459"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1559"/>
   <tableParts count="1">
-    <tablePart r:id="rId1460"/>
+    <tablePart r:id="rId1560"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFA8E0-D158-40E8-9ADB-086EE0843377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399BBED9-C004-495F-82BC-2859A629CB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="2650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="2687">
   <si>
     <t>id</t>
   </si>
@@ -7996,6 +7996,117 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1467868/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jovan</t>
+  </si>
+  <si>
+    <t>Živković</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jovan-zivkovic/profil/spieler/888286</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jovan-zivkovic/1423470</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423470</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423470/unique-tournament/2132/season/66456/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423470/unique-tournament/2132/season/66456/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Adewale</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ibrahim-adewale/profil/spieler/1384865</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ibrahim-adewale/2083332</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2083332</t>
+  </si>
+  <si>
+    <t>Tómas Orri</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tomas-orri-robertsson/profil/spieler/868161</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tomas-orri-robertsson/1104797</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1104797</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1104797/unique-tournament/188/season/70501/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1104797/unique-tournament/188/season/70501/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bronner</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/axel-bronner/profil/spieler/1172430</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/axel-bronner/1977233</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1977233</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1977233/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1977233/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Barić</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ivan-baric/1596088</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ivan-baric/profil/spieler/1172610</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596088</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596088/unique-tournament/19318/season/64720/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596088/unique-tournament/19318/season/64720/statistics/overall</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Ayuma</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/israel-isaac-ayuma/profil/spieler/1129892</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/israel-ayuma/1527139</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1527139</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1527139/unique-tournament/170/season/61243/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1527139/unique-tournament/170/season/61243/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8072,8 +8183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J386" totalsRowShown="0">
-  <autoFilter ref="A1:J386" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J392" totalsRowShown="0">
+  <autoFilter ref="A1:J392" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G302">
     <sortCondition ref="A1:A302"/>
   </sortState>
@@ -8390,10 +8501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:J392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="D388" sqref="D388"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="G400" sqref="G400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20161,6 +20272,182 @@
       </c>
       <c r="J386" s="2" t="s">
         <v>2649</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D387" t="s">
+        <v>8</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="J387" s="2" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D388" t="s">
+        <v>69</v>
+      </c>
+      <c r="E388" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I388" s="2"/>
+      <c r="J388" s="2"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C389" t="s">
+        <v>258</v>
+      </c>
+      <c r="D389" t="s">
+        <v>64</v>
+      </c>
+      <c r="E389" t="s">
+        <v>224</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="J389" s="2" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D390" t="s">
+        <v>64</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="J390" s="2" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D391" t="s">
+        <v>15</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J391" s="2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D392" t="s">
+        <v>64</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="J392" s="2" t="s">
+        <v>2686</v>
       </c>
     </row>
   </sheetData>
@@ -21724,11 +22011,39 @@
     <hyperlink ref="H386" r:id="rId1556" xr:uid="{F2093DF3-5046-4249-9A27-30B3EE671F46}"/>
     <hyperlink ref="I386" r:id="rId1557" xr:uid="{913EA409-13B9-4B51-8738-64EA0528DE13}"/>
     <hyperlink ref="J386" r:id="rId1558" xr:uid="{376309B9-283B-4836-A38E-585FDCB0DD4E}"/>
+    <hyperlink ref="F387" r:id="rId1559" xr:uid="{01F0706E-D4E2-435B-954C-373628254254}"/>
+    <hyperlink ref="G387" r:id="rId1560" xr:uid="{DD703CF6-93CF-4786-8CC8-961395B1D546}"/>
+    <hyperlink ref="H387" r:id="rId1561" xr:uid="{AA4D6E0C-CE09-42A0-B06A-66400D21BB6B}"/>
+    <hyperlink ref="I387" r:id="rId1562" xr:uid="{68C34E41-6FA9-4A18-8219-29009DB1B9D2}"/>
+    <hyperlink ref="J387" r:id="rId1563" xr:uid="{6052CAF2-5165-4E9B-88E7-319DC7908D46}"/>
+    <hyperlink ref="F388" r:id="rId1564" xr:uid="{905F1A51-6DEE-4794-881B-ADA92A22F3E0}"/>
+    <hyperlink ref="G388" r:id="rId1565" xr:uid="{2707AD72-8EB5-40EC-9D01-CCBEAABD473E}"/>
+    <hyperlink ref="H388" r:id="rId1566" xr:uid="{528D779C-138A-42BC-997A-5CE89C41BF08}"/>
+    <hyperlink ref="F389" r:id="rId1567" xr:uid="{1614313F-963E-48D9-8819-22D1041833F0}"/>
+    <hyperlink ref="G389" r:id="rId1568" xr:uid="{9A0C176D-9903-4D88-848D-4387017AB3CB}"/>
+    <hyperlink ref="H389" r:id="rId1569" xr:uid="{57574C0D-DF78-4400-928F-1072E4DEC3A8}"/>
+    <hyperlink ref="I389" r:id="rId1570" xr:uid="{C4A68381-9933-4099-967E-33CB64C77749}"/>
+    <hyperlink ref="J389" r:id="rId1571" xr:uid="{2B272B2E-69B8-41F3-BB24-DDC67A9379A4}"/>
+    <hyperlink ref="F390" r:id="rId1572" xr:uid="{E1F54384-C55F-402F-BB04-CF7E396E43FD}"/>
+    <hyperlink ref="G390" r:id="rId1573" xr:uid="{7327E7AE-9297-4918-A8B3-9573C18D996D}"/>
+    <hyperlink ref="H390" r:id="rId1574" xr:uid="{376EE72E-95DC-4014-8CDB-1889167FD494}"/>
+    <hyperlink ref="I390" r:id="rId1575" xr:uid="{495E0AE3-3E1C-438F-A9FE-373D75B82639}"/>
+    <hyperlink ref="J390" r:id="rId1576" xr:uid="{EBB97D63-8ADE-4C46-86A4-160829218390}"/>
+    <hyperlink ref="G391" r:id="rId1577" xr:uid="{4C65B51A-E230-46DF-9418-4BA09EFD2159}"/>
+    <hyperlink ref="F391" r:id="rId1578" xr:uid="{3CF58FD8-4F84-4A70-A69A-F9A61222A8AD}"/>
+    <hyperlink ref="H391" r:id="rId1579" xr:uid="{5B54063F-B703-4EC6-A252-C05EBBF849AD}"/>
+    <hyperlink ref="I391" r:id="rId1580" xr:uid="{138123B9-7D8A-4C9E-BDF4-9F46B8E70A05}"/>
+    <hyperlink ref="J391" r:id="rId1581" xr:uid="{4677B897-9034-4B57-AEC0-14A853C3DE4A}"/>
+    <hyperlink ref="F392" r:id="rId1582" xr:uid="{F38947BA-FF64-4EC9-ADD0-A3B18566A478}"/>
+    <hyperlink ref="G392" r:id="rId1583" xr:uid="{0E056D89-D485-4011-B240-85CADE2D0338}"/>
+    <hyperlink ref="H392" r:id="rId1584" xr:uid="{603A4B90-7671-47DA-85F3-BDB3AB80C04A}"/>
+    <hyperlink ref="I392" r:id="rId1585" xr:uid="{01CE533F-F020-43E7-9CB1-908743CD3B14}"/>
+    <hyperlink ref="J392" r:id="rId1586" xr:uid="{E3879DD9-5575-4CAD-B827-6A43B3211349}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1559"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1587"/>
   <tableParts count="1">
-    <tablePart r:id="rId1560"/>
+    <tablePart r:id="rId1588"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399BBED9-C004-495F-82BC-2859A629CB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62379C13-6ED7-4C7B-B917-1DA15E689000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="2721">
   <si>
     <t>id</t>
   </si>
@@ -8107,6 +8107,108 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1527139/unique-tournament/170/season/61243/statistics/overall</t>
+  </si>
+  <si>
+    <t>Zaven</t>
+  </si>
+  <si>
+    <t>Khudaverdyan</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/zaven-khudaverdyan/profil/spieler/1130532</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/zaven-khudaverdyan/1914975</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1914975</t>
+  </si>
+  <si>
+    <t>Touré</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mohamed-toure/profil/spieler/1305470</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mohamed-toure/2072689</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2072689</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Tolf</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/noah-tolf/profil/spieler/1255754</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tolf-noah/1650626</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1650626</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1650626/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1650626/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Karamba</t>
+  </si>
+  <si>
+    <t>Gassama</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/karamba-gassama/profil/spieler/1111215</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/karamba-gassama/1528256</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1528256</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1528256/unique-tournament/720/season/64056/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1528256/unique-tournament/720/season/64056/statistics/overall</t>
+  </si>
+  <si>
+    <t>Rin</t>
+  </si>
+  <si>
+    <t>Ahmeti</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/rin-ahmeti/profil/spieler/1319726</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/rin-ahmeti/1939803</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1939803</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1939803/unique-tournament/2132/season/66456/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1939803/unique-tournament/2132/season/66456/statistics/overall</t>
+  </si>
+  <si>
+    <t>Odera Samuel</t>
+  </si>
+  <si>
+    <t>Adindu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/odera-samuel-adindu/profil/spieler/1364195</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/odera-samuel-adindu/2083296</t>
   </si>
 </sst>
 </file>
@@ -8183,8 +8285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J392" totalsRowShown="0">
-  <autoFilter ref="A1:J392" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J398" totalsRowShown="0">
+  <autoFilter ref="A1:J398" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G302">
     <sortCondition ref="A1:A302"/>
   </sortState>
@@ -8501,10 +8603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J392"/>
+  <dimension ref="A1:J398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="G400" sqref="G400"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="G404" sqref="G404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20449,6 +20551,171 @@
       <c r="J392" s="2" t="s">
         <v>2686</v>
       </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D393" t="s">
+        <v>15</v>
+      </c>
+      <c r="E393" t="s">
+        <v>224</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="I393" s="2"/>
+      <c r="J393" s="2"/>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D394" t="s">
+        <v>15</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="I394" s="2"/>
+      <c r="J394" s="2"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D395" t="s">
+        <v>44</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="J395" s="2" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D396" t="s">
+        <v>224</v>
+      </c>
+      <c r="E396" t="s">
+        <v>64</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J396" s="2" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D397" t="s">
+        <v>69</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="J397" s="2" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D398" t="s">
+        <v>69</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="I398" s="2"/>
+      <c r="J398" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22039,11 +22306,34 @@
     <hyperlink ref="H392" r:id="rId1584" xr:uid="{603A4B90-7671-47DA-85F3-BDB3AB80C04A}"/>
     <hyperlink ref="I392" r:id="rId1585" xr:uid="{01CE533F-F020-43E7-9CB1-908743CD3B14}"/>
     <hyperlink ref="J392" r:id="rId1586" xr:uid="{E3879DD9-5575-4CAD-B827-6A43B3211349}"/>
+    <hyperlink ref="F393" r:id="rId1587" xr:uid="{0558D278-080F-484B-9817-03DFA371A44E}"/>
+    <hyperlink ref="G393" r:id="rId1588" xr:uid="{E81CCD3D-EB83-4A13-87C3-8B4C806B6D86}"/>
+    <hyperlink ref="H393" r:id="rId1589" xr:uid="{89EECFAF-F393-49E8-9C92-6D3513E7E092}"/>
+    <hyperlink ref="F394" r:id="rId1590" xr:uid="{25860445-0E3F-4568-852E-933D217C47F7}"/>
+    <hyperlink ref="G394" r:id="rId1591" xr:uid="{C4C8A6F4-AEB7-4FE8-85E8-5B40E470E82D}"/>
+    <hyperlink ref="H394" r:id="rId1592" xr:uid="{DDA391C6-6619-4FC6-B82E-46EBE3392BA4}"/>
+    <hyperlink ref="F395" r:id="rId1593" xr:uid="{B873625E-358C-40BD-AC6F-7260180D6E3B}"/>
+    <hyperlink ref="G395" r:id="rId1594" xr:uid="{FD942D7B-054A-4A02-A3BA-9BEDD74DB65F}"/>
+    <hyperlink ref="H395" r:id="rId1595" xr:uid="{C6EA97D5-3DAA-4F86-ACAB-3EAC546CDB14}"/>
+    <hyperlink ref="I395" r:id="rId1596" xr:uid="{7F711A91-0416-4B9C-AB45-D70F6858744D}"/>
+    <hyperlink ref="J395" r:id="rId1597" xr:uid="{27E4C9C5-5484-4E15-BD8B-FECA69B8FB7B}"/>
+    <hyperlink ref="F396" r:id="rId1598" xr:uid="{9B07AAF4-0905-4A2B-A766-9AA00C3A590B}"/>
+    <hyperlink ref="G396" r:id="rId1599" xr:uid="{6B4CEA8F-8251-4CDE-B071-0BEBB6D72F25}"/>
+    <hyperlink ref="H396" r:id="rId1600" xr:uid="{6CF3313D-7FF8-4268-81F5-9EEAD6F1157D}"/>
+    <hyperlink ref="I396" r:id="rId1601" xr:uid="{D369B37E-8F10-43AC-BE1B-8870DF612D86}"/>
+    <hyperlink ref="J396" r:id="rId1602" xr:uid="{D6426AD2-168B-4375-B131-2942DB185CB8}"/>
+    <hyperlink ref="F397" r:id="rId1603" xr:uid="{250447E0-48CF-4801-9E28-BDCAC0BEC011}"/>
+    <hyperlink ref="G397" r:id="rId1604" xr:uid="{803C05F0-4628-4C9C-ABCD-69E4A34C79A2}"/>
+    <hyperlink ref="H397" r:id="rId1605" xr:uid="{B7518DC2-40FF-4426-85F3-4E47344FFFE2}"/>
+    <hyperlink ref="I397" r:id="rId1606" xr:uid="{D62EB732-E8D6-46A3-B212-EED669B33F5C}"/>
+    <hyperlink ref="J397" r:id="rId1607" xr:uid="{8ADD513F-E939-4F56-8FBE-164471B68A6D}"/>
+    <hyperlink ref="F398" r:id="rId1608" xr:uid="{74E8F8C9-702A-468E-B159-E77D4EFF97A4}"/>
+    <hyperlink ref="G398" r:id="rId1609" xr:uid="{D0D91EA7-1B47-4398-9514-0AD37EA5F01E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1587"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1610"/>
   <tableParts count="1">
-    <tablePart r:id="rId1588"/>
+    <tablePart r:id="rId1611"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62379C13-6ED7-4C7B-B917-1DA15E689000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFE07C-69B1-4E9B-BF60-E26989FC8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="2721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="2745">
   <si>
     <t>id</t>
   </si>
@@ -8209,6 +8209,78 @@
   </si>
   <si>
     <t>https://www.sofascore.com/cs/football/player/odera-samuel-adindu/2083296</t>
+  </si>
+  <si>
+    <t>Kyan</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kyan-korsten/2208727</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2208727</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/sven-janssen/2057566</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2083296</t>
+  </si>
+  <si>
+    <t>Möller</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/liam-moller/profil/spieler/718431</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/liam-moller/1121058</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1121058</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1121058/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1121058/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Vetle</t>
+  </si>
+  <si>
+    <t>Auklend</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/vetle-auklend/profil/spieler/1120134</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/auklend-vetle/1613802</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1613802</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1613802/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1613802/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ševa</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mihajlo-seva/profil/spieler/1039061</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mihajlo-seva/1919946</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1919946/unique-tournament/25373/season/72951/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1919946</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1919946/unique-tournament/25373/season/72951/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8285,8 +8357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J398" totalsRowShown="0">
-  <autoFilter ref="A1:J398" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J401" totalsRowShown="0">
+  <autoFilter ref="A1:J401" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G302">
     <sortCondition ref="A1:A302"/>
   </sortState>
@@ -8603,10 +8675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J398"/>
+  <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="G404" sqref="G404"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C404" sqref="C404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11176,7 +11248,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>2721</v>
       </c>
       <c r="C84" t="s">
         <v>378</v>
@@ -11190,7 +11262,12 @@
       <c r="F84" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>2723</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -11346,6 +11423,9 @@
       <c r="F90" s="2" t="s">
         <v>399</v>
       </c>
+      <c r="G90" s="2" t="s">
+        <v>2724</v>
+      </c>
       <c r="H90" s="2" t="s">
         <v>1431</v>
       </c>
@@ -20714,8 +20794,98 @@
       <c r="G398" s="2" t="s">
         <v>2720</v>
       </c>
+      <c r="H398" s="2" t="s">
+        <v>2725</v>
+      </c>
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>933</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D399" t="s">
+        <v>224</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="J399" s="2" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D400" t="s">
+        <v>44</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="J400" s="2" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>803</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D401" t="s">
+        <v>224</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="J401" s="2" t="s">
+        <v>2744</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22329,11 +22499,31 @@
     <hyperlink ref="J397" r:id="rId1607" xr:uid="{8ADD513F-E939-4F56-8FBE-164471B68A6D}"/>
     <hyperlink ref="F398" r:id="rId1608" xr:uid="{74E8F8C9-702A-468E-B159-E77D4EFF97A4}"/>
     <hyperlink ref="G398" r:id="rId1609" xr:uid="{D0D91EA7-1B47-4398-9514-0AD37EA5F01E}"/>
+    <hyperlink ref="H78" r:id="rId1610" xr:uid="{E5A4BDF5-D820-466C-A1D3-200ADA65753E}"/>
+    <hyperlink ref="G84" r:id="rId1611" xr:uid="{BA266408-3FD2-461F-9060-A2C67BD877BF}"/>
+    <hyperlink ref="H84" r:id="rId1612" xr:uid="{44A2CA7F-84CF-4E82-8A5C-60CE401C74CC}"/>
+    <hyperlink ref="G90" r:id="rId1613" xr:uid="{D5843E6F-87C2-4239-84DA-30622008D753}"/>
+    <hyperlink ref="H398" r:id="rId1614" xr:uid="{B6E8A52E-5287-4769-8D1B-7CFF4D83FBED}"/>
+    <hyperlink ref="F399" r:id="rId1615" xr:uid="{B6DC53F8-5562-4905-AD9E-6A9964501380}"/>
+    <hyperlink ref="G399" r:id="rId1616" xr:uid="{C4165207-BEDB-4BAD-8B7F-884C70CB78A3}"/>
+    <hyperlink ref="H399" r:id="rId1617" xr:uid="{5A7C9B60-B393-4B4B-8B12-BF49CB86081B}"/>
+    <hyperlink ref="I399" r:id="rId1618" xr:uid="{B53B1C69-55C7-4BC5-8BA7-BB790FB6D3FC}"/>
+    <hyperlink ref="J399" r:id="rId1619" xr:uid="{E44233FD-ED3C-4801-8EB7-BA03BEE274E5}"/>
+    <hyperlink ref="F400" r:id="rId1620" xr:uid="{B4537D0A-9331-4D3B-9DF8-7D82E5E02E49}"/>
+    <hyperlink ref="G400" r:id="rId1621" xr:uid="{E92570D9-B4E6-4DA6-B902-2F7B4391C00C}"/>
+    <hyperlink ref="H400" r:id="rId1622" xr:uid="{6250A692-F7A3-4055-82F9-71E1202303D0}"/>
+    <hyperlink ref="I400" r:id="rId1623" xr:uid="{EE511326-AEFE-4DA6-BADB-371A1170B8F0}"/>
+    <hyperlink ref="J400" r:id="rId1624" xr:uid="{12802A15-ABB2-4E94-8908-6EEFB3FD19A7}"/>
+    <hyperlink ref="F401" r:id="rId1625" xr:uid="{26854F14-F951-49D0-AA2F-4EBDBE8BA018}"/>
+    <hyperlink ref="G401" r:id="rId1626" xr:uid="{45066090-9396-4C83-835C-34A89DDCEE53}"/>
+    <hyperlink ref="I401" r:id="rId1627" xr:uid="{6D1DA49D-1D42-4D75-A815-1399E2801C33}"/>
+    <hyperlink ref="H401" r:id="rId1628" xr:uid="{15056427-3CD0-47DB-88FF-EE9F197A54C8}"/>
+    <hyperlink ref="J401" r:id="rId1629" xr:uid="{7DBF0C82-30FB-48E9-BD89-F7C7695F76C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1610"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1630"/>
   <tableParts count="1">
-    <tablePart r:id="rId1611"/>
+    <tablePart r:id="rId1631"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D730CCE-55DD-40F1-8CAB-D176A297EDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF661A40-232E-4481-AF3F-33576AE7449E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="2515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="2542">
   <si>
     <t>id</t>
   </si>
@@ -6909,12 +6909,6 @@
     <t>https://www.sofascore.com/api/v1/player/1121382/unique-tournament/211/season/77154/statistics/overall</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1102485/unique-tournament/187/season/76944/ratings</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1102485/unique-tournament/187/season/76944/statistics/overall</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/1434416/unique-tournament/187/season/76944/ratings</t>
   </si>
   <si>
@@ -7131,12 +7125,6 @@
     <t>https://www.sofascore.com/api/v1/player/1894870/unique-tournament/211/season/77154/statistics/overall</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1516583/unique-tournament/211/season/77154/ratings</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1516583/unique-tournament/211/season/77154/statistics/overall</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/1150929/unique-tournament/211/season/77154/ratings</t>
   </si>
   <si>
@@ -7591,6 +7579,99 @@
   </si>
   <si>
     <t>https://www.transfermarkt.com/andranik-ervandyan/profil/spieler/1346528</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1102485/unique-tournament/9/season/77849/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1102485/unique-tournament/9/season/77849/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1516583/unique-tournament/172/season/77019/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1516583/unique-tournament/172/season/77019/statistics/overall</t>
+  </si>
+  <si>
+    <t>Milosavljević</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jovan-milosavljevic/profil/spieler/946045</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jovan-milosavljevic/1885765</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1885765</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1885765/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1885765/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Fredrik</t>
+  </si>
+  <si>
+    <t>Ardraa</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/fredrik-ardraa/profil/spieler/1043978</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/fredrik-pau-vilaseca-ardraa/1467357</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1467357</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1467357/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1467357/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Amoako Junior</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/prince-amoako-junior/profil/spieler/1380311</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/prince-amoako-junior/2029508</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2029508</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2029508/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2029508/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Owusu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/douglas-owusu/profil/spieler/1305075</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/owusu-douglas/1916326</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1916326</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1916326/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1916326/unique-tournament/210/season/76909/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -7667,8 +7748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J361" totalsRowShown="0">
-  <autoFilter ref="A1:J361" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J365" totalsRowShown="0">
+  <autoFilter ref="A1:J365" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -7985,10 +8066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J361"/>
+  <dimension ref="A1:J365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14886,10 +14967,10 @@
         <v>1331</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>2287</v>
+        <v>2511</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>2288</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -14918,10 +14999,10 @@
         <v>1332</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -14950,10 +15031,10 @@
         <v>1333</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -14979,10 +15060,10 @@
         <v>1334</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -15008,10 +15089,10 @@
         <v>1335</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -15072,10 +15153,10 @@
         <v>1337</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -15104,10 +15185,10 @@
         <v>1338</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -15136,10 +15217,10 @@
         <v>1339</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -15165,10 +15246,10 @@
         <v>1340</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -15194,10 +15275,10 @@
         <v>1341</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -15255,10 +15336,10 @@
         <v>1343</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -15284,10 +15365,10 @@
         <v>1344</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -15316,10 +15397,10 @@
         <v>1345</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -15348,10 +15429,10 @@
         <v>1346</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -15470,10 +15551,10 @@
         <v>1350</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -15499,10 +15580,10 @@
         <v>1351</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -15531,10 +15612,10 @@
         <v>1352</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -15560,10 +15641,10 @@
         <v>1353</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -15589,10 +15670,10 @@
         <v>1354</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -15618,10 +15699,10 @@
         <v>1355</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -15647,10 +15728,10 @@
         <v>1356</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -15679,10 +15760,10 @@
         <v>1357</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -15708,10 +15789,10 @@
         <v>1358</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -15740,10 +15821,10 @@
         <v>1359</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -15772,10 +15853,10 @@
         <v>1360</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -15801,10 +15882,10 @@
         <v>1361</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -15830,10 +15911,10 @@
         <v>1362</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -15862,10 +15943,10 @@
         <v>1363</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -15894,10 +15975,10 @@
         <v>1364</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -15926,10 +16007,10 @@
         <v>1365</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -15958,10 +16039,10 @@
         <v>1366</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -15990,10 +16071,10 @@
         <v>1367</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -16051,10 +16132,10 @@
         <v>1369</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -16176,10 +16257,10 @@
         <v>1373</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -16205,10 +16286,10 @@
         <v>1374</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -16266,10 +16347,10 @@
         <v>1376</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -16327,10 +16408,10 @@
         <v>1615</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -16359,10 +16440,10 @@
         <v>1620</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>2361</v>
+        <v>2513</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>2362</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -16391,10 +16472,10 @@
         <v>1624</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -16423,10 +16504,10 @@
         <v>1629</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -16452,10 +16533,10 @@
         <v>1634</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -16481,10 +16562,10 @@
         <v>1638</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -16510,10 +16591,10 @@
         <v>1643</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -16542,10 +16623,10 @@
         <v>1647</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -16571,10 +16652,10 @@
         <v>1652</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -16600,10 +16681,10 @@
         <v>1656</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -16838,10 +16919,10 @@
         <v>1708</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -16870,10 +16951,10 @@
         <v>1712</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -16899,10 +16980,10 @@
         <v>1716</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -17021,10 +17102,10 @@
         <v>1740</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -17050,10 +17131,10 @@
         <v>1744</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -17082,10 +17163,10 @@
         <v>1749</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -17111,10 +17192,10 @@
         <v>1753</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -17230,10 +17311,10 @@
         <v>1777</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -17346,10 +17427,10 @@
         <v>1805</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -17375,10 +17456,10 @@
         <v>1810</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -17558,10 +17639,10 @@
         <v>1849</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -17648,10 +17729,10 @@
         <v>1867</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -17677,10 +17758,10 @@
         <v>1871</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -17706,10 +17787,10 @@
         <v>1876</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -17851,10 +17932,10 @@
         <v>1907</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -17883,10 +17964,10 @@
         <v>1912</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -18002,10 +18083,10 @@
         <v>1935</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -18059,10 +18140,10 @@
         <v>1944</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -18178,10 +18259,10 @@
         <v>1973</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -18569,10 +18650,10 @@
         <v>411</v>
       </c>
       <c r="B347" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="C347" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="D347" t="s">
         <v>58</v>
@@ -18581,19 +18662,19 @@
         <v>15</v>
       </c>
       <c r="F347" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J347" s="2" t="s">
         <v>2419</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>2420</v>
-      </c>
-      <c r="H347" s="2" t="s">
-        <v>2421</v>
-      </c>
-      <c r="I347" s="2" t="s">
-        <v>2422</v>
-      </c>
-      <c r="J347" s="2" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -18601,28 +18682,28 @@
         <v>412</v>
       </c>
       <c r="B348" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="C348" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="D348" t="s">
         <v>53</v>
       </c>
       <c r="F348" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="J348" s="2" t="s">
         <v>2425</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>2426</v>
-      </c>
-      <c r="H348" s="2" t="s">
-        <v>2427</v>
-      </c>
-      <c r="I348" s="2" t="s">
-        <v>2428</v>
-      </c>
-      <c r="J348" s="2" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -18630,28 +18711,28 @@
         <v>413</v>
       </c>
       <c r="B349" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="C349" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="D349" t="s">
         <v>15</v>
       </c>
       <c r="F349" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="J349" s="2" t="s">
         <v>2432</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>2433</v>
-      </c>
-      <c r="H349" s="2" t="s">
-        <v>2434</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>2435</v>
-      </c>
-      <c r="J349" s="2" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -18659,10 +18740,10 @@
         <v>414</v>
       </c>
       <c r="B350" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="C350" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="D350" t="s">
         <v>58</v>
@@ -18671,19 +18752,19 @@
         <v>8</v>
       </c>
       <c r="F350" s="2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="J350" s="2" t="s">
         <v>2439</v>
-      </c>
-      <c r="G350" s="2" t="s">
-        <v>2440</v>
-      </c>
-      <c r="H350" s="2" t="s">
-        <v>2441</v>
-      </c>
-      <c r="I350" s="2" t="s">
-        <v>2442</v>
-      </c>
-      <c r="J350" s="2" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -18691,28 +18772,28 @@
         <v>415</v>
       </c>
       <c r="B351" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="C351" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D351" t="s">
         <v>42</v>
       </c>
       <c r="F351" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="J351" s="2" t="s">
         <v>2446</v>
-      </c>
-      <c r="G351" s="2" t="s">
-        <v>2447</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>2448</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>2449</v>
-      </c>
-      <c r="J351" s="2" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -18723,25 +18804,25 @@
         <v>1945</v>
       </c>
       <c r="C352" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="D352" t="s">
         <v>42</v>
       </c>
       <c r="F352" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="J352" s="2" t="s">
         <v>2452</v>
-      </c>
-      <c r="G352" s="2" t="s">
-        <v>2453</v>
-      </c>
-      <c r="H352" s="2" t="s">
-        <v>2454</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>2455</v>
-      </c>
-      <c r="J352" s="2" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -18749,28 +18830,28 @@
         <v>417</v>
       </c>
       <c r="B353" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="C353" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="D353" t="s">
         <v>15</v>
       </c>
       <c r="F353" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="J353" s="2" t="s">
         <v>2459</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>2460</v>
-      </c>
-      <c r="H353" s="2" t="s">
-        <v>2461</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>2462</v>
-      </c>
-      <c r="J353" s="2" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -18778,28 +18859,28 @@
         <v>418</v>
       </c>
       <c r="B354" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="C354" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="D354" t="s">
         <v>58</v>
       </c>
       <c r="F354" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="J354" s="2" t="s">
         <v>2466</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>2467</v>
-      </c>
-      <c r="H354" s="2" t="s">
-        <v>2468</v>
-      </c>
-      <c r="I354" s="2" t="s">
-        <v>2469</v>
-      </c>
-      <c r="J354" s="2" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -18810,25 +18891,25 @@
         <v>492</v>
       </c>
       <c r="C355" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="D355" t="s">
         <v>15</v>
       </c>
       <c r="F355" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="J355" s="2" t="s">
         <v>2472</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>2473</v>
-      </c>
-      <c r="H355" s="2" t="s">
-        <v>2474</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>2475</v>
-      </c>
-      <c r="J355" s="2" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -18836,10 +18917,10 @@
         <v>420</v>
       </c>
       <c r="B356" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="C356" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="D356" t="s">
         <v>33</v>
@@ -18848,19 +18929,19 @@
         <v>53</v>
       </c>
       <c r="F356" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="J356" s="2" t="s">
         <v>2479</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>2480</v>
-      </c>
-      <c r="H356" s="2" t="s">
-        <v>2481</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>2482</v>
-      </c>
-      <c r="J356" s="2" t="s">
-        <v>2483</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -18868,10 +18949,10 @@
         <v>421</v>
       </c>
       <c r="B357" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="C357" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="D357" t="s">
         <v>8</v>
@@ -18880,19 +18961,19 @@
         <v>58</v>
       </c>
       <c r="F357" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="J357" s="2" t="s">
         <v>2486</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>2487</v>
-      </c>
-      <c r="H357" s="2" t="s">
-        <v>2488</v>
-      </c>
-      <c r="I357" s="2" t="s">
-        <v>2489</v>
-      </c>
-      <c r="J357" s="2" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -18900,10 +18981,10 @@
         <v>422</v>
       </c>
       <c r="B358" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="C358" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="D358" t="s">
         <v>42</v>
@@ -18912,19 +18993,19 @@
         <v>79</v>
       </c>
       <c r="F358" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="J358" s="2" t="s">
         <v>2493</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>2494</v>
-      </c>
-      <c r="H358" s="2" t="s">
-        <v>2495</v>
-      </c>
-      <c r="I358" s="2" t="s">
-        <v>2496</v>
-      </c>
-      <c r="J358" s="2" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -18932,28 +19013,28 @@
         <v>423</v>
       </c>
       <c r="B359" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="C359" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="D359" t="s">
         <v>15</v>
       </c>
       <c r="F359" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="J359" s="2" t="s">
         <v>2500</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>2501</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>2502</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>2503</v>
-      </c>
-      <c r="J359" s="2" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -18961,10 +19042,10 @@
         <v>424</v>
       </c>
       <c r="B360" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="C360" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="D360" t="s">
         <v>8</v>
@@ -18973,19 +19054,19 @@
         <v>15</v>
       </c>
       <c r="F360" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="J360" s="2" t="s">
         <v>2507</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>2508</v>
-      </c>
-      <c r="H360" s="2" t="s">
-        <v>2509</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>2510</v>
-      </c>
-      <c r="J360" s="2" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -18993,16 +19074,132 @@
         <v>425</v>
       </c>
       <c r="B361" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="C361" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>426</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D362" t="s">
+        <v>53</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="J362" s="2" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>427</v>
+      </c>
+      <c r="B363" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D363" t="s">
+        <v>53</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J363" s="2" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>428</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D364" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J364" s="2" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>429</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D365" t="s">
+        <v>58</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="J365" s="2" t="s">
+        <v>2541</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20244,289 +20441,309 @@
     <hyperlink ref="J222" r:id="rId1235" xr:uid="{FCE20151-3EEA-47DB-A062-FB5D1BEBC1BB}"/>
     <hyperlink ref="I223" r:id="rId1236" xr:uid="{33C8930B-FC2D-445B-95D2-F093BAAEE1FE}"/>
     <hyperlink ref="J223" r:id="rId1237" xr:uid="{1650FE2B-F5DA-4F2B-B661-94B7AB50EAA0}"/>
-    <hyperlink ref="I224" r:id="rId1238" xr:uid="{E4BA57B4-AC0A-4C31-BEBA-C19BEE71BDFD}"/>
-    <hyperlink ref="J224" r:id="rId1239" xr:uid="{871B6CD3-823A-4177-880C-2549F9CBE001}"/>
-    <hyperlink ref="I225" r:id="rId1240" xr:uid="{F047C363-906D-4E64-8BEA-9F6C96D95EFE}"/>
-    <hyperlink ref="J225" r:id="rId1241" xr:uid="{A6600F27-5FF3-4725-B5FD-C2457D903920}"/>
-    <hyperlink ref="I226" r:id="rId1242" xr:uid="{955A3D20-8041-4364-A2ED-4C8D141CE4CB}"/>
-    <hyperlink ref="J226" r:id="rId1243" xr:uid="{80359421-242D-4E9C-912C-21BBFA095FE9}"/>
-    <hyperlink ref="I227" r:id="rId1244" xr:uid="{040EA980-3E07-42DE-A9CE-06ECAC9C711F}"/>
-    <hyperlink ref="J227" r:id="rId1245" xr:uid="{E1CA02ED-A98A-4626-91BE-07B0975C3039}"/>
-    <hyperlink ref="I228" r:id="rId1246" xr:uid="{D2202952-B169-4B54-A8D2-E4DB768D9CA3}"/>
-    <hyperlink ref="J228" r:id="rId1247" xr:uid="{E7B5A87B-4B71-49A5-953B-291B2B3B4229}"/>
-    <hyperlink ref="I229" r:id="rId1248" xr:uid="{38A387AB-2E5D-43D2-A0B3-D50B5ECB41BA}"/>
-    <hyperlink ref="J229" r:id="rId1249" xr:uid="{421B879A-8493-4090-89A5-B3B903E46FA7}"/>
-    <hyperlink ref="I230" r:id="rId1250" xr:uid="{E29082CF-F0F2-4A37-8EBC-E9B88EA33F23}"/>
-    <hyperlink ref="J230" r:id="rId1251" xr:uid="{28A2CEBD-05B5-4199-A227-1A4C227C48DF}"/>
-    <hyperlink ref="I231" r:id="rId1252" xr:uid="{96F77CC5-83BE-4425-B622-E390FA0DB04E}"/>
-    <hyperlink ref="J231" r:id="rId1253" xr:uid="{620ADB6C-4C2A-4033-8B0C-EFF8979D4BCE}"/>
-    <hyperlink ref="I232" r:id="rId1254" xr:uid="{EF72ED7C-C3E3-49C2-8A03-8DEDBC0B8DDD}"/>
-    <hyperlink ref="J232" r:id="rId1255" xr:uid="{566FD82C-2DD7-4163-A0A4-316A7E287A90}"/>
-    <hyperlink ref="I233" r:id="rId1256" xr:uid="{0FDBBF79-BB63-4BA8-B492-816F3C65867E}"/>
-    <hyperlink ref="J233" r:id="rId1257" xr:uid="{F40A2B0C-7716-4EED-9981-68A3D9549EF1}"/>
-    <hyperlink ref="I234" r:id="rId1258" xr:uid="{6F1CF67E-18C0-492E-8DEF-D744E56F3C99}"/>
-    <hyperlink ref="J234" r:id="rId1259" xr:uid="{C1FFC12F-CE03-4C60-9518-1D89C38DDCD8}"/>
-    <hyperlink ref="I235" r:id="rId1260" xr:uid="{244DBBBD-C6D7-4E75-9E30-242F3EA9533C}"/>
-    <hyperlink ref="J235" r:id="rId1261" xr:uid="{382C10D5-E331-40DE-8AB5-4B11048BBAF3}"/>
-    <hyperlink ref="I236" r:id="rId1262" xr:uid="{33FA9F65-454D-4DFB-94E3-21D66BE4F948}"/>
-    <hyperlink ref="J236" r:id="rId1263" xr:uid="{91F39EB9-5A9F-4928-B9BF-7E88266F362B}"/>
-    <hyperlink ref="I237" r:id="rId1264" xr:uid="{2E5AB7EF-536C-49BF-921C-3EC6141C267B}"/>
-    <hyperlink ref="J237" r:id="rId1265" xr:uid="{276C0FB0-A7B4-4ADE-83F7-CEC0798B54DB}"/>
-    <hyperlink ref="I238" r:id="rId1266" xr:uid="{79105AA0-CC62-41AF-95F8-5DA05BCCB24D}"/>
-    <hyperlink ref="J238" r:id="rId1267" xr:uid="{4B0319DA-F477-4CE4-AFAF-C5ED139071C2}"/>
-    <hyperlink ref="I239" r:id="rId1268" xr:uid="{1028D587-5E97-452A-864F-1D61C68651B5}"/>
-    <hyperlink ref="J239" r:id="rId1269" xr:uid="{021E3578-E403-4313-928C-2FD63759A2B8}"/>
-    <hyperlink ref="I240" r:id="rId1270" xr:uid="{0596EB26-5EC5-4C65-8448-ACC0E7D3A098}"/>
-    <hyperlink ref="J240" r:id="rId1271" xr:uid="{B01B83E1-8B74-46A1-B38C-63AEF8287DE8}"/>
-    <hyperlink ref="I241" r:id="rId1272" xr:uid="{14EB5493-C717-4AEF-9E5A-620C46266064}"/>
-    <hyperlink ref="J241" r:id="rId1273" xr:uid="{866E6FED-B268-46A0-AB10-49067BE24084}"/>
-    <hyperlink ref="I242" r:id="rId1274" xr:uid="{0B67A991-599C-4BC1-B589-9F6792277E24}"/>
-    <hyperlink ref="I243" r:id="rId1275" xr:uid="{86777F2C-BF80-4397-B463-072F7625722C}"/>
-    <hyperlink ref="J243" r:id="rId1276" xr:uid="{79C6396A-DD24-41F5-B888-F5E2B1A6D150}"/>
-    <hyperlink ref="I244" r:id="rId1277" xr:uid="{25E21AD4-21F8-46C4-8B7D-D107034C93D6}"/>
-    <hyperlink ref="J244" r:id="rId1278" xr:uid="{CD66E30B-34DA-419E-8814-BEB2DB242DBB}"/>
-    <hyperlink ref="I245" r:id="rId1279" xr:uid="{5DF6B3C6-73D9-4154-9441-24809A48CF79}"/>
-    <hyperlink ref="J245" r:id="rId1280" xr:uid="{75ECC3D0-EBFD-4193-A27B-FD0794706F3E}"/>
-    <hyperlink ref="I246" r:id="rId1281" xr:uid="{A485D4F1-624D-4EBF-88A6-59C086832F54}"/>
-    <hyperlink ref="J246" r:id="rId1282" xr:uid="{614050F5-2670-468B-8BD4-E313914CC88E}"/>
-    <hyperlink ref="I247" r:id="rId1283" xr:uid="{C31499A4-9478-4299-B1E7-9DCC2B893D2E}"/>
-    <hyperlink ref="J247" r:id="rId1284" xr:uid="{5B2E87A8-EFCF-4245-9CF4-FB6A7E0B43E1}"/>
-    <hyperlink ref="I248" r:id="rId1285" xr:uid="{C127F333-029E-4B62-9996-9A5A8D08F9DD}"/>
-    <hyperlink ref="J248" r:id="rId1286" xr:uid="{CBF85A96-9C0A-426B-B97B-EF5E7392E475}"/>
-    <hyperlink ref="I249" r:id="rId1287" xr:uid="{F336C709-48D8-49BD-84EC-89693512D1F4}"/>
-    <hyperlink ref="J249" r:id="rId1288" xr:uid="{7805EC1C-6247-452A-A511-1BE3CD9298A2}"/>
-    <hyperlink ref="I250" r:id="rId1289" xr:uid="{06991117-A772-41ED-BB5A-6ABE661A816D}"/>
-    <hyperlink ref="J250" r:id="rId1290" xr:uid="{B639FE66-6207-4491-A97C-30A997948238}"/>
-    <hyperlink ref="I251" r:id="rId1291" xr:uid="{89082027-6C56-48C2-8205-3D5828DCA197}"/>
-    <hyperlink ref="J251" r:id="rId1292" xr:uid="{3E212D5C-812C-454F-BE41-0D0F8B94D47B}"/>
-    <hyperlink ref="I252" r:id="rId1293" xr:uid="{92BA5FD1-8177-44AF-B505-FD45D1E7F15E}"/>
-    <hyperlink ref="J252" r:id="rId1294" xr:uid="{CB96A757-FF42-4658-889C-0A767440E2AA}"/>
-    <hyperlink ref="I253" r:id="rId1295" xr:uid="{E243345E-48FE-4B81-B3B6-F7C5651232D9}"/>
-    <hyperlink ref="J253" r:id="rId1296" xr:uid="{F800944B-CB3F-4AE1-ACC2-ED6EB497D137}"/>
-    <hyperlink ref="I254" r:id="rId1297" xr:uid="{0990C783-F0CA-4E27-9FEC-62A421B5C02A}"/>
-    <hyperlink ref="J254" r:id="rId1298" xr:uid="{F48EA102-230B-4583-8727-8AA6A69D66A0}"/>
-    <hyperlink ref="I255" r:id="rId1299" xr:uid="{2111C6EB-A437-4C65-9F3B-F84DECA50BF3}"/>
-    <hyperlink ref="J255" r:id="rId1300" xr:uid="{C1AEAF32-FEBC-414E-93EB-E28E3EE286CB}"/>
-    <hyperlink ref="I256" r:id="rId1301" xr:uid="{4F99336E-DEF3-445E-A24B-18039652D6C2}"/>
-    <hyperlink ref="J256" r:id="rId1302" xr:uid="{F6FF38A1-0E90-49DB-8BF6-E20E24A0BB6B}"/>
-    <hyperlink ref="I257" r:id="rId1303" xr:uid="{7BC1B2C7-B52D-491B-B820-E67372ED3035}"/>
-    <hyperlink ref="J257" r:id="rId1304" xr:uid="{43108DB3-D146-4C55-9063-29FE418CA2DE}"/>
-    <hyperlink ref="I258" r:id="rId1305" xr:uid="{A836D205-1DAA-4CD3-9FDF-0C20432C457E}"/>
-    <hyperlink ref="J258" r:id="rId1306" xr:uid="{1A96EA2F-8BEF-4BFE-944C-388A85EFC360}"/>
-    <hyperlink ref="I259" r:id="rId1307" xr:uid="{55393278-8AC3-46E8-9417-1E95492AA88C}"/>
-    <hyperlink ref="J259" r:id="rId1308" xr:uid="{EA8A1059-0563-46C3-9D4D-EEDBBFBA3D24}"/>
-    <hyperlink ref="I260" r:id="rId1309" xr:uid="{5B983455-91B2-4E89-B503-4BDEF0CA6158}"/>
-    <hyperlink ref="J260" r:id="rId1310" xr:uid="{FCEB53B6-9ECC-4836-9AE1-CCD697F9DF55}"/>
-    <hyperlink ref="I261" r:id="rId1311" xr:uid="{1C26B72B-24CA-4A20-8AAD-6E72281B30F8}"/>
-    <hyperlink ref="J261" r:id="rId1312" xr:uid="{555163DD-9062-4B29-875B-F323B45AF83B}"/>
-    <hyperlink ref="I262" r:id="rId1313" xr:uid="{74BC4A8F-C8CD-4983-897F-31D5B87F82B9}"/>
-    <hyperlink ref="J262" r:id="rId1314" xr:uid="{200FB153-32E7-4F10-8580-E83DFC271736}"/>
-    <hyperlink ref="I263" r:id="rId1315" xr:uid="{90912F0F-336E-4F7F-A5C0-CE0859AA58FF}"/>
-    <hyperlink ref="J263" r:id="rId1316" xr:uid="{83F16E51-C450-4ED5-ACDE-2738A419A434}"/>
-    <hyperlink ref="I264" r:id="rId1317" xr:uid="{7EF24EAB-7B1A-4587-ACE2-AF62C9767EBA}"/>
-    <hyperlink ref="J264" r:id="rId1318" xr:uid="{822B90E5-A680-45E2-A2C2-5825BB8F132D}"/>
-    <hyperlink ref="I266" r:id="rId1319" xr:uid="{FB5A0E3F-8E22-47B5-A3FB-73FD09962C47}"/>
-    <hyperlink ref="J266" r:id="rId1320" xr:uid="{56FE962A-6809-4626-A03A-7B9D34B29171}"/>
-    <hyperlink ref="J267" r:id="rId1321" xr:uid="{6708F5CB-E71E-49C8-B3ED-266EE9359640}"/>
-    <hyperlink ref="I267" r:id="rId1322" xr:uid="{D1F1AFF9-6988-45C0-9506-C6840333384D}"/>
-    <hyperlink ref="I268" r:id="rId1323" xr:uid="{21569E89-4003-409B-B98C-D32C1CEE1DA0}"/>
-    <hyperlink ref="J268" r:id="rId1324" xr:uid="{80D3EF35-701F-4B7E-9E72-25BF6ABA4635}"/>
-    <hyperlink ref="I269" r:id="rId1325" xr:uid="{68F17FCC-AF0D-42BF-B775-E057D94234F7}"/>
-    <hyperlink ref="J269" r:id="rId1326" xr:uid="{8B20AF17-90EC-43F8-BE32-FAE380E6C838}"/>
-    <hyperlink ref="I270" r:id="rId1327" xr:uid="{C983A9A5-CEE8-4695-B995-BFDD81C9B2C7}"/>
-    <hyperlink ref="J270" r:id="rId1328" xr:uid="{4AD308DB-40A2-4423-874D-202538288676}"/>
-    <hyperlink ref="I271" r:id="rId1329" xr:uid="{936F18DA-C9A0-4888-AF48-56CBF8219C4B}"/>
-    <hyperlink ref="J271" r:id="rId1330" xr:uid="{5AAF511C-19A0-4443-8FBF-8A950519987A}"/>
-    <hyperlink ref="I272" r:id="rId1331" xr:uid="{3603A279-8625-4874-A501-9F28F639C783}"/>
-    <hyperlink ref="J272" r:id="rId1332" xr:uid="{250F6219-74F8-44C7-9A72-A4ED86BCAB76}"/>
-    <hyperlink ref="I273" r:id="rId1333" xr:uid="{33A8445A-9C7F-4BEF-8CE1-29447C2FDD96}"/>
-    <hyperlink ref="J273" r:id="rId1334" xr:uid="{3031F5AA-0C1F-4325-82EA-7B6152C95E0A}"/>
-    <hyperlink ref="I274" r:id="rId1335" xr:uid="{F55844DE-E31A-4409-A931-EBF9D71FC0DD}"/>
-    <hyperlink ref="J274" r:id="rId1336" xr:uid="{618CDA92-D567-4521-A4F8-AC817787DE5C}"/>
-    <hyperlink ref="I275" r:id="rId1337" xr:uid="{647ABC56-CF1B-4113-96A2-B0B915FCBE88}"/>
-    <hyperlink ref="J275" r:id="rId1338" xr:uid="{493AA7D5-B4A6-4E16-95E0-30213C1B1579}"/>
-    <hyperlink ref="I276" r:id="rId1339" xr:uid="{2BCF0715-E193-4CF4-9B57-1F2EAACB553E}"/>
-    <hyperlink ref="J276" r:id="rId1340" xr:uid="{79B37A2D-1EA0-446C-9E02-C9C923E9B519}"/>
-    <hyperlink ref="I277" r:id="rId1341" xr:uid="{D0E458B4-465E-4110-8B99-B3B674193914}"/>
-    <hyperlink ref="J277" r:id="rId1342" xr:uid="{BDA23700-888E-42E1-AC73-6B1A9F407B82}"/>
-    <hyperlink ref="I278" r:id="rId1343" xr:uid="{E28E222D-10CE-4B1C-9209-F93B042BD7DC}"/>
-    <hyperlink ref="J278" r:id="rId1344" xr:uid="{B525C631-D6AC-4F35-827E-549FA00C43B3}"/>
-    <hyperlink ref="I279" r:id="rId1345" xr:uid="{8D9E1100-E165-411A-B8FE-999BB33A1798}"/>
-    <hyperlink ref="J279" r:id="rId1346" xr:uid="{61D6BC4B-F8DB-4767-8EF9-5B35ED9595A8}"/>
-    <hyperlink ref="I280" r:id="rId1347" xr:uid="{CB0765D0-0585-43C0-85B2-8A58FF28AEE3}"/>
-    <hyperlink ref="J280" r:id="rId1348" xr:uid="{431E923E-09AA-4822-8B92-94CE7A2E2E93}"/>
-    <hyperlink ref="I282" r:id="rId1349" xr:uid="{1F1EBDC1-37D0-494D-9F4C-E4BAF2199365}"/>
-    <hyperlink ref="J282" r:id="rId1350" xr:uid="{33D9076A-0D41-4C39-9004-83A665C74F90}"/>
-    <hyperlink ref="I283" r:id="rId1351" xr:uid="{3A7F3910-96FA-4B6C-B3A2-284BE63713D8}"/>
-    <hyperlink ref="J283" r:id="rId1352" xr:uid="{6431B938-08BB-401A-AD5A-0000ACF07024}"/>
-    <hyperlink ref="I284" r:id="rId1353" xr:uid="{7DB142BF-23D9-4306-AB3D-C982156ED984}"/>
-    <hyperlink ref="J284" r:id="rId1354" xr:uid="{E3AC3BE9-3DAB-4165-B675-1D144998C813}"/>
-    <hyperlink ref="I285" r:id="rId1355" xr:uid="{540D65E6-19E3-4D12-BB96-4DCFC40DE974}"/>
-    <hyperlink ref="J285" r:id="rId1356" xr:uid="{4811CD38-DA56-4913-BF26-D70632A92616}"/>
-    <hyperlink ref="I286" r:id="rId1357" xr:uid="{9ACB9709-E852-4290-AD7A-C54C7F1E9627}"/>
-    <hyperlink ref="J286" r:id="rId1358" xr:uid="{5E6D98A2-4CD8-4C19-A127-AF0A682A9A8D}"/>
-    <hyperlink ref="I287" r:id="rId1359" xr:uid="{E1BA5DFA-9FA8-4116-A078-81D04F478B76}"/>
-    <hyperlink ref="J287" r:id="rId1360" xr:uid="{5CBE5006-4896-4383-8D63-F7E7D116DEEC}"/>
-    <hyperlink ref="I288" r:id="rId1361" xr:uid="{3AFF46DA-9A35-41C7-AD2E-2C2BA0CD2176}"/>
-    <hyperlink ref="J288" r:id="rId1362" xr:uid="{4898CBA1-66FC-43F7-8D11-FE1339122552}"/>
-    <hyperlink ref="I289" r:id="rId1363" xr:uid="{D8DC2967-5820-41CB-9A61-C06FD3DEC322}"/>
-    <hyperlink ref="J289" r:id="rId1364" xr:uid="{974354A5-8F12-4E12-9655-5298DAAF7B17}"/>
-    <hyperlink ref="I290" r:id="rId1365" xr:uid="{BA79A7C8-706A-4A8C-A52E-AFD23120F1D2}"/>
-    <hyperlink ref="J290" r:id="rId1366" xr:uid="{A8B44967-081D-427C-BA84-C91AFFC247CD}"/>
-    <hyperlink ref="I291" r:id="rId1367" xr:uid="{4EAFA38F-34A6-457F-AFD8-0E9D321294E8}"/>
-    <hyperlink ref="J291" r:id="rId1368" xr:uid="{E253A7C6-6B2E-4CD2-A95A-EF1F7BC82BA1}"/>
-    <hyperlink ref="I292" r:id="rId1369" xr:uid="{4E2B250D-9B2D-471F-9DD7-306AB22A402C}"/>
-    <hyperlink ref="J292" r:id="rId1370" xr:uid="{BBCEAF33-BD4D-4AD9-91DE-C0CCA8B53E38}"/>
-    <hyperlink ref="I293" r:id="rId1371" xr:uid="{04859C78-0994-4C56-8675-70EB76F39D7C}"/>
-    <hyperlink ref="J293" r:id="rId1372" xr:uid="{BA3CCDA8-9E09-42C8-ADEC-F1A12F1FF7C8}"/>
-    <hyperlink ref="I294" r:id="rId1373" xr:uid="{3CC90E37-1BF5-4262-934D-A37993466EA3}"/>
-    <hyperlink ref="J294" r:id="rId1374" xr:uid="{E7761221-3353-4AEE-BBB1-41ED2D45B41A}"/>
-    <hyperlink ref="I295" r:id="rId1375" xr:uid="{8FA9A865-0FFA-42CE-BA34-CE4F2C830BF3}"/>
-    <hyperlink ref="J295" r:id="rId1376" xr:uid="{2D70BF3F-BDD9-47BA-8DE9-25F7BBBD5A11}"/>
-    <hyperlink ref="I296" r:id="rId1377" xr:uid="{6DC7B8A1-4772-4E23-89A3-6DD1EDB003A8}"/>
-    <hyperlink ref="J296" r:id="rId1378" xr:uid="{88DFBCDE-5E18-4C8B-900C-909738CD4BA8}"/>
-    <hyperlink ref="I297" r:id="rId1379" xr:uid="{A4B45442-E1A1-4A8A-B0E1-1758E18DE5E9}"/>
-    <hyperlink ref="J297" r:id="rId1380" xr:uid="{79244E1F-1B5D-4F1D-B0F1-66AA0AEFFFA2}"/>
-    <hyperlink ref="I298" r:id="rId1381" xr:uid="{84F4B428-5E78-466D-AB76-E9437075623B}"/>
-    <hyperlink ref="J298" r:id="rId1382" xr:uid="{12EB92BD-D2E1-40BF-95F3-FA3ADDB01E90}"/>
-    <hyperlink ref="I299" r:id="rId1383" xr:uid="{8EEABF58-D65C-47DF-81F0-E1CF211BE37A}"/>
-    <hyperlink ref="J299" r:id="rId1384" xr:uid="{4F19D743-EDA6-4667-ACC3-13AE8966993A}"/>
-    <hyperlink ref="I300" r:id="rId1385" xr:uid="{A8F2BF96-9966-467E-9D99-963BF9EE6462}"/>
-    <hyperlink ref="J300" r:id="rId1386" xr:uid="{FF2C4D5B-1103-490F-9449-EB7033E0ABF0}"/>
-    <hyperlink ref="I301" r:id="rId1387" xr:uid="{47F3A1BD-FC3C-4DDC-B0BB-183DA4A17B41}"/>
-    <hyperlink ref="J301" r:id="rId1388" xr:uid="{45013952-3321-445D-842A-4E8BE396BBF4}"/>
-    <hyperlink ref="I302" r:id="rId1389" xr:uid="{7A0E4B3A-9CB1-4216-BD6B-40D0D9C5078C}"/>
-    <hyperlink ref="J302" r:id="rId1390" xr:uid="{A34B792F-6594-4B13-8C9C-73727350CDD8}"/>
-    <hyperlink ref="I303" r:id="rId1391" xr:uid="{7BA252F5-C9B8-4BC0-8F0F-FA5EFAFC8CAA}"/>
-    <hyperlink ref="J303" r:id="rId1392" xr:uid="{D0600B32-DE16-4808-BF6A-1F0D6F21CC3F}"/>
-    <hyperlink ref="I304" r:id="rId1393" xr:uid="{E1EA2C31-9E58-438B-84E1-6DFCBBDC27D0}"/>
-    <hyperlink ref="J304" r:id="rId1394" xr:uid="{AE252CB4-6A25-4D21-82AE-2A8715E79BBC}"/>
-    <hyperlink ref="I305" r:id="rId1395" xr:uid="{E67DB4C0-3572-48E7-B0C4-5279C28C3911}"/>
-    <hyperlink ref="J305" r:id="rId1396" xr:uid="{869ABC22-3AD5-4519-9F8E-36FE1C78B7FD}"/>
-    <hyperlink ref="I306" r:id="rId1397" xr:uid="{EEE25A09-882F-4916-8120-4CACA368ED9F}"/>
-    <hyperlink ref="J306" r:id="rId1398" xr:uid="{130ED3AE-8E28-4995-98AB-66F26D1CA7D8}"/>
-    <hyperlink ref="I307" r:id="rId1399" xr:uid="{DD637F4D-7DFA-4A08-A241-B1D3550076F1}"/>
-    <hyperlink ref="J307" r:id="rId1400" xr:uid="{EDAD5D19-187A-4653-B3DE-369EFF183F9E}"/>
-    <hyperlink ref="I308" r:id="rId1401" xr:uid="{B484FDE1-EC98-4222-9EDD-28F337AA9AC0}"/>
-    <hyperlink ref="J308" r:id="rId1402" xr:uid="{B7303B11-E453-4E23-BBD7-C5F3A73C96DE}"/>
-    <hyperlink ref="I309" r:id="rId1403" xr:uid="{1A3809D7-3861-44E3-9014-9BD2E75D01B8}"/>
-    <hyperlink ref="J309" r:id="rId1404" xr:uid="{BC9BBD38-AB11-4009-9372-54A28B94F13E}"/>
-    <hyperlink ref="I310" r:id="rId1405" xr:uid="{DC80F0E0-335E-4334-BF2A-152A2B3C118B}"/>
-    <hyperlink ref="J310" r:id="rId1406" xr:uid="{7CCF2EA0-CA0C-4552-B799-9FC3A85973F3}"/>
-    <hyperlink ref="I311" r:id="rId1407" xr:uid="{078519EE-2E27-4390-8695-E498CAFBC384}"/>
-    <hyperlink ref="J311" r:id="rId1408" xr:uid="{BE52A010-24A7-4F02-A309-E103F0065CA4}"/>
-    <hyperlink ref="I312" r:id="rId1409" xr:uid="{C8FBA5EA-564E-4A94-988A-304A327D42D7}"/>
-    <hyperlink ref="J312" r:id="rId1410" xr:uid="{07B54400-77B0-4A41-AB6A-855FA9B1916C}"/>
-    <hyperlink ref="I313" r:id="rId1411" xr:uid="{3CDF90B0-EFD5-41AF-88BA-220125DD70CB}"/>
-    <hyperlink ref="J313" r:id="rId1412" xr:uid="{63860465-E04D-4419-980C-8A0DF61097DA}"/>
-    <hyperlink ref="I314" r:id="rId1413" xr:uid="{98F74A35-9606-4D90-BDE9-94D1FC044B6E}"/>
-    <hyperlink ref="J314" r:id="rId1414" xr:uid="{714AA937-5882-422E-A076-EB1CE17692CD}"/>
-    <hyperlink ref="I315" r:id="rId1415" xr:uid="{66187586-B607-4CED-B89A-A5621FFF53CC}"/>
-    <hyperlink ref="J315" r:id="rId1416" xr:uid="{7D1DC5FB-E5F6-44BA-A425-AF96C14C52B8}"/>
-    <hyperlink ref="I316" r:id="rId1417" xr:uid="{FD235E92-7703-47BD-AB06-9B08F0D8799A}"/>
-    <hyperlink ref="J316" r:id="rId1418" xr:uid="{51442F2B-E087-4DBE-94EA-BE392A333E94}"/>
-    <hyperlink ref="I317" r:id="rId1419" xr:uid="{442B8E64-2F94-4B7E-85D5-887DF1073EFA}"/>
-    <hyperlink ref="J317" r:id="rId1420" xr:uid="{975DC67F-1789-4CF9-9032-B509F9FD048F}"/>
-    <hyperlink ref="I318" r:id="rId1421" xr:uid="{E7519F59-96DF-4614-9B83-93F1C67849A2}"/>
-    <hyperlink ref="J318" r:id="rId1422" xr:uid="{29ABBF44-17CA-4292-BB95-E63B8E0D85F3}"/>
-    <hyperlink ref="I319" r:id="rId1423" xr:uid="{D0B07EF5-D172-48FF-BEEC-0E6A2897735E}"/>
-    <hyperlink ref="J319" r:id="rId1424" xr:uid="{719AE4A4-B62D-4AF6-8607-ABD7657ADC0E}"/>
-    <hyperlink ref="I320" r:id="rId1425" xr:uid="{E6533899-F1AB-4359-9F78-0C3DC0B9E672}"/>
-    <hyperlink ref="J320" r:id="rId1426" xr:uid="{2A0D27F5-13B5-46E9-946F-E2F8CA6DAABD}"/>
-    <hyperlink ref="I321" r:id="rId1427" xr:uid="{75A6CFB4-F47E-4C00-AED3-1E9AB1125450}"/>
-    <hyperlink ref="J321" r:id="rId1428" xr:uid="{330E8F1E-F934-467A-AD06-EFF336AAD676}"/>
-    <hyperlink ref="I322" r:id="rId1429" xr:uid="{A45C62E2-AB96-4BDA-8CF0-C5D9976307F8}"/>
-    <hyperlink ref="J322" r:id="rId1430" xr:uid="{49E526A1-4C40-4B2A-BE63-B43E2ECE72C6}"/>
-    <hyperlink ref="I323" r:id="rId1431" xr:uid="{8598314B-C2AF-4C03-BB43-0799365E5709}"/>
-    <hyperlink ref="J323" r:id="rId1432" xr:uid="{DFC1A003-070B-48FE-8D82-A10643E603D8}"/>
-    <hyperlink ref="I324" r:id="rId1433" xr:uid="{36DECB2B-0A1B-4EAE-8EB5-6E4D643F6809}"/>
-    <hyperlink ref="J324" r:id="rId1434" xr:uid="{DBF759FA-92B2-4311-8B46-8E34DCE5A4AF}"/>
-    <hyperlink ref="I325" r:id="rId1435" xr:uid="{6B3DD9B7-E8FF-4F23-8E34-B112959FF859}"/>
-    <hyperlink ref="J325" r:id="rId1436" xr:uid="{6D86619A-4002-4314-8A19-5A6BD2D74E86}"/>
-    <hyperlink ref="I327" r:id="rId1437" xr:uid="{03A187F0-1347-4B64-88DA-EFA4BE0DAD3A}"/>
-    <hyperlink ref="J327" r:id="rId1438" xr:uid="{DE5B4820-FF16-42D1-A8C3-C67250E0BF84}"/>
-    <hyperlink ref="I329" r:id="rId1439" xr:uid="{E7F88093-7AFF-41AB-8868-619B201C1106}"/>
-    <hyperlink ref="J329" r:id="rId1440" xr:uid="{5CEAB345-9632-4D23-855D-175090CD1FD7}"/>
-    <hyperlink ref="I330" r:id="rId1441" xr:uid="{49B05E95-606D-4637-86E3-0EE2078EFB04}"/>
-    <hyperlink ref="J330" r:id="rId1442" xr:uid="{2A34CF02-0922-4F73-AAF6-55CB80F63853}"/>
-    <hyperlink ref="I333" r:id="rId1443" xr:uid="{A1076879-4A4A-4BB7-9707-D46607051C4C}"/>
-    <hyperlink ref="J333" r:id="rId1444" xr:uid="{C59C9E85-2E86-4036-9509-CA180E144BFC}"/>
-    <hyperlink ref="F347" r:id="rId1445" xr:uid="{E5F00FAD-CD17-4629-80E5-6DC3ED7865AF}"/>
-    <hyperlink ref="G347" r:id="rId1446" xr:uid="{6E6B20A8-F499-4FBB-B3DA-A983A5605A7F}"/>
-    <hyperlink ref="H347" r:id="rId1447" xr:uid="{44966AD7-78CE-4880-AC66-E7F86B55D055}"/>
-    <hyperlink ref="I347" r:id="rId1448" xr:uid="{AC9717CB-87DF-473D-9805-455D162731EA}"/>
-    <hyperlink ref="J347" r:id="rId1449" xr:uid="{BD82C665-B99A-4470-A126-131CD9EFB230}"/>
-    <hyperlink ref="F348" r:id="rId1450" xr:uid="{11B9D2BE-BFE1-43C2-BD86-9C196A7AEB3C}"/>
-    <hyperlink ref="G348" r:id="rId1451" xr:uid="{899FA22A-95A2-4C62-82F2-FBB9EAFA112D}"/>
-    <hyperlink ref="H348" r:id="rId1452" xr:uid="{5B329F37-C524-4678-A18D-39072F7A47B5}"/>
-    <hyperlink ref="I348" r:id="rId1453" xr:uid="{10E1C1A0-5B64-4DFE-9E44-608D2BB5C6ED}"/>
-    <hyperlink ref="J348" r:id="rId1454" xr:uid="{3621C937-CFF9-4B2C-B670-0397DB38F4E6}"/>
-    <hyperlink ref="F349" r:id="rId1455" xr:uid="{DAD9857E-F42D-4F8C-9EEA-E5D815C19876}"/>
-    <hyperlink ref="G349" r:id="rId1456" xr:uid="{E96C5344-31AE-46B2-A966-4174C47BA907}"/>
-    <hyperlink ref="H349" r:id="rId1457" xr:uid="{9EB1AACA-D6FF-458A-9EDD-2CF17135B9D6}"/>
-    <hyperlink ref="I349" r:id="rId1458" xr:uid="{3C878564-9B35-4F04-9F38-5326414094A5}"/>
-    <hyperlink ref="J349" r:id="rId1459" xr:uid="{F61BB641-AA09-41C8-A934-392E61FF1FB7}"/>
-    <hyperlink ref="F350" r:id="rId1460" xr:uid="{B880025E-217D-4D2E-B008-81E812A73D99}"/>
-    <hyperlink ref="G350" r:id="rId1461" xr:uid="{0D8D48AD-6CBD-4305-BE5B-25BA2E133158}"/>
-    <hyperlink ref="H350" r:id="rId1462" xr:uid="{12D7C25C-ACC2-4882-962A-0D863759DDB4}"/>
-    <hyperlink ref="I350" r:id="rId1463" xr:uid="{19EF4D50-E33E-48B5-A4F8-920FF6D67A88}"/>
-    <hyperlink ref="J350" r:id="rId1464" xr:uid="{9E7843ED-3E44-448C-BDFF-7A9690997390}"/>
-    <hyperlink ref="F351" r:id="rId1465" xr:uid="{68E933E2-82D9-4C3E-AA07-F55F282FC524}"/>
-    <hyperlink ref="G351" r:id="rId1466" xr:uid="{0EF484D1-4660-4B09-AC45-95AAF306006D}"/>
-    <hyperlink ref="H351" r:id="rId1467" xr:uid="{F6CBAE5E-B3A9-42C1-84DF-0B4414EBDB0D}"/>
-    <hyperlink ref="I351" r:id="rId1468" xr:uid="{794E1743-3F8A-419D-84FD-994919C721D5}"/>
-    <hyperlink ref="J351" r:id="rId1469" xr:uid="{94CBA256-286B-43CF-A15C-BB2ADA07D8E4}"/>
-    <hyperlink ref="F352" r:id="rId1470" xr:uid="{2E754F5B-7AF5-4274-92C0-33F0DA59727A}"/>
-    <hyperlink ref="G352" r:id="rId1471" xr:uid="{20C552B4-25D7-4E32-A9D6-C68656260902}"/>
-    <hyperlink ref="H352" r:id="rId1472" xr:uid="{E89E8EF4-C2AB-49A1-8C28-631C6A0847E4}"/>
-    <hyperlink ref="I352" r:id="rId1473" xr:uid="{711CA091-D81F-42B6-B641-5D4B1E18DD41}"/>
-    <hyperlink ref="J352" r:id="rId1474" xr:uid="{B857136F-5C8F-4355-9AB7-1283FDE45829}"/>
-    <hyperlink ref="F353" r:id="rId1475" xr:uid="{5542DC5D-AB3B-49FF-807C-3C3305A7B076}"/>
-    <hyperlink ref="G353" r:id="rId1476" xr:uid="{A7930621-918D-4C0B-9FB7-35C3B84CB9BC}"/>
-    <hyperlink ref="H353" r:id="rId1477" xr:uid="{841078C7-96E6-4166-B6CE-59F3BBBD70D9}"/>
-    <hyperlink ref="I353" r:id="rId1478" xr:uid="{06BF4AE5-12B6-44CD-923C-13DDCDC0E57B}"/>
-    <hyperlink ref="J353" r:id="rId1479" xr:uid="{78AF7474-272E-4196-81C9-9A0F70908A86}"/>
-    <hyperlink ref="F354" r:id="rId1480" xr:uid="{95615DE4-395C-4381-AA59-3EEC57EDE99F}"/>
-    <hyperlink ref="G354" r:id="rId1481" xr:uid="{4F594879-30D8-45D2-84FA-D50E67981BAA}"/>
-    <hyperlink ref="H354" r:id="rId1482" xr:uid="{F390B035-184D-4492-9D1B-4A59BEC27860}"/>
-    <hyperlink ref="I354" r:id="rId1483" xr:uid="{33BB4538-3F04-4292-8D0E-C0E261F8F44D}"/>
-    <hyperlink ref="J354" r:id="rId1484" xr:uid="{3CE75AC1-FEB4-429D-B948-B31C2B4CC1AE}"/>
-    <hyperlink ref="F355" r:id="rId1485" xr:uid="{C4F5ED41-6FED-41B2-B77E-806DEBE44A76}"/>
-    <hyperlink ref="G355" r:id="rId1486" xr:uid="{17B8D3BD-1736-4649-A986-AB47EF2FC20E}"/>
-    <hyperlink ref="H355" r:id="rId1487" xr:uid="{6D9F36C4-170C-4092-8A16-3EC8113201CF}"/>
-    <hyperlink ref="I355" r:id="rId1488" xr:uid="{70C3CF2F-5CC5-4664-9D5D-FDB6193600DA}"/>
-    <hyperlink ref="J355" r:id="rId1489" xr:uid="{0045438D-6FFD-44E2-8C0F-9CC9F4BA0F5A}"/>
-    <hyperlink ref="F356" r:id="rId1490" xr:uid="{4F03E399-A65A-4F80-BCAE-F4C4E0B3BB38}"/>
-    <hyperlink ref="G356" r:id="rId1491" xr:uid="{83C50C12-4B43-491F-8CE4-DF151049F071}"/>
-    <hyperlink ref="H356" r:id="rId1492" xr:uid="{23C70C20-FBBF-4F45-932F-A26BD0398A9A}"/>
-    <hyperlink ref="I356" r:id="rId1493" xr:uid="{67BAE2EB-E8C2-4D49-A3E5-EFCA3374C352}"/>
-    <hyperlink ref="J356" r:id="rId1494" xr:uid="{7E2211CB-453C-46AE-BA43-45790804EFC5}"/>
-    <hyperlink ref="F357" r:id="rId1495" xr:uid="{91038F82-3832-4F60-A5F9-96D9C366F277}"/>
-    <hyperlink ref="G357" r:id="rId1496" xr:uid="{390899C9-B4F6-429A-A031-155DCC9A728B}"/>
-    <hyperlink ref="H357" r:id="rId1497" xr:uid="{0386AC29-3E18-438C-9AFD-07FD7E49C8A3}"/>
-    <hyperlink ref="I357" r:id="rId1498" xr:uid="{B9D54722-D8DA-4271-94BB-C186F661B45D}"/>
-    <hyperlink ref="J357" r:id="rId1499" xr:uid="{A6210485-CBF2-46A6-9DF9-5F1BD82A0E73}"/>
-    <hyperlink ref="F358" r:id="rId1500" xr:uid="{E6B6899F-A6D4-442C-9FC4-B49A86026833}"/>
-    <hyperlink ref="G358" r:id="rId1501" xr:uid="{957F2765-E3E8-4DFA-A661-243EE51910DD}"/>
-    <hyperlink ref="H358" r:id="rId1502" xr:uid="{C1CB46CC-B7F1-45CB-9B5B-DD114B29ADE7}"/>
-    <hyperlink ref="I358" r:id="rId1503" xr:uid="{337DF965-35CF-472C-BB05-671E33C5CF49}"/>
-    <hyperlink ref="J358" r:id="rId1504" xr:uid="{DDC3CE02-24C7-42BF-A2BA-3D3263F8A70C}"/>
-    <hyperlink ref="F359" r:id="rId1505" xr:uid="{271F7D2C-C922-4040-B397-6EC9338D99B6}"/>
-    <hyperlink ref="G359" r:id="rId1506" xr:uid="{66598E50-52AB-4E67-801D-EA292E114284}"/>
-    <hyperlink ref="H359" r:id="rId1507" xr:uid="{A35277CC-831B-4462-975A-915C2B653187}"/>
-    <hyperlink ref="I359" r:id="rId1508" xr:uid="{C9B3335E-28FB-4553-B56E-26D3E6E56125}"/>
-    <hyperlink ref="J359" r:id="rId1509" xr:uid="{A47CF0CC-3AAC-41D1-81C3-71652EEED0FD}"/>
-    <hyperlink ref="F360" r:id="rId1510" xr:uid="{41C206CB-246A-4B94-9995-F0C68454112E}"/>
-    <hyperlink ref="G360" r:id="rId1511" xr:uid="{D916C860-C90C-4D8C-AF1A-56FD67A3D3B6}"/>
-    <hyperlink ref="H360" r:id="rId1512" xr:uid="{F1022EB5-CB72-4C89-9AB5-3EDC2582840F}"/>
-    <hyperlink ref="I360" r:id="rId1513" xr:uid="{ABFCA587-A2BF-4D5F-B31C-CC4644E724E7}"/>
-    <hyperlink ref="J360" r:id="rId1514" xr:uid="{00128243-B096-4793-87FB-3A8BEA33420A}"/>
-    <hyperlink ref="F361" r:id="rId1515" xr:uid="{30FF3C82-3C53-4C09-9E08-4BF0FD24DCF9}"/>
+    <hyperlink ref="I225" r:id="rId1238" xr:uid="{F047C363-906D-4E64-8BEA-9F6C96D95EFE}"/>
+    <hyperlink ref="J225" r:id="rId1239" xr:uid="{A6600F27-5FF3-4725-B5FD-C2457D903920}"/>
+    <hyperlink ref="I226" r:id="rId1240" xr:uid="{955A3D20-8041-4364-A2ED-4C8D141CE4CB}"/>
+    <hyperlink ref="J226" r:id="rId1241" xr:uid="{80359421-242D-4E9C-912C-21BBFA095FE9}"/>
+    <hyperlink ref="I227" r:id="rId1242" xr:uid="{040EA980-3E07-42DE-A9CE-06ECAC9C711F}"/>
+    <hyperlink ref="J227" r:id="rId1243" xr:uid="{E1CA02ED-A98A-4626-91BE-07B0975C3039}"/>
+    <hyperlink ref="I228" r:id="rId1244" xr:uid="{D2202952-B169-4B54-A8D2-E4DB768D9CA3}"/>
+    <hyperlink ref="J228" r:id="rId1245" xr:uid="{E7B5A87B-4B71-49A5-953B-291B2B3B4229}"/>
+    <hyperlink ref="I229" r:id="rId1246" xr:uid="{38A387AB-2E5D-43D2-A0B3-D50B5ECB41BA}"/>
+    <hyperlink ref="J229" r:id="rId1247" xr:uid="{421B879A-8493-4090-89A5-B3B903E46FA7}"/>
+    <hyperlink ref="I230" r:id="rId1248" xr:uid="{E29082CF-F0F2-4A37-8EBC-E9B88EA33F23}"/>
+    <hyperlink ref="J230" r:id="rId1249" xr:uid="{28A2CEBD-05B5-4199-A227-1A4C227C48DF}"/>
+    <hyperlink ref="I231" r:id="rId1250" xr:uid="{96F77CC5-83BE-4425-B622-E390FA0DB04E}"/>
+    <hyperlink ref="J231" r:id="rId1251" xr:uid="{620ADB6C-4C2A-4033-8B0C-EFF8979D4BCE}"/>
+    <hyperlink ref="I232" r:id="rId1252" xr:uid="{EF72ED7C-C3E3-49C2-8A03-8DEDBC0B8DDD}"/>
+    <hyperlink ref="J232" r:id="rId1253" xr:uid="{566FD82C-2DD7-4163-A0A4-316A7E287A90}"/>
+    <hyperlink ref="I233" r:id="rId1254" xr:uid="{0FDBBF79-BB63-4BA8-B492-816F3C65867E}"/>
+    <hyperlink ref="J233" r:id="rId1255" xr:uid="{F40A2B0C-7716-4EED-9981-68A3D9549EF1}"/>
+    <hyperlink ref="I234" r:id="rId1256" xr:uid="{6F1CF67E-18C0-492E-8DEF-D744E56F3C99}"/>
+    <hyperlink ref="J234" r:id="rId1257" xr:uid="{C1FFC12F-CE03-4C60-9518-1D89C38DDCD8}"/>
+    <hyperlink ref="I235" r:id="rId1258" xr:uid="{244DBBBD-C6D7-4E75-9E30-242F3EA9533C}"/>
+    <hyperlink ref="J235" r:id="rId1259" xr:uid="{382C10D5-E331-40DE-8AB5-4B11048BBAF3}"/>
+    <hyperlink ref="I236" r:id="rId1260" xr:uid="{33FA9F65-454D-4DFB-94E3-21D66BE4F948}"/>
+    <hyperlink ref="J236" r:id="rId1261" xr:uid="{91F39EB9-5A9F-4928-B9BF-7E88266F362B}"/>
+    <hyperlink ref="I237" r:id="rId1262" xr:uid="{2E5AB7EF-536C-49BF-921C-3EC6141C267B}"/>
+    <hyperlink ref="J237" r:id="rId1263" xr:uid="{276C0FB0-A7B4-4ADE-83F7-CEC0798B54DB}"/>
+    <hyperlink ref="I238" r:id="rId1264" xr:uid="{79105AA0-CC62-41AF-95F8-5DA05BCCB24D}"/>
+    <hyperlink ref="J238" r:id="rId1265" xr:uid="{4B0319DA-F477-4CE4-AFAF-C5ED139071C2}"/>
+    <hyperlink ref="I239" r:id="rId1266" xr:uid="{1028D587-5E97-452A-864F-1D61C68651B5}"/>
+    <hyperlink ref="J239" r:id="rId1267" xr:uid="{021E3578-E403-4313-928C-2FD63759A2B8}"/>
+    <hyperlink ref="I240" r:id="rId1268" xr:uid="{0596EB26-5EC5-4C65-8448-ACC0E7D3A098}"/>
+    <hyperlink ref="J240" r:id="rId1269" xr:uid="{B01B83E1-8B74-46A1-B38C-63AEF8287DE8}"/>
+    <hyperlink ref="I241" r:id="rId1270" xr:uid="{14EB5493-C717-4AEF-9E5A-620C46266064}"/>
+    <hyperlink ref="J241" r:id="rId1271" xr:uid="{866E6FED-B268-46A0-AB10-49067BE24084}"/>
+    <hyperlink ref="I242" r:id="rId1272" xr:uid="{0B67A991-599C-4BC1-B589-9F6792277E24}"/>
+    <hyperlink ref="I243" r:id="rId1273" xr:uid="{86777F2C-BF80-4397-B463-072F7625722C}"/>
+    <hyperlink ref="J243" r:id="rId1274" xr:uid="{79C6396A-DD24-41F5-B888-F5E2B1A6D150}"/>
+    <hyperlink ref="I244" r:id="rId1275" xr:uid="{25E21AD4-21F8-46C4-8B7D-D107034C93D6}"/>
+    <hyperlink ref="J244" r:id="rId1276" xr:uid="{CD66E30B-34DA-419E-8814-BEB2DB242DBB}"/>
+    <hyperlink ref="I245" r:id="rId1277" xr:uid="{5DF6B3C6-73D9-4154-9441-24809A48CF79}"/>
+    <hyperlink ref="J245" r:id="rId1278" xr:uid="{75ECC3D0-EBFD-4193-A27B-FD0794706F3E}"/>
+    <hyperlink ref="I246" r:id="rId1279" xr:uid="{A485D4F1-624D-4EBF-88A6-59C086832F54}"/>
+    <hyperlink ref="J246" r:id="rId1280" xr:uid="{614050F5-2670-468B-8BD4-E313914CC88E}"/>
+    <hyperlink ref="I247" r:id="rId1281" xr:uid="{C31499A4-9478-4299-B1E7-9DCC2B893D2E}"/>
+    <hyperlink ref="J247" r:id="rId1282" xr:uid="{5B2E87A8-EFCF-4245-9CF4-FB6A7E0B43E1}"/>
+    <hyperlink ref="I248" r:id="rId1283" xr:uid="{C127F333-029E-4B62-9996-9A5A8D08F9DD}"/>
+    <hyperlink ref="J248" r:id="rId1284" xr:uid="{CBF85A96-9C0A-426B-B97B-EF5E7392E475}"/>
+    <hyperlink ref="I249" r:id="rId1285" xr:uid="{F336C709-48D8-49BD-84EC-89693512D1F4}"/>
+    <hyperlink ref="J249" r:id="rId1286" xr:uid="{7805EC1C-6247-452A-A511-1BE3CD9298A2}"/>
+    <hyperlink ref="I250" r:id="rId1287" xr:uid="{06991117-A772-41ED-BB5A-6ABE661A816D}"/>
+    <hyperlink ref="J250" r:id="rId1288" xr:uid="{B639FE66-6207-4491-A97C-30A997948238}"/>
+    <hyperlink ref="I251" r:id="rId1289" xr:uid="{89082027-6C56-48C2-8205-3D5828DCA197}"/>
+    <hyperlink ref="J251" r:id="rId1290" xr:uid="{3E212D5C-812C-454F-BE41-0D0F8B94D47B}"/>
+    <hyperlink ref="I252" r:id="rId1291" xr:uid="{92BA5FD1-8177-44AF-B505-FD45D1E7F15E}"/>
+    <hyperlink ref="J252" r:id="rId1292" xr:uid="{CB96A757-FF42-4658-889C-0A767440E2AA}"/>
+    <hyperlink ref="I253" r:id="rId1293" xr:uid="{E243345E-48FE-4B81-B3B6-F7C5651232D9}"/>
+    <hyperlink ref="J253" r:id="rId1294" xr:uid="{F800944B-CB3F-4AE1-ACC2-ED6EB497D137}"/>
+    <hyperlink ref="I254" r:id="rId1295" xr:uid="{0990C783-F0CA-4E27-9FEC-62A421B5C02A}"/>
+    <hyperlink ref="J254" r:id="rId1296" xr:uid="{F48EA102-230B-4583-8727-8AA6A69D66A0}"/>
+    <hyperlink ref="I255" r:id="rId1297" xr:uid="{2111C6EB-A437-4C65-9F3B-F84DECA50BF3}"/>
+    <hyperlink ref="J255" r:id="rId1298" xr:uid="{C1AEAF32-FEBC-414E-93EB-E28E3EE286CB}"/>
+    <hyperlink ref="I256" r:id="rId1299" xr:uid="{4F99336E-DEF3-445E-A24B-18039652D6C2}"/>
+    <hyperlink ref="J256" r:id="rId1300" xr:uid="{F6FF38A1-0E90-49DB-8BF6-E20E24A0BB6B}"/>
+    <hyperlink ref="I257" r:id="rId1301" xr:uid="{7BC1B2C7-B52D-491B-B820-E67372ED3035}"/>
+    <hyperlink ref="J257" r:id="rId1302" xr:uid="{43108DB3-D146-4C55-9063-29FE418CA2DE}"/>
+    <hyperlink ref="I258" r:id="rId1303" xr:uid="{A836D205-1DAA-4CD3-9FDF-0C20432C457E}"/>
+    <hyperlink ref="J258" r:id="rId1304" xr:uid="{1A96EA2F-8BEF-4BFE-944C-388A85EFC360}"/>
+    <hyperlink ref="I259" r:id="rId1305" xr:uid="{55393278-8AC3-46E8-9417-1E95492AA88C}"/>
+    <hyperlink ref="J259" r:id="rId1306" xr:uid="{EA8A1059-0563-46C3-9D4D-EEDBBFBA3D24}"/>
+    <hyperlink ref="I260" r:id="rId1307" xr:uid="{5B983455-91B2-4E89-B503-4BDEF0CA6158}"/>
+    <hyperlink ref="J260" r:id="rId1308" xr:uid="{FCEB53B6-9ECC-4836-9AE1-CCD697F9DF55}"/>
+    <hyperlink ref="I261" r:id="rId1309" xr:uid="{1C26B72B-24CA-4A20-8AAD-6E72281B30F8}"/>
+    <hyperlink ref="J261" r:id="rId1310" xr:uid="{555163DD-9062-4B29-875B-F323B45AF83B}"/>
+    <hyperlink ref="I262" r:id="rId1311" xr:uid="{74BC4A8F-C8CD-4983-897F-31D5B87F82B9}"/>
+    <hyperlink ref="J262" r:id="rId1312" xr:uid="{200FB153-32E7-4F10-8580-E83DFC271736}"/>
+    <hyperlink ref="I263" r:id="rId1313" xr:uid="{90912F0F-336E-4F7F-A5C0-CE0859AA58FF}"/>
+    <hyperlink ref="J263" r:id="rId1314" xr:uid="{83F16E51-C450-4ED5-ACDE-2738A419A434}"/>
+    <hyperlink ref="I264" r:id="rId1315" xr:uid="{7EF24EAB-7B1A-4587-ACE2-AF62C9767EBA}"/>
+    <hyperlink ref="J264" r:id="rId1316" xr:uid="{822B90E5-A680-45E2-A2C2-5825BB8F132D}"/>
+    <hyperlink ref="I266" r:id="rId1317" xr:uid="{FB5A0E3F-8E22-47B5-A3FB-73FD09962C47}"/>
+    <hyperlink ref="J266" r:id="rId1318" xr:uid="{56FE962A-6809-4626-A03A-7B9D34B29171}"/>
+    <hyperlink ref="J267" r:id="rId1319" xr:uid="{6708F5CB-E71E-49C8-B3ED-266EE9359640}"/>
+    <hyperlink ref="I267" r:id="rId1320" xr:uid="{D1F1AFF9-6988-45C0-9506-C6840333384D}"/>
+    <hyperlink ref="I268" r:id="rId1321" xr:uid="{21569E89-4003-409B-B98C-D32C1CEE1DA0}"/>
+    <hyperlink ref="J268" r:id="rId1322" xr:uid="{80D3EF35-701F-4B7E-9E72-25BF6ABA4635}"/>
+    <hyperlink ref="I269" r:id="rId1323" xr:uid="{68F17FCC-AF0D-42BF-B775-E057D94234F7}"/>
+    <hyperlink ref="J269" r:id="rId1324" xr:uid="{8B20AF17-90EC-43F8-BE32-FAE380E6C838}"/>
+    <hyperlink ref="I270" r:id="rId1325" xr:uid="{C983A9A5-CEE8-4695-B995-BFDD81C9B2C7}"/>
+    <hyperlink ref="J270" r:id="rId1326" xr:uid="{4AD308DB-40A2-4423-874D-202538288676}"/>
+    <hyperlink ref="I271" r:id="rId1327" xr:uid="{936F18DA-C9A0-4888-AF48-56CBF8219C4B}"/>
+    <hyperlink ref="J271" r:id="rId1328" xr:uid="{5AAF511C-19A0-4443-8FBF-8A950519987A}"/>
+    <hyperlink ref="I273" r:id="rId1329" xr:uid="{33A8445A-9C7F-4BEF-8CE1-29447C2FDD96}"/>
+    <hyperlink ref="J273" r:id="rId1330" xr:uid="{3031F5AA-0C1F-4325-82EA-7B6152C95E0A}"/>
+    <hyperlink ref="I274" r:id="rId1331" xr:uid="{F55844DE-E31A-4409-A931-EBF9D71FC0DD}"/>
+    <hyperlink ref="J274" r:id="rId1332" xr:uid="{618CDA92-D567-4521-A4F8-AC817787DE5C}"/>
+    <hyperlink ref="I275" r:id="rId1333" xr:uid="{647ABC56-CF1B-4113-96A2-B0B915FCBE88}"/>
+    <hyperlink ref="J275" r:id="rId1334" xr:uid="{493AA7D5-B4A6-4E16-95E0-30213C1B1579}"/>
+    <hyperlink ref="I276" r:id="rId1335" xr:uid="{2BCF0715-E193-4CF4-9B57-1F2EAACB553E}"/>
+    <hyperlink ref="J276" r:id="rId1336" xr:uid="{79B37A2D-1EA0-446C-9E02-C9C923E9B519}"/>
+    <hyperlink ref="I277" r:id="rId1337" xr:uid="{D0E458B4-465E-4110-8B99-B3B674193914}"/>
+    <hyperlink ref="J277" r:id="rId1338" xr:uid="{BDA23700-888E-42E1-AC73-6B1A9F407B82}"/>
+    <hyperlink ref="I278" r:id="rId1339" xr:uid="{E28E222D-10CE-4B1C-9209-F93B042BD7DC}"/>
+    <hyperlink ref="J278" r:id="rId1340" xr:uid="{B525C631-D6AC-4F35-827E-549FA00C43B3}"/>
+    <hyperlink ref="I279" r:id="rId1341" xr:uid="{8D9E1100-E165-411A-B8FE-999BB33A1798}"/>
+    <hyperlink ref="J279" r:id="rId1342" xr:uid="{61D6BC4B-F8DB-4767-8EF9-5B35ED9595A8}"/>
+    <hyperlink ref="I280" r:id="rId1343" xr:uid="{CB0765D0-0585-43C0-85B2-8A58FF28AEE3}"/>
+    <hyperlink ref="J280" r:id="rId1344" xr:uid="{431E923E-09AA-4822-8B92-94CE7A2E2E93}"/>
+    <hyperlink ref="I282" r:id="rId1345" xr:uid="{1F1EBDC1-37D0-494D-9F4C-E4BAF2199365}"/>
+    <hyperlink ref="J282" r:id="rId1346" xr:uid="{33D9076A-0D41-4C39-9004-83A665C74F90}"/>
+    <hyperlink ref="I283" r:id="rId1347" xr:uid="{3A7F3910-96FA-4B6C-B3A2-284BE63713D8}"/>
+    <hyperlink ref="J283" r:id="rId1348" xr:uid="{6431B938-08BB-401A-AD5A-0000ACF07024}"/>
+    <hyperlink ref="I284" r:id="rId1349" xr:uid="{7DB142BF-23D9-4306-AB3D-C982156ED984}"/>
+    <hyperlink ref="J284" r:id="rId1350" xr:uid="{E3AC3BE9-3DAB-4165-B675-1D144998C813}"/>
+    <hyperlink ref="I285" r:id="rId1351" xr:uid="{540D65E6-19E3-4D12-BB96-4DCFC40DE974}"/>
+    <hyperlink ref="J285" r:id="rId1352" xr:uid="{4811CD38-DA56-4913-BF26-D70632A92616}"/>
+    <hyperlink ref="I286" r:id="rId1353" xr:uid="{9ACB9709-E852-4290-AD7A-C54C7F1E9627}"/>
+    <hyperlink ref="J286" r:id="rId1354" xr:uid="{5E6D98A2-4CD8-4C19-A127-AF0A682A9A8D}"/>
+    <hyperlink ref="I287" r:id="rId1355" xr:uid="{E1BA5DFA-9FA8-4116-A078-81D04F478B76}"/>
+    <hyperlink ref="J287" r:id="rId1356" xr:uid="{5CBE5006-4896-4383-8D63-F7E7D116DEEC}"/>
+    <hyperlink ref="I288" r:id="rId1357" xr:uid="{3AFF46DA-9A35-41C7-AD2E-2C2BA0CD2176}"/>
+    <hyperlink ref="J288" r:id="rId1358" xr:uid="{4898CBA1-66FC-43F7-8D11-FE1339122552}"/>
+    <hyperlink ref="I289" r:id="rId1359" xr:uid="{D8DC2967-5820-41CB-9A61-C06FD3DEC322}"/>
+    <hyperlink ref="J289" r:id="rId1360" xr:uid="{974354A5-8F12-4E12-9655-5298DAAF7B17}"/>
+    <hyperlink ref="I290" r:id="rId1361" xr:uid="{BA79A7C8-706A-4A8C-A52E-AFD23120F1D2}"/>
+    <hyperlink ref="J290" r:id="rId1362" xr:uid="{A8B44967-081D-427C-BA84-C91AFFC247CD}"/>
+    <hyperlink ref="I291" r:id="rId1363" xr:uid="{4EAFA38F-34A6-457F-AFD8-0E9D321294E8}"/>
+    <hyperlink ref="J291" r:id="rId1364" xr:uid="{E253A7C6-6B2E-4CD2-A95A-EF1F7BC82BA1}"/>
+    <hyperlink ref="I292" r:id="rId1365" xr:uid="{4E2B250D-9B2D-471F-9DD7-306AB22A402C}"/>
+    <hyperlink ref="J292" r:id="rId1366" xr:uid="{BBCEAF33-BD4D-4AD9-91DE-C0CCA8B53E38}"/>
+    <hyperlink ref="I293" r:id="rId1367" xr:uid="{04859C78-0994-4C56-8675-70EB76F39D7C}"/>
+    <hyperlink ref="J293" r:id="rId1368" xr:uid="{BA3CCDA8-9E09-42C8-ADEC-F1A12F1FF7C8}"/>
+    <hyperlink ref="I294" r:id="rId1369" xr:uid="{3CC90E37-1BF5-4262-934D-A37993466EA3}"/>
+    <hyperlink ref="J294" r:id="rId1370" xr:uid="{E7761221-3353-4AEE-BBB1-41ED2D45B41A}"/>
+    <hyperlink ref="I295" r:id="rId1371" xr:uid="{8FA9A865-0FFA-42CE-BA34-CE4F2C830BF3}"/>
+    <hyperlink ref="J295" r:id="rId1372" xr:uid="{2D70BF3F-BDD9-47BA-8DE9-25F7BBBD5A11}"/>
+    <hyperlink ref="I296" r:id="rId1373" xr:uid="{6DC7B8A1-4772-4E23-89A3-6DD1EDB003A8}"/>
+    <hyperlink ref="J296" r:id="rId1374" xr:uid="{88DFBCDE-5E18-4C8B-900C-909738CD4BA8}"/>
+    <hyperlink ref="I297" r:id="rId1375" xr:uid="{A4B45442-E1A1-4A8A-B0E1-1758E18DE5E9}"/>
+    <hyperlink ref="J297" r:id="rId1376" xr:uid="{79244E1F-1B5D-4F1D-B0F1-66AA0AEFFFA2}"/>
+    <hyperlink ref="I298" r:id="rId1377" xr:uid="{84F4B428-5E78-466D-AB76-E9437075623B}"/>
+    <hyperlink ref="J298" r:id="rId1378" xr:uid="{12EB92BD-D2E1-40BF-95F3-FA3ADDB01E90}"/>
+    <hyperlink ref="I299" r:id="rId1379" xr:uid="{8EEABF58-D65C-47DF-81F0-E1CF211BE37A}"/>
+    <hyperlink ref="J299" r:id="rId1380" xr:uid="{4F19D743-EDA6-4667-ACC3-13AE8966993A}"/>
+    <hyperlink ref="I300" r:id="rId1381" xr:uid="{A8F2BF96-9966-467E-9D99-963BF9EE6462}"/>
+    <hyperlink ref="J300" r:id="rId1382" xr:uid="{FF2C4D5B-1103-490F-9449-EB7033E0ABF0}"/>
+    <hyperlink ref="I301" r:id="rId1383" xr:uid="{47F3A1BD-FC3C-4DDC-B0BB-183DA4A17B41}"/>
+    <hyperlink ref="J301" r:id="rId1384" xr:uid="{45013952-3321-445D-842A-4E8BE396BBF4}"/>
+    <hyperlink ref="I302" r:id="rId1385" xr:uid="{7A0E4B3A-9CB1-4216-BD6B-40D0D9C5078C}"/>
+    <hyperlink ref="J302" r:id="rId1386" xr:uid="{A34B792F-6594-4B13-8C9C-73727350CDD8}"/>
+    <hyperlink ref="I303" r:id="rId1387" xr:uid="{7BA252F5-C9B8-4BC0-8F0F-FA5EFAFC8CAA}"/>
+    <hyperlink ref="J303" r:id="rId1388" xr:uid="{D0600B32-DE16-4808-BF6A-1F0D6F21CC3F}"/>
+    <hyperlink ref="I304" r:id="rId1389" xr:uid="{E1EA2C31-9E58-438B-84E1-6DFCBBDC27D0}"/>
+    <hyperlink ref="J304" r:id="rId1390" xr:uid="{AE252CB4-6A25-4D21-82AE-2A8715E79BBC}"/>
+    <hyperlink ref="I305" r:id="rId1391" xr:uid="{E67DB4C0-3572-48E7-B0C4-5279C28C3911}"/>
+    <hyperlink ref="J305" r:id="rId1392" xr:uid="{869ABC22-3AD5-4519-9F8E-36FE1C78B7FD}"/>
+    <hyperlink ref="I306" r:id="rId1393" xr:uid="{EEE25A09-882F-4916-8120-4CACA368ED9F}"/>
+    <hyperlink ref="J306" r:id="rId1394" xr:uid="{130ED3AE-8E28-4995-98AB-66F26D1CA7D8}"/>
+    <hyperlink ref="I307" r:id="rId1395" xr:uid="{DD637F4D-7DFA-4A08-A241-B1D3550076F1}"/>
+    <hyperlink ref="J307" r:id="rId1396" xr:uid="{EDAD5D19-187A-4653-B3DE-369EFF183F9E}"/>
+    <hyperlink ref="I308" r:id="rId1397" xr:uid="{B484FDE1-EC98-4222-9EDD-28F337AA9AC0}"/>
+    <hyperlink ref="J308" r:id="rId1398" xr:uid="{B7303B11-E453-4E23-BBD7-C5F3A73C96DE}"/>
+    <hyperlink ref="I309" r:id="rId1399" xr:uid="{1A3809D7-3861-44E3-9014-9BD2E75D01B8}"/>
+    <hyperlink ref="J309" r:id="rId1400" xr:uid="{BC9BBD38-AB11-4009-9372-54A28B94F13E}"/>
+    <hyperlink ref="I310" r:id="rId1401" xr:uid="{DC80F0E0-335E-4334-BF2A-152A2B3C118B}"/>
+    <hyperlink ref="J310" r:id="rId1402" xr:uid="{7CCF2EA0-CA0C-4552-B799-9FC3A85973F3}"/>
+    <hyperlink ref="I311" r:id="rId1403" xr:uid="{078519EE-2E27-4390-8695-E498CAFBC384}"/>
+    <hyperlink ref="J311" r:id="rId1404" xr:uid="{BE52A010-24A7-4F02-A309-E103F0065CA4}"/>
+    <hyperlink ref="I312" r:id="rId1405" xr:uid="{C8FBA5EA-564E-4A94-988A-304A327D42D7}"/>
+    <hyperlink ref="J312" r:id="rId1406" xr:uid="{07B54400-77B0-4A41-AB6A-855FA9B1916C}"/>
+    <hyperlink ref="I313" r:id="rId1407" xr:uid="{3CDF90B0-EFD5-41AF-88BA-220125DD70CB}"/>
+    <hyperlink ref="J313" r:id="rId1408" xr:uid="{63860465-E04D-4419-980C-8A0DF61097DA}"/>
+    <hyperlink ref="I314" r:id="rId1409" xr:uid="{98F74A35-9606-4D90-BDE9-94D1FC044B6E}"/>
+    <hyperlink ref="J314" r:id="rId1410" xr:uid="{714AA937-5882-422E-A076-EB1CE17692CD}"/>
+    <hyperlink ref="I315" r:id="rId1411" xr:uid="{66187586-B607-4CED-B89A-A5621FFF53CC}"/>
+    <hyperlink ref="J315" r:id="rId1412" xr:uid="{7D1DC5FB-E5F6-44BA-A425-AF96C14C52B8}"/>
+    <hyperlink ref="I316" r:id="rId1413" xr:uid="{FD235E92-7703-47BD-AB06-9B08F0D8799A}"/>
+    <hyperlink ref="J316" r:id="rId1414" xr:uid="{51442F2B-E087-4DBE-94EA-BE392A333E94}"/>
+    <hyperlink ref="I317" r:id="rId1415" xr:uid="{442B8E64-2F94-4B7E-85D5-887DF1073EFA}"/>
+    <hyperlink ref="J317" r:id="rId1416" xr:uid="{975DC67F-1789-4CF9-9032-B509F9FD048F}"/>
+    <hyperlink ref="I318" r:id="rId1417" xr:uid="{E7519F59-96DF-4614-9B83-93F1C67849A2}"/>
+    <hyperlink ref="J318" r:id="rId1418" xr:uid="{29ABBF44-17CA-4292-BB95-E63B8E0D85F3}"/>
+    <hyperlink ref="I319" r:id="rId1419" xr:uid="{D0B07EF5-D172-48FF-BEEC-0E6A2897735E}"/>
+    <hyperlink ref="J319" r:id="rId1420" xr:uid="{719AE4A4-B62D-4AF6-8607-ABD7657ADC0E}"/>
+    <hyperlink ref="I320" r:id="rId1421" xr:uid="{E6533899-F1AB-4359-9F78-0C3DC0B9E672}"/>
+    <hyperlink ref="J320" r:id="rId1422" xr:uid="{2A0D27F5-13B5-46E9-946F-E2F8CA6DAABD}"/>
+    <hyperlink ref="I321" r:id="rId1423" xr:uid="{75A6CFB4-F47E-4C00-AED3-1E9AB1125450}"/>
+    <hyperlink ref="J321" r:id="rId1424" xr:uid="{330E8F1E-F934-467A-AD06-EFF336AAD676}"/>
+    <hyperlink ref="I322" r:id="rId1425" xr:uid="{A45C62E2-AB96-4BDA-8CF0-C5D9976307F8}"/>
+    <hyperlink ref="J322" r:id="rId1426" xr:uid="{49E526A1-4C40-4B2A-BE63-B43E2ECE72C6}"/>
+    <hyperlink ref="I323" r:id="rId1427" xr:uid="{8598314B-C2AF-4C03-BB43-0799365E5709}"/>
+    <hyperlink ref="J323" r:id="rId1428" xr:uid="{DFC1A003-070B-48FE-8D82-A10643E603D8}"/>
+    <hyperlink ref="I324" r:id="rId1429" xr:uid="{36DECB2B-0A1B-4EAE-8EB5-6E4D643F6809}"/>
+    <hyperlink ref="J324" r:id="rId1430" xr:uid="{DBF759FA-92B2-4311-8B46-8E34DCE5A4AF}"/>
+    <hyperlink ref="I325" r:id="rId1431" xr:uid="{6B3DD9B7-E8FF-4F23-8E34-B112959FF859}"/>
+    <hyperlink ref="J325" r:id="rId1432" xr:uid="{6D86619A-4002-4314-8A19-5A6BD2D74E86}"/>
+    <hyperlink ref="I327" r:id="rId1433" xr:uid="{03A187F0-1347-4B64-88DA-EFA4BE0DAD3A}"/>
+    <hyperlink ref="J327" r:id="rId1434" xr:uid="{DE5B4820-FF16-42D1-A8C3-C67250E0BF84}"/>
+    <hyperlink ref="I329" r:id="rId1435" xr:uid="{E7F88093-7AFF-41AB-8868-619B201C1106}"/>
+    <hyperlink ref="J329" r:id="rId1436" xr:uid="{5CEAB345-9632-4D23-855D-175090CD1FD7}"/>
+    <hyperlink ref="I330" r:id="rId1437" xr:uid="{49B05E95-606D-4637-86E3-0EE2078EFB04}"/>
+    <hyperlink ref="J330" r:id="rId1438" xr:uid="{2A34CF02-0922-4F73-AAF6-55CB80F63853}"/>
+    <hyperlink ref="I333" r:id="rId1439" xr:uid="{A1076879-4A4A-4BB7-9707-D46607051C4C}"/>
+    <hyperlink ref="J333" r:id="rId1440" xr:uid="{C59C9E85-2E86-4036-9509-CA180E144BFC}"/>
+    <hyperlink ref="F347" r:id="rId1441" xr:uid="{E5F00FAD-CD17-4629-80E5-6DC3ED7865AF}"/>
+    <hyperlink ref="G347" r:id="rId1442" xr:uid="{6E6B20A8-F499-4FBB-B3DA-A983A5605A7F}"/>
+    <hyperlink ref="H347" r:id="rId1443" xr:uid="{44966AD7-78CE-4880-AC66-E7F86B55D055}"/>
+    <hyperlink ref="I347" r:id="rId1444" xr:uid="{AC9717CB-87DF-473D-9805-455D162731EA}"/>
+    <hyperlink ref="J347" r:id="rId1445" xr:uid="{BD82C665-B99A-4470-A126-131CD9EFB230}"/>
+    <hyperlink ref="F348" r:id="rId1446" xr:uid="{11B9D2BE-BFE1-43C2-BD86-9C196A7AEB3C}"/>
+    <hyperlink ref="G348" r:id="rId1447" xr:uid="{899FA22A-95A2-4C62-82F2-FBB9EAFA112D}"/>
+    <hyperlink ref="H348" r:id="rId1448" xr:uid="{5B329F37-C524-4678-A18D-39072F7A47B5}"/>
+    <hyperlink ref="I348" r:id="rId1449" xr:uid="{10E1C1A0-5B64-4DFE-9E44-608D2BB5C6ED}"/>
+    <hyperlink ref="J348" r:id="rId1450" xr:uid="{3621C937-CFF9-4B2C-B670-0397DB38F4E6}"/>
+    <hyperlink ref="F349" r:id="rId1451" xr:uid="{DAD9857E-F42D-4F8C-9EEA-E5D815C19876}"/>
+    <hyperlink ref="G349" r:id="rId1452" xr:uid="{E96C5344-31AE-46B2-A966-4174C47BA907}"/>
+    <hyperlink ref="H349" r:id="rId1453" xr:uid="{9EB1AACA-D6FF-458A-9EDD-2CF17135B9D6}"/>
+    <hyperlink ref="I349" r:id="rId1454" xr:uid="{3C878564-9B35-4F04-9F38-5326414094A5}"/>
+    <hyperlink ref="J349" r:id="rId1455" xr:uid="{F61BB641-AA09-41C8-A934-392E61FF1FB7}"/>
+    <hyperlink ref="F350" r:id="rId1456" xr:uid="{B880025E-217D-4D2E-B008-81E812A73D99}"/>
+    <hyperlink ref="G350" r:id="rId1457" xr:uid="{0D8D48AD-6CBD-4305-BE5B-25BA2E133158}"/>
+    <hyperlink ref="H350" r:id="rId1458" xr:uid="{12D7C25C-ACC2-4882-962A-0D863759DDB4}"/>
+    <hyperlink ref="I350" r:id="rId1459" xr:uid="{19EF4D50-E33E-48B5-A4F8-920FF6D67A88}"/>
+    <hyperlink ref="J350" r:id="rId1460" xr:uid="{9E7843ED-3E44-448C-BDFF-7A9690997390}"/>
+    <hyperlink ref="F351" r:id="rId1461" xr:uid="{68E933E2-82D9-4C3E-AA07-F55F282FC524}"/>
+    <hyperlink ref="G351" r:id="rId1462" xr:uid="{0EF484D1-4660-4B09-AC45-95AAF306006D}"/>
+    <hyperlink ref="H351" r:id="rId1463" xr:uid="{F6CBAE5E-B3A9-42C1-84DF-0B4414EBDB0D}"/>
+    <hyperlink ref="I351" r:id="rId1464" xr:uid="{794E1743-3F8A-419D-84FD-994919C721D5}"/>
+    <hyperlink ref="J351" r:id="rId1465" xr:uid="{94CBA256-286B-43CF-A15C-BB2ADA07D8E4}"/>
+    <hyperlink ref="F352" r:id="rId1466" xr:uid="{2E754F5B-7AF5-4274-92C0-33F0DA59727A}"/>
+    <hyperlink ref="G352" r:id="rId1467" xr:uid="{20C552B4-25D7-4E32-A9D6-C68656260902}"/>
+    <hyperlink ref="H352" r:id="rId1468" xr:uid="{E89E8EF4-C2AB-49A1-8C28-631C6A0847E4}"/>
+    <hyperlink ref="I352" r:id="rId1469" xr:uid="{711CA091-D81F-42B6-B641-5D4B1E18DD41}"/>
+    <hyperlink ref="J352" r:id="rId1470" xr:uid="{B857136F-5C8F-4355-9AB7-1283FDE45829}"/>
+    <hyperlink ref="F353" r:id="rId1471" xr:uid="{5542DC5D-AB3B-49FF-807C-3C3305A7B076}"/>
+    <hyperlink ref="G353" r:id="rId1472" xr:uid="{A7930621-918D-4C0B-9FB7-35C3B84CB9BC}"/>
+    <hyperlink ref="H353" r:id="rId1473" xr:uid="{841078C7-96E6-4166-B6CE-59F3BBBD70D9}"/>
+    <hyperlink ref="I353" r:id="rId1474" xr:uid="{06BF4AE5-12B6-44CD-923C-13DDCDC0E57B}"/>
+    <hyperlink ref="J353" r:id="rId1475" xr:uid="{78AF7474-272E-4196-81C9-9A0F70908A86}"/>
+    <hyperlink ref="F354" r:id="rId1476" xr:uid="{95615DE4-395C-4381-AA59-3EEC57EDE99F}"/>
+    <hyperlink ref="G354" r:id="rId1477" xr:uid="{4F594879-30D8-45D2-84FA-D50E67981BAA}"/>
+    <hyperlink ref="H354" r:id="rId1478" xr:uid="{F390B035-184D-4492-9D1B-4A59BEC27860}"/>
+    <hyperlink ref="I354" r:id="rId1479" xr:uid="{33BB4538-3F04-4292-8D0E-C0E261F8F44D}"/>
+    <hyperlink ref="J354" r:id="rId1480" xr:uid="{3CE75AC1-FEB4-429D-B948-B31C2B4CC1AE}"/>
+    <hyperlink ref="F355" r:id="rId1481" xr:uid="{C4F5ED41-6FED-41B2-B77E-806DEBE44A76}"/>
+    <hyperlink ref="G355" r:id="rId1482" xr:uid="{17B8D3BD-1736-4649-A986-AB47EF2FC20E}"/>
+    <hyperlink ref="H355" r:id="rId1483" xr:uid="{6D9F36C4-170C-4092-8A16-3EC8113201CF}"/>
+    <hyperlink ref="I355" r:id="rId1484" xr:uid="{70C3CF2F-5CC5-4664-9D5D-FDB6193600DA}"/>
+    <hyperlink ref="J355" r:id="rId1485" xr:uid="{0045438D-6FFD-44E2-8C0F-9CC9F4BA0F5A}"/>
+    <hyperlink ref="F356" r:id="rId1486" xr:uid="{4F03E399-A65A-4F80-BCAE-F4C4E0B3BB38}"/>
+    <hyperlink ref="G356" r:id="rId1487" xr:uid="{83C50C12-4B43-491F-8CE4-DF151049F071}"/>
+    <hyperlink ref="H356" r:id="rId1488" xr:uid="{23C70C20-FBBF-4F45-932F-A26BD0398A9A}"/>
+    <hyperlink ref="I356" r:id="rId1489" xr:uid="{67BAE2EB-E8C2-4D49-A3E5-EFCA3374C352}"/>
+    <hyperlink ref="J356" r:id="rId1490" xr:uid="{7E2211CB-453C-46AE-BA43-45790804EFC5}"/>
+    <hyperlink ref="F357" r:id="rId1491" xr:uid="{91038F82-3832-4F60-A5F9-96D9C366F277}"/>
+    <hyperlink ref="G357" r:id="rId1492" xr:uid="{390899C9-B4F6-429A-A031-155DCC9A728B}"/>
+    <hyperlink ref="H357" r:id="rId1493" xr:uid="{0386AC29-3E18-438C-9AFD-07FD7E49C8A3}"/>
+    <hyperlink ref="I357" r:id="rId1494" xr:uid="{B9D54722-D8DA-4271-94BB-C186F661B45D}"/>
+    <hyperlink ref="J357" r:id="rId1495" xr:uid="{A6210485-CBF2-46A6-9DF9-5F1BD82A0E73}"/>
+    <hyperlink ref="F358" r:id="rId1496" xr:uid="{E6B6899F-A6D4-442C-9FC4-B49A86026833}"/>
+    <hyperlink ref="G358" r:id="rId1497" xr:uid="{957F2765-E3E8-4DFA-A661-243EE51910DD}"/>
+    <hyperlink ref="H358" r:id="rId1498" xr:uid="{C1CB46CC-B7F1-45CB-9B5B-DD114B29ADE7}"/>
+    <hyperlink ref="I358" r:id="rId1499" xr:uid="{337DF965-35CF-472C-BB05-671E33C5CF49}"/>
+    <hyperlink ref="J358" r:id="rId1500" xr:uid="{DDC3CE02-24C7-42BF-A2BA-3D3263F8A70C}"/>
+    <hyperlink ref="F359" r:id="rId1501" xr:uid="{271F7D2C-C922-4040-B397-6EC9338D99B6}"/>
+    <hyperlink ref="G359" r:id="rId1502" xr:uid="{66598E50-52AB-4E67-801D-EA292E114284}"/>
+    <hyperlink ref="H359" r:id="rId1503" xr:uid="{A35277CC-831B-4462-975A-915C2B653187}"/>
+    <hyperlink ref="I359" r:id="rId1504" xr:uid="{C9B3335E-28FB-4553-B56E-26D3E6E56125}"/>
+    <hyperlink ref="J359" r:id="rId1505" xr:uid="{A47CF0CC-3AAC-41D1-81C3-71652EEED0FD}"/>
+    <hyperlink ref="F360" r:id="rId1506" xr:uid="{41C206CB-246A-4B94-9995-F0C68454112E}"/>
+    <hyperlink ref="G360" r:id="rId1507" xr:uid="{D916C860-C90C-4D8C-AF1A-56FD67A3D3B6}"/>
+    <hyperlink ref="H360" r:id="rId1508" xr:uid="{F1022EB5-CB72-4C89-9AB5-3EDC2582840F}"/>
+    <hyperlink ref="I360" r:id="rId1509" xr:uid="{ABFCA587-A2BF-4D5F-B31C-CC4644E724E7}"/>
+    <hyperlink ref="J360" r:id="rId1510" xr:uid="{00128243-B096-4793-87FB-3A8BEA33420A}"/>
+    <hyperlink ref="F361" r:id="rId1511" xr:uid="{30FF3C82-3C53-4C09-9E08-4BF0FD24DCF9}"/>
+    <hyperlink ref="I224" r:id="rId1512" xr:uid="{0928CE4E-E37E-4BD4-BB63-2315FA8F0884}"/>
+    <hyperlink ref="J224" r:id="rId1513" xr:uid="{AF22EEC7-3471-4560-A11E-A647EEDB8752}"/>
+    <hyperlink ref="I272" r:id="rId1514" xr:uid="{E8790EEC-FEEF-48FF-AF0F-B04199B565F4}"/>
+    <hyperlink ref="J272" r:id="rId1515" xr:uid="{EE492F6A-4B20-4D42-82EE-7FBCF29C425E}"/>
+    <hyperlink ref="F362" r:id="rId1516" xr:uid="{7A9B2BA6-6A7C-4ECA-B329-68B10C358DF6}"/>
+    <hyperlink ref="G362" r:id="rId1517" xr:uid="{C2D2408C-D101-4D00-9039-457ECAB1FF64}"/>
+    <hyperlink ref="H362" r:id="rId1518" xr:uid="{8123112E-531D-40E8-8559-FE719183B655}"/>
+    <hyperlink ref="I362" r:id="rId1519" xr:uid="{45C122AA-3D13-4D81-985D-9F05C45FF529}"/>
+    <hyperlink ref="J362" r:id="rId1520" xr:uid="{64782514-DA30-4C58-B03E-240BAAE6F27F}"/>
+    <hyperlink ref="F363" r:id="rId1521" xr:uid="{A600E427-5051-4810-B748-158F82112D0E}"/>
+    <hyperlink ref="G363" r:id="rId1522" xr:uid="{18D3F212-38C6-47F6-AD83-4182E59C24F2}"/>
+    <hyperlink ref="H363" r:id="rId1523" xr:uid="{CA74C210-FDD1-46B3-8FF8-4A9CDCC1E243}"/>
+    <hyperlink ref="I363" r:id="rId1524" xr:uid="{C4409797-4ED9-453B-93EA-22EBCD73F19C}"/>
+    <hyperlink ref="J363" r:id="rId1525" xr:uid="{AB220784-61FF-4B57-AABC-0E4B4B42726F}"/>
+    <hyperlink ref="F364" r:id="rId1526" xr:uid="{89ACD43F-B79E-41B8-9F0A-7FAC60890268}"/>
+    <hyperlink ref="G364" r:id="rId1527" xr:uid="{53F77340-8C30-47AC-A161-D8CEC011C791}"/>
+    <hyperlink ref="H364" r:id="rId1528" xr:uid="{9B0408FF-76B8-4D9E-AAC0-5115239FB59A}"/>
+    <hyperlink ref="I364" r:id="rId1529" xr:uid="{241FFB2F-AD72-4F02-909A-9975DC2F3BDB}"/>
+    <hyperlink ref="J364" r:id="rId1530" xr:uid="{F1C3DD83-C05E-4943-B296-D7B8D69DC96E}"/>
+    <hyperlink ref="F365" r:id="rId1531" xr:uid="{394811EA-CA96-49C8-9171-9F8C22924B38}"/>
+    <hyperlink ref="G365" r:id="rId1532" xr:uid="{EB444B6B-7635-4A18-95F0-8A26560A6E8E}"/>
+    <hyperlink ref="H365" r:id="rId1533" xr:uid="{28213A76-5B67-4431-BDAB-95923DBB4A36}"/>
+    <hyperlink ref="I365" r:id="rId1534" xr:uid="{7BF3914C-9323-4803-9707-BD796A1A308C}"/>
+    <hyperlink ref="J365" r:id="rId1535" xr:uid="{BA8DC8F7-8618-4868-A491-FA9176C9C3F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1516"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1536"/>
   <tableParts count="1">
-    <tablePart r:id="rId1517"/>
+    <tablePart r:id="rId1537"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF661A40-232E-4481-AF3F-33576AE7449E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E1585-1131-464C-A145-D97879ADF169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="2542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="2541">
   <si>
     <t>id</t>
   </si>
@@ -4482,9 +4482,6 @@
     <t>https://www.sofascore.com/api/v1/player/1471766/unique-tournament/20/season/70174/ratings</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1521837/unique-tournament/41/season/70853/ratings</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/957137/unique-tournament/40/season/69956/ratings</t>
   </si>
   <si>
@@ -4494,9 +4491,6 @@
     <t>https://www.sofascore.com/api/v1/player/1506783/unique-tournament/178/season/71438/ratings</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1890014/unique-tournament/685/season/63546/ratings</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/1128821/unique-tournament/212/season/62660/ratings</t>
   </si>
   <si>
@@ -4791,9 +4785,6 @@
     <t>https://www.sofascore.com/api/v1/player/1471766/unique-tournament/20/season/70174/statistics/overall</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1521837/unique-tournament/41/season/70853/statistics/overall</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/957137/unique-tournament/40/season/69956/statistics/overall</t>
   </si>
   <si>
@@ -5310,27 +5301,6 @@
     <t>https://www.sofascore.com/api/v1/player/1131670</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Petek</t>
-  </si>
-  <si>
-    <t>https://www.transfermarkt.com/jan-petek/profil/spieler/1157538</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/cs/football/player/petek-jan/1514921</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1514921</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1514921/unique-tournament/532/season/62737/ratings</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1514921/unique-tournament/532/season/62737/statistics/overall</t>
-  </si>
-  <si>
     <t>Silas</t>
   </si>
   <si>
@@ -7035,12 +7005,6 @@
     <t>https://www.sofascore.com/api/v1/player/1986794/unique-tournament/39/season/76491/statistics/overall</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1435222/unique-tournament/47/season/77031/ratings</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1435222/unique-tournament/47/season/77031/statistics/overall</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/1150154/unique-tournament/37/season/77012/ratings</t>
   </si>
   <si>
@@ -7672,6 +7636,39 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1916326/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1521837/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1521837/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890014/unique-tournament/29/season/80163/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1435222/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1435222/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Lahdo</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/adrian-lahdo/profil/spieler/1231993</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/adrian-lahdo/1802689</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1802689</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1802689/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1802689/unique-tournament/67/season/70666/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8068,8 +8065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
   <dimension ref="A1:J365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8115,7 +8112,7 @@
         <v>1382</v>
       </c>
       <c r="J1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8147,7 +8144,7 @@
         <v>1383</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8176,10 +8173,10 @@
         <v>1131</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2064</v>
+        <v>2054</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>2065</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8208,7 +8205,7 @@
         <v>1384</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -8234,10 +8231,10 @@
         <v>1133</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>2066</v>
+        <v>2056</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -8266,10 +8263,10 @@
         <v>1378</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -8301,7 +8298,7 @@
         <v>1385</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -8327,10 +8324,10 @@
         <v>1135</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -8359,10 +8356,10 @@
         <v>1136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>2071</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -8394,7 +8391,7 @@
         <v>1386</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -8426,7 +8423,7 @@
         <v>1387</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -8455,10 +8452,10 @@
         <v>1139</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>2072</v>
+        <v>2062</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>2073</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -8487,10 +8484,10 @@
         <v>1140</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>2074</v>
+        <v>2064</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>2075</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -8519,10 +8516,10 @@
         <v>1141</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>2076</v>
+        <v>2066</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>2077</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -8551,10 +8548,10 @@
         <v>1142</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>2079</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -8586,7 +8583,7 @@
         <v>1388</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -8615,10 +8612,10 @@
         <v>1144</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>2081</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -8644,10 +8641,10 @@
         <v>1145</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>2082</v>
+        <v>2072</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -8676,10 +8673,10 @@
         <v>1146</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>2084</v>
+        <v>2074</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>2085</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8711,7 +8708,7 @@
         <v>1389</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8737,10 +8734,10 @@
         <v>1148</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2086</v>
+        <v>2076</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2087</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -8769,10 +8766,10 @@
         <v>1149</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2088</v>
+        <v>2078</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2089</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -8801,10 +8798,10 @@
         <v>1150</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2091</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -8879,10 +8876,10 @@
         <v>1151</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2092</v>
+        <v>2082</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -8914,7 +8911,7 @@
         <v>1390</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -8943,10 +8940,10 @@
         <v>1153</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -8978,7 +8975,7 @@
         <v>1391</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -9007,10 +9004,10 @@
         <v>1155</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2096</v>
+        <v>2086</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -9036,10 +9033,10 @@
         <v>1381</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -9068,10 +9065,10 @@
         <v>1156</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2098</v>
+        <v>2088</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2099</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -9100,10 +9097,10 @@
         <v>1157</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2101</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -9132,10 +9129,10 @@
         <v>1158</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -9164,10 +9161,10 @@
         <v>1159</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -9199,7 +9196,7 @@
         <v>1392</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -9228,10 +9225,10 @@
         <v>1161</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2107</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -9263,7 +9260,7 @@
         <v>1393</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -9295,7 +9292,7 @@
         <v>1394</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -9321,7 +9318,7 @@
         <v>199</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -9350,10 +9347,10 @@
         <v>1164</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2108</v>
+        <v>2098</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2109</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -9382,10 +9379,10 @@
         <v>1165</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2111</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -9417,7 +9414,7 @@
         <v>1395</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -9446,7 +9443,7 @@
         <v>1396</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -9475,10 +9472,10 @@
         <v>1168</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2112</v>
+        <v>2102</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -9507,10 +9504,10 @@
         <v>1169</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -9539,10 +9536,10 @@
         <v>1170</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -9568,7 +9565,7 @@
         <v>233</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -9597,10 +9594,10 @@
         <v>1171</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -9629,10 +9626,10 @@
         <v>1172</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -9661,7 +9658,7 @@
         <v>1397</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -9693,7 +9690,7 @@
         <v>1398</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -9725,7 +9722,7 @@
         <v>1399</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -9757,7 +9754,7 @@
         <v>1400</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -9786,10 +9783,10 @@
         <v>1177</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -9812,16 +9809,16 @@
         <v>273</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>1178</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2126</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -9850,7 +9847,7 @@
         <v>1401</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -9879,10 +9876,10 @@
         <v>1180</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2128</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -9911,10 +9908,10 @@
         <v>1181</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2062</v>
+        <v>2052</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2063</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -9946,7 +9943,7 @@
         <v>1402</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -9969,7 +9966,7 @@
         <v>296</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -9977,7 +9974,7 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="C62" t="s">
         <v>297</v>
@@ -9992,10 +9989,10 @@
         <v>298</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1971</v>
+        <v>1961</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -10018,7 +10015,7 @@
         <v>301</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>1183</v>
@@ -10027,7 +10024,7 @@
         <v>1403</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -10056,7 +10053,7 @@
         <v>1404</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -10088,7 +10085,7 @@
         <v>1405</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -10114,10 +10111,10 @@
         <v>1186</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2130</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -10149,7 +10146,7 @@
         <v>1406</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -10178,10 +10175,10 @@
         <v>1188</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2131</v>
+        <v>2121</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -10213,7 +10210,7 @@
         <v>1407</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -10245,7 +10242,7 @@
         <v>1408</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -10274,7 +10271,7 @@
         <v>1409</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -10306,7 +10303,7 @@
         <v>1410</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -10338,7 +10335,7 @@
         <v>1411</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -10370,7 +10367,7 @@
         <v>1412</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -10402,7 +10399,7 @@
         <v>1413</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -10425,7 +10422,7 @@
         <v>356</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -10459,7 +10456,7 @@
         <v>1414</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -10491,7 +10488,7 @@
         <v>1415</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -10517,7 +10514,7 @@
         <v>367</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -10549,7 +10546,7 @@
         <v>1416</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -10581,7 +10578,7 @@
         <v>1417</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -10613,7 +10610,7 @@
         <v>1418</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -10642,10 +10639,10 @@
         <v>1201</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -10674,7 +10671,7 @@
         <v>1419</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -10703,7 +10700,7 @@
         <v>1420</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -10732,7 +10729,7 @@
         <v>1421</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -10761,10 +10758,10 @@
         <v>1205</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>2136</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -10793,7 +10790,7 @@
         <v>1422</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -10819,7 +10816,7 @@
         <v>406</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -10850,7 +10847,7 @@
         <v>1423</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -10879,7 +10876,7 @@
         <v>1424</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -10908,10 +10905,10 @@
         <v>1209</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>2137</v>
+        <v>2127</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>2138</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -10937,10 +10934,10 @@
         <v>1210</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>2139</v>
+        <v>2129</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>2140</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -10963,10 +10960,10 @@
         <v>425</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -10995,10 +10992,10 @@
         <v>1211</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>2141</v>
+        <v>2131</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>2142</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -11024,10 +11021,10 @@
         <v>1212</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>2143</v>
+        <v>2133</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>2144</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -11053,7 +11050,7 @@
         <v>441</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -11085,7 +11082,7 @@
         <v>1425</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -11117,7 +11114,7 @@
         <v>1426</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -11146,10 +11143,10 @@
         <v>1215</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>2145</v>
+        <v>2135</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>2146</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -11181,7 +11178,7 @@
         <v>1427</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -11213,7 +11210,7 @@
         <v>1428</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -11242,10 +11239,10 @@
         <v>1218</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>2148</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -11271,10 +11268,10 @@
         <v>1219</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>2150</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -11306,7 +11303,7 @@
         <v>1429</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -11335,10 +11332,10 @@
         <v>1221</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>2151</v>
+        <v>2141</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>2152</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -11367,10 +11364,10 @@
         <v>1222</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>2153</v>
+        <v>2143</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>2154</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -11402,7 +11399,7 @@
         <v>1430</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -11434,7 +11431,7 @@
         <v>1431</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -11460,10 +11457,10 @@
         <v>1225</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>2155</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -11489,7 +11486,7 @@
         <v>499</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -11518,10 +11515,10 @@
         <v>1226</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -11550,10 +11547,10 @@
         <v>1227</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>2160</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -11582,10 +11579,10 @@
         <v>1228</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -11611,10 +11608,10 @@
         <v>1229</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -11643,10 +11640,10 @@
         <v>1230</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -11678,7 +11675,7 @@
         <v>1432</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -11704,10 +11701,10 @@
         <v>1232</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>2168</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -11733,10 +11730,10 @@
         <v>1233</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>2170</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -11762,7 +11759,7 @@
         <v>542</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -11794,7 +11791,7 @@
         <v>1433</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -11823,10 +11820,10 @@
         <v>1235</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>2171</v>
+        <v>2161</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -11855,10 +11852,10 @@
         <v>1236</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>2173</v>
+        <v>2163</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>2174</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -11890,7 +11887,7 @@
         <v>1434</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -11919,10 +11916,10 @@
         <v>1238</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -11951,10 +11948,10 @@
         <v>1239</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>2177</v>
+        <v>2167</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>2178</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -11983,10 +11980,10 @@
         <v>1240</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>2179</v>
+        <v>2169</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>2180</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -12015,10 +12012,10 @@
         <v>1241</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>2181</v>
+        <v>2171</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>2182</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -12050,7 +12047,7 @@
         <v>1435</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -12076,10 +12073,10 @@
         <v>1243</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>2183</v>
+        <v>2173</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>2184</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -12108,10 +12105,10 @@
         <v>1244</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>2185</v>
+        <v>2175</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>2186</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -12140,10 +12137,10 @@
         <v>1245</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>2187</v>
+        <v>2177</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>2188</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -12172,7 +12169,7 @@
         <v>1436</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -12201,7 +12198,7 @@
         <v>1437</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -12230,7 +12227,7 @@
         <v>1438</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -12259,10 +12256,10 @@
         <v>1249</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>2189</v>
+        <v>2179</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>2190</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -12291,10 +12288,10 @@
         <v>1250</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>2191</v>
+        <v>2181</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>2192</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -12323,7 +12320,7 @@
         <v>1439</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -12352,10 +12349,10 @@
         <v>1252</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>2193</v>
+        <v>2183</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -12384,10 +12381,10 @@
         <v>1253</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>2196</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -12416,10 +12413,10 @@
         <v>1254</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>2197</v>
+        <v>2187</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -12448,10 +12445,10 @@
         <v>1255</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>2199</v>
+        <v>2189</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -12477,10 +12474,10 @@
         <v>1256</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -12512,7 +12509,7 @@
         <v>1440</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -12541,10 +12538,10 @@
         <v>1258</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -12573,10 +12570,10 @@
         <v>1259</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -12602,10 +12599,10 @@
         <v>1260</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>2207</v>
+        <v>2197</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>2208</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -12628,7 +12625,7 @@
         <v>656</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -12660,7 +12657,7 @@
         <v>1441</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -12689,10 +12686,10 @@
         <v>1262</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>2209</v>
+        <v>2199</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>2210</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -12721,10 +12718,10 @@
         <v>1263</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>2211</v>
+        <v>2201</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>2212</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -12750,10 +12747,10 @@
         <v>1264</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>2213</v>
+        <v>2203</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>2214</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -12782,10 +12779,10 @@
         <v>1265</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -12814,7 +12811,7 @@
         <v>1442</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -12843,10 +12840,10 @@
         <v>1267</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>2217</v>
+        <v>2207</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>2218</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -12878,7 +12875,7 @@
         <v>1443</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -12910,7 +12907,7 @@
         <v>1444</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -12939,10 +12936,10 @@
         <v>1270</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>2219</v>
+        <v>2209</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>2220</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -12971,10 +12968,10 @@
         <v>1271</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>2221</v>
+        <v>2211</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>2222</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -13003,10 +13000,10 @@
         <v>1272</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>2223</v>
+        <v>2213</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>2224</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -13032,10 +13029,10 @@
         <v>1273</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>2226</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -13064,10 +13061,10 @@
         <v>1274</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>2227</v>
+        <v>2217</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>2228</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -13096,7 +13093,7 @@
         <v>1445</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -13128,7 +13125,7 @@
         <v>1446</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -13157,10 +13154,10 @@
         <v>1277</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -13192,7 +13189,7 @@
         <v>1447</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -13218,10 +13215,10 @@
         <v>1279</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -13250,7 +13247,7 @@
         <v>1448</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -13282,7 +13279,7 @@
         <v>1449</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -13314,7 +13311,7 @@
         <v>1450</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -13346,7 +13343,7 @@
         <v>1451</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -13372,10 +13369,10 @@
         <v>1284</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -13395,10 +13392,10 @@
         <v>752</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -13430,7 +13427,7 @@
         <v>1452</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -13462,7 +13459,7 @@
         <v>1453</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -13494,7 +13491,7 @@
         <v>1454</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -13526,7 +13523,7 @@
         <v>1455</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -13552,10 +13549,10 @@
         <v>1289</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>2235</v>
+        <v>2225</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>2238</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -13584,10 +13581,10 @@
         <v>1290</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>2239</v>
+        <v>2229</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>2240</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -13616,7 +13613,7 @@
         <v>1456</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -13636,16 +13633,16 @@
         <v>782</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>2236</v>
+        <v>2226</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -13677,7 +13674,7 @@
         <v>1457</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -13703,13 +13700,13 @@
         <v>790</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>2237</v>
+        <v>2227</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>2242</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -13738,10 +13735,10 @@
         <v>1293</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>2243</v>
+        <v>2233</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>2244</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -13773,7 +13770,7 @@
         <v>1458</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -13805,7 +13802,7 @@
         <v>1459</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -13834,7 +13831,7 @@
         <v>1460</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -13866,7 +13863,7 @@
         <v>1461</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -13898,7 +13895,7 @@
         <v>1462</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -13927,10 +13924,10 @@
         <v>1299</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>2245</v>
+        <v>2235</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -13962,7 +13959,7 @@
         <v>1463</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -13991,10 +13988,10 @@
         <v>1301</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>2247</v>
+        <v>2237</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>2248</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -14020,7 +14017,7 @@
         <v>830</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -14049,10 +14046,10 @@
         <v>1302</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>2249</v>
+        <v>2239</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>2250</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -14084,7 +14081,7 @@
         <v>1464</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -14113,7 +14110,7 @@
         <v>1465</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -14139,7 +14136,7 @@
         <v>845</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -14171,7 +14168,7 @@
         <v>1466</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -14197,10 +14194,10 @@
         <v>1306</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>2251</v>
+        <v>2241</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>2252</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -14232,7 +14229,7 @@
         <v>1467</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -14258,10 +14255,10 @@
         <v>1308</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>2253</v>
+        <v>2243</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>2254</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -14293,7 +14290,7 @@
         <v>1468</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -14322,10 +14319,10 @@
         <v>1310</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>2255</v>
+        <v>2245</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -14351,10 +14348,10 @@
         <v>1311</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>2257</v>
+        <v>2247</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -14383,10 +14380,10 @@
         <v>1312</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>2259</v>
+        <v>2249</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>2260</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -14418,7 +14415,7 @@
         <v>1469</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -14447,10 +14444,10 @@
         <v>1314</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -14476,10 +14473,10 @@
         <v>1315</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>2264</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -14508,10 +14505,10 @@
         <v>1316</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>2265</v>
+        <v>2255</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>2266</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -14537,10 +14534,10 @@
         <v>1317</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -14569,10 +14566,10 @@
         <v>1318</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -14601,10 +14598,10 @@
         <v>1319</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -14630,10 +14627,10 @@
         <v>1320</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2273</v>
+        <v>2263</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -14659,10 +14656,10 @@
         <v>1321</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>2276</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -14691,10 +14688,10 @@
         <v>1322</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>2277</v>
+        <v>2267</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>2278</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -14723,10 +14720,10 @@
         <v>1323</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>2279</v>
+        <v>2269</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>2280</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -14755,10 +14752,10 @@
         <v>1324</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -14787,7 +14784,7 @@
         <v>1470</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -14813,10 +14810,10 @@
         <v>1326</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -14842,10 +14839,10 @@
         <v>1327</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -14877,7 +14874,7 @@
         <v>1471</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -14906,7 +14903,7 @@
         <v>1472</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -14938,7 +14935,7 @@
         <v>1473</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -14967,10 +14964,10 @@
         <v>1331</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>2511</v>
+        <v>2499</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>2512</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -14999,10 +14996,10 @@
         <v>1332</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>2288</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -15031,10 +15028,10 @@
         <v>1333</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>2289</v>
+        <v>2279</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>2290</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -15060,10 +15057,10 @@
         <v>1334</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -15089,10 +15086,10 @@
         <v>1335</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>2293</v>
+        <v>2283</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -15124,7 +15121,7 @@
         <v>1474</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -15153,10 +15150,10 @@
         <v>1337</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>2296</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -15185,10 +15182,10 @@
         <v>1338</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>2297</v>
+        <v>2287</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>2298</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -15217,10 +15214,10 @@
         <v>1339</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -15246,10 +15243,10 @@
         <v>1340</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>2302</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -15275,10 +15272,10 @@
         <v>1341</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>2303</v>
+        <v>2293</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>2304</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -15307,7 +15304,7 @@
         <v>1475</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -15336,10 +15333,10 @@
         <v>1343</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>2305</v>
+        <v>2295</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>2306</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -15365,10 +15362,10 @@
         <v>1344</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>2307</v>
+        <v>2297</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>2308</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -15397,10 +15394,10 @@
         <v>1345</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>2309</v>
+        <v>2299</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>2310</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -15423,16 +15420,16 @@
         <v>1010</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>1346</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>2312</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -15464,7 +15461,7 @@
         <v>1476</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -15493,7 +15490,7 @@
         <v>1477</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -15522,10 +15519,10 @@
         <v>1349</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>1478</v>
+        <v>2530</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>1581</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -15551,10 +15548,10 @@
         <v>1350</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>2313</v>
+        <v>2303</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>2314</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -15580,10 +15577,10 @@
         <v>1351</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>2315</v>
+        <v>2305</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>2316</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -15612,10 +15609,10 @@
         <v>1352</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>2317</v>
+        <v>2307</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>2318</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -15641,10 +15638,10 @@
         <v>1353</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>2319</v>
+        <v>2309</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>2320</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -15670,10 +15667,10 @@
         <v>1354</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>2322</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -15699,10 +15696,10 @@
         <v>1355</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>2323</v>
+        <v>2313</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>2324</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -15728,10 +15725,10 @@
         <v>1356</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>2325</v>
+        <v>2315</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2326</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -15760,10 +15757,10 @@
         <v>1357</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>2327</v>
+        <v>2317</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>2328</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -15789,10 +15786,10 @@
         <v>1358</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>2329</v>
+        <v>2533</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>2330</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -15821,10 +15818,10 @@
         <v>1359</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>2331</v>
+        <v>2319</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>2332</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -15853,10 +15850,10 @@
         <v>1360</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>2333</v>
+        <v>2321</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>2334</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -15882,10 +15879,10 @@
         <v>1361</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>2335</v>
+        <v>2323</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>2336</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -15911,10 +15908,10 @@
         <v>1362</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>2337</v>
+        <v>2325</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2338</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -15943,10 +15940,10 @@
         <v>1363</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>2339</v>
+        <v>2327</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>2340</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -15975,10 +15972,10 @@
         <v>1364</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>2341</v>
+        <v>2329</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>2342</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -16007,10 +16004,10 @@
         <v>1365</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>2343</v>
+        <v>2331</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>2344</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -16039,10 +16036,10 @@
         <v>1366</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>2345</v>
+        <v>2333</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>2346</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -16071,10 +16068,10 @@
         <v>1367</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>2347</v>
+        <v>2335</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>2348</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -16100,10 +16097,10 @@
         <v>1368</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -16132,10 +16129,10 @@
         <v>1369</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>2349</v>
+        <v>2337</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>2350</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -16164,10 +16161,10 @@
         <v>1370</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -16196,10 +16193,10 @@
         <v>1371</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -16225,10 +16222,10 @@
         <v>1372</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>1482</v>
+        <v>2532</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -16257,10 +16254,10 @@
         <v>1373</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>2351</v>
+        <v>2339</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>2352</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -16286,10 +16283,10 @@
         <v>1374</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2354</v>
+        <v>2342</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>2353</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -16315,10 +16312,10 @@
         <v>1375</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -16347,10 +16344,10 @@
         <v>1376</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>2356</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -16376,10 +16373,10 @@
         <v>1377</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -16387,10 +16384,10 @@
         <v>333</v>
       </c>
       <c r="B271" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C271" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D271" t="s">
         <v>58</v>
@@ -16399,19 +16396,19 @@
         <v>8</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>2357</v>
+        <v>2345</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>2358</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -16419,10 +16416,10 @@
         <v>335</v>
       </c>
       <c r="B272" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C272" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D272" t="s">
         <v>189</v>
@@ -16431,19 +16428,19 @@
         <v>53</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>2513</v>
+        <v>2501</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>2514</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -16454,7 +16451,7 @@
         <v>280</v>
       </c>
       <c r="C273" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="D273" t="s">
         <v>79</v>
@@ -16463,19 +16460,19 @@
         <v>42</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>2359</v>
+        <v>2347</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>2360</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -16483,10 +16480,10 @@
         <v>337</v>
       </c>
       <c r="B274" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C274" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D274" t="s">
         <v>53</v>
@@ -16495,19 +16492,19 @@
         <v>33</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>2361</v>
+        <v>2349</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>2362</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -16515,28 +16512,28 @@
         <v>338</v>
       </c>
       <c r="B275" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C275" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D275" t="s">
         <v>42</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -16547,25 +16544,25 @@
         <v>458</v>
       </c>
       <c r="C276" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D276" t="s">
         <v>42</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>2366</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -16573,28 +16570,28 @@
         <v>340</v>
       </c>
       <c r="B277" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C277" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D277" t="s">
         <v>37</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>2367</v>
+        <v>2355</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>2368</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -16605,7 +16602,7 @@
         <v>484</v>
       </c>
       <c r="C278" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D278" t="s">
         <v>8</v>
@@ -16614,19 +16611,19 @@
         <v>58</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>2369</v>
+        <v>2357</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>2370</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -16634,28 +16631,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C279" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="D279" t="s">
         <v>155</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>2371</v>
+        <v>2359</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>2372</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -16666,25 +16663,25 @@
         <v>62</v>
       </c>
       <c r="C280" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="D280" t="s">
         <v>15</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>2373</v>
+        <v>2361</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>2374</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -16692,10 +16689,10 @@
         <v>344</v>
       </c>
       <c r="B281" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C281" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="D281" t="s">
         <v>189</v>
@@ -16704,19 +16701,19 @@
         <v>15</v>
       </c>
       <c r="F281" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I281" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="G281" s="2" t="s">
+      <c r="J281" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="H281" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I281" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="J281" s="2" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -16724,28 +16721,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C282" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D282" t="s">
         <v>53</v>
       </c>
       <c r="F282" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I282" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="G282" s="2" t="s">
+      <c r="J282" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J282" s="2" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -16753,28 +16750,28 @@
         <v>346</v>
       </c>
       <c r="B283" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C283" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="D283" t="s">
         <v>53</v>
       </c>
       <c r="F283" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I283" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="G283" s="2" t="s">
+      <c r="J283" s="2" t="s">
         <v>1674</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I283" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="J283" s="2" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -16782,28 +16779,28 @@
         <v>347</v>
       </c>
       <c r="B284" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C284" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="D284" t="s">
         <v>155</v>
       </c>
       <c r="F284" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I284" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="G284" s="2" t="s">
+      <c r="J284" s="2" t="s">
         <v>1680</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I284" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J284" s="2" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -16814,7 +16811,7 @@
         <v>533</v>
       </c>
       <c r="C285" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D285" t="s">
         <v>53</v>
@@ -16823,19 +16820,19 @@
         <v>33</v>
       </c>
       <c r="F285" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I285" s="2" t="s">
         <v>1685</v>
       </c>
-      <c r="G285" s="2" t="s">
+      <c r="J285" s="2" t="s">
         <v>1686</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>1687</v>
-      </c>
-      <c r="I285" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="J285" s="2" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -16843,28 +16840,28 @@
         <v>349</v>
       </c>
       <c r="B286" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C286" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D286" t="s">
         <v>53</v>
       </c>
       <c r="F286" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I286" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="G286" s="2" t="s">
+      <c r="J286" s="2" t="s">
         <v>1693</v>
-      </c>
-      <c r="H286" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="J286" s="2" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -16872,28 +16869,28 @@
         <v>350</v>
       </c>
       <c r="B287" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C287" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D287" t="s">
         <v>79</v>
       </c>
       <c r="F287" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H287" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="G287" s="2" t="s">
+      <c r="I287" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J287" s="2" t="s">
         <v>1700</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J287" s="2" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -16901,28 +16898,28 @@
         <v>351</v>
       </c>
       <c r="B288" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C288" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D288" t="s">
         <v>37</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>2375</v>
+        <v>2363</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>2376</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -16933,7 +16930,7 @@
         <v>478</v>
       </c>
       <c r="C289" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="D289" t="s">
         <v>58</v>
@@ -16942,19 +16939,19 @@
         <v>8</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>2377</v>
+        <v>2365</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>2378</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -16965,25 +16962,25 @@
         <v>492</v>
       </c>
       <c r="C290" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D290" t="s">
         <v>53</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>2379</v>
+        <v>2367</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>2380</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -16991,10 +16988,10 @@
         <v>354</v>
       </c>
       <c r="B291" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C291" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D291" t="s">
         <v>37</v>
@@ -17003,19 +17000,19 @@
         <v>8</v>
       </c>
       <c r="F291" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I291" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="G291" s="2" t="s">
+      <c r="J291" s="2" t="s">
         <v>1720</v>
-      </c>
-      <c r="H291" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="J291" s="2" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -17026,25 +17023,25 @@
         <v>560</v>
       </c>
       <c r="C292" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D292" t="s">
         <v>79</v>
       </c>
       <c r="F292" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I292" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="J292" s="2" t="s">
         <v>1726</v>
-      </c>
-      <c r="H292" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="J292" s="2" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -17052,28 +17049,28 @@
         <v>356</v>
       </c>
       <c r="B293" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C293" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D293" t="s">
         <v>155</v>
       </c>
       <c r="F293" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I293" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="G293" s="2" t="s">
+      <c r="J293" s="2" t="s">
         <v>1733</v>
-      </c>
-      <c r="H293" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="J293" s="2" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -17084,7 +17081,7 @@
         <v>538</v>
       </c>
       <c r="C294" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D294" t="s">
         <v>42</v>
@@ -17093,19 +17090,19 @@
         <v>33</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>2381</v>
+        <v>2369</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>2382</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -17116,25 +17113,25 @@
         <v>208</v>
       </c>
       <c r="C295" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D295" t="s">
         <v>53</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>2383</v>
+        <v>2371</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>2384</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -17142,10 +17139,10 @@
         <v>359</v>
       </c>
       <c r="B296" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C296" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D296" t="s">
         <v>33</v>
@@ -17154,19 +17151,19 @@
         <v>53</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>2385</v>
+        <v>2373</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>2386</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -17177,387 +17174,390 @@
         <v>980</v>
       </c>
       <c r="C297" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D297" t="s">
         <v>42</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>2387</v>
+        <v>2375</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>2388</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B298" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D298" t="s">
+        <v>33</v>
+      </c>
+      <c r="E298" t="s">
+        <v>53</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="C298" t="s">
+      <c r="H298" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="D298" t="s">
-        <v>155</v>
-      </c>
-      <c r="F298" s="2" t="s">
+      <c r="I298" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="G298" s="2" t="s">
+      <c r="J298" s="2" t="s">
         <v>1757</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I298" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J298" s="2" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B299" t="s">
+        <v>430</v>
+      </c>
+      <c r="C299" t="s">
+        <v>811</v>
+      </c>
+      <c r="D299" t="s">
+        <v>53</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I299" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="C299" t="s">
+      <c r="J299" s="2" t="s">
         <v>1762</v>
-      </c>
-      <c r="D299" t="s">
-        <v>33</v>
-      </c>
-      <c r="E299" t="s">
-        <v>53</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H299" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>1766</v>
-      </c>
-      <c r="J299" s="2" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B300" t="s">
-        <v>430</v>
+        <v>1763</v>
       </c>
       <c r="C300" t="s">
-        <v>811</v>
+        <v>1764</v>
       </c>
       <c r="D300" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>1771</v>
+        <v>2377</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>1772</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B301" t="s">
-        <v>1773</v>
+        <v>846</v>
       </c>
       <c r="C301" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D301" t="s">
         <v>155</v>
       </c>
       <c r="F301" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H301" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="G301" s="2" t="s">
+      <c r="I301" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J301" s="2" t="s">
         <v>1776</v>
-      </c>
-      <c r="H301" s="2" t="s">
-        <v>1777</v>
-      </c>
-      <c r="I301" s="2" t="s">
-        <v>2389</v>
-      </c>
-      <c r="J301" s="2" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B302" t="s">
-        <v>846</v>
+        <v>1777</v>
       </c>
       <c r="C302" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D302" t="s">
+        <v>42</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H302" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="D302" t="s">
-        <v>155</v>
-      </c>
-      <c r="F302" s="2" t="s">
+      <c r="I302" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="G302" s="2" t="s">
+      <c r="J302" s="2" t="s">
         <v>1783</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>1785</v>
-      </c>
-      <c r="I302" s="2" t="s">
-        <v>1784</v>
-      </c>
-      <c r="J302" s="2" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B303" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D303" t="s">
+        <v>79</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="C303" t="s">
+      <c r="H303" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="D303" t="s">
-        <v>42</v>
-      </c>
-      <c r="F303" s="2" t="s">
+      <c r="I303" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="G303" s="2" t="s">
+      <c r="J303" s="2" t="s">
         <v>1790</v>
-      </c>
-      <c r="H303" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I303" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="J303" s="2" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B304" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C304" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D304" t="s">
         <v>79</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>1799</v>
+        <v>2379</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>1800</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B305" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="C305" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="D305" t="s">
         <v>79</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2391</v>
+        <v>2381</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>2392</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B306" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D306" t="s">
+        <v>53</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I306" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="C306" t="s">
+      <c r="J306" s="2" t="s">
         <v>1807</v>
-      </c>
-      <c r="D306" t="s">
-        <v>79</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>1808</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="H306" s="2" t="s">
-        <v>1810</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>2393</v>
-      </c>
-      <c r="J306" s="2" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B307" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D307" t="s">
+        <v>79</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="C307" t="s">
+      <c r="H307" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="D307" t="s">
-        <v>53</v>
-      </c>
-      <c r="F307" s="2" t="s">
+      <c r="I307" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="J307" s="2" t="s">
         <v>1814</v>
-      </c>
-      <c r="H307" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="J307" s="2" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B308" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="C308" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="D308" t="s">
         <v>79</v>
       </c>
       <c r="F308" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I308" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="G308" s="2" t="s">
+      <c r="J308" s="2" t="s">
         <v>1821</v>
-      </c>
-      <c r="H308" s="2" t="s">
-        <v>1822</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J308" s="2" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B309" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D309" t="s">
+        <v>53</v>
+      </c>
+      <c r="E309" t="s">
+        <v>33</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C309" t="s">
+      <c r="H309" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="D309" t="s">
-        <v>79</v>
-      </c>
-      <c r="F309" s="2" t="s">
+      <c r="I309" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="J309" s="2" t="s">
         <v>1828</v>
-      </c>
-      <c r="H309" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="J309" s="2" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B310" t="s">
-        <v>1832</v>
+        <v>897</v>
       </c>
       <c r="C310" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="D310" t="s">
         <v>53</v>
@@ -17566,30 +17566,30 @@
         <v>33</v>
       </c>
       <c r="F310" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J310" s="2" t="s">
         <v>1834</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>1836</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="J310" s="2" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B311" t="s">
-        <v>897</v>
+        <v>1835</v>
       </c>
       <c r="C311" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D311" t="s">
         <v>53</v>
@@ -17598,1607 +17598,1604 @@
         <v>33</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>1843</v>
+        <v>2383</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>1844</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B312" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D312" t="s">
+        <v>58</v>
+      </c>
+      <c r="E312" t="s">
+        <v>189</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I312" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="C312" t="s">
+      <c r="J312" s="2" t="s">
         <v>1846</v>
-      </c>
-      <c r="D312" t="s">
-        <v>53</v>
-      </c>
-      <c r="E312" t="s">
-        <v>33</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>2395</v>
-      </c>
-      <c r="J312" s="2" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B313" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="C313" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="D313" t="s">
         <v>58</v>
       </c>
-      <c r="E313" t="s">
-        <v>189</v>
-      </c>
       <c r="F313" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I313" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="G313" s="2" t="s">
+      <c r="J313" s="2" t="s">
         <v>1853</v>
-      </c>
-      <c r="H313" s="2" t="s">
-        <v>1854</v>
-      </c>
-      <c r="I313" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="J313" s="2" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B314" t="s">
+        <v>399</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H314" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C314" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D314" t="s">
-        <v>58</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="I314" s="2" t="s">
-        <v>1862</v>
+        <v>2385</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>1863</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B315" t="s">
-        <v>399</v>
+        <v>991</v>
       </c>
       <c r="C315" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="D315" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>2397</v>
+        <v>2387</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>2398</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B316" t="s">
-        <v>991</v>
+        <v>1862</v>
       </c>
       <c r="C316" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="D316" t="s">
         <v>15</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>2399</v>
+        <v>2389</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>2400</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B317" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D317" t="s">
+        <v>37</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I317" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C317" t="s">
+      <c r="J317" s="2" t="s">
         <v>1873</v>
-      </c>
-      <c r="D317" t="s">
-        <v>15</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="H317" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J317" s="2" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B318" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>1877</v>
       </c>
-      <c r="C318" t="s">
+      <c r="H318" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="D318" t="s">
-        <v>37</v>
-      </c>
-      <c r="F318" s="2" t="s">
+      <c r="I318" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="G318" s="2" t="s">
+      <c r="J318" s="2" t="s">
         <v>1880</v>
-      </c>
-      <c r="H318" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="J318" s="2" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B319" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D319" t="s">
+        <v>37</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H319" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C319" t="s">
+      <c r="I319" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="D319" t="s">
-        <v>8</v>
-      </c>
-      <c r="F319" s="2" t="s">
+      <c r="J319" s="2" t="s">
         <v>1886</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>1887</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>1888</v>
-      </c>
-      <c r="I319" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="J319" s="2" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B320" t="s">
-        <v>1745</v>
+        <v>159</v>
       </c>
       <c r="C320" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D320" t="s">
+        <v>58</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I320" s="2" t="s">
         <v>1891</v>
       </c>
-      <c r="D320" t="s">
-        <v>37</v>
-      </c>
-      <c r="F320" s="2" t="s">
+      <c r="J320" s="2" t="s">
         <v>1892</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>1893</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>1894</v>
-      </c>
-      <c r="I320" s="2" t="s">
-        <v>1895</v>
-      </c>
-      <c r="J320" s="2" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B321" t="s">
-        <v>159</v>
+        <v>1893</v>
       </c>
       <c r="C321" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H321" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="D321" t="s">
-        <v>58</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="G321" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H321" s="2" t="s">
-        <v>1900</v>
-      </c>
       <c r="I321" s="2" t="s">
-        <v>1901</v>
+        <v>2391</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>1902</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B322" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="C322" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="D322" t="s">
+        <v>58</v>
+      </c>
+      <c r="E322" t="s">
         <v>8</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>2403</v>
+        <v>2393</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>2404</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B323" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C323" t="s">
+        <v>219</v>
+      </c>
+      <c r="D323" t="s">
+        <v>53</v>
+      </c>
+      <c r="E323" t="s">
+        <v>189</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J323" s="2" t="s">
         <v>1908</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D323" t="s">
-        <v>58</v>
-      </c>
-      <c r="E323" t="s">
-        <v>8</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>1910</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H323" s="2" t="s">
-        <v>1912</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>2405</v>
-      </c>
-      <c r="J323" s="2" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B324" t="s">
-        <v>1913</v>
+        <v>1018</v>
       </c>
       <c r="C324" t="s">
-        <v>219</v>
+        <v>1909</v>
       </c>
       <c r="D324" t="s">
         <v>53</v>
       </c>
-      <c r="E324" t="s">
-        <v>189</v>
-      </c>
       <c r="F324" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J324" s="2" t="s">
         <v>1914</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>1915</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>1916</v>
-      </c>
-      <c r="I324" s="2" t="s">
-        <v>1917</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B325" t="s">
-        <v>1018</v>
+        <v>27</v>
       </c>
       <c r="C325" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D325" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I325" s="2" t="s">
         <v>1919</v>
       </c>
-      <c r="D325" t="s">
-        <v>53</v>
-      </c>
-      <c r="F325" s="2" t="s">
+      <c r="J325" s="2" t="s">
         <v>1920</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>1921</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>1922</v>
-      </c>
-      <c r="I325" s="2" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J325" s="2" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B326" t="s">
-        <v>27</v>
+        <v>1921</v>
       </c>
       <c r="C326" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D326" t="s">
+        <v>53</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H326" s="2" t="s">
         <v>1925</v>
       </c>
-      <c r="D326" t="s">
-        <v>15</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>1927</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>1926</v>
-      </c>
-      <c r="H326" s="2" t="s">
-        <v>1928</v>
-      </c>
       <c r="I326" s="2" t="s">
-        <v>1929</v>
+        <v>2396</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>1930</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B327" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="C327" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="D327" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="E327" t="s">
+        <v>189</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>1935</v>
-      </c>
-      <c r="I327" s="2" t="s">
-        <v>2408</v>
-      </c>
-      <c r="J327" s="2" t="s">
-        <v>2409</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="I327" s="2"/>
+      <c r="J327" s="2"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B328" t="s">
-        <v>1936</v>
+        <v>1835</v>
       </c>
       <c r="C328" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="D328" t="s">
         <v>15</v>
       </c>
-      <c r="E328" t="s">
-        <v>189</v>
-      </c>
       <c r="F328" s="2" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>1940</v>
-      </c>
-      <c r="I328" s="2"/>
-      <c r="J328" s="2"/>
+        <v>1934</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B329" t="s">
-        <v>1845</v>
+        <v>1935</v>
       </c>
       <c r="C329" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D329" t="s">
+        <v>37</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J329" s="2" t="s">
         <v>1941</v>
-      </c>
-      <c r="D329" t="s">
-        <v>15</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>1942</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>1943</v>
-      </c>
-      <c r="H329" s="2" t="s">
-        <v>1944</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>2410</v>
-      </c>
-      <c r="J329" s="2" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B330" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D330" t="s">
+        <v>189</v>
+      </c>
+      <c r="E330" t="s">
+        <v>53</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="C330" t="s">
+      <c r="H330" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="D330" t="s">
-        <v>37</v>
-      </c>
-      <c r="F330" s="2" t="s">
+      <c r="I330" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="G330" s="2" t="s">
+      <c r="J330" s="2" t="s">
         <v>1948</v>
-      </c>
-      <c r="H330" s="2" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I330" s="2" t="s">
-        <v>1950</v>
-      </c>
-      <c r="J330" s="2" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B331" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D331" t="s">
+        <v>58</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C331" t="s">
+      <c r="H331" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="D331" t="s">
-        <v>189</v>
-      </c>
-      <c r="E331" t="s">
-        <v>53</v>
-      </c>
-      <c r="F331" s="2" t="s">
+      <c r="I331" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="G331" s="2" t="s">
+      <c r="J331" s="2" t="s">
         <v>1955</v>
-      </c>
-      <c r="H331" s="2" t="s">
-        <v>1956</v>
-      </c>
-      <c r="I331" s="2" t="s">
-        <v>1957</v>
-      </c>
-      <c r="J331" s="2" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B332" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C332" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D332" t="s">
         <v>58</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>1963</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>1964</v>
+        <v>2394</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>1965</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B333" t="s">
+        <v>780</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D333" t="s">
+        <v>189</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="C333" t="s">
+      <c r="H333" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="D333" t="s">
-        <v>58</v>
-      </c>
-      <c r="F333" s="2" t="s">
+      <c r="I333" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="J333" s="2" t="s">
         <v>1969</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>1973</v>
-      </c>
-      <c r="I333" s="2" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J333" s="2" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B334" t="s">
-        <v>780</v>
+        <v>1970</v>
       </c>
       <c r="C334" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D334" t="s">
+        <v>37</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H334" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="D334" t="s">
-        <v>189</v>
-      </c>
-      <c r="F334" s="2" t="s">
+      <c r="I334" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="G334" s="2" t="s">
+      <c r="J334" s="2" t="s">
         <v>1976</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>1977</v>
-      </c>
-      <c r="I334" s="2" t="s">
-        <v>1978</v>
-      </c>
-      <c r="J334" s="2" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B335" t="s">
+        <v>657</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D335" t="s">
+        <v>189</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I335" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="C335" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D335" t="s">
-        <v>37</v>
-      </c>
-      <c r="F335" s="2" t="s">
+      <c r="J335" s="2" t="s">
         <v>1982</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="J335" s="2" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B336" t="s">
-        <v>657</v>
+        <v>1983</v>
       </c>
       <c r="C336" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D336" t="s">
         <v>189</v>
       </c>
       <c r="F336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I336" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="G336" s="2" t="s">
+      <c r="J336" s="2" t="s">
         <v>1989</v>
-      </c>
-      <c r="H336" s="2" t="s">
-        <v>1991</v>
-      </c>
-      <c r="I336" s="2" t="s">
-        <v>1990</v>
-      </c>
-      <c r="J336" s="2" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B337" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D337" t="s">
+        <v>53</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="C337" t="s">
+      <c r="H337" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="D337" t="s">
-        <v>189</v>
-      </c>
-      <c r="F337" s="2" t="s">
+      <c r="I337" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="G337" s="2" t="s">
+      <c r="J337" s="2" t="s">
         <v>1996</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>1997</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>1998</v>
-      </c>
-      <c r="J337" s="2" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B338" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D338" t="s">
+        <v>189</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="C338" t="s">
+      <c r="H338" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="D338" t="s">
-        <v>53</v>
-      </c>
-      <c r="F338" s="2" t="s">
+      <c r="I338" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="G338" s="2" t="s">
+      <c r="J338" s="2" t="s">
         <v>2003</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>2004</v>
-      </c>
-      <c r="I338" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="J338" s="2" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B339" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D339" t="s">
+        <v>15</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G339" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="C339" t="s">
+      <c r="H339" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="D339" t="s">
-        <v>189</v>
-      </c>
-      <c r="F339" s="2" t="s">
+      <c r="I339" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="G339" s="2" t="s">
+      <c r="J339" s="2" t="s">
         <v>2010</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>2011</v>
-      </c>
-      <c r="I339" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="J339" s="2" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B340" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D340" t="s">
+        <v>42</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G340" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="C340" t="s">
+      <c r="H340" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="D340" t="s">
-        <v>15</v>
-      </c>
-      <c r="F340" s="2" t="s">
+      <c r="I340" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="G340" s="2" t="s">
+      <c r="J340" s="2" t="s">
         <v>2017</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>2018</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>2019</v>
-      </c>
-      <c r="J340" s="2" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B341" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D341" t="s">
+        <v>8</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>2021</v>
       </c>
-      <c r="C341" t="s">
+      <c r="H341" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="D341" t="s">
-        <v>42</v>
-      </c>
-      <c r="F341" s="2" t="s">
+      <c r="I341" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="G341" s="2" t="s">
+      <c r="J341" s="2" t="s">
         <v>2024</v>
-      </c>
-      <c r="H341" s="2" t="s">
-        <v>2025</v>
-      </c>
-      <c r="I341" s="2" t="s">
-        <v>2026</v>
-      </c>
-      <c r="J341" s="2" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B342" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D342" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G342" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="C342" t="s">
+      <c r="H342" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="D342" t="s">
-        <v>8</v>
-      </c>
-      <c r="F342" s="2" t="s">
+      <c r="I342" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="G342" s="2" t="s">
+      <c r="J342" s="2" t="s">
         <v>2031</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>2032</v>
-      </c>
-      <c r="I342" s="2" t="s">
-        <v>2033</v>
-      </c>
-      <c r="J342" s="2" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B343" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="C343" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D343" t="s">
         <v>15</v>
       </c>
       <c r="F343" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I343" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="G343" s="2" t="s">
+      <c r="J343" s="2" t="s">
         <v>2038</v>
-      </c>
-      <c r="H343" s="2" t="s">
-        <v>2039</v>
-      </c>
-      <c r="I343" s="2" t="s">
-        <v>2040</v>
-      </c>
-      <c r="J343" s="2" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B344" t="s">
+        <v>634</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D344" t="s">
+        <v>189</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H344" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="C344" t="s">
+      <c r="I344" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="D344" t="s">
-        <v>15</v>
-      </c>
-      <c r="F344" s="2" t="s">
+      <c r="J344" s="2" t="s">
         <v>2044</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>2045</v>
-      </c>
-      <c r="H344" s="2" t="s">
-        <v>2046</v>
-      </c>
-      <c r="I344" s="2" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J344" s="2" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B345" t="s">
-        <v>634</v>
+        <v>2045</v>
       </c>
       <c r="C345" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D345" t="s">
+        <v>37</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H345" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="D345" t="s">
-        <v>189</v>
-      </c>
-      <c r="F345" s="2" t="s">
+      <c r="I345" s="2" t="s">
         <v>2050</v>
       </c>
-      <c r="G345" s="2" t="s">
+      <c r="J345" s="2" t="s">
         <v>2051</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>2052</v>
-      </c>
-      <c r="I345" s="2" t="s">
-        <v>2053</v>
-      </c>
-      <c r="J345" s="2" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B346" t="s">
-        <v>2055</v>
+        <v>2401</v>
       </c>
       <c r="C346" t="s">
-        <v>2056</v>
+        <v>2402</v>
       </c>
       <c r="D346" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E346" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>2057</v>
+        <v>2403</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>2058</v>
+        <v>2404</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>2059</v>
+        <v>2405</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>2060</v>
+        <v>2406</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>2061</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B347" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D347" t="s">
+        <v>53</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="J347" s="2" t="s">
         <v>2413</v>
-      </c>
-      <c r="C347" t="s">
-        <v>2414</v>
-      </c>
-      <c r="D347" t="s">
-        <v>58</v>
-      </c>
-      <c r="E347" t="s">
-        <v>15</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>2415</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>2416</v>
-      </c>
-      <c r="H347" s="2" t="s">
-        <v>2417</v>
-      </c>
-      <c r="I347" s="2" t="s">
-        <v>2418</v>
-      </c>
-      <c r="J347" s="2" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B348" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="C348" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D348" t="s">
+        <v>15</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="J348" s="2" t="s">
         <v>2420</v>
-      </c>
-      <c r="D348" t="s">
-        <v>53</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>2421</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>2422</v>
-      </c>
-      <c r="H348" s="2" t="s">
-        <v>2423</v>
-      </c>
-      <c r="I348" s="2" t="s">
-        <v>2424</v>
-      </c>
-      <c r="J348" s="2" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B349" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D349" t="s">
+        <v>58</v>
+      </c>
+      <c r="E349" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I349" s="2" t="s">
         <v>2426</v>
       </c>
-      <c r="C349" t="s">
+      <c r="J349" s="2" t="s">
         <v>2427</v>
-      </c>
-      <c r="D349" t="s">
-        <v>15</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>2428</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="H349" s="2" t="s">
-        <v>2430</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>2431</v>
-      </c>
-      <c r="J349" s="2" t="s">
-        <v>2432</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B350" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D350" t="s">
+        <v>42</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I350" s="2" t="s">
         <v>2433</v>
       </c>
-      <c r="C350" t="s">
+      <c r="J350" s="2" t="s">
         <v>2434</v>
-      </c>
-      <c r="D350" t="s">
-        <v>58</v>
-      </c>
-      <c r="E350" t="s">
-        <v>8</v>
-      </c>
-      <c r="F350" s="2" t="s">
-        <v>2435</v>
-      </c>
-      <c r="G350" s="2" t="s">
-        <v>2436</v>
-      </c>
-      <c r="H350" s="2" t="s">
-        <v>2437</v>
-      </c>
-      <c r="I350" s="2" t="s">
-        <v>2438</v>
-      </c>
-      <c r="J350" s="2" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B351" t="s">
-        <v>2440</v>
+        <v>1935</v>
       </c>
       <c r="C351" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="D351" t="s">
         <v>42</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B352" t="s">
-        <v>1945</v>
+        <v>2441</v>
       </c>
       <c r="C352" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D352" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="J352" s="2" t="s">
         <v>2447</v>
-      </c>
-      <c r="D352" t="s">
-        <v>42</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>2448</v>
-      </c>
-      <c r="G352" s="2" t="s">
-        <v>2449</v>
-      </c>
-      <c r="H352" s="2" t="s">
-        <v>2450</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>2451</v>
-      </c>
-      <c r="J352" s="2" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B353" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D353" t="s">
+        <v>58</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="I353" s="2" t="s">
         <v>2453</v>
       </c>
-      <c r="C353" t="s">
+      <c r="J353" s="2" t="s">
         <v>2454</v>
-      </c>
-      <c r="D353" t="s">
-        <v>15</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>2455</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>2456</v>
-      </c>
-      <c r="H353" s="2" t="s">
-        <v>2457</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>2458</v>
-      </c>
-      <c r="J353" s="2" t="s">
-        <v>2459</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B354" t="s">
+        <v>492</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D354" t="s">
+        <v>15</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="J354" s="2" t="s">
         <v>2460</v>
-      </c>
-      <c r="C354" t="s">
-        <v>2461</v>
-      </c>
-      <c r="D354" t="s">
-        <v>58</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>2462</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>2463</v>
-      </c>
-      <c r="H354" s="2" t="s">
-        <v>2464</v>
-      </c>
-      <c r="I354" s="2" t="s">
-        <v>2465</v>
-      </c>
-      <c r="J354" s="2" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B355" t="s">
-        <v>492</v>
+        <v>2461</v>
       </c>
       <c r="C355" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D355" t="s">
+        <v>33</v>
+      </c>
+      <c r="E355" t="s">
+        <v>53</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="J355" s="2" t="s">
         <v>2467</v>
-      </c>
-      <c r="D355" t="s">
-        <v>15</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>2469</v>
-      </c>
-      <c r="H355" s="2" t="s">
-        <v>2470</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>2471</v>
-      </c>
-      <c r="J355" s="2" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B356" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D356" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" t="s">
+        <v>58</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>2473</v>
       </c>
-      <c r="C356" t="s">
+      <c r="J356" s="2" t="s">
         <v>2474</v>
-      </c>
-      <c r="D356" t="s">
-        <v>33</v>
-      </c>
-      <c r="E356" t="s">
-        <v>53</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>2475</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>2476</v>
-      </c>
-      <c r="H356" s="2" t="s">
-        <v>2477</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>2478</v>
-      </c>
-      <c r="J356" s="2" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B357" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D357" t="s">
+        <v>42</v>
+      </c>
+      <c r="E357" t="s">
+        <v>79</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="I357" s="2" t="s">
         <v>2480</v>
       </c>
-      <c r="C357" t="s">
+      <c r="J357" s="2" t="s">
         <v>2481</v>
-      </c>
-      <c r="D357" t="s">
-        <v>8</v>
-      </c>
-      <c r="E357" t="s">
-        <v>58</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>2482</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>2483</v>
-      </c>
-      <c r="H357" s="2" t="s">
-        <v>2484</v>
-      </c>
-      <c r="I357" s="2" t="s">
-        <v>2485</v>
-      </c>
-      <c r="J357" s="2" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B358" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C358" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D358" t="s">
+        <v>15</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I358" s="2" t="s">
         <v>2487</v>
       </c>
-      <c r="C358" t="s">
+      <c r="J358" s="2" t="s">
         <v>2488</v>
-      </c>
-      <c r="D358" t="s">
-        <v>42</v>
-      </c>
-      <c r="E358" t="s">
-        <v>79</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>2489</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>2490</v>
-      </c>
-      <c r="H358" s="2" t="s">
-        <v>2491</v>
-      </c>
-      <c r="I358" s="2" t="s">
-        <v>2492</v>
-      </c>
-      <c r="J358" s="2" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B359" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D359" t="s">
+        <v>8</v>
+      </c>
+      <c r="E359" t="s">
+        <v>15</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I359" s="2" t="s">
         <v>2494</v>
       </c>
-      <c r="C359" t="s">
+      <c r="J359" s="2" t="s">
         <v>2495</v>
-      </c>
-      <c r="D359" t="s">
-        <v>15</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>2496</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>2497</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>2498</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>2499</v>
-      </c>
-      <c r="J359" s="2" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B360" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="C360" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D360" t="s">
-        <v>8</v>
-      </c>
-      <c r="E360" t="s">
-        <v>15</v>
+        <v>2497</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>2503</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>2504</v>
-      </c>
-      <c r="H360" s="2" t="s">
-        <v>2505</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>2506</v>
-      </c>
-      <c r="J360" s="2" t="s">
-        <v>2507</v>
-      </c>
+        <v>2498</v>
+      </c>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B361" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D361" t="s">
+        <v>53</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="J361" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="C361" t="s">
-        <v>2509</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>2510</v>
-      </c>
-      <c r="I361" s="2"/>
-      <c r="J361" s="2"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B362" t="s">
-        <v>1903</v>
+        <v>2509</v>
       </c>
       <c r="C362" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="D362" t="s">
         <v>53</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B363" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D363" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="I363" s="2" t="s">
         <v>2521</v>
       </c>
-      <c r="C363" t="s">
+      <c r="J363" s="2" t="s">
         <v>2522</v>
-      </c>
-      <c r="D363" t="s">
-        <v>53</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G363" s="2" t="s">
-        <v>2524</v>
-      </c>
-      <c r="H363" s="2" t="s">
-        <v>2525</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>2526</v>
-      </c>
-      <c r="J363" s="2" t="s">
-        <v>2527</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B364" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D364" t="s">
+        <v>58</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="I364" s="2" t="s">
         <v>2528</v>
       </c>
-      <c r="C364" t="s">
+      <c r="J364" s="2" t="s">
         <v>2529</v>
-      </c>
-      <c r="D364" t="s">
-        <v>8</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>2530</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>2531</v>
-      </c>
-      <c r="H364" s="2" t="s">
-        <v>2532</v>
-      </c>
-      <c r="I364" s="2" t="s">
-        <v>2533</v>
-      </c>
-      <c r="J364" s="2" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B365" t="s">
+        <v>496</v>
+      </c>
+      <c r="C365" t="s">
         <v>2535</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
+        <v>33</v>
+      </c>
+      <c r="F365" s="2" t="s">
         <v>2536</v>
       </c>
-      <c r="D365" t="s">
-        <v>58</v>
-      </c>
-      <c r="F365" s="2" t="s">
+      <c r="G365" s="2" t="s">
         <v>2537</v>
       </c>
-      <c r="G365" s="2" t="s">
+      <c r="H365" s="2" t="s">
         <v>2538</v>
       </c>
-      <c r="H365" s="2" t="s">
+      <c r="I365" s="2" t="s">
         <v>2539</v>
       </c>
-      <c r="I365" s="2" t="s">
+      <c r="J365" s="2" t="s">
         <v>2540</v>
-      </c>
-      <c r="J365" s="2" t="s">
-        <v>2541</v>
       </c>
     </row>
   </sheetData>
@@ -19765,980 +19762,980 @@
     <hyperlink ref="I163" r:id="rId559" xr:uid="{0DC2DE39-2CC2-4675-A164-F67C316566CE}"/>
     <hyperlink ref="I149" r:id="rId560" xr:uid="{41139244-7C44-46AC-9B4F-E72627B38A64}"/>
     <hyperlink ref="I98" r:id="rId561" xr:uid="{33DA2903-C430-4F58-9CA6-A8C2B65AD1DF}"/>
-    <hyperlink ref="I265" r:id="rId562" xr:uid="{4EBCFB6F-5BC2-4B52-9A8E-80B969733637}"/>
-    <hyperlink ref="J117" r:id="rId563" xr:uid="{DF2FBDC6-5BF6-4DAB-9B99-9327FB98725A}"/>
-    <hyperlink ref="J20" r:id="rId564" xr:uid="{ADC8282E-FFFA-45E2-A5C2-4646C63DB641}"/>
-    <hyperlink ref="J39" r:id="rId565" xr:uid="{52FFBF71-EA79-4432-A659-6FF86D7E4B66}"/>
-    <hyperlink ref="J2" r:id="rId566" xr:uid="{9DBE4F8F-77D6-4A68-BB12-7C83FCE43C55}"/>
-    <hyperlink ref="J4" r:id="rId567" xr:uid="{301EAABD-D219-4A90-B00C-1AD40321AA11}"/>
-    <hyperlink ref="J10" r:id="rId568" xr:uid="{94A6A577-2E7B-445F-99D0-76B26FE9F19E}"/>
-    <hyperlink ref="J11" r:id="rId569" xr:uid="{01349E6F-EC66-4984-988F-A95BD3379A33}"/>
-    <hyperlink ref="J38" r:id="rId570" xr:uid="{1FF50C2C-3B9B-4414-9127-A40D2BD2A6BC}"/>
-    <hyperlink ref="J44" r:id="rId571" xr:uid="{AC23E088-BB72-4F11-9E13-AE04337B7931}"/>
-    <hyperlink ref="J57" r:id="rId572" xr:uid="{1B49AE05-6E46-401B-8530-16FBCF065432}"/>
-    <hyperlink ref="J63" r:id="rId573" xr:uid="{E61A2115-C3BE-429D-B9FB-8CB0A3682DA4}"/>
-    <hyperlink ref="J81" r:id="rId574" xr:uid="{46124A12-3678-465C-8DD5-72FD85A2616C}"/>
-    <hyperlink ref="J85" r:id="rId575" xr:uid="{54D49EE2-F995-4232-A5AA-E93AEF1E731C}"/>
-    <hyperlink ref="J99" r:id="rId576" xr:uid="{11CF1933-B672-4192-8867-31161BA772E6}"/>
-    <hyperlink ref="J101" r:id="rId577" xr:uid="{C5BC2104-998A-446A-A799-091DC6F79D28}"/>
-    <hyperlink ref="J102" r:id="rId578" xr:uid="{71E96238-5863-455B-9FCD-19D01415FA0C}"/>
-    <hyperlink ref="J108" r:id="rId579" xr:uid="{186CD8AA-AA0A-4DE9-9F82-7FFE6DC6C0A6}"/>
-    <hyperlink ref="J129" r:id="rId580" xr:uid="{5FB36AFB-D500-463C-9BC8-1CA949F3F3C3}"/>
-    <hyperlink ref="J157" r:id="rId581" xr:uid="{EF9F645C-C222-456A-93F1-584E7AEF8C9D}"/>
-    <hyperlink ref="J168" r:id="rId582" xr:uid="{5ED9428D-3298-4256-AE3D-8E366AA76666}"/>
-    <hyperlink ref="J171" r:id="rId583" xr:uid="{56AECCC8-2D4B-47E5-ABB0-1F851F26961E}"/>
-    <hyperlink ref="J187" r:id="rId584" xr:uid="{C34D3827-C41F-4E8A-90AF-DD5C240600C9}"/>
-    <hyperlink ref="J188" r:id="rId585" xr:uid="{97794EA4-0CDE-4E61-9CDF-786B4CD25F35}"/>
-    <hyperlink ref="J202" r:id="rId586" xr:uid="{32129AB8-7D79-41CA-B6F2-35C086EDC050}"/>
-    <hyperlink ref="J206" r:id="rId587" xr:uid="{8CE63CE9-2425-44ED-A379-72BB43163B28}"/>
-    <hyperlink ref="J242" r:id="rId588" xr:uid="{A961208C-87C1-464A-926B-45E35A331DDB}"/>
-    <hyperlink ref="J105" r:id="rId589" xr:uid="{3056F1C3-68FD-49B4-BA2B-6FE3E7210128}"/>
-    <hyperlink ref="J163" r:id="rId590" xr:uid="{893AF3AC-87A2-4687-89A5-81BE72A1A6ED}"/>
-    <hyperlink ref="J149" r:id="rId591" xr:uid="{F2BC2D3E-7F41-43E7-8F0F-295DD87E7050}"/>
-    <hyperlink ref="J98" r:id="rId592" xr:uid="{672FBCF5-FBF1-47FD-9695-8681FD7ECF98}"/>
-    <hyperlink ref="J265" r:id="rId593" xr:uid="{DB442883-1BF2-4B1B-8C4C-2E12EE5D1E6C}"/>
-    <hyperlink ref="H6" r:id="rId594" xr:uid="{176C6862-1A2B-4D0B-8603-08C75A629813}"/>
-    <hyperlink ref="H24" r:id="rId595" xr:uid="{3D157453-D997-418E-8098-89F8F9F713B3}"/>
-    <hyperlink ref="H25" r:id="rId596" xr:uid="{769C3A54-5DBD-4114-B82F-67F269A92406}"/>
-    <hyperlink ref="H31" r:id="rId597" xr:uid="{AD3E0558-5F92-4330-AB87-3CAEE5FA4119}"/>
-    <hyperlink ref="H40" r:id="rId598" xr:uid="{1EAB44A5-52CB-4507-B33D-AAFD0CC7DE8B}"/>
-    <hyperlink ref="H48" r:id="rId599" xr:uid="{197379B2-ED3F-40DA-9402-A7A2294F2190}"/>
-    <hyperlink ref="H61" r:id="rId600" xr:uid="{C05BD894-F013-4834-8ACA-86A46D8DB749}"/>
-    <hyperlink ref="H76" r:id="rId601" xr:uid="{088DBC73-AFB4-49A6-B6E9-A02D6C1A4DFE}"/>
-    <hyperlink ref="H79" r:id="rId602" xr:uid="{90C29FF1-992E-4FB3-AC5D-9CCAC759DE48}"/>
-    <hyperlink ref="H89" r:id="rId603" xr:uid="{D3CFE476-9F68-4298-8698-7674E2CF89D4}"/>
-    <hyperlink ref="G94" r:id="rId604" xr:uid="{275708E7-A7F5-4385-8842-14A1669AC46B}"/>
-    <hyperlink ref="H94" r:id="rId605" xr:uid="{F1FEA142-2CC9-4031-B493-3B3256710FCB}"/>
-    <hyperlink ref="H97" r:id="rId606" xr:uid="{11071724-356F-41F5-B63A-9463A02DA6FB}"/>
-    <hyperlink ref="H111" r:id="rId607" xr:uid="{E548373D-38B4-4969-A85E-E511DC8AC831}"/>
-    <hyperlink ref="H120" r:id="rId608" xr:uid="{1EE4F9BE-C0AE-4DEF-9F07-D8C3A384B324}"/>
-    <hyperlink ref="H148" r:id="rId609" xr:uid="{1B8E798A-29B7-4063-9918-3D04E1086345}"/>
-    <hyperlink ref="G173" r:id="rId610" xr:uid="{C2B488C7-94E1-449F-B3C1-C9672DCCF701}"/>
-    <hyperlink ref="H173" r:id="rId611" xr:uid="{8DAB39A2-462F-44AB-BC10-0E016FE55E2D}"/>
-    <hyperlink ref="H181" r:id="rId612" xr:uid="{7F68B8E4-F15E-4850-B38B-AB9EF896B485}"/>
-    <hyperlink ref="H183" r:id="rId613" xr:uid="{1CF053EA-2B20-4F41-99D3-D591FE078947}"/>
-    <hyperlink ref="H193" r:id="rId614" xr:uid="{06E03B82-BFB5-4C99-880C-0BB47948CB43}"/>
-    <hyperlink ref="H197" r:id="rId615" xr:uid="{B1187FB1-F498-4817-9953-21F20740E590}"/>
-    <hyperlink ref="F271" r:id="rId616" xr:uid="{C9DCE3E7-7873-4E77-8E81-9C47625E47C9}"/>
-    <hyperlink ref="G271" r:id="rId617" xr:uid="{D0828B90-FE96-4C96-93DC-E9F907E9503D}"/>
-    <hyperlink ref="H271" r:id="rId618" xr:uid="{0712BDF9-E316-49CB-864F-D3E80E93A414}"/>
-    <hyperlink ref="F272" r:id="rId619" xr:uid="{8CA5AF85-98F5-469C-BA04-5445238A5E2E}"/>
-    <hyperlink ref="G272" r:id="rId620" xr:uid="{8A83AB93-616E-42D6-B30A-940F233F4BD8}"/>
-    <hyperlink ref="H272" r:id="rId621" xr:uid="{AA96105B-E839-4778-9E27-18D0FF99AF38}"/>
-    <hyperlink ref="F273" r:id="rId622" xr:uid="{58C5E826-3811-400D-8B7C-364EC39BF8BA}"/>
-    <hyperlink ref="G273" r:id="rId623" xr:uid="{F2DE98B2-1F72-4D54-8590-D7B8D109B222}"/>
-    <hyperlink ref="H273" r:id="rId624" xr:uid="{DA35DA3E-75AE-4D3A-961D-7AEAB5860EB6}"/>
-    <hyperlink ref="F274" r:id="rId625" xr:uid="{93151733-1C86-4901-95E2-13A92ABAB12B}"/>
-    <hyperlink ref="G274" r:id="rId626" xr:uid="{46F856BC-8818-4B65-82B0-AA5485AAD8A2}"/>
-    <hyperlink ref="H274" r:id="rId627" xr:uid="{96813973-151A-4D54-B697-0B52A48B9684}"/>
-    <hyperlink ref="F275" r:id="rId628" xr:uid="{273BBC63-9B68-4208-98AC-913205908B18}"/>
-    <hyperlink ref="G275" r:id="rId629" xr:uid="{0183A9F9-0651-47C2-8900-5D913C931A12}"/>
-    <hyperlink ref="H275" r:id="rId630" xr:uid="{5C4997C9-8793-4F09-B742-DDCE395243F8}"/>
-    <hyperlink ref="F276" r:id="rId631" xr:uid="{9411CE8A-F54B-470A-9ADC-63B40310D1A3}"/>
-    <hyperlink ref="G276" r:id="rId632" xr:uid="{F05F8851-B92A-42AC-83E9-822F67329DFA}"/>
-    <hyperlink ref="H276" r:id="rId633" xr:uid="{81B290E9-C3F1-4494-9959-3161A7D5AE7F}"/>
-    <hyperlink ref="F277" r:id="rId634" xr:uid="{146C3D7D-D09B-4E01-8678-ED32089DF083}"/>
-    <hyperlink ref="G277" r:id="rId635" xr:uid="{FDC5218E-F86E-45E2-BAAB-997DFDFD0A99}"/>
-    <hyperlink ref="H277" r:id="rId636" xr:uid="{CC2C789A-D116-40D2-B433-0EEFBD5E9701}"/>
-    <hyperlink ref="F278" r:id="rId637" xr:uid="{21F8FA53-85D7-4F8E-B6D1-5CD62F5E25FC}"/>
-    <hyperlink ref="G278" r:id="rId638" xr:uid="{0D678289-E9A3-42CF-B8A8-3774241AEA9C}"/>
-    <hyperlink ref="H278" r:id="rId639" xr:uid="{0136375C-8C6B-42D4-913D-462F5AAC4EA8}"/>
-    <hyperlink ref="F279" r:id="rId640" xr:uid="{5B74805C-A15A-465C-893F-3A0AEF94E96C}"/>
-    <hyperlink ref="G279" r:id="rId641" xr:uid="{C4E99094-31FD-4FC5-98CE-51B752A46BFB}"/>
-    <hyperlink ref="H279" r:id="rId642" xr:uid="{9BEB1A14-66FF-4BF8-B6F4-1779C35761BD}"/>
-    <hyperlink ref="F280" r:id="rId643" xr:uid="{3DB42F7C-C28A-4984-8688-5486405F03A5}"/>
-    <hyperlink ref="G280" r:id="rId644" xr:uid="{FC20C8CB-094C-4CC9-9D6E-8B74E81D2CD9}"/>
-    <hyperlink ref="H280" r:id="rId645" xr:uid="{1F6C4CCC-432B-46DB-9D5A-C39EB8F0ADE4}"/>
-    <hyperlink ref="F281" r:id="rId646" xr:uid="{750BD0F7-0039-4226-95B7-7D75C6DC9187}"/>
-    <hyperlink ref="G281" r:id="rId647" xr:uid="{3134928A-8372-4C3D-8C25-1C52C6644493}"/>
-    <hyperlink ref="H281" r:id="rId648" xr:uid="{A9ECEB9C-51BA-4654-9B26-37DDA49685F5}"/>
-    <hyperlink ref="I281" r:id="rId649" xr:uid="{6A8E043B-26BB-4104-8026-DE2F1C54220E}"/>
-    <hyperlink ref="J281" r:id="rId650" xr:uid="{4D66A959-B067-4F98-A7FA-0FA047C0D0D9}"/>
-    <hyperlink ref="F282" r:id="rId651" xr:uid="{F6B8416A-EC53-49B8-8151-A7DFA1BF4A1E}"/>
-    <hyperlink ref="G282" r:id="rId652" xr:uid="{0322ED6A-20BE-4C03-938E-2E2F953A0C0D}"/>
-    <hyperlink ref="H282" r:id="rId653" xr:uid="{D9330B43-4ECC-41B5-9F10-6808B504CB25}"/>
-    <hyperlink ref="F283" r:id="rId654" xr:uid="{DB191819-6495-4DDB-9B62-C17CD43658A1}"/>
-    <hyperlink ref="G283" r:id="rId655" xr:uid="{29C73C3F-7439-47A8-B503-56B1181245F8}"/>
-    <hyperlink ref="H283" r:id="rId656" xr:uid="{EF36C57A-3CF3-4934-87AA-AB852C1349EC}"/>
-    <hyperlink ref="F284" r:id="rId657" xr:uid="{879083A8-6728-4BC4-A442-5E9404990829}"/>
-    <hyperlink ref="G284" r:id="rId658" xr:uid="{E81D8F9E-6305-4148-909F-CC23B16CD22E}"/>
-    <hyperlink ref="H284" r:id="rId659" xr:uid="{1626CCFB-AF8A-4215-BD9B-1AB2647081E1}"/>
-    <hyperlink ref="F285" r:id="rId660" xr:uid="{CAF3C85D-D665-4388-ADF1-13F0D7EE8578}"/>
-    <hyperlink ref="G285" r:id="rId661" xr:uid="{45D1EB5B-4A05-425A-835A-53B3F3C41EDC}"/>
-    <hyperlink ref="H285" r:id="rId662" xr:uid="{D6C18DF0-C1D9-4133-84C1-E8520A511DC2}"/>
-    <hyperlink ref="F286" r:id="rId663" xr:uid="{FF323097-48DE-44B8-A1F1-10332A9BADAA}"/>
-    <hyperlink ref="G286" r:id="rId664" xr:uid="{CA1FF121-95D4-4752-BD21-69C8B946265C}"/>
-    <hyperlink ref="H286" r:id="rId665" xr:uid="{8B9321E1-666A-48F7-8587-2B3A9B442E54}"/>
-    <hyperlink ref="F287" r:id="rId666" xr:uid="{586DADED-96DE-4C9A-903C-28FA59A925D0}"/>
-    <hyperlink ref="G287" r:id="rId667" xr:uid="{A366EB2F-CA0D-42C7-A600-79D2FEBC3C93}"/>
-    <hyperlink ref="H287" r:id="rId668" xr:uid="{D3BDDB1C-DBD3-4E92-BD0A-53F4CC4C04ED}"/>
-    <hyperlink ref="F288" r:id="rId669" xr:uid="{81343FBE-E65A-422C-AF0E-4C3AE6793083}"/>
-    <hyperlink ref="G288" r:id="rId670" xr:uid="{CBAFFB5D-760D-4AB2-B52C-A9CF8218DE40}"/>
-    <hyperlink ref="H288" r:id="rId671" xr:uid="{EE2E839D-92A3-4F0A-8D32-3E8A81F36AA4}"/>
-    <hyperlink ref="F289" r:id="rId672" xr:uid="{92543641-491A-4450-974A-8072614BBD77}"/>
-    <hyperlink ref="G289" r:id="rId673" xr:uid="{1017C65D-5952-4F94-B326-54851C5839D9}"/>
-    <hyperlink ref="H289" r:id="rId674" xr:uid="{35631DF0-DEE2-487B-9FE3-EDF524EF985C}"/>
-    <hyperlink ref="F290" r:id="rId675" xr:uid="{C59215FE-ABB1-4C8C-A0EC-C4514078867A}"/>
-    <hyperlink ref="G290" r:id="rId676" xr:uid="{08D02FF9-68C7-4C88-818D-043BDFE86F6E}"/>
-    <hyperlink ref="H290" r:id="rId677" xr:uid="{AB22499D-9629-4135-9EDE-88BFAD66C765}"/>
-    <hyperlink ref="F291" r:id="rId678" xr:uid="{42E0CA48-BB1A-4CCE-9478-A67D6E6C1B3E}"/>
-    <hyperlink ref="G291" r:id="rId679" xr:uid="{673AC1E3-2B90-403C-8C78-EDE0165AB17C}"/>
-    <hyperlink ref="H291" r:id="rId680" xr:uid="{58C1CF6E-FA47-4C01-BFD5-58FCE4BE61DF}"/>
-    <hyperlink ref="F292" r:id="rId681" xr:uid="{460E1973-3D7A-49C8-8104-43A39EA7374C}"/>
-    <hyperlink ref="G292" r:id="rId682" xr:uid="{C79FCDA9-68A5-4D56-9314-06ACAB45D77A}"/>
-    <hyperlink ref="H292" r:id="rId683" xr:uid="{ABD50DA7-C32F-4B79-9D88-FE6E57C116FF}"/>
-    <hyperlink ref="F293" r:id="rId684" xr:uid="{E30AF31D-6130-40CE-BEFB-674D5D4783C0}"/>
-    <hyperlink ref="G293" r:id="rId685" xr:uid="{04716AC3-053E-4A35-AA59-220E432F8DA4}"/>
-    <hyperlink ref="H293" r:id="rId686" xr:uid="{82D444BA-FCFB-4062-9059-FBC157D106B6}"/>
-    <hyperlink ref="F294" r:id="rId687" xr:uid="{D38C1ADC-F7E6-48D7-B1E7-FD89577830EF}"/>
-    <hyperlink ref="G294" r:id="rId688" xr:uid="{12FB7D4E-3B64-407F-A78E-9142A0F9A945}"/>
-    <hyperlink ref="H294" r:id="rId689" xr:uid="{C3D40E90-EA5E-490B-8228-361AA11472ED}"/>
-    <hyperlink ref="F295" r:id="rId690" xr:uid="{44EB926A-6367-4B55-8DD4-81DB7CBE5D08}"/>
-    <hyperlink ref="G295" r:id="rId691" xr:uid="{ACB252AB-C434-4AB7-A3FE-B4958A40712D}"/>
-    <hyperlink ref="H295" r:id="rId692" xr:uid="{F41B58EC-5F08-48D3-9258-50F5D82C3994}"/>
-    <hyperlink ref="F296" r:id="rId693" xr:uid="{91DC10A4-58AB-4816-9282-9424C1ED52A7}"/>
-    <hyperlink ref="G296" r:id="rId694" xr:uid="{926BD1B5-EC5F-4E49-802E-87DC68C67BAD}"/>
-    <hyperlink ref="H296" r:id="rId695" xr:uid="{74828C29-41EB-4835-BCCC-BB38FB0BEE7E}"/>
-    <hyperlink ref="F297" r:id="rId696" xr:uid="{A57F1CC3-A35A-4426-903E-E413A90C2AD5}"/>
-    <hyperlink ref="G297" r:id="rId697" xr:uid="{E6510140-273C-4127-9586-F559FDE04BD7}"/>
-    <hyperlink ref="H297" r:id="rId698" xr:uid="{73477446-0737-4EF4-8834-FFCE3CEC2817}"/>
-    <hyperlink ref="F298" r:id="rId699" xr:uid="{5A133571-3863-4508-92CC-569FDE08E0F0}"/>
-    <hyperlink ref="G298" r:id="rId700" xr:uid="{54A3F039-FA25-4146-9F69-BEDE9ECFAA4B}"/>
-    <hyperlink ref="H298" r:id="rId701" xr:uid="{444665AE-FA73-4D22-938A-2F09A20F350B}"/>
-    <hyperlink ref="F299" r:id="rId702" xr:uid="{65D8E38E-B3B4-4CD2-A60E-C4D416BAF732}"/>
-    <hyperlink ref="G299" r:id="rId703" xr:uid="{FEFE22C8-3FBB-4F45-BBC9-2DEA711884F7}"/>
-    <hyperlink ref="H299" r:id="rId704" xr:uid="{20ED6621-6416-4F01-804A-D92BB2E253CE}"/>
-    <hyperlink ref="F300" r:id="rId705" xr:uid="{4098C36E-B3A1-4A16-83D5-F3721D3CC356}"/>
-    <hyperlink ref="G300" r:id="rId706" xr:uid="{64537CA2-01AA-4170-A4EA-A70E633499C0}"/>
-    <hyperlink ref="H300" r:id="rId707" xr:uid="{4D56D057-6BFF-4BE3-B590-11F5E685A459}"/>
-    <hyperlink ref="F301" r:id="rId708" xr:uid="{31BD11F4-3C3A-46AF-9E25-6BEBE6DA507D}"/>
-    <hyperlink ref="G301" r:id="rId709" xr:uid="{80384F50-5E30-41D2-95E6-CA0FAD87D0AB}"/>
-    <hyperlink ref="H301" r:id="rId710" xr:uid="{F8F934B7-5E5B-493D-87EF-F2CEB9F18E79}"/>
-    <hyperlink ref="G63" r:id="rId711" xr:uid="{A860FADC-2AA6-410F-80E2-FB77DF39BBAD}"/>
-    <hyperlink ref="G239" r:id="rId712" xr:uid="{8A841F73-B635-497F-A66B-CE933744436B}"/>
-    <hyperlink ref="F302" r:id="rId713" xr:uid="{183028FC-790A-444C-8782-C430EAD41FBC}"/>
-    <hyperlink ref="G302" r:id="rId714" xr:uid="{AC3E11CC-9B5E-4B23-A069-4C413F766004}"/>
-    <hyperlink ref="H302" r:id="rId715" xr:uid="{1D73C390-F3A0-49F9-9A84-D9808B4E51FB}"/>
-    <hyperlink ref="F303" r:id="rId716" xr:uid="{B96ADCB1-9F2F-4088-9A15-720E1C057228}"/>
-    <hyperlink ref="G303" r:id="rId717" xr:uid="{3B196D0E-0AB7-49C8-9B82-8398BD6E43C5}"/>
-    <hyperlink ref="H303" r:id="rId718" xr:uid="{FEE8A0E2-FBA6-44B9-B38D-7BC4DF71B817}"/>
-    <hyperlink ref="F304" r:id="rId719" xr:uid="{AB45ADCD-0EF2-4641-A3FD-D21F47659E51}"/>
-    <hyperlink ref="G304" r:id="rId720" xr:uid="{3D06D7E9-8A99-49B8-BA90-74D7C20E3749}"/>
-    <hyperlink ref="H304" r:id="rId721" xr:uid="{9751A50A-1A0A-498F-89F3-C2FDE8539746}"/>
-    <hyperlink ref="F305" r:id="rId722" xr:uid="{13907297-673A-4D53-A00D-91DC7BB93A8C}"/>
-    <hyperlink ref="G305" r:id="rId723" xr:uid="{A86FBB18-DDD4-4D8F-B616-D4C77D8B12BA}"/>
-    <hyperlink ref="H305" r:id="rId724" xr:uid="{ED60E192-02F4-4FFA-AECD-F79137AC4AC9}"/>
-    <hyperlink ref="F306" r:id="rId725" xr:uid="{C4BA5B78-B1BE-4311-8F68-E66A53D1842E}"/>
-    <hyperlink ref="G306" r:id="rId726" xr:uid="{7FD5B296-F2F9-4805-8ABE-7BB35FD9D798}"/>
-    <hyperlink ref="H306" r:id="rId727" xr:uid="{FB93A1AE-7787-4DE2-92FE-576850814389}"/>
-    <hyperlink ref="F307" r:id="rId728" xr:uid="{502ED552-6A70-4E05-9B78-8BB7C40D79B7}"/>
-    <hyperlink ref="G307" r:id="rId729" xr:uid="{2C81645B-01BB-4B38-BD54-3679FC264AE0}"/>
-    <hyperlink ref="H307" r:id="rId730" xr:uid="{44BC8DE8-479E-4D83-BB3E-FF64119E82E0}"/>
-    <hyperlink ref="F308" r:id="rId731" xr:uid="{A2876857-2B07-4720-B579-8A4E20AD4C31}"/>
-    <hyperlink ref="G308" r:id="rId732" xr:uid="{CD90B99A-7B05-4CE0-9F4C-84B2EE8BC74C}"/>
-    <hyperlink ref="H308" r:id="rId733" xr:uid="{A0D7F291-6DEE-44D7-B945-D6C0CF188FF6}"/>
-    <hyperlink ref="F309" r:id="rId734" xr:uid="{E2EA7897-FE25-4134-83AC-ABA82A029600}"/>
-    <hyperlink ref="G309" r:id="rId735" xr:uid="{0371E68A-EFD7-4CBD-ABBF-793B9D3B6282}"/>
-    <hyperlink ref="H309" r:id="rId736" xr:uid="{9532103B-841B-4B76-B936-57F5A4784659}"/>
-    <hyperlink ref="F310" r:id="rId737" xr:uid="{AC4201E5-964F-4E41-BADD-DE3C62E7150C}"/>
-    <hyperlink ref="G310" r:id="rId738" xr:uid="{560AA62A-1D4C-4E5C-A5A9-C334FA87FF45}"/>
-    <hyperlink ref="H310" r:id="rId739" xr:uid="{6423BBA3-E72A-44EF-ABD7-9F4657D29BA1}"/>
-    <hyperlink ref="F311" r:id="rId740" xr:uid="{6F4B009A-1C7C-44BB-8AF3-F31511E4B9A7}"/>
-    <hyperlink ref="G311" r:id="rId741" xr:uid="{37AF9731-8FCA-4F1A-BA3B-0077877F1030}"/>
-    <hyperlink ref="H311" r:id="rId742" xr:uid="{7B97644E-0D27-4DFD-9F79-157C4F84846C}"/>
-    <hyperlink ref="F312" r:id="rId743" xr:uid="{6EB64C34-02F4-4CAB-96AC-364C9523614A}"/>
-    <hyperlink ref="G312" r:id="rId744" xr:uid="{5BC77779-F22E-427D-AB5A-681762574E00}"/>
-    <hyperlink ref="H312" r:id="rId745" xr:uid="{17EEC316-6CDF-48B6-A29C-A541784EF18A}"/>
-    <hyperlink ref="F313" r:id="rId746" xr:uid="{DD97752D-4022-44D6-B36A-23B6D8BF3865}"/>
-    <hyperlink ref="G313" r:id="rId747" xr:uid="{17AB6675-94DF-493D-B3B9-8406072AACCA}"/>
-    <hyperlink ref="H313" r:id="rId748" xr:uid="{F0B67F85-EF85-439B-8486-4B18E5D4473C}"/>
-    <hyperlink ref="F314" r:id="rId749" xr:uid="{52D7CD22-8AC0-47F6-A298-5A6886952159}"/>
-    <hyperlink ref="G314" r:id="rId750" xr:uid="{BA53A26F-342E-4960-BB0B-FF705C1B7033}"/>
-    <hyperlink ref="H314" r:id="rId751" xr:uid="{73B6EBB9-4932-44FF-8729-D594BED183B2}"/>
-    <hyperlink ref="F315" r:id="rId752" xr:uid="{365057D4-2A34-4A3E-8A7F-94B9F9CDC3D6}"/>
-    <hyperlink ref="G315" r:id="rId753" xr:uid="{FFC72F6A-AB2C-4105-B8B3-3B8CDCAE4C26}"/>
-    <hyperlink ref="H315" r:id="rId754" xr:uid="{1D63FB2E-C6F3-4FE4-B8E1-1E84723C8CBD}"/>
-    <hyperlink ref="F316" r:id="rId755" xr:uid="{8B74CE73-E4EE-4E29-A442-B95BE3A42258}"/>
-    <hyperlink ref="G316" r:id="rId756" xr:uid="{F21977A4-BDDE-4642-8B09-5365A93D5CCD}"/>
-    <hyperlink ref="H316" r:id="rId757" xr:uid="{3767FDAC-E2A8-431A-9859-FEAF31B2703D}"/>
-    <hyperlink ref="F317" r:id="rId758" xr:uid="{113A5CB2-5BED-4328-9E63-E6A6838ABDEA}"/>
-    <hyperlink ref="G317" r:id="rId759" xr:uid="{1926BF1B-EE78-4947-B98B-E67F0181D5E8}"/>
-    <hyperlink ref="H317" r:id="rId760" xr:uid="{9699A348-7699-424D-9225-55C91C8C3325}"/>
-    <hyperlink ref="F318" r:id="rId761" xr:uid="{083B7D20-275F-454F-8DA4-EB5452247228}"/>
-    <hyperlink ref="G318" r:id="rId762" xr:uid="{7F4252B2-35CB-4B6C-8077-53DD8C5D65A4}"/>
-    <hyperlink ref="H318" r:id="rId763" xr:uid="{8C8D41E5-F63A-4B7E-A2E8-26EFA801E212}"/>
-    <hyperlink ref="F319" r:id="rId764" xr:uid="{2A3827DC-5C52-49C7-A758-97D75425C459}"/>
-    <hyperlink ref="G319" r:id="rId765" xr:uid="{0AF23C53-35A7-416E-B5EE-5B190FC25180}"/>
-    <hyperlink ref="H319" r:id="rId766" xr:uid="{511526EB-23D6-4405-B8A9-B38DE20900E8}"/>
-    <hyperlink ref="F320" r:id="rId767" xr:uid="{9588F379-2821-481C-960F-507C6BC538D5}"/>
-    <hyperlink ref="G320" r:id="rId768" xr:uid="{918EC857-2EE3-4FF2-9377-4C6E1DE6A505}"/>
-    <hyperlink ref="H320" r:id="rId769" xr:uid="{BCE5EFED-7888-4DAB-9B86-5BCECD928B6E}"/>
-    <hyperlink ref="F321" r:id="rId770" xr:uid="{A6E2E570-4F0E-4523-8807-E2F12761493F}"/>
-    <hyperlink ref="G321" r:id="rId771" xr:uid="{6862CC05-5159-4452-A790-CB9527FA998F}"/>
-    <hyperlink ref="H321" r:id="rId772" xr:uid="{F2093DF3-5046-4249-9A27-30B3EE671F46}"/>
-    <hyperlink ref="F322" r:id="rId773" xr:uid="{01F0706E-D4E2-435B-954C-373628254254}"/>
-    <hyperlink ref="G322" r:id="rId774" xr:uid="{DD703CF6-93CF-4786-8CC8-961395B1D546}"/>
-    <hyperlink ref="H322" r:id="rId775" xr:uid="{AA4D6E0C-CE09-42A0-B06A-66400D21BB6B}"/>
-    <hyperlink ref="F323" r:id="rId776" xr:uid="{905F1A51-6DEE-4794-881B-ADA92A22F3E0}"/>
-    <hyperlink ref="G323" r:id="rId777" xr:uid="{2707AD72-8EB5-40EC-9D01-CCBEAABD473E}"/>
-    <hyperlink ref="H323" r:id="rId778" xr:uid="{528D779C-138A-42BC-997A-5CE89C41BF08}"/>
-    <hyperlink ref="F324" r:id="rId779" xr:uid="{1614313F-963E-48D9-8819-22D1041833F0}"/>
-    <hyperlink ref="G324" r:id="rId780" xr:uid="{9A0C176D-9903-4D88-848D-4387017AB3CB}"/>
-    <hyperlink ref="H324" r:id="rId781" xr:uid="{57574C0D-DF78-4400-928F-1072E4DEC3A8}"/>
-    <hyperlink ref="F325" r:id="rId782" xr:uid="{E1F54384-C55F-402F-BB04-CF7E396E43FD}"/>
-    <hyperlink ref="G325" r:id="rId783" xr:uid="{7327E7AE-9297-4918-A8B3-9573C18D996D}"/>
-    <hyperlink ref="H325" r:id="rId784" xr:uid="{376EE72E-95DC-4014-8CDB-1889167FD494}"/>
-    <hyperlink ref="G326" r:id="rId785" xr:uid="{4C65B51A-E230-46DF-9418-4BA09EFD2159}"/>
-    <hyperlink ref="F326" r:id="rId786" xr:uid="{3CF58FD8-4F84-4A70-A69A-F9A61222A8AD}"/>
-    <hyperlink ref="H326" r:id="rId787" xr:uid="{5B54063F-B703-4EC6-A252-C05EBBF849AD}"/>
-    <hyperlink ref="I326" r:id="rId788" xr:uid="{138123B9-7D8A-4C9E-BDF4-9F46B8E70A05}"/>
-    <hyperlink ref="J326" r:id="rId789" xr:uid="{4677B897-9034-4B57-AEC0-14A853C3DE4A}"/>
-    <hyperlink ref="F327" r:id="rId790" xr:uid="{F38947BA-FF64-4EC9-ADD0-A3B18566A478}"/>
-    <hyperlink ref="G327" r:id="rId791" xr:uid="{0E056D89-D485-4011-B240-85CADE2D0338}"/>
-    <hyperlink ref="H327" r:id="rId792" xr:uid="{603A4B90-7671-47DA-85F3-BDB3AB80C04A}"/>
-    <hyperlink ref="F328" r:id="rId793" xr:uid="{0558D278-080F-484B-9817-03DFA371A44E}"/>
-    <hyperlink ref="G328" r:id="rId794" xr:uid="{E81CCD3D-EB83-4A13-87C3-8B4C806B6D86}"/>
-    <hyperlink ref="H328" r:id="rId795" xr:uid="{89EECFAF-F393-49E8-9C92-6D3513E7E092}"/>
-    <hyperlink ref="F329" r:id="rId796" xr:uid="{25860445-0E3F-4568-852E-933D217C47F7}"/>
-    <hyperlink ref="G329" r:id="rId797" xr:uid="{C4C8A6F4-AEB7-4FE8-85E8-5B40E470E82D}"/>
-    <hyperlink ref="H329" r:id="rId798" xr:uid="{DDA391C6-6619-4FC6-B82E-46EBE3392BA4}"/>
-    <hyperlink ref="F330" r:id="rId799" xr:uid="{B873625E-358C-40BD-AC6F-7260180D6E3B}"/>
-    <hyperlink ref="G330" r:id="rId800" xr:uid="{FD942D7B-054A-4A02-A3BA-9BEDD74DB65F}"/>
-    <hyperlink ref="H330" r:id="rId801" xr:uid="{C6EA97D5-3DAA-4F86-ACAB-3EAC546CDB14}"/>
-    <hyperlink ref="F331" r:id="rId802" xr:uid="{9B07AAF4-0905-4A2B-A766-9AA00C3A590B}"/>
-    <hyperlink ref="G331" r:id="rId803" xr:uid="{6B4CEA8F-8251-4CDE-B071-0BEBB6D72F25}"/>
-    <hyperlink ref="H331" r:id="rId804" xr:uid="{6CF3313D-7FF8-4268-81F5-9EEAD6F1157D}"/>
-    <hyperlink ref="I331" r:id="rId805" xr:uid="{D369B37E-8F10-43AC-BE1B-8870DF612D86}"/>
-    <hyperlink ref="J331" r:id="rId806" xr:uid="{D6426AD2-168B-4375-B131-2942DB185CB8}"/>
-    <hyperlink ref="F332" r:id="rId807" xr:uid="{250447E0-48CF-4801-9E28-BDCAC0BEC011}"/>
-    <hyperlink ref="G332" r:id="rId808" xr:uid="{803C05F0-4628-4C9C-ABCD-69E4A34C79A2}"/>
-    <hyperlink ref="H332" r:id="rId809" xr:uid="{B7518DC2-40FF-4426-85F3-4E47344FFFE2}"/>
-    <hyperlink ref="I332" r:id="rId810" xr:uid="{D62EB732-E8D6-46A3-B212-EED669B33F5C}"/>
-    <hyperlink ref="J332" r:id="rId811" xr:uid="{8ADD513F-E939-4F56-8FBE-164471B68A6D}"/>
-    <hyperlink ref="F333" r:id="rId812" xr:uid="{74E8F8C9-702A-468E-B159-E77D4EFF97A4}"/>
-    <hyperlink ref="G333" r:id="rId813" xr:uid="{D0D91EA7-1B47-4398-9514-0AD37EA5F01E}"/>
-    <hyperlink ref="G62" r:id="rId814" xr:uid="{BA266408-3FD2-461F-9060-A2C67BD877BF}"/>
-    <hyperlink ref="H62" r:id="rId815" xr:uid="{44A2CA7F-84CF-4E82-8A5C-60CE401C74CC}"/>
-    <hyperlink ref="H333" r:id="rId816" xr:uid="{B6E8A52E-5287-4769-8D1B-7CFF4D83FBED}"/>
-    <hyperlink ref="F334" r:id="rId817" xr:uid="{B6DC53F8-5562-4905-AD9E-6A9964501380}"/>
-    <hyperlink ref="G334" r:id="rId818" xr:uid="{C4165207-BEDB-4BAD-8B7F-884C70CB78A3}"/>
-    <hyperlink ref="H334" r:id="rId819" xr:uid="{5A7C9B60-B393-4B4B-8B12-BF49CB86081B}"/>
-    <hyperlink ref="I334" r:id="rId820" xr:uid="{B53B1C69-55C7-4BC5-8BA7-BB790FB6D3FC}"/>
-    <hyperlink ref="J334" r:id="rId821" xr:uid="{E44233FD-ED3C-4801-8EB7-BA03BEE274E5}"/>
-    <hyperlink ref="F335" r:id="rId822" xr:uid="{B4537D0A-9331-4D3B-9DF8-7D82E5E02E49}"/>
-    <hyperlink ref="G335" r:id="rId823" xr:uid="{E92570D9-B4E6-4DA6-B902-2F7B4391C00C}"/>
-    <hyperlink ref="H335" r:id="rId824" xr:uid="{6250A692-F7A3-4055-82F9-71E1202303D0}"/>
-    <hyperlink ref="I335" r:id="rId825" xr:uid="{EE511326-AEFE-4DA6-BADB-371A1170B8F0}"/>
-    <hyperlink ref="J335" r:id="rId826" xr:uid="{12802A15-ABB2-4E94-8908-6EEFB3FD19A7}"/>
-    <hyperlink ref="F336" r:id="rId827" xr:uid="{26854F14-F951-49D0-AA2F-4EBDBE8BA018}"/>
-    <hyperlink ref="G336" r:id="rId828" xr:uid="{45066090-9396-4C83-835C-34A89DDCEE53}"/>
-    <hyperlink ref="I336" r:id="rId829" xr:uid="{6D1DA49D-1D42-4D75-A815-1399E2801C33}"/>
-    <hyperlink ref="H336" r:id="rId830" xr:uid="{15056427-3CD0-47DB-88FF-EE9F197A54C8}"/>
-    <hyperlink ref="J336" r:id="rId831" xr:uid="{7DBF0C82-30FB-48E9-BD89-F7C7695F76C0}"/>
-    <hyperlink ref="F337" r:id="rId832" xr:uid="{95405499-64C0-4E66-8037-B99899F91316}"/>
-    <hyperlink ref="G337" r:id="rId833" xr:uid="{1715F49D-8379-4AD8-8637-64895569519A}"/>
-    <hyperlink ref="H337" r:id="rId834" xr:uid="{0ADBBC34-E1FD-47BF-857C-3870634EC861}"/>
-    <hyperlink ref="I337" r:id="rId835" xr:uid="{553350E6-835D-4FA6-ACDB-7D325F930023}"/>
-    <hyperlink ref="J337" r:id="rId836" xr:uid="{1172B151-B229-481B-AA0A-0D8E6FAB68D9}"/>
-    <hyperlink ref="F338" r:id="rId837" xr:uid="{5E3516E8-5D93-4553-B3E7-3708CCA4175E}"/>
-    <hyperlink ref="G338" r:id="rId838" xr:uid="{AB2F46D3-1E0E-4BDE-BEAC-F25EDA10AE51}"/>
-    <hyperlink ref="H338" r:id="rId839" xr:uid="{8F3F62C8-D931-4DDF-80E2-FAD2523A09A2}"/>
-    <hyperlink ref="I338" r:id="rId840" xr:uid="{81ADA463-6AF8-4FE4-9637-0AD654B95E48}"/>
-    <hyperlink ref="J338" r:id="rId841" xr:uid="{A706C841-8592-47A7-996B-63ACE12F16F5}"/>
-    <hyperlink ref="F339" r:id="rId842" xr:uid="{C30081F3-3F7E-4F46-8512-D87BE171DEA4}"/>
-    <hyperlink ref="G339" r:id="rId843" xr:uid="{E2704ECF-B955-45D3-93AD-5A98D9FF92ED}"/>
-    <hyperlink ref="H339" r:id="rId844" xr:uid="{65040649-C1E4-4E3F-9226-9E7D1AB992B7}"/>
-    <hyperlink ref="I339" r:id="rId845" xr:uid="{3A01FD6F-6338-4F61-9ADC-3CEA13CE61FF}"/>
-    <hyperlink ref="J339" r:id="rId846" xr:uid="{D3B19A02-E814-4609-86F0-75CEA8B36A9D}"/>
-    <hyperlink ref="F340" r:id="rId847" xr:uid="{03F6A4F1-196C-4B24-97C9-03F32B3436E0}"/>
-    <hyperlink ref="G340" r:id="rId848" xr:uid="{C864DD25-A5D6-4C9B-BEB8-E3B37858D00D}"/>
-    <hyperlink ref="H340" r:id="rId849" xr:uid="{4D34592B-64E1-4331-9BA1-51168D303685}"/>
-    <hyperlink ref="I340" r:id="rId850" xr:uid="{30EE53AB-A6B1-4495-9E48-ECB17A256247}"/>
-    <hyperlink ref="J340" r:id="rId851" xr:uid="{B8549DFD-F0E5-4517-B716-8DF37E7EC806}"/>
-    <hyperlink ref="F341" r:id="rId852" xr:uid="{5165DBA1-44F4-4065-A374-9B04CC58021E}"/>
-    <hyperlink ref="G341" r:id="rId853" xr:uid="{3C8E7576-62BF-4F8E-9B33-F5B57A543FB4}"/>
-    <hyperlink ref="H341" r:id="rId854" xr:uid="{B9F01EBD-2315-4A3C-9827-7D5C3BE50F8C}"/>
-    <hyperlink ref="I341" r:id="rId855" xr:uid="{0726F0D4-8801-456D-A0A0-8E104F494F1A}"/>
-    <hyperlink ref="J341" r:id="rId856" xr:uid="{4D5DAD76-DD0E-4722-ADC7-939B4828EA6D}"/>
-    <hyperlink ref="F342" r:id="rId857" xr:uid="{CF81A4D4-C14A-4822-B926-86264805A4B7}"/>
-    <hyperlink ref="G342" r:id="rId858" xr:uid="{64986559-CE2A-4E10-8779-C14EDCAFA2AD}"/>
-    <hyperlink ref="H342" r:id="rId859" xr:uid="{B17FDBE6-4EE1-4D2B-9572-E8A3DF7EF1C8}"/>
-    <hyperlink ref="I342" r:id="rId860" xr:uid="{6A160FF6-33DE-4A58-BBAB-62DB1408FEFD}"/>
-    <hyperlink ref="J342" r:id="rId861" xr:uid="{67ECAEE3-7D67-49BB-B936-C6973D2651BD}"/>
-    <hyperlink ref="F343" r:id="rId862" xr:uid="{CCD6ABE2-EE4E-41F0-9EEA-D505664697B4}"/>
-    <hyperlink ref="G343" r:id="rId863" xr:uid="{D1F8D2A2-67CC-4931-BE99-0D991BCECE3D}"/>
-    <hyperlink ref="H343" r:id="rId864" xr:uid="{56195C61-F7CF-4036-BB2A-350DD398A471}"/>
-    <hyperlink ref="I343" r:id="rId865" xr:uid="{6C2F54FC-B986-4A8B-9863-2954ED712992}"/>
-    <hyperlink ref="J343" r:id="rId866" xr:uid="{97F1870B-FCED-41D1-B394-4B31D7358293}"/>
-    <hyperlink ref="F344" r:id="rId867" xr:uid="{A4FE5590-F4B3-4339-988E-54ABB5E33BE8}"/>
-    <hyperlink ref="G344" r:id="rId868" xr:uid="{42C2F01B-731C-4D66-9A93-E706E04CA006}"/>
-    <hyperlink ref="H344" r:id="rId869" xr:uid="{E967F249-1A5D-46BA-A0B3-FA55AC95077F}"/>
-    <hyperlink ref="I344" r:id="rId870" xr:uid="{BD783BFB-6A8A-4BCE-8F05-A1A06B52D47A}"/>
-    <hyperlink ref="J344" r:id="rId871" xr:uid="{0C9A9851-81E9-4196-88E0-9D90E3DDD54D}"/>
-    <hyperlink ref="F345" r:id="rId872" xr:uid="{E8473085-C8C5-4FF7-8A88-6405595C6A85}"/>
-    <hyperlink ref="G345" r:id="rId873" xr:uid="{26096CE2-74E0-41C9-B481-9B07DB0E7871}"/>
-    <hyperlink ref="H345" r:id="rId874" xr:uid="{07DC7AE9-218B-4583-ACB5-2EC16D194CF6}"/>
-    <hyperlink ref="I345" r:id="rId875" xr:uid="{B76FBA07-8C83-4888-A128-5ED4213EA1F6}"/>
-    <hyperlink ref="J345" r:id="rId876" xr:uid="{5FEE0A2B-DC56-4A20-AF1A-E2CEB54EFF27}"/>
-    <hyperlink ref="F346" r:id="rId877" xr:uid="{BB004FC6-5618-42AC-9381-9B921AE23282}"/>
-    <hyperlink ref="G346" r:id="rId878" xr:uid="{26712B74-72CF-4CB2-B4C0-0CB847A145D5}"/>
-    <hyperlink ref="H346" r:id="rId879" xr:uid="{1C88EF99-5090-498C-AF51-145E7A83207C}"/>
-    <hyperlink ref="I346" r:id="rId880" xr:uid="{634AA3CA-93CB-4395-96A2-F1DAAF94E9FA}"/>
-    <hyperlink ref="J346" r:id="rId881" xr:uid="{40ABE352-32F8-4C78-8241-97D1367BD75F}"/>
-    <hyperlink ref="I2" r:id="rId882" xr:uid="{3C5FFFB4-A431-4868-9429-0F9AFFB0CE48}"/>
-    <hyperlink ref="I3" r:id="rId883" xr:uid="{3906D637-DF53-416A-A40D-55618305FC19}"/>
-    <hyperlink ref="J3" r:id="rId884" xr:uid="{566229FC-41FC-47F4-A370-C8D656BCCA8B}"/>
-    <hyperlink ref="I4" r:id="rId885" xr:uid="{4111E00E-6A5D-4E93-8AA0-0AD1E2C4B1FC}"/>
-    <hyperlink ref="I5" r:id="rId886" xr:uid="{FA14F986-4C39-4F1A-8BFE-0B71A18A1E29}"/>
-    <hyperlink ref="J5" r:id="rId887" xr:uid="{896F3E35-4FE1-45A4-A1AB-79E3A8329743}"/>
-    <hyperlink ref="I6" r:id="rId888" xr:uid="{B745DD1E-82A9-43EB-89EA-5C0FD51E0999}"/>
-    <hyperlink ref="J6" r:id="rId889" xr:uid="{B51E45C3-5581-4879-8DB5-EBD6D3E3F806}"/>
-    <hyperlink ref="I7" r:id="rId890" xr:uid="{F1F50BFD-1A81-4F64-9015-26FE8D682BEE}"/>
-    <hyperlink ref="J7" r:id="rId891" xr:uid="{115214CA-F72D-43FA-9A45-58FED3675D72}"/>
-    <hyperlink ref="I8" r:id="rId892" xr:uid="{5992459C-A5F1-4AC9-89A1-302994DF4B64}"/>
-    <hyperlink ref="J8" r:id="rId893" xr:uid="{9739D78A-A6CA-43B3-A742-A0D12B7A6D24}"/>
-    <hyperlink ref="I9" r:id="rId894" xr:uid="{07E185A2-B566-4BA6-B0FF-8475438984C0}"/>
-    <hyperlink ref="J9" r:id="rId895" xr:uid="{B8DF2EAD-262C-4E61-8153-F3AA4733ABB6}"/>
-    <hyperlink ref="I11" r:id="rId896" xr:uid="{BC57CD8D-D6AC-4FEF-AF26-48FEC8A1D451}"/>
-    <hyperlink ref="I12" r:id="rId897" xr:uid="{E7BE77F2-274A-4F3F-B846-43F50028626B}"/>
-    <hyperlink ref="J12" r:id="rId898" xr:uid="{F09606F3-AAAC-4155-A191-DE4151C66115}"/>
-    <hyperlink ref="I13" r:id="rId899" xr:uid="{08A037E8-E5F9-4B93-AC79-DF8D3D58589C}"/>
-    <hyperlink ref="J13" r:id="rId900" xr:uid="{A301E17B-3DA0-46E4-994E-E781F6A86AD6}"/>
-    <hyperlink ref="I14" r:id="rId901" xr:uid="{E89032BC-9B12-455C-84F5-E98A2C8D2AA6}"/>
-    <hyperlink ref="J14" r:id="rId902" xr:uid="{9010C251-1C71-40DE-9CD0-435A02D8D66A}"/>
-    <hyperlink ref="I15" r:id="rId903" xr:uid="{757CDCE1-1CBF-47EB-874C-BD40E95CA61D}"/>
-    <hyperlink ref="J15" r:id="rId904" xr:uid="{19E36C3F-BE92-46B9-B7BA-3E5084B76FB9}"/>
-    <hyperlink ref="I16" r:id="rId905" xr:uid="{8ECE0ACD-6EFF-451A-8937-E085154BE1A9}"/>
-    <hyperlink ref="J16" r:id="rId906" xr:uid="{50539779-3D45-4C8E-A26C-BBC1C4691089}"/>
-    <hyperlink ref="I17" r:id="rId907" xr:uid="{5D0F22A9-B1C3-4D28-887D-6CC4BB061181}"/>
-    <hyperlink ref="J17" r:id="rId908" xr:uid="{E7B365A8-EB24-4954-9001-38ED67232905}"/>
-    <hyperlink ref="I18" r:id="rId909" xr:uid="{8369212E-0F7B-4B9C-B206-D2485C65F744}"/>
-    <hyperlink ref="J18" r:id="rId910" xr:uid="{BBE6029E-E6D5-4480-B194-901496751714}"/>
-    <hyperlink ref="I19" r:id="rId911" xr:uid="{1A5D57C5-3B93-4169-AC65-59F10A15FB0E}"/>
-    <hyperlink ref="J19" r:id="rId912" xr:uid="{58647A78-C837-4020-80A4-D8EA1634EBF8}"/>
-    <hyperlink ref="I20" r:id="rId913" xr:uid="{4D1A014C-A21B-4521-8CC6-6D72893C29A5}"/>
-    <hyperlink ref="I21" r:id="rId914" xr:uid="{67555C1F-E91B-45A6-A219-182E0BFD209C}"/>
-    <hyperlink ref="J21" r:id="rId915" xr:uid="{0CE47C70-E070-414F-BE1A-B4DCE9C5F339}"/>
-    <hyperlink ref="I22" r:id="rId916" xr:uid="{71A6CCCF-BB93-427F-904A-FAFE1C8C12C0}"/>
-    <hyperlink ref="J22" r:id="rId917" xr:uid="{0D01E30E-E10E-4E08-AD6B-3EBC32739D34}"/>
-    <hyperlink ref="I23" r:id="rId918" xr:uid="{BEC543C5-12FE-4A97-88DE-0C494EE9780C}"/>
-    <hyperlink ref="J23" r:id="rId919" xr:uid="{FDC16DB4-A12C-4020-9706-D377C8C5A4B3}"/>
-    <hyperlink ref="I26" r:id="rId920" xr:uid="{834B45DE-D0D4-4C2C-844E-6BB5E141200B}"/>
-    <hyperlink ref="J26" r:id="rId921" xr:uid="{5D48EB9D-6023-4B77-95C6-1E4774ECDAA5}"/>
-    <hyperlink ref="I27" r:id="rId922" xr:uid="{8B2CD477-54BD-4CEE-84C6-EA9CB9652014}"/>
-    <hyperlink ref="J27" r:id="rId923" xr:uid="{2DF873D4-182F-484C-AC1D-53F3E1FBF543}"/>
-    <hyperlink ref="I28" r:id="rId924" xr:uid="{911A0FF4-4DAA-44D3-8199-20B806F84984}"/>
-    <hyperlink ref="J28" r:id="rId925" xr:uid="{AB47672B-0A9E-4775-B1B9-3FDF1116C63E}"/>
-    <hyperlink ref="I29" r:id="rId926" xr:uid="{C1275B99-567E-4749-8F9D-8D4FDA091B3F}"/>
-    <hyperlink ref="J29" r:id="rId927" xr:uid="{99116832-C11C-4CE7-A7E8-08E53277A680}"/>
-    <hyperlink ref="I30" r:id="rId928" xr:uid="{A3717F7B-B066-442E-A1C3-CD810E75F591}"/>
-    <hyperlink ref="J30" r:id="rId929" xr:uid="{D9113F48-C44C-43BE-AB44-18707F5D902D}"/>
-    <hyperlink ref="I31" r:id="rId930" xr:uid="{C7B219B8-7E77-4202-B0BA-A07D5DAF6EBB}"/>
-    <hyperlink ref="J31" r:id="rId931" xr:uid="{D3934876-40D0-451F-BA07-382C02B43F35}"/>
-    <hyperlink ref="I32" r:id="rId932" xr:uid="{45BD50E9-0F4B-4C3B-9973-1698653BA138}"/>
-    <hyperlink ref="J32" r:id="rId933" xr:uid="{4390FDDE-D713-40E0-A071-BAFA8F72003C}"/>
-    <hyperlink ref="I33" r:id="rId934" xr:uid="{D913FCDE-0FFE-43EA-A8D2-9CFB35C5928E}"/>
-    <hyperlink ref="J33" r:id="rId935" xr:uid="{B318CCD7-8EC4-466C-B502-070A63BD0350}"/>
-    <hyperlink ref="I34" r:id="rId936" xr:uid="{C0EDC8F4-7263-41A3-B5A0-49FA18E8BD43}"/>
-    <hyperlink ref="J34" r:id="rId937" xr:uid="{D2943ED6-82C5-4538-B165-813B465FD9B9}"/>
-    <hyperlink ref="I35" r:id="rId938" xr:uid="{05A3B26A-76C4-41CB-B511-B2F1F1F4B3BC}"/>
-    <hyperlink ref="J35" r:id="rId939" xr:uid="{9546CB14-4738-4131-8882-83975D14B2DF}"/>
-    <hyperlink ref="I36" r:id="rId940" xr:uid="{56088575-BACE-448D-89E4-24244F48E8B7}"/>
-    <hyperlink ref="J36" r:id="rId941" xr:uid="{917123F2-9959-4843-80A0-D83CB19A9010}"/>
-    <hyperlink ref="I37" r:id="rId942" xr:uid="{C75B8002-AE05-4773-A240-A55F2CAF7094}"/>
-    <hyperlink ref="J37" r:id="rId943" xr:uid="{3D37F336-772C-4FDA-95A1-4FA67311B142}"/>
-    <hyperlink ref="I41" r:id="rId944" xr:uid="{3FDA33CC-5CB1-4D50-8F2B-8C9868EF70E5}"/>
-    <hyperlink ref="J41" r:id="rId945" xr:uid="{615B97ED-80B3-4A98-8304-3B17FC33FCA6}"/>
-    <hyperlink ref="I42" r:id="rId946" xr:uid="{51703B69-E04B-463B-8EE9-7A822AEE93A6}"/>
-    <hyperlink ref="J42" r:id="rId947" xr:uid="{14364456-BE0B-49F4-BE80-5C94B7A68B86}"/>
-    <hyperlink ref="I43" r:id="rId948" xr:uid="{3298CE17-11F7-4676-AAC1-FC97EF155467}"/>
-    <hyperlink ref="J43" r:id="rId949" xr:uid="{5434485B-41A1-4E6E-9967-D5434AF5826B}"/>
-    <hyperlink ref="I45" r:id="rId950" xr:uid="{F65F7115-505B-415F-871B-DD9AE2FB13A1}"/>
-    <hyperlink ref="J45" r:id="rId951" xr:uid="{9B67CD67-2463-4886-80D3-ACF7763D37F8}"/>
-    <hyperlink ref="I46" r:id="rId952" xr:uid="{8566D187-F664-4B94-A507-A92BD40C1A06}"/>
-    <hyperlink ref="J46" r:id="rId953" xr:uid="{4763A4B9-AC25-4A74-94A6-3C64F160A41E}"/>
-    <hyperlink ref="I47" r:id="rId954" xr:uid="{82449F12-AA71-4A10-9F22-21DC18264107}"/>
-    <hyperlink ref="J47" r:id="rId955" xr:uid="{4F7C56E1-5E85-4727-8174-67DC68E12B30}"/>
-    <hyperlink ref="I49" r:id="rId956" xr:uid="{254E50B3-DA9C-4C88-99C8-3CEA8DF4945F}"/>
-    <hyperlink ref="J49" r:id="rId957" xr:uid="{3505269C-08ED-4416-80AF-4A476DBD21FD}"/>
-    <hyperlink ref="I50" r:id="rId958" xr:uid="{DEF5B335-13CA-4A45-A6DC-D32F310B967B}"/>
-    <hyperlink ref="J50" r:id="rId959" xr:uid="{93A8D205-359D-41D2-A52D-9321D0C37731}"/>
-    <hyperlink ref="I51" r:id="rId960" xr:uid="{FCEC5DF2-BF38-4150-B992-DA7564D2338A}"/>
-    <hyperlink ref="J51" r:id="rId961" xr:uid="{6E2A6AD7-5AC0-4D8D-893D-68E824BEA623}"/>
-    <hyperlink ref="I52" r:id="rId962" xr:uid="{03B98A94-DE0F-4E5C-987A-3E1118AA56E5}"/>
-    <hyperlink ref="J52" r:id="rId963" xr:uid="{32392343-0917-4287-BA5D-1D9221073E10}"/>
-    <hyperlink ref="I53" r:id="rId964" xr:uid="{4D757183-F914-4DD3-933B-25502B96FDC3}"/>
-    <hyperlink ref="J53" r:id="rId965" xr:uid="{07AC9D96-A36A-4EAA-B3AE-3FDAB58FC096}"/>
-    <hyperlink ref="I54" r:id="rId966" xr:uid="{1DF1B9E3-15C5-4221-A08D-995843923CE5}"/>
-    <hyperlink ref="J54" r:id="rId967" xr:uid="{F9C88E90-4DC1-4407-A89D-D3A6DDBBFF04}"/>
-    <hyperlink ref="I55" r:id="rId968" xr:uid="{80D50E68-35EB-4294-904F-83F26B723A72}"/>
-    <hyperlink ref="J55" r:id="rId969" xr:uid="{1D664D16-4160-45C1-B48A-2D84278D59BF}"/>
-    <hyperlink ref="I56" r:id="rId970" xr:uid="{BDDEB5C1-266B-44B9-8973-CF08B02A40AA}"/>
-    <hyperlink ref="J56" r:id="rId971" xr:uid="{6B9CB283-3A07-48E5-856C-58192B55845F}"/>
-    <hyperlink ref="I58" r:id="rId972" xr:uid="{E4FD23A1-3D52-4017-912D-2EC8826C761C}"/>
-    <hyperlink ref="J58" r:id="rId973" xr:uid="{9E1A25CC-94CE-4572-B043-1F08B9C61F73}"/>
-    <hyperlink ref="I59" r:id="rId974" xr:uid="{7DE6BA24-FA7E-4D91-AA25-A6C992A0EB76}"/>
-    <hyperlink ref="J59" r:id="rId975" xr:uid="{6C3C00D3-DE43-4D97-BBBC-D9202AC675DC}"/>
-    <hyperlink ref="I60" r:id="rId976" xr:uid="{61971175-40D4-4F89-BDBB-3DFD0447EB6D}"/>
-    <hyperlink ref="J60" r:id="rId977" xr:uid="{73734E8E-9228-404E-BF71-C61F5975D27D}"/>
-    <hyperlink ref="I64" r:id="rId978" xr:uid="{82FE8C0E-D530-4267-AAF5-444511187E42}"/>
-    <hyperlink ref="J64" r:id="rId979" xr:uid="{366C5E27-3BAE-474B-967B-7041303E76B4}"/>
-    <hyperlink ref="I65" r:id="rId980" xr:uid="{F8500D5B-BF16-4139-967C-E6B627EDB485}"/>
-    <hyperlink ref="J65" r:id="rId981" xr:uid="{C28BFE90-9F4C-455B-BD55-9A9FB72D3B77}"/>
-    <hyperlink ref="I66" r:id="rId982" xr:uid="{2952E9FA-2811-4468-A7F8-E9632E7AD3DB}"/>
-    <hyperlink ref="J66" r:id="rId983" xr:uid="{1D2827B1-A5CC-4867-AE55-FBDFC7FD36F9}"/>
-    <hyperlink ref="I67" r:id="rId984" xr:uid="{403079C8-1940-4602-99D7-9E0955DA7E36}"/>
-    <hyperlink ref="J67" r:id="rId985" xr:uid="{D80931A3-4942-4914-8C31-CFE7CCC25068}"/>
-    <hyperlink ref="I68" r:id="rId986" xr:uid="{2BB6A63D-ECC0-44C4-92DB-A2767A0B7906}"/>
-    <hyperlink ref="J68" r:id="rId987" xr:uid="{03D7EC44-BFB8-4812-AC4C-5158C1A07759}"/>
-    <hyperlink ref="I69" r:id="rId988" xr:uid="{6E1C65E9-3532-471A-ADDB-42327F47056C}"/>
-    <hyperlink ref="J69" r:id="rId989" xr:uid="{2B5B4B23-BE68-4A34-9435-68FA503AA77A}"/>
-    <hyperlink ref="I70" r:id="rId990" xr:uid="{F642F9A0-1B74-4539-BB42-EBEC2E899DFC}"/>
-    <hyperlink ref="J70" r:id="rId991" xr:uid="{9489C5BE-C1EF-4AB3-A271-C081DDB081E9}"/>
-    <hyperlink ref="I71" r:id="rId992" xr:uid="{BD96E4BC-CCF1-494E-9443-F60F905E939C}"/>
-    <hyperlink ref="J71" r:id="rId993" xr:uid="{F84DDCB3-ED75-40CD-9244-C7647DD63624}"/>
-    <hyperlink ref="I72" r:id="rId994" xr:uid="{B533BB02-6A40-4A46-B440-4F6EA31BB446}"/>
-    <hyperlink ref="J72" r:id="rId995" xr:uid="{AE457544-0B16-4422-8873-46017BD90D6C}"/>
-    <hyperlink ref="I73" r:id="rId996" xr:uid="{C056EA0C-6560-4AED-95BB-EBC8E51DDD05}"/>
-    <hyperlink ref="J73" r:id="rId997" xr:uid="{B3557091-6025-4AA8-A8DD-F9CF6676A32C}"/>
-    <hyperlink ref="I74" r:id="rId998" xr:uid="{0BE19486-4C06-4705-8725-03F7C357F560}"/>
-    <hyperlink ref="J74" r:id="rId999" xr:uid="{1154A59E-B2AD-4400-A7C5-C1D07C50AB77}"/>
-    <hyperlink ref="I75" r:id="rId1000" xr:uid="{EDEEC474-2F9C-42F3-B9B3-8CED89BF9E94}"/>
-    <hyperlink ref="J75" r:id="rId1001" xr:uid="{0216F25E-2085-412D-B210-00962F387409}"/>
-    <hyperlink ref="I77" r:id="rId1002" xr:uid="{955A24F4-4069-4A72-83EA-40FD3F7D811B}"/>
-    <hyperlink ref="J77" r:id="rId1003" xr:uid="{5BC0C04D-8C68-41BC-BF03-BD010835BFC1}"/>
-    <hyperlink ref="I78" r:id="rId1004" xr:uid="{A16041A4-8B08-41CE-B5E3-A809469E8186}"/>
-    <hyperlink ref="J78" r:id="rId1005" xr:uid="{41EE557F-0969-4F14-9E97-C22F2F680684}"/>
-    <hyperlink ref="I80" r:id="rId1006" xr:uid="{76619379-3BDC-4FEB-AEBA-AEB1C3780433}"/>
-    <hyperlink ref="J80" r:id="rId1007" xr:uid="{481CABDA-28D9-4D10-B1E1-2F44858961E5}"/>
-    <hyperlink ref="I82" r:id="rId1008" xr:uid="{94A0C023-A990-4879-A0BD-C8FE5EAF79C3}"/>
-    <hyperlink ref="J82" r:id="rId1009" xr:uid="{DD73DD82-F8C5-4399-ACAC-D188622C46E6}"/>
-    <hyperlink ref="I83" r:id="rId1010" xr:uid="{73F4AF7B-EB0E-46F2-968F-790D7D2A82E0}"/>
-    <hyperlink ref="J83" r:id="rId1011" xr:uid="{9348C940-3C37-47F5-B7D2-0F9678A7DC9D}"/>
-    <hyperlink ref="I84" r:id="rId1012" xr:uid="{5A4837C1-EB5D-4752-B93D-E016B8A2F50B}"/>
-    <hyperlink ref="J84" r:id="rId1013" xr:uid="{3C596746-B9C3-450F-82AE-5288CC534019}"/>
-    <hyperlink ref="I86" r:id="rId1014" xr:uid="{E5E0F20C-ADD8-4ECE-99D5-54B1503CC4A5}"/>
-    <hyperlink ref="J86" r:id="rId1015" xr:uid="{745A0154-98AC-494A-9893-9159085C9C0E}"/>
-    <hyperlink ref="I87" r:id="rId1016" xr:uid="{6C89D76E-FD13-4846-AC3D-A84D7A40EB3D}"/>
-    <hyperlink ref="J87" r:id="rId1017" xr:uid="{1D996571-62A4-44D6-A8E3-8CF010CA9CA3}"/>
-    <hyperlink ref="I88" r:id="rId1018" xr:uid="{659E8980-682C-4415-AD82-62D36A555861}"/>
-    <hyperlink ref="J88" r:id="rId1019" xr:uid="{18B12E6E-D488-49C4-8470-0F50BAA0DBD0}"/>
-    <hyperlink ref="I90" r:id="rId1020" xr:uid="{E6056A0B-414F-4844-9B1F-04E4CDEB8619}"/>
-    <hyperlink ref="J90" r:id="rId1021" xr:uid="{AD71E5A4-F258-468A-9008-EF9B2EA17FC8}"/>
-    <hyperlink ref="I91" r:id="rId1022" xr:uid="{1FB6D6CF-6CAD-48A1-8172-10A3D1045DDD}"/>
-    <hyperlink ref="J91" r:id="rId1023" xr:uid="{44AD5A15-DA8A-4CEF-9B11-496C98469F99}"/>
-    <hyperlink ref="I92" r:id="rId1024" xr:uid="{E1363D45-0B31-449F-9636-D8C9E347D4B7}"/>
-    <hyperlink ref="J92" r:id="rId1025" xr:uid="{9065E2F0-5B58-473D-A719-CEFBB583BAF8}"/>
-    <hyperlink ref="I93" r:id="rId1026" xr:uid="{AB38D09A-3CD6-4E4B-A3F5-DEA9F719D0A6}"/>
-    <hyperlink ref="J93" r:id="rId1027" xr:uid="{0FDE0E6C-5091-48BF-ADFA-A066E10373A6}"/>
-    <hyperlink ref="I95" r:id="rId1028" xr:uid="{BA34C630-89FF-4A23-9ADA-5A1DBB558CBA}"/>
-    <hyperlink ref="J95" r:id="rId1029" xr:uid="{0104BAD1-E43B-4F9E-9C9D-6A65F22E075E}"/>
-    <hyperlink ref="I96" r:id="rId1030" xr:uid="{832A2D79-7EF9-48F4-8919-F0F37B318B7F}"/>
-    <hyperlink ref="J96" r:id="rId1031" xr:uid="{F0FB31E6-456F-444A-B9FB-FC6D2184B781}"/>
-    <hyperlink ref="I100" r:id="rId1032" xr:uid="{599EE7F0-00E6-4B55-8128-FC15A443BB6B}"/>
-    <hyperlink ref="J100" r:id="rId1033" xr:uid="{4015CD45-1293-4A80-A187-ED1A1C148974}"/>
-    <hyperlink ref="I103" r:id="rId1034" xr:uid="{7B99DB98-7231-40A9-A702-C353258117E8}"/>
-    <hyperlink ref="J103" r:id="rId1035" xr:uid="{B490F117-A397-4B9B-BA22-82E6BBEC78ED}"/>
-    <hyperlink ref="I104" r:id="rId1036" xr:uid="{E37AA8C7-290F-4845-A348-0C0C3C794EA9}"/>
-    <hyperlink ref="J104" r:id="rId1037" xr:uid="{335A1A81-9DE6-4780-9BA1-ABDA495FAB1F}"/>
-    <hyperlink ref="I106" r:id="rId1038" xr:uid="{C092149A-080A-4ADC-84E3-8192A643A29F}"/>
-    <hyperlink ref="J106" r:id="rId1039" xr:uid="{D88B5781-3A96-4B63-B28E-A5436545FACF}"/>
-    <hyperlink ref="I107" r:id="rId1040" xr:uid="{B8021634-B648-4165-B635-C1BE226544A9}"/>
-    <hyperlink ref="J107" r:id="rId1041" xr:uid="{0FB1D29C-3A66-4E3D-86D0-DD57AE872B5A}"/>
-    <hyperlink ref="I109" r:id="rId1042" xr:uid="{CE3EA111-6227-4DE9-B1DC-CCE9BE848059}"/>
-    <hyperlink ref="J109" r:id="rId1043" xr:uid="{0B2DC2BA-0899-4ED3-BD3E-597200D91D6A}"/>
-    <hyperlink ref="J110" r:id="rId1044" xr:uid="{2EDE51CF-E13F-46D7-85A4-0FB8D2751A74}"/>
-    <hyperlink ref="I110" r:id="rId1045" xr:uid="{F6175216-A554-4B1A-B9DA-A8441EC8CD5D}"/>
-    <hyperlink ref="I112" r:id="rId1046" xr:uid="{271BE55F-C740-446C-B919-9CA90ADB972E}"/>
-    <hyperlink ref="J112" r:id="rId1047" xr:uid="{76744B7C-F59C-4B1A-B030-4701A7F35D81}"/>
-    <hyperlink ref="I113" r:id="rId1048" xr:uid="{E02A6360-699F-453A-A8B2-8A67F930F62C}"/>
-    <hyperlink ref="J113" r:id="rId1049" xr:uid="{11CB00D2-F987-42E9-9DA0-B3247F022A4D}"/>
-    <hyperlink ref="I114" r:id="rId1050" xr:uid="{44628AFD-0C52-415B-AC7E-99E54F363F40}"/>
-    <hyperlink ref="J114" r:id="rId1051" xr:uid="{6EDB2C2C-1B94-49BB-B524-C431F985D1C4}"/>
-    <hyperlink ref="I115" r:id="rId1052" xr:uid="{251BACAB-8CFF-4E13-B22B-CB8CCBD697FC}"/>
-    <hyperlink ref="J115" r:id="rId1053" xr:uid="{85A9A4AA-1324-470C-B1B2-4D0944087FB4}"/>
-    <hyperlink ref="I116" r:id="rId1054" xr:uid="{1DFAEE81-D99D-44C1-ACAC-A4B153CAE77C}"/>
-    <hyperlink ref="J116" r:id="rId1055" xr:uid="{D454907F-39AB-47D2-9B0D-AF6972C2B70D}"/>
-    <hyperlink ref="I118" r:id="rId1056" xr:uid="{604D17A2-7051-4FC8-B33F-ECD2340BF666}"/>
-    <hyperlink ref="J118" r:id="rId1057" xr:uid="{A5FACA1E-49C3-462D-9F7E-F00886F033FA}"/>
-    <hyperlink ref="I119" r:id="rId1058" xr:uid="{E1ACC7B2-B398-4B11-BA93-DA681DBBFECF}"/>
-    <hyperlink ref="J119" r:id="rId1059" xr:uid="{1AF061D5-2F8F-4CC9-82AE-884A53F22D32}"/>
-    <hyperlink ref="I121" r:id="rId1060" xr:uid="{1EE17CFC-7C0D-4F78-AA84-5B11ECDA684C}"/>
-    <hyperlink ref="J121" r:id="rId1061" xr:uid="{8E8FB689-AD69-4E21-958A-A90A8D696A13}"/>
-    <hyperlink ref="I122" r:id="rId1062" xr:uid="{EE359E8C-0CF5-44A5-A2A7-73A2919FC5BC}"/>
-    <hyperlink ref="J122" r:id="rId1063" xr:uid="{3F587AF4-97C8-483D-BFC0-56AA4A5A2A25}"/>
-    <hyperlink ref="I123" r:id="rId1064" xr:uid="{E14DD5B7-5A9D-4C82-A870-A7B6AF2CFACC}"/>
-    <hyperlink ref="J123" r:id="rId1065" xr:uid="{AF4AED03-7D4A-48C0-AEE2-0C8C6AD7F46D}"/>
-    <hyperlink ref="I124" r:id="rId1066" xr:uid="{5EAAFD91-794A-4BAE-B914-E4C2CFFB8A0F}"/>
-    <hyperlink ref="J124" r:id="rId1067" xr:uid="{B3A6D9DA-BFE5-4540-BC7C-760A4CBB90B8}"/>
-    <hyperlink ref="I125" r:id="rId1068" xr:uid="{ABD485DC-E02C-4506-9034-92AA51A3B7D3}"/>
-    <hyperlink ref="J125" r:id="rId1069" xr:uid="{999DAD4D-1232-4205-BBC4-F13B92472B65}"/>
-    <hyperlink ref="I126" r:id="rId1070" xr:uid="{3187882C-1564-47AD-A877-7FEE25CB45A2}"/>
-    <hyperlink ref="J126" r:id="rId1071" xr:uid="{A18A9EA7-1F8F-4428-99E8-F81E21A0167F}"/>
-    <hyperlink ref="I127" r:id="rId1072" xr:uid="{A667FC0A-367B-4251-8AAE-FB639086AC7B}"/>
-    <hyperlink ref="J127" r:id="rId1073" xr:uid="{33B75468-A269-4B27-B82C-38F513D887EE}"/>
-    <hyperlink ref="I128" r:id="rId1074" xr:uid="{A750C166-2BBE-4E07-AFC5-5DB2A0572831}"/>
-    <hyperlink ref="J128" r:id="rId1075" xr:uid="{EA292CE1-59DD-49D8-B4E0-50166716FCF9}"/>
-    <hyperlink ref="I130" r:id="rId1076" xr:uid="{0295FCFA-0260-4C58-80CE-7084B32FC582}"/>
-    <hyperlink ref="J130" r:id="rId1077" xr:uid="{8540677F-EDE5-4700-AD0A-B18296A2A432}"/>
-    <hyperlink ref="I131" r:id="rId1078" xr:uid="{213B0C3F-FAA5-4285-AF9C-E0653799E578}"/>
-    <hyperlink ref="J131" r:id="rId1079" xr:uid="{E68BEA91-65BD-4707-99E6-8895A2B4162C}"/>
-    <hyperlink ref="I132" r:id="rId1080" xr:uid="{2C22648D-32FD-471A-8F19-5CF7222FC6AD}"/>
-    <hyperlink ref="J132" r:id="rId1081" xr:uid="{A96310E9-F6EC-4A86-8A94-A4BAB1B21548}"/>
-    <hyperlink ref="I133" r:id="rId1082" xr:uid="{847BC8D4-CBCE-46F2-88C2-3B3FCDE75179}"/>
-    <hyperlink ref="J133" r:id="rId1083" xr:uid="{EA26D587-FEE1-479D-BE3D-A3F394F5E55D}"/>
-    <hyperlink ref="I134" r:id="rId1084" xr:uid="{4EAD0311-AAD7-48D3-9884-DECB2374327E}"/>
-    <hyperlink ref="J134" r:id="rId1085" xr:uid="{34CA2F37-929B-406D-94B8-62A588C12600}"/>
-    <hyperlink ref="I135" r:id="rId1086" xr:uid="{0C864988-3381-433E-9981-E3A0946819C6}"/>
-    <hyperlink ref="J135" r:id="rId1087" xr:uid="{D6E699D1-2C31-424E-A5B0-2C277A189053}"/>
-    <hyperlink ref="I136" r:id="rId1088" xr:uid="{46F704EB-3E20-4486-9B8E-01C836677521}"/>
-    <hyperlink ref="J136" r:id="rId1089" xr:uid="{7FB1F2EA-4E90-49F3-80DD-D21F8D44DA5E}"/>
-    <hyperlink ref="I137" r:id="rId1090" xr:uid="{27E13437-BEF0-41FC-B4C8-8CC7C8FAC0A2}"/>
-    <hyperlink ref="J137" r:id="rId1091" xr:uid="{92AB23B0-314D-4EEB-BB22-10B1C0514469}"/>
-    <hyperlink ref="I138" r:id="rId1092" xr:uid="{B57D05CB-5216-4D61-B5B8-53E9D63C953F}"/>
-    <hyperlink ref="J138" r:id="rId1093" xr:uid="{7B6B0860-610D-4FD4-B901-B868F04FF2EE}"/>
-    <hyperlink ref="I139" r:id="rId1094" xr:uid="{A0130358-ABDE-43A3-BC97-B4AE0A4F495C}"/>
-    <hyperlink ref="J139" r:id="rId1095" xr:uid="{B805797C-85C7-4312-9F6C-EC58BE1E5482}"/>
-    <hyperlink ref="I140" r:id="rId1096" xr:uid="{14944697-4F57-4C21-A322-C05A754133DD}"/>
-    <hyperlink ref="J140" r:id="rId1097" xr:uid="{50AC529A-61B0-4092-8206-059E660FFACF}"/>
-    <hyperlink ref="I141" r:id="rId1098" xr:uid="{29C92A8A-0CC5-4136-8A48-D3F9FA0B717D}"/>
-    <hyperlink ref="J141" r:id="rId1099" xr:uid="{0697F061-CCF1-4400-8809-4A16AFA1413B}"/>
-    <hyperlink ref="I142" r:id="rId1100" xr:uid="{23A008BC-BC08-4AC5-93E7-D5F2D19BA428}"/>
-    <hyperlink ref="J142" r:id="rId1101" xr:uid="{25F68586-31EB-4C2A-9537-B74FADFB36C1}"/>
-    <hyperlink ref="I143" r:id="rId1102" xr:uid="{67D29F9E-8721-4379-87AE-483FFF371346}"/>
-    <hyperlink ref="J143" r:id="rId1103" xr:uid="{281AD66B-5780-4FD5-BE2E-09C30529D235}"/>
-    <hyperlink ref="I144" r:id="rId1104" xr:uid="{4C25796F-D0FB-4295-9C91-10F56810DF1C}"/>
-    <hyperlink ref="J144" r:id="rId1105" xr:uid="{459EC06F-A463-4C69-A7D8-88CA8E5A99EF}"/>
-    <hyperlink ref="I145" r:id="rId1106" xr:uid="{A9D03602-43A7-4A59-B6D3-F0A6E11FC044}"/>
-    <hyperlink ref="J145" r:id="rId1107" xr:uid="{ACF21A3A-F157-4D08-B546-365EF67637BA}"/>
-    <hyperlink ref="I146" r:id="rId1108" xr:uid="{923830D0-AA8C-40A5-B57C-F6FC78987AA0}"/>
-    <hyperlink ref="J146" r:id="rId1109" xr:uid="{01E83AB4-2D3C-40FE-BCA1-FCC6A7FBF150}"/>
-    <hyperlink ref="I147" r:id="rId1110" xr:uid="{77410400-3FFC-4956-AAAE-54C89D245767}"/>
-    <hyperlink ref="J147" r:id="rId1111" xr:uid="{C6D078DE-6F75-4F2A-9D3E-B249ACAE137F}"/>
-    <hyperlink ref="I150" r:id="rId1112" xr:uid="{3A3820C7-0185-4F73-BE5A-EFF25FED7F4B}"/>
-    <hyperlink ref="J150" r:id="rId1113" xr:uid="{9DA8CB15-7515-4755-A219-5F464B3FAEC1}"/>
-    <hyperlink ref="I151" r:id="rId1114" xr:uid="{C50639FE-09B4-4E6B-8CC1-D8C42164EC91}"/>
-    <hyperlink ref="J151" r:id="rId1115" xr:uid="{72A03EDF-018C-4FF7-B789-3BFEAE81F05B}"/>
-    <hyperlink ref="I152" r:id="rId1116" xr:uid="{4D0BE57F-37B3-4B26-B330-54501C7E9DE9}"/>
-    <hyperlink ref="J152" r:id="rId1117" xr:uid="{4FF40F58-4393-4856-B816-03B618417C13}"/>
-    <hyperlink ref="J153" r:id="rId1118" xr:uid="{188CA8C9-F798-40C5-BC58-D47A9573315C}"/>
-    <hyperlink ref="I153" r:id="rId1119" xr:uid="{5C0C88A8-8D78-4A76-8865-D54A946836FE}"/>
-    <hyperlink ref="I154" r:id="rId1120" xr:uid="{7CF42710-8C9B-4CAB-B500-FDBE524E4ABB}"/>
-    <hyperlink ref="J154" r:id="rId1121" xr:uid="{B353984C-82E7-4D2F-B053-1155239D18E8}"/>
-    <hyperlink ref="I155" r:id="rId1122" xr:uid="{1A189D54-CBBF-4F8E-B5E4-D4D5FD72C194}"/>
-    <hyperlink ref="J155" r:id="rId1123" xr:uid="{303531BE-6219-49AB-A831-CB8905D19A0E}"/>
-    <hyperlink ref="I156" r:id="rId1124" xr:uid="{8E87E7DA-F4D6-4F32-A275-7778E7A49C98}"/>
-    <hyperlink ref="J156" r:id="rId1125" xr:uid="{711ABB60-4AF4-4249-A1FE-6F2449A7AFEB}"/>
-    <hyperlink ref="I158" r:id="rId1126" xr:uid="{B8D760B6-8C65-4D5A-AA7F-B34B544AB6CE}"/>
-    <hyperlink ref="J158" r:id="rId1127" xr:uid="{251ABD12-959B-483D-A233-963218847DD6}"/>
-    <hyperlink ref="I159" r:id="rId1128" xr:uid="{99CF4885-8940-414F-BFDF-32AF17DDF85C}"/>
-    <hyperlink ref="J159" r:id="rId1129" xr:uid="{5F278558-E614-4972-950E-6C38722E2E92}"/>
-    <hyperlink ref="I160" r:id="rId1130" xr:uid="{E689CE79-E983-4C91-96B9-766B35F2FC99}"/>
-    <hyperlink ref="J160" r:id="rId1131" xr:uid="{5412D318-09D1-4903-B51A-CE200C7A0AFA}"/>
-    <hyperlink ref="I161" r:id="rId1132" xr:uid="{02209415-3CF4-4C13-8710-A606A277083C}"/>
-    <hyperlink ref="J161" r:id="rId1133" xr:uid="{4F2A66CE-F331-431A-94E0-E61D05F859B4}"/>
-    <hyperlink ref="I162" r:id="rId1134" xr:uid="{953504D9-375E-4EAD-8183-9E89FFE8AAB0}"/>
-    <hyperlink ref="J162" r:id="rId1135" xr:uid="{E7D21B60-FA86-4D3A-A6FD-B050489343D4}"/>
-    <hyperlink ref="I164" r:id="rId1136" xr:uid="{5E673E38-9363-49F1-B2C4-6FF873AD5091}"/>
-    <hyperlink ref="J164" r:id="rId1137" xr:uid="{047D9826-607C-4453-B7B2-DCEF7E410084}"/>
-    <hyperlink ref="I165" r:id="rId1138" xr:uid="{2E2F9318-9B11-4362-9448-846109A47251}"/>
-    <hyperlink ref="J165" r:id="rId1139" xr:uid="{69A3333F-1B9E-4C78-9D25-88C5DB441F56}"/>
-    <hyperlink ref="I166" r:id="rId1140" xr:uid="{C54460B4-7B49-4601-B4D3-B474DCA1FD88}"/>
-    <hyperlink ref="J166" r:id="rId1141" xr:uid="{DABBE975-5529-489A-93AF-65C5688C94B3}"/>
-    <hyperlink ref="I167" r:id="rId1142" xr:uid="{2173DF06-0DAF-4413-946F-962A8958E8F3}"/>
-    <hyperlink ref="J167" r:id="rId1143" xr:uid="{C20D3C55-69C7-4737-AD21-19268FE91E72}"/>
-    <hyperlink ref="I169" r:id="rId1144" xr:uid="{CE89655E-1B1F-4A95-AE73-7EAF160F9621}"/>
-    <hyperlink ref="J169" r:id="rId1145" xr:uid="{ADDA9E0C-9C33-492E-B837-BFAF91F1A8BD}"/>
-    <hyperlink ref="I170" r:id="rId1146" xr:uid="{CD209ED2-172A-4A2E-9E74-D52B00026A99}"/>
-    <hyperlink ref="J170" r:id="rId1147" xr:uid="{C43EA6A0-6848-458A-B902-62A658BBCC3A}"/>
-    <hyperlink ref="I172" r:id="rId1148" xr:uid="{3A9D7431-9B39-4FB2-9664-C1E2A6F780C3}"/>
-    <hyperlink ref="J172" r:id="rId1149" xr:uid="{FDCD1C66-2820-4DA4-9F78-7F055B245C41}"/>
-    <hyperlink ref="I174" r:id="rId1150" xr:uid="{0578F25D-64E4-4325-BF6C-87D298BAE456}"/>
-    <hyperlink ref="J174" r:id="rId1151" xr:uid="{98FD6A49-A184-4380-AD7D-65EA2A7FCF95}"/>
-    <hyperlink ref="I175" r:id="rId1152" xr:uid="{9D4CFA8B-AF36-478C-A592-0A6490DB6F23}"/>
-    <hyperlink ref="J175" r:id="rId1153" xr:uid="{2B8BD52E-C3EA-47AD-8A28-F8E735E5062B}"/>
-    <hyperlink ref="I176" r:id="rId1154" xr:uid="{B2477E45-9AE8-4D0B-808B-38F62C1AD9FD}"/>
-    <hyperlink ref="J176" r:id="rId1155" xr:uid="{427C1221-8D08-47C8-93BD-19811EA09598}"/>
-    <hyperlink ref="I177" r:id="rId1156" xr:uid="{CFBAC379-9424-44B5-BDCF-F9D97482A561}"/>
-    <hyperlink ref="J177" r:id="rId1157" xr:uid="{9FB03090-62A5-48FF-AC25-871033EAA415}"/>
-    <hyperlink ref="I178" r:id="rId1158" xr:uid="{95C8E875-F000-4404-83D4-9F5C08DD218A}"/>
-    <hyperlink ref="J178" r:id="rId1159" xr:uid="{30647CDA-7EE2-4430-8559-88CF3B49569A}"/>
-    <hyperlink ref="I179" r:id="rId1160" xr:uid="{EF1CB5FC-B16D-4C20-B87F-9023764E260A}"/>
-    <hyperlink ref="J179" r:id="rId1161" xr:uid="{91999060-6333-4EB0-AA5C-78289B9CE2CB}"/>
-    <hyperlink ref="I180" r:id="rId1162" xr:uid="{F2A2B500-B87F-46F7-9108-F70AAC84FB0C}"/>
-    <hyperlink ref="J180" r:id="rId1163" xr:uid="{6DC06FFE-607B-4584-A63C-736D8EE9FAA8}"/>
-    <hyperlink ref="I181" r:id="rId1164" xr:uid="{020B7932-E3E0-4332-AE9B-D4A07D2BDE6C}"/>
-    <hyperlink ref="J181" r:id="rId1165" xr:uid="{FFEAA5DF-E1CE-474E-A1A6-2356B3998B29}"/>
-    <hyperlink ref="I182" r:id="rId1166" xr:uid="{D9AADB2B-A698-4221-8714-CE3A1CF1523D}"/>
-    <hyperlink ref="J182" r:id="rId1167" xr:uid="{FFA6CAB7-51FD-4A3A-A77B-DD270B7CC9FF}"/>
-    <hyperlink ref="I183" r:id="rId1168" xr:uid="{89895646-DFF8-493B-90CE-BE4070269D61}"/>
-    <hyperlink ref="J183" r:id="rId1169" xr:uid="{C414E6E1-375F-4964-8F00-567C3E54D42C}"/>
-    <hyperlink ref="I184" r:id="rId1170" xr:uid="{5F52E0EB-1647-4780-8170-060CEF1B4717}"/>
-    <hyperlink ref="J184" r:id="rId1171" xr:uid="{1E328770-EC0B-4801-8117-0EECEE516848}"/>
-    <hyperlink ref="I185" r:id="rId1172" xr:uid="{8E8A5441-1DE4-49DE-A8F9-6FF242C4C8EF}"/>
-    <hyperlink ref="J185" r:id="rId1173" xr:uid="{03386818-1259-41F0-8E8D-2460FEAD9279}"/>
-    <hyperlink ref="I186" r:id="rId1174" xr:uid="{A3BE07C7-9049-4C7D-8CEA-463243B3FD15}"/>
-    <hyperlink ref="J186" r:id="rId1175" xr:uid="{286C9521-93F0-4A74-815A-6403477447BA}"/>
-    <hyperlink ref="I189" r:id="rId1176" xr:uid="{ED5414F9-0A0A-4FF2-BCD8-48C614918A22}"/>
-    <hyperlink ref="J189" r:id="rId1177" xr:uid="{B7BB8D9F-BE35-4881-A8C9-290DA610134D}"/>
-    <hyperlink ref="I190" r:id="rId1178" xr:uid="{11A7712B-10DC-445D-9EB1-36A815DCEF69}"/>
-    <hyperlink ref="J190" r:id="rId1179" xr:uid="{F10F97D2-1909-40CF-9595-CC38549EF910}"/>
-    <hyperlink ref="I191" r:id="rId1180" xr:uid="{11E51976-1BB3-4599-A174-683ABB31D1A1}"/>
-    <hyperlink ref="J191" r:id="rId1181" xr:uid="{CF735CEB-D149-48DA-9591-08E5A2AF24F6}"/>
-    <hyperlink ref="I192" r:id="rId1182" xr:uid="{FC80AA37-8360-45D7-8B85-191C651FD58A}"/>
-    <hyperlink ref="J192" r:id="rId1183" xr:uid="{2B87C1C6-542D-44DF-87B0-0ABF50442C07}"/>
-    <hyperlink ref="I194" r:id="rId1184" xr:uid="{92DF3E06-0489-4EDF-9F51-FABD6AFD6D0C}"/>
-    <hyperlink ref="J194" r:id="rId1185" xr:uid="{295234F4-7031-4837-87EA-287C881D8529}"/>
-    <hyperlink ref="I195" r:id="rId1186" xr:uid="{6C4E4E61-A27A-4D0D-B6B9-A0FB2DBA1AED}"/>
-    <hyperlink ref="J195" r:id="rId1187" xr:uid="{3A1C4552-0B68-4618-B574-354B375A3E31}"/>
-    <hyperlink ref="I196" r:id="rId1188" xr:uid="{CC12859F-8676-40FD-B26E-C6CE7133B552}"/>
-    <hyperlink ref="J196" r:id="rId1189" xr:uid="{9C7C9E9A-4F74-45D9-A5D2-C79C3DE0825E}"/>
-    <hyperlink ref="I198" r:id="rId1190" xr:uid="{575F6D2B-801B-4724-9CD1-8F1CB58E180B}"/>
-    <hyperlink ref="J198" r:id="rId1191" xr:uid="{271CEE7E-2E41-4DDF-B8BC-E4F5544CD2D3}"/>
-    <hyperlink ref="I199" r:id="rId1192" xr:uid="{9F078540-FEBC-40FC-BF8B-B36D4661B6BD}"/>
-    <hyperlink ref="J199" r:id="rId1193" xr:uid="{74CC0A0D-68D3-4877-980B-9D2FE600E4EC}"/>
-    <hyperlink ref="I200" r:id="rId1194" xr:uid="{2D350CCC-3C67-42AD-8EC0-D46E7313E014}"/>
-    <hyperlink ref="J200" r:id="rId1195" xr:uid="{A24CA3DC-A84C-4691-84B7-FA44B5ED0E87}"/>
-    <hyperlink ref="I201" r:id="rId1196" xr:uid="{CF6F53A6-B924-4DF5-99EF-1C151E0C4CA2}"/>
-    <hyperlink ref="J201" r:id="rId1197" xr:uid="{0AD9FBA8-853C-494D-A6C3-A3CAAAF9059C}"/>
-    <hyperlink ref="I203" r:id="rId1198" xr:uid="{D63DB3BA-4BBC-44B8-9F79-1EE6772ADD1C}"/>
-    <hyperlink ref="J203" r:id="rId1199" xr:uid="{D68BEBC9-8FB8-48AF-B70F-B068DEFE54C7}"/>
-    <hyperlink ref="I204" r:id="rId1200" xr:uid="{9A85A807-352F-4F2D-94A3-5DB06CA589AA}"/>
-    <hyperlink ref="J204" r:id="rId1201" xr:uid="{DCFE42A9-2437-46A9-B990-8CFEB72F24DC}"/>
-    <hyperlink ref="I205" r:id="rId1202" xr:uid="{9F8C1E2E-6B2B-4130-9B77-120AFDD8F4AE}"/>
-    <hyperlink ref="J205" r:id="rId1203" xr:uid="{206BD714-51F5-46AC-97F0-0298743B1F66}"/>
-    <hyperlink ref="I207" r:id="rId1204" xr:uid="{4D40B784-5CCE-42CA-94BA-BD86F3FBB675}"/>
-    <hyperlink ref="J207" r:id="rId1205" xr:uid="{8009EE03-4747-4C57-9446-EFF214AC247F}"/>
-    <hyperlink ref="I208" r:id="rId1206" xr:uid="{84086E9F-F12D-4D75-A9F9-114CDF40FE9B}"/>
-    <hyperlink ref="J208" r:id="rId1207" xr:uid="{3B186C03-7450-43C0-8DEF-14E6BE3217CA}"/>
-    <hyperlink ref="I209" r:id="rId1208" xr:uid="{1C5FED74-EC5A-479F-AA62-8D431E526EDC}"/>
-    <hyperlink ref="J209" r:id="rId1209" xr:uid="{ADC363AE-C951-4102-8F34-C78002E39A7E}"/>
-    <hyperlink ref="I210" r:id="rId1210" xr:uid="{E52C18D1-6BD6-421C-ABF9-3F23A11BF1CA}"/>
-    <hyperlink ref="J210" r:id="rId1211" xr:uid="{99894664-4D77-4173-BD41-DE3D7F08D34A}"/>
-    <hyperlink ref="I211" r:id="rId1212" xr:uid="{C0FD9BCC-1314-4B8D-A48F-F545CE446150}"/>
-    <hyperlink ref="J211" r:id="rId1213" xr:uid="{3533A817-91D8-4308-AD7D-3D52B0093E5B}"/>
-    <hyperlink ref="I212" r:id="rId1214" xr:uid="{63140679-D5B6-40B9-A1E7-52AE659154B6}"/>
-    <hyperlink ref="J212" r:id="rId1215" xr:uid="{A0CE3217-7674-4DF7-99AC-ABF86A2B96A1}"/>
-    <hyperlink ref="I213" r:id="rId1216" xr:uid="{F3926FC6-BE08-40BB-9816-82D0C8DD62B9}"/>
-    <hyperlink ref="J213" r:id="rId1217" xr:uid="{46987938-BF11-4953-9660-8B562A9067AC}"/>
-    <hyperlink ref="I214" r:id="rId1218" xr:uid="{B869DEE6-4B32-4155-B7A7-6E6C159E7F97}"/>
-    <hyperlink ref="J214" r:id="rId1219" xr:uid="{9642289A-4B82-4EB3-94A1-FE1E5E61A9AF}"/>
-    <hyperlink ref="I215" r:id="rId1220" xr:uid="{05731DA2-F39B-4951-BE40-485106943FCC}"/>
-    <hyperlink ref="J215" r:id="rId1221" xr:uid="{EC4B2C5E-00DE-42A8-8A84-DB84B82D2A72}"/>
-    <hyperlink ref="I216" r:id="rId1222" xr:uid="{C9127235-9021-451E-957A-B67BBCE3EABE}"/>
-    <hyperlink ref="J216" r:id="rId1223" xr:uid="{D17A66AF-DE27-4692-9243-61CDC95C6DF0}"/>
-    <hyperlink ref="I217" r:id="rId1224" xr:uid="{0390AC8B-70E0-417F-A0F9-DF425C61E1EA}"/>
-    <hyperlink ref="J217" r:id="rId1225" xr:uid="{044CF7B6-C777-465D-8CB2-D3ED0D0C8303}"/>
-    <hyperlink ref="I218" r:id="rId1226" xr:uid="{B24C19CA-4111-431A-8990-DA900CE887F7}"/>
-    <hyperlink ref="J218" r:id="rId1227" xr:uid="{536A9FAB-418C-4B8C-92E7-EE11965AD64C}"/>
-    <hyperlink ref="I219" r:id="rId1228" xr:uid="{30FE8A77-2306-470C-B182-4CFAF2DF2E6C}"/>
-    <hyperlink ref="J219" r:id="rId1229" xr:uid="{6D2B5199-818A-4BE6-9D66-02C4D94C2040}"/>
-    <hyperlink ref="I220" r:id="rId1230" xr:uid="{DCED3E43-29B6-4741-ABDB-6CE3158B5DF5}"/>
-    <hyperlink ref="J220" r:id="rId1231" xr:uid="{721A1815-E146-4C05-8EDA-283DE493AE5E}"/>
-    <hyperlink ref="I221" r:id="rId1232" xr:uid="{835BD772-602E-47A8-9C06-757CB514A3D5}"/>
-    <hyperlink ref="J221" r:id="rId1233" xr:uid="{E443C4D9-AA7B-4D1F-8011-1A6CEB566BC9}"/>
-    <hyperlink ref="I222" r:id="rId1234" xr:uid="{9576B966-79FC-40F8-9A9B-167B95963A00}"/>
-    <hyperlink ref="J222" r:id="rId1235" xr:uid="{FCE20151-3EEA-47DB-A062-FB5D1BEBC1BB}"/>
-    <hyperlink ref="I223" r:id="rId1236" xr:uid="{33C8930B-FC2D-445B-95D2-F093BAAEE1FE}"/>
-    <hyperlink ref="J223" r:id="rId1237" xr:uid="{1650FE2B-F5DA-4F2B-B661-94B7AB50EAA0}"/>
-    <hyperlink ref="I225" r:id="rId1238" xr:uid="{F047C363-906D-4E64-8BEA-9F6C96D95EFE}"/>
-    <hyperlink ref="J225" r:id="rId1239" xr:uid="{A6600F27-5FF3-4725-B5FD-C2457D903920}"/>
-    <hyperlink ref="I226" r:id="rId1240" xr:uid="{955A3D20-8041-4364-A2ED-4C8D141CE4CB}"/>
-    <hyperlink ref="J226" r:id="rId1241" xr:uid="{80359421-242D-4E9C-912C-21BBFA095FE9}"/>
-    <hyperlink ref="I227" r:id="rId1242" xr:uid="{040EA980-3E07-42DE-A9CE-06ECAC9C711F}"/>
-    <hyperlink ref="J227" r:id="rId1243" xr:uid="{E1CA02ED-A98A-4626-91BE-07B0975C3039}"/>
-    <hyperlink ref="I228" r:id="rId1244" xr:uid="{D2202952-B169-4B54-A8D2-E4DB768D9CA3}"/>
-    <hyperlink ref="J228" r:id="rId1245" xr:uid="{E7B5A87B-4B71-49A5-953B-291B2B3B4229}"/>
-    <hyperlink ref="I229" r:id="rId1246" xr:uid="{38A387AB-2E5D-43D2-A0B3-D50B5ECB41BA}"/>
-    <hyperlink ref="J229" r:id="rId1247" xr:uid="{421B879A-8493-4090-89A5-B3B903E46FA7}"/>
-    <hyperlink ref="I230" r:id="rId1248" xr:uid="{E29082CF-F0F2-4A37-8EBC-E9B88EA33F23}"/>
-    <hyperlink ref="J230" r:id="rId1249" xr:uid="{28A2CEBD-05B5-4199-A227-1A4C227C48DF}"/>
-    <hyperlink ref="I231" r:id="rId1250" xr:uid="{96F77CC5-83BE-4425-B622-E390FA0DB04E}"/>
-    <hyperlink ref="J231" r:id="rId1251" xr:uid="{620ADB6C-4C2A-4033-8B0C-EFF8979D4BCE}"/>
-    <hyperlink ref="I232" r:id="rId1252" xr:uid="{EF72ED7C-C3E3-49C2-8A03-8DEDBC0B8DDD}"/>
-    <hyperlink ref="J232" r:id="rId1253" xr:uid="{566FD82C-2DD7-4163-A0A4-316A7E287A90}"/>
-    <hyperlink ref="I233" r:id="rId1254" xr:uid="{0FDBBF79-BB63-4BA8-B492-816F3C65867E}"/>
-    <hyperlink ref="J233" r:id="rId1255" xr:uid="{F40A2B0C-7716-4EED-9981-68A3D9549EF1}"/>
-    <hyperlink ref="I234" r:id="rId1256" xr:uid="{6F1CF67E-18C0-492E-8DEF-D744E56F3C99}"/>
-    <hyperlink ref="J234" r:id="rId1257" xr:uid="{C1FFC12F-CE03-4C60-9518-1D89C38DDCD8}"/>
-    <hyperlink ref="I235" r:id="rId1258" xr:uid="{244DBBBD-C6D7-4E75-9E30-242F3EA9533C}"/>
-    <hyperlink ref="J235" r:id="rId1259" xr:uid="{382C10D5-E331-40DE-8AB5-4B11048BBAF3}"/>
-    <hyperlink ref="I236" r:id="rId1260" xr:uid="{33FA9F65-454D-4DFB-94E3-21D66BE4F948}"/>
-    <hyperlink ref="J236" r:id="rId1261" xr:uid="{91F39EB9-5A9F-4928-B9BF-7E88266F362B}"/>
-    <hyperlink ref="I237" r:id="rId1262" xr:uid="{2E5AB7EF-536C-49BF-921C-3EC6141C267B}"/>
-    <hyperlink ref="J237" r:id="rId1263" xr:uid="{276C0FB0-A7B4-4ADE-83F7-CEC0798B54DB}"/>
-    <hyperlink ref="I238" r:id="rId1264" xr:uid="{79105AA0-CC62-41AF-95F8-5DA05BCCB24D}"/>
-    <hyperlink ref="J238" r:id="rId1265" xr:uid="{4B0319DA-F477-4CE4-AFAF-C5ED139071C2}"/>
-    <hyperlink ref="I239" r:id="rId1266" xr:uid="{1028D587-5E97-452A-864F-1D61C68651B5}"/>
-    <hyperlink ref="J239" r:id="rId1267" xr:uid="{021E3578-E403-4313-928C-2FD63759A2B8}"/>
-    <hyperlink ref="I240" r:id="rId1268" xr:uid="{0596EB26-5EC5-4C65-8448-ACC0E7D3A098}"/>
-    <hyperlink ref="J240" r:id="rId1269" xr:uid="{B01B83E1-8B74-46A1-B38C-63AEF8287DE8}"/>
-    <hyperlink ref="I241" r:id="rId1270" xr:uid="{14EB5493-C717-4AEF-9E5A-620C46266064}"/>
-    <hyperlink ref="J241" r:id="rId1271" xr:uid="{866E6FED-B268-46A0-AB10-49067BE24084}"/>
-    <hyperlink ref="I242" r:id="rId1272" xr:uid="{0B67A991-599C-4BC1-B589-9F6792277E24}"/>
-    <hyperlink ref="I243" r:id="rId1273" xr:uid="{86777F2C-BF80-4397-B463-072F7625722C}"/>
-    <hyperlink ref="J243" r:id="rId1274" xr:uid="{79C6396A-DD24-41F5-B888-F5E2B1A6D150}"/>
-    <hyperlink ref="I244" r:id="rId1275" xr:uid="{25E21AD4-21F8-46C4-8B7D-D107034C93D6}"/>
-    <hyperlink ref="J244" r:id="rId1276" xr:uid="{CD66E30B-34DA-419E-8814-BEB2DB242DBB}"/>
-    <hyperlink ref="I245" r:id="rId1277" xr:uid="{5DF6B3C6-73D9-4154-9441-24809A48CF79}"/>
-    <hyperlink ref="J245" r:id="rId1278" xr:uid="{75ECC3D0-EBFD-4193-A27B-FD0794706F3E}"/>
-    <hyperlink ref="I246" r:id="rId1279" xr:uid="{A485D4F1-624D-4EBF-88A6-59C086832F54}"/>
-    <hyperlink ref="J246" r:id="rId1280" xr:uid="{614050F5-2670-468B-8BD4-E313914CC88E}"/>
-    <hyperlink ref="I247" r:id="rId1281" xr:uid="{C31499A4-9478-4299-B1E7-9DCC2B893D2E}"/>
-    <hyperlink ref="J247" r:id="rId1282" xr:uid="{5B2E87A8-EFCF-4245-9CF4-FB6A7E0B43E1}"/>
-    <hyperlink ref="I248" r:id="rId1283" xr:uid="{C127F333-029E-4B62-9996-9A5A8D08F9DD}"/>
-    <hyperlink ref="J248" r:id="rId1284" xr:uid="{CBF85A96-9C0A-426B-B97B-EF5E7392E475}"/>
-    <hyperlink ref="I249" r:id="rId1285" xr:uid="{F336C709-48D8-49BD-84EC-89693512D1F4}"/>
-    <hyperlink ref="J249" r:id="rId1286" xr:uid="{7805EC1C-6247-452A-A511-1BE3CD9298A2}"/>
-    <hyperlink ref="I250" r:id="rId1287" xr:uid="{06991117-A772-41ED-BB5A-6ABE661A816D}"/>
-    <hyperlink ref="J250" r:id="rId1288" xr:uid="{B639FE66-6207-4491-A97C-30A997948238}"/>
-    <hyperlink ref="I251" r:id="rId1289" xr:uid="{89082027-6C56-48C2-8205-3D5828DCA197}"/>
-    <hyperlink ref="J251" r:id="rId1290" xr:uid="{3E212D5C-812C-454F-BE41-0D0F8B94D47B}"/>
-    <hyperlink ref="I252" r:id="rId1291" xr:uid="{92BA5FD1-8177-44AF-B505-FD45D1E7F15E}"/>
-    <hyperlink ref="J252" r:id="rId1292" xr:uid="{CB96A757-FF42-4658-889C-0A767440E2AA}"/>
-    <hyperlink ref="I253" r:id="rId1293" xr:uid="{E243345E-48FE-4B81-B3B6-F7C5651232D9}"/>
-    <hyperlink ref="J253" r:id="rId1294" xr:uid="{F800944B-CB3F-4AE1-ACC2-ED6EB497D137}"/>
-    <hyperlink ref="I254" r:id="rId1295" xr:uid="{0990C783-F0CA-4E27-9FEC-62A421B5C02A}"/>
-    <hyperlink ref="J254" r:id="rId1296" xr:uid="{F48EA102-230B-4583-8727-8AA6A69D66A0}"/>
-    <hyperlink ref="I255" r:id="rId1297" xr:uid="{2111C6EB-A437-4C65-9F3B-F84DECA50BF3}"/>
-    <hyperlink ref="J255" r:id="rId1298" xr:uid="{C1AEAF32-FEBC-414E-93EB-E28E3EE286CB}"/>
-    <hyperlink ref="I256" r:id="rId1299" xr:uid="{4F99336E-DEF3-445E-A24B-18039652D6C2}"/>
-    <hyperlink ref="J256" r:id="rId1300" xr:uid="{F6FF38A1-0E90-49DB-8BF6-E20E24A0BB6B}"/>
-    <hyperlink ref="I257" r:id="rId1301" xr:uid="{7BC1B2C7-B52D-491B-B820-E67372ED3035}"/>
-    <hyperlink ref="J257" r:id="rId1302" xr:uid="{43108DB3-D146-4C55-9063-29FE418CA2DE}"/>
-    <hyperlink ref="I258" r:id="rId1303" xr:uid="{A836D205-1DAA-4CD3-9FDF-0C20432C457E}"/>
-    <hyperlink ref="J258" r:id="rId1304" xr:uid="{1A96EA2F-8BEF-4BFE-944C-388A85EFC360}"/>
-    <hyperlink ref="I259" r:id="rId1305" xr:uid="{55393278-8AC3-46E8-9417-1E95492AA88C}"/>
-    <hyperlink ref="J259" r:id="rId1306" xr:uid="{EA8A1059-0563-46C3-9D4D-EEDBBFBA3D24}"/>
-    <hyperlink ref="I260" r:id="rId1307" xr:uid="{5B983455-91B2-4E89-B503-4BDEF0CA6158}"/>
-    <hyperlink ref="J260" r:id="rId1308" xr:uid="{FCEB53B6-9ECC-4836-9AE1-CCD697F9DF55}"/>
-    <hyperlink ref="I261" r:id="rId1309" xr:uid="{1C26B72B-24CA-4A20-8AAD-6E72281B30F8}"/>
-    <hyperlink ref="J261" r:id="rId1310" xr:uid="{555163DD-9062-4B29-875B-F323B45AF83B}"/>
-    <hyperlink ref="I262" r:id="rId1311" xr:uid="{74BC4A8F-C8CD-4983-897F-31D5B87F82B9}"/>
-    <hyperlink ref="J262" r:id="rId1312" xr:uid="{200FB153-32E7-4F10-8580-E83DFC271736}"/>
-    <hyperlink ref="I263" r:id="rId1313" xr:uid="{90912F0F-336E-4F7F-A5C0-CE0859AA58FF}"/>
-    <hyperlink ref="J263" r:id="rId1314" xr:uid="{83F16E51-C450-4ED5-ACDE-2738A419A434}"/>
-    <hyperlink ref="I264" r:id="rId1315" xr:uid="{7EF24EAB-7B1A-4587-ACE2-AF62C9767EBA}"/>
-    <hyperlink ref="J264" r:id="rId1316" xr:uid="{822B90E5-A680-45E2-A2C2-5825BB8F132D}"/>
-    <hyperlink ref="I266" r:id="rId1317" xr:uid="{FB5A0E3F-8E22-47B5-A3FB-73FD09962C47}"/>
-    <hyperlink ref="J266" r:id="rId1318" xr:uid="{56FE962A-6809-4626-A03A-7B9D34B29171}"/>
-    <hyperlink ref="J267" r:id="rId1319" xr:uid="{6708F5CB-E71E-49C8-B3ED-266EE9359640}"/>
-    <hyperlink ref="I267" r:id="rId1320" xr:uid="{D1F1AFF9-6988-45C0-9506-C6840333384D}"/>
-    <hyperlink ref="I268" r:id="rId1321" xr:uid="{21569E89-4003-409B-B98C-D32C1CEE1DA0}"/>
-    <hyperlink ref="J268" r:id="rId1322" xr:uid="{80D3EF35-701F-4B7E-9E72-25BF6ABA4635}"/>
-    <hyperlink ref="I269" r:id="rId1323" xr:uid="{68F17FCC-AF0D-42BF-B775-E057D94234F7}"/>
-    <hyperlink ref="J269" r:id="rId1324" xr:uid="{8B20AF17-90EC-43F8-BE32-FAE380E6C838}"/>
-    <hyperlink ref="I270" r:id="rId1325" xr:uid="{C983A9A5-CEE8-4695-B995-BFDD81C9B2C7}"/>
-    <hyperlink ref="J270" r:id="rId1326" xr:uid="{4AD308DB-40A2-4423-874D-202538288676}"/>
-    <hyperlink ref="I271" r:id="rId1327" xr:uid="{936F18DA-C9A0-4888-AF48-56CBF8219C4B}"/>
-    <hyperlink ref="J271" r:id="rId1328" xr:uid="{5AAF511C-19A0-4443-8FBF-8A950519987A}"/>
-    <hyperlink ref="I273" r:id="rId1329" xr:uid="{33A8445A-9C7F-4BEF-8CE1-29447C2FDD96}"/>
-    <hyperlink ref="J273" r:id="rId1330" xr:uid="{3031F5AA-0C1F-4325-82EA-7B6152C95E0A}"/>
-    <hyperlink ref="I274" r:id="rId1331" xr:uid="{F55844DE-E31A-4409-A931-EBF9D71FC0DD}"/>
-    <hyperlink ref="J274" r:id="rId1332" xr:uid="{618CDA92-D567-4521-A4F8-AC817787DE5C}"/>
-    <hyperlink ref="I275" r:id="rId1333" xr:uid="{647ABC56-CF1B-4113-96A2-B0B915FCBE88}"/>
-    <hyperlink ref="J275" r:id="rId1334" xr:uid="{493AA7D5-B4A6-4E16-95E0-30213C1B1579}"/>
-    <hyperlink ref="I276" r:id="rId1335" xr:uid="{2BCF0715-E193-4CF4-9B57-1F2EAACB553E}"/>
-    <hyperlink ref="J276" r:id="rId1336" xr:uid="{79B37A2D-1EA0-446C-9E02-C9C923E9B519}"/>
-    <hyperlink ref="I277" r:id="rId1337" xr:uid="{D0E458B4-465E-4110-8B99-B3B674193914}"/>
-    <hyperlink ref="J277" r:id="rId1338" xr:uid="{BDA23700-888E-42E1-AC73-6B1A9F407B82}"/>
-    <hyperlink ref="I278" r:id="rId1339" xr:uid="{E28E222D-10CE-4B1C-9209-F93B042BD7DC}"/>
-    <hyperlink ref="J278" r:id="rId1340" xr:uid="{B525C631-D6AC-4F35-827E-549FA00C43B3}"/>
-    <hyperlink ref="I279" r:id="rId1341" xr:uid="{8D9E1100-E165-411A-B8FE-999BB33A1798}"/>
-    <hyperlink ref="J279" r:id="rId1342" xr:uid="{61D6BC4B-F8DB-4767-8EF9-5B35ED9595A8}"/>
-    <hyperlink ref="I280" r:id="rId1343" xr:uid="{CB0765D0-0585-43C0-85B2-8A58FF28AEE3}"/>
-    <hyperlink ref="J280" r:id="rId1344" xr:uid="{431E923E-09AA-4822-8B92-94CE7A2E2E93}"/>
-    <hyperlink ref="I282" r:id="rId1345" xr:uid="{1F1EBDC1-37D0-494D-9F4C-E4BAF2199365}"/>
-    <hyperlink ref="J282" r:id="rId1346" xr:uid="{33D9076A-0D41-4C39-9004-83A665C74F90}"/>
-    <hyperlink ref="I283" r:id="rId1347" xr:uid="{3A7F3910-96FA-4B6C-B3A2-284BE63713D8}"/>
-    <hyperlink ref="J283" r:id="rId1348" xr:uid="{6431B938-08BB-401A-AD5A-0000ACF07024}"/>
-    <hyperlink ref="I284" r:id="rId1349" xr:uid="{7DB142BF-23D9-4306-AB3D-C982156ED984}"/>
-    <hyperlink ref="J284" r:id="rId1350" xr:uid="{E3AC3BE9-3DAB-4165-B675-1D144998C813}"/>
-    <hyperlink ref="I285" r:id="rId1351" xr:uid="{540D65E6-19E3-4D12-BB96-4DCFC40DE974}"/>
-    <hyperlink ref="J285" r:id="rId1352" xr:uid="{4811CD38-DA56-4913-BF26-D70632A92616}"/>
-    <hyperlink ref="I286" r:id="rId1353" xr:uid="{9ACB9709-E852-4290-AD7A-C54C7F1E9627}"/>
-    <hyperlink ref="J286" r:id="rId1354" xr:uid="{5E6D98A2-4CD8-4C19-A127-AF0A682A9A8D}"/>
-    <hyperlink ref="I287" r:id="rId1355" xr:uid="{E1BA5DFA-9FA8-4116-A078-81D04F478B76}"/>
-    <hyperlink ref="J287" r:id="rId1356" xr:uid="{5CBE5006-4896-4383-8D63-F7E7D116DEEC}"/>
-    <hyperlink ref="I288" r:id="rId1357" xr:uid="{3AFF46DA-9A35-41C7-AD2E-2C2BA0CD2176}"/>
-    <hyperlink ref="J288" r:id="rId1358" xr:uid="{4898CBA1-66FC-43F7-8D11-FE1339122552}"/>
-    <hyperlink ref="I289" r:id="rId1359" xr:uid="{D8DC2967-5820-41CB-9A61-C06FD3DEC322}"/>
-    <hyperlink ref="J289" r:id="rId1360" xr:uid="{974354A5-8F12-4E12-9655-5298DAAF7B17}"/>
-    <hyperlink ref="I290" r:id="rId1361" xr:uid="{BA79A7C8-706A-4A8C-A52E-AFD23120F1D2}"/>
-    <hyperlink ref="J290" r:id="rId1362" xr:uid="{A8B44967-081D-427C-BA84-C91AFFC247CD}"/>
-    <hyperlink ref="I291" r:id="rId1363" xr:uid="{4EAFA38F-34A6-457F-AFD8-0E9D321294E8}"/>
-    <hyperlink ref="J291" r:id="rId1364" xr:uid="{E253A7C6-6B2E-4CD2-A95A-EF1F7BC82BA1}"/>
-    <hyperlink ref="I292" r:id="rId1365" xr:uid="{4E2B250D-9B2D-471F-9DD7-306AB22A402C}"/>
-    <hyperlink ref="J292" r:id="rId1366" xr:uid="{BBCEAF33-BD4D-4AD9-91DE-C0CCA8B53E38}"/>
-    <hyperlink ref="I293" r:id="rId1367" xr:uid="{04859C78-0994-4C56-8675-70EB76F39D7C}"/>
-    <hyperlink ref="J293" r:id="rId1368" xr:uid="{BA3CCDA8-9E09-42C8-ADEC-F1A12F1FF7C8}"/>
-    <hyperlink ref="I294" r:id="rId1369" xr:uid="{3CC90E37-1BF5-4262-934D-A37993466EA3}"/>
-    <hyperlink ref="J294" r:id="rId1370" xr:uid="{E7761221-3353-4AEE-BBB1-41ED2D45B41A}"/>
-    <hyperlink ref="I295" r:id="rId1371" xr:uid="{8FA9A865-0FFA-42CE-BA34-CE4F2C830BF3}"/>
-    <hyperlink ref="J295" r:id="rId1372" xr:uid="{2D70BF3F-BDD9-47BA-8DE9-25F7BBBD5A11}"/>
-    <hyperlink ref="I296" r:id="rId1373" xr:uid="{6DC7B8A1-4772-4E23-89A3-6DD1EDB003A8}"/>
-    <hyperlink ref="J296" r:id="rId1374" xr:uid="{88DFBCDE-5E18-4C8B-900C-909738CD4BA8}"/>
-    <hyperlink ref="I297" r:id="rId1375" xr:uid="{A4B45442-E1A1-4A8A-B0E1-1758E18DE5E9}"/>
-    <hyperlink ref="J297" r:id="rId1376" xr:uid="{79244E1F-1B5D-4F1D-B0F1-66AA0AEFFFA2}"/>
-    <hyperlink ref="I298" r:id="rId1377" xr:uid="{84F4B428-5E78-466D-AB76-E9437075623B}"/>
-    <hyperlink ref="J298" r:id="rId1378" xr:uid="{12EB92BD-D2E1-40BF-95F3-FA3ADDB01E90}"/>
-    <hyperlink ref="I299" r:id="rId1379" xr:uid="{8EEABF58-D65C-47DF-81F0-E1CF211BE37A}"/>
-    <hyperlink ref="J299" r:id="rId1380" xr:uid="{4F19D743-EDA6-4667-ACC3-13AE8966993A}"/>
-    <hyperlink ref="I300" r:id="rId1381" xr:uid="{A8F2BF96-9966-467E-9D99-963BF9EE6462}"/>
-    <hyperlink ref="J300" r:id="rId1382" xr:uid="{FF2C4D5B-1103-490F-9449-EB7033E0ABF0}"/>
-    <hyperlink ref="I301" r:id="rId1383" xr:uid="{47F3A1BD-FC3C-4DDC-B0BB-183DA4A17B41}"/>
-    <hyperlink ref="J301" r:id="rId1384" xr:uid="{45013952-3321-445D-842A-4E8BE396BBF4}"/>
-    <hyperlink ref="I302" r:id="rId1385" xr:uid="{7A0E4B3A-9CB1-4216-BD6B-40D0D9C5078C}"/>
-    <hyperlink ref="J302" r:id="rId1386" xr:uid="{A34B792F-6594-4B13-8C9C-73727350CDD8}"/>
-    <hyperlink ref="I303" r:id="rId1387" xr:uid="{7BA252F5-C9B8-4BC0-8F0F-FA5EFAFC8CAA}"/>
-    <hyperlink ref="J303" r:id="rId1388" xr:uid="{D0600B32-DE16-4808-BF6A-1F0D6F21CC3F}"/>
-    <hyperlink ref="I304" r:id="rId1389" xr:uid="{E1EA2C31-9E58-438B-84E1-6DFCBBDC27D0}"/>
-    <hyperlink ref="J304" r:id="rId1390" xr:uid="{AE252CB4-6A25-4D21-82AE-2A8715E79BBC}"/>
-    <hyperlink ref="I305" r:id="rId1391" xr:uid="{E67DB4C0-3572-48E7-B0C4-5279C28C3911}"/>
-    <hyperlink ref="J305" r:id="rId1392" xr:uid="{869ABC22-3AD5-4519-9F8E-36FE1C78B7FD}"/>
-    <hyperlink ref="I306" r:id="rId1393" xr:uid="{EEE25A09-882F-4916-8120-4CACA368ED9F}"/>
-    <hyperlink ref="J306" r:id="rId1394" xr:uid="{130ED3AE-8E28-4995-98AB-66F26D1CA7D8}"/>
-    <hyperlink ref="I307" r:id="rId1395" xr:uid="{DD637F4D-7DFA-4A08-A241-B1D3550076F1}"/>
-    <hyperlink ref="J307" r:id="rId1396" xr:uid="{EDAD5D19-187A-4653-B3DE-369EFF183F9E}"/>
-    <hyperlink ref="I308" r:id="rId1397" xr:uid="{B484FDE1-EC98-4222-9EDD-28F337AA9AC0}"/>
-    <hyperlink ref="J308" r:id="rId1398" xr:uid="{B7303B11-E453-4E23-BBD7-C5F3A73C96DE}"/>
-    <hyperlink ref="I309" r:id="rId1399" xr:uid="{1A3809D7-3861-44E3-9014-9BD2E75D01B8}"/>
-    <hyperlink ref="J309" r:id="rId1400" xr:uid="{BC9BBD38-AB11-4009-9372-54A28B94F13E}"/>
-    <hyperlink ref="I310" r:id="rId1401" xr:uid="{DC80F0E0-335E-4334-BF2A-152A2B3C118B}"/>
-    <hyperlink ref="J310" r:id="rId1402" xr:uid="{7CCF2EA0-CA0C-4552-B799-9FC3A85973F3}"/>
-    <hyperlink ref="I311" r:id="rId1403" xr:uid="{078519EE-2E27-4390-8695-E498CAFBC384}"/>
-    <hyperlink ref="J311" r:id="rId1404" xr:uid="{BE52A010-24A7-4F02-A309-E103F0065CA4}"/>
-    <hyperlink ref="I312" r:id="rId1405" xr:uid="{C8FBA5EA-564E-4A94-988A-304A327D42D7}"/>
-    <hyperlink ref="J312" r:id="rId1406" xr:uid="{07B54400-77B0-4A41-AB6A-855FA9B1916C}"/>
-    <hyperlink ref="I313" r:id="rId1407" xr:uid="{3CDF90B0-EFD5-41AF-88BA-220125DD70CB}"/>
-    <hyperlink ref="J313" r:id="rId1408" xr:uid="{63860465-E04D-4419-980C-8A0DF61097DA}"/>
-    <hyperlink ref="I314" r:id="rId1409" xr:uid="{98F74A35-9606-4D90-BDE9-94D1FC044B6E}"/>
-    <hyperlink ref="J314" r:id="rId1410" xr:uid="{714AA937-5882-422E-A076-EB1CE17692CD}"/>
-    <hyperlink ref="I315" r:id="rId1411" xr:uid="{66187586-B607-4CED-B89A-A5621FFF53CC}"/>
-    <hyperlink ref="J315" r:id="rId1412" xr:uid="{7D1DC5FB-E5F6-44BA-A425-AF96C14C52B8}"/>
-    <hyperlink ref="I316" r:id="rId1413" xr:uid="{FD235E92-7703-47BD-AB06-9B08F0D8799A}"/>
-    <hyperlink ref="J316" r:id="rId1414" xr:uid="{51442F2B-E087-4DBE-94EA-BE392A333E94}"/>
-    <hyperlink ref="I317" r:id="rId1415" xr:uid="{442B8E64-2F94-4B7E-85D5-887DF1073EFA}"/>
-    <hyperlink ref="J317" r:id="rId1416" xr:uid="{975DC67F-1789-4CF9-9032-B509F9FD048F}"/>
-    <hyperlink ref="I318" r:id="rId1417" xr:uid="{E7519F59-96DF-4614-9B83-93F1C67849A2}"/>
-    <hyperlink ref="J318" r:id="rId1418" xr:uid="{29ABBF44-17CA-4292-BB95-E63B8E0D85F3}"/>
-    <hyperlink ref="I319" r:id="rId1419" xr:uid="{D0B07EF5-D172-48FF-BEEC-0E6A2897735E}"/>
-    <hyperlink ref="J319" r:id="rId1420" xr:uid="{719AE4A4-B62D-4AF6-8607-ABD7657ADC0E}"/>
-    <hyperlink ref="I320" r:id="rId1421" xr:uid="{E6533899-F1AB-4359-9F78-0C3DC0B9E672}"/>
-    <hyperlink ref="J320" r:id="rId1422" xr:uid="{2A0D27F5-13B5-46E9-946F-E2F8CA6DAABD}"/>
-    <hyperlink ref="I321" r:id="rId1423" xr:uid="{75A6CFB4-F47E-4C00-AED3-1E9AB1125450}"/>
-    <hyperlink ref="J321" r:id="rId1424" xr:uid="{330E8F1E-F934-467A-AD06-EFF336AAD676}"/>
-    <hyperlink ref="I322" r:id="rId1425" xr:uid="{A45C62E2-AB96-4BDA-8CF0-C5D9976307F8}"/>
-    <hyperlink ref="J322" r:id="rId1426" xr:uid="{49E526A1-4C40-4B2A-BE63-B43E2ECE72C6}"/>
-    <hyperlink ref="I323" r:id="rId1427" xr:uid="{8598314B-C2AF-4C03-BB43-0799365E5709}"/>
-    <hyperlink ref="J323" r:id="rId1428" xr:uid="{DFC1A003-070B-48FE-8D82-A10643E603D8}"/>
-    <hyperlink ref="I324" r:id="rId1429" xr:uid="{36DECB2B-0A1B-4EAE-8EB5-6E4D643F6809}"/>
-    <hyperlink ref="J324" r:id="rId1430" xr:uid="{DBF759FA-92B2-4311-8B46-8E34DCE5A4AF}"/>
-    <hyperlink ref="I325" r:id="rId1431" xr:uid="{6B3DD9B7-E8FF-4F23-8E34-B112959FF859}"/>
-    <hyperlink ref="J325" r:id="rId1432" xr:uid="{6D86619A-4002-4314-8A19-5A6BD2D74E86}"/>
-    <hyperlink ref="I327" r:id="rId1433" xr:uid="{03A187F0-1347-4B64-88DA-EFA4BE0DAD3A}"/>
-    <hyperlink ref="J327" r:id="rId1434" xr:uid="{DE5B4820-FF16-42D1-A8C3-C67250E0BF84}"/>
-    <hyperlink ref="I329" r:id="rId1435" xr:uid="{E7F88093-7AFF-41AB-8868-619B201C1106}"/>
-    <hyperlink ref="J329" r:id="rId1436" xr:uid="{5CEAB345-9632-4D23-855D-175090CD1FD7}"/>
-    <hyperlink ref="I330" r:id="rId1437" xr:uid="{49B05E95-606D-4637-86E3-0EE2078EFB04}"/>
-    <hyperlink ref="J330" r:id="rId1438" xr:uid="{2A34CF02-0922-4F73-AAF6-55CB80F63853}"/>
-    <hyperlink ref="I333" r:id="rId1439" xr:uid="{A1076879-4A4A-4BB7-9707-D46607051C4C}"/>
-    <hyperlink ref="J333" r:id="rId1440" xr:uid="{C59C9E85-2E86-4036-9509-CA180E144BFC}"/>
-    <hyperlink ref="F347" r:id="rId1441" xr:uid="{E5F00FAD-CD17-4629-80E5-6DC3ED7865AF}"/>
-    <hyperlink ref="G347" r:id="rId1442" xr:uid="{6E6B20A8-F499-4FBB-B3DA-A983A5605A7F}"/>
-    <hyperlink ref="H347" r:id="rId1443" xr:uid="{44966AD7-78CE-4880-AC66-E7F86B55D055}"/>
-    <hyperlink ref="I347" r:id="rId1444" xr:uid="{AC9717CB-87DF-473D-9805-455D162731EA}"/>
-    <hyperlink ref="J347" r:id="rId1445" xr:uid="{BD82C665-B99A-4470-A126-131CD9EFB230}"/>
-    <hyperlink ref="F348" r:id="rId1446" xr:uid="{11B9D2BE-BFE1-43C2-BD86-9C196A7AEB3C}"/>
-    <hyperlink ref="G348" r:id="rId1447" xr:uid="{899FA22A-95A2-4C62-82F2-FBB9EAFA112D}"/>
-    <hyperlink ref="H348" r:id="rId1448" xr:uid="{5B329F37-C524-4678-A18D-39072F7A47B5}"/>
-    <hyperlink ref="I348" r:id="rId1449" xr:uid="{10E1C1A0-5B64-4DFE-9E44-608D2BB5C6ED}"/>
-    <hyperlink ref="J348" r:id="rId1450" xr:uid="{3621C937-CFF9-4B2C-B670-0397DB38F4E6}"/>
-    <hyperlink ref="F349" r:id="rId1451" xr:uid="{DAD9857E-F42D-4F8C-9EEA-E5D815C19876}"/>
-    <hyperlink ref="G349" r:id="rId1452" xr:uid="{E96C5344-31AE-46B2-A966-4174C47BA907}"/>
-    <hyperlink ref="H349" r:id="rId1453" xr:uid="{9EB1AACA-D6FF-458A-9EDD-2CF17135B9D6}"/>
-    <hyperlink ref="I349" r:id="rId1454" xr:uid="{3C878564-9B35-4F04-9F38-5326414094A5}"/>
-    <hyperlink ref="J349" r:id="rId1455" xr:uid="{F61BB641-AA09-41C8-A934-392E61FF1FB7}"/>
-    <hyperlink ref="F350" r:id="rId1456" xr:uid="{B880025E-217D-4D2E-B008-81E812A73D99}"/>
-    <hyperlink ref="G350" r:id="rId1457" xr:uid="{0D8D48AD-6CBD-4305-BE5B-25BA2E133158}"/>
-    <hyperlink ref="H350" r:id="rId1458" xr:uid="{12D7C25C-ACC2-4882-962A-0D863759DDB4}"/>
-    <hyperlink ref="I350" r:id="rId1459" xr:uid="{19EF4D50-E33E-48B5-A4F8-920FF6D67A88}"/>
-    <hyperlink ref="J350" r:id="rId1460" xr:uid="{9E7843ED-3E44-448C-BDFF-7A9690997390}"/>
-    <hyperlink ref="F351" r:id="rId1461" xr:uid="{68E933E2-82D9-4C3E-AA07-F55F282FC524}"/>
-    <hyperlink ref="G351" r:id="rId1462" xr:uid="{0EF484D1-4660-4B09-AC45-95AAF306006D}"/>
-    <hyperlink ref="H351" r:id="rId1463" xr:uid="{F6CBAE5E-B3A9-42C1-84DF-0B4414EBDB0D}"/>
-    <hyperlink ref="I351" r:id="rId1464" xr:uid="{794E1743-3F8A-419D-84FD-994919C721D5}"/>
-    <hyperlink ref="J351" r:id="rId1465" xr:uid="{94CBA256-286B-43CF-A15C-BB2ADA07D8E4}"/>
-    <hyperlink ref="F352" r:id="rId1466" xr:uid="{2E754F5B-7AF5-4274-92C0-33F0DA59727A}"/>
-    <hyperlink ref="G352" r:id="rId1467" xr:uid="{20C552B4-25D7-4E32-A9D6-C68656260902}"/>
-    <hyperlink ref="H352" r:id="rId1468" xr:uid="{E89E8EF4-C2AB-49A1-8C28-631C6A0847E4}"/>
-    <hyperlink ref="I352" r:id="rId1469" xr:uid="{711CA091-D81F-42B6-B641-5D4B1E18DD41}"/>
-    <hyperlink ref="J352" r:id="rId1470" xr:uid="{B857136F-5C8F-4355-9AB7-1283FDE45829}"/>
-    <hyperlink ref="F353" r:id="rId1471" xr:uid="{5542DC5D-AB3B-49FF-807C-3C3305A7B076}"/>
-    <hyperlink ref="G353" r:id="rId1472" xr:uid="{A7930621-918D-4C0B-9FB7-35C3B84CB9BC}"/>
-    <hyperlink ref="H353" r:id="rId1473" xr:uid="{841078C7-96E6-4166-B6CE-59F3BBBD70D9}"/>
-    <hyperlink ref="I353" r:id="rId1474" xr:uid="{06BF4AE5-12B6-44CD-923C-13DDCDC0E57B}"/>
-    <hyperlink ref="J353" r:id="rId1475" xr:uid="{78AF7474-272E-4196-81C9-9A0F70908A86}"/>
-    <hyperlink ref="F354" r:id="rId1476" xr:uid="{95615DE4-395C-4381-AA59-3EEC57EDE99F}"/>
-    <hyperlink ref="G354" r:id="rId1477" xr:uid="{4F594879-30D8-45D2-84FA-D50E67981BAA}"/>
-    <hyperlink ref="H354" r:id="rId1478" xr:uid="{F390B035-184D-4492-9D1B-4A59BEC27860}"/>
-    <hyperlink ref="I354" r:id="rId1479" xr:uid="{33BB4538-3F04-4292-8D0E-C0E261F8F44D}"/>
-    <hyperlink ref="J354" r:id="rId1480" xr:uid="{3CE75AC1-FEB4-429D-B948-B31C2B4CC1AE}"/>
-    <hyperlink ref="F355" r:id="rId1481" xr:uid="{C4F5ED41-6FED-41B2-B77E-806DEBE44A76}"/>
-    <hyperlink ref="G355" r:id="rId1482" xr:uid="{17B8D3BD-1736-4649-A986-AB47EF2FC20E}"/>
-    <hyperlink ref="H355" r:id="rId1483" xr:uid="{6D9F36C4-170C-4092-8A16-3EC8113201CF}"/>
-    <hyperlink ref="I355" r:id="rId1484" xr:uid="{70C3CF2F-5CC5-4664-9D5D-FDB6193600DA}"/>
-    <hyperlink ref="J355" r:id="rId1485" xr:uid="{0045438D-6FFD-44E2-8C0F-9CC9F4BA0F5A}"/>
-    <hyperlink ref="F356" r:id="rId1486" xr:uid="{4F03E399-A65A-4F80-BCAE-F4C4E0B3BB38}"/>
-    <hyperlink ref="G356" r:id="rId1487" xr:uid="{83C50C12-4B43-491F-8CE4-DF151049F071}"/>
-    <hyperlink ref="H356" r:id="rId1488" xr:uid="{23C70C20-FBBF-4F45-932F-A26BD0398A9A}"/>
-    <hyperlink ref="I356" r:id="rId1489" xr:uid="{67BAE2EB-E8C2-4D49-A3E5-EFCA3374C352}"/>
-    <hyperlink ref="J356" r:id="rId1490" xr:uid="{7E2211CB-453C-46AE-BA43-45790804EFC5}"/>
-    <hyperlink ref="F357" r:id="rId1491" xr:uid="{91038F82-3832-4F60-A5F9-96D9C366F277}"/>
-    <hyperlink ref="G357" r:id="rId1492" xr:uid="{390899C9-B4F6-429A-A031-155DCC9A728B}"/>
-    <hyperlink ref="H357" r:id="rId1493" xr:uid="{0386AC29-3E18-438C-9AFD-07FD7E49C8A3}"/>
-    <hyperlink ref="I357" r:id="rId1494" xr:uid="{B9D54722-D8DA-4271-94BB-C186F661B45D}"/>
-    <hyperlink ref="J357" r:id="rId1495" xr:uid="{A6210485-CBF2-46A6-9DF9-5F1BD82A0E73}"/>
-    <hyperlink ref="F358" r:id="rId1496" xr:uid="{E6B6899F-A6D4-442C-9FC4-B49A86026833}"/>
-    <hyperlink ref="G358" r:id="rId1497" xr:uid="{957F2765-E3E8-4DFA-A661-243EE51910DD}"/>
-    <hyperlink ref="H358" r:id="rId1498" xr:uid="{C1CB46CC-B7F1-45CB-9B5B-DD114B29ADE7}"/>
-    <hyperlink ref="I358" r:id="rId1499" xr:uid="{337DF965-35CF-472C-BB05-671E33C5CF49}"/>
-    <hyperlink ref="J358" r:id="rId1500" xr:uid="{DDC3CE02-24C7-42BF-A2BA-3D3263F8A70C}"/>
-    <hyperlink ref="F359" r:id="rId1501" xr:uid="{271F7D2C-C922-4040-B397-6EC9338D99B6}"/>
-    <hyperlink ref="G359" r:id="rId1502" xr:uid="{66598E50-52AB-4E67-801D-EA292E114284}"/>
-    <hyperlink ref="H359" r:id="rId1503" xr:uid="{A35277CC-831B-4462-975A-915C2B653187}"/>
-    <hyperlink ref="I359" r:id="rId1504" xr:uid="{C9B3335E-28FB-4553-B56E-26D3E6E56125}"/>
-    <hyperlink ref="J359" r:id="rId1505" xr:uid="{A47CF0CC-3AAC-41D1-81C3-71652EEED0FD}"/>
-    <hyperlink ref="F360" r:id="rId1506" xr:uid="{41C206CB-246A-4B94-9995-F0C68454112E}"/>
-    <hyperlink ref="G360" r:id="rId1507" xr:uid="{D916C860-C90C-4D8C-AF1A-56FD67A3D3B6}"/>
-    <hyperlink ref="H360" r:id="rId1508" xr:uid="{F1022EB5-CB72-4C89-9AB5-3EDC2582840F}"/>
-    <hyperlink ref="I360" r:id="rId1509" xr:uid="{ABFCA587-A2BF-4D5F-B31C-CC4644E724E7}"/>
-    <hyperlink ref="J360" r:id="rId1510" xr:uid="{00128243-B096-4793-87FB-3A8BEA33420A}"/>
-    <hyperlink ref="F361" r:id="rId1511" xr:uid="{30FF3C82-3C53-4C09-9E08-4BF0FD24DCF9}"/>
-    <hyperlink ref="I224" r:id="rId1512" xr:uid="{0928CE4E-E37E-4BD4-BB63-2315FA8F0884}"/>
-    <hyperlink ref="J224" r:id="rId1513" xr:uid="{AF22EEC7-3471-4560-A11E-A647EEDB8752}"/>
-    <hyperlink ref="I272" r:id="rId1514" xr:uid="{E8790EEC-FEEF-48FF-AF0F-B04199B565F4}"/>
-    <hyperlink ref="J272" r:id="rId1515" xr:uid="{EE492F6A-4B20-4D42-82EE-7FBCF29C425E}"/>
-    <hyperlink ref="F362" r:id="rId1516" xr:uid="{7A9B2BA6-6A7C-4ECA-B329-68B10C358DF6}"/>
-    <hyperlink ref="G362" r:id="rId1517" xr:uid="{C2D2408C-D101-4D00-9039-457ECAB1FF64}"/>
-    <hyperlink ref="H362" r:id="rId1518" xr:uid="{8123112E-531D-40E8-8559-FE719183B655}"/>
-    <hyperlink ref="I362" r:id="rId1519" xr:uid="{45C122AA-3D13-4D81-985D-9F05C45FF529}"/>
-    <hyperlink ref="J362" r:id="rId1520" xr:uid="{64782514-DA30-4C58-B03E-240BAAE6F27F}"/>
-    <hyperlink ref="F363" r:id="rId1521" xr:uid="{A600E427-5051-4810-B748-158F82112D0E}"/>
-    <hyperlink ref="G363" r:id="rId1522" xr:uid="{18D3F212-38C6-47F6-AD83-4182E59C24F2}"/>
-    <hyperlink ref="H363" r:id="rId1523" xr:uid="{CA74C210-FDD1-46B3-8FF8-4A9CDCC1E243}"/>
-    <hyperlink ref="I363" r:id="rId1524" xr:uid="{C4409797-4ED9-453B-93EA-22EBCD73F19C}"/>
-    <hyperlink ref="J363" r:id="rId1525" xr:uid="{AB220784-61FF-4B57-AABC-0E4B4B42726F}"/>
-    <hyperlink ref="F364" r:id="rId1526" xr:uid="{89ACD43F-B79E-41B8-9F0A-7FAC60890268}"/>
-    <hyperlink ref="G364" r:id="rId1527" xr:uid="{53F77340-8C30-47AC-A161-D8CEC011C791}"/>
-    <hyperlink ref="H364" r:id="rId1528" xr:uid="{9B0408FF-76B8-4D9E-AAC0-5115239FB59A}"/>
-    <hyperlink ref="I364" r:id="rId1529" xr:uid="{241FFB2F-AD72-4F02-909A-9975DC2F3BDB}"/>
-    <hyperlink ref="J364" r:id="rId1530" xr:uid="{F1C3DD83-C05E-4943-B296-D7B8D69DC96E}"/>
-    <hyperlink ref="F365" r:id="rId1531" xr:uid="{394811EA-CA96-49C8-9171-9F8C22924B38}"/>
-    <hyperlink ref="G365" r:id="rId1532" xr:uid="{EB444B6B-7635-4A18-95F0-8A26560A6E8E}"/>
-    <hyperlink ref="H365" r:id="rId1533" xr:uid="{28213A76-5B67-4431-BDAB-95923DBB4A36}"/>
-    <hyperlink ref="I365" r:id="rId1534" xr:uid="{7BF3914C-9323-4803-9707-BD796A1A308C}"/>
-    <hyperlink ref="J365" r:id="rId1535" xr:uid="{BA8DC8F7-8618-4868-A491-FA9176C9C3F4}"/>
+    <hyperlink ref="J117" r:id="rId562" xr:uid="{DF2FBDC6-5BF6-4DAB-9B99-9327FB98725A}"/>
+    <hyperlink ref="J20" r:id="rId563" xr:uid="{ADC8282E-FFFA-45E2-A5C2-4646C63DB641}"/>
+    <hyperlink ref="J39" r:id="rId564" xr:uid="{52FFBF71-EA79-4432-A659-6FF86D7E4B66}"/>
+    <hyperlink ref="J2" r:id="rId565" xr:uid="{9DBE4F8F-77D6-4A68-BB12-7C83FCE43C55}"/>
+    <hyperlink ref="J4" r:id="rId566" xr:uid="{301EAABD-D219-4A90-B00C-1AD40321AA11}"/>
+    <hyperlink ref="J10" r:id="rId567" xr:uid="{94A6A577-2E7B-445F-99D0-76B26FE9F19E}"/>
+    <hyperlink ref="J11" r:id="rId568" xr:uid="{01349E6F-EC66-4984-988F-A95BD3379A33}"/>
+    <hyperlink ref="J38" r:id="rId569" xr:uid="{1FF50C2C-3B9B-4414-9127-A40D2BD2A6BC}"/>
+    <hyperlink ref="J44" r:id="rId570" xr:uid="{AC23E088-BB72-4F11-9E13-AE04337B7931}"/>
+    <hyperlink ref="J57" r:id="rId571" xr:uid="{1B49AE05-6E46-401B-8530-16FBCF065432}"/>
+    <hyperlink ref="J63" r:id="rId572" xr:uid="{E61A2115-C3BE-429D-B9FB-8CB0A3682DA4}"/>
+    <hyperlink ref="J81" r:id="rId573" xr:uid="{46124A12-3678-465C-8DD5-72FD85A2616C}"/>
+    <hyperlink ref="J85" r:id="rId574" xr:uid="{54D49EE2-F995-4232-A5AA-E93AEF1E731C}"/>
+    <hyperlink ref="J99" r:id="rId575" xr:uid="{11CF1933-B672-4192-8867-31161BA772E6}"/>
+    <hyperlink ref="J101" r:id="rId576" xr:uid="{C5BC2104-998A-446A-A799-091DC6F79D28}"/>
+    <hyperlink ref="J102" r:id="rId577" xr:uid="{71E96238-5863-455B-9FCD-19D01415FA0C}"/>
+    <hyperlink ref="J108" r:id="rId578" xr:uid="{186CD8AA-AA0A-4DE9-9F82-7FFE6DC6C0A6}"/>
+    <hyperlink ref="J129" r:id="rId579" xr:uid="{5FB36AFB-D500-463C-9BC8-1CA949F3F3C3}"/>
+    <hyperlink ref="J157" r:id="rId580" xr:uid="{EF9F645C-C222-456A-93F1-584E7AEF8C9D}"/>
+    <hyperlink ref="J168" r:id="rId581" xr:uid="{5ED9428D-3298-4256-AE3D-8E366AA76666}"/>
+    <hyperlink ref="J171" r:id="rId582" xr:uid="{56AECCC8-2D4B-47E5-ABB0-1F851F26961E}"/>
+    <hyperlink ref="J187" r:id="rId583" xr:uid="{C34D3827-C41F-4E8A-90AF-DD5C240600C9}"/>
+    <hyperlink ref="J188" r:id="rId584" xr:uid="{97794EA4-0CDE-4E61-9CDF-786B4CD25F35}"/>
+    <hyperlink ref="J202" r:id="rId585" xr:uid="{32129AB8-7D79-41CA-B6F2-35C086EDC050}"/>
+    <hyperlink ref="J206" r:id="rId586" xr:uid="{8CE63CE9-2425-44ED-A379-72BB43163B28}"/>
+    <hyperlink ref="J105" r:id="rId587" xr:uid="{3056F1C3-68FD-49B4-BA2B-6FE3E7210128}"/>
+    <hyperlink ref="J163" r:id="rId588" xr:uid="{893AF3AC-87A2-4687-89A5-81BE72A1A6ED}"/>
+    <hyperlink ref="J149" r:id="rId589" xr:uid="{F2BC2D3E-7F41-43E7-8F0F-295DD87E7050}"/>
+    <hyperlink ref="J98" r:id="rId590" xr:uid="{672FBCF5-FBF1-47FD-9695-8681FD7ECF98}"/>
+    <hyperlink ref="J265" r:id="rId591" xr:uid="{DB442883-1BF2-4B1B-8C4C-2E12EE5D1E6C}"/>
+    <hyperlink ref="H6" r:id="rId592" xr:uid="{176C6862-1A2B-4D0B-8603-08C75A629813}"/>
+    <hyperlink ref="H24" r:id="rId593" xr:uid="{3D157453-D997-418E-8098-89F8F9F713B3}"/>
+    <hyperlink ref="H25" r:id="rId594" xr:uid="{769C3A54-5DBD-4114-B82F-67F269A92406}"/>
+    <hyperlink ref="H31" r:id="rId595" xr:uid="{AD3E0558-5F92-4330-AB87-3CAEE5FA4119}"/>
+    <hyperlink ref="H40" r:id="rId596" xr:uid="{1EAB44A5-52CB-4507-B33D-AAFD0CC7DE8B}"/>
+    <hyperlink ref="H48" r:id="rId597" xr:uid="{197379B2-ED3F-40DA-9402-A7A2294F2190}"/>
+    <hyperlink ref="H61" r:id="rId598" xr:uid="{C05BD894-F013-4834-8ACA-86A46D8DB749}"/>
+    <hyperlink ref="H76" r:id="rId599" xr:uid="{088DBC73-AFB4-49A6-B6E9-A02D6C1A4DFE}"/>
+    <hyperlink ref="H79" r:id="rId600" xr:uid="{90C29FF1-992E-4FB3-AC5D-9CCAC759DE48}"/>
+    <hyperlink ref="H89" r:id="rId601" xr:uid="{D3CFE476-9F68-4298-8698-7674E2CF89D4}"/>
+    <hyperlink ref="G94" r:id="rId602" xr:uid="{275708E7-A7F5-4385-8842-14A1669AC46B}"/>
+    <hyperlink ref="H94" r:id="rId603" xr:uid="{F1FEA142-2CC9-4031-B493-3B3256710FCB}"/>
+    <hyperlink ref="H97" r:id="rId604" xr:uid="{11071724-356F-41F5-B63A-9463A02DA6FB}"/>
+    <hyperlink ref="H111" r:id="rId605" xr:uid="{E548373D-38B4-4969-A85E-E511DC8AC831}"/>
+    <hyperlink ref="H120" r:id="rId606" xr:uid="{1EE4F9BE-C0AE-4DEF-9F07-D8C3A384B324}"/>
+    <hyperlink ref="H148" r:id="rId607" xr:uid="{1B8E798A-29B7-4063-9918-3D04E1086345}"/>
+    <hyperlink ref="G173" r:id="rId608" xr:uid="{C2B488C7-94E1-449F-B3C1-C9672DCCF701}"/>
+    <hyperlink ref="H173" r:id="rId609" xr:uid="{8DAB39A2-462F-44AB-BC10-0E016FE55E2D}"/>
+    <hyperlink ref="H181" r:id="rId610" xr:uid="{7F68B8E4-F15E-4850-B38B-AB9EF896B485}"/>
+    <hyperlink ref="H183" r:id="rId611" xr:uid="{1CF053EA-2B20-4F41-99D3-D591FE078947}"/>
+    <hyperlink ref="H193" r:id="rId612" xr:uid="{06E03B82-BFB5-4C99-880C-0BB47948CB43}"/>
+    <hyperlink ref="H197" r:id="rId613" xr:uid="{B1187FB1-F498-4817-9953-21F20740E590}"/>
+    <hyperlink ref="F271" r:id="rId614" xr:uid="{C9DCE3E7-7873-4E77-8E81-9C47625E47C9}"/>
+    <hyperlink ref="G271" r:id="rId615" xr:uid="{D0828B90-FE96-4C96-93DC-E9F907E9503D}"/>
+    <hyperlink ref="H271" r:id="rId616" xr:uid="{0712BDF9-E316-49CB-864F-D3E80E93A414}"/>
+    <hyperlink ref="F272" r:id="rId617" xr:uid="{8CA5AF85-98F5-469C-BA04-5445238A5E2E}"/>
+    <hyperlink ref="G272" r:id="rId618" xr:uid="{8A83AB93-616E-42D6-B30A-940F233F4BD8}"/>
+    <hyperlink ref="H272" r:id="rId619" xr:uid="{AA96105B-E839-4778-9E27-18D0FF99AF38}"/>
+    <hyperlink ref="F273" r:id="rId620" xr:uid="{58C5E826-3811-400D-8B7C-364EC39BF8BA}"/>
+    <hyperlink ref="G273" r:id="rId621" xr:uid="{F2DE98B2-1F72-4D54-8590-D7B8D109B222}"/>
+    <hyperlink ref="H273" r:id="rId622" xr:uid="{DA35DA3E-75AE-4D3A-961D-7AEAB5860EB6}"/>
+    <hyperlink ref="F274" r:id="rId623" xr:uid="{93151733-1C86-4901-95E2-13A92ABAB12B}"/>
+    <hyperlink ref="G274" r:id="rId624" xr:uid="{46F856BC-8818-4B65-82B0-AA5485AAD8A2}"/>
+    <hyperlink ref="H274" r:id="rId625" xr:uid="{96813973-151A-4D54-B697-0B52A48B9684}"/>
+    <hyperlink ref="F275" r:id="rId626" xr:uid="{273BBC63-9B68-4208-98AC-913205908B18}"/>
+    <hyperlink ref="G275" r:id="rId627" xr:uid="{0183A9F9-0651-47C2-8900-5D913C931A12}"/>
+    <hyperlink ref="H275" r:id="rId628" xr:uid="{5C4997C9-8793-4F09-B742-DDCE395243F8}"/>
+    <hyperlink ref="F276" r:id="rId629" xr:uid="{9411CE8A-F54B-470A-9ADC-63B40310D1A3}"/>
+    <hyperlink ref="G276" r:id="rId630" xr:uid="{F05F8851-B92A-42AC-83E9-822F67329DFA}"/>
+    <hyperlink ref="H276" r:id="rId631" xr:uid="{81B290E9-C3F1-4494-9959-3161A7D5AE7F}"/>
+    <hyperlink ref="F277" r:id="rId632" xr:uid="{146C3D7D-D09B-4E01-8678-ED32089DF083}"/>
+    <hyperlink ref="G277" r:id="rId633" xr:uid="{FDC5218E-F86E-45E2-BAAB-997DFDFD0A99}"/>
+    <hyperlink ref="H277" r:id="rId634" xr:uid="{CC2C789A-D116-40D2-B433-0EEFBD5E9701}"/>
+    <hyperlink ref="F278" r:id="rId635" xr:uid="{21F8FA53-85D7-4F8E-B6D1-5CD62F5E25FC}"/>
+    <hyperlink ref="G278" r:id="rId636" xr:uid="{0D678289-E9A3-42CF-B8A8-3774241AEA9C}"/>
+    <hyperlink ref="H278" r:id="rId637" xr:uid="{0136375C-8C6B-42D4-913D-462F5AAC4EA8}"/>
+    <hyperlink ref="F279" r:id="rId638" xr:uid="{5B74805C-A15A-465C-893F-3A0AEF94E96C}"/>
+    <hyperlink ref="G279" r:id="rId639" xr:uid="{C4E99094-31FD-4FC5-98CE-51B752A46BFB}"/>
+    <hyperlink ref="H279" r:id="rId640" xr:uid="{9BEB1A14-66FF-4BF8-B6F4-1779C35761BD}"/>
+    <hyperlink ref="F280" r:id="rId641" xr:uid="{3DB42F7C-C28A-4984-8688-5486405F03A5}"/>
+    <hyperlink ref="G280" r:id="rId642" xr:uid="{FC20C8CB-094C-4CC9-9D6E-8B74E81D2CD9}"/>
+    <hyperlink ref="H280" r:id="rId643" xr:uid="{1F6C4CCC-432B-46DB-9D5A-C39EB8F0ADE4}"/>
+    <hyperlink ref="F281" r:id="rId644" xr:uid="{750BD0F7-0039-4226-95B7-7D75C6DC9187}"/>
+    <hyperlink ref="G281" r:id="rId645" xr:uid="{3134928A-8372-4C3D-8C25-1C52C6644493}"/>
+    <hyperlink ref="H281" r:id="rId646" xr:uid="{A9ECEB9C-51BA-4654-9B26-37DDA49685F5}"/>
+    <hyperlink ref="I281" r:id="rId647" xr:uid="{6A8E043B-26BB-4104-8026-DE2F1C54220E}"/>
+    <hyperlink ref="J281" r:id="rId648" xr:uid="{4D66A959-B067-4F98-A7FA-0FA047C0D0D9}"/>
+    <hyperlink ref="F282" r:id="rId649" xr:uid="{F6B8416A-EC53-49B8-8151-A7DFA1BF4A1E}"/>
+    <hyperlink ref="G282" r:id="rId650" xr:uid="{0322ED6A-20BE-4C03-938E-2E2F953A0C0D}"/>
+    <hyperlink ref="H282" r:id="rId651" xr:uid="{D9330B43-4ECC-41B5-9F10-6808B504CB25}"/>
+    <hyperlink ref="F283" r:id="rId652" xr:uid="{DB191819-6495-4DDB-9B62-C17CD43658A1}"/>
+    <hyperlink ref="G283" r:id="rId653" xr:uid="{29C73C3F-7439-47A8-B503-56B1181245F8}"/>
+    <hyperlink ref="H283" r:id="rId654" xr:uid="{EF36C57A-3CF3-4934-87AA-AB852C1349EC}"/>
+    <hyperlink ref="F284" r:id="rId655" xr:uid="{879083A8-6728-4BC4-A442-5E9404990829}"/>
+    <hyperlink ref="G284" r:id="rId656" xr:uid="{E81D8F9E-6305-4148-909F-CC23B16CD22E}"/>
+    <hyperlink ref="H284" r:id="rId657" xr:uid="{1626CCFB-AF8A-4215-BD9B-1AB2647081E1}"/>
+    <hyperlink ref="F285" r:id="rId658" xr:uid="{CAF3C85D-D665-4388-ADF1-13F0D7EE8578}"/>
+    <hyperlink ref="G285" r:id="rId659" xr:uid="{45D1EB5B-4A05-425A-835A-53B3F3C41EDC}"/>
+    <hyperlink ref="H285" r:id="rId660" xr:uid="{D6C18DF0-C1D9-4133-84C1-E8520A511DC2}"/>
+    <hyperlink ref="F286" r:id="rId661" xr:uid="{FF323097-48DE-44B8-A1F1-10332A9BADAA}"/>
+    <hyperlink ref="G286" r:id="rId662" xr:uid="{CA1FF121-95D4-4752-BD21-69C8B946265C}"/>
+    <hyperlink ref="H286" r:id="rId663" xr:uid="{8B9321E1-666A-48F7-8587-2B3A9B442E54}"/>
+    <hyperlink ref="F287" r:id="rId664" xr:uid="{586DADED-96DE-4C9A-903C-28FA59A925D0}"/>
+    <hyperlink ref="G287" r:id="rId665" xr:uid="{A366EB2F-CA0D-42C7-A600-79D2FEBC3C93}"/>
+    <hyperlink ref="H287" r:id="rId666" xr:uid="{D3BDDB1C-DBD3-4E92-BD0A-53F4CC4C04ED}"/>
+    <hyperlink ref="F288" r:id="rId667" xr:uid="{81343FBE-E65A-422C-AF0E-4C3AE6793083}"/>
+    <hyperlink ref="G288" r:id="rId668" xr:uid="{CBAFFB5D-760D-4AB2-B52C-A9CF8218DE40}"/>
+    <hyperlink ref="H288" r:id="rId669" xr:uid="{EE2E839D-92A3-4F0A-8D32-3E8A81F36AA4}"/>
+    <hyperlink ref="F289" r:id="rId670" xr:uid="{92543641-491A-4450-974A-8072614BBD77}"/>
+    <hyperlink ref="G289" r:id="rId671" xr:uid="{1017C65D-5952-4F94-B326-54851C5839D9}"/>
+    <hyperlink ref="H289" r:id="rId672" xr:uid="{35631DF0-DEE2-487B-9FE3-EDF524EF985C}"/>
+    <hyperlink ref="F290" r:id="rId673" xr:uid="{C59215FE-ABB1-4C8C-A0EC-C4514078867A}"/>
+    <hyperlink ref="G290" r:id="rId674" xr:uid="{08D02FF9-68C7-4C88-818D-043BDFE86F6E}"/>
+    <hyperlink ref="H290" r:id="rId675" xr:uid="{AB22499D-9629-4135-9EDE-88BFAD66C765}"/>
+    <hyperlink ref="F291" r:id="rId676" xr:uid="{42E0CA48-BB1A-4CCE-9478-A67D6E6C1B3E}"/>
+    <hyperlink ref="G291" r:id="rId677" xr:uid="{673AC1E3-2B90-403C-8C78-EDE0165AB17C}"/>
+    <hyperlink ref="H291" r:id="rId678" xr:uid="{58C1CF6E-FA47-4C01-BFD5-58FCE4BE61DF}"/>
+    <hyperlink ref="F292" r:id="rId679" xr:uid="{460E1973-3D7A-49C8-8104-43A39EA7374C}"/>
+    <hyperlink ref="G292" r:id="rId680" xr:uid="{C79FCDA9-68A5-4D56-9314-06ACAB45D77A}"/>
+    <hyperlink ref="H292" r:id="rId681" xr:uid="{ABD50DA7-C32F-4B79-9D88-FE6E57C116FF}"/>
+    <hyperlink ref="F293" r:id="rId682" xr:uid="{E30AF31D-6130-40CE-BEFB-674D5D4783C0}"/>
+    <hyperlink ref="G293" r:id="rId683" xr:uid="{04716AC3-053E-4A35-AA59-220E432F8DA4}"/>
+    <hyperlink ref="H293" r:id="rId684" xr:uid="{82D444BA-FCFB-4062-9059-FBC157D106B6}"/>
+    <hyperlink ref="F294" r:id="rId685" xr:uid="{D38C1ADC-F7E6-48D7-B1E7-FD89577830EF}"/>
+    <hyperlink ref="G294" r:id="rId686" xr:uid="{12FB7D4E-3B64-407F-A78E-9142A0F9A945}"/>
+    <hyperlink ref="H294" r:id="rId687" xr:uid="{C3D40E90-EA5E-490B-8228-361AA11472ED}"/>
+    <hyperlink ref="F295" r:id="rId688" xr:uid="{44EB926A-6367-4B55-8DD4-81DB7CBE5D08}"/>
+    <hyperlink ref="G295" r:id="rId689" xr:uid="{ACB252AB-C434-4AB7-A3FE-B4958A40712D}"/>
+    <hyperlink ref="H295" r:id="rId690" xr:uid="{F41B58EC-5F08-48D3-9258-50F5D82C3994}"/>
+    <hyperlink ref="F296" r:id="rId691" xr:uid="{91DC10A4-58AB-4816-9282-9424C1ED52A7}"/>
+    <hyperlink ref="G296" r:id="rId692" xr:uid="{926BD1B5-EC5F-4E49-802E-87DC68C67BAD}"/>
+    <hyperlink ref="H296" r:id="rId693" xr:uid="{74828C29-41EB-4835-BCCC-BB38FB0BEE7E}"/>
+    <hyperlink ref="F297" r:id="rId694" xr:uid="{A57F1CC3-A35A-4426-903E-E413A90C2AD5}"/>
+    <hyperlink ref="G297" r:id="rId695" xr:uid="{E6510140-273C-4127-9586-F559FDE04BD7}"/>
+    <hyperlink ref="H297" r:id="rId696" xr:uid="{73477446-0737-4EF4-8834-FFCE3CEC2817}"/>
+    <hyperlink ref="F298" r:id="rId697" xr:uid="{65D8E38E-B3B4-4CD2-A60E-C4D416BAF732}"/>
+    <hyperlink ref="G298" r:id="rId698" xr:uid="{FEFE22C8-3FBB-4F45-BBC9-2DEA711884F7}"/>
+    <hyperlink ref="H298" r:id="rId699" xr:uid="{20ED6621-6416-4F01-804A-D92BB2E253CE}"/>
+    <hyperlink ref="F299" r:id="rId700" xr:uid="{4098C36E-B3A1-4A16-83D5-F3721D3CC356}"/>
+    <hyperlink ref="G299" r:id="rId701" xr:uid="{64537CA2-01AA-4170-A4EA-A70E633499C0}"/>
+    <hyperlink ref="H299" r:id="rId702" xr:uid="{4D56D057-6BFF-4BE3-B590-11F5E685A459}"/>
+    <hyperlink ref="F300" r:id="rId703" xr:uid="{31BD11F4-3C3A-46AF-9E25-6BEBE6DA507D}"/>
+    <hyperlink ref="G300" r:id="rId704" xr:uid="{80384F50-5E30-41D2-95E6-CA0FAD87D0AB}"/>
+    <hyperlink ref="H300" r:id="rId705" xr:uid="{F8F934B7-5E5B-493D-87EF-F2CEB9F18E79}"/>
+    <hyperlink ref="G63" r:id="rId706" xr:uid="{A860FADC-2AA6-410F-80E2-FB77DF39BBAD}"/>
+    <hyperlink ref="G239" r:id="rId707" xr:uid="{8A841F73-B635-497F-A66B-CE933744436B}"/>
+    <hyperlink ref="F301" r:id="rId708" xr:uid="{183028FC-790A-444C-8782-C430EAD41FBC}"/>
+    <hyperlink ref="G301" r:id="rId709" xr:uid="{AC3E11CC-9B5E-4B23-A069-4C413F766004}"/>
+    <hyperlink ref="H301" r:id="rId710" xr:uid="{1D73C390-F3A0-49F9-9A84-D9808B4E51FB}"/>
+    <hyperlink ref="F302" r:id="rId711" xr:uid="{B96ADCB1-9F2F-4088-9A15-720E1C057228}"/>
+    <hyperlink ref="G302" r:id="rId712" xr:uid="{3B196D0E-0AB7-49C8-9B82-8398BD6E43C5}"/>
+    <hyperlink ref="H302" r:id="rId713" xr:uid="{FEE8A0E2-FBA6-44B9-B38D-7BC4DF71B817}"/>
+    <hyperlink ref="F303" r:id="rId714" xr:uid="{AB45ADCD-0EF2-4641-A3FD-D21F47659E51}"/>
+    <hyperlink ref="G303" r:id="rId715" xr:uid="{3D06D7E9-8A99-49B8-BA90-74D7C20E3749}"/>
+    <hyperlink ref="H303" r:id="rId716" xr:uid="{9751A50A-1A0A-498F-89F3-C2FDE8539746}"/>
+    <hyperlink ref="F304" r:id="rId717" xr:uid="{13907297-673A-4D53-A00D-91DC7BB93A8C}"/>
+    <hyperlink ref="G304" r:id="rId718" xr:uid="{A86FBB18-DDD4-4D8F-B616-D4C77D8B12BA}"/>
+    <hyperlink ref="H304" r:id="rId719" xr:uid="{ED60E192-02F4-4FFA-AECD-F79137AC4AC9}"/>
+    <hyperlink ref="F305" r:id="rId720" xr:uid="{C4BA5B78-B1BE-4311-8F68-E66A53D1842E}"/>
+    <hyperlink ref="G305" r:id="rId721" xr:uid="{7FD5B296-F2F9-4805-8ABE-7BB35FD9D798}"/>
+    <hyperlink ref="H305" r:id="rId722" xr:uid="{FB93A1AE-7787-4DE2-92FE-576850814389}"/>
+    <hyperlink ref="F306" r:id="rId723" xr:uid="{502ED552-6A70-4E05-9B78-8BB7C40D79B7}"/>
+    <hyperlink ref="G306" r:id="rId724" xr:uid="{2C81645B-01BB-4B38-BD54-3679FC264AE0}"/>
+    <hyperlink ref="H306" r:id="rId725" xr:uid="{44BC8DE8-479E-4D83-BB3E-FF64119E82E0}"/>
+    <hyperlink ref="F307" r:id="rId726" xr:uid="{A2876857-2B07-4720-B579-8A4E20AD4C31}"/>
+    <hyperlink ref="G307" r:id="rId727" xr:uid="{CD90B99A-7B05-4CE0-9F4C-84B2EE8BC74C}"/>
+    <hyperlink ref="H307" r:id="rId728" xr:uid="{A0D7F291-6DEE-44D7-B945-D6C0CF188FF6}"/>
+    <hyperlink ref="F308" r:id="rId729" xr:uid="{E2EA7897-FE25-4134-83AC-ABA82A029600}"/>
+    <hyperlink ref="G308" r:id="rId730" xr:uid="{0371E68A-EFD7-4CBD-ABBF-793B9D3B6282}"/>
+    <hyperlink ref="H308" r:id="rId731" xr:uid="{9532103B-841B-4B76-B936-57F5A4784659}"/>
+    <hyperlink ref="F309" r:id="rId732" xr:uid="{AC4201E5-964F-4E41-BADD-DE3C62E7150C}"/>
+    <hyperlink ref="G309" r:id="rId733" xr:uid="{560AA62A-1D4C-4E5C-A5A9-C334FA87FF45}"/>
+    <hyperlink ref="H309" r:id="rId734" xr:uid="{6423BBA3-E72A-44EF-ABD7-9F4657D29BA1}"/>
+    <hyperlink ref="F310" r:id="rId735" xr:uid="{6F4B009A-1C7C-44BB-8AF3-F31511E4B9A7}"/>
+    <hyperlink ref="G310" r:id="rId736" xr:uid="{37AF9731-8FCA-4F1A-BA3B-0077877F1030}"/>
+    <hyperlink ref="H310" r:id="rId737" xr:uid="{7B97644E-0D27-4DFD-9F79-157C4F84846C}"/>
+    <hyperlink ref="F311" r:id="rId738" xr:uid="{6EB64C34-02F4-4CAB-96AC-364C9523614A}"/>
+    <hyperlink ref="G311" r:id="rId739" xr:uid="{5BC77779-F22E-427D-AB5A-681762574E00}"/>
+    <hyperlink ref="H311" r:id="rId740" xr:uid="{17EEC316-6CDF-48B6-A29C-A541784EF18A}"/>
+    <hyperlink ref="F312" r:id="rId741" xr:uid="{DD97752D-4022-44D6-B36A-23B6D8BF3865}"/>
+    <hyperlink ref="G312" r:id="rId742" xr:uid="{17AB6675-94DF-493D-B3B9-8406072AACCA}"/>
+    <hyperlink ref="H312" r:id="rId743" xr:uid="{F0B67F85-EF85-439B-8486-4B18E5D4473C}"/>
+    <hyperlink ref="F313" r:id="rId744" xr:uid="{52D7CD22-8AC0-47F6-A298-5A6886952159}"/>
+    <hyperlink ref="G313" r:id="rId745" xr:uid="{BA53A26F-342E-4960-BB0B-FF705C1B7033}"/>
+    <hyperlink ref="H313" r:id="rId746" xr:uid="{73B6EBB9-4932-44FF-8729-D594BED183B2}"/>
+    <hyperlink ref="F314" r:id="rId747" xr:uid="{365057D4-2A34-4A3E-8A7F-94B9F9CDC3D6}"/>
+    <hyperlink ref="G314" r:id="rId748" xr:uid="{FFC72F6A-AB2C-4105-B8B3-3B8CDCAE4C26}"/>
+    <hyperlink ref="H314" r:id="rId749" xr:uid="{1D63FB2E-C6F3-4FE4-B8E1-1E84723C8CBD}"/>
+    <hyperlink ref="F315" r:id="rId750" xr:uid="{8B74CE73-E4EE-4E29-A442-B95BE3A42258}"/>
+    <hyperlink ref="G315" r:id="rId751" xr:uid="{F21977A4-BDDE-4642-8B09-5365A93D5CCD}"/>
+    <hyperlink ref="H315" r:id="rId752" xr:uid="{3767FDAC-E2A8-431A-9859-FEAF31B2703D}"/>
+    <hyperlink ref="F316" r:id="rId753" xr:uid="{113A5CB2-5BED-4328-9E63-E6A6838ABDEA}"/>
+    <hyperlink ref="G316" r:id="rId754" xr:uid="{1926BF1B-EE78-4947-B98B-E67F0181D5E8}"/>
+    <hyperlink ref="H316" r:id="rId755" xr:uid="{9699A348-7699-424D-9225-55C91C8C3325}"/>
+    <hyperlink ref="F317" r:id="rId756" xr:uid="{083B7D20-275F-454F-8DA4-EB5452247228}"/>
+    <hyperlink ref="G317" r:id="rId757" xr:uid="{7F4252B2-35CB-4B6C-8077-53DD8C5D65A4}"/>
+    <hyperlink ref="H317" r:id="rId758" xr:uid="{8C8D41E5-F63A-4B7E-A2E8-26EFA801E212}"/>
+    <hyperlink ref="F318" r:id="rId759" xr:uid="{2A3827DC-5C52-49C7-A758-97D75425C459}"/>
+    <hyperlink ref="G318" r:id="rId760" xr:uid="{0AF23C53-35A7-416E-B5EE-5B190FC25180}"/>
+    <hyperlink ref="H318" r:id="rId761" xr:uid="{511526EB-23D6-4405-B8A9-B38DE20900E8}"/>
+    <hyperlink ref="F319" r:id="rId762" xr:uid="{9588F379-2821-481C-960F-507C6BC538D5}"/>
+    <hyperlink ref="G319" r:id="rId763" xr:uid="{918EC857-2EE3-4FF2-9377-4C6E1DE6A505}"/>
+    <hyperlink ref="H319" r:id="rId764" xr:uid="{BCE5EFED-7888-4DAB-9B86-5BCECD928B6E}"/>
+    <hyperlink ref="F320" r:id="rId765" xr:uid="{A6E2E570-4F0E-4523-8807-E2F12761493F}"/>
+    <hyperlink ref="G320" r:id="rId766" xr:uid="{6862CC05-5159-4452-A790-CB9527FA998F}"/>
+    <hyperlink ref="H320" r:id="rId767" xr:uid="{F2093DF3-5046-4249-9A27-30B3EE671F46}"/>
+    <hyperlink ref="F321" r:id="rId768" xr:uid="{01F0706E-D4E2-435B-954C-373628254254}"/>
+    <hyperlink ref="G321" r:id="rId769" xr:uid="{DD703CF6-93CF-4786-8CC8-961395B1D546}"/>
+    <hyperlink ref="H321" r:id="rId770" xr:uid="{AA4D6E0C-CE09-42A0-B06A-66400D21BB6B}"/>
+    <hyperlink ref="F322" r:id="rId771" xr:uid="{905F1A51-6DEE-4794-881B-ADA92A22F3E0}"/>
+    <hyperlink ref="G322" r:id="rId772" xr:uid="{2707AD72-8EB5-40EC-9D01-CCBEAABD473E}"/>
+    <hyperlink ref="H322" r:id="rId773" xr:uid="{528D779C-138A-42BC-997A-5CE89C41BF08}"/>
+    <hyperlink ref="F323" r:id="rId774" xr:uid="{1614313F-963E-48D9-8819-22D1041833F0}"/>
+    <hyperlink ref="G323" r:id="rId775" xr:uid="{9A0C176D-9903-4D88-848D-4387017AB3CB}"/>
+    <hyperlink ref="H323" r:id="rId776" xr:uid="{57574C0D-DF78-4400-928F-1072E4DEC3A8}"/>
+    <hyperlink ref="F324" r:id="rId777" xr:uid="{E1F54384-C55F-402F-BB04-CF7E396E43FD}"/>
+    <hyperlink ref="G324" r:id="rId778" xr:uid="{7327E7AE-9297-4918-A8B3-9573C18D996D}"/>
+    <hyperlink ref="H324" r:id="rId779" xr:uid="{376EE72E-95DC-4014-8CDB-1889167FD494}"/>
+    <hyperlink ref="G325" r:id="rId780" xr:uid="{4C65B51A-E230-46DF-9418-4BA09EFD2159}"/>
+    <hyperlink ref="F325" r:id="rId781" xr:uid="{3CF58FD8-4F84-4A70-A69A-F9A61222A8AD}"/>
+    <hyperlink ref="H325" r:id="rId782" xr:uid="{5B54063F-B703-4EC6-A252-C05EBBF849AD}"/>
+    <hyperlink ref="I325" r:id="rId783" xr:uid="{138123B9-7D8A-4C9E-BDF4-9F46B8E70A05}"/>
+    <hyperlink ref="J325" r:id="rId784" xr:uid="{4677B897-9034-4B57-AEC0-14A853C3DE4A}"/>
+    <hyperlink ref="F326" r:id="rId785" xr:uid="{F38947BA-FF64-4EC9-ADD0-A3B18566A478}"/>
+    <hyperlink ref="G326" r:id="rId786" xr:uid="{0E056D89-D485-4011-B240-85CADE2D0338}"/>
+    <hyperlink ref="H326" r:id="rId787" xr:uid="{603A4B90-7671-47DA-85F3-BDB3AB80C04A}"/>
+    <hyperlink ref="F327" r:id="rId788" xr:uid="{0558D278-080F-484B-9817-03DFA371A44E}"/>
+    <hyperlink ref="G327" r:id="rId789" xr:uid="{E81CCD3D-EB83-4A13-87C3-8B4C806B6D86}"/>
+    <hyperlink ref="H327" r:id="rId790" xr:uid="{89EECFAF-F393-49E8-9C92-6D3513E7E092}"/>
+    <hyperlink ref="F328" r:id="rId791" xr:uid="{25860445-0E3F-4568-852E-933D217C47F7}"/>
+    <hyperlink ref="G328" r:id="rId792" xr:uid="{C4C8A6F4-AEB7-4FE8-85E8-5B40E470E82D}"/>
+    <hyperlink ref="H328" r:id="rId793" xr:uid="{DDA391C6-6619-4FC6-B82E-46EBE3392BA4}"/>
+    <hyperlink ref="F329" r:id="rId794" xr:uid="{B873625E-358C-40BD-AC6F-7260180D6E3B}"/>
+    <hyperlink ref="G329" r:id="rId795" xr:uid="{FD942D7B-054A-4A02-A3BA-9BEDD74DB65F}"/>
+    <hyperlink ref="H329" r:id="rId796" xr:uid="{C6EA97D5-3DAA-4F86-ACAB-3EAC546CDB14}"/>
+    <hyperlink ref="F330" r:id="rId797" xr:uid="{9B07AAF4-0905-4A2B-A766-9AA00C3A590B}"/>
+    <hyperlink ref="G330" r:id="rId798" xr:uid="{6B4CEA8F-8251-4CDE-B071-0BEBB6D72F25}"/>
+    <hyperlink ref="H330" r:id="rId799" xr:uid="{6CF3313D-7FF8-4268-81F5-9EEAD6F1157D}"/>
+    <hyperlink ref="I330" r:id="rId800" xr:uid="{D369B37E-8F10-43AC-BE1B-8870DF612D86}"/>
+    <hyperlink ref="J330" r:id="rId801" xr:uid="{D6426AD2-168B-4375-B131-2942DB185CB8}"/>
+    <hyperlink ref="F331" r:id="rId802" xr:uid="{250447E0-48CF-4801-9E28-BDCAC0BEC011}"/>
+    <hyperlink ref="G331" r:id="rId803" xr:uid="{803C05F0-4628-4C9C-ABCD-69E4A34C79A2}"/>
+    <hyperlink ref="H331" r:id="rId804" xr:uid="{B7518DC2-40FF-4426-85F3-4E47344FFFE2}"/>
+    <hyperlink ref="I331" r:id="rId805" xr:uid="{D62EB732-E8D6-46A3-B212-EED669B33F5C}"/>
+    <hyperlink ref="J331" r:id="rId806" xr:uid="{8ADD513F-E939-4F56-8FBE-164471B68A6D}"/>
+    <hyperlink ref="F332" r:id="rId807" xr:uid="{74E8F8C9-702A-468E-B159-E77D4EFF97A4}"/>
+    <hyperlink ref="G332" r:id="rId808" xr:uid="{D0D91EA7-1B47-4398-9514-0AD37EA5F01E}"/>
+    <hyperlink ref="G62" r:id="rId809" xr:uid="{BA266408-3FD2-461F-9060-A2C67BD877BF}"/>
+    <hyperlink ref="H62" r:id="rId810" xr:uid="{44A2CA7F-84CF-4E82-8A5C-60CE401C74CC}"/>
+    <hyperlink ref="H332" r:id="rId811" xr:uid="{B6E8A52E-5287-4769-8D1B-7CFF4D83FBED}"/>
+    <hyperlink ref="F333" r:id="rId812" xr:uid="{B6DC53F8-5562-4905-AD9E-6A9964501380}"/>
+    <hyperlink ref="G333" r:id="rId813" xr:uid="{C4165207-BEDB-4BAD-8B7F-884C70CB78A3}"/>
+    <hyperlink ref="H333" r:id="rId814" xr:uid="{5A7C9B60-B393-4B4B-8B12-BF49CB86081B}"/>
+    <hyperlink ref="I333" r:id="rId815" xr:uid="{B53B1C69-55C7-4BC5-8BA7-BB790FB6D3FC}"/>
+    <hyperlink ref="J333" r:id="rId816" xr:uid="{E44233FD-ED3C-4801-8EB7-BA03BEE274E5}"/>
+    <hyperlink ref="F334" r:id="rId817" xr:uid="{B4537D0A-9331-4D3B-9DF8-7D82E5E02E49}"/>
+    <hyperlink ref="G334" r:id="rId818" xr:uid="{E92570D9-B4E6-4DA6-B902-2F7B4391C00C}"/>
+    <hyperlink ref="H334" r:id="rId819" xr:uid="{6250A692-F7A3-4055-82F9-71E1202303D0}"/>
+    <hyperlink ref="I334" r:id="rId820" xr:uid="{EE511326-AEFE-4DA6-BADB-371A1170B8F0}"/>
+    <hyperlink ref="J334" r:id="rId821" xr:uid="{12802A15-ABB2-4E94-8908-6EEFB3FD19A7}"/>
+    <hyperlink ref="F335" r:id="rId822" xr:uid="{26854F14-F951-49D0-AA2F-4EBDBE8BA018}"/>
+    <hyperlink ref="G335" r:id="rId823" xr:uid="{45066090-9396-4C83-835C-34A89DDCEE53}"/>
+    <hyperlink ref="I335" r:id="rId824" xr:uid="{6D1DA49D-1D42-4D75-A815-1399E2801C33}"/>
+    <hyperlink ref="H335" r:id="rId825" xr:uid="{15056427-3CD0-47DB-88FF-EE9F197A54C8}"/>
+    <hyperlink ref="J335" r:id="rId826" xr:uid="{7DBF0C82-30FB-48E9-BD89-F7C7695F76C0}"/>
+    <hyperlink ref="F336" r:id="rId827" xr:uid="{95405499-64C0-4E66-8037-B99899F91316}"/>
+    <hyperlink ref="G336" r:id="rId828" xr:uid="{1715F49D-8379-4AD8-8637-64895569519A}"/>
+    <hyperlink ref="H336" r:id="rId829" xr:uid="{0ADBBC34-E1FD-47BF-857C-3870634EC861}"/>
+    <hyperlink ref="I336" r:id="rId830" xr:uid="{553350E6-835D-4FA6-ACDB-7D325F930023}"/>
+    <hyperlink ref="J336" r:id="rId831" xr:uid="{1172B151-B229-481B-AA0A-0D8E6FAB68D9}"/>
+    <hyperlink ref="F337" r:id="rId832" xr:uid="{5E3516E8-5D93-4553-B3E7-3708CCA4175E}"/>
+    <hyperlink ref="G337" r:id="rId833" xr:uid="{AB2F46D3-1E0E-4BDE-BEAC-F25EDA10AE51}"/>
+    <hyperlink ref="H337" r:id="rId834" xr:uid="{8F3F62C8-D931-4DDF-80E2-FAD2523A09A2}"/>
+    <hyperlink ref="I337" r:id="rId835" xr:uid="{81ADA463-6AF8-4FE4-9637-0AD654B95E48}"/>
+    <hyperlink ref="J337" r:id="rId836" xr:uid="{A706C841-8592-47A7-996B-63ACE12F16F5}"/>
+    <hyperlink ref="F338" r:id="rId837" xr:uid="{C30081F3-3F7E-4F46-8512-D87BE171DEA4}"/>
+    <hyperlink ref="G338" r:id="rId838" xr:uid="{E2704ECF-B955-45D3-93AD-5A98D9FF92ED}"/>
+    <hyperlink ref="H338" r:id="rId839" xr:uid="{65040649-C1E4-4E3F-9226-9E7D1AB992B7}"/>
+    <hyperlink ref="I338" r:id="rId840" xr:uid="{3A01FD6F-6338-4F61-9ADC-3CEA13CE61FF}"/>
+    <hyperlink ref="J338" r:id="rId841" xr:uid="{D3B19A02-E814-4609-86F0-75CEA8B36A9D}"/>
+    <hyperlink ref="F339" r:id="rId842" xr:uid="{03F6A4F1-196C-4B24-97C9-03F32B3436E0}"/>
+    <hyperlink ref="G339" r:id="rId843" xr:uid="{C864DD25-A5D6-4C9B-BEB8-E3B37858D00D}"/>
+    <hyperlink ref="H339" r:id="rId844" xr:uid="{4D34592B-64E1-4331-9BA1-51168D303685}"/>
+    <hyperlink ref="I339" r:id="rId845" xr:uid="{30EE53AB-A6B1-4495-9E48-ECB17A256247}"/>
+    <hyperlink ref="J339" r:id="rId846" xr:uid="{B8549DFD-F0E5-4517-B716-8DF37E7EC806}"/>
+    <hyperlink ref="F340" r:id="rId847" xr:uid="{5165DBA1-44F4-4065-A374-9B04CC58021E}"/>
+    <hyperlink ref="G340" r:id="rId848" xr:uid="{3C8E7576-62BF-4F8E-9B33-F5B57A543FB4}"/>
+    <hyperlink ref="H340" r:id="rId849" xr:uid="{B9F01EBD-2315-4A3C-9827-7D5C3BE50F8C}"/>
+    <hyperlink ref="I340" r:id="rId850" xr:uid="{0726F0D4-8801-456D-A0A0-8E104F494F1A}"/>
+    <hyperlink ref="J340" r:id="rId851" xr:uid="{4D5DAD76-DD0E-4722-ADC7-939B4828EA6D}"/>
+    <hyperlink ref="F341" r:id="rId852" xr:uid="{CF81A4D4-C14A-4822-B926-86264805A4B7}"/>
+    <hyperlink ref="G341" r:id="rId853" xr:uid="{64986559-CE2A-4E10-8779-C14EDCAFA2AD}"/>
+    <hyperlink ref="H341" r:id="rId854" xr:uid="{B17FDBE6-4EE1-4D2B-9572-E8A3DF7EF1C8}"/>
+    <hyperlink ref="I341" r:id="rId855" xr:uid="{6A160FF6-33DE-4A58-BBAB-62DB1408FEFD}"/>
+    <hyperlink ref="J341" r:id="rId856" xr:uid="{67ECAEE3-7D67-49BB-B936-C6973D2651BD}"/>
+    <hyperlink ref="F342" r:id="rId857" xr:uid="{CCD6ABE2-EE4E-41F0-9EEA-D505664697B4}"/>
+    <hyperlink ref="G342" r:id="rId858" xr:uid="{D1F8D2A2-67CC-4931-BE99-0D991BCECE3D}"/>
+    <hyperlink ref="H342" r:id="rId859" xr:uid="{56195C61-F7CF-4036-BB2A-350DD398A471}"/>
+    <hyperlink ref="I342" r:id="rId860" xr:uid="{6C2F54FC-B986-4A8B-9863-2954ED712992}"/>
+    <hyperlink ref="J342" r:id="rId861" xr:uid="{97F1870B-FCED-41D1-B394-4B31D7358293}"/>
+    <hyperlink ref="F343" r:id="rId862" xr:uid="{A4FE5590-F4B3-4339-988E-54ABB5E33BE8}"/>
+    <hyperlink ref="G343" r:id="rId863" xr:uid="{42C2F01B-731C-4D66-9A93-E706E04CA006}"/>
+    <hyperlink ref="H343" r:id="rId864" xr:uid="{E967F249-1A5D-46BA-A0B3-FA55AC95077F}"/>
+    <hyperlink ref="I343" r:id="rId865" xr:uid="{BD783BFB-6A8A-4BCE-8F05-A1A06B52D47A}"/>
+    <hyperlink ref="J343" r:id="rId866" xr:uid="{0C9A9851-81E9-4196-88E0-9D90E3DDD54D}"/>
+    <hyperlink ref="F344" r:id="rId867" xr:uid="{E8473085-C8C5-4FF7-8A88-6405595C6A85}"/>
+    <hyperlink ref="G344" r:id="rId868" xr:uid="{26096CE2-74E0-41C9-B481-9B07DB0E7871}"/>
+    <hyperlink ref="H344" r:id="rId869" xr:uid="{07DC7AE9-218B-4583-ACB5-2EC16D194CF6}"/>
+    <hyperlink ref="I344" r:id="rId870" xr:uid="{B76FBA07-8C83-4888-A128-5ED4213EA1F6}"/>
+    <hyperlink ref="J344" r:id="rId871" xr:uid="{5FEE0A2B-DC56-4A20-AF1A-E2CEB54EFF27}"/>
+    <hyperlink ref="F345" r:id="rId872" xr:uid="{BB004FC6-5618-42AC-9381-9B921AE23282}"/>
+    <hyperlink ref="G345" r:id="rId873" xr:uid="{26712B74-72CF-4CB2-B4C0-0CB847A145D5}"/>
+    <hyperlink ref="H345" r:id="rId874" xr:uid="{1C88EF99-5090-498C-AF51-145E7A83207C}"/>
+    <hyperlink ref="I345" r:id="rId875" xr:uid="{634AA3CA-93CB-4395-96A2-F1DAAF94E9FA}"/>
+    <hyperlink ref="J345" r:id="rId876" xr:uid="{40ABE352-32F8-4C78-8241-97D1367BD75F}"/>
+    <hyperlink ref="I2" r:id="rId877" xr:uid="{3C5FFFB4-A431-4868-9429-0F9AFFB0CE48}"/>
+    <hyperlink ref="I3" r:id="rId878" xr:uid="{3906D637-DF53-416A-A40D-55618305FC19}"/>
+    <hyperlink ref="J3" r:id="rId879" xr:uid="{566229FC-41FC-47F4-A370-C8D656BCCA8B}"/>
+    <hyperlink ref="I4" r:id="rId880" xr:uid="{4111E00E-6A5D-4E93-8AA0-0AD1E2C4B1FC}"/>
+    <hyperlink ref="I5" r:id="rId881" xr:uid="{FA14F986-4C39-4F1A-8BFE-0B71A18A1E29}"/>
+    <hyperlink ref="J5" r:id="rId882" xr:uid="{896F3E35-4FE1-45A4-A1AB-79E3A8329743}"/>
+    <hyperlink ref="I6" r:id="rId883" xr:uid="{B745DD1E-82A9-43EB-89EA-5C0FD51E0999}"/>
+    <hyperlink ref="J6" r:id="rId884" xr:uid="{B51E45C3-5581-4879-8DB5-EBD6D3E3F806}"/>
+    <hyperlink ref="I7" r:id="rId885" xr:uid="{F1F50BFD-1A81-4F64-9015-26FE8D682BEE}"/>
+    <hyperlink ref="J7" r:id="rId886" xr:uid="{115214CA-F72D-43FA-9A45-58FED3675D72}"/>
+    <hyperlink ref="I8" r:id="rId887" xr:uid="{5992459C-A5F1-4AC9-89A1-302994DF4B64}"/>
+    <hyperlink ref="J8" r:id="rId888" xr:uid="{9739D78A-A6CA-43B3-A742-A0D12B7A6D24}"/>
+    <hyperlink ref="I9" r:id="rId889" xr:uid="{07E185A2-B566-4BA6-B0FF-8475438984C0}"/>
+    <hyperlink ref="J9" r:id="rId890" xr:uid="{B8DF2EAD-262C-4E61-8153-F3AA4733ABB6}"/>
+    <hyperlink ref="I11" r:id="rId891" xr:uid="{BC57CD8D-D6AC-4FEF-AF26-48FEC8A1D451}"/>
+    <hyperlink ref="I12" r:id="rId892" xr:uid="{E7BE77F2-274A-4F3F-B846-43F50028626B}"/>
+    <hyperlink ref="J12" r:id="rId893" xr:uid="{F09606F3-AAAC-4155-A191-DE4151C66115}"/>
+    <hyperlink ref="I13" r:id="rId894" xr:uid="{08A037E8-E5F9-4B93-AC79-DF8D3D58589C}"/>
+    <hyperlink ref="J13" r:id="rId895" xr:uid="{A301E17B-3DA0-46E4-994E-E781F6A86AD6}"/>
+    <hyperlink ref="I14" r:id="rId896" xr:uid="{E89032BC-9B12-455C-84F5-E98A2C8D2AA6}"/>
+    <hyperlink ref="J14" r:id="rId897" xr:uid="{9010C251-1C71-40DE-9CD0-435A02D8D66A}"/>
+    <hyperlink ref="I15" r:id="rId898" xr:uid="{757CDCE1-1CBF-47EB-874C-BD40E95CA61D}"/>
+    <hyperlink ref="J15" r:id="rId899" xr:uid="{19E36C3F-BE92-46B9-B7BA-3E5084B76FB9}"/>
+    <hyperlink ref="I16" r:id="rId900" xr:uid="{8ECE0ACD-6EFF-451A-8937-E085154BE1A9}"/>
+    <hyperlink ref="J16" r:id="rId901" xr:uid="{50539779-3D45-4C8E-A26C-BBC1C4691089}"/>
+    <hyperlink ref="I17" r:id="rId902" xr:uid="{5D0F22A9-B1C3-4D28-887D-6CC4BB061181}"/>
+    <hyperlink ref="J17" r:id="rId903" xr:uid="{E7B365A8-EB24-4954-9001-38ED67232905}"/>
+    <hyperlink ref="I18" r:id="rId904" xr:uid="{8369212E-0F7B-4B9C-B206-D2485C65F744}"/>
+    <hyperlink ref="J18" r:id="rId905" xr:uid="{BBE6029E-E6D5-4480-B194-901496751714}"/>
+    <hyperlink ref="I19" r:id="rId906" xr:uid="{1A5D57C5-3B93-4169-AC65-59F10A15FB0E}"/>
+    <hyperlink ref="J19" r:id="rId907" xr:uid="{58647A78-C837-4020-80A4-D8EA1634EBF8}"/>
+    <hyperlink ref="I20" r:id="rId908" xr:uid="{4D1A014C-A21B-4521-8CC6-6D72893C29A5}"/>
+    <hyperlink ref="I21" r:id="rId909" xr:uid="{67555C1F-E91B-45A6-A219-182E0BFD209C}"/>
+    <hyperlink ref="J21" r:id="rId910" xr:uid="{0CE47C70-E070-414F-BE1A-B4DCE9C5F339}"/>
+    <hyperlink ref="I22" r:id="rId911" xr:uid="{71A6CCCF-BB93-427F-904A-FAFE1C8C12C0}"/>
+    <hyperlink ref="J22" r:id="rId912" xr:uid="{0D01E30E-E10E-4E08-AD6B-3EBC32739D34}"/>
+    <hyperlink ref="I23" r:id="rId913" xr:uid="{BEC543C5-12FE-4A97-88DE-0C494EE9780C}"/>
+    <hyperlink ref="J23" r:id="rId914" xr:uid="{FDC16DB4-A12C-4020-9706-D377C8C5A4B3}"/>
+    <hyperlink ref="I26" r:id="rId915" xr:uid="{834B45DE-D0D4-4C2C-844E-6BB5E141200B}"/>
+    <hyperlink ref="J26" r:id="rId916" xr:uid="{5D48EB9D-6023-4B77-95C6-1E4774ECDAA5}"/>
+    <hyperlink ref="I27" r:id="rId917" xr:uid="{8B2CD477-54BD-4CEE-84C6-EA9CB9652014}"/>
+    <hyperlink ref="J27" r:id="rId918" xr:uid="{2DF873D4-182F-484C-AC1D-53F3E1FBF543}"/>
+    <hyperlink ref="I28" r:id="rId919" xr:uid="{911A0FF4-4DAA-44D3-8199-20B806F84984}"/>
+    <hyperlink ref="J28" r:id="rId920" xr:uid="{AB47672B-0A9E-4775-B1B9-3FDF1116C63E}"/>
+    <hyperlink ref="I29" r:id="rId921" xr:uid="{C1275B99-567E-4749-8F9D-8D4FDA091B3F}"/>
+    <hyperlink ref="J29" r:id="rId922" xr:uid="{99116832-C11C-4CE7-A7E8-08E53277A680}"/>
+    <hyperlink ref="I30" r:id="rId923" xr:uid="{A3717F7B-B066-442E-A1C3-CD810E75F591}"/>
+    <hyperlink ref="J30" r:id="rId924" xr:uid="{D9113F48-C44C-43BE-AB44-18707F5D902D}"/>
+    <hyperlink ref="I31" r:id="rId925" xr:uid="{C7B219B8-7E77-4202-B0BA-A07D5DAF6EBB}"/>
+    <hyperlink ref="J31" r:id="rId926" xr:uid="{D3934876-40D0-451F-BA07-382C02B43F35}"/>
+    <hyperlink ref="I32" r:id="rId927" xr:uid="{45BD50E9-0F4B-4C3B-9973-1698653BA138}"/>
+    <hyperlink ref="J32" r:id="rId928" xr:uid="{4390FDDE-D713-40E0-A071-BAFA8F72003C}"/>
+    <hyperlink ref="I33" r:id="rId929" xr:uid="{D913FCDE-0FFE-43EA-A8D2-9CFB35C5928E}"/>
+    <hyperlink ref="J33" r:id="rId930" xr:uid="{B318CCD7-8EC4-466C-B502-070A63BD0350}"/>
+    <hyperlink ref="I34" r:id="rId931" xr:uid="{C0EDC8F4-7263-41A3-B5A0-49FA18E8BD43}"/>
+    <hyperlink ref="J34" r:id="rId932" xr:uid="{D2943ED6-82C5-4538-B165-813B465FD9B9}"/>
+    <hyperlink ref="I35" r:id="rId933" xr:uid="{05A3B26A-76C4-41CB-B511-B2F1F1F4B3BC}"/>
+    <hyperlink ref="J35" r:id="rId934" xr:uid="{9546CB14-4738-4131-8882-83975D14B2DF}"/>
+    <hyperlink ref="I36" r:id="rId935" xr:uid="{56088575-BACE-448D-89E4-24244F48E8B7}"/>
+    <hyperlink ref="J36" r:id="rId936" xr:uid="{917123F2-9959-4843-80A0-D83CB19A9010}"/>
+    <hyperlink ref="I37" r:id="rId937" xr:uid="{C75B8002-AE05-4773-A240-A55F2CAF7094}"/>
+    <hyperlink ref="J37" r:id="rId938" xr:uid="{3D37F336-772C-4FDA-95A1-4FA67311B142}"/>
+    <hyperlink ref="I41" r:id="rId939" xr:uid="{3FDA33CC-5CB1-4D50-8F2B-8C9868EF70E5}"/>
+    <hyperlink ref="J41" r:id="rId940" xr:uid="{615B97ED-80B3-4A98-8304-3B17FC33FCA6}"/>
+    <hyperlink ref="I42" r:id="rId941" xr:uid="{51703B69-E04B-463B-8EE9-7A822AEE93A6}"/>
+    <hyperlink ref="J42" r:id="rId942" xr:uid="{14364456-BE0B-49F4-BE80-5C94B7A68B86}"/>
+    <hyperlink ref="I43" r:id="rId943" xr:uid="{3298CE17-11F7-4676-AAC1-FC97EF155467}"/>
+    <hyperlink ref="J43" r:id="rId944" xr:uid="{5434485B-41A1-4E6E-9967-D5434AF5826B}"/>
+    <hyperlink ref="I45" r:id="rId945" xr:uid="{F65F7115-505B-415F-871B-DD9AE2FB13A1}"/>
+    <hyperlink ref="J45" r:id="rId946" xr:uid="{9B67CD67-2463-4886-80D3-ACF7763D37F8}"/>
+    <hyperlink ref="I46" r:id="rId947" xr:uid="{8566D187-F664-4B94-A507-A92BD40C1A06}"/>
+    <hyperlink ref="J46" r:id="rId948" xr:uid="{4763A4B9-AC25-4A74-94A6-3C64F160A41E}"/>
+    <hyperlink ref="I47" r:id="rId949" xr:uid="{82449F12-AA71-4A10-9F22-21DC18264107}"/>
+    <hyperlink ref="J47" r:id="rId950" xr:uid="{4F7C56E1-5E85-4727-8174-67DC68E12B30}"/>
+    <hyperlink ref="I49" r:id="rId951" xr:uid="{254E50B3-DA9C-4C88-99C8-3CEA8DF4945F}"/>
+    <hyperlink ref="J49" r:id="rId952" xr:uid="{3505269C-08ED-4416-80AF-4A476DBD21FD}"/>
+    <hyperlink ref="I50" r:id="rId953" xr:uid="{DEF5B335-13CA-4A45-A6DC-D32F310B967B}"/>
+    <hyperlink ref="J50" r:id="rId954" xr:uid="{93A8D205-359D-41D2-A52D-9321D0C37731}"/>
+    <hyperlink ref="I51" r:id="rId955" xr:uid="{FCEC5DF2-BF38-4150-B992-DA7564D2338A}"/>
+    <hyperlink ref="J51" r:id="rId956" xr:uid="{6E2A6AD7-5AC0-4D8D-893D-68E824BEA623}"/>
+    <hyperlink ref="I52" r:id="rId957" xr:uid="{03B98A94-DE0F-4E5C-987A-3E1118AA56E5}"/>
+    <hyperlink ref="J52" r:id="rId958" xr:uid="{32392343-0917-4287-BA5D-1D9221073E10}"/>
+    <hyperlink ref="I53" r:id="rId959" xr:uid="{4D757183-F914-4DD3-933B-25502B96FDC3}"/>
+    <hyperlink ref="J53" r:id="rId960" xr:uid="{07AC9D96-A36A-4EAA-B3AE-3FDAB58FC096}"/>
+    <hyperlink ref="I54" r:id="rId961" xr:uid="{1DF1B9E3-15C5-4221-A08D-995843923CE5}"/>
+    <hyperlink ref="J54" r:id="rId962" xr:uid="{F9C88E90-4DC1-4407-A89D-D3A6DDBBFF04}"/>
+    <hyperlink ref="I55" r:id="rId963" xr:uid="{80D50E68-35EB-4294-904F-83F26B723A72}"/>
+    <hyperlink ref="J55" r:id="rId964" xr:uid="{1D664D16-4160-45C1-B48A-2D84278D59BF}"/>
+    <hyperlink ref="I56" r:id="rId965" xr:uid="{BDDEB5C1-266B-44B9-8973-CF08B02A40AA}"/>
+    <hyperlink ref="J56" r:id="rId966" xr:uid="{6B9CB283-3A07-48E5-856C-58192B55845F}"/>
+    <hyperlink ref="I58" r:id="rId967" xr:uid="{E4FD23A1-3D52-4017-912D-2EC8826C761C}"/>
+    <hyperlink ref="J58" r:id="rId968" xr:uid="{9E1A25CC-94CE-4572-B043-1F08B9C61F73}"/>
+    <hyperlink ref="I59" r:id="rId969" xr:uid="{7DE6BA24-FA7E-4D91-AA25-A6C992A0EB76}"/>
+    <hyperlink ref="J59" r:id="rId970" xr:uid="{6C3C00D3-DE43-4D97-BBBC-D9202AC675DC}"/>
+    <hyperlink ref="I60" r:id="rId971" xr:uid="{61971175-40D4-4F89-BDBB-3DFD0447EB6D}"/>
+    <hyperlink ref="J60" r:id="rId972" xr:uid="{73734E8E-9228-404E-BF71-C61F5975D27D}"/>
+    <hyperlink ref="I64" r:id="rId973" xr:uid="{82FE8C0E-D530-4267-AAF5-444511187E42}"/>
+    <hyperlink ref="J64" r:id="rId974" xr:uid="{366C5E27-3BAE-474B-967B-7041303E76B4}"/>
+    <hyperlink ref="I65" r:id="rId975" xr:uid="{F8500D5B-BF16-4139-967C-E6B627EDB485}"/>
+    <hyperlink ref="J65" r:id="rId976" xr:uid="{C28BFE90-9F4C-455B-BD55-9A9FB72D3B77}"/>
+    <hyperlink ref="I66" r:id="rId977" xr:uid="{2952E9FA-2811-4468-A7F8-E9632E7AD3DB}"/>
+    <hyperlink ref="J66" r:id="rId978" xr:uid="{1D2827B1-A5CC-4867-AE55-FBDFC7FD36F9}"/>
+    <hyperlink ref="I67" r:id="rId979" xr:uid="{403079C8-1940-4602-99D7-9E0955DA7E36}"/>
+    <hyperlink ref="J67" r:id="rId980" xr:uid="{D80931A3-4942-4914-8C31-CFE7CCC25068}"/>
+    <hyperlink ref="I68" r:id="rId981" xr:uid="{2BB6A63D-ECC0-44C4-92DB-A2767A0B7906}"/>
+    <hyperlink ref="J68" r:id="rId982" xr:uid="{03D7EC44-BFB8-4812-AC4C-5158C1A07759}"/>
+    <hyperlink ref="I69" r:id="rId983" xr:uid="{6E1C65E9-3532-471A-ADDB-42327F47056C}"/>
+    <hyperlink ref="J69" r:id="rId984" xr:uid="{2B5B4B23-BE68-4A34-9435-68FA503AA77A}"/>
+    <hyperlink ref="I70" r:id="rId985" xr:uid="{F642F9A0-1B74-4539-BB42-EBEC2E899DFC}"/>
+    <hyperlink ref="J70" r:id="rId986" xr:uid="{9489C5BE-C1EF-4AB3-A271-C081DDB081E9}"/>
+    <hyperlink ref="I71" r:id="rId987" xr:uid="{BD96E4BC-CCF1-494E-9443-F60F905E939C}"/>
+    <hyperlink ref="J71" r:id="rId988" xr:uid="{F84DDCB3-ED75-40CD-9244-C7647DD63624}"/>
+    <hyperlink ref="I72" r:id="rId989" xr:uid="{B533BB02-6A40-4A46-B440-4F6EA31BB446}"/>
+    <hyperlink ref="J72" r:id="rId990" xr:uid="{AE457544-0B16-4422-8873-46017BD90D6C}"/>
+    <hyperlink ref="I73" r:id="rId991" xr:uid="{C056EA0C-6560-4AED-95BB-EBC8E51DDD05}"/>
+    <hyperlink ref="J73" r:id="rId992" xr:uid="{B3557091-6025-4AA8-A8DD-F9CF6676A32C}"/>
+    <hyperlink ref="I74" r:id="rId993" xr:uid="{0BE19486-4C06-4705-8725-03F7C357F560}"/>
+    <hyperlink ref="J74" r:id="rId994" xr:uid="{1154A59E-B2AD-4400-A7C5-C1D07C50AB77}"/>
+    <hyperlink ref="I75" r:id="rId995" xr:uid="{EDEEC474-2F9C-42F3-B9B3-8CED89BF9E94}"/>
+    <hyperlink ref="J75" r:id="rId996" xr:uid="{0216F25E-2085-412D-B210-00962F387409}"/>
+    <hyperlink ref="I77" r:id="rId997" xr:uid="{955A24F4-4069-4A72-83EA-40FD3F7D811B}"/>
+    <hyperlink ref="J77" r:id="rId998" xr:uid="{5BC0C04D-8C68-41BC-BF03-BD010835BFC1}"/>
+    <hyperlink ref="I78" r:id="rId999" xr:uid="{A16041A4-8B08-41CE-B5E3-A809469E8186}"/>
+    <hyperlink ref="J78" r:id="rId1000" xr:uid="{41EE557F-0969-4F14-9E97-C22F2F680684}"/>
+    <hyperlink ref="I80" r:id="rId1001" xr:uid="{76619379-3BDC-4FEB-AEBA-AEB1C3780433}"/>
+    <hyperlink ref="J80" r:id="rId1002" xr:uid="{481CABDA-28D9-4D10-B1E1-2F44858961E5}"/>
+    <hyperlink ref="I82" r:id="rId1003" xr:uid="{94A0C023-A990-4879-A0BD-C8FE5EAF79C3}"/>
+    <hyperlink ref="J82" r:id="rId1004" xr:uid="{DD73DD82-F8C5-4399-ACAC-D188622C46E6}"/>
+    <hyperlink ref="I83" r:id="rId1005" xr:uid="{73F4AF7B-EB0E-46F2-968F-790D7D2A82E0}"/>
+    <hyperlink ref="J83" r:id="rId1006" xr:uid="{9348C940-3C37-47F5-B7D2-0F9678A7DC9D}"/>
+    <hyperlink ref="I84" r:id="rId1007" xr:uid="{5A4837C1-EB5D-4752-B93D-E016B8A2F50B}"/>
+    <hyperlink ref="J84" r:id="rId1008" xr:uid="{3C596746-B9C3-450F-82AE-5288CC534019}"/>
+    <hyperlink ref="I86" r:id="rId1009" xr:uid="{E5E0F20C-ADD8-4ECE-99D5-54B1503CC4A5}"/>
+    <hyperlink ref="J86" r:id="rId1010" xr:uid="{745A0154-98AC-494A-9893-9159085C9C0E}"/>
+    <hyperlink ref="I87" r:id="rId1011" xr:uid="{6C89D76E-FD13-4846-AC3D-A84D7A40EB3D}"/>
+    <hyperlink ref="J87" r:id="rId1012" xr:uid="{1D996571-62A4-44D6-A8E3-8CF010CA9CA3}"/>
+    <hyperlink ref="I88" r:id="rId1013" xr:uid="{659E8980-682C-4415-AD82-62D36A555861}"/>
+    <hyperlink ref="J88" r:id="rId1014" xr:uid="{18B12E6E-D488-49C4-8470-0F50BAA0DBD0}"/>
+    <hyperlink ref="I90" r:id="rId1015" xr:uid="{E6056A0B-414F-4844-9B1F-04E4CDEB8619}"/>
+    <hyperlink ref="J90" r:id="rId1016" xr:uid="{AD71E5A4-F258-468A-9008-EF9B2EA17FC8}"/>
+    <hyperlink ref="I91" r:id="rId1017" xr:uid="{1FB6D6CF-6CAD-48A1-8172-10A3D1045DDD}"/>
+    <hyperlink ref="J91" r:id="rId1018" xr:uid="{44AD5A15-DA8A-4CEF-9B11-496C98469F99}"/>
+    <hyperlink ref="I92" r:id="rId1019" xr:uid="{E1363D45-0B31-449F-9636-D8C9E347D4B7}"/>
+    <hyperlink ref="J92" r:id="rId1020" xr:uid="{9065E2F0-5B58-473D-A719-CEFBB583BAF8}"/>
+    <hyperlink ref="I93" r:id="rId1021" xr:uid="{AB38D09A-3CD6-4E4B-A3F5-DEA9F719D0A6}"/>
+    <hyperlink ref="J93" r:id="rId1022" xr:uid="{0FDE0E6C-5091-48BF-ADFA-A066E10373A6}"/>
+    <hyperlink ref="I95" r:id="rId1023" xr:uid="{BA34C630-89FF-4A23-9ADA-5A1DBB558CBA}"/>
+    <hyperlink ref="J95" r:id="rId1024" xr:uid="{0104BAD1-E43B-4F9E-9C9D-6A65F22E075E}"/>
+    <hyperlink ref="I96" r:id="rId1025" xr:uid="{832A2D79-7EF9-48F4-8919-F0F37B318B7F}"/>
+    <hyperlink ref="J96" r:id="rId1026" xr:uid="{F0FB31E6-456F-444A-B9FB-FC6D2184B781}"/>
+    <hyperlink ref="I100" r:id="rId1027" xr:uid="{599EE7F0-00E6-4B55-8128-FC15A443BB6B}"/>
+    <hyperlink ref="J100" r:id="rId1028" xr:uid="{4015CD45-1293-4A80-A187-ED1A1C148974}"/>
+    <hyperlink ref="I103" r:id="rId1029" xr:uid="{7B99DB98-7231-40A9-A702-C353258117E8}"/>
+    <hyperlink ref="J103" r:id="rId1030" xr:uid="{B490F117-A397-4B9B-BA22-82E6BBEC78ED}"/>
+    <hyperlink ref="I104" r:id="rId1031" xr:uid="{E37AA8C7-290F-4845-A348-0C0C3C794EA9}"/>
+    <hyperlink ref="J104" r:id="rId1032" xr:uid="{335A1A81-9DE6-4780-9BA1-ABDA495FAB1F}"/>
+    <hyperlink ref="I106" r:id="rId1033" xr:uid="{C092149A-080A-4ADC-84E3-8192A643A29F}"/>
+    <hyperlink ref="J106" r:id="rId1034" xr:uid="{D88B5781-3A96-4B63-B28E-A5436545FACF}"/>
+    <hyperlink ref="I107" r:id="rId1035" xr:uid="{B8021634-B648-4165-B635-C1BE226544A9}"/>
+    <hyperlink ref="J107" r:id="rId1036" xr:uid="{0FB1D29C-3A66-4E3D-86D0-DD57AE872B5A}"/>
+    <hyperlink ref="I109" r:id="rId1037" xr:uid="{CE3EA111-6227-4DE9-B1DC-CCE9BE848059}"/>
+    <hyperlink ref="J109" r:id="rId1038" xr:uid="{0B2DC2BA-0899-4ED3-BD3E-597200D91D6A}"/>
+    <hyperlink ref="J110" r:id="rId1039" xr:uid="{2EDE51CF-E13F-46D7-85A4-0FB8D2751A74}"/>
+    <hyperlink ref="I110" r:id="rId1040" xr:uid="{F6175216-A554-4B1A-B9DA-A8441EC8CD5D}"/>
+    <hyperlink ref="I112" r:id="rId1041" xr:uid="{271BE55F-C740-446C-B919-9CA90ADB972E}"/>
+    <hyperlink ref="J112" r:id="rId1042" xr:uid="{76744B7C-F59C-4B1A-B030-4701A7F35D81}"/>
+    <hyperlink ref="I113" r:id="rId1043" xr:uid="{E02A6360-699F-453A-A8B2-8A67F930F62C}"/>
+    <hyperlink ref="J113" r:id="rId1044" xr:uid="{11CB00D2-F987-42E9-9DA0-B3247F022A4D}"/>
+    <hyperlink ref="I114" r:id="rId1045" xr:uid="{44628AFD-0C52-415B-AC7E-99E54F363F40}"/>
+    <hyperlink ref="J114" r:id="rId1046" xr:uid="{6EDB2C2C-1B94-49BB-B524-C431F985D1C4}"/>
+    <hyperlink ref="I115" r:id="rId1047" xr:uid="{251BACAB-8CFF-4E13-B22B-CB8CCBD697FC}"/>
+    <hyperlink ref="J115" r:id="rId1048" xr:uid="{85A9A4AA-1324-470C-B1B2-4D0944087FB4}"/>
+    <hyperlink ref="I116" r:id="rId1049" xr:uid="{1DFAEE81-D99D-44C1-ACAC-A4B153CAE77C}"/>
+    <hyperlink ref="J116" r:id="rId1050" xr:uid="{D454907F-39AB-47D2-9B0D-AF6972C2B70D}"/>
+    <hyperlink ref="I118" r:id="rId1051" xr:uid="{604D17A2-7051-4FC8-B33F-ECD2340BF666}"/>
+    <hyperlink ref="J118" r:id="rId1052" xr:uid="{A5FACA1E-49C3-462D-9F7E-F00886F033FA}"/>
+    <hyperlink ref="I119" r:id="rId1053" xr:uid="{E1ACC7B2-B398-4B11-BA93-DA681DBBFECF}"/>
+    <hyperlink ref="J119" r:id="rId1054" xr:uid="{1AF061D5-2F8F-4CC9-82AE-884A53F22D32}"/>
+    <hyperlink ref="I121" r:id="rId1055" xr:uid="{1EE17CFC-7C0D-4F78-AA84-5B11ECDA684C}"/>
+    <hyperlink ref="J121" r:id="rId1056" xr:uid="{8E8FB689-AD69-4E21-958A-A90A8D696A13}"/>
+    <hyperlink ref="I122" r:id="rId1057" xr:uid="{EE359E8C-0CF5-44A5-A2A7-73A2919FC5BC}"/>
+    <hyperlink ref="J122" r:id="rId1058" xr:uid="{3F587AF4-97C8-483D-BFC0-56AA4A5A2A25}"/>
+    <hyperlink ref="I123" r:id="rId1059" xr:uid="{E14DD5B7-5A9D-4C82-A870-A7B6AF2CFACC}"/>
+    <hyperlink ref="J123" r:id="rId1060" xr:uid="{AF4AED03-7D4A-48C0-AEE2-0C8C6AD7F46D}"/>
+    <hyperlink ref="I124" r:id="rId1061" xr:uid="{5EAAFD91-794A-4BAE-B914-E4C2CFFB8A0F}"/>
+    <hyperlink ref="J124" r:id="rId1062" xr:uid="{B3A6D9DA-BFE5-4540-BC7C-760A4CBB90B8}"/>
+    <hyperlink ref="I125" r:id="rId1063" xr:uid="{ABD485DC-E02C-4506-9034-92AA51A3B7D3}"/>
+    <hyperlink ref="J125" r:id="rId1064" xr:uid="{999DAD4D-1232-4205-BBC4-F13B92472B65}"/>
+    <hyperlink ref="I126" r:id="rId1065" xr:uid="{3187882C-1564-47AD-A877-7FEE25CB45A2}"/>
+    <hyperlink ref="J126" r:id="rId1066" xr:uid="{A18A9EA7-1F8F-4428-99E8-F81E21A0167F}"/>
+    <hyperlink ref="I127" r:id="rId1067" xr:uid="{A667FC0A-367B-4251-8AAE-FB639086AC7B}"/>
+    <hyperlink ref="J127" r:id="rId1068" xr:uid="{33B75468-A269-4B27-B82C-38F513D887EE}"/>
+    <hyperlink ref="I128" r:id="rId1069" xr:uid="{A750C166-2BBE-4E07-AFC5-5DB2A0572831}"/>
+    <hyperlink ref="J128" r:id="rId1070" xr:uid="{EA292CE1-59DD-49D8-B4E0-50166716FCF9}"/>
+    <hyperlink ref="I130" r:id="rId1071" xr:uid="{0295FCFA-0260-4C58-80CE-7084B32FC582}"/>
+    <hyperlink ref="J130" r:id="rId1072" xr:uid="{8540677F-EDE5-4700-AD0A-B18296A2A432}"/>
+    <hyperlink ref="I131" r:id="rId1073" xr:uid="{213B0C3F-FAA5-4285-AF9C-E0653799E578}"/>
+    <hyperlink ref="J131" r:id="rId1074" xr:uid="{E68BEA91-65BD-4707-99E6-8895A2B4162C}"/>
+    <hyperlink ref="I132" r:id="rId1075" xr:uid="{2C22648D-32FD-471A-8F19-5CF7222FC6AD}"/>
+    <hyperlink ref="J132" r:id="rId1076" xr:uid="{A96310E9-F6EC-4A86-8A94-A4BAB1B21548}"/>
+    <hyperlink ref="I133" r:id="rId1077" xr:uid="{847BC8D4-CBCE-46F2-88C2-3B3FCDE75179}"/>
+    <hyperlink ref="J133" r:id="rId1078" xr:uid="{EA26D587-FEE1-479D-BE3D-A3F394F5E55D}"/>
+    <hyperlink ref="I134" r:id="rId1079" xr:uid="{4EAD0311-AAD7-48D3-9884-DECB2374327E}"/>
+    <hyperlink ref="J134" r:id="rId1080" xr:uid="{34CA2F37-929B-406D-94B8-62A588C12600}"/>
+    <hyperlink ref="I135" r:id="rId1081" xr:uid="{0C864988-3381-433E-9981-E3A0946819C6}"/>
+    <hyperlink ref="J135" r:id="rId1082" xr:uid="{D6E699D1-2C31-424E-A5B0-2C277A189053}"/>
+    <hyperlink ref="I136" r:id="rId1083" xr:uid="{46F704EB-3E20-4486-9B8E-01C836677521}"/>
+    <hyperlink ref="J136" r:id="rId1084" xr:uid="{7FB1F2EA-4E90-49F3-80DD-D21F8D44DA5E}"/>
+    <hyperlink ref="I137" r:id="rId1085" xr:uid="{27E13437-BEF0-41FC-B4C8-8CC7C8FAC0A2}"/>
+    <hyperlink ref="J137" r:id="rId1086" xr:uid="{92AB23B0-314D-4EEB-BB22-10B1C0514469}"/>
+    <hyperlink ref="I138" r:id="rId1087" xr:uid="{B57D05CB-5216-4D61-B5B8-53E9D63C953F}"/>
+    <hyperlink ref="J138" r:id="rId1088" xr:uid="{7B6B0860-610D-4FD4-B901-B868F04FF2EE}"/>
+    <hyperlink ref="I139" r:id="rId1089" xr:uid="{A0130358-ABDE-43A3-BC97-B4AE0A4F495C}"/>
+    <hyperlink ref="J139" r:id="rId1090" xr:uid="{B805797C-85C7-4312-9F6C-EC58BE1E5482}"/>
+    <hyperlink ref="I140" r:id="rId1091" xr:uid="{14944697-4F57-4C21-A322-C05A754133DD}"/>
+    <hyperlink ref="J140" r:id="rId1092" xr:uid="{50AC529A-61B0-4092-8206-059E660FFACF}"/>
+    <hyperlink ref="I141" r:id="rId1093" xr:uid="{29C92A8A-0CC5-4136-8A48-D3F9FA0B717D}"/>
+    <hyperlink ref="J141" r:id="rId1094" xr:uid="{0697F061-CCF1-4400-8809-4A16AFA1413B}"/>
+    <hyperlink ref="I142" r:id="rId1095" xr:uid="{23A008BC-BC08-4AC5-93E7-D5F2D19BA428}"/>
+    <hyperlink ref="J142" r:id="rId1096" xr:uid="{25F68586-31EB-4C2A-9537-B74FADFB36C1}"/>
+    <hyperlink ref="I143" r:id="rId1097" xr:uid="{67D29F9E-8721-4379-87AE-483FFF371346}"/>
+    <hyperlink ref="J143" r:id="rId1098" xr:uid="{281AD66B-5780-4FD5-BE2E-09C30529D235}"/>
+    <hyperlink ref="I144" r:id="rId1099" xr:uid="{4C25796F-D0FB-4295-9C91-10F56810DF1C}"/>
+    <hyperlink ref="J144" r:id="rId1100" xr:uid="{459EC06F-A463-4C69-A7D8-88CA8E5A99EF}"/>
+    <hyperlink ref="I145" r:id="rId1101" xr:uid="{A9D03602-43A7-4A59-B6D3-F0A6E11FC044}"/>
+    <hyperlink ref="J145" r:id="rId1102" xr:uid="{ACF21A3A-F157-4D08-B546-365EF67637BA}"/>
+    <hyperlink ref="I146" r:id="rId1103" xr:uid="{923830D0-AA8C-40A5-B57C-F6FC78987AA0}"/>
+    <hyperlink ref="J146" r:id="rId1104" xr:uid="{01E83AB4-2D3C-40FE-BCA1-FCC6A7FBF150}"/>
+    <hyperlink ref="I147" r:id="rId1105" xr:uid="{77410400-3FFC-4956-AAAE-54C89D245767}"/>
+    <hyperlink ref="J147" r:id="rId1106" xr:uid="{C6D078DE-6F75-4F2A-9D3E-B249ACAE137F}"/>
+    <hyperlink ref="I150" r:id="rId1107" xr:uid="{3A3820C7-0185-4F73-BE5A-EFF25FED7F4B}"/>
+    <hyperlink ref="J150" r:id="rId1108" xr:uid="{9DA8CB15-7515-4755-A219-5F464B3FAEC1}"/>
+    <hyperlink ref="I151" r:id="rId1109" xr:uid="{C50639FE-09B4-4E6B-8CC1-D8C42164EC91}"/>
+    <hyperlink ref="J151" r:id="rId1110" xr:uid="{72A03EDF-018C-4FF7-B789-3BFEAE81F05B}"/>
+    <hyperlink ref="I152" r:id="rId1111" xr:uid="{4D0BE57F-37B3-4B26-B330-54501C7E9DE9}"/>
+    <hyperlink ref="J152" r:id="rId1112" xr:uid="{4FF40F58-4393-4856-B816-03B618417C13}"/>
+    <hyperlink ref="J153" r:id="rId1113" xr:uid="{188CA8C9-F798-40C5-BC58-D47A9573315C}"/>
+    <hyperlink ref="I153" r:id="rId1114" xr:uid="{5C0C88A8-8D78-4A76-8865-D54A946836FE}"/>
+    <hyperlink ref="I154" r:id="rId1115" xr:uid="{7CF42710-8C9B-4CAB-B500-FDBE524E4ABB}"/>
+    <hyperlink ref="J154" r:id="rId1116" xr:uid="{B353984C-82E7-4D2F-B053-1155239D18E8}"/>
+    <hyperlink ref="I155" r:id="rId1117" xr:uid="{1A189D54-CBBF-4F8E-B5E4-D4D5FD72C194}"/>
+    <hyperlink ref="J155" r:id="rId1118" xr:uid="{303531BE-6219-49AB-A831-CB8905D19A0E}"/>
+    <hyperlink ref="I156" r:id="rId1119" xr:uid="{8E87E7DA-F4D6-4F32-A275-7778E7A49C98}"/>
+    <hyperlink ref="J156" r:id="rId1120" xr:uid="{711ABB60-4AF4-4249-A1FE-6F2449A7AFEB}"/>
+    <hyperlink ref="I158" r:id="rId1121" xr:uid="{B8D760B6-8C65-4D5A-AA7F-B34B544AB6CE}"/>
+    <hyperlink ref="J158" r:id="rId1122" xr:uid="{251ABD12-959B-483D-A233-963218847DD6}"/>
+    <hyperlink ref="I159" r:id="rId1123" xr:uid="{99CF4885-8940-414F-BFDF-32AF17DDF85C}"/>
+    <hyperlink ref="J159" r:id="rId1124" xr:uid="{5F278558-E614-4972-950E-6C38722E2E92}"/>
+    <hyperlink ref="I160" r:id="rId1125" xr:uid="{E689CE79-E983-4C91-96B9-766B35F2FC99}"/>
+    <hyperlink ref="J160" r:id="rId1126" xr:uid="{5412D318-09D1-4903-B51A-CE200C7A0AFA}"/>
+    <hyperlink ref="I161" r:id="rId1127" xr:uid="{02209415-3CF4-4C13-8710-A606A277083C}"/>
+    <hyperlink ref="J161" r:id="rId1128" xr:uid="{4F2A66CE-F331-431A-94E0-E61D05F859B4}"/>
+    <hyperlink ref="I162" r:id="rId1129" xr:uid="{953504D9-375E-4EAD-8183-9E89FFE8AAB0}"/>
+    <hyperlink ref="J162" r:id="rId1130" xr:uid="{E7D21B60-FA86-4D3A-A6FD-B050489343D4}"/>
+    <hyperlink ref="I164" r:id="rId1131" xr:uid="{5E673E38-9363-49F1-B2C4-6FF873AD5091}"/>
+    <hyperlink ref="J164" r:id="rId1132" xr:uid="{047D9826-607C-4453-B7B2-DCEF7E410084}"/>
+    <hyperlink ref="I165" r:id="rId1133" xr:uid="{2E2F9318-9B11-4362-9448-846109A47251}"/>
+    <hyperlink ref="J165" r:id="rId1134" xr:uid="{69A3333F-1B9E-4C78-9D25-88C5DB441F56}"/>
+    <hyperlink ref="I166" r:id="rId1135" xr:uid="{C54460B4-7B49-4601-B4D3-B474DCA1FD88}"/>
+    <hyperlink ref="J166" r:id="rId1136" xr:uid="{DABBE975-5529-489A-93AF-65C5688C94B3}"/>
+    <hyperlink ref="I167" r:id="rId1137" xr:uid="{2173DF06-0DAF-4413-946F-962A8958E8F3}"/>
+    <hyperlink ref="J167" r:id="rId1138" xr:uid="{C20D3C55-69C7-4737-AD21-19268FE91E72}"/>
+    <hyperlink ref="I169" r:id="rId1139" xr:uid="{CE89655E-1B1F-4A95-AE73-7EAF160F9621}"/>
+    <hyperlink ref="J169" r:id="rId1140" xr:uid="{ADDA9E0C-9C33-492E-B837-BFAF91F1A8BD}"/>
+    <hyperlink ref="I170" r:id="rId1141" xr:uid="{CD209ED2-172A-4A2E-9E74-D52B00026A99}"/>
+    <hyperlink ref="J170" r:id="rId1142" xr:uid="{C43EA6A0-6848-458A-B902-62A658BBCC3A}"/>
+    <hyperlink ref="I172" r:id="rId1143" xr:uid="{3A9D7431-9B39-4FB2-9664-C1E2A6F780C3}"/>
+    <hyperlink ref="J172" r:id="rId1144" xr:uid="{FDCD1C66-2820-4DA4-9F78-7F055B245C41}"/>
+    <hyperlink ref="I174" r:id="rId1145" xr:uid="{0578F25D-64E4-4325-BF6C-87D298BAE456}"/>
+    <hyperlink ref="J174" r:id="rId1146" xr:uid="{98FD6A49-A184-4380-AD7D-65EA2A7FCF95}"/>
+    <hyperlink ref="I175" r:id="rId1147" xr:uid="{9D4CFA8B-AF36-478C-A592-0A6490DB6F23}"/>
+    <hyperlink ref="J175" r:id="rId1148" xr:uid="{2B8BD52E-C3EA-47AD-8A28-F8E735E5062B}"/>
+    <hyperlink ref="I176" r:id="rId1149" xr:uid="{B2477E45-9AE8-4D0B-808B-38F62C1AD9FD}"/>
+    <hyperlink ref="J176" r:id="rId1150" xr:uid="{427C1221-8D08-47C8-93BD-19811EA09598}"/>
+    <hyperlink ref="I177" r:id="rId1151" xr:uid="{CFBAC379-9424-44B5-BDCF-F9D97482A561}"/>
+    <hyperlink ref="J177" r:id="rId1152" xr:uid="{9FB03090-62A5-48FF-AC25-871033EAA415}"/>
+    <hyperlink ref="I178" r:id="rId1153" xr:uid="{95C8E875-F000-4404-83D4-9F5C08DD218A}"/>
+    <hyperlink ref="J178" r:id="rId1154" xr:uid="{30647CDA-7EE2-4430-8559-88CF3B49569A}"/>
+    <hyperlink ref="I179" r:id="rId1155" xr:uid="{EF1CB5FC-B16D-4C20-B87F-9023764E260A}"/>
+    <hyperlink ref="J179" r:id="rId1156" xr:uid="{91999060-6333-4EB0-AA5C-78289B9CE2CB}"/>
+    <hyperlink ref="I180" r:id="rId1157" xr:uid="{F2A2B500-B87F-46F7-9108-F70AAC84FB0C}"/>
+    <hyperlink ref="J180" r:id="rId1158" xr:uid="{6DC06FFE-607B-4584-A63C-736D8EE9FAA8}"/>
+    <hyperlink ref="I181" r:id="rId1159" xr:uid="{020B7932-E3E0-4332-AE9B-D4A07D2BDE6C}"/>
+    <hyperlink ref="J181" r:id="rId1160" xr:uid="{FFEAA5DF-E1CE-474E-A1A6-2356B3998B29}"/>
+    <hyperlink ref="I182" r:id="rId1161" xr:uid="{D9AADB2B-A698-4221-8714-CE3A1CF1523D}"/>
+    <hyperlink ref="J182" r:id="rId1162" xr:uid="{FFA6CAB7-51FD-4A3A-A77B-DD270B7CC9FF}"/>
+    <hyperlink ref="I183" r:id="rId1163" xr:uid="{89895646-DFF8-493B-90CE-BE4070269D61}"/>
+    <hyperlink ref="J183" r:id="rId1164" xr:uid="{C414E6E1-375F-4964-8F00-567C3E54D42C}"/>
+    <hyperlink ref="I184" r:id="rId1165" xr:uid="{5F52E0EB-1647-4780-8170-060CEF1B4717}"/>
+    <hyperlink ref="J184" r:id="rId1166" xr:uid="{1E328770-EC0B-4801-8117-0EECEE516848}"/>
+    <hyperlink ref="I185" r:id="rId1167" xr:uid="{8E8A5441-1DE4-49DE-A8F9-6FF242C4C8EF}"/>
+    <hyperlink ref="J185" r:id="rId1168" xr:uid="{03386818-1259-41F0-8E8D-2460FEAD9279}"/>
+    <hyperlink ref="I186" r:id="rId1169" xr:uid="{A3BE07C7-9049-4C7D-8CEA-463243B3FD15}"/>
+    <hyperlink ref="J186" r:id="rId1170" xr:uid="{286C9521-93F0-4A74-815A-6403477447BA}"/>
+    <hyperlink ref="I189" r:id="rId1171" xr:uid="{ED5414F9-0A0A-4FF2-BCD8-48C614918A22}"/>
+    <hyperlink ref="J189" r:id="rId1172" xr:uid="{B7BB8D9F-BE35-4881-A8C9-290DA610134D}"/>
+    <hyperlink ref="I190" r:id="rId1173" xr:uid="{11A7712B-10DC-445D-9EB1-36A815DCEF69}"/>
+    <hyperlink ref="J190" r:id="rId1174" xr:uid="{F10F97D2-1909-40CF-9595-CC38549EF910}"/>
+    <hyperlink ref="I191" r:id="rId1175" xr:uid="{11E51976-1BB3-4599-A174-683ABB31D1A1}"/>
+    <hyperlink ref="J191" r:id="rId1176" xr:uid="{CF735CEB-D149-48DA-9591-08E5A2AF24F6}"/>
+    <hyperlink ref="I192" r:id="rId1177" xr:uid="{FC80AA37-8360-45D7-8B85-191C651FD58A}"/>
+    <hyperlink ref="J192" r:id="rId1178" xr:uid="{2B87C1C6-542D-44DF-87B0-0ABF50442C07}"/>
+    <hyperlink ref="I194" r:id="rId1179" xr:uid="{92DF3E06-0489-4EDF-9F51-FABD6AFD6D0C}"/>
+    <hyperlink ref="J194" r:id="rId1180" xr:uid="{295234F4-7031-4837-87EA-287C881D8529}"/>
+    <hyperlink ref="I195" r:id="rId1181" xr:uid="{6C4E4E61-A27A-4D0D-B6B9-A0FB2DBA1AED}"/>
+    <hyperlink ref="J195" r:id="rId1182" xr:uid="{3A1C4552-0B68-4618-B574-354B375A3E31}"/>
+    <hyperlink ref="I196" r:id="rId1183" xr:uid="{CC12859F-8676-40FD-B26E-C6CE7133B552}"/>
+    <hyperlink ref="J196" r:id="rId1184" xr:uid="{9C7C9E9A-4F74-45D9-A5D2-C79C3DE0825E}"/>
+    <hyperlink ref="I198" r:id="rId1185" xr:uid="{575F6D2B-801B-4724-9CD1-8F1CB58E180B}"/>
+    <hyperlink ref="J198" r:id="rId1186" xr:uid="{271CEE7E-2E41-4DDF-B8BC-E4F5544CD2D3}"/>
+    <hyperlink ref="I199" r:id="rId1187" xr:uid="{9F078540-FEBC-40FC-BF8B-B36D4661B6BD}"/>
+    <hyperlink ref="J199" r:id="rId1188" xr:uid="{74CC0A0D-68D3-4877-980B-9D2FE600E4EC}"/>
+    <hyperlink ref="I200" r:id="rId1189" xr:uid="{2D350CCC-3C67-42AD-8EC0-D46E7313E014}"/>
+    <hyperlink ref="J200" r:id="rId1190" xr:uid="{A24CA3DC-A84C-4691-84B7-FA44B5ED0E87}"/>
+    <hyperlink ref="I201" r:id="rId1191" xr:uid="{CF6F53A6-B924-4DF5-99EF-1C151E0C4CA2}"/>
+    <hyperlink ref="J201" r:id="rId1192" xr:uid="{0AD9FBA8-853C-494D-A6C3-A3CAAAF9059C}"/>
+    <hyperlink ref="I203" r:id="rId1193" xr:uid="{D63DB3BA-4BBC-44B8-9F79-1EE6772ADD1C}"/>
+    <hyperlink ref="J203" r:id="rId1194" xr:uid="{D68BEBC9-8FB8-48AF-B70F-B068DEFE54C7}"/>
+    <hyperlink ref="I204" r:id="rId1195" xr:uid="{9A85A807-352F-4F2D-94A3-5DB06CA589AA}"/>
+    <hyperlink ref="J204" r:id="rId1196" xr:uid="{DCFE42A9-2437-46A9-B990-8CFEB72F24DC}"/>
+    <hyperlink ref="I205" r:id="rId1197" xr:uid="{9F8C1E2E-6B2B-4130-9B77-120AFDD8F4AE}"/>
+    <hyperlink ref="J205" r:id="rId1198" xr:uid="{206BD714-51F5-46AC-97F0-0298743B1F66}"/>
+    <hyperlink ref="I207" r:id="rId1199" xr:uid="{4D40B784-5CCE-42CA-94BA-BD86F3FBB675}"/>
+    <hyperlink ref="J207" r:id="rId1200" xr:uid="{8009EE03-4747-4C57-9446-EFF214AC247F}"/>
+    <hyperlink ref="I208" r:id="rId1201" xr:uid="{84086E9F-F12D-4D75-A9F9-114CDF40FE9B}"/>
+    <hyperlink ref="J208" r:id="rId1202" xr:uid="{3B186C03-7450-43C0-8DEF-14E6BE3217CA}"/>
+    <hyperlink ref="I209" r:id="rId1203" xr:uid="{1C5FED74-EC5A-479F-AA62-8D431E526EDC}"/>
+    <hyperlink ref="J209" r:id="rId1204" xr:uid="{ADC363AE-C951-4102-8F34-C78002E39A7E}"/>
+    <hyperlink ref="I210" r:id="rId1205" xr:uid="{E52C18D1-6BD6-421C-ABF9-3F23A11BF1CA}"/>
+    <hyperlink ref="J210" r:id="rId1206" xr:uid="{99894664-4D77-4173-BD41-DE3D7F08D34A}"/>
+    <hyperlink ref="I211" r:id="rId1207" xr:uid="{C0FD9BCC-1314-4B8D-A48F-F545CE446150}"/>
+    <hyperlink ref="J211" r:id="rId1208" xr:uid="{3533A817-91D8-4308-AD7D-3D52B0093E5B}"/>
+    <hyperlink ref="I212" r:id="rId1209" xr:uid="{63140679-D5B6-40B9-A1E7-52AE659154B6}"/>
+    <hyperlink ref="J212" r:id="rId1210" xr:uid="{A0CE3217-7674-4DF7-99AC-ABF86A2B96A1}"/>
+    <hyperlink ref="I213" r:id="rId1211" xr:uid="{F3926FC6-BE08-40BB-9816-82D0C8DD62B9}"/>
+    <hyperlink ref="J213" r:id="rId1212" xr:uid="{46987938-BF11-4953-9660-8B562A9067AC}"/>
+    <hyperlink ref="I214" r:id="rId1213" xr:uid="{B869DEE6-4B32-4155-B7A7-6E6C159E7F97}"/>
+    <hyperlink ref="J214" r:id="rId1214" xr:uid="{9642289A-4B82-4EB3-94A1-FE1E5E61A9AF}"/>
+    <hyperlink ref="I215" r:id="rId1215" xr:uid="{05731DA2-F39B-4951-BE40-485106943FCC}"/>
+    <hyperlink ref="J215" r:id="rId1216" xr:uid="{EC4B2C5E-00DE-42A8-8A84-DB84B82D2A72}"/>
+    <hyperlink ref="I216" r:id="rId1217" xr:uid="{C9127235-9021-451E-957A-B67BBCE3EABE}"/>
+    <hyperlink ref="J216" r:id="rId1218" xr:uid="{D17A66AF-DE27-4692-9243-61CDC95C6DF0}"/>
+    <hyperlink ref="I217" r:id="rId1219" xr:uid="{0390AC8B-70E0-417F-A0F9-DF425C61E1EA}"/>
+    <hyperlink ref="J217" r:id="rId1220" xr:uid="{044CF7B6-C777-465D-8CB2-D3ED0D0C8303}"/>
+    <hyperlink ref="I218" r:id="rId1221" xr:uid="{B24C19CA-4111-431A-8990-DA900CE887F7}"/>
+    <hyperlink ref="J218" r:id="rId1222" xr:uid="{536A9FAB-418C-4B8C-92E7-EE11965AD64C}"/>
+    <hyperlink ref="I219" r:id="rId1223" xr:uid="{30FE8A77-2306-470C-B182-4CFAF2DF2E6C}"/>
+    <hyperlink ref="J219" r:id="rId1224" xr:uid="{6D2B5199-818A-4BE6-9D66-02C4D94C2040}"/>
+    <hyperlink ref="I220" r:id="rId1225" xr:uid="{DCED3E43-29B6-4741-ABDB-6CE3158B5DF5}"/>
+    <hyperlink ref="J220" r:id="rId1226" xr:uid="{721A1815-E146-4C05-8EDA-283DE493AE5E}"/>
+    <hyperlink ref="I221" r:id="rId1227" xr:uid="{835BD772-602E-47A8-9C06-757CB514A3D5}"/>
+    <hyperlink ref="J221" r:id="rId1228" xr:uid="{E443C4D9-AA7B-4D1F-8011-1A6CEB566BC9}"/>
+    <hyperlink ref="I222" r:id="rId1229" xr:uid="{9576B966-79FC-40F8-9A9B-167B95963A00}"/>
+    <hyperlink ref="J222" r:id="rId1230" xr:uid="{FCE20151-3EEA-47DB-A062-FB5D1BEBC1BB}"/>
+    <hyperlink ref="I223" r:id="rId1231" xr:uid="{33C8930B-FC2D-445B-95D2-F093BAAEE1FE}"/>
+    <hyperlink ref="J223" r:id="rId1232" xr:uid="{1650FE2B-F5DA-4F2B-B661-94B7AB50EAA0}"/>
+    <hyperlink ref="I225" r:id="rId1233" xr:uid="{F047C363-906D-4E64-8BEA-9F6C96D95EFE}"/>
+    <hyperlink ref="J225" r:id="rId1234" xr:uid="{A6600F27-5FF3-4725-B5FD-C2457D903920}"/>
+    <hyperlink ref="I226" r:id="rId1235" xr:uid="{955A3D20-8041-4364-A2ED-4C8D141CE4CB}"/>
+    <hyperlink ref="J226" r:id="rId1236" xr:uid="{80359421-242D-4E9C-912C-21BBFA095FE9}"/>
+    <hyperlink ref="I227" r:id="rId1237" xr:uid="{040EA980-3E07-42DE-A9CE-06ECAC9C711F}"/>
+    <hyperlink ref="J227" r:id="rId1238" xr:uid="{E1CA02ED-A98A-4626-91BE-07B0975C3039}"/>
+    <hyperlink ref="I228" r:id="rId1239" xr:uid="{D2202952-B169-4B54-A8D2-E4DB768D9CA3}"/>
+    <hyperlink ref="J228" r:id="rId1240" xr:uid="{E7B5A87B-4B71-49A5-953B-291B2B3B4229}"/>
+    <hyperlink ref="I229" r:id="rId1241" xr:uid="{38A387AB-2E5D-43D2-A0B3-D50B5ECB41BA}"/>
+    <hyperlink ref="J229" r:id="rId1242" xr:uid="{421B879A-8493-4090-89A5-B3B903E46FA7}"/>
+    <hyperlink ref="I230" r:id="rId1243" xr:uid="{E29082CF-F0F2-4A37-8EBC-E9B88EA33F23}"/>
+    <hyperlink ref="J230" r:id="rId1244" xr:uid="{28A2CEBD-05B5-4199-A227-1A4C227C48DF}"/>
+    <hyperlink ref="I231" r:id="rId1245" xr:uid="{96F77CC5-83BE-4425-B622-E390FA0DB04E}"/>
+    <hyperlink ref="J231" r:id="rId1246" xr:uid="{620ADB6C-4C2A-4033-8B0C-EFF8979D4BCE}"/>
+    <hyperlink ref="I232" r:id="rId1247" xr:uid="{EF72ED7C-C3E3-49C2-8A03-8DEDBC0B8DDD}"/>
+    <hyperlink ref="J232" r:id="rId1248" xr:uid="{566FD82C-2DD7-4163-A0A4-316A7E287A90}"/>
+    <hyperlink ref="I233" r:id="rId1249" xr:uid="{0FDBBF79-BB63-4BA8-B492-816F3C65867E}"/>
+    <hyperlink ref="J233" r:id="rId1250" xr:uid="{F40A2B0C-7716-4EED-9981-68A3D9549EF1}"/>
+    <hyperlink ref="I234" r:id="rId1251" xr:uid="{6F1CF67E-18C0-492E-8DEF-D744E56F3C99}"/>
+    <hyperlink ref="J234" r:id="rId1252" xr:uid="{C1FFC12F-CE03-4C60-9518-1D89C38DDCD8}"/>
+    <hyperlink ref="I235" r:id="rId1253" xr:uid="{244DBBBD-C6D7-4E75-9E30-242F3EA9533C}"/>
+    <hyperlink ref="J235" r:id="rId1254" xr:uid="{382C10D5-E331-40DE-8AB5-4B11048BBAF3}"/>
+    <hyperlink ref="I236" r:id="rId1255" xr:uid="{33FA9F65-454D-4DFB-94E3-21D66BE4F948}"/>
+    <hyperlink ref="J236" r:id="rId1256" xr:uid="{91F39EB9-5A9F-4928-B9BF-7E88266F362B}"/>
+    <hyperlink ref="I237" r:id="rId1257" xr:uid="{2E5AB7EF-536C-49BF-921C-3EC6141C267B}"/>
+    <hyperlink ref="J237" r:id="rId1258" xr:uid="{276C0FB0-A7B4-4ADE-83F7-CEC0798B54DB}"/>
+    <hyperlink ref="I238" r:id="rId1259" xr:uid="{79105AA0-CC62-41AF-95F8-5DA05BCCB24D}"/>
+    <hyperlink ref="J238" r:id="rId1260" xr:uid="{4B0319DA-F477-4CE4-AFAF-C5ED139071C2}"/>
+    <hyperlink ref="I239" r:id="rId1261" xr:uid="{1028D587-5E97-452A-864F-1D61C68651B5}"/>
+    <hyperlink ref="J239" r:id="rId1262" xr:uid="{021E3578-E403-4313-928C-2FD63759A2B8}"/>
+    <hyperlink ref="I240" r:id="rId1263" xr:uid="{0596EB26-5EC5-4C65-8448-ACC0E7D3A098}"/>
+    <hyperlink ref="J240" r:id="rId1264" xr:uid="{B01B83E1-8B74-46A1-B38C-63AEF8287DE8}"/>
+    <hyperlink ref="I241" r:id="rId1265" xr:uid="{14EB5493-C717-4AEF-9E5A-620C46266064}"/>
+    <hyperlink ref="J241" r:id="rId1266" xr:uid="{866E6FED-B268-46A0-AB10-49067BE24084}"/>
+    <hyperlink ref="I243" r:id="rId1267" xr:uid="{86777F2C-BF80-4397-B463-072F7625722C}"/>
+    <hyperlink ref="J243" r:id="rId1268" xr:uid="{79C6396A-DD24-41F5-B888-F5E2B1A6D150}"/>
+    <hyperlink ref="I244" r:id="rId1269" xr:uid="{25E21AD4-21F8-46C4-8B7D-D107034C93D6}"/>
+    <hyperlink ref="J244" r:id="rId1270" xr:uid="{CD66E30B-34DA-419E-8814-BEB2DB242DBB}"/>
+    <hyperlink ref="I245" r:id="rId1271" xr:uid="{5DF6B3C6-73D9-4154-9441-24809A48CF79}"/>
+    <hyperlink ref="J245" r:id="rId1272" xr:uid="{75ECC3D0-EBFD-4193-A27B-FD0794706F3E}"/>
+    <hyperlink ref="I246" r:id="rId1273" xr:uid="{A485D4F1-624D-4EBF-88A6-59C086832F54}"/>
+    <hyperlink ref="J246" r:id="rId1274" xr:uid="{614050F5-2670-468B-8BD4-E313914CC88E}"/>
+    <hyperlink ref="I247" r:id="rId1275" xr:uid="{C31499A4-9478-4299-B1E7-9DCC2B893D2E}"/>
+    <hyperlink ref="J247" r:id="rId1276" xr:uid="{5B2E87A8-EFCF-4245-9CF4-FB6A7E0B43E1}"/>
+    <hyperlink ref="I248" r:id="rId1277" xr:uid="{C127F333-029E-4B62-9996-9A5A8D08F9DD}"/>
+    <hyperlink ref="J248" r:id="rId1278" xr:uid="{CBF85A96-9C0A-426B-B97B-EF5E7392E475}"/>
+    <hyperlink ref="I249" r:id="rId1279" xr:uid="{F336C709-48D8-49BD-84EC-89693512D1F4}"/>
+    <hyperlink ref="J249" r:id="rId1280" xr:uid="{7805EC1C-6247-452A-A511-1BE3CD9298A2}"/>
+    <hyperlink ref="I250" r:id="rId1281" xr:uid="{06991117-A772-41ED-BB5A-6ABE661A816D}"/>
+    <hyperlink ref="J250" r:id="rId1282" xr:uid="{B639FE66-6207-4491-A97C-30A997948238}"/>
+    <hyperlink ref="I252" r:id="rId1283" xr:uid="{92BA5FD1-8177-44AF-B505-FD45D1E7F15E}"/>
+    <hyperlink ref="J252" r:id="rId1284" xr:uid="{CB96A757-FF42-4658-889C-0A767440E2AA}"/>
+    <hyperlink ref="I253" r:id="rId1285" xr:uid="{E243345E-48FE-4B81-B3B6-F7C5651232D9}"/>
+    <hyperlink ref="J253" r:id="rId1286" xr:uid="{F800944B-CB3F-4AE1-ACC2-ED6EB497D137}"/>
+    <hyperlink ref="I254" r:id="rId1287" xr:uid="{0990C783-F0CA-4E27-9FEC-62A421B5C02A}"/>
+    <hyperlink ref="J254" r:id="rId1288" xr:uid="{F48EA102-230B-4583-8727-8AA6A69D66A0}"/>
+    <hyperlink ref="I255" r:id="rId1289" xr:uid="{2111C6EB-A437-4C65-9F3B-F84DECA50BF3}"/>
+    <hyperlink ref="J255" r:id="rId1290" xr:uid="{C1AEAF32-FEBC-414E-93EB-E28E3EE286CB}"/>
+    <hyperlink ref="I256" r:id="rId1291" xr:uid="{4F99336E-DEF3-445E-A24B-18039652D6C2}"/>
+    <hyperlink ref="J256" r:id="rId1292" xr:uid="{F6FF38A1-0E90-49DB-8BF6-E20E24A0BB6B}"/>
+    <hyperlink ref="I257" r:id="rId1293" xr:uid="{7BC1B2C7-B52D-491B-B820-E67372ED3035}"/>
+    <hyperlink ref="J257" r:id="rId1294" xr:uid="{43108DB3-D146-4C55-9063-29FE418CA2DE}"/>
+    <hyperlink ref="I258" r:id="rId1295" xr:uid="{A836D205-1DAA-4CD3-9FDF-0C20432C457E}"/>
+    <hyperlink ref="J258" r:id="rId1296" xr:uid="{1A96EA2F-8BEF-4BFE-944C-388A85EFC360}"/>
+    <hyperlink ref="I259" r:id="rId1297" xr:uid="{55393278-8AC3-46E8-9417-1E95492AA88C}"/>
+    <hyperlink ref="J259" r:id="rId1298" xr:uid="{EA8A1059-0563-46C3-9D4D-EEDBBFBA3D24}"/>
+    <hyperlink ref="I260" r:id="rId1299" xr:uid="{5B983455-91B2-4E89-B503-4BDEF0CA6158}"/>
+    <hyperlink ref="J260" r:id="rId1300" xr:uid="{FCEB53B6-9ECC-4836-9AE1-CCD697F9DF55}"/>
+    <hyperlink ref="I261" r:id="rId1301" xr:uid="{1C26B72B-24CA-4A20-8AAD-6E72281B30F8}"/>
+    <hyperlink ref="J261" r:id="rId1302" xr:uid="{555163DD-9062-4B29-875B-F323B45AF83B}"/>
+    <hyperlink ref="I262" r:id="rId1303" xr:uid="{74BC4A8F-C8CD-4983-897F-31D5B87F82B9}"/>
+    <hyperlink ref="J262" r:id="rId1304" xr:uid="{200FB153-32E7-4F10-8580-E83DFC271736}"/>
+    <hyperlink ref="I263" r:id="rId1305" xr:uid="{90912F0F-336E-4F7F-A5C0-CE0859AA58FF}"/>
+    <hyperlink ref="J263" r:id="rId1306" xr:uid="{83F16E51-C450-4ED5-ACDE-2738A419A434}"/>
+    <hyperlink ref="I264" r:id="rId1307" xr:uid="{7EF24EAB-7B1A-4587-ACE2-AF62C9767EBA}"/>
+    <hyperlink ref="J264" r:id="rId1308" xr:uid="{822B90E5-A680-45E2-A2C2-5825BB8F132D}"/>
+    <hyperlink ref="I266" r:id="rId1309" xr:uid="{FB5A0E3F-8E22-47B5-A3FB-73FD09962C47}"/>
+    <hyperlink ref="J266" r:id="rId1310" xr:uid="{56FE962A-6809-4626-A03A-7B9D34B29171}"/>
+    <hyperlink ref="J267" r:id="rId1311" xr:uid="{6708F5CB-E71E-49C8-B3ED-266EE9359640}"/>
+    <hyperlink ref="I267" r:id="rId1312" xr:uid="{D1F1AFF9-6988-45C0-9506-C6840333384D}"/>
+    <hyperlink ref="I268" r:id="rId1313" xr:uid="{21569E89-4003-409B-B98C-D32C1CEE1DA0}"/>
+    <hyperlink ref="J268" r:id="rId1314" xr:uid="{80D3EF35-701F-4B7E-9E72-25BF6ABA4635}"/>
+    <hyperlink ref="I269" r:id="rId1315" xr:uid="{68F17FCC-AF0D-42BF-B775-E057D94234F7}"/>
+    <hyperlink ref="J269" r:id="rId1316" xr:uid="{8B20AF17-90EC-43F8-BE32-FAE380E6C838}"/>
+    <hyperlink ref="I270" r:id="rId1317" xr:uid="{C983A9A5-CEE8-4695-B995-BFDD81C9B2C7}"/>
+    <hyperlink ref="J270" r:id="rId1318" xr:uid="{4AD308DB-40A2-4423-874D-202538288676}"/>
+    <hyperlink ref="I271" r:id="rId1319" xr:uid="{936F18DA-C9A0-4888-AF48-56CBF8219C4B}"/>
+    <hyperlink ref="J271" r:id="rId1320" xr:uid="{5AAF511C-19A0-4443-8FBF-8A950519987A}"/>
+    <hyperlink ref="I273" r:id="rId1321" xr:uid="{33A8445A-9C7F-4BEF-8CE1-29447C2FDD96}"/>
+    <hyperlink ref="J273" r:id="rId1322" xr:uid="{3031F5AA-0C1F-4325-82EA-7B6152C95E0A}"/>
+    <hyperlink ref="I274" r:id="rId1323" xr:uid="{F55844DE-E31A-4409-A931-EBF9D71FC0DD}"/>
+    <hyperlink ref="J274" r:id="rId1324" xr:uid="{618CDA92-D567-4521-A4F8-AC817787DE5C}"/>
+    <hyperlink ref="I275" r:id="rId1325" xr:uid="{647ABC56-CF1B-4113-96A2-B0B915FCBE88}"/>
+    <hyperlink ref="J275" r:id="rId1326" xr:uid="{493AA7D5-B4A6-4E16-95E0-30213C1B1579}"/>
+    <hyperlink ref="I276" r:id="rId1327" xr:uid="{2BCF0715-E193-4CF4-9B57-1F2EAACB553E}"/>
+    <hyperlink ref="J276" r:id="rId1328" xr:uid="{79B37A2D-1EA0-446C-9E02-C9C923E9B519}"/>
+    <hyperlink ref="I277" r:id="rId1329" xr:uid="{D0E458B4-465E-4110-8B99-B3B674193914}"/>
+    <hyperlink ref="J277" r:id="rId1330" xr:uid="{BDA23700-888E-42E1-AC73-6B1A9F407B82}"/>
+    <hyperlink ref="I278" r:id="rId1331" xr:uid="{E28E222D-10CE-4B1C-9209-F93B042BD7DC}"/>
+    <hyperlink ref="J278" r:id="rId1332" xr:uid="{B525C631-D6AC-4F35-827E-549FA00C43B3}"/>
+    <hyperlink ref="I279" r:id="rId1333" xr:uid="{8D9E1100-E165-411A-B8FE-999BB33A1798}"/>
+    <hyperlink ref="J279" r:id="rId1334" xr:uid="{61D6BC4B-F8DB-4767-8EF9-5B35ED9595A8}"/>
+    <hyperlink ref="I280" r:id="rId1335" xr:uid="{CB0765D0-0585-43C0-85B2-8A58FF28AEE3}"/>
+    <hyperlink ref="J280" r:id="rId1336" xr:uid="{431E923E-09AA-4822-8B92-94CE7A2E2E93}"/>
+    <hyperlink ref="I282" r:id="rId1337" xr:uid="{1F1EBDC1-37D0-494D-9F4C-E4BAF2199365}"/>
+    <hyperlink ref="J282" r:id="rId1338" xr:uid="{33D9076A-0D41-4C39-9004-83A665C74F90}"/>
+    <hyperlink ref="I283" r:id="rId1339" xr:uid="{3A7F3910-96FA-4B6C-B3A2-284BE63713D8}"/>
+    <hyperlink ref="J283" r:id="rId1340" xr:uid="{6431B938-08BB-401A-AD5A-0000ACF07024}"/>
+    <hyperlink ref="I284" r:id="rId1341" xr:uid="{7DB142BF-23D9-4306-AB3D-C982156ED984}"/>
+    <hyperlink ref="J284" r:id="rId1342" xr:uid="{E3AC3BE9-3DAB-4165-B675-1D144998C813}"/>
+    <hyperlink ref="I285" r:id="rId1343" xr:uid="{540D65E6-19E3-4D12-BB96-4DCFC40DE974}"/>
+    <hyperlink ref="J285" r:id="rId1344" xr:uid="{4811CD38-DA56-4913-BF26-D70632A92616}"/>
+    <hyperlink ref="I286" r:id="rId1345" xr:uid="{9ACB9709-E852-4290-AD7A-C54C7F1E9627}"/>
+    <hyperlink ref="J286" r:id="rId1346" xr:uid="{5E6D98A2-4CD8-4C19-A127-AF0A682A9A8D}"/>
+    <hyperlink ref="I287" r:id="rId1347" xr:uid="{E1BA5DFA-9FA8-4116-A078-81D04F478B76}"/>
+    <hyperlink ref="J287" r:id="rId1348" xr:uid="{5CBE5006-4896-4383-8D63-F7E7D116DEEC}"/>
+    <hyperlink ref="I288" r:id="rId1349" xr:uid="{3AFF46DA-9A35-41C7-AD2E-2C2BA0CD2176}"/>
+    <hyperlink ref="J288" r:id="rId1350" xr:uid="{4898CBA1-66FC-43F7-8D11-FE1339122552}"/>
+    <hyperlink ref="I289" r:id="rId1351" xr:uid="{D8DC2967-5820-41CB-9A61-C06FD3DEC322}"/>
+    <hyperlink ref="J289" r:id="rId1352" xr:uid="{974354A5-8F12-4E12-9655-5298DAAF7B17}"/>
+    <hyperlink ref="I290" r:id="rId1353" xr:uid="{BA79A7C8-706A-4A8C-A52E-AFD23120F1D2}"/>
+    <hyperlink ref="J290" r:id="rId1354" xr:uid="{A8B44967-081D-427C-BA84-C91AFFC247CD}"/>
+    <hyperlink ref="I291" r:id="rId1355" xr:uid="{4EAFA38F-34A6-457F-AFD8-0E9D321294E8}"/>
+    <hyperlink ref="J291" r:id="rId1356" xr:uid="{E253A7C6-6B2E-4CD2-A95A-EF1F7BC82BA1}"/>
+    <hyperlink ref="I292" r:id="rId1357" xr:uid="{4E2B250D-9B2D-471F-9DD7-306AB22A402C}"/>
+    <hyperlink ref="J292" r:id="rId1358" xr:uid="{BBCEAF33-BD4D-4AD9-91DE-C0CCA8B53E38}"/>
+    <hyperlink ref="I293" r:id="rId1359" xr:uid="{04859C78-0994-4C56-8675-70EB76F39D7C}"/>
+    <hyperlink ref="J293" r:id="rId1360" xr:uid="{BA3CCDA8-9E09-42C8-ADEC-F1A12F1FF7C8}"/>
+    <hyperlink ref="I294" r:id="rId1361" xr:uid="{3CC90E37-1BF5-4262-934D-A37993466EA3}"/>
+    <hyperlink ref="J294" r:id="rId1362" xr:uid="{E7761221-3353-4AEE-BBB1-41ED2D45B41A}"/>
+    <hyperlink ref="I295" r:id="rId1363" xr:uid="{8FA9A865-0FFA-42CE-BA34-CE4F2C830BF3}"/>
+    <hyperlink ref="J295" r:id="rId1364" xr:uid="{2D70BF3F-BDD9-47BA-8DE9-25F7BBBD5A11}"/>
+    <hyperlink ref="I296" r:id="rId1365" xr:uid="{6DC7B8A1-4772-4E23-89A3-6DD1EDB003A8}"/>
+    <hyperlink ref="J296" r:id="rId1366" xr:uid="{88DFBCDE-5E18-4C8B-900C-909738CD4BA8}"/>
+    <hyperlink ref="I297" r:id="rId1367" xr:uid="{A4B45442-E1A1-4A8A-B0E1-1758E18DE5E9}"/>
+    <hyperlink ref="J297" r:id="rId1368" xr:uid="{79244E1F-1B5D-4F1D-B0F1-66AA0AEFFFA2}"/>
+    <hyperlink ref="I298" r:id="rId1369" xr:uid="{8EEABF58-D65C-47DF-81F0-E1CF211BE37A}"/>
+    <hyperlink ref="J298" r:id="rId1370" xr:uid="{4F19D743-EDA6-4667-ACC3-13AE8966993A}"/>
+    <hyperlink ref="I299" r:id="rId1371" xr:uid="{A8F2BF96-9966-467E-9D99-963BF9EE6462}"/>
+    <hyperlink ref="J299" r:id="rId1372" xr:uid="{FF2C4D5B-1103-490F-9449-EB7033E0ABF0}"/>
+    <hyperlink ref="I300" r:id="rId1373" xr:uid="{47F3A1BD-FC3C-4DDC-B0BB-183DA4A17B41}"/>
+    <hyperlink ref="J300" r:id="rId1374" xr:uid="{45013952-3321-445D-842A-4E8BE396BBF4}"/>
+    <hyperlink ref="I301" r:id="rId1375" xr:uid="{7A0E4B3A-9CB1-4216-BD6B-40D0D9C5078C}"/>
+    <hyperlink ref="J301" r:id="rId1376" xr:uid="{A34B792F-6594-4B13-8C9C-73727350CDD8}"/>
+    <hyperlink ref="I302" r:id="rId1377" xr:uid="{7BA252F5-C9B8-4BC0-8F0F-FA5EFAFC8CAA}"/>
+    <hyperlink ref="J302" r:id="rId1378" xr:uid="{D0600B32-DE16-4808-BF6A-1F0D6F21CC3F}"/>
+    <hyperlink ref="I303" r:id="rId1379" xr:uid="{E1EA2C31-9E58-438B-84E1-6DFCBBDC27D0}"/>
+    <hyperlink ref="J303" r:id="rId1380" xr:uid="{AE252CB4-6A25-4D21-82AE-2A8715E79BBC}"/>
+    <hyperlink ref="I304" r:id="rId1381" xr:uid="{E67DB4C0-3572-48E7-B0C4-5279C28C3911}"/>
+    <hyperlink ref="J304" r:id="rId1382" xr:uid="{869ABC22-3AD5-4519-9F8E-36FE1C78B7FD}"/>
+    <hyperlink ref="I305" r:id="rId1383" xr:uid="{EEE25A09-882F-4916-8120-4CACA368ED9F}"/>
+    <hyperlink ref="J305" r:id="rId1384" xr:uid="{130ED3AE-8E28-4995-98AB-66F26D1CA7D8}"/>
+    <hyperlink ref="I306" r:id="rId1385" xr:uid="{DD637F4D-7DFA-4A08-A241-B1D3550076F1}"/>
+    <hyperlink ref="J306" r:id="rId1386" xr:uid="{EDAD5D19-187A-4653-B3DE-369EFF183F9E}"/>
+    <hyperlink ref="I307" r:id="rId1387" xr:uid="{B484FDE1-EC98-4222-9EDD-28F337AA9AC0}"/>
+    <hyperlink ref="J307" r:id="rId1388" xr:uid="{B7303B11-E453-4E23-BBD7-C5F3A73C96DE}"/>
+    <hyperlink ref="I308" r:id="rId1389" xr:uid="{1A3809D7-3861-44E3-9014-9BD2E75D01B8}"/>
+    <hyperlink ref="J308" r:id="rId1390" xr:uid="{BC9BBD38-AB11-4009-9372-54A28B94F13E}"/>
+    <hyperlink ref="I309" r:id="rId1391" xr:uid="{DC80F0E0-335E-4334-BF2A-152A2B3C118B}"/>
+    <hyperlink ref="J309" r:id="rId1392" xr:uid="{7CCF2EA0-CA0C-4552-B799-9FC3A85973F3}"/>
+    <hyperlink ref="I310" r:id="rId1393" xr:uid="{078519EE-2E27-4390-8695-E498CAFBC384}"/>
+    <hyperlink ref="J310" r:id="rId1394" xr:uid="{BE52A010-24A7-4F02-A309-E103F0065CA4}"/>
+    <hyperlink ref="I311" r:id="rId1395" xr:uid="{C8FBA5EA-564E-4A94-988A-304A327D42D7}"/>
+    <hyperlink ref="J311" r:id="rId1396" xr:uid="{07B54400-77B0-4A41-AB6A-855FA9B1916C}"/>
+    <hyperlink ref="I312" r:id="rId1397" xr:uid="{3CDF90B0-EFD5-41AF-88BA-220125DD70CB}"/>
+    <hyperlink ref="J312" r:id="rId1398" xr:uid="{63860465-E04D-4419-980C-8A0DF61097DA}"/>
+    <hyperlink ref="I313" r:id="rId1399" xr:uid="{98F74A35-9606-4D90-BDE9-94D1FC044B6E}"/>
+    <hyperlink ref="J313" r:id="rId1400" xr:uid="{714AA937-5882-422E-A076-EB1CE17692CD}"/>
+    <hyperlink ref="I314" r:id="rId1401" xr:uid="{66187586-B607-4CED-B89A-A5621FFF53CC}"/>
+    <hyperlink ref="J314" r:id="rId1402" xr:uid="{7D1DC5FB-E5F6-44BA-A425-AF96C14C52B8}"/>
+    <hyperlink ref="I315" r:id="rId1403" xr:uid="{FD235E92-7703-47BD-AB06-9B08F0D8799A}"/>
+    <hyperlink ref="J315" r:id="rId1404" xr:uid="{51442F2B-E087-4DBE-94EA-BE392A333E94}"/>
+    <hyperlink ref="I316" r:id="rId1405" xr:uid="{442B8E64-2F94-4B7E-85D5-887DF1073EFA}"/>
+    <hyperlink ref="J316" r:id="rId1406" xr:uid="{975DC67F-1789-4CF9-9032-B509F9FD048F}"/>
+    <hyperlink ref="I317" r:id="rId1407" xr:uid="{E7519F59-96DF-4614-9B83-93F1C67849A2}"/>
+    <hyperlink ref="J317" r:id="rId1408" xr:uid="{29ABBF44-17CA-4292-BB95-E63B8E0D85F3}"/>
+    <hyperlink ref="I318" r:id="rId1409" xr:uid="{D0B07EF5-D172-48FF-BEEC-0E6A2897735E}"/>
+    <hyperlink ref="J318" r:id="rId1410" xr:uid="{719AE4A4-B62D-4AF6-8607-ABD7657ADC0E}"/>
+    <hyperlink ref="I319" r:id="rId1411" xr:uid="{E6533899-F1AB-4359-9F78-0C3DC0B9E672}"/>
+    <hyperlink ref="J319" r:id="rId1412" xr:uid="{2A0D27F5-13B5-46E9-946F-E2F8CA6DAABD}"/>
+    <hyperlink ref="I320" r:id="rId1413" xr:uid="{75A6CFB4-F47E-4C00-AED3-1E9AB1125450}"/>
+    <hyperlink ref="J320" r:id="rId1414" xr:uid="{330E8F1E-F934-467A-AD06-EFF336AAD676}"/>
+    <hyperlink ref="I321" r:id="rId1415" xr:uid="{A45C62E2-AB96-4BDA-8CF0-C5D9976307F8}"/>
+    <hyperlink ref="J321" r:id="rId1416" xr:uid="{49E526A1-4C40-4B2A-BE63-B43E2ECE72C6}"/>
+    <hyperlink ref="I322" r:id="rId1417" xr:uid="{8598314B-C2AF-4C03-BB43-0799365E5709}"/>
+    <hyperlink ref="J322" r:id="rId1418" xr:uid="{DFC1A003-070B-48FE-8D82-A10643E603D8}"/>
+    <hyperlink ref="I323" r:id="rId1419" xr:uid="{36DECB2B-0A1B-4EAE-8EB5-6E4D643F6809}"/>
+    <hyperlink ref="J323" r:id="rId1420" xr:uid="{DBF759FA-92B2-4311-8B46-8E34DCE5A4AF}"/>
+    <hyperlink ref="J324" r:id="rId1421" xr:uid="{6D86619A-4002-4314-8A19-5A6BD2D74E86}"/>
+    <hyperlink ref="I326" r:id="rId1422" xr:uid="{03A187F0-1347-4B64-88DA-EFA4BE0DAD3A}"/>
+    <hyperlink ref="J326" r:id="rId1423" xr:uid="{DE5B4820-FF16-42D1-A8C3-C67250E0BF84}"/>
+    <hyperlink ref="I328" r:id="rId1424" xr:uid="{E7F88093-7AFF-41AB-8868-619B201C1106}"/>
+    <hyperlink ref="J328" r:id="rId1425" xr:uid="{5CEAB345-9632-4D23-855D-175090CD1FD7}"/>
+    <hyperlink ref="I329" r:id="rId1426" xr:uid="{49B05E95-606D-4637-86E3-0EE2078EFB04}"/>
+    <hyperlink ref="J329" r:id="rId1427" xr:uid="{2A34CF02-0922-4F73-AAF6-55CB80F63853}"/>
+    <hyperlink ref="I332" r:id="rId1428" xr:uid="{A1076879-4A4A-4BB7-9707-D46607051C4C}"/>
+    <hyperlink ref="J332" r:id="rId1429" xr:uid="{C59C9E85-2E86-4036-9509-CA180E144BFC}"/>
+    <hyperlink ref="F346" r:id="rId1430" xr:uid="{E5F00FAD-CD17-4629-80E5-6DC3ED7865AF}"/>
+    <hyperlink ref="G346" r:id="rId1431" xr:uid="{6E6B20A8-F499-4FBB-B3DA-A983A5605A7F}"/>
+    <hyperlink ref="H346" r:id="rId1432" xr:uid="{44966AD7-78CE-4880-AC66-E7F86B55D055}"/>
+    <hyperlink ref="I346" r:id="rId1433" xr:uid="{AC9717CB-87DF-473D-9805-455D162731EA}"/>
+    <hyperlink ref="J346" r:id="rId1434" xr:uid="{BD82C665-B99A-4470-A126-131CD9EFB230}"/>
+    <hyperlink ref="F347" r:id="rId1435" xr:uid="{11B9D2BE-BFE1-43C2-BD86-9C196A7AEB3C}"/>
+    <hyperlink ref="G347" r:id="rId1436" xr:uid="{899FA22A-95A2-4C62-82F2-FBB9EAFA112D}"/>
+    <hyperlink ref="H347" r:id="rId1437" xr:uid="{5B329F37-C524-4678-A18D-39072F7A47B5}"/>
+    <hyperlink ref="I347" r:id="rId1438" xr:uid="{10E1C1A0-5B64-4DFE-9E44-608D2BB5C6ED}"/>
+    <hyperlink ref="J347" r:id="rId1439" xr:uid="{3621C937-CFF9-4B2C-B670-0397DB38F4E6}"/>
+    <hyperlink ref="F348" r:id="rId1440" xr:uid="{DAD9857E-F42D-4F8C-9EEA-E5D815C19876}"/>
+    <hyperlink ref="G348" r:id="rId1441" xr:uid="{E96C5344-31AE-46B2-A966-4174C47BA907}"/>
+    <hyperlink ref="H348" r:id="rId1442" xr:uid="{9EB1AACA-D6FF-458A-9EDD-2CF17135B9D6}"/>
+    <hyperlink ref="I348" r:id="rId1443" xr:uid="{3C878564-9B35-4F04-9F38-5326414094A5}"/>
+    <hyperlink ref="J348" r:id="rId1444" xr:uid="{F61BB641-AA09-41C8-A934-392E61FF1FB7}"/>
+    <hyperlink ref="F349" r:id="rId1445" xr:uid="{B880025E-217D-4D2E-B008-81E812A73D99}"/>
+    <hyperlink ref="G349" r:id="rId1446" xr:uid="{0D8D48AD-6CBD-4305-BE5B-25BA2E133158}"/>
+    <hyperlink ref="H349" r:id="rId1447" xr:uid="{12D7C25C-ACC2-4882-962A-0D863759DDB4}"/>
+    <hyperlink ref="I349" r:id="rId1448" xr:uid="{19EF4D50-E33E-48B5-A4F8-920FF6D67A88}"/>
+    <hyperlink ref="J349" r:id="rId1449" xr:uid="{9E7843ED-3E44-448C-BDFF-7A9690997390}"/>
+    <hyperlink ref="F350" r:id="rId1450" xr:uid="{68E933E2-82D9-4C3E-AA07-F55F282FC524}"/>
+    <hyperlink ref="G350" r:id="rId1451" xr:uid="{0EF484D1-4660-4B09-AC45-95AAF306006D}"/>
+    <hyperlink ref="H350" r:id="rId1452" xr:uid="{F6CBAE5E-B3A9-42C1-84DF-0B4414EBDB0D}"/>
+    <hyperlink ref="I350" r:id="rId1453" xr:uid="{794E1743-3F8A-419D-84FD-994919C721D5}"/>
+    <hyperlink ref="J350" r:id="rId1454" xr:uid="{94CBA256-286B-43CF-A15C-BB2ADA07D8E4}"/>
+    <hyperlink ref="F351" r:id="rId1455" xr:uid="{2E754F5B-7AF5-4274-92C0-33F0DA59727A}"/>
+    <hyperlink ref="G351" r:id="rId1456" xr:uid="{20C552B4-25D7-4E32-A9D6-C68656260902}"/>
+    <hyperlink ref="H351" r:id="rId1457" xr:uid="{E89E8EF4-C2AB-49A1-8C28-631C6A0847E4}"/>
+    <hyperlink ref="I351" r:id="rId1458" xr:uid="{711CA091-D81F-42B6-B641-5D4B1E18DD41}"/>
+    <hyperlink ref="J351" r:id="rId1459" xr:uid="{B857136F-5C8F-4355-9AB7-1283FDE45829}"/>
+    <hyperlink ref="F352" r:id="rId1460" xr:uid="{5542DC5D-AB3B-49FF-807C-3C3305A7B076}"/>
+    <hyperlink ref="G352" r:id="rId1461" xr:uid="{A7930621-918D-4C0B-9FB7-35C3B84CB9BC}"/>
+    <hyperlink ref="H352" r:id="rId1462" xr:uid="{841078C7-96E6-4166-B6CE-59F3BBBD70D9}"/>
+    <hyperlink ref="I352" r:id="rId1463" xr:uid="{06BF4AE5-12B6-44CD-923C-13DDCDC0E57B}"/>
+    <hyperlink ref="J352" r:id="rId1464" xr:uid="{78AF7474-272E-4196-81C9-9A0F70908A86}"/>
+    <hyperlink ref="F353" r:id="rId1465" xr:uid="{95615DE4-395C-4381-AA59-3EEC57EDE99F}"/>
+    <hyperlink ref="G353" r:id="rId1466" xr:uid="{4F594879-30D8-45D2-84FA-D50E67981BAA}"/>
+    <hyperlink ref="H353" r:id="rId1467" xr:uid="{F390B035-184D-4492-9D1B-4A59BEC27860}"/>
+    <hyperlink ref="I353" r:id="rId1468" xr:uid="{33BB4538-3F04-4292-8D0E-C0E261F8F44D}"/>
+    <hyperlink ref="J353" r:id="rId1469" xr:uid="{3CE75AC1-FEB4-429D-B948-B31C2B4CC1AE}"/>
+    <hyperlink ref="F354" r:id="rId1470" xr:uid="{C4F5ED41-6FED-41B2-B77E-806DEBE44A76}"/>
+    <hyperlink ref="G354" r:id="rId1471" xr:uid="{17B8D3BD-1736-4649-A986-AB47EF2FC20E}"/>
+    <hyperlink ref="H354" r:id="rId1472" xr:uid="{6D9F36C4-170C-4092-8A16-3EC8113201CF}"/>
+    <hyperlink ref="I354" r:id="rId1473" xr:uid="{70C3CF2F-5CC5-4664-9D5D-FDB6193600DA}"/>
+    <hyperlink ref="J354" r:id="rId1474" xr:uid="{0045438D-6FFD-44E2-8C0F-9CC9F4BA0F5A}"/>
+    <hyperlink ref="F355" r:id="rId1475" xr:uid="{4F03E399-A65A-4F80-BCAE-F4C4E0B3BB38}"/>
+    <hyperlink ref="G355" r:id="rId1476" xr:uid="{83C50C12-4B43-491F-8CE4-DF151049F071}"/>
+    <hyperlink ref="H355" r:id="rId1477" xr:uid="{23C70C20-FBBF-4F45-932F-A26BD0398A9A}"/>
+    <hyperlink ref="I355" r:id="rId1478" xr:uid="{67BAE2EB-E8C2-4D49-A3E5-EFCA3374C352}"/>
+    <hyperlink ref="J355" r:id="rId1479" xr:uid="{7E2211CB-453C-46AE-BA43-45790804EFC5}"/>
+    <hyperlink ref="F356" r:id="rId1480" xr:uid="{91038F82-3832-4F60-A5F9-96D9C366F277}"/>
+    <hyperlink ref="G356" r:id="rId1481" xr:uid="{390899C9-B4F6-429A-A031-155DCC9A728B}"/>
+    <hyperlink ref="H356" r:id="rId1482" xr:uid="{0386AC29-3E18-438C-9AFD-07FD7E49C8A3}"/>
+    <hyperlink ref="I356" r:id="rId1483" xr:uid="{B9D54722-D8DA-4271-94BB-C186F661B45D}"/>
+    <hyperlink ref="J356" r:id="rId1484" xr:uid="{A6210485-CBF2-46A6-9DF9-5F1BD82A0E73}"/>
+    <hyperlink ref="F357" r:id="rId1485" xr:uid="{E6B6899F-A6D4-442C-9FC4-B49A86026833}"/>
+    <hyperlink ref="G357" r:id="rId1486" xr:uid="{957F2765-E3E8-4DFA-A661-243EE51910DD}"/>
+    <hyperlink ref="H357" r:id="rId1487" xr:uid="{C1CB46CC-B7F1-45CB-9B5B-DD114B29ADE7}"/>
+    <hyperlink ref="I357" r:id="rId1488" xr:uid="{337DF965-35CF-472C-BB05-671E33C5CF49}"/>
+    <hyperlink ref="J357" r:id="rId1489" xr:uid="{DDC3CE02-24C7-42BF-A2BA-3D3263F8A70C}"/>
+    <hyperlink ref="F358" r:id="rId1490" xr:uid="{271F7D2C-C922-4040-B397-6EC9338D99B6}"/>
+    <hyperlink ref="G358" r:id="rId1491" xr:uid="{66598E50-52AB-4E67-801D-EA292E114284}"/>
+    <hyperlink ref="H358" r:id="rId1492" xr:uid="{A35277CC-831B-4462-975A-915C2B653187}"/>
+    <hyperlink ref="I358" r:id="rId1493" xr:uid="{C9B3335E-28FB-4553-B56E-26D3E6E56125}"/>
+    <hyperlink ref="J358" r:id="rId1494" xr:uid="{A47CF0CC-3AAC-41D1-81C3-71652EEED0FD}"/>
+    <hyperlink ref="F359" r:id="rId1495" xr:uid="{41C206CB-246A-4B94-9995-F0C68454112E}"/>
+    <hyperlink ref="G359" r:id="rId1496" xr:uid="{D916C860-C90C-4D8C-AF1A-56FD67A3D3B6}"/>
+    <hyperlink ref="H359" r:id="rId1497" xr:uid="{F1022EB5-CB72-4C89-9AB5-3EDC2582840F}"/>
+    <hyperlink ref="I359" r:id="rId1498" xr:uid="{ABFCA587-A2BF-4D5F-B31C-CC4644E724E7}"/>
+    <hyperlink ref="J359" r:id="rId1499" xr:uid="{00128243-B096-4793-87FB-3A8BEA33420A}"/>
+    <hyperlink ref="F360" r:id="rId1500" xr:uid="{30FF3C82-3C53-4C09-9E08-4BF0FD24DCF9}"/>
+    <hyperlink ref="I224" r:id="rId1501" xr:uid="{0928CE4E-E37E-4BD4-BB63-2315FA8F0884}"/>
+    <hyperlink ref="J224" r:id="rId1502" xr:uid="{AF22EEC7-3471-4560-A11E-A647EEDB8752}"/>
+    <hyperlink ref="I272" r:id="rId1503" xr:uid="{E8790EEC-FEEF-48FF-AF0F-B04199B565F4}"/>
+    <hyperlink ref="J272" r:id="rId1504" xr:uid="{EE492F6A-4B20-4D42-82EE-7FBCF29C425E}"/>
+    <hyperlink ref="F361" r:id="rId1505" xr:uid="{7A9B2BA6-6A7C-4ECA-B329-68B10C358DF6}"/>
+    <hyperlink ref="G361" r:id="rId1506" xr:uid="{C2D2408C-D101-4D00-9039-457ECAB1FF64}"/>
+    <hyperlink ref="H361" r:id="rId1507" xr:uid="{8123112E-531D-40E8-8559-FE719183B655}"/>
+    <hyperlink ref="I361" r:id="rId1508" xr:uid="{45C122AA-3D13-4D81-985D-9F05C45FF529}"/>
+    <hyperlink ref="J361" r:id="rId1509" xr:uid="{64782514-DA30-4C58-B03E-240BAAE6F27F}"/>
+    <hyperlink ref="F362" r:id="rId1510" xr:uid="{A600E427-5051-4810-B748-158F82112D0E}"/>
+    <hyperlink ref="G362" r:id="rId1511" xr:uid="{18D3F212-38C6-47F6-AD83-4182E59C24F2}"/>
+    <hyperlink ref="H362" r:id="rId1512" xr:uid="{CA74C210-FDD1-46B3-8FF8-4A9CDCC1E243}"/>
+    <hyperlink ref="I362" r:id="rId1513" xr:uid="{C4409797-4ED9-453B-93EA-22EBCD73F19C}"/>
+    <hyperlink ref="J362" r:id="rId1514" xr:uid="{AB220784-61FF-4B57-AABC-0E4B4B42726F}"/>
+    <hyperlink ref="F363" r:id="rId1515" xr:uid="{89ACD43F-B79E-41B8-9F0A-7FAC60890268}"/>
+    <hyperlink ref="G363" r:id="rId1516" xr:uid="{53F77340-8C30-47AC-A161-D8CEC011C791}"/>
+    <hyperlink ref="H363" r:id="rId1517" xr:uid="{9B0408FF-76B8-4D9E-AAC0-5115239FB59A}"/>
+    <hyperlink ref="I363" r:id="rId1518" xr:uid="{241FFB2F-AD72-4F02-909A-9975DC2F3BDB}"/>
+    <hyperlink ref="J363" r:id="rId1519" xr:uid="{F1C3DD83-C05E-4943-B296-D7B8D69DC96E}"/>
+    <hyperlink ref="F364" r:id="rId1520" xr:uid="{394811EA-CA96-49C8-9171-9F8C22924B38}"/>
+    <hyperlink ref="G364" r:id="rId1521" xr:uid="{EB444B6B-7635-4A18-95F0-8A26560A6E8E}"/>
+    <hyperlink ref="H364" r:id="rId1522" xr:uid="{28213A76-5B67-4431-BDAB-95923DBB4A36}"/>
+    <hyperlink ref="I364" r:id="rId1523" xr:uid="{7BF3914C-9323-4803-9707-BD796A1A308C}"/>
+    <hyperlink ref="J364" r:id="rId1524" xr:uid="{BA8DC8F7-8618-4868-A491-FA9176C9C3F4}"/>
+    <hyperlink ref="I324" r:id="rId1525" xr:uid="{6B3DD9B7-E8FF-4F23-8E34-B112959FF859}"/>
+    <hyperlink ref="I242" r:id="rId1526" xr:uid="{FC801369-1A9C-401E-80B5-6EE27996CB34}"/>
+    <hyperlink ref="J242" r:id="rId1527" xr:uid="{740A8E53-721C-4309-A368-44241417CA5D}"/>
+    <hyperlink ref="I265" r:id="rId1528" xr:uid="{81C18AFB-769E-4104-983D-7FBCEF3C5CDB}"/>
+    <hyperlink ref="I251" r:id="rId1529" xr:uid="{91F03ED3-9660-4E6D-B574-E8EEBC1F1E40}"/>
+    <hyperlink ref="J251" r:id="rId1530" xr:uid="{C4507BE4-AD00-4D0A-BA45-76822A65A031}"/>
+    <hyperlink ref="F365" r:id="rId1531" xr:uid="{4AF6BB23-8AA7-444B-8422-89BAD383C054}"/>
+    <hyperlink ref="G365" r:id="rId1532" xr:uid="{D7CB5728-41F7-488F-8B16-21A09E32D5FC}"/>
+    <hyperlink ref="H365" r:id="rId1533" xr:uid="{3F4EAFF7-ACA0-46F3-A208-789CE07E3E62}"/>
+    <hyperlink ref="I365" r:id="rId1534" xr:uid="{DC5EC07C-DF73-4371-97CB-E8F1302FCCC5}"/>
+    <hyperlink ref="J365" r:id="rId1535" xr:uid="{6510321B-65FB-4AC4-A6DC-0CCB73F78E8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1536"/>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E1585-1131-464C-A145-D97879ADF169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96670383-F07B-468D-84D5-CD85F59EDC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="2541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="2680">
   <si>
     <t>id</t>
   </si>
@@ -7669,6 +7669,423 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1802689/unique-tournament/67/season/70666/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Chanda</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ricky-chanda/profil/spieler/1369570</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ricky-chanda/2051888</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2051888</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2051888/unique-tournament/678/season/72078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2051888/unique-tournament/678/season/72078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Sander Aske</t>
+  </si>
+  <si>
+    <t>Granheim</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/sander-aske-granheim/profil/spieler/1226239</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/sander-aske-granheim/1937442</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1937442</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1937442/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1937442/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tomasso</t>
+  </si>
+  <si>
+    <t>Guercio</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tommaso-guercio/profil/spieler/717900</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tommaso-guercio/1149261</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149261</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149261/unique-tournament/229/season/77153/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149261/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Vain</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/bruno-vain/profil/spieler/898489</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bruno-vain/1195533</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1195533</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1195533/unique-tournament/678/season/72078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1195533/unique-tournament/678/season/72078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Artjom</t>
+  </si>
+  <si>
+    <t>Truuväärt</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/artjom-truuvaart/profil/spieler/1044391</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/artjom-truuvaart/1835689</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835689</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835689/unique-tournament/678/season/72078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835689/unique-tournament/678/season/72078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Mark Hendrik</t>
+  </si>
+  <si>
+    <t>Kukk</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mark-hendrik-kukk/profil/spieler/1104837</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mark-hendrik-kukk/1484943</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1484943</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1484943/unique-tournament/178/season/71438/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1484943/unique-tournament/178/season/71438/statistics/overall</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>De Grand</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/sam-de-grand/profil/spieler/886363</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/sam-de-grand/1146313</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146313</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146313/unique-tournament/9/season/77849/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146313/unique-tournament/9/season/77849/statistics/overall</t>
+  </si>
+  <si>
+    <t>Remo</t>
+  </si>
+  <si>
+    <t>Valdmets</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/remo-valdmets/profil/spieler/1044266</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/remo-valdmets/1639706</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1639706</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1639706/unique-tournament/178/season/71438/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1639706/unique-tournament/178/season/71438/statistics/overall</t>
+  </si>
+  <si>
+    <t>Máté</t>
+  </si>
+  <si>
+    <t>Tuboly</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mate-tuboly/profil/spieler/874947</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mate-tuboly/1147996</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1147996</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1147996/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1147996/unique-tournament/211/season/77154/statistics/overall</t>
+  </si>
+  <si>
+    <t>Amin</t>
+  </si>
+  <si>
+    <t>Boudri</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/amin-boudri/profil/spieler/911482</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/boudri-amin/1394665</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1394665</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1394665/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1394665/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Marten</t>
+  </si>
+  <si>
+    <t>Kukkonen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/marten-kukkonen/profil/spieler/1195841</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/marten-kukkonen/1808608</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1808608</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1808608/unique-tournament/678/season/72078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1808608/unique-tournament/678/season/72078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Visted</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ola-visted/profil/spieler/1204043</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ola-visted/1486451</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1486451</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1486451/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1486451/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Baptista</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tiago-baptista/profil/spieler/1012730</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tiago-baptista/1545383</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1545383</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1545383/unique-tournament/178/season/71438/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1545383/unique-tournament/178/season/71438/statistics/overall</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Priske</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/august-priske/profil/spieler/664808</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/august-priske/1157614</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1157614</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1157614/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1157614/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Björn</t>
+  </si>
+  <si>
+    <t>Hedlöf</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/bjorn-hedlof/profil/spieler/1170094</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bjorn-hedlof/1841841</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1841841</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1841841/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1841841/unique-tournament/67/season/70666/statistics/overall</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Onotu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/emmanuel-onotu/profil/spieler/1390879</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/emmanuel-onotu/2122588</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2122588</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2122588/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2122588/unique-tournament/67/season/70666/statistics/overall</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Lindberg Uhrström</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/wilson-lindberg-uhrstrom/profil/spieler/1330788</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/lindberg-uhrstrom-wilson/1990473</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1990473</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1990473/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1990473/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Chibueze</t>
+  </si>
+  <si>
+    <t>Blessing Ejimole</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/chibueze-blessing-ejimole/profil/spieler/1406957</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/chibueze-blessing-ejimole/2150884</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2150884</t>
+  </si>
+  <si>
+    <t>Ljungqvist</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/melvin-ljungqvist/profil/spieler/1390371</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jonny-melvin-ljungqvist/2111754</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2111754</t>
+  </si>
+  <si>
+    <t>Kylian</t>
+  </si>
+  <si>
+    <t>Seka</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kylian-seka/profil/spieler/1445370</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kylian-seka/2230864</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2230864</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/fabian-andersson/profil/spieler/1377351</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/fabian-andersson/2083257</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2083257/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2083257/unique-tournament/67/season/70666/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2083257</t>
   </si>
 </sst>
 </file>
@@ -7745,8 +8162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J365" totalsRowShown="0">
-  <autoFilter ref="A1:J365" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J386" totalsRowShown="0">
+  <autoFilter ref="A1:J386" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -8063,10 +8480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J365"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="E370" sqref="E370"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="H387" sqref="H387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8077,7 +8494,7 @@
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="68.88671875" customWidth="1"/>
+    <col min="7" max="7" width="72.77734375" customWidth="1"/>
     <col min="8" max="8" width="49.21875" customWidth="1"/>
     <col min="9" max="9" width="39.44140625" customWidth="1"/>
     <col min="10" max="10" width="37.88671875" customWidth="1"/>
@@ -19196,6 +19613,618 @@
       </c>
       <c r="J365" s="2" t="s">
         <v>2540</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>431</v>
+      </c>
+      <c r="B366" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D366" t="s">
+        <v>42</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="J366" s="2" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>432</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D367" t="s">
+        <v>42</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="J367" s="2" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>433</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C368" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D368" t="s">
+        <v>79</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J368" s="2" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>434</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D369" t="s">
+        <v>8</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>435</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D370" t="s">
+        <v>8</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="J370" s="2" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>436</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D371" t="s">
+        <v>79</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="J371" s="2" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>437</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D372" t="s">
+        <v>37</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="J372" s="2" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>438</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D373" t="s">
+        <v>33</v>
+      </c>
+      <c r="E373" t="s">
+        <v>53</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J373" s="2" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>439</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D374" t="s">
+        <v>33</v>
+      </c>
+      <c r="E374" t="s">
+        <v>53</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="H374" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="J374" s="2" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>440</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D375" t="s">
+        <v>53</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="H375" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="J375" s="2" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>441</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D376" t="s">
+        <v>53</v>
+      </c>
+      <c r="E376" t="s">
+        <v>189</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="J376" s="2" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>442</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D377" t="s">
+        <v>58</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I377" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="J377" s="2" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>443</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D378" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" t="s">
+        <v>189</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="J378" s="2" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>444</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D379" t="s">
+        <v>15</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="J379" s="2" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>445</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D380" t="s">
+        <v>42</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="J380" s="2" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>446</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D381" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="J381" s="2" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>447</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D382" t="s">
+        <v>189</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="J382" s="2" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>448</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D383" t="s">
+        <v>15</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="H383" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="I383" s="2"/>
+      <c r="J383" s="2"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>449</v>
+      </c>
+      <c r="B384" t="s">
+        <v>743</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D384" t="s">
+        <v>79</v>
+      </c>
+      <c r="E384" t="s">
+        <v>58</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="I384" s="2"/>
+      <c r="J384" s="2"/>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>450</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D385" t="s">
+        <v>15</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="I385" s="2"/>
+      <c r="J385" s="2"/>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>451</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C386" t="s">
+        <v>724</v>
+      </c>
+      <c r="D386" t="s">
+        <v>53</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="J386" s="2" t="s">
+        <v>2678</v>
       </c>
     </row>
   </sheetData>
@@ -20736,11 +21765,110 @@
     <hyperlink ref="H365" r:id="rId1533" xr:uid="{3F4EAFF7-ACA0-46F3-A208-789CE07E3E62}"/>
     <hyperlink ref="I365" r:id="rId1534" xr:uid="{DC5EC07C-DF73-4371-97CB-E8F1302FCCC5}"/>
     <hyperlink ref="J365" r:id="rId1535" xr:uid="{6510321B-65FB-4AC4-A6DC-0CCB73F78E8F}"/>
+    <hyperlink ref="F366" r:id="rId1536" xr:uid="{FB73BC44-1121-4CC0-92C5-90341AC95D34}"/>
+    <hyperlink ref="G366" r:id="rId1537" xr:uid="{AE2306D2-ACD1-4BD6-A79A-E91CD3361113}"/>
+    <hyperlink ref="H366" r:id="rId1538" xr:uid="{B6396934-2912-4CEB-A6D4-79A2D4A97865}"/>
+    <hyperlink ref="I366" r:id="rId1539" xr:uid="{FD5CE668-D5DB-4035-98B8-4E6DAE019919}"/>
+    <hyperlink ref="J366" r:id="rId1540" xr:uid="{B057B8B3-A265-486B-9B0B-90E19A9B7C63}"/>
+    <hyperlink ref="F367" r:id="rId1541" xr:uid="{BC0738DF-B02F-4ADA-AC17-A7294B021AC0}"/>
+    <hyperlink ref="G367" r:id="rId1542" xr:uid="{94884C59-DB9D-4912-8E37-147A21751547}"/>
+    <hyperlink ref="H367" r:id="rId1543" xr:uid="{410B9CD7-D40A-4A38-8A55-1ABC04CA513D}"/>
+    <hyperlink ref="I367" r:id="rId1544" xr:uid="{1ECBFDE2-C311-4167-93E0-B206F55D1C3E}"/>
+    <hyperlink ref="J367" r:id="rId1545" xr:uid="{21CA9828-4957-487A-B676-1E1E7D99BF6F}"/>
+    <hyperlink ref="F368" r:id="rId1546" xr:uid="{8DB495DD-C0D5-4E9F-9131-8DC9DE86B793}"/>
+    <hyperlink ref="G368" r:id="rId1547" xr:uid="{189CFEA5-FDCD-4FBB-B47B-A75A7FA5FE15}"/>
+    <hyperlink ref="H368" r:id="rId1548" xr:uid="{802693E2-7869-4859-B166-B5B10E1B911C}"/>
+    <hyperlink ref="I368" r:id="rId1549" xr:uid="{6EE25A4C-B1D2-490A-AC33-75B31007851D}"/>
+    <hyperlink ref="J368" r:id="rId1550" xr:uid="{C8AF5FBB-AE92-4899-8FBC-DB0FD2BE54A2}"/>
+    <hyperlink ref="F369" r:id="rId1551" xr:uid="{F5D4AEFE-E085-4FDE-9CF8-2C5F49794E28}"/>
+    <hyperlink ref="G369" r:id="rId1552" xr:uid="{9A2F8D97-54A4-4B7D-A564-8F1673F9DD6F}"/>
+    <hyperlink ref="H369" r:id="rId1553" xr:uid="{7C877BD2-85C4-4131-8D4D-0559A796AFAE}"/>
+    <hyperlink ref="I369" r:id="rId1554" xr:uid="{1E9937CB-348B-48D8-AC96-1CB599FCF715}"/>
+    <hyperlink ref="J369" r:id="rId1555" xr:uid="{2A6DF921-0E12-40FE-91AD-12B3A08AA9C5}"/>
+    <hyperlink ref="F370" r:id="rId1556" xr:uid="{10B35B2C-0814-4C4B-BEAE-4C6D3EF1B9A4}"/>
+    <hyperlink ref="G370" r:id="rId1557" xr:uid="{91F6E176-4839-41B2-A895-C61CC5F4E47D}"/>
+    <hyperlink ref="H370" r:id="rId1558" xr:uid="{E599DB34-71C1-4C50-BE31-D8A7AE923E87}"/>
+    <hyperlink ref="I370" r:id="rId1559" xr:uid="{D77567E5-3D02-433D-AEAF-2A9B415C838E}"/>
+    <hyperlink ref="J370" r:id="rId1560" xr:uid="{C3C309FB-E04F-4CF0-AECC-E56A184AF2A3}"/>
+    <hyperlink ref="F371" r:id="rId1561" xr:uid="{6E14D059-886E-4D1F-B787-7A92D3A2CC6C}"/>
+    <hyperlink ref="G371" r:id="rId1562" xr:uid="{70CFF193-B2B4-4493-A24F-8F7A1F71E56B}"/>
+    <hyperlink ref="H371" r:id="rId1563" xr:uid="{54C60CCC-3B1A-4153-941E-F86B37794C1D}"/>
+    <hyperlink ref="I371" r:id="rId1564" xr:uid="{76FF09F2-749D-4ABF-A7D2-55009FAB9A5C}"/>
+    <hyperlink ref="J371" r:id="rId1565" xr:uid="{57454C56-ACBA-4591-8571-F2A8F5853575}"/>
+    <hyperlink ref="F372" r:id="rId1566" xr:uid="{4956C4E4-DA20-4B08-B83F-AAF9C352C30F}"/>
+    <hyperlink ref="G372" r:id="rId1567" xr:uid="{ADC7A1EA-5CAE-4D17-856F-73C9FBF6FC74}"/>
+    <hyperlink ref="H372" r:id="rId1568" xr:uid="{4C219CA8-2D9B-44F6-8B8C-84230362982B}"/>
+    <hyperlink ref="I372" r:id="rId1569" xr:uid="{A3AA06AB-8021-4A49-89C5-8158A8C5F85A}"/>
+    <hyperlink ref="J372" r:id="rId1570" xr:uid="{5451B46C-25E0-4935-B6E1-E8E7EC3AF1E2}"/>
+    <hyperlink ref="F373" r:id="rId1571" xr:uid="{09B3291D-B0F7-42EC-A74F-E711D88CB568}"/>
+    <hyperlink ref="G373" r:id="rId1572" xr:uid="{614398DD-F765-4B0A-BF87-5B16089BC1DE}"/>
+    <hyperlink ref="H373" r:id="rId1573" xr:uid="{662BB63D-AA58-4074-A3E4-903592D8762D}"/>
+    <hyperlink ref="I373" r:id="rId1574" xr:uid="{2C8AB7F6-5DE0-4340-9A33-7E86B38C0621}"/>
+    <hyperlink ref="J373" r:id="rId1575" xr:uid="{C8A54B9D-D405-40C5-82A3-6522B337290B}"/>
+    <hyperlink ref="F374" r:id="rId1576" xr:uid="{35395A29-A26D-4F22-840F-B256145FA8CB}"/>
+    <hyperlink ref="G374" r:id="rId1577" xr:uid="{7237FE3B-D443-47B3-8ED5-C83D3E2C8B6D}"/>
+    <hyperlink ref="H374" r:id="rId1578" xr:uid="{82375F44-DB41-4199-BF48-97B9EF1EEB2C}"/>
+    <hyperlink ref="I374" r:id="rId1579" xr:uid="{E4AD1F91-3E57-45DE-BB02-86CCF587CCCF}"/>
+    <hyperlink ref="J374" r:id="rId1580" xr:uid="{73BB3626-5B26-4FE6-9119-C78C21E0D588}"/>
+    <hyperlink ref="F375" r:id="rId1581" xr:uid="{4996169A-E03D-4F85-ABE5-6D87F8D941D5}"/>
+    <hyperlink ref="G375" r:id="rId1582" xr:uid="{2E777C8F-9FCD-410F-8333-3A9DA103A0CE}"/>
+    <hyperlink ref="H375" r:id="rId1583" xr:uid="{579C77E2-B052-4DAC-BA3B-44379EBAE270}"/>
+    <hyperlink ref="I375" r:id="rId1584" xr:uid="{BAE47A3D-9664-4F69-B41F-EC183F95377F}"/>
+    <hyperlink ref="J375" r:id="rId1585" xr:uid="{F18FFC5E-ECD2-49C1-811C-DB24BF8F95EB}"/>
+    <hyperlink ref="F376" r:id="rId1586" xr:uid="{BACF7074-0B1F-4326-8121-B385BF7147BB}"/>
+    <hyperlink ref="G376" r:id="rId1587" xr:uid="{08F90A5F-737D-4A6B-884B-C7A843377FF5}"/>
+    <hyperlink ref="H376" r:id="rId1588" xr:uid="{66FF8112-53BB-468F-855D-A7D8041BD1F3}"/>
+    <hyperlink ref="I376" r:id="rId1589" xr:uid="{04D6F84A-4D3F-42BD-8912-EA742B96F413}"/>
+    <hyperlink ref="J376" r:id="rId1590" xr:uid="{73299699-B176-4BE2-8A84-7B29622EE3B1}"/>
+    <hyperlink ref="F377" r:id="rId1591" xr:uid="{AE714020-1936-4E40-8FE5-E3DB8F6C54A3}"/>
+    <hyperlink ref="G377" r:id="rId1592" xr:uid="{5E326CC6-61E3-4C3B-B287-FA29D0FA5938}"/>
+    <hyperlink ref="H377" r:id="rId1593" xr:uid="{012474CC-5FB8-46B6-AB19-CE16449980E4}"/>
+    <hyperlink ref="I377" r:id="rId1594" xr:uid="{F374E775-41F4-4938-8050-52B90B415F52}"/>
+    <hyperlink ref="J377" r:id="rId1595" xr:uid="{F1E02CB8-DD7B-412B-AC37-AD95D19CD697}"/>
+    <hyperlink ref="F378" r:id="rId1596" xr:uid="{0C0AC6B7-F567-44C8-95BC-0C0602E3ED26}"/>
+    <hyperlink ref="G378" r:id="rId1597" xr:uid="{AD5E7D95-645C-44FB-97F0-1B7716ECDE6B}"/>
+    <hyperlink ref="H378" r:id="rId1598" xr:uid="{E54B87B5-4281-4870-8362-6735B607032E}"/>
+    <hyperlink ref="I378" r:id="rId1599" xr:uid="{F60B5C3A-599E-4D0A-8E43-99EE9B21ED8A}"/>
+    <hyperlink ref="J378" r:id="rId1600" xr:uid="{4A1742D3-CC68-49B2-8EF6-8FE10F32F926}"/>
+    <hyperlink ref="F379" r:id="rId1601" xr:uid="{3D52F447-DD90-41DE-9371-5A670D82F769}"/>
+    <hyperlink ref="G379" r:id="rId1602" xr:uid="{301E4134-DCB9-4864-9596-47C9AA7330AE}"/>
+    <hyperlink ref="H379" r:id="rId1603" xr:uid="{B7174A0C-3427-4A84-8CC7-1FFFEA66E988}"/>
+    <hyperlink ref="I379" r:id="rId1604" xr:uid="{CB1CD1D4-0590-4F77-B69A-A4617B3E7DA5}"/>
+    <hyperlink ref="J379" r:id="rId1605" xr:uid="{CF5F3128-3C84-440D-9431-E3267A0CDFD6}"/>
+    <hyperlink ref="F380" r:id="rId1606" xr:uid="{FACE3E33-EF4C-41A2-BB43-3041067E5933}"/>
+    <hyperlink ref="G380" r:id="rId1607" xr:uid="{97C04C51-DEAC-413C-B81B-0B3EA98D1F18}"/>
+    <hyperlink ref="H380" r:id="rId1608" xr:uid="{53142640-14D1-4096-AC42-8E65B1A7123B}"/>
+    <hyperlink ref="I380" r:id="rId1609" xr:uid="{4145A712-C811-4055-925E-F9AC9D76B5A4}"/>
+    <hyperlink ref="J380" r:id="rId1610" xr:uid="{97C43EA7-96EE-4581-8DAB-FA65D08E68D7}"/>
+    <hyperlink ref="F381" r:id="rId1611" xr:uid="{B232D9EE-BF6F-4707-9620-D4AD4FBF7862}"/>
+    <hyperlink ref="G381" r:id="rId1612" xr:uid="{EDF25348-330D-453B-997D-E503B22E306B}"/>
+    <hyperlink ref="H381" r:id="rId1613" xr:uid="{1D19374E-5008-4F4F-ADB3-DD71E7C14F63}"/>
+    <hyperlink ref="I381" r:id="rId1614" xr:uid="{791781FA-803D-4FA5-9046-B731A38C96F5}"/>
+    <hyperlink ref="J381" r:id="rId1615" xr:uid="{1A70EA56-5205-4B9D-968E-817F267436F6}"/>
+    <hyperlink ref="F382" r:id="rId1616" xr:uid="{82A42CA3-B947-4956-9FA2-2EF0E3B12163}"/>
+    <hyperlink ref="G382" r:id="rId1617" xr:uid="{C51A3C3A-0040-419F-A6A1-7C6B4AC519CB}"/>
+    <hyperlink ref="H382" r:id="rId1618" xr:uid="{569BF18B-8740-452D-8EFF-97B3AE7DE47F}"/>
+    <hyperlink ref="I382" r:id="rId1619" xr:uid="{7CD1D291-CF31-4970-8EA2-CC02C841D48B}"/>
+    <hyperlink ref="J382" r:id="rId1620" xr:uid="{A365B5D9-0F5E-4D2C-8E5B-EE2899663BEE}"/>
+    <hyperlink ref="F383" r:id="rId1621" xr:uid="{8502EE5B-2729-4643-9B6D-059CE2EEB6E9}"/>
+    <hyperlink ref="G383" r:id="rId1622" xr:uid="{52840A21-390A-4D50-A6D9-9E941A2C03FE}"/>
+    <hyperlink ref="H383" r:id="rId1623" xr:uid="{1EEB98C0-49F5-4D54-8A12-281E1987A81F}"/>
+    <hyperlink ref="F384" r:id="rId1624" xr:uid="{59035509-8F7B-4936-A8BA-10B8669D34B7}"/>
+    <hyperlink ref="G384" r:id="rId1625" xr:uid="{57488D91-1F04-468D-B997-F80D40B7699C}"/>
+    <hyperlink ref="H384" r:id="rId1626" xr:uid="{FDA8E7C1-6868-4519-9C6F-2DC2ADEA3CD0}"/>
+    <hyperlink ref="F385" r:id="rId1627" xr:uid="{15629634-7E07-49FC-9C5A-7BD177356AEF}"/>
+    <hyperlink ref="G385" r:id="rId1628" xr:uid="{4B672DAC-19B6-4666-90B5-D5E977402287}"/>
+    <hyperlink ref="H385" r:id="rId1629" xr:uid="{4BB8DA24-D25C-4382-B677-9ACDFF1823D5}"/>
+    <hyperlink ref="F386" r:id="rId1630" xr:uid="{C7C73619-A11C-4895-9EC2-F521C55ED82E}"/>
+    <hyperlink ref="G386" r:id="rId1631" xr:uid="{ECFB1C30-B67C-4521-85FE-765FC3B6B2AB}"/>
+    <hyperlink ref="I386" r:id="rId1632" xr:uid="{0B365BBD-CE90-4168-92BA-09617FA3BCB7}"/>
+    <hyperlink ref="J386" r:id="rId1633" xr:uid="{0BAD14AA-036E-4D00-A5F6-9D17EBFD29A2}"/>
+    <hyperlink ref="H386" r:id="rId1634" xr:uid="{C652D141-366A-4E21-97EB-C88BA7B2A484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1536"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1635"/>
   <tableParts count="1">
-    <tablePart r:id="rId1537"/>
+    <tablePart r:id="rId1636"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96670383-F07B-468D-84D5-CD85F59EDC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA92DB-3C62-4306-98EF-22F3E483F8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="2680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="2701">
   <si>
     <t>id</t>
   </si>
@@ -6807,12 +6807,6 @@
     <t>https://www.sofascore.com/api/v1/player/1136050/unique-tournament/218/season/77625/statistics/overall</t>
   </si>
   <si>
-    <t>https://www.sofascore.com/api/v1/player/1485301/unique-tournament/678/season/72078/ratings</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1485301/unique-tournament/678/season/72078/statistics/overall</t>
-  </si>
-  <si>
     <t>https://www.sofascore.com/api/v1/player/1899414/unique-tournament/218/season/77625/ratings</t>
   </si>
   <si>
@@ -8086,6 +8080,75 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/2083257</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485301/unique-tournament/178/season/71438/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485301/unique-tournament/178/season/71438/statistics/overall</t>
+  </si>
+  <si>
+    <t>Hjtalte</t>
+  </si>
+  <si>
+    <t>Bidstrup</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/hjalte-bidstrup/profil/spieler/926988</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/hjalte-bidstrup/1426594</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426594</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426594/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426594/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Themsen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mike-themsen/profil/spieler/1032242</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mike-themsen/1490059</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1490059</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1490059/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1490059/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>Osvald</t>
+  </si>
+  <si>
+    <t>Søe</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/osvald-soe/profil/spieler/951659</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/osvald-gabriel-soe/1648781</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1648781</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1648781/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1648781/unique-tournament/47/season/77031/ratings</t>
   </si>
 </sst>
 </file>
@@ -8162,8 +8225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J386" totalsRowShown="0">
-  <autoFilter ref="A1:J386" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J389" totalsRowShown="0">
+  <autoFilter ref="A1:J389" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -8480,10 +8543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="H387" sqref="H387"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="I390" sqref="I390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8496,7 +8559,7 @@
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="72.77734375" customWidth="1"/>
     <col min="8" max="8" width="49.21875" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" customWidth="1"/>
+    <col min="9" max="9" width="90.33203125" customWidth="1"/>
     <col min="10" max="10" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14890,10 +14953,10 @@
         <v>1315</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2253</v>
+        <v>2678</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>2254</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -14922,10 +14985,10 @@
         <v>1316</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -14951,10 +15014,10 @@
         <v>1317</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -14983,10 +15046,10 @@
         <v>1318</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -15015,10 +15078,10 @@
         <v>1319</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -15044,10 +15107,10 @@
         <v>1320</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -15073,10 +15136,10 @@
         <v>1321</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -15105,10 +15168,10 @@
         <v>1322</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -15137,10 +15200,10 @@
         <v>1323</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -15169,10 +15232,10 @@
         <v>1324</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -15227,10 +15290,10 @@
         <v>1326</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -15256,10 +15319,10 @@
         <v>1327</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -15381,10 +15444,10 @@
         <v>1331</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -15413,10 +15476,10 @@
         <v>1332</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -15445,10 +15508,10 @@
         <v>1333</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -15474,10 +15537,10 @@
         <v>1334</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -15503,10 +15566,10 @@
         <v>1335</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -15567,10 +15630,10 @@
         <v>1337</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -15599,10 +15662,10 @@
         <v>1338</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -15631,10 +15694,10 @@
         <v>1339</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -15660,10 +15723,10 @@
         <v>1340</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -15689,10 +15752,10 @@
         <v>1341</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -15750,10 +15813,10 @@
         <v>1343</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -15779,10 +15842,10 @@
         <v>1344</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -15811,10 +15874,10 @@
         <v>1345</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -15843,10 +15906,10 @@
         <v>1346</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -15936,10 +15999,10 @@
         <v>1349</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -15965,10 +16028,10 @@
         <v>1350</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -15994,10 +16057,10 @@
         <v>1351</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -16026,10 +16089,10 @@
         <v>1352</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -16055,10 +16118,10 @@
         <v>1353</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -16084,10 +16147,10 @@
         <v>1354</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -16113,10 +16176,10 @@
         <v>1355</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -16142,10 +16205,10 @@
         <v>1356</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -16174,10 +16237,10 @@
         <v>1357</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -16203,10 +16266,10 @@
         <v>1358</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -16235,10 +16298,10 @@
         <v>1359</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -16267,10 +16330,10 @@
         <v>1360</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -16296,10 +16359,10 @@
         <v>1361</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -16325,10 +16388,10 @@
         <v>1362</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -16357,10 +16420,10 @@
         <v>1363</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -16389,10 +16452,10 @@
         <v>1364</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -16421,10 +16484,10 @@
         <v>1365</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -16453,10 +16516,10 @@
         <v>1366</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -16485,10 +16548,10 @@
         <v>1367</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -16546,10 +16609,10 @@
         <v>1369</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -16639,7 +16702,7 @@
         <v>1372</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>1582</v>
@@ -16671,10 +16734,10 @@
         <v>1373</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -16700,10 +16763,10 @@
         <v>1374</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -16761,10 +16824,10 @@
         <v>1376</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -16822,10 +16885,10 @@
         <v>1612</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -16854,10 +16917,10 @@
         <v>1617</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -16886,10 +16949,10 @@
         <v>1621</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -16918,10 +16981,10 @@
         <v>1626</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -16947,10 +17010,10 @@
         <v>1631</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -16976,10 +17039,10 @@
         <v>1635</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -17005,10 +17068,10 @@
         <v>1640</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -17037,10 +17100,10 @@
         <v>1644</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -17066,10 +17129,10 @@
         <v>1649</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -17095,10 +17158,10 @@
         <v>1653</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -17333,10 +17396,10 @@
         <v>1705</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -17365,10 +17428,10 @@
         <v>1709</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -17394,10 +17457,10 @@
         <v>1713</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -17516,10 +17579,10 @@
         <v>1737</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -17545,10 +17608,10 @@
         <v>1741</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -17577,10 +17640,10 @@
         <v>1746</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -17606,10 +17669,10 @@
         <v>1750</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -17696,10 +17759,10 @@
         <v>1767</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -17812,10 +17875,10 @@
         <v>1795</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -17841,10 +17904,10 @@
         <v>1800</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -18024,10 +18087,10 @@
         <v>1839</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -18114,10 +18177,10 @@
         <v>1857</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -18143,10 +18206,10 @@
         <v>1861</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -18172,10 +18235,10 @@
         <v>1866</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -18317,10 +18380,10 @@
         <v>1897</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -18349,10 +18412,10 @@
         <v>1902</v>
       </c>
       <c r="I322" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J322" s="2" t="s">
         <v>2393</v>
-      </c>
-      <c r="J322" s="2" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -18468,10 +18531,10 @@
         <v>1925</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -18525,10 +18588,10 @@
         <v>1934</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -18644,10 +18707,10 @@
         <v>1963</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -19035,10 +19098,10 @@
         <v>411</v>
       </c>
       <c r="B346" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C346" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="D346" t="s">
         <v>58</v>
@@ -19047,19 +19110,19 @@
         <v>15</v>
       </c>
       <c r="F346" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="H346" s="2" t="s">
         <v>2403</v>
       </c>
-      <c r="G346" s="2" t="s">
+      <c r="I346" s="2" t="s">
         <v>2404</v>
       </c>
-      <c r="H346" s="2" t="s">
+      <c r="J346" s="2" t="s">
         <v>2405</v>
-      </c>
-      <c r="I346" s="2" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J346" s="2" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -19067,28 +19130,28 @@
         <v>412</v>
       </c>
       <c r="B347" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C347" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="D347" t="s">
         <v>53</v>
       </c>
       <c r="F347" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="H347" s="2" t="s">
         <v>2409</v>
       </c>
-      <c r="G347" s="2" t="s">
+      <c r="I347" s="2" t="s">
         <v>2410</v>
       </c>
-      <c r="H347" s="2" t="s">
+      <c r="J347" s="2" t="s">
         <v>2411</v>
-      </c>
-      <c r="I347" s="2" t="s">
-        <v>2412</v>
-      </c>
-      <c r="J347" s="2" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -19096,28 +19159,28 @@
         <v>413</v>
       </c>
       <c r="B348" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C348" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D348" t="s">
         <v>15</v>
       </c>
       <c r="F348" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="H348" s="2" t="s">
         <v>2416</v>
       </c>
-      <c r="G348" s="2" t="s">
+      <c r="I348" s="2" t="s">
         <v>2417</v>
       </c>
-      <c r="H348" s="2" t="s">
+      <c r="J348" s="2" t="s">
         <v>2418</v>
-      </c>
-      <c r="I348" s="2" t="s">
-        <v>2419</v>
-      </c>
-      <c r="J348" s="2" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -19125,10 +19188,10 @@
         <v>414</v>
       </c>
       <c r="B349" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C349" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="D349" t="s">
         <v>58</v>
@@ -19137,19 +19200,19 @@
         <v>8</v>
       </c>
       <c r="F349" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H349" s="2" t="s">
         <v>2423</v>
       </c>
-      <c r="G349" s="2" t="s">
+      <c r="I349" s="2" t="s">
         <v>2424</v>
       </c>
-      <c r="H349" s="2" t="s">
+      <c r="J349" s="2" t="s">
         <v>2425</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J349" s="2" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -19157,28 +19220,28 @@
         <v>415</v>
       </c>
       <c r="B350" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="C350" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="D350" t="s">
         <v>42</v>
       </c>
       <c r="F350" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H350" s="2" t="s">
         <v>2430</v>
       </c>
-      <c r="G350" s="2" t="s">
+      <c r="I350" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="H350" s="2" t="s">
+      <c r="J350" s="2" t="s">
         <v>2432</v>
-      </c>
-      <c r="I350" s="2" t="s">
-        <v>2433</v>
-      </c>
-      <c r="J350" s="2" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -19189,25 +19252,25 @@
         <v>1935</v>
       </c>
       <c r="C351" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="D351" t="s">
         <v>42</v>
       </c>
       <c r="F351" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H351" s="2" t="s">
         <v>2436</v>
       </c>
-      <c r="G351" s="2" t="s">
+      <c r="I351" s="2" t="s">
         <v>2437</v>
       </c>
-      <c r="H351" s="2" t="s">
+      <c r="J351" s="2" t="s">
         <v>2438</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>2439</v>
-      </c>
-      <c r="J351" s="2" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -19215,28 +19278,28 @@
         <v>417</v>
       </c>
       <c r="B352" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="C352" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="D352" t="s">
         <v>15</v>
       </c>
       <c r="F352" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H352" s="2" t="s">
         <v>2443</v>
       </c>
-      <c r="G352" s="2" t="s">
+      <c r="I352" s="2" t="s">
         <v>2444</v>
       </c>
-      <c r="H352" s="2" t="s">
+      <c r="J352" s="2" t="s">
         <v>2445</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>2446</v>
-      </c>
-      <c r="J352" s="2" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -19244,28 +19307,28 @@
         <v>418</v>
       </c>
       <c r="B353" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="C353" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="D353" t="s">
         <v>58</v>
       </c>
       <c r="F353" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H353" s="2" t="s">
         <v>2450</v>
       </c>
-      <c r="G353" s="2" t="s">
+      <c r="I353" s="2" t="s">
         <v>2451</v>
       </c>
-      <c r="H353" s="2" t="s">
+      <c r="J353" s="2" t="s">
         <v>2452</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>2453</v>
-      </c>
-      <c r="J353" s="2" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -19276,25 +19339,25 @@
         <v>492</v>
       </c>
       <c r="C354" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="D354" t="s">
         <v>15</v>
       </c>
       <c r="F354" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="H354" s="2" t="s">
         <v>2456</v>
       </c>
-      <c r="G354" s="2" t="s">
+      <c r="I354" s="2" t="s">
         <v>2457</v>
       </c>
-      <c r="H354" s="2" t="s">
+      <c r="J354" s="2" t="s">
         <v>2458</v>
-      </c>
-      <c r="I354" s="2" t="s">
-        <v>2459</v>
-      </c>
-      <c r="J354" s="2" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -19302,10 +19365,10 @@
         <v>420</v>
       </c>
       <c r="B355" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C355" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="D355" t="s">
         <v>33</v>
@@ -19314,19 +19377,19 @@
         <v>53</v>
       </c>
       <c r="F355" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H355" s="2" t="s">
         <v>2463</v>
       </c>
-      <c r="G355" s="2" t="s">
+      <c r="I355" s="2" t="s">
         <v>2464</v>
       </c>
-      <c r="H355" s="2" t="s">
+      <c r="J355" s="2" t="s">
         <v>2465</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>2466</v>
-      </c>
-      <c r="J355" s="2" t="s">
-        <v>2467</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -19334,10 +19397,10 @@
         <v>421</v>
       </c>
       <c r="B356" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C356" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="D356" t="s">
         <v>8</v>
@@ -19346,19 +19409,19 @@
         <v>58</v>
       </c>
       <c r="F356" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H356" s="2" t="s">
         <v>2470</v>
       </c>
-      <c r="G356" s="2" t="s">
+      <c r="I356" s="2" t="s">
         <v>2471</v>
       </c>
-      <c r="H356" s="2" t="s">
+      <c r="J356" s="2" t="s">
         <v>2472</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>2473</v>
-      </c>
-      <c r="J356" s="2" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -19366,10 +19429,10 @@
         <v>422</v>
       </c>
       <c r="B357" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="C357" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="D357" t="s">
         <v>42</v>
@@ -19378,19 +19441,19 @@
         <v>79</v>
       </c>
       <c r="F357" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H357" s="2" t="s">
         <v>2477</v>
       </c>
-      <c r="G357" s="2" t="s">
+      <c r="I357" s="2" t="s">
         <v>2478</v>
       </c>
-      <c r="H357" s="2" t="s">
+      <c r="J357" s="2" t="s">
         <v>2479</v>
-      </c>
-      <c r="I357" s="2" t="s">
-        <v>2480</v>
-      </c>
-      <c r="J357" s="2" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -19398,28 +19461,28 @@
         <v>423</v>
       </c>
       <c r="B358" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="C358" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D358" t="s">
         <v>15</v>
       </c>
       <c r="F358" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H358" s="2" t="s">
         <v>2484</v>
       </c>
-      <c r="G358" s="2" t="s">
+      <c r="I358" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="H358" s="2" t="s">
+      <c r="J358" s="2" t="s">
         <v>2486</v>
-      </c>
-      <c r="I358" s="2" t="s">
-        <v>2487</v>
-      </c>
-      <c r="J358" s="2" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -19427,10 +19490,10 @@
         <v>424</v>
       </c>
       <c r="B359" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="C359" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="D359" t="s">
         <v>8</v>
@@ -19439,19 +19502,19 @@
         <v>15</v>
       </c>
       <c r="F359" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>2491</v>
       </c>
-      <c r="G359" s="2" t="s">
+      <c r="I359" s="2" t="s">
         <v>2492</v>
       </c>
-      <c r="H359" s="2" t="s">
+      <c r="J359" s="2" t="s">
         <v>2493</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>2494</v>
-      </c>
-      <c r="J359" s="2" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -19459,13 +19522,13 @@
         <v>425</v>
       </c>
       <c r="B360" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F360" s="2" t="s">
         <v>2496</v>
-      </c>
-      <c r="C360" t="s">
-        <v>2497</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>2498</v>
       </c>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
@@ -19478,25 +19541,25 @@
         <v>1893</v>
       </c>
       <c r="C361" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D361" t="s">
         <v>53</v>
       </c>
       <c r="F361" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="H361" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="G361" s="2" t="s">
+      <c r="I361" s="2" t="s">
         <v>2505</v>
       </c>
-      <c r="H361" s="2" t="s">
+      <c r="J361" s="2" t="s">
         <v>2506</v>
-      </c>
-      <c r="I361" s="2" t="s">
-        <v>2507</v>
-      </c>
-      <c r="J361" s="2" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -19504,28 +19567,28 @@
         <v>427</v>
       </c>
       <c r="B362" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="C362" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="D362" t="s">
         <v>53</v>
       </c>
       <c r="F362" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H362" s="2" t="s">
         <v>2511</v>
       </c>
-      <c r="G362" s="2" t="s">
+      <c r="I362" s="2" t="s">
         <v>2512</v>
       </c>
-      <c r="H362" s="2" t="s">
+      <c r="J362" s="2" t="s">
         <v>2513</v>
-      </c>
-      <c r="I362" s="2" t="s">
-        <v>2514</v>
-      </c>
-      <c r="J362" s="2" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -19533,28 +19596,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="C363" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="D363" t="s">
         <v>8</v>
       </c>
       <c r="F363" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="H363" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="G363" s="2" t="s">
+      <c r="I363" s="2" t="s">
         <v>2519</v>
       </c>
-      <c r="H363" s="2" t="s">
+      <c r="J363" s="2" t="s">
         <v>2520</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>2521</v>
-      </c>
-      <c r="J363" s="2" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -19562,28 +19625,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="C364" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="D364" t="s">
         <v>58</v>
       </c>
       <c r="F364" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H364" s="2" t="s">
         <v>2525</v>
       </c>
-      <c r="G364" s="2" t="s">
+      <c r="I364" s="2" t="s">
         <v>2526</v>
       </c>
-      <c r="H364" s="2" t="s">
+      <c r="J364" s="2" t="s">
         <v>2527</v>
-      </c>
-      <c r="I364" s="2" t="s">
-        <v>2528</v>
-      </c>
-      <c r="J364" s="2" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -19594,25 +19657,25 @@
         <v>496</v>
       </c>
       <c r="C365" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="D365" t="s">
         <v>33</v>
       </c>
       <c r="F365" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="H365" s="2" t="s">
         <v>2536</v>
       </c>
-      <c r="G365" s="2" t="s">
+      <c r="I365" s="2" t="s">
         <v>2537</v>
       </c>
-      <c r="H365" s="2" t="s">
+      <c r="J365" s="2" t="s">
         <v>2538</v>
-      </c>
-      <c r="I365" s="2" t="s">
-        <v>2539</v>
-      </c>
-      <c r="J365" s="2" t="s">
-        <v>2540</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -19620,28 +19683,28 @@
         <v>431</v>
       </c>
       <c r="B366" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="C366" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="D366" t="s">
         <v>42</v>
       </c>
       <c r="F366" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="H366" s="2" t="s">
         <v>2543</v>
       </c>
-      <c r="G366" s="2" t="s">
+      <c r="I366" s="2" t="s">
         <v>2544</v>
       </c>
-      <c r="H366" s="2" t="s">
+      <c r="J366" s="2" t="s">
         <v>2545</v>
-      </c>
-      <c r="I366" s="2" t="s">
-        <v>2546</v>
-      </c>
-      <c r="J366" s="2" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -19649,28 +19712,28 @@
         <v>432</v>
       </c>
       <c r="B367" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="C367" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="D367" t="s">
         <v>42</v>
       </c>
       <c r="F367" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H367" s="2" t="s">
         <v>2550</v>
       </c>
-      <c r="G367" s="2" t="s">
+      <c r="I367" s="2" t="s">
         <v>2551</v>
       </c>
-      <c r="H367" s="2" t="s">
+      <c r="J367" s="2" t="s">
         <v>2552</v>
-      </c>
-      <c r="I367" s="2" t="s">
-        <v>2553</v>
-      </c>
-      <c r="J367" s="2" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -19678,28 +19741,28 @@
         <v>433</v>
       </c>
       <c r="B368" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="C368" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="D368" t="s">
         <v>79</v>
       </c>
       <c r="F368" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="H368" s="2" t="s">
         <v>2557</v>
       </c>
-      <c r="G368" s="2" t="s">
+      <c r="I368" s="2" t="s">
         <v>2558</v>
       </c>
-      <c r="H368" s="2" t="s">
+      <c r="J368" s="2" t="s">
         <v>2559</v>
-      </c>
-      <c r="I368" s="2" t="s">
-        <v>2560</v>
-      </c>
-      <c r="J368" s="2" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -19707,28 +19770,28 @@
         <v>434</v>
       </c>
       <c r="B369" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="C369" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="D369" t="s">
         <v>8</v>
       </c>
       <c r="F369" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="H369" s="2" t="s">
         <v>2564</v>
       </c>
-      <c r="G369" s="2" t="s">
+      <c r="I369" s="2" t="s">
         <v>2565</v>
       </c>
-      <c r="H369" s="2" t="s">
+      <c r="J369" s="2" t="s">
         <v>2566</v>
-      </c>
-      <c r="I369" s="2" t="s">
-        <v>2567</v>
-      </c>
-      <c r="J369" s="2" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -19736,28 +19799,28 @@
         <v>435</v>
       </c>
       <c r="B370" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="C370" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="D370" t="s">
         <v>8</v>
       </c>
       <c r="F370" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H370" s="2" t="s">
         <v>2571</v>
       </c>
-      <c r="G370" s="2" t="s">
+      <c r="I370" s="2" t="s">
         <v>2572</v>
       </c>
-      <c r="H370" s="2" t="s">
+      <c r="J370" s="2" t="s">
         <v>2573</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="J370" s="2" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -19765,28 +19828,28 @@
         <v>436</v>
       </c>
       <c r="B371" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="C371" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="D371" t="s">
         <v>79</v>
       </c>
       <c r="F371" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H371" s="2" t="s">
         <v>2578</v>
       </c>
-      <c r="G371" s="2" t="s">
+      <c r="I371" s="2" t="s">
         <v>2579</v>
       </c>
-      <c r="H371" s="2" t="s">
+      <c r="J371" s="2" t="s">
         <v>2580</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>2581</v>
-      </c>
-      <c r="J371" s="2" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -19794,28 +19857,28 @@
         <v>437</v>
       </c>
       <c r="B372" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="C372" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="D372" t="s">
         <v>37</v>
       </c>
       <c r="F372" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>2584</v>
+      </c>
+      <c r="H372" s="2" t="s">
         <v>2585</v>
       </c>
-      <c r="G372" s="2" t="s">
+      <c r="I372" s="2" t="s">
         <v>2586</v>
       </c>
-      <c r="H372" s="2" t="s">
+      <c r="J372" s="2" t="s">
         <v>2587</v>
-      </c>
-      <c r="I372" s="2" t="s">
-        <v>2588</v>
-      </c>
-      <c r="J372" s="2" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -19823,10 +19886,10 @@
         <v>438</v>
       </c>
       <c r="B373" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="C373" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="D373" t="s">
         <v>33</v>
@@ -19835,19 +19898,19 @@
         <v>53</v>
       </c>
       <c r="F373" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="H373" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="G373" s="2" t="s">
+      <c r="I373" s="2" t="s">
         <v>2593</v>
       </c>
-      <c r="H373" s="2" t="s">
+      <c r="J373" s="2" t="s">
         <v>2594</v>
-      </c>
-      <c r="I373" s="2" t="s">
-        <v>2595</v>
-      </c>
-      <c r="J373" s="2" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -19855,10 +19918,10 @@
         <v>439</v>
       </c>
       <c r="B374" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="C374" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D374" t="s">
         <v>33</v>
@@ -19867,19 +19930,19 @@
         <v>53</v>
       </c>
       <c r="F374" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H374" s="2" t="s">
         <v>2599</v>
       </c>
-      <c r="G374" s="2" t="s">
+      <c r="I374" s="2" t="s">
         <v>2600</v>
       </c>
-      <c r="H374" s="2" t="s">
+      <c r="J374" s="2" t="s">
         <v>2601</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>2602</v>
-      </c>
-      <c r="J374" s="2" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -19887,28 +19950,28 @@
         <v>440</v>
       </c>
       <c r="B375" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="C375" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D375" t="s">
         <v>53</v>
       </c>
       <c r="F375" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="H375" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="G375" s="2" t="s">
+      <c r="I375" s="2" t="s">
         <v>2607</v>
       </c>
-      <c r="H375" s="2" t="s">
+      <c r="J375" s="2" t="s">
         <v>2608</v>
-      </c>
-      <c r="I375" s="2" t="s">
-        <v>2609</v>
-      </c>
-      <c r="J375" s="2" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -19916,10 +19979,10 @@
         <v>441</v>
       </c>
       <c r="B376" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="C376" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="D376" t="s">
         <v>53</v>
@@ -19928,19 +19991,19 @@
         <v>189</v>
       </c>
       <c r="F376" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H376" s="2" t="s">
         <v>2613</v>
       </c>
-      <c r="G376" s="2" t="s">
+      <c r="I376" s="2" t="s">
         <v>2614</v>
       </c>
-      <c r="H376" s="2" t="s">
+      <c r="J376" s="2" t="s">
         <v>2615</v>
-      </c>
-      <c r="I376" s="2" t="s">
-        <v>2616</v>
-      </c>
-      <c r="J376" s="2" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -19948,28 +20011,28 @@
         <v>442</v>
       </c>
       <c r="B377" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="C377" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D377" t="s">
         <v>58</v>
       </c>
       <c r="F377" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H377" s="2" t="s">
         <v>2620</v>
       </c>
-      <c r="G377" s="2" t="s">
+      <c r="I377" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="H377" s="2" t="s">
+      <c r="J377" s="2" t="s">
         <v>2622</v>
-      </c>
-      <c r="I377" s="2" t="s">
-        <v>2623</v>
-      </c>
-      <c r="J377" s="2" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -19977,10 +20040,10 @@
         <v>443</v>
       </c>
       <c r="B378" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="C378" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D378" t="s">
         <v>15</v>
@@ -19989,19 +20052,19 @@
         <v>189</v>
       </c>
       <c r="F378" s="2" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H378" s="2" t="s">
         <v>2627</v>
       </c>
-      <c r="G378" s="2" t="s">
+      <c r="I378" s="2" t="s">
         <v>2628</v>
       </c>
-      <c r="H378" s="2" t="s">
+      <c r="J378" s="2" t="s">
         <v>2629</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>2630</v>
-      </c>
-      <c r="J378" s="2" t="s">
-        <v>2631</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -20009,28 +20072,28 @@
         <v>444</v>
       </c>
       <c r="B379" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="C379" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="D379" t="s">
         <v>15</v>
       </c>
       <c r="F379" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="H379" s="2" t="s">
         <v>2634</v>
       </c>
-      <c r="G379" s="2" t="s">
+      <c r="I379" s="2" t="s">
         <v>2635</v>
       </c>
-      <c r="H379" s="2" t="s">
+      <c r="J379" s="2" t="s">
         <v>2636</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>2637</v>
-      </c>
-      <c r="J379" s="2" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -20038,28 +20101,28 @@
         <v>445</v>
       </c>
       <c r="B380" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C380" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D380" t="s">
         <v>42</v>
       </c>
       <c r="F380" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="H380" s="2" t="s">
         <v>2641</v>
       </c>
-      <c r="G380" s="2" t="s">
+      <c r="I380" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="H380" s="2" t="s">
+      <c r="J380" s="2" t="s">
         <v>2643</v>
-      </c>
-      <c r="I380" s="2" t="s">
-        <v>2644</v>
-      </c>
-      <c r="J380" s="2" t="s">
-        <v>2645</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -20067,28 +20130,28 @@
         <v>446</v>
       </c>
       <c r="B381" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="C381" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="D381" t="s">
         <v>8</v>
       </c>
       <c r="F381" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="H381" s="2" t="s">
         <v>2648</v>
       </c>
-      <c r="G381" s="2" t="s">
+      <c r="I381" s="2" t="s">
         <v>2649</v>
       </c>
-      <c r="H381" s="2" t="s">
+      <c r="J381" s="2" t="s">
         <v>2650</v>
-      </c>
-      <c r="I381" s="2" t="s">
-        <v>2651</v>
-      </c>
-      <c r="J381" s="2" t="s">
-        <v>2652</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -20096,28 +20159,28 @@
         <v>447</v>
       </c>
       <c r="B382" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="C382" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="D382" t="s">
         <v>189</v>
       </c>
       <c r="F382" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H382" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="G382" s="2" t="s">
+      <c r="I382" s="2" t="s">
         <v>2656</v>
       </c>
-      <c r="H382" s="2" t="s">
+      <c r="J382" s="2" t="s">
         <v>2657</v>
-      </c>
-      <c r="I382" s="2" t="s">
-        <v>2658</v>
-      </c>
-      <c r="J382" s="2" t="s">
-        <v>2659</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -20125,22 +20188,22 @@
         <v>448</v>
       </c>
       <c r="B383" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="C383" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="D383" t="s">
         <v>15</v>
       </c>
       <c r="F383" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H383" s="2" t="s">
         <v>2662</v>
-      </c>
-      <c r="G383" s="2" t="s">
-        <v>2663</v>
-      </c>
-      <c r="H383" s="2" t="s">
-        <v>2664</v>
       </c>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -20153,7 +20216,7 @@
         <v>743</v>
       </c>
       <c r="C384" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="D384" t="s">
         <v>79</v>
@@ -20162,13 +20225,13 @@
         <v>58</v>
       </c>
       <c r="F384" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H384" s="2" t="s">
         <v>2666</v>
-      </c>
-      <c r="G384" s="2" t="s">
-        <v>2667</v>
-      </c>
-      <c r="H384" s="2" t="s">
-        <v>2668</v>
       </c>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
@@ -20178,22 +20241,22 @@
         <v>450</v>
       </c>
       <c r="B385" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="C385" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="D385" t="s">
         <v>15</v>
       </c>
       <c r="F385" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H385" s="2" t="s">
         <v>2671</v>
-      </c>
-      <c r="G385" s="2" t="s">
-        <v>2672</v>
-      </c>
-      <c r="H385" s="2" t="s">
-        <v>2673</v>
       </c>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
@@ -20203,7 +20266,7 @@
         <v>451</v>
       </c>
       <c r="B386" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="C386" t="s">
         <v>724</v>
@@ -20212,19 +20275,109 @@
         <v>53</v>
       </c>
       <c r="F386" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="I386" s="2" t="s">
         <v>2675</v>
       </c>
-      <c r="G386" s="2" t="s">
+      <c r="J386" s="2" t="s">
         <v>2676</v>
       </c>
-      <c r="H386" s="2" t="s">
-        <v>2679</v>
-      </c>
-      <c r="I386" s="2" t="s">
-        <v>2677</v>
-      </c>
-      <c r="J386" s="2" t="s">
-        <v>2678</v>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>452</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D387" t="s">
+        <v>79</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="J387" s="2" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>453</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D388" t="s">
+        <v>8</v>
+      </c>
+      <c r="E388" t="s">
+        <v>15</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="J388" s="2" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>454</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D389" t="s">
+        <v>42</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J389" s="2" t="s">
+        <v>2699</v>
       </c>
     </row>
   </sheetData>
@@ -21430,445 +21583,460 @@
     <hyperlink ref="J205" r:id="rId1198" xr:uid="{206BD714-51F5-46AC-97F0-0298743B1F66}"/>
     <hyperlink ref="I207" r:id="rId1199" xr:uid="{4D40B784-5CCE-42CA-94BA-BD86F3FBB675}"/>
     <hyperlink ref="J207" r:id="rId1200" xr:uid="{8009EE03-4747-4C57-9446-EFF214AC247F}"/>
-    <hyperlink ref="I208" r:id="rId1201" xr:uid="{84086E9F-F12D-4D75-A9F9-114CDF40FE9B}"/>
-    <hyperlink ref="J208" r:id="rId1202" xr:uid="{3B186C03-7450-43C0-8DEF-14E6BE3217CA}"/>
-    <hyperlink ref="I209" r:id="rId1203" xr:uid="{1C5FED74-EC5A-479F-AA62-8D431E526EDC}"/>
-    <hyperlink ref="J209" r:id="rId1204" xr:uid="{ADC363AE-C951-4102-8F34-C78002E39A7E}"/>
-    <hyperlink ref="I210" r:id="rId1205" xr:uid="{E52C18D1-6BD6-421C-ABF9-3F23A11BF1CA}"/>
-    <hyperlink ref="J210" r:id="rId1206" xr:uid="{99894664-4D77-4173-BD41-DE3D7F08D34A}"/>
-    <hyperlink ref="I211" r:id="rId1207" xr:uid="{C0FD9BCC-1314-4B8D-A48F-F545CE446150}"/>
-    <hyperlink ref="J211" r:id="rId1208" xr:uid="{3533A817-91D8-4308-AD7D-3D52B0093E5B}"/>
-    <hyperlink ref="I212" r:id="rId1209" xr:uid="{63140679-D5B6-40B9-A1E7-52AE659154B6}"/>
-    <hyperlink ref="J212" r:id="rId1210" xr:uid="{A0CE3217-7674-4DF7-99AC-ABF86A2B96A1}"/>
-    <hyperlink ref="I213" r:id="rId1211" xr:uid="{F3926FC6-BE08-40BB-9816-82D0C8DD62B9}"/>
-    <hyperlink ref="J213" r:id="rId1212" xr:uid="{46987938-BF11-4953-9660-8B562A9067AC}"/>
-    <hyperlink ref="I214" r:id="rId1213" xr:uid="{B869DEE6-4B32-4155-B7A7-6E6C159E7F97}"/>
-    <hyperlink ref="J214" r:id="rId1214" xr:uid="{9642289A-4B82-4EB3-94A1-FE1E5E61A9AF}"/>
-    <hyperlink ref="I215" r:id="rId1215" xr:uid="{05731DA2-F39B-4951-BE40-485106943FCC}"/>
-    <hyperlink ref="J215" r:id="rId1216" xr:uid="{EC4B2C5E-00DE-42A8-8A84-DB84B82D2A72}"/>
-    <hyperlink ref="I216" r:id="rId1217" xr:uid="{C9127235-9021-451E-957A-B67BBCE3EABE}"/>
-    <hyperlink ref="J216" r:id="rId1218" xr:uid="{D17A66AF-DE27-4692-9243-61CDC95C6DF0}"/>
-    <hyperlink ref="I217" r:id="rId1219" xr:uid="{0390AC8B-70E0-417F-A0F9-DF425C61E1EA}"/>
-    <hyperlink ref="J217" r:id="rId1220" xr:uid="{044CF7B6-C777-465D-8CB2-D3ED0D0C8303}"/>
-    <hyperlink ref="I218" r:id="rId1221" xr:uid="{B24C19CA-4111-431A-8990-DA900CE887F7}"/>
-    <hyperlink ref="J218" r:id="rId1222" xr:uid="{536A9FAB-418C-4B8C-92E7-EE11965AD64C}"/>
-    <hyperlink ref="I219" r:id="rId1223" xr:uid="{30FE8A77-2306-470C-B182-4CFAF2DF2E6C}"/>
-    <hyperlink ref="J219" r:id="rId1224" xr:uid="{6D2B5199-818A-4BE6-9D66-02C4D94C2040}"/>
-    <hyperlink ref="I220" r:id="rId1225" xr:uid="{DCED3E43-29B6-4741-ABDB-6CE3158B5DF5}"/>
-    <hyperlink ref="J220" r:id="rId1226" xr:uid="{721A1815-E146-4C05-8EDA-283DE493AE5E}"/>
-    <hyperlink ref="I221" r:id="rId1227" xr:uid="{835BD772-602E-47A8-9C06-757CB514A3D5}"/>
-    <hyperlink ref="J221" r:id="rId1228" xr:uid="{E443C4D9-AA7B-4D1F-8011-1A6CEB566BC9}"/>
-    <hyperlink ref="I222" r:id="rId1229" xr:uid="{9576B966-79FC-40F8-9A9B-167B95963A00}"/>
-    <hyperlink ref="J222" r:id="rId1230" xr:uid="{FCE20151-3EEA-47DB-A062-FB5D1BEBC1BB}"/>
-    <hyperlink ref="I223" r:id="rId1231" xr:uid="{33C8930B-FC2D-445B-95D2-F093BAAEE1FE}"/>
-    <hyperlink ref="J223" r:id="rId1232" xr:uid="{1650FE2B-F5DA-4F2B-B661-94B7AB50EAA0}"/>
-    <hyperlink ref="I225" r:id="rId1233" xr:uid="{F047C363-906D-4E64-8BEA-9F6C96D95EFE}"/>
-    <hyperlink ref="J225" r:id="rId1234" xr:uid="{A6600F27-5FF3-4725-B5FD-C2457D903920}"/>
-    <hyperlink ref="I226" r:id="rId1235" xr:uid="{955A3D20-8041-4364-A2ED-4C8D141CE4CB}"/>
-    <hyperlink ref="J226" r:id="rId1236" xr:uid="{80359421-242D-4E9C-912C-21BBFA095FE9}"/>
-    <hyperlink ref="I227" r:id="rId1237" xr:uid="{040EA980-3E07-42DE-A9CE-06ECAC9C711F}"/>
-    <hyperlink ref="J227" r:id="rId1238" xr:uid="{E1CA02ED-A98A-4626-91BE-07B0975C3039}"/>
-    <hyperlink ref="I228" r:id="rId1239" xr:uid="{D2202952-B169-4B54-A8D2-E4DB768D9CA3}"/>
-    <hyperlink ref="J228" r:id="rId1240" xr:uid="{E7B5A87B-4B71-49A5-953B-291B2B3B4229}"/>
-    <hyperlink ref="I229" r:id="rId1241" xr:uid="{38A387AB-2E5D-43D2-A0B3-D50B5ECB41BA}"/>
-    <hyperlink ref="J229" r:id="rId1242" xr:uid="{421B879A-8493-4090-89A5-B3B903E46FA7}"/>
-    <hyperlink ref="I230" r:id="rId1243" xr:uid="{E29082CF-F0F2-4A37-8EBC-E9B88EA33F23}"/>
-    <hyperlink ref="J230" r:id="rId1244" xr:uid="{28A2CEBD-05B5-4199-A227-1A4C227C48DF}"/>
-    <hyperlink ref="I231" r:id="rId1245" xr:uid="{96F77CC5-83BE-4425-B622-E390FA0DB04E}"/>
-    <hyperlink ref="J231" r:id="rId1246" xr:uid="{620ADB6C-4C2A-4033-8B0C-EFF8979D4BCE}"/>
-    <hyperlink ref="I232" r:id="rId1247" xr:uid="{EF72ED7C-C3E3-49C2-8A03-8DEDBC0B8DDD}"/>
-    <hyperlink ref="J232" r:id="rId1248" xr:uid="{566FD82C-2DD7-4163-A0A4-316A7E287A90}"/>
-    <hyperlink ref="I233" r:id="rId1249" xr:uid="{0FDBBF79-BB63-4BA8-B492-816F3C65867E}"/>
-    <hyperlink ref="J233" r:id="rId1250" xr:uid="{F40A2B0C-7716-4EED-9981-68A3D9549EF1}"/>
-    <hyperlink ref="I234" r:id="rId1251" xr:uid="{6F1CF67E-18C0-492E-8DEF-D744E56F3C99}"/>
-    <hyperlink ref="J234" r:id="rId1252" xr:uid="{C1FFC12F-CE03-4C60-9518-1D89C38DDCD8}"/>
-    <hyperlink ref="I235" r:id="rId1253" xr:uid="{244DBBBD-C6D7-4E75-9E30-242F3EA9533C}"/>
-    <hyperlink ref="J235" r:id="rId1254" xr:uid="{382C10D5-E331-40DE-8AB5-4B11048BBAF3}"/>
-    <hyperlink ref="I236" r:id="rId1255" xr:uid="{33FA9F65-454D-4DFB-94E3-21D66BE4F948}"/>
-    <hyperlink ref="J236" r:id="rId1256" xr:uid="{91F39EB9-5A9F-4928-B9BF-7E88266F362B}"/>
-    <hyperlink ref="I237" r:id="rId1257" xr:uid="{2E5AB7EF-536C-49BF-921C-3EC6141C267B}"/>
-    <hyperlink ref="J237" r:id="rId1258" xr:uid="{276C0FB0-A7B4-4ADE-83F7-CEC0798B54DB}"/>
-    <hyperlink ref="I238" r:id="rId1259" xr:uid="{79105AA0-CC62-41AF-95F8-5DA05BCCB24D}"/>
-    <hyperlink ref="J238" r:id="rId1260" xr:uid="{4B0319DA-F477-4CE4-AFAF-C5ED139071C2}"/>
-    <hyperlink ref="I239" r:id="rId1261" xr:uid="{1028D587-5E97-452A-864F-1D61C68651B5}"/>
-    <hyperlink ref="J239" r:id="rId1262" xr:uid="{021E3578-E403-4313-928C-2FD63759A2B8}"/>
-    <hyperlink ref="I240" r:id="rId1263" xr:uid="{0596EB26-5EC5-4C65-8448-ACC0E7D3A098}"/>
-    <hyperlink ref="J240" r:id="rId1264" xr:uid="{B01B83E1-8B74-46A1-B38C-63AEF8287DE8}"/>
-    <hyperlink ref="I241" r:id="rId1265" xr:uid="{14EB5493-C717-4AEF-9E5A-620C46266064}"/>
-    <hyperlink ref="J241" r:id="rId1266" xr:uid="{866E6FED-B268-46A0-AB10-49067BE24084}"/>
-    <hyperlink ref="I243" r:id="rId1267" xr:uid="{86777F2C-BF80-4397-B463-072F7625722C}"/>
-    <hyperlink ref="J243" r:id="rId1268" xr:uid="{79C6396A-DD24-41F5-B888-F5E2B1A6D150}"/>
-    <hyperlink ref="I244" r:id="rId1269" xr:uid="{25E21AD4-21F8-46C4-8B7D-D107034C93D6}"/>
-    <hyperlink ref="J244" r:id="rId1270" xr:uid="{CD66E30B-34DA-419E-8814-BEB2DB242DBB}"/>
-    <hyperlink ref="I245" r:id="rId1271" xr:uid="{5DF6B3C6-73D9-4154-9441-24809A48CF79}"/>
-    <hyperlink ref="J245" r:id="rId1272" xr:uid="{75ECC3D0-EBFD-4193-A27B-FD0794706F3E}"/>
-    <hyperlink ref="I246" r:id="rId1273" xr:uid="{A485D4F1-624D-4EBF-88A6-59C086832F54}"/>
-    <hyperlink ref="J246" r:id="rId1274" xr:uid="{614050F5-2670-468B-8BD4-E313914CC88E}"/>
-    <hyperlink ref="I247" r:id="rId1275" xr:uid="{C31499A4-9478-4299-B1E7-9DCC2B893D2E}"/>
-    <hyperlink ref="J247" r:id="rId1276" xr:uid="{5B2E87A8-EFCF-4245-9CF4-FB6A7E0B43E1}"/>
-    <hyperlink ref="I248" r:id="rId1277" xr:uid="{C127F333-029E-4B62-9996-9A5A8D08F9DD}"/>
-    <hyperlink ref="J248" r:id="rId1278" xr:uid="{CBF85A96-9C0A-426B-B97B-EF5E7392E475}"/>
-    <hyperlink ref="I249" r:id="rId1279" xr:uid="{F336C709-48D8-49BD-84EC-89693512D1F4}"/>
-    <hyperlink ref="J249" r:id="rId1280" xr:uid="{7805EC1C-6247-452A-A511-1BE3CD9298A2}"/>
-    <hyperlink ref="I250" r:id="rId1281" xr:uid="{06991117-A772-41ED-BB5A-6ABE661A816D}"/>
-    <hyperlink ref="J250" r:id="rId1282" xr:uid="{B639FE66-6207-4491-A97C-30A997948238}"/>
-    <hyperlink ref="I252" r:id="rId1283" xr:uid="{92BA5FD1-8177-44AF-B505-FD45D1E7F15E}"/>
-    <hyperlink ref="J252" r:id="rId1284" xr:uid="{CB96A757-FF42-4658-889C-0A767440E2AA}"/>
-    <hyperlink ref="I253" r:id="rId1285" xr:uid="{E243345E-48FE-4B81-B3B6-F7C5651232D9}"/>
-    <hyperlink ref="J253" r:id="rId1286" xr:uid="{F800944B-CB3F-4AE1-ACC2-ED6EB497D137}"/>
-    <hyperlink ref="I254" r:id="rId1287" xr:uid="{0990C783-F0CA-4E27-9FEC-62A421B5C02A}"/>
-    <hyperlink ref="J254" r:id="rId1288" xr:uid="{F48EA102-230B-4583-8727-8AA6A69D66A0}"/>
-    <hyperlink ref="I255" r:id="rId1289" xr:uid="{2111C6EB-A437-4C65-9F3B-F84DECA50BF3}"/>
-    <hyperlink ref="J255" r:id="rId1290" xr:uid="{C1AEAF32-FEBC-414E-93EB-E28E3EE286CB}"/>
-    <hyperlink ref="I256" r:id="rId1291" xr:uid="{4F99336E-DEF3-445E-A24B-18039652D6C2}"/>
-    <hyperlink ref="J256" r:id="rId1292" xr:uid="{F6FF38A1-0E90-49DB-8BF6-E20E24A0BB6B}"/>
-    <hyperlink ref="I257" r:id="rId1293" xr:uid="{7BC1B2C7-B52D-491B-B820-E67372ED3035}"/>
-    <hyperlink ref="J257" r:id="rId1294" xr:uid="{43108DB3-D146-4C55-9063-29FE418CA2DE}"/>
-    <hyperlink ref="I258" r:id="rId1295" xr:uid="{A836D205-1DAA-4CD3-9FDF-0C20432C457E}"/>
-    <hyperlink ref="J258" r:id="rId1296" xr:uid="{1A96EA2F-8BEF-4BFE-944C-388A85EFC360}"/>
-    <hyperlink ref="I259" r:id="rId1297" xr:uid="{55393278-8AC3-46E8-9417-1E95492AA88C}"/>
-    <hyperlink ref="J259" r:id="rId1298" xr:uid="{EA8A1059-0563-46C3-9D4D-EEDBBFBA3D24}"/>
-    <hyperlink ref="I260" r:id="rId1299" xr:uid="{5B983455-91B2-4E89-B503-4BDEF0CA6158}"/>
-    <hyperlink ref="J260" r:id="rId1300" xr:uid="{FCEB53B6-9ECC-4836-9AE1-CCD697F9DF55}"/>
-    <hyperlink ref="I261" r:id="rId1301" xr:uid="{1C26B72B-24CA-4A20-8AAD-6E72281B30F8}"/>
-    <hyperlink ref="J261" r:id="rId1302" xr:uid="{555163DD-9062-4B29-875B-F323B45AF83B}"/>
-    <hyperlink ref="I262" r:id="rId1303" xr:uid="{74BC4A8F-C8CD-4983-897F-31D5B87F82B9}"/>
-    <hyperlink ref="J262" r:id="rId1304" xr:uid="{200FB153-32E7-4F10-8580-E83DFC271736}"/>
-    <hyperlink ref="I263" r:id="rId1305" xr:uid="{90912F0F-336E-4F7F-A5C0-CE0859AA58FF}"/>
-    <hyperlink ref="J263" r:id="rId1306" xr:uid="{83F16E51-C450-4ED5-ACDE-2738A419A434}"/>
-    <hyperlink ref="I264" r:id="rId1307" xr:uid="{7EF24EAB-7B1A-4587-ACE2-AF62C9767EBA}"/>
-    <hyperlink ref="J264" r:id="rId1308" xr:uid="{822B90E5-A680-45E2-A2C2-5825BB8F132D}"/>
-    <hyperlink ref="I266" r:id="rId1309" xr:uid="{FB5A0E3F-8E22-47B5-A3FB-73FD09962C47}"/>
-    <hyperlink ref="J266" r:id="rId1310" xr:uid="{56FE962A-6809-4626-A03A-7B9D34B29171}"/>
-    <hyperlink ref="J267" r:id="rId1311" xr:uid="{6708F5CB-E71E-49C8-B3ED-266EE9359640}"/>
-    <hyperlink ref="I267" r:id="rId1312" xr:uid="{D1F1AFF9-6988-45C0-9506-C6840333384D}"/>
-    <hyperlink ref="I268" r:id="rId1313" xr:uid="{21569E89-4003-409B-B98C-D32C1CEE1DA0}"/>
-    <hyperlink ref="J268" r:id="rId1314" xr:uid="{80D3EF35-701F-4B7E-9E72-25BF6ABA4635}"/>
-    <hyperlink ref="I269" r:id="rId1315" xr:uid="{68F17FCC-AF0D-42BF-B775-E057D94234F7}"/>
-    <hyperlink ref="J269" r:id="rId1316" xr:uid="{8B20AF17-90EC-43F8-BE32-FAE380E6C838}"/>
-    <hyperlink ref="I270" r:id="rId1317" xr:uid="{C983A9A5-CEE8-4695-B995-BFDD81C9B2C7}"/>
-    <hyperlink ref="J270" r:id="rId1318" xr:uid="{4AD308DB-40A2-4423-874D-202538288676}"/>
-    <hyperlink ref="I271" r:id="rId1319" xr:uid="{936F18DA-C9A0-4888-AF48-56CBF8219C4B}"/>
-    <hyperlink ref="J271" r:id="rId1320" xr:uid="{5AAF511C-19A0-4443-8FBF-8A950519987A}"/>
-    <hyperlink ref="I273" r:id="rId1321" xr:uid="{33A8445A-9C7F-4BEF-8CE1-29447C2FDD96}"/>
-    <hyperlink ref="J273" r:id="rId1322" xr:uid="{3031F5AA-0C1F-4325-82EA-7B6152C95E0A}"/>
-    <hyperlink ref="I274" r:id="rId1323" xr:uid="{F55844DE-E31A-4409-A931-EBF9D71FC0DD}"/>
-    <hyperlink ref="J274" r:id="rId1324" xr:uid="{618CDA92-D567-4521-A4F8-AC817787DE5C}"/>
-    <hyperlink ref="I275" r:id="rId1325" xr:uid="{647ABC56-CF1B-4113-96A2-B0B915FCBE88}"/>
-    <hyperlink ref="J275" r:id="rId1326" xr:uid="{493AA7D5-B4A6-4E16-95E0-30213C1B1579}"/>
-    <hyperlink ref="I276" r:id="rId1327" xr:uid="{2BCF0715-E193-4CF4-9B57-1F2EAACB553E}"/>
-    <hyperlink ref="J276" r:id="rId1328" xr:uid="{79B37A2D-1EA0-446C-9E02-C9C923E9B519}"/>
-    <hyperlink ref="I277" r:id="rId1329" xr:uid="{D0E458B4-465E-4110-8B99-B3B674193914}"/>
-    <hyperlink ref="J277" r:id="rId1330" xr:uid="{BDA23700-888E-42E1-AC73-6B1A9F407B82}"/>
-    <hyperlink ref="I278" r:id="rId1331" xr:uid="{E28E222D-10CE-4B1C-9209-F93B042BD7DC}"/>
-    <hyperlink ref="J278" r:id="rId1332" xr:uid="{B525C631-D6AC-4F35-827E-549FA00C43B3}"/>
-    <hyperlink ref="I279" r:id="rId1333" xr:uid="{8D9E1100-E165-411A-B8FE-999BB33A1798}"/>
-    <hyperlink ref="J279" r:id="rId1334" xr:uid="{61D6BC4B-F8DB-4767-8EF9-5B35ED9595A8}"/>
-    <hyperlink ref="I280" r:id="rId1335" xr:uid="{CB0765D0-0585-43C0-85B2-8A58FF28AEE3}"/>
-    <hyperlink ref="J280" r:id="rId1336" xr:uid="{431E923E-09AA-4822-8B92-94CE7A2E2E93}"/>
-    <hyperlink ref="I282" r:id="rId1337" xr:uid="{1F1EBDC1-37D0-494D-9F4C-E4BAF2199365}"/>
-    <hyperlink ref="J282" r:id="rId1338" xr:uid="{33D9076A-0D41-4C39-9004-83A665C74F90}"/>
-    <hyperlink ref="I283" r:id="rId1339" xr:uid="{3A7F3910-96FA-4B6C-B3A2-284BE63713D8}"/>
-    <hyperlink ref="J283" r:id="rId1340" xr:uid="{6431B938-08BB-401A-AD5A-0000ACF07024}"/>
-    <hyperlink ref="I284" r:id="rId1341" xr:uid="{7DB142BF-23D9-4306-AB3D-C982156ED984}"/>
-    <hyperlink ref="J284" r:id="rId1342" xr:uid="{E3AC3BE9-3DAB-4165-B675-1D144998C813}"/>
-    <hyperlink ref="I285" r:id="rId1343" xr:uid="{540D65E6-19E3-4D12-BB96-4DCFC40DE974}"/>
-    <hyperlink ref="J285" r:id="rId1344" xr:uid="{4811CD38-DA56-4913-BF26-D70632A92616}"/>
-    <hyperlink ref="I286" r:id="rId1345" xr:uid="{9ACB9709-E852-4290-AD7A-C54C7F1E9627}"/>
-    <hyperlink ref="J286" r:id="rId1346" xr:uid="{5E6D98A2-4CD8-4C19-A127-AF0A682A9A8D}"/>
-    <hyperlink ref="I287" r:id="rId1347" xr:uid="{E1BA5DFA-9FA8-4116-A078-81D04F478B76}"/>
-    <hyperlink ref="J287" r:id="rId1348" xr:uid="{5CBE5006-4896-4383-8D63-F7E7D116DEEC}"/>
-    <hyperlink ref="I288" r:id="rId1349" xr:uid="{3AFF46DA-9A35-41C7-AD2E-2C2BA0CD2176}"/>
-    <hyperlink ref="J288" r:id="rId1350" xr:uid="{4898CBA1-66FC-43F7-8D11-FE1339122552}"/>
-    <hyperlink ref="I289" r:id="rId1351" xr:uid="{D8DC2967-5820-41CB-9A61-C06FD3DEC322}"/>
-    <hyperlink ref="J289" r:id="rId1352" xr:uid="{974354A5-8F12-4E12-9655-5298DAAF7B17}"/>
-    <hyperlink ref="I290" r:id="rId1353" xr:uid="{BA79A7C8-706A-4A8C-A52E-AFD23120F1D2}"/>
-    <hyperlink ref="J290" r:id="rId1354" xr:uid="{A8B44967-081D-427C-BA84-C91AFFC247CD}"/>
-    <hyperlink ref="I291" r:id="rId1355" xr:uid="{4EAFA38F-34A6-457F-AFD8-0E9D321294E8}"/>
-    <hyperlink ref="J291" r:id="rId1356" xr:uid="{E253A7C6-6B2E-4CD2-A95A-EF1F7BC82BA1}"/>
-    <hyperlink ref="I292" r:id="rId1357" xr:uid="{4E2B250D-9B2D-471F-9DD7-306AB22A402C}"/>
-    <hyperlink ref="J292" r:id="rId1358" xr:uid="{BBCEAF33-BD4D-4AD9-91DE-C0CCA8B53E38}"/>
-    <hyperlink ref="I293" r:id="rId1359" xr:uid="{04859C78-0994-4C56-8675-70EB76F39D7C}"/>
-    <hyperlink ref="J293" r:id="rId1360" xr:uid="{BA3CCDA8-9E09-42C8-ADEC-F1A12F1FF7C8}"/>
-    <hyperlink ref="I294" r:id="rId1361" xr:uid="{3CC90E37-1BF5-4262-934D-A37993466EA3}"/>
-    <hyperlink ref="J294" r:id="rId1362" xr:uid="{E7761221-3353-4AEE-BBB1-41ED2D45B41A}"/>
-    <hyperlink ref="I295" r:id="rId1363" xr:uid="{8FA9A865-0FFA-42CE-BA34-CE4F2C830BF3}"/>
-    <hyperlink ref="J295" r:id="rId1364" xr:uid="{2D70BF3F-BDD9-47BA-8DE9-25F7BBBD5A11}"/>
-    <hyperlink ref="I296" r:id="rId1365" xr:uid="{6DC7B8A1-4772-4E23-89A3-6DD1EDB003A8}"/>
-    <hyperlink ref="J296" r:id="rId1366" xr:uid="{88DFBCDE-5E18-4C8B-900C-909738CD4BA8}"/>
-    <hyperlink ref="I297" r:id="rId1367" xr:uid="{A4B45442-E1A1-4A8A-B0E1-1758E18DE5E9}"/>
-    <hyperlink ref="J297" r:id="rId1368" xr:uid="{79244E1F-1B5D-4F1D-B0F1-66AA0AEFFFA2}"/>
-    <hyperlink ref="I298" r:id="rId1369" xr:uid="{8EEABF58-D65C-47DF-81F0-E1CF211BE37A}"/>
-    <hyperlink ref="J298" r:id="rId1370" xr:uid="{4F19D743-EDA6-4667-ACC3-13AE8966993A}"/>
-    <hyperlink ref="I299" r:id="rId1371" xr:uid="{A8F2BF96-9966-467E-9D99-963BF9EE6462}"/>
-    <hyperlink ref="J299" r:id="rId1372" xr:uid="{FF2C4D5B-1103-490F-9449-EB7033E0ABF0}"/>
-    <hyperlink ref="I300" r:id="rId1373" xr:uid="{47F3A1BD-FC3C-4DDC-B0BB-183DA4A17B41}"/>
-    <hyperlink ref="J300" r:id="rId1374" xr:uid="{45013952-3321-445D-842A-4E8BE396BBF4}"/>
-    <hyperlink ref="I301" r:id="rId1375" xr:uid="{7A0E4B3A-9CB1-4216-BD6B-40D0D9C5078C}"/>
-    <hyperlink ref="J301" r:id="rId1376" xr:uid="{A34B792F-6594-4B13-8C9C-73727350CDD8}"/>
-    <hyperlink ref="I302" r:id="rId1377" xr:uid="{7BA252F5-C9B8-4BC0-8F0F-FA5EFAFC8CAA}"/>
-    <hyperlink ref="J302" r:id="rId1378" xr:uid="{D0600B32-DE16-4808-BF6A-1F0D6F21CC3F}"/>
-    <hyperlink ref="I303" r:id="rId1379" xr:uid="{E1EA2C31-9E58-438B-84E1-6DFCBBDC27D0}"/>
-    <hyperlink ref="J303" r:id="rId1380" xr:uid="{AE252CB4-6A25-4D21-82AE-2A8715E79BBC}"/>
-    <hyperlink ref="I304" r:id="rId1381" xr:uid="{E67DB4C0-3572-48E7-B0C4-5279C28C3911}"/>
-    <hyperlink ref="J304" r:id="rId1382" xr:uid="{869ABC22-3AD5-4519-9F8E-36FE1C78B7FD}"/>
-    <hyperlink ref="I305" r:id="rId1383" xr:uid="{EEE25A09-882F-4916-8120-4CACA368ED9F}"/>
-    <hyperlink ref="J305" r:id="rId1384" xr:uid="{130ED3AE-8E28-4995-98AB-66F26D1CA7D8}"/>
-    <hyperlink ref="I306" r:id="rId1385" xr:uid="{DD637F4D-7DFA-4A08-A241-B1D3550076F1}"/>
-    <hyperlink ref="J306" r:id="rId1386" xr:uid="{EDAD5D19-187A-4653-B3DE-369EFF183F9E}"/>
-    <hyperlink ref="I307" r:id="rId1387" xr:uid="{B484FDE1-EC98-4222-9EDD-28F337AA9AC0}"/>
-    <hyperlink ref="J307" r:id="rId1388" xr:uid="{B7303B11-E453-4E23-BBD7-C5F3A73C96DE}"/>
-    <hyperlink ref="I308" r:id="rId1389" xr:uid="{1A3809D7-3861-44E3-9014-9BD2E75D01B8}"/>
-    <hyperlink ref="J308" r:id="rId1390" xr:uid="{BC9BBD38-AB11-4009-9372-54A28B94F13E}"/>
-    <hyperlink ref="I309" r:id="rId1391" xr:uid="{DC80F0E0-335E-4334-BF2A-152A2B3C118B}"/>
-    <hyperlink ref="J309" r:id="rId1392" xr:uid="{7CCF2EA0-CA0C-4552-B799-9FC3A85973F3}"/>
-    <hyperlink ref="I310" r:id="rId1393" xr:uid="{078519EE-2E27-4390-8695-E498CAFBC384}"/>
-    <hyperlink ref="J310" r:id="rId1394" xr:uid="{BE52A010-24A7-4F02-A309-E103F0065CA4}"/>
-    <hyperlink ref="I311" r:id="rId1395" xr:uid="{C8FBA5EA-564E-4A94-988A-304A327D42D7}"/>
-    <hyperlink ref="J311" r:id="rId1396" xr:uid="{07B54400-77B0-4A41-AB6A-855FA9B1916C}"/>
-    <hyperlink ref="I312" r:id="rId1397" xr:uid="{3CDF90B0-EFD5-41AF-88BA-220125DD70CB}"/>
-    <hyperlink ref="J312" r:id="rId1398" xr:uid="{63860465-E04D-4419-980C-8A0DF61097DA}"/>
-    <hyperlink ref="I313" r:id="rId1399" xr:uid="{98F74A35-9606-4D90-BDE9-94D1FC044B6E}"/>
-    <hyperlink ref="J313" r:id="rId1400" xr:uid="{714AA937-5882-422E-A076-EB1CE17692CD}"/>
-    <hyperlink ref="I314" r:id="rId1401" xr:uid="{66187586-B607-4CED-B89A-A5621FFF53CC}"/>
-    <hyperlink ref="J314" r:id="rId1402" xr:uid="{7D1DC5FB-E5F6-44BA-A425-AF96C14C52B8}"/>
-    <hyperlink ref="I315" r:id="rId1403" xr:uid="{FD235E92-7703-47BD-AB06-9B08F0D8799A}"/>
-    <hyperlink ref="J315" r:id="rId1404" xr:uid="{51442F2B-E087-4DBE-94EA-BE392A333E94}"/>
-    <hyperlink ref="I316" r:id="rId1405" xr:uid="{442B8E64-2F94-4B7E-85D5-887DF1073EFA}"/>
-    <hyperlink ref="J316" r:id="rId1406" xr:uid="{975DC67F-1789-4CF9-9032-B509F9FD048F}"/>
-    <hyperlink ref="I317" r:id="rId1407" xr:uid="{E7519F59-96DF-4614-9B83-93F1C67849A2}"/>
-    <hyperlink ref="J317" r:id="rId1408" xr:uid="{29ABBF44-17CA-4292-BB95-E63B8E0D85F3}"/>
-    <hyperlink ref="I318" r:id="rId1409" xr:uid="{D0B07EF5-D172-48FF-BEEC-0E6A2897735E}"/>
-    <hyperlink ref="J318" r:id="rId1410" xr:uid="{719AE4A4-B62D-4AF6-8607-ABD7657ADC0E}"/>
-    <hyperlink ref="I319" r:id="rId1411" xr:uid="{E6533899-F1AB-4359-9F78-0C3DC0B9E672}"/>
-    <hyperlink ref="J319" r:id="rId1412" xr:uid="{2A0D27F5-13B5-46E9-946F-E2F8CA6DAABD}"/>
-    <hyperlink ref="I320" r:id="rId1413" xr:uid="{75A6CFB4-F47E-4C00-AED3-1E9AB1125450}"/>
-    <hyperlink ref="J320" r:id="rId1414" xr:uid="{330E8F1E-F934-467A-AD06-EFF336AAD676}"/>
-    <hyperlink ref="I321" r:id="rId1415" xr:uid="{A45C62E2-AB96-4BDA-8CF0-C5D9976307F8}"/>
-    <hyperlink ref="J321" r:id="rId1416" xr:uid="{49E526A1-4C40-4B2A-BE63-B43E2ECE72C6}"/>
-    <hyperlink ref="I322" r:id="rId1417" xr:uid="{8598314B-C2AF-4C03-BB43-0799365E5709}"/>
-    <hyperlink ref="J322" r:id="rId1418" xr:uid="{DFC1A003-070B-48FE-8D82-A10643E603D8}"/>
-    <hyperlink ref="I323" r:id="rId1419" xr:uid="{36DECB2B-0A1B-4EAE-8EB5-6E4D643F6809}"/>
-    <hyperlink ref="J323" r:id="rId1420" xr:uid="{DBF759FA-92B2-4311-8B46-8E34DCE5A4AF}"/>
-    <hyperlink ref="J324" r:id="rId1421" xr:uid="{6D86619A-4002-4314-8A19-5A6BD2D74E86}"/>
-    <hyperlink ref="I326" r:id="rId1422" xr:uid="{03A187F0-1347-4B64-88DA-EFA4BE0DAD3A}"/>
-    <hyperlink ref="J326" r:id="rId1423" xr:uid="{DE5B4820-FF16-42D1-A8C3-C67250E0BF84}"/>
-    <hyperlink ref="I328" r:id="rId1424" xr:uid="{E7F88093-7AFF-41AB-8868-619B201C1106}"/>
-    <hyperlink ref="J328" r:id="rId1425" xr:uid="{5CEAB345-9632-4D23-855D-175090CD1FD7}"/>
-    <hyperlink ref="I329" r:id="rId1426" xr:uid="{49B05E95-606D-4637-86E3-0EE2078EFB04}"/>
-    <hyperlink ref="J329" r:id="rId1427" xr:uid="{2A34CF02-0922-4F73-AAF6-55CB80F63853}"/>
-    <hyperlink ref="I332" r:id="rId1428" xr:uid="{A1076879-4A4A-4BB7-9707-D46607051C4C}"/>
-    <hyperlink ref="J332" r:id="rId1429" xr:uid="{C59C9E85-2E86-4036-9509-CA180E144BFC}"/>
-    <hyperlink ref="F346" r:id="rId1430" xr:uid="{E5F00FAD-CD17-4629-80E5-6DC3ED7865AF}"/>
-    <hyperlink ref="G346" r:id="rId1431" xr:uid="{6E6B20A8-F499-4FBB-B3DA-A983A5605A7F}"/>
-    <hyperlink ref="H346" r:id="rId1432" xr:uid="{44966AD7-78CE-4880-AC66-E7F86B55D055}"/>
-    <hyperlink ref="I346" r:id="rId1433" xr:uid="{AC9717CB-87DF-473D-9805-455D162731EA}"/>
-    <hyperlink ref="J346" r:id="rId1434" xr:uid="{BD82C665-B99A-4470-A126-131CD9EFB230}"/>
-    <hyperlink ref="F347" r:id="rId1435" xr:uid="{11B9D2BE-BFE1-43C2-BD86-9C196A7AEB3C}"/>
-    <hyperlink ref="G347" r:id="rId1436" xr:uid="{899FA22A-95A2-4C62-82F2-FBB9EAFA112D}"/>
-    <hyperlink ref="H347" r:id="rId1437" xr:uid="{5B329F37-C524-4678-A18D-39072F7A47B5}"/>
-    <hyperlink ref="I347" r:id="rId1438" xr:uid="{10E1C1A0-5B64-4DFE-9E44-608D2BB5C6ED}"/>
-    <hyperlink ref="J347" r:id="rId1439" xr:uid="{3621C937-CFF9-4B2C-B670-0397DB38F4E6}"/>
-    <hyperlink ref="F348" r:id="rId1440" xr:uid="{DAD9857E-F42D-4F8C-9EEA-E5D815C19876}"/>
-    <hyperlink ref="G348" r:id="rId1441" xr:uid="{E96C5344-31AE-46B2-A966-4174C47BA907}"/>
-    <hyperlink ref="H348" r:id="rId1442" xr:uid="{9EB1AACA-D6FF-458A-9EDD-2CF17135B9D6}"/>
-    <hyperlink ref="I348" r:id="rId1443" xr:uid="{3C878564-9B35-4F04-9F38-5326414094A5}"/>
-    <hyperlink ref="J348" r:id="rId1444" xr:uid="{F61BB641-AA09-41C8-A934-392E61FF1FB7}"/>
-    <hyperlink ref="F349" r:id="rId1445" xr:uid="{B880025E-217D-4D2E-B008-81E812A73D99}"/>
-    <hyperlink ref="G349" r:id="rId1446" xr:uid="{0D8D48AD-6CBD-4305-BE5B-25BA2E133158}"/>
-    <hyperlink ref="H349" r:id="rId1447" xr:uid="{12D7C25C-ACC2-4882-962A-0D863759DDB4}"/>
-    <hyperlink ref="I349" r:id="rId1448" xr:uid="{19EF4D50-E33E-48B5-A4F8-920FF6D67A88}"/>
-    <hyperlink ref="J349" r:id="rId1449" xr:uid="{9E7843ED-3E44-448C-BDFF-7A9690997390}"/>
-    <hyperlink ref="F350" r:id="rId1450" xr:uid="{68E933E2-82D9-4C3E-AA07-F55F282FC524}"/>
-    <hyperlink ref="G350" r:id="rId1451" xr:uid="{0EF484D1-4660-4B09-AC45-95AAF306006D}"/>
-    <hyperlink ref="H350" r:id="rId1452" xr:uid="{F6CBAE5E-B3A9-42C1-84DF-0B4414EBDB0D}"/>
-    <hyperlink ref="I350" r:id="rId1453" xr:uid="{794E1743-3F8A-419D-84FD-994919C721D5}"/>
-    <hyperlink ref="J350" r:id="rId1454" xr:uid="{94CBA256-286B-43CF-A15C-BB2ADA07D8E4}"/>
-    <hyperlink ref="F351" r:id="rId1455" xr:uid="{2E754F5B-7AF5-4274-92C0-33F0DA59727A}"/>
-    <hyperlink ref="G351" r:id="rId1456" xr:uid="{20C552B4-25D7-4E32-A9D6-C68656260902}"/>
-    <hyperlink ref="H351" r:id="rId1457" xr:uid="{E89E8EF4-C2AB-49A1-8C28-631C6A0847E4}"/>
-    <hyperlink ref="I351" r:id="rId1458" xr:uid="{711CA091-D81F-42B6-B641-5D4B1E18DD41}"/>
-    <hyperlink ref="J351" r:id="rId1459" xr:uid="{B857136F-5C8F-4355-9AB7-1283FDE45829}"/>
-    <hyperlink ref="F352" r:id="rId1460" xr:uid="{5542DC5D-AB3B-49FF-807C-3C3305A7B076}"/>
-    <hyperlink ref="G352" r:id="rId1461" xr:uid="{A7930621-918D-4C0B-9FB7-35C3B84CB9BC}"/>
-    <hyperlink ref="H352" r:id="rId1462" xr:uid="{841078C7-96E6-4166-B6CE-59F3BBBD70D9}"/>
-    <hyperlink ref="I352" r:id="rId1463" xr:uid="{06BF4AE5-12B6-44CD-923C-13DDCDC0E57B}"/>
-    <hyperlink ref="J352" r:id="rId1464" xr:uid="{78AF7474-272E-4196-81C9-9A0F70908A86}"/>
-    <hyperlink ref="F353" r:id="rId1465" xr:uid="{95615DE4-395C-4381-AA59-3EEC57EDE99F}"/>
-    <hyperlink ref="G353" r:id="rId1466" xr:uid="{4F594879-30D8-45D2-84FA-D50E67981BAA}"/>
-    <hyperlink ref="H353" r:id="rId1467" xr:uid="{F390B035-184D-4492-9D1B-4A59BEC27860}"/>
-    <hyperlink ref="I353" r:id="rId1468" xr:uid="{33BB4538-3F04-4292-8D0E-C0E261F8F44D}"/>
-    <hyperlink ref="J353" r:id="rId1469" xr:uid="{3CE75AC1-FEB4-429D-B948-B31C2B4CC1AE}"/>
-    <hyperlink ref="F354" r:id="rId1470" xr:uid="{C4F5ED41-6FED-41B2-B77E-806DEBE44A76}"/>
-    <hyperlink ref="G354" r:id="rId1471" xr:uid="{17B8D3BD-1736-4649-A986-AB47EF2FC20E}"/>
-    <hyperlink ref="H354" r:id="rId1472" xr:uid="{6D9F36C4-170C-4092-8A16-3EC8113201CF}"/>
-    <hyperlink ref="I354" r:id="rId1473" xr:uid="{70C3CF2F-5CC5-4664-9D5D-FDB6193600DA}"/>
-    <hyperlink ref="J354" r:id="rId1474" xr:uid="{0045438D-6FFD-44E2-8C0F-9CC9F4BA0F5A}"/>
-    <hyperlink ref="F355" r:id="rId1475" xr:uid="{4F03E399-A65A-4F80-BCAE-F4C4E0B3BB38}"/>
-    <hyperlink ref="G355" r:id="rId1476" xr:uid="{83C50C12-4B43-491F-8CE4-DF151049F071}"/>
-    <hyperlink ref="H355" r:id="rId1477" xr:uid="{23C70C20-FBBF-4F45-932F-A26BD0398A9A}"/>
-    <hyperlink ref="I355" r:id="rId1478" xr:uid="{67BAE2EB-E8C2-4D49-A3E5-EFCA3374C352}"/>
-    <hyperlink ref="J355" r:id="rId1479" xr:uid="{7E2211CB-453C-46AE-BA43-45790804EFC5}"/>
-    <hyperlink ref="F356" r:id="rId1480" xr:uid="{91038F82-3832-4F60-A5F9-96D9C366F277}"/>
-    <hyperlink ref="G356" r:id="rId1481" xr:uid="{390899C9-B4F6-429A-A031-155DCC9A728B}"/>
-    <hyperlink ref="H356" r:id="rId1482" xr:uid="{0386AC29-3E18-438C-9AFD-07FD7E49C8A3}"/>
-    <hyperlink ref="I356" r:id="rId1483" xr:uid="{B9D54722-D8DA-4271-94BB-C186F661B45D}"/>
-    <hyperlink ref="J356" r:id="rId1484" xr:uid="{A6210485-CBF2-46A6-9DF9-5F1BD82A0E73}"/>
-    <hyperlink ref="F357" r:id="rId1485" xr:uid="{E6B6899F-A6D4-442C-9FC4-B49A86026833}"/>
-    <hyperlink ref="G357" r:id="rId1486" xr:uid="{957F2765-E3E8-4DFA-A661-243EE51910DD}"/>
-    <hyperlink ref="H357" r:id="rId1487" xr:uid="{C1CB46CC-B7F1-45CB-9B5B-DD114B29ADE7}"/>
-    <hyperlink ref="I357" r:id="rId1488" xr:uid="{337DF965-35CF-472C-BB05-671E33C5CF49}"/>
-    <hyperlink ref="J357" r:id="rId1489" xr:uid="{DDC3CE02-24C7-42BF-A2BA-3D3263F8A70C}"/>
-    <hyperlink ref="F358" r:id="rId1490" xr:uid="{271F7D2C-C922-4040-B397-6EC9338D99B6}"/>
-    <hyperlink ref="G358" r:id="rId1491" xr:uid="{66598E50-52AB-4E67-801D-EA292E114284}"/>
-    <hyperlink ref="H358" r:id="rId1492" xr:uid="{A35277CC-831B-4462-975A-915C2B653187}"/>
-    <hyperlink ref="I358" r:id="rId1493" xr:uid="{C9B3335E-28FB-4553-B56E-26D3E6E56125}"/>
-    <hyperlink ref="J358" r:id="rId1494" xr:uid="{A47CF0CC-3AAC-41D1-81C3-71652EEED0FD}"/>
-    <hyperlink ref="F359" r:id="rId1495" xr:uid="{41C206CB-246A-4B94-9995-F0C68454112E}"/>
-    <hyperlink ref="G359" r:id="rId1496" xr:uid="{D916C860-C90C-4D8C-AF1A-56FD67A3D3B6}"/>
-    <hyperlink ref="H359" r:id="rId1497" xr:uid="{F1022EB5-CB72-4C89-9AB5-3EDC2582840F}"/>
-    <hyperlink ref="I359" r:id="rId1498" xr:uid="{ABFCA587-A2BF-4D5F-B31C-CC4644E724E7}"/>
-    <hyperlink ref="J359" r:id="rId1499" xr:uid="{00128243-B096-4793-87FB-3A8BEA33420A}"/>
-    <hyperlink ref="F360" r:id="rId1500" xr:uid="{30FF3C82-3C53-4C09-9E08-4BF0FD24DCF9}"/>
-    <hyperlink ref="I224" r:id="rId1501" xr:uid="{0928CE4E-E37E-4BD4-BB63-2315FA8F0884}"/>
-    <hyperlink ref="J224" r:id="rId1502" xr:uid="{AF22EEC7-3471-4560-A11E-A647EEDB8752}"/>
-    <hyperlink ref="I272" r:id="rId1503" xr:uid="{E8790EEC-FEEF-48FF-AF0F-B04199B565F4}"/>
-    <hyperlink ref="J272" r:id="rId1504" xr:uid="{EE492F6A-4B20-4D42-82EE-7FBCF29C425E}"/>
-    <hyperlink ref="F361" r:id="rId1505" xr:uid="{7A9B2BA6-6A7C-4ECA-B329-68B10C358DF6}"/>
-    <hyperlink ref="G361" r:id="rId1506" xr:uid="{C2D2408C-D101-4D00-9039-457ECAB1FF64}"/>
-    <hyperlink ref="H361" r:id="rId1507" xr:uid="{8123112E-531D-40E8-8559-FE719183B655}"/>
-    <hyperlink ref="I361" r:id="rId1508" xr:uid="{45C122AA-3D13-4D81-985D-9F05C45FF529}"/>
-    <hyperlink ref="J361" r:id="rId1509" xr:uid="{64782514-DA30-4C58-B03E-240BAAE6F27F}"/>
-    <hyperlink ref="F362" r:id="rId1510" xr:uid="{A600E427-5051-4810-B748-158F82112D0E}"/>
-    <hyperlink ref="G362" r:id="rId1511" xr:uid="{18D3F212-38C6-47F6-AD83-4182E59C24F2}"/>
-    <hyperlink ref="H362" r:id="rId1512" xr:uid="{CA74C210-FDD1-46B3-8FF8-4A9CDCC1E243}"/>
-    <hyperlink ref="I362" r:id="rId1513" xr:uid="{C4409797-4ED9-453B-93EA-22EBCD73F19C}"/>
-    <hyperlink ref="J362" r:id="rId1514" xr:uid="{AB220784-61FF-4B57-AABC-0E4B4B42726F}"/>
-    <hyperlink ref="F363" r:id="rId1515" xr:uid="{89ACD43F-B79E-41B8-9F0A-7FAC60890268}"/>
-    <hyperlink ref="G363" r:id="rId1516" xr:uid="{53F77340-8C30-47AC-A161-D8CEC011C791}"/>
-    <hyperlink ref="H363" r:id="rId1517" xr:uid="{9B0408FF-76B8-4D9E-AAC0-5115239FB59A}"/>
-    <hyperlink ref="I363" r:id="rId1518" xr:uid="{241FFB2F-AD72-4F02-909A-9975DC2F3BDB}"/>
-    <hyperlink ref="J363" r:id="rId1519" xr:uid="{F1C3DD83-C05E-4943-B296-D7B8D69DC96E}"/>
-    <hyperlink ref="F364" r:id="rId1520" xr:uid="{394811EA-CA96-49C8-9171-9F8C22924B38}"/>
-    <hyperlink ref="G364" r:id="rId1521" xr:uid="{EB444B6B-7635-4A18-95F0-8A26560A6E8E}"/>
-    <hyperlink ref="H364" r:id="rId1522" xr:uid="{28213A76-5B67-4431-BDAB-95923DBB4A36}"/>
-    <hyperlink ref="I364" r:id="rId1523" xr:uid="{7BF3914C-9323-4803-9707-BD796A1A308C}"/>
-    <hyperlink ref="J364" r:id="rId1524" xr:uid="{BA8DC8F7-8618-4868-A491-FA9176C9C3F4}"/>
-    <hyperlink ref="I324" r:id="rId1525" xr:uid="{6B3DD9B7-E8FF-4F23-8E34-B112959FF859}"/>
-    <hyperlink ref="I242" r:id="rId1526" xr:uid="{FC801369-1A9C-401E-80B5-6EE27996CB34}"/>
-    <hyperlink ref="J242" r:id="rId1527" xr:uid="{740A8E53-721C-4309-A368-44241417CA5D}"/>
-    <hyperlink ref="I265" r:id="rId1528" xr:uid="{81C18AFB-769E-4104-983D-7FBCEF3C5CDB}"/>
-    <hyperlink ref="I251" r:id="rId1529" xr:uid="{91F03ED3-9660-4E6D-B574-E8EEBC1F1E40}"/>
-    <hyperlink ref="J251" r:id="rId1530" xr:uid="{C4507BE4-AD00-4D0A-BA45-76822A65A031}"/>
-    <hyperlink ref="F365" r:id="rId1531" xr:uid="{4AF6BB23-8AA7-444B-8422-89BAD383C054}"/>
-    <hyperlink ref="G365" r:id="rId1532" xr:uid="{D7CB5728-41F7-488F-8B16-21A09E32D5FC}"/>
-    <hyperlink ref="H365" r:id="rId1533" xr:uid="{3F4EAFF7-ACA0-46F3-A208-789CE07E3E62}"/>
-    <hyperlink ref="I365" r:id="rId1534" xr:uid="{DC5EC07C-DF73-4371-97CB-E8F1302FCCC5}"/>
-    <hyperlink ref="J365" r:id="rId1535" xr:uid="{6510321B-65FB-4AC4-A6DC-0CCB73F78E8F}"/>
-    <hyperlink ref="F366" r:id="rId1536" xr:uid="{FB73BC44-1121-4CC0-92C5-90341AC95D34}"/>
-    <hyperlink ref="G366" r:id="rId1537" xr:uid="{AE2306D2-ACD1-4BD6-A79A-E91CD3361113}"/>
-    <hyperlink ref="H366" r:id="rId1538" xr:uid="{B6396934-2912-4CEB-A6D4-79A2D4A97865}"/>
-    <hyperlink ref="I366" r:id="rId1539" xr:uid="{FD5CE668-D5DB-4035-98B8-4E6DAE019919}"/>
-    <hyperlink ref="J366" r:id="rId1540" xr:uid="{B057B8B3-A265-486B-9B0B-90E19A9B7C63}"/>
-    <hyperlink ref="F367" r:id="rId1541" xr:uid="{BC0738DF-B02F-4ADA-AC17-A7294B021AC0}"/>
-    <hyperlink ref="G367" r:id="rId1542" xr:uid="{94884C59-DB9D-4912-8E37-147A21751547}"/>
-    <hyperlink ref="H367" r:id="rId1543" xr:uid="{410B9CD7-D40A-4A38-8A55-1ABC04CA513D}"/>
-    <hyperlink ref="I367" r:id="rId1544" xr:uid="{1ECBFDE2-C311-4167-93E0-B206F55D1C3E}"/>
-    <hyperlink ref="J367" r:id="rId1545" xr:uid="{21CA9828-4957-487A-B676-1E1E7D99BF6F}"/>
-    <hyperlink ref="F368" r:id="rId1546" xr:uid="{8DB495DD-C0D5-4E9F-9131-8DC9DE86B793}"/>
-    <hyperlink ref="G368" r:id="rId1547" xr:uid="{189CFEA5-FDCD-4FBB-B47B-A75A7FA5FE15}"/>
-    <hyperlink ref="H368" r:id="rId1548" xr:uid="{802693E2-7869-4859-B166-B5B10E1B911C}"/>
-    <hyperlink ref="I368" r:id="rId1549" xr:uid="{6EE25A4C-B1D2-490A-AC33-75B31007851D}"/>
-    <hyperlink ref="J368" r:id="rId1550" xr:uid="{C8AF5FBB-AE92-4899-8FBC-DB0FD2BE54A2}"/>
-    <hyperlink ref="F369" r:id="rId1551" xr:uid="{F5D4AEFE-E085-4FDE-9CF8-2C5F49794E28}"/>
-    <hyperlink ref="G369" r:id="rId1552" xr:uid="{9A2F8D97-54A4-4B7D-A564-8F1673F9DD6F}"/>
-    <hyperlink ref="H369" r:id="rId1553" xr:uid="{7C877BD2-85C4-4131-8D4D-0559A796AFAE}"/>
-    <hyperlink ref="I369" r:id="rId1554" xr:uid="{1E9937CB-348B-48D8-AC96-1CB599FCF715}"/>
-    <hyperlink ref="J369" r:id="rId1555" xr:uid="{2A6DF921-0E12-40FE-91AD-12B3A08AA9C5}"/>
-    <hyperlink ref="F370" r:id="rId1556" xr:uid="{10B35B2C-0814-4C4B-BEAE-4C6D3EF1B9A4}"/>
-    <hyperlink ref="G370" r:id="rId1557" xr:uid="{91F6E176-4839-41B2-A895-C61CC5F4E47D}"/>
-    <hyperlink ref="H370" r:id="rId1558" xr:uid="{E599DB34-71C1-4C50-BE31-D8A7AE923E87}"/>
-    <hyperlink ref="I370" r:id="rId1559" xr:uid="{D77567E5-3D02-433D-AEAF-2A9B415C838E}"/>
-    <hyperlink ref="J370" r:id="rId1560" xr:uid="{C3C309FB-E04F-4CF0-AECC-E56A184AF2A3}"/>
-    <hyperlink ref="F371" r:id="rId1561" xr:uid="{6E14D059-886E-4D1F-B787-7A92D3A2CC6C}"/>
-    <hyperlink ref="G371" r:id="rId1562" xr:uid="{70CFF193-B2B4-4493-A24F-8F7A1F71E56B}"/>
-    <hyperlink ref="H371" r:id="rId1563" xr:uid="{54C60CCC-3B1A-4153-941E-F86B37794C1D}"/>
-    <hyperlink ref="I371" r:id="rId1564" xr:uid="{76FF09F2-749D-4ABF-A7D2-55009FAB9A5C}"/>
-    <hyperlink ref="J371" r:id="rId1565" xr:uid="{57454C56-ACBA-4591-8571-F2A8F5853575}"/>
-    <hyperlink ref="F372" r:id="rId1566" xr:uid="{4956C4E4-DA20-4B08-B83F-AAF9C352C30F}"/>
-    <hyperlink ref="G372" r:id="rId1567" xr:uid="{ADC7A1EA-5CAE-4D17-856F-73C9FBF6FC74}"/>
-    <hyperlink ref="H372" r:id="rId1568" xr:uid="{4C219CA8-2D9B-44F6-8B8C-84230362982B}"/>
-    <hyperlink ref="I372" r:id="rId1569" xr:uid="{A3AA06AB-8021-4A49-89C5-8158A8C5F85A}"/>
-    <hyperlink ref="J372" r:id="rId1570" xr:uid="{5451B46C-25E0-4935-B6E1-E8E7EC3AF1E2}"/>
-    <hyperlink ref="F373" r:id="rId1571" xr:uid="{09B3291D-B0F7-42EC-A74F-E711D88CB568}"/>
-    <hyperlink ref="G373" r:id="rId1572" xr:uid="{614398DD-F765-4B0A-BF87-5B16089BC1DE}"/>
-    <hyperlink ref="H373" r:id="rId1573" xr:uid="{662BB63D-AA58-4074-A3E4-903592D8762D}"/>
-    <hyperlink ref="I373" r:id="rId1574" xr:uid="{2C8AB7F6-5DE0-4340-9A33-7E86B38C0621}"/>
-    <hyperlink ref="J373" r:id="rId1575" xr:uid="{C8A54B9D-D405-40C5-82A3-6522B337290B}"/>
-    <hyperlink ref="F374" r:id="rId1576" xr:uid="{35395A29-A26D-4F22-840F-B256145FA8CB}"/>
-    <hyperlink ref="G374" r:id="rId1577" xr:uid="{7237FE3B-D443-47B3-8ED5-C83D3E2C8B6D}"/>
-    <hyperlink ref="H374" r:id="rId1578" xr:uid="{82375F44-DB41-4199-BF48-97B9EF1EEB2C}"/>
-    <hyperlink ref="I374" r:id="rId1579" xr:uid="{E4AD1F91-3E57-45DE-BB02-86CCF587CCCF}"/>
-    <hyperlink ref="J374" r:id="rId1580" xr:uid="{73BB3626-5B26-4FE6-9119-C78C21E0D588}"/>
-    <hyperlink ref="F375" r:id="rId1581" xr:uid="{4996169A-E03D-4F85-ABE5-6D87F8D941D5}"/>
-    <hyperlink ref="G375" r:id="rId1582" xr:uid="{2E777C8F-9FCD-410F-8333-3A9DA103A0CE}"/>
-    <hyperlink ref="H375" r:id="rId1583" xr:uid="{579C77E2-B052-4DAC-BA3B-44379EBAE270}"/>
-    <hyperlink ref="I375" r:id="rId1584" xr:uid="{BAE47A3D-9664-4F69-B41F-EC183F95377F}"/>
-    <hyperlink ref="J375" r:id="rId1585" xr:uid="{F18FFC5E-ECD2-49C1-811C-DB24BF8F95EB}"/>
-    <hyperlink ref="F376" r:id="rId1586" xr:uid="{BACF7074-0B1F-4326-8121-B385BF7147BB}"/>
-    <hyperlink ref="G376" r:id="rId1587" xr:uid="{08F90A5F-737D-4A6B-884B-C7A843377FF5}"/>
-    <hyperlink ref="H376" r:id="rId1588" xr:uid="{66FF8112-53BB-468F-855D-A7D8041BD1F3}"/>
-    <hyperlink ref="I376" r:id="rId1589" xr:uid="{04D6F84A-4D3F-42BD-8912-EA742B96F413}"/>
-    <hyperlink ref="J376" r:id="rId1590" xr:uid="{73299699-B176-4BE2-8A84-7B29622EE3B1}"/>
-    <hyperlink ref="F377" r:id="rId1591" xr:uid="{AE714020-1936-4E40-8FE5-E3DB8F6C54A3}"/>
-    <hyperlink ref="G377" r:id="rId1592" xr:uid="{5E326CC6-61E3-4C3B-B287-FA29D0FA5938}"/>
-    <hyperlink ref="H377" r:id="rId1593" xr:uid="{012474CC-5FB8-46B6-AB19-CE16449980E4}"/>
-    <hyperlink ref="I377" r:id="rId1594" xr:uid="{F374E775-41F4-4938-8050-52B90B415F52}"/>
-    <hyperlink ref="J377" r:id="rId1595" xr:uid="{F1E02CB8-DD7B-412B-AC37-AD95D19CD697}"/>
-    <hyperlink ref="F378" r:id="rId1596" xr:uid="{0C0AC6B7-F567-44C8-95BC-0C0602E3ED26}"/>
-    <hyperlink ref="G378" r:id="rId1597" xr:uid="{AD5E7D95-645C-44FB-97F0-1B7716ECDE6B}"/>
-    <hyperlink ref="H378" r:id="rId1598" xr:uid="{E54B87B5-4281-4870-8362-6735B607032E}"/>
-    <hyperlink ref="I378" r:id="rId1599" xr:uid="{F60B5C3A-599E-4D0A-8E43-99EE9B21ED8A}"/>
-    <hyperlink ref="J378" r:id="rId1600" xr:uid="{4A1742D3-CC68-49B2-8EF6-8FE10F32F926}"/>
-    <hyperlink ref="F379" r:id="rId1601" xr:uid="{3D52F447-DD90-41DE-9371-5A670D82F769}"/>
-    <hyperlink ref="G379" r:id="rId1602" xr:uid="{301E4134-DCB9-4864-9596-47C9AA7330AE}"/>
-    <hyperlink ref="H379" r:id="rId1603" xr:uid="{B7174A0C-3427-4A84-8CC7-1FFFEA66E988}"/>
-    <hyperlink ref="I379" r:id="rId1604" xr:uid="{CB1CD1D4-0590-4F77-B69A-A4617B3E7DA5}"/>
-    <hyperlink ref="J379" r:id="rId1605" xr:uid="{CF5F3128-3C84-440D-9431-E3267A0CDFD6}"/>
-    <hyperlink ref="F380" r:id="rId1606" xr:uid="{FACE3E33-EF4C-41A2-BB43-3041067E5933}"/>
-    <hyperlink ref="G380" r:id="rId1607" xr:uid="{97C04C51-DEAC-413C-B81B-0B3EA98D1F18}"/>
-    <hyperlink ref="H380" r:id="rId1608" xr:uid="{53142640-14D1-4096-AC42-8E65B1A7123B}"/>
-    <hyperlink ref="I380" r:id="rId1609" xr:uid="{4145A712-C811-4055-925E-F9AC9D76B5A4}"/>
-    <hyperlink ref="J380" r:id="rId1610" xr:uid="{97C43EA7-96EE-4581-8DAB-FA65D08E68D7}"/>
-    <hyperlink ref="F381" r:id="rId1611" xr:uid="{B232D9EE-BF6F-4707-9620-D4AD4FBF7862}"/>
-    <hyperlink ref="G381" r:id="rId1612" xr:uid="{EDF25348-330D-453B-997D-E503B22E306B}"/>
-    <hyperlink ref="H381" r:id="rId1613" xr:uid="{1D19374E-5008-4F4F-ADB3-DD71E7C14F63}"/>
-    <hyperlink ref="I381" r:id="rId1614" xr:uid="{791781FA-803D-4FA5-9046-B731A38C96F5}"/>
-    <hyperlink ref="J381" r:id="rId1615" xr:uid="{1A70EA56-5205-4B9D-968E-817F267436F6}"/>
-    <hyperlink ref="F382" r:id="rId1616" xr:uid="{82A42CA3-B947-4956-9FA2-2EF0E3B12163}"/>
-    <hyperlink ref="G382" r:id="rId1617" xr:uid="{C51A3C3A-0040-419F-A6A1-7C6B4AC519CB}"/>
-    <hyperlink ref="H382" r:id="rId1618" xr:uid="{569BF18B-8740-452D-8EFF-97B3AE7DE47F}"/>
-    <hyperlink ref="I382" r:id="rId1619" xr:uid="{7CD1D291-CF31-4970-8EA2-CC02C841D48B}"/>
-    <hyperlink ref="J382" r:id="rId1620" xr:uid="{A365B5D9-0F5E-4D2C-8E5B-EE2899663BEE}"/>
-    <hyperlink ref="F383" r:id="rId1621" xr:uid="{8502EE5B-2729-4643-9B6D-059CE2EEB6E9}"/>
-    <hyperlink ref="G383" r:id="rId1622" xr:uid="{52840A21-390A-4D50-A6D9-9E941A2C03FE}"/>
-    <hyperlink ref="H383" r:id="rId1623" xr:uid="{1EEB98C0-49F5-4D54-8A12-281E1987A81F}"/>
-    <hyperlink ref="F384" r:id="rId1624" xr:uid="{59035509-8F7B-4936-A8BA-10B8669D34B7}"/>
-    <hyperlink ref="G384" r:id="rId1625" xr:uid="{57488D91-1F04-468D-B997-F80D40B7699C}"/>
-    <hyperlink ref="H384" r:id="rId1626" xr:uid="{FDA8E7C1-6868-4519-9C6F-2DC2ADEA3CD0}"/>
-    <hyperlink ref="F385" r:id="rId1627" xr:uid="{15629634-7E07-49FC-9C5A-7BD177356AEF}"/>
-    <hyperlink ref="G385" r:id="rId1628" xr:uid="{4B672DAC-19B6-4666-90B5-D5E977402287}"/>
-    <hyperlink ref="H385" r:id="rId1629" xr:uid="{4BB8DA24-D25C-4382-B677-9ACDFF1823D5}"/>
-    <hyperlink ref="F386" r:id="rId1630" xr:uid="{C7C73619-A11C-4895-9EC2-F521C55ED82E}"/>
-    <hyperlink ref="G386" r:id="rId1631" xr:uid="{ECFB1C30-B67C-4521-85FE-765FC3B6B2AB}"/>
-    <hyperlink ref="I386" r:id="rId1632" xr:uid="{0B365BBD-CE90-4168-92BA-09617FA3BCB7}"/>
-    <hyperlink ref="J386" r:id="rId1633" xr:uid="{0BAD14AA-036E-4D00-A5F6-9D17EBFD29A2}"/>
-    <hyperlink ref="H386" r:id="rId1634" xr:uid="{C652D141-366A-4E21-97EB-C88BA7B2A484}"/>
+    <hyperlink ref="I209" r:id="rId1201" xr:uid="{1C5FED74-EC5A-479F-AA62-8D431E526EDC}"/>
+    <hyperlink ref="J209" r:id="rId1202" xr:uid="{ADC363AE-C951-4102-8F34-C78002E39A7E}"/>
+    <hyperlink ref="I210" r:id="rId1203" xr:uid="{E52C18D1-6BD6-421C-ABF9-3F23A11BF1CA}"/>
+    <hyperlink ref="J210" r:id="rId1204" xr:uid="{99894664-4D77-4173-BD41-DE3D7F08D34A}"/>
+    <hyperlink ref="I211" r:id="rId1205" xr:uid="{C0FD9BCC-1314-4B8D-A48F-F545CE446150}"/>
+    <hyperlink ref="J211" r:id="rId1206" xr:uid="{3533A817-91D8-4308-AD7D-3D52B0093E5B}"/>
+    <hyperlink ref="I212" r:id="rId1207" xr:uid="{63140679-D5B6-40B9-A1E7-52AE659154B6}"/>
+    <hyperlink ref="J212" r:id="rId1208" xr:uid="{A0CE3217-7674-4DF7-99AC-ABF86A2B96A1}"/>
+    <hyperlink ref="I213" r:id="rId1209" xr:uid="{F3926FC6-BE08-40BB-9816-82D0C8DD62B9}"/>
+    <hyperlink ref="J213" r:id="rId1210" xr:uid="{46987938-BF11-4953-9660-8B562A9067AC}"/>
+    <hyperlink ref="I214" r:id="rId1211" xr:uid="{B869DEE6-4B32-4155-B7A7-6E6C159E7F97}"/>
+    <hyperlink ref="J214" r:id="rId1212" xr:uid="{9642289A-4B82-4EB3-94A1-FE1E5E61A9AF}"/>
+    <hyperlink ref="I215" r:id="rId1213" xr:uid="{05731DA2-F39B-4951-BE40-485106943FCC}"/>
+    <hyperlink ref="J215" r:id="rId1214" xr:uid="{EC4B2C5E-00DE-42A8-8A84-DB84B82D2A72}"/>
+    <hyperlink ref="I216" r:id="rId1215" xr:uid="{C9127235-9021-451E-957A-B67BBCE3EABE}"/>
+    <hyperlink ref="J216" r:id="rId1216" xr:uid="{D17A66AF-DE27-4692-9243-61CDC95C6DF0}"/>
+    <hyperlink ref="I217" r:id="rId1217" xr:uid="{0390AC8B-70E0-417F-A0F9-DF425C61E1EA}"/>
+    <hyperlink ref="J217" r:id="rId1218" xr:uid="{044CF7B6-C777-465D-8CB2-D3ED0D0C8303}"/>
+    <hyperlink ref="I218" r:id="rId1219" xr:uid="{B24C19CA-4111-431A-8990-DA900CE887F7}"/>
+    <hyperlink ref="J218" r:id="rId1220" xr:uid="{536A9FAB-418C-4B8C-92E7-EE11965AD64C}"/>
+    <hyperlink ref="I219" r:id="rId1221" xr:uid="{30FE8A77-2306-470C-B182-4CFAF2DF2E6C}"/>
+    <hyperlink ref="J219" r:id="rId1222" xr:uid="{6D2B5199-818A-4BE6-9D66-02C4D94C2040}"/>
+    <hyperlink ref="I220" r:id="rId1223" xr:uid="{DCED3E43-29B6-4741-ABDB-6CE3158B5DF5}"/>
+    <hyperlink ref="J220" r:id="rId1224" xr:uid="{721A1815-E146-4C05-8EDA-283DE493AE5E}"/>
+    <hyperlink ref="I221" r:id="rId1225" xr:uid="{835BD772-602E-47A8-9C06-757CB514A3D5}"/>
+    <hyperlink ref="J221" r:id="rId1226" xr:uid="{E443C4D9-AA7B-4D1F-8011-1A6CEB566BC9}"/>
+    <hyperlink ref="I222" r:id="rId1227" xr:uid="{9576B966-79FC-40F8-9A9B-167B95963A00}"/>
+    <hyperlink ref="J222" r:id="rId1228" xr:uid="{FCE20151-3EEA-47DB-A062-FB5D1BEBC1BB}"/>
+    <hyperlink ref="I223" r:id="rId1229" xr:uid="{33C8930B-FC2D-445B-95D2-F093BAAEE1FE}"/>
+    <hyperlink ref="J223" r:id="rId1230" xr:uid="{1650FE2B-F5DA-4F2B-B661-94B7AB50EAA0}"/>
+    <hyperlink ref="I225" r:id="rId1231" xr:uid="{F047C363-906D-4E64-8BEA-9F6C96D95EFE}"/>
+    <hyperlink ref="J225" r:id="rId1232" xr:uid="{A6600F27-5FF3-4725-B5FD-C2457D903920}"/>
+    <hyperlink ref="I226" r:id="rId1233" xr:uid="{955A3D20-8041-4364-A2ED-4C8D141CE4CB}"/>
+    <hyperlink ref="J226" r:id="rId1234" xr:uid="{80359421-242D-4E9C-912C-21BBFA095FE9}"/>
+    <hyperlink ref="I227" r:id="rId1235" xr:uid="{040EA980-3E07-42DE-A9CE-06ECAC9C711F}"/>
+    <hyperlink ref="J227" r:id="rId1236" xr:uid="{E1CA02ED-A98A-4626-91BE-07B0975C3039}"/>
+    <hyperlink ref="I228" r:id="rId1237" xr:uid="{D2202952-B169-4B54-A8D2-E4DB768D9CA3}"/>
+    <hyperlink ref="J228" r:id="rId1238" xr:uid="{E7B5A87B-4B71-49A5-953B-291B2B3B4229}"/>
+    <hyperlink ref="I229" r:id="rId1239" xr:uid="{38A387AB-2E5D-43D2-A0B3-D50B5ECB41BA}"/>
+    <hyperlink ref="J229" r:id="rId1240" xr:uid="{421B879A-8493-4090-89A5-B3B903E46FA7}"/>
+    <hyperlink ref="I230" r:id="rId1241" xr:uid="{E29082CF-F0F2-4A37-8EBC-E9B88EA33F23}"/>
+    <hyperlink ref="J230" r:id="rId1242" xr:uid="{28A2CEBD-05B5-4199-A227-1A4C227C48DF}"/>
+    <hyperlink ref="I231" r:id="rId1243" xr:uid="{96F77CC5-83BE-4425-B622-E390FA0DB04E}"/>
+    <hyperlink ref="J231" r:id="rId1244" xr:uid="{620ADB6C-4C2A-4033-8B0C-EFF8979D4BCE}"/>
+    <hyperlink ref="I232" r:id="rId1245" xr:uid="{EF72ED7C-C3E3-49C2-8A03-8DEDBC0B8DDD}"/>
+    <hyperlink ref="J232" r:id="rId1246" xr:uid="{566FD82C-2DD7-4163-A0A4-316A7E287A90}"/>
+    <hyperlink ref="I233" r:id="rId1247" xr:uid="{0FDBBF79-BB63-4BA8-B492-816F3C65867E}"/>
+    <hyperlink ref="J233" r:id="rId1248" xr:uid="{F40A2B0C-7716-4EED-9981-68A3D9549EF1}"/>
+    <hyperlink ref="I234" r:id="rId1249" xr:uid="{6F1CF67E-18C0-492E-8DEF-D744E56F3C99}"/>
+    <hyperlink ref="J234" r:id="rId1250" xr:uid="{C1FFC12F-CE03-4C60-9518-1D89C38DDCD8}"/>
+    <hyperlink ref="I235" r:id="rId1251" xr:uid="{244DBBBD-C6D7-4E75-9E30-242F3EA9533C}"/>
+    <hyperlink ref="J235" r:id="rId1252" xr:uid="{382C10D5-E331-40DE-8AB5-4B11048BBAF3}"/>
+    <hyperlink ref="I236" r:id="rId1253" xr:uid="{33FA9F65-454D-4DFB-94E3-21D66BE4F948}"/>
+    <hyperlink ref="J236" r:id="rId1254" xr:uid="{91F39EB9-5A9F-4928-B9BF-7E88266F362B}"/>
+    <hyperlink ref="I237" r:id="rId1255" xr:uid="{2E5AB7EF-536C-49BF-921C-3EC6141C267B}"/>
+    <hyperlink ref="J237" r:id="rId1256" xr:uid="{276C0FB0-A7B4-4ADE-83F7-CEC0798B54DB}"/>
+    <hyperlink ref="I238" r:id="rId1257" xr:uid="{79105AA0-CC62-41AF-95F8-5DA05BCCB24D}"/>
+    <hyperlink ref="J238" r:id="rId1258" xr:uid="{4B0319DA-F477-4CE4-AFAF-C5ED139071C2}"/>
+    <hyperlink ref="I239" r:id="rId1259" xr:uid="{1028D587-5E97-452A-864F-1D61C68651B5}"/>
+    <hyperlink ref="J239" r:id="rId1260" xr:uid="{021E3578-E403-4313-928C-2FD63759A2B8}"/>
+    <hyperlink ref="I240" r:id="rId1261" xr:uid="{0596EB26-5EC5-4C65-8448-ACC0E7D3A098}"/>
+    <hyperlink ref="J240" r:id="rId1262" xr:uid="{B01B83E1-8B74-46A1-B38C-63AEF8287DE8}"/>
+    <hyperlink ref="I241" r:id="rId1263" xr:uid="{14EB5493-C717-4AEF-9E5A-620C46266064}"/>
+    <hyperlink ref="J241" r:id="rId1264" xr:uid="{866E6FED-B268-46A0-AB10-49067BE24084}"/>
+    <hyperlink ref="I243" r:id="rId1265" xr:uid="{86777F2C-BF80-4397-B463-072F7625722C}"/>
+    <hyperlink ref="J243" r:id="rId1266" xr:uid="{79C6396A-DD24-41F5-B888-F5E2B1A6D150}"/>
+    <hyperlink ref="I244" r:id="rId1267" xr:uid="{25E21AD4-21F8-46C4-8B7D-D107034C93D6}"/>
+    <hyperlink ref="J244" r:id="rId1268" xr:uid="{CD66E30B-34DA-419E-8814-BEB2DB242DBB}"/>
+    <hyperlink ref="I245" r:id="rId1269" xr:uid="{5DF6B3C6-73D9-4154-9441-24809A48CF79}"/>
+    <hyperlink ref="J245" r:id="rId1270" xr:uid="{75ECC3D0-EBFD-4193-A27B-FD0794706F3E}"/>
+    <hyperlink ref="I246" r:id="rId1271" xr:uid="{A485D4F1-624D-4EBF-88A6-59C086832F54}"/>
+    <hyperlink ref="J246" r:id="rId1272" xr:uid="{614050F5-2670-468B-8BD4-E313914CC88E}"/>
+    <hyperlink ref="I247" r:id="rId1273" xr:uid="{C31499A4-9478-4299-B1E7-9DCC2B893D2E}"/>
+    <hyperlink ref="J247" r:id="rId1274" xr:uid="{5B2E87A8-EFCF-4245-9CF4-FB6A7E0B43E1}"/>
+    <hyperlink ref="I248" r:id="rId1275" xr:uid="{C127F333-029E-4B62-9996-9A5A8D08F9DD}"/>
+    <hyperlink ref="J248" r:id="rId1276" xr:uid="{CBF85A96-9C0A-426B-B97B-EF5E7392E475}"/>
+    <hyperlink ref="I249" r:id="rId1277" xr:uid="{F336C709-48D8-49BD-84EC-89693512D1F4}"/>
+    <hyperlink ref="J249" r:id="rId1278" xr:uid="{7805EC1C-6247-452A-A511-1BE3CD9298A2}"/>
+    <hyperlink ref="I250" r:id="rId1279" xr:uid="{06991117-A772-41ED-BB5A-6ABE661A816D}"/>
+    <hyperlink ref="J250" r:id="rId1280" xr:uid="{B639FE66-6207-4491-A97C-30A997948238}"/>
+    <hyperlink ref="I252" r:id="rId1281" xr:uid="{92BA5FD1-8177-44AF-B505-FD45D1E7F15E}"/>
+    <hyperlink ref="J252" r:id="rId1282" xr:uid="{CB96A757-FF42-4658-889C-0A767440E2AA}"/>
+    <hyperlink ref="I253" r:id="rId1283" xr:uid="{E243345E-48FE-4B81-B3B6-F7C5651232D9}"/>
+    <hyperlink ref="J253" r:id="rId1284" xr:uid="{F800944B-CB3F-4AE1-ACC2-ED6EB497D137}"/>
+    <hyperlink ref="I254" r:id="rId1285" xr:uid="{0990C783-F0CA-4E27-9FEC-62A421B5C02A}"/>
+    <hyperlink ref="J254" r:id="rId1286" xr:uid="{F48EA102-230B-4583-8727-8AA6A69D66A0}"/>
+    <hyperlink ref="I255" r:id="rId1287" xr:uid="{2111C6EB-A437-4C65-9F3B-F84DECA50BF3}"/>
+    <hyperlink ref="J255" r:id="rId1288" xr:uid="{C1AEAF32-FEBC-414E-93EB-E28E3EE286CB}"/>
+    <hyperlink ref="I256" r:id="rId1289" xr:uid="{4F99336E-DEF3-445E-A24B-18039652D6C2}"/>
+    <hyperlink ref="J256" r:id="rId1290" xr:uid="{F6FF38A1-0E90-49DB-8BF6-E20E24A0BB6B}"/>
+    <hyperlink ref="I257" r:id="rId1291" xr:uid="{7BC1B2C7-B52D-491B-B820-E67372ED3035}"/>
+    <hyperlink ref="J257" r:id="rId1292" xr:uid="{43108DB3-D146-4C55-9063-29FE418CA2DE}"/>
+    <hyperlink ref="I258" r:id="rId1293" xr:uid="{A836D205-1DAA-4CD3-9FDF-0C20432C457E}"/>
+    <hyperlink ref="J258" r:id="rId1294" xr:uid="{1A96EA2F-8BEF-4BFE-944C-388A85EFC360}"/>
+    <hyperlink ref="I259" r:id="rId1295" xr:uid="{55393278-8AC3-46E8-9417-1E95492AA88C}"/>
+    <hyperlink ref="J259" r:id="rId1296" xr:uid="{EA8A1059-0563-46C3-9D4D-EEDBBFBA3D24}"/>
+    <hyperlink ref="I260" r:id="rId1297" xr:uid="{5B983455-91B2-4E89-B503-4BDEF0CA6158}"/>
+    <hyperlink ref="J260" r:id="rId1298" xr:uid="{FCEB53B6-9ECC-4836-9AE1-CCD697F9DF55}"/>
+    <hyperlink ref="I261" r:id="rId1299" xr:uid="{1C26B72B-24CA-4A20-8AAD-6E72281B30F8}"/>
+    <hyperlink ref="J261" r:id="rId1300" xr:uid="{555163DD-9062-4B29-875B-F323B45AF83B}"/>
+    <hyperlink ref="I262" r:id="rId1301" xr:uid="{74BC4A8F-C8CD-4983-897F-31D5B87F82B9}"/>
+    <hyperlink ref="J262" r:id="rId1302" xr:uid="{200FB153-32E7-4F10-8580-E83DFC271736}"/>
+    <hyperlink ref="I263" r:id="rId1303" xr:uid="{90912F0F-336E-4F7F-A5C0-CE0859AA58FF}"/>
+    <hyperlink ref="J263" r:id="rId1304" xr:uid="{83F16E51-C450-4ED5-ACDE-2738A419A434}"/>
+    <hyperlink ref="I264" r:id="rId1305" xr:uid="{7EF24EAB-7B1A-4587-ACE2-AF62C9767EBA}"/>
+    <hyperlink ref="J264" r:id="rId1306" xr:uid="{822B90E5-A680-45E2-A2C2-5825BB8F132D}"/>
+    <hyperlink ref="I266" r:id="rId1307" xr:uid="{FB5A0E3F-8E22-47B5-A3FB-73FD09962C47}"/>
+    <hyperlink ref="J266" r:id="rId1308" xr:uid="{56FE962A-6809-4626-A03A-7B9D34B29171}"/>
+    <hyperlink ref="J267" r:id="rId1309" xr:uid="{6708F5CB-E71E-49C8-B3ED-266EE9359640}"/>
+    <hyperlink ref="I267" r:id="rId1310" xr:uid="{D1F1AFF9-6988-45C0-9506-C6840333384D}"/>
+    <hyperlink ref="I268" r:id="rId1311" xr:uid="{21569E89-4003-409B-B98C-D32C1CEE1DA0}"/>
+    <hyperlink ref="J268" r:id="rId1312" xr:uid="{80D3EF35-701F-4B7E-9E72-25BF6ABA4635}"/>
+    <hyperlink ref="I269" r:id="rId1313" xr:uid="{68F17FCC-AF0D-42BF-B775-E057D94234F7}"/>
+    <hyperlink ref="J269" r:id="rId1314" xr:uid="{8B20AF17-90EC-43F8-BE32-FAE380E6C838}"/>
+    <hyperlink ref="I270" r:id="rId1315" xr:uid="{C983A9A5-CEE8-4695-B995-BFDD81C9B2C7}"/>
+    <hyperlink ref="J270" r:id="rId1316" xr:uid="{4AD308DB-40A2-4423-874D-202538288676}"/>
+    <hyperlink ref="I271" r:id="rId1317" xr:uid="{936F18DA-C9A0-4888-AF48-56CBF8219C4B}"/>
+    <hyperlink ref="J271" r:id="rId1318" xr:uid="{5AAF511C-19A0-4443-8FBF-8A950519987A}"/>
+    <hyperlink ref="I273" r:id="rId1319" xr:uid="{33A8445A-9C7F-4BEF-8CE1-29447C2FDD96}"/>
+    <hyperlink ref="J273" r:id="rId1320" xr:uid="{3031F5AA-0C1F-4325-82EA-7B6152C95E0A}"/>
+    <hyperlink ref="I274" r:id="rId1321" xr:uid="{F55844DE-E31A-4409-A931-EBF9D71FC0DD}"/>
+    <hyperlink ref="J274" r:id="rId1322" xr:uid="{618CDA92-D567-4521-A4F8-AC817787DE5C}"/>
+    <hyperlink ref="I275" r:id="rId1323" xr:uid="{647ABC56-CF1B-4113-96A2-B0B915FCBE88}"/>
+    <hyperlink ref="J275" r:id="rId1324" xr:uid="{493AA7D5-B4A6-4E16-95E0-30213C1B1579}"/>
+    <hyperlink ref="I276" r:id="rId1325" xr:uid="{2BCF0715-E193-4CF4-9B57-1F2EAACB553E}"/>
+    <hyperlink ref="J276" r:id="rId1326" xr:uid="{79B37A2D-1EA0-446C-9E02-C9C923E9B519}"/>
+    <hyperlink ref="I277" r:id="rId1327" xr:uid="{D0E458B4-465E-4110-8B99-B3B674193914}"/>
+    <hyperlink ref="J277" r:id="rId1328" xr:uid="{BDA23700-888E-42E1-AC73-6B1A9F407B82}"/>
+    <hyperlink ref="I278" r:id="rId1329" xr:uid="{E28E222D-10CE-4B1C-9209-F93B042BD7DC}"/>
+    <hyperlink ref="J278" r:id="rId1330" xr:uid="{B525C631-D6AC-4F35-827E-549FA00C43B3}"/>
+    <hyperlink ref="I279" r:id="rId1331" xr:uid="{8D9E1100-E165-411A-B8FE-999BB33A1798}"/>
+    <hyperlink ref="J279" r:id="rId1332" xr:uid="{61D6BC4B-F8DB-4767-8EF9-5B35ED9595A8}"/>
+    <hyperlink ref="I280" r:id="rId1333" xr:uid="{CB0765D0-0585-43C0-85B2-8A58FF28AEE3}"/>
+    <hyperlink ref="J280" r:id="rId1334" xr:uid="{431E923E-09AA-4822-8B92-94CE7A2E2E93}"/>
+    <hyperlink ref="I282" r:id="rId1335" xr:uid="{1F1EBDC1-37D0-494D-9F4C-E4BAF2199365}"/>
+    <hyperlink ref="J282" r:id="rId1336" xr:uid="{33D9076A-0D41-4C39-9004-83A665C74F90}"/>
+    <hyperlink ref="I283" r:id="rId1337" xr:uid="{3A7F3910-96FA-4B6C-B3A2-284BE63713D8}"/>
+    <hyperlink ref="J283" r:id="rId1338" xr:uid="{6431B938-08BB-401A-AD5A-0000ACF07024}"/>
+    <hyperlink ref="I284" r:id="rId1339" xr:uid="{7DB142BF-23D9-4306-AB3D-C982156ED984}"/>
+    <hyperlink ref="J284" r:id="rId1340" xr:uid="{E3AC3BE9-3DAB-4165-B675-1D144998C813}"/>
+    <hyperlink ref="I285" r:id="rId1341" xr:uid="{540D65E6-19E3-4D12-BB96-4DCFC40DE974}"/>
+    <hyperlink ref="J285" r:id="rId1342" xr:uid="{4811CD38-DA56-4913-BF26-D70632A92616}"/>
+    <hyperlink ref="I286" r:id="rId1343" xr:uid="{9ACB9709-E852-4290-AD7A-C54C7F1E9627}"/>
+    <hyperlink ref="J286" r:id="rId1344" xr:uid="{5E6D98A2-4CD8-4C19-A127-AF0A682A9A8D}"/>
+    <hyperlink ref="I287" r:id="rId1345" xr:uid="{E1BA5DFA-9FA8-4116-A078-81D04F478B76}"/>
+    <hyperlink ref="J287" r:id="rId1346" xr:uid="{5CBE5006-4896-4383-8D63-F7E7D116DEEC}"/>
+    <hyperlink ref="I288" r:id="rId1347" xr:uid="{3AFF46DA-9A35-41C7-AD2E-2C2BA0CD2176}"/>
+    <hyperlink ref="J288" r:id="rId1348" xr:uid="{4898CBA1-66FC-43F7-8D11-FE1339122552}"/>
+    <hyperlink ref="I289" r:id="rId1349" xr:uid="{D8DC2967-5820-41CB-9A61-C06FD3DEC322}"/>
+    <hyperlink ref="J289" r:id="rId1350" xr:uid="{974354A5-8F12-4E12-9655-5298DAAF7B17}"/>
+    <hyperlink ref="I290" r:id="rId1351" xr:uid="{BA79A7C8-706A-4A8C-A52E-AFD23120F1D2}"/>
+    <hyperlink ref="J290" r:id="rId1352" xr:uid="{A8B44967-081D-427C-BA84-C91AFFC247CD}"/>
+    <hyperlink ref="I291" r:id="rId1353" xr:uid="{4EAFA38F-34A6-457F-AFD8-0E9D321294E8}"/>
+    <hyperlink ref="J291" r:id="rId1354" xr:uid="{E253A7C6-6B2E-4CD2-A95A-EF1F7BC82BA1}"/>
+    <hyperlink ref="I292" r:id="rId1355" xr:uid="{4E2B250D-9B2D-471F-9DD7-306AB22A402C}"/>
+    <hyperlink ref="J292" r:id="rId1356" xr:uid="{BBCEAF33-BD4D-4AD9-91DE-C0CCA8B53E38}"/>
+    <hyperlink ref="I293" r:id="rId1357" xr:uid="{04859C78-0994-4C56-8675-70EB76F39D7C}"/>
+    <hyperlink ref="J293" r:id="rId1358" xr:uid="{BA3CCDA8-9E09-42C8-ADEC-F1A12F1FF7C8}"/>
+    <hyperlink ref="I294" r:id="rId1359" xr:uid="{3CC90E37-1BF5-4262-934D-A37993466EA3}"/>
+    <hyperlink ref="J294" r:id="rId1360" xr:uid="{E7761221-3353-4AEE-BBB1-41ED2D45B41A}"/>
+    <hyperlink ref="I295" r:id="rId1361" xr:uid="{8FA9A865-0FFA-42CE-BA34-CE4F2C830BF3}"/>
+    <hyperlink ref="J295" r:id="rId1362" xr:uid="{2D70BF3F-BDD9-47BA-8DE9-25F7BBBD5A11}"/>
+    <hyperlink ref="I296" r:id="rId1363" xr:uid="{6DC7B8A1-4772-4E23-89A3-6DD1EDB003A8}"/>
+    <hyperlink ref="J296" r:id="rId1364" xr:uid="{88DFBCDE-5E18-4C8B-900C-909738CD4BA8}"/>
+    <hyperlink ref="I297" r:id="rId1365" xr:uid="{A4B45442-E1A1-4A8A-B0E1-1758E18DE5E9}"/>
+    <hyperlink ref="J297" r:id="rId1366" xr:uid="{79244E1F-1B5D-4F1D-B0F1-66AA0AEFFFA2}"/>
+    <hyperlink ref="I298" r:id="rId1367" xr:uid="{8EEABF58-D65C-47DF-81F0-E1CF211BE37A}"/>
+    <hyperlink ref="J298" r:id="rId1368" xr:uid="{4F19D743-EDA6-4667-ACC3-13AE8966993A}"/>
+    <hyperlink ref="I299" r:id="rId1369" xr:uid="{A8F2BF96-9966-467E-9D99-963BF9EE6462}"/>
+    <hyperlink ref="J299" r:id="rId1370" xr:uid="{FF2C4D5B-1103-490F-9449-EB7033E0ABF0}"/>
+    <hyperlink ref="I300" r:id="rId1371" xr:uid="{47F3A1BD-FC3C-4DDC-B0BB-183DA4A17B41}"/>
+    <hyperlink ref="J300" r:id="rId1372" xr:uid="{45013952-3321-445D-842A-4E8BE396BBF4}"/>
+    <hyperlink ref="I301" r:id="rId1373" xr:uid="{7A0E4B3A-9CB1-4216-BD6B-40D0D9C5078C}"/>
+    <hyperlink ref="J301" r:id="rId1374" xr:uid="{A34B792F-6594-4B13-8C9C-73727350CDD8}"/>
+    <hyperlink ref="I302" r:id="rId1375" xr:uid="{7BA252F5-C9B8-4BC0-8F0F-FA5EFAFC8CAA}"/>
+    <hyperlink ref="J302" r:id="rId1376" xr:uid="{D0600B32-DE16-4808-BF6A-1F0D6F21CC3F}"/>
+    <hyperlink ref="I303" r:id="rId1377" xr:uid="{E1EA2C31-9E58-438B-84E1-6DFCBBDC27D0}"/>
+    <hyperlink ref="J303" r:id="rId1378" xr:uid="{AE252CB4-6A25-4D21-82AE-2A8715E79BBC}"/>
+    <hyperlink ref="I304" r:id="rId1379" xr:uid="{E67DB4C0-3572-48E7-B0C4-5279C28C3911}"/>
+    <hyperlink ref="J304" r:id="rId1380" xr:uid="{869ABC22-3AD5-4519-9F8E-36FE1C78B7FD}"/>
+    <hyperlink ref="I305" r:id="rId1381" xr:uid="{EEE25A09-882F-4916-8120-4CACA368ED9F}"/>
+    <hyperlink ref="J305" r:id="rId1382" xr:uid="{130ED3AE-8E28-4995-98AB-66F26D1CA7D8}"/>
+    <hyperlink ref="I306" r:id="rId1383" xr:uid="{DD637F4D-7DFA-4A08-A241-B1D3550076F1}"/>
+    <hyperlink ref="J306" r:id="rId1384" xr:uid="{EDAD5D19-187A-4653-B3DE-369EFF183F9E}"/>
+    <hyperlink ref="I307" r:id="rId1385" xr:uid="{B484FDE1-EC98-4222-9EDD-28F337AA9AC0}"/>
+    <hyperlink ref="J307" r:id="rId1386" xr:uid="{B7303B11-E453-4E23-BBD7-C5F3A73C96DE}"/>
+    <hyperlink ref="I308" r:id="rId1387" xr:uid="{1A3809D7-3861-44E3-9014-9BD2E75D01B8}"/>
+    <hyperlink ref="J308" r:id="rId1388" xr:uid="{BC9BBD38-AB11-4009-9372-54A28B94F13E}"/>
+    <hyperlink ref="I309" r:id="rId1389" xr:uid="{DC80F0E0-335E-4334-BF2A-152A2B3C118B}"/>
+    <hyperlink ref="J309" r:id="rId1390" xr:uid="{7CCF2EA0-CA0C-4552-B799-9FC3A85973F3}"/>
+    <hyperlink ref="I310" r:id="rId1391" xr:uid="{078519EE-2E27-4390-8695-E498CAFBC384}"/>
+    <hyperlink ref="J310" r:id="rId1392" xr:uid="{BE52A010-24A7-4F02-A309-E103F0065CA4}"/>
+    <hyperlink ref="I311" r:id="rId1393" xr:uid="{C8FBA5EA-564E-4A94-988A-304A327D42D7}"/>
+    <hyperlink ref="J311" r:id="rId1394" xr:uid="{07B54400-77B0-4A41-AB6A-855FA9B1916C}"/>
+    <hyperlink ref="I312" r:id="rId1395" xr:uid="{3CDF90B0-EFD5-41AF-88BA-220125DD70CB}"/>
+    <hyperlink ref="J312" r:id="rId1396" xr:uid="{63860465-E04D-4419-980C-8A0DF61097DA}"/>
+    <hyperlink ref="I313" r:id="rId1397" xr:uid="{98F74A35-9606-4D90-BDE9-94D1FC044B6E}"/>
+    <hyperlink ref="J313" r:id="rId1398" xr:uid="{714AA937-5882-422E-A076-EB1CE17692CD}"/>
+    <hyperlink ref="I314" r:id="rId1399" xr:uid="{66187586-B607-4CED-B89A-A5621FFF53CC}"/>
+    <hyperlink ref="J314" r:id="rId1400" xr:uid="{7D1DC5FB-E5F6-44BA-A425-AF96C14C52B8}"/>
+    <hyperlink ref="I315" r:id="rId1401" xr:uid="{FD235E92-7703-47BD-AB06-9B08F0D8799A}"/>
+    <hyperlink ref="J315" r:id="rId1402" xr:uid="{51442F2B-E087-4DBE-94EA-BE392A333E94}"/>
+    <hyperlink ref="I316" r:id="rId1403" xr:uid="{442B8E64-2F94-4B7E-85D5-887DF1073EFA}"/>
+    <hyperlink ref="J316" r:id="rId1404" xr:uid="{975DC67F-1789-4CF9-9032-B509F9FD048F}"/>
+    <hyperlink ref="I317" r:id="rId1405" xr:uid="{E7519F59-96DF-4614-9B83-93F1C67849A2}"/>
+    <hyperlink ref="J317" r:id="rId1406" xr:uid="{29ABBF44-17CA-4292-BB95-E63B8E0D85F3}"/>
+    <hyperlink ref="I318" r:id="rId1407" xr:uid="{D0B07EF5-D172-48FF-BEEC-0E6A2897735E}"/>
+    <hyperlink ref="J318" r:id="rId1408" xr:uid="{719AE4A4-B62D-4AF6-8607-ABD7657ADC0E}"/>
+    <hyperlink ref="I319" r:id="rId1409" xr:uid="{E6533899-F1AB-4359-9F78-0C3DC0B9E672}"/>
+    <hyperlink ref="J319" r:id="rId1410" xr:uid="{2A0D27F5-13B5-46E9-946F-E2F8CA6DAABD}"/>
+    <hyperlink ref="I320" r:id="rId1411" xr:uid="{75A6CFB4-F47E-4C00-AED3-1E9AB1125450}"/>
+    <hyperlink ref="J320" r:id="rId1412" xr:uid="{330E8F1E-F934-467A-AD06-EFF336AAD676}"/>
+    <hyperlink ref="I321" r:id="rId1413" xr:uid="{A45C62E2-AB96-4BDA-8CF0-C5D9976307F8}"/>
+    <hyperlink ref="J321" r:id="rId1414" xr:uid="{49E526A1-4C40-4B2A-BE63-B43E2ECE72C6}"/>
+    <hyperlink ref="I322" r:id="rId1415" xr:uid="{8598314B-C2AF-4C03-BB43-0799365E5709}"/>
+    <hyperlink ref="J322" r:id="rId1416" xr:uid="{DFC1A003-070B-48FE-8D82-A10643E603D8}"/>
+    <hyperlink ref="I323" r:id="rId1417" xr:uid="{36DECB2B-0A1B-4EAE-8EB5-6E4D643F6809}"/>
+    <hyperlink ref="J323" r:id="rId1418" xr:uid="{DBF759FA-92B2-4311-8B46-8E34DCE5A4AF}"/>
+    <hyperlink ref="J324" r:id="rId1419" xr:uid="{6D86619A-4002-4314-8A19-5A6BD2D74E86}"/>
+    <hyperlink ref="I326" r:id="rId1420" xr:uid="{03A187F0-1347-4B64-88DA-EFA4BE0DAD3A}"/>
+    <hyperlink ref="J326" r:id="rId1421" xr:uid="{DE5B4820-FF16-42D1-A8C3-C67250E0BF84}"/>
+    <hyperlink ref="I328" r:id="rId1422" xr:uid="{E7F88093-7AFF-41AB-8868-619B201C1106}"/>
+    <hyperlink ref="J328" r:id="rId1423" xr:uid="{5CEAB345-9632-4D23-855D-175090CD1FD7}"/>
+    <hyperlink ref="I329" r:id="rId1424" xr:uid="{49B05E95-606D-4637-86E3-0EE2078EFB04}"/>
+    <hyperlink ref="J329" r:id="rId1425" xr:uid="{2A34CF02-0922-4F73-AAF6-55CB80F63853}"/>
+    <hyperlink ref="I332" r:id="rId1426" xr:uid="{A1076879-4A4A-4BB7-9707-D46607051C4C}"/>
+    <hyperlink ref="J332" r:id="rId1427" xr:uid="{C59C9E85-2E86-4036-9509-CA180E144BFC}"/>
+    <hyperlink ref="F346" r:id="rId1428" xr:uid="{E5F00FAD-CD17-4629-80E5-6DC3ED7865AF}"/>
+    <hyperlink ref="G346" r:id="rId1429" xr:uid="{6E6B20A8-F499-4FBB-B3DA-A983A5605A7F}"/>
+    <hyperlink ref="H346" r:id="rId1430" xr:uid="{44966AD7-78CE-4880-AC66-E7F86B55D055}"/>
+    <hyperlink ref="I346" r:id="rId1431" xr:uid="{AC9717CB-87DF-473D-9805-455D162731EA}"/>
+    <hyperlink ref="J346" r:id="rId1432" xr:uid="{BD82C665-B99A-4470-A126-131CD9EFB230}"/>
+    <hyperlink ref="F347" r:id="rId1433" xr:uid="{11B9D2BE-BFE1-43C2-BD86-9C196A7AEB3C}"/>
+    <hyperlink ref="G347" r:id="rId1434" xr:uid="{899FA22A-95A2-4C62-82F2-FBB9EAFA112D}"/>
+    <hyperlink ref="H347" r:id="rId1435" xr:uid="{5B329F37-C524-4678-A18D-39072F7A47B5}"/>
+    <hyperlink ref="I347" r:id="rId1436" xr:uid="{10E1C1A0-5B64-4DFE-9E44-608D2BB5C6ED}"/>
+    <hyperlink ref="J347" r:id="rId1437" xr:uid="{3621C937-CFF9-4B2C-B670-0397DB38F4E6}"/>
+    <hyperlink ref="F348" r:id="rId1438" xr:uid="{DAD9857E-F42D-4F8C-9EEA-E5D815C19876}"/>
+    <hyperlink ref="G348" r:id="rId1439" xr:uid="{E96C5344-31AE-46B2-A966-4174C47BA907}"/>
+    <hyperlink ref="H348" r:id="rId1440" xr:uid="{9EB1AACA-D6FF-458A-9EDD-2CF17135B9D6}"/>
+    <hyperlink ref="I348" r:id="rId1441" xr:uid="{3C878564-9B35-4F04-9F38-5326414094A5}"/>
+    <hyperlink ref="J348" r:id="rId1442" xr:uid="{F61BB641-AA09-41C8-A934-392E61FF1FB7}"/>
+    <hyperlink ref="F349" r:id="rId1443" xr:uid="{B880025E-217D-4D2E-B008-81E812A73D99}"/>
+    <hyperlink ref="G349" r:id="rId1444" xr:uid="{0D8D48AD-6CBD-4305-BE5B-25BA2E133158}"/>
+    <hyperlink ref="H349" r:id="rId1445" xr:uid="{12D7C25C-ACC2-4882-962A-0D863759DDB4}"/>
+    <hyperlink ref="I349" r:id="rId1446" xr:uid="{19EF4D50-E33E-48B5-A4F8-920FF6D67A88}"/>
+    <hyperlink ref="J349" r:id="rId1447" xr:uid="{9E7843ED-3E44-448C-BDFF-7A9690997390}"/>
+    <hyperlink ref="F350" r:id="rId1448" xr:uid="{68E933E2-82D9-4C3E-AA07-F55F282FC524}"/>
+    <hyperlink ref="G350" r:id="rId1449" xr:uid="{0EF484D1-4660-4B09-AC45-95AAF306006D}"/>
+    <hyperlink ref="H350" r:id="rId1450" xr:uid="{F6CBAE5E-B3A9-42C1-84DF-0B4414EBDB0D}"/>
+    <hyperlink ref="I350" r:id="rId1451" xr:uid="{794E1743-3F8A-419D-84FD-994919C721D5}"/>
+    <hyperlink ref="J350" r:id="rId1452" xr:uid="{94CBA256-286B-43CF-A15C-BB2ADA07D8E4}"/>
+    <hyperlink ref="F351" r:id="rId1453" xr:uid="{2E754F5B-7AF5-4274-92C0-33F0DA59727A}"/>
+    <hyperlink ref="G351" r:id="rId1454" xr:uid="{20C552B4-25D7-4E32-A9D6-C68656260902}"/>
+    <hyperlink ref="H351" r:id="rId1455" xr:uid="{E89E8EF4-C2AB-49A1-8C28-631C6A0847E4}"/>
+    <hyperlink ref="I351" r:id="rId1456" xr:uid="{711CA091-D81F-42B6-B641-5D4B1E18DD41}"/>
+    <hyperlink ref="J351" r:id="rId1457" xr:uid="{B857136F-5C8F-4355-9AB7-1283FDE45829}"/>
+    <hyperlink ref="F352" r:id="rId1458" xr:uid="{5542DC5D-AB3B-49FF-807C-3C3305A7B076}"/>
+    <hyperlink ref="G352" r:id="rId1459" xr:uid="{A7930621-918D-4C0B-9FB7-35C3B84CB9BC}"/>
+    <hyperlink ref="H352" r:id="rId1460" xr:uid="{841078C7-96E6-4166-B6CE-59F3BBBD70D9}"/>
+    <hyperlink ref="I352" r:id="rId1461" xr:uid="{06BF4AE5-12B6-44CD-923C-13DDCDC0E57B}"/>
+    <hyperlink ref="J352" r:id="rId1462" xr:uid="{78AF7474-272E-4196-81C9-9A0F70908A86}"/>
+    <hyperlink ref="F353" r:id="rId1463" xr:uid="{95615DE4-395C-4381-AA59-3EEC57EDE99F}"/>
+    <hyperlink ref="G353" r:id="rId1464" xr:uid="{4F594879-30D8-45D2-84FA-D50E67981BAA}"/>
+    <hyperlink ref="H353" r:id="rId1465" xr:uid="{F390B035-184D-4492-9D1B-4A59BEC27860}"/>
+    <hyperlink ref="I353" r:id="rId1466" xr:uid="{33BB4538-3F04-4292-8D0E-C0E261F8F44D}"/>
+    <hyperlink ref="J353" r:id="rId1467" xr:uid="{3CE75AC1-FEB4-429D-B948-B31C2B4CC1AE}"/>
+    <hyperlink ref="F354" r:id="rId1468" xr:uid="{C4F5ED41-6FED-41B2-B77E-806DEBE44A76}"/>
+    <hyperlink ref="G354" r:id="rId1469" xr:uid="{17B8D3BD-1736-4649-A986-AB47EF2FC20E}"/>
+    <hyperlink ref="H354" r:id="rId1470" xr:uid="{6D9F36C4-170C-4092-8A16-3EC8113201CF}"/>
+    <hyperlink ref="I354" r:id="rId1471" xr:uid="{70C3CF2F-5CC5-4664-9D5D-FDB6193600DA}"/>
+    <hyperlink ref="J354" r:id="rId1472" xr:uid="{0045438D-6FFD-44E2-8C0F-9CC9F4BA0F5A}"/>
+    <hyperlink ref="F355" r:id="rId1473" xr:uid="{4F03E399-A65A-4F80-BCAE-F4C4E0B3BB38}"/>
+    <hyperlink ref="G355" r:id="rId1474" xr:uid="{83C50C12-4B43-491F-8CE4-DF151049F071}"/>
+    <hyperlink ref="H355" r:id="rId1475" xr:uid="{23C70C20-FBBF-4F45-932F-A26BD0398A9A}"/>
+    <hyperlink ref="I355" r:id="rId1476" xr:uid="{67BAE2EB-E8C2-4D49-A3E5-EFCA3374C352}"/>
+    <hyperlink ref="J355" r:id="rId1477" xr:uid="{7E2211CB-453C-46AE-BA43-45790804EFC5}"/>
+    <hyperlink ref="F356" r:id="rId1478" xr:uid="{91038F82-3832-4F60-A5F9-96D9C366F277}"/>
+    <hyperlink ref="G356" r:id="rId1479" xr:uid="{390899C9-B4F6-429A-A031-155DCC9A728B}"/>
+    <hyperlink ref="H356" r:id="rId1480" xr:uid="{0386AC29-3E18-438C-9AFD-07FD7E49C8A3}"/>
+    <hyperlink ref="I356" r:id="rId1481" xr:uid="{B9D54722-D8DA-4271-94BB-C186F661B45D}"/>
+    <hyperlink ref="J356" r:id="rId1482" xr:uid="{A6210485-CBF2-46A6-9DF9-5F1BD82A0E73}"/>
+    <hyperlink ref="F357" r:id="rId1483" xr:uid="{E6B6899F-A6D4-442C-9FC4-B49A86026833}"/>
+    <hyperlink ref="G357" r:id="rId1484" xr:uid="{957F2765-E3E8-4DFA-A661-243EE51910DD}"/>
+    <hyperlink ref="H357" r:id="rId1485" xr:uid="{C1CB46CC-B7F1-45CB-9B5B-DD114B29ADE7}"/>
+    <hyperlink ref="I357" r:id="rId1486" xr:uid="{337DF965-35CF-472C-BB05-671E33C5CF49}"/>
+    <hyperlink ref="J357" r:id="rId1487" xr:uid="{DDC3CE02-24C7-42BF-A2BA-3D3263F8A70C}"/>
+    <hyperlink ref="F358" r:id="rId1488" xr:uid="{271F7D2C-C922-4040-B397-6EC9338D99B6}"/>
+    <hyperlink ref="G358" r:id="rId1489" xr:uid="{66598E50-52AB-4E67-801D-EA292E114284}"/>
+    <hyperlink ref="H358" r:id="rId1490" xr:uid="{A35277CC-831B-4462-975A-915C2B653187}"/>
+    <hyperlink ref="I358" r:id="rId1491" xr:uid="{C9B3335E-28FB-4553-B56E-26D3E6E56125}"/>
+    <hyperlink ref="J358" r:id="rId1492" xr:uid="{A47CF0CC-3AAC-41D1-81C3-71652EEED0FD}"/>
+    <hyperlink ref="F359" r:id="rId1493" xr:uid="{41C206CB-246A-4B94-9995-F0C68454112E}"/>
+    <hyperlink ref="G359" r:id="rId1494" xr:uid="{D916C860-C90C-4D8C-AF1A-56FD67A3D3B6}"/>
+    <hyperlink ref="H359" r:id="rId1495" xr:uid="{F1022EB5-CB72-4C89-9AB5-3EDC2582840F}"/>
+    <hyperlink ref="I359" r:id="rId1496" xr:uid="{ABFCA587-A2BF-4D5F-B31C-CC4644E724E7}"/>
+    <hyperlink ref="J359" r:id="rId1497" xr:uid="{00128243-B096-4793-87FB-3A8BEA33420A}"/>
+    <hyperlink ref="F360" r:id="rId1498" xr:uid="{30FF3C82-3C53-4C09-9E08-4BF0FD24DCF9}"/>
+    <hyperlink ref="I224" r:id="rId1499" xr:uid="{0928CE4E-E37E-4BD4-BB63-2315FA8F0884}"/>
+    <hyperlink ref="J224" r:id="rId1500" xr:uid="{AF22EEC7-3471-4560-A11E-A647EEDB8752}"/>
+    <hyperlink ref="I272" r:id="rId1501" xr:uid="{E8790EEC-FEEF-48FF-AF0F-B04199B565F4}"/>
+    <hyperlink ref="J272" r:id="rId1502" xr:uid="{EE492F6A-4B20-4D42-82EE-7FBCF29C425E}"/>
+    <hyperlink ref="F361" r:id="rId1503" xr:uid="{7A9B2BA6-6A7C-4ECA-B329-68B10C358DF6}"/>
+    <hyperlink ref="G361" r:id="rId1504" xr:uid="{C2D2408C-D101-4D00-9039-457ECAB1FF64}"/>
+    <hyperlink ref="H361" r:id="rId1505" xr:uid="{8123112E-531D-40E8-8559-FE719183B655}"/>
+    <hyperlink ref="I361" r:id="rId1506" xr:uid="{45C122AA-3D13-4D81-985D-9F05C45FF529}"/>
+    <hyperlink ref="J361" r:id="rId1507" xr:uid="{64782514-DA30-4C58-B03E-240BAAE6F27F}"/>
+    <hyperlink ref="F362" r:id="rId1508" xr:uid="{A600E427-5051-4810-B748-158F82112D0E}"/>
+    <hyperlink ref="G362" r:id="rId1509" xr:uid="{18D3F212-38C6-47F6-AD83-4182E59C24F2}"/>
+    <hyperlink ref="H362" r:id="rId1510" xr:uid="{CA74C210-FDD1-46B3-8FF8-4A9CDCC1E243}"/>
+    <hyperlink ref="I362" r:id="rId1511" xr:uid="{C4409797-4ED9-453B-93EA-22EBCD73F19C}"/>
+    <hyperlink ref="J362" r:id="rId1512" xr:uid="{AB220784-61FF-4B57-AABC-0E4B4B42726F}"/>
+    <hyperlink ref="F363" r:id="rId1513" xr:uid="{89ACD43F-B79E-41B8-9F0A-7FAC60890268}"/>
+    <hyperlink ref="G363" r:id="rId1514" xr:uid="{53F77340-8C30-47AC-A161-D8CEC011C791}"/>
+    <hyperlink ref="H363" r:id="rId1515" xr:uid="{9B0408FF-76B8-4D9E-AAC0-5115239FB59A}"/>
+    <hyperlink ref="I363" r:id="rId1516" xr:uid="{241FFB2F-AD72-4F02-909A-9975DC2F3BDB}"/>
+    <hyperlink ref="J363" r:id="rId1517" xr:uid="{F1C3DD83-C05E-4943-B296-D7B8D69DC96E}"/>
+    <hyperlink ref="F364" r:id="rId1518" xr:uid="{394811EA-CA96-49C8-9171-9F8C22924B38}"/>
+    <hyperlink ref="G364" r:id="rId1519" xr:uid="{EB444B6B-7635-4A18-95F0-8A26560A6E8E}"/>
+    <hyperlink ref="H364" r:id="rId1520" xr:uid="{28213A76-5B67-4431-BDAB-95923DBB4A36}"/>
+    <hyperlink ref="I364" r:id="rId1521" xr:uid="{7BF3914C-9323-4803-9707-BD796A1A308C}"/>
+    <hyperlink ref="J364" r:id="rId1522" xr:uid="{BA8DC8F7-8618-4868-A491-FA9176C9C3F4}"/>
+    <hyperlink ref="I324" r:id="rId1523" xr:uid="{6B3DD9B7-E8FF-4F23-8E34-B112959FF859}"/>
+    <hyperlink ref="I242" r:id="rId1524" xr:uid="{FC801369-1A9C-401E-80B5-6EE27996CB34}"/>
+    <hyperlink ref="J242" r:id="rId1525" xr:uid="{740A8E53-721C-4309-A368-44241417CA5D}"/>
+    <hyperlink ref="I265" r:id="rId1526" xr:uid="{81C18AFB-769E-4104-983D-7FBCEF3C5CDB}"/>
+    <hyperlink ref="I251" r:id="rId1527" xr:uid="{91F03ED3-9660-4E6D-B574-E8EEBC1F1E40}"/>
+    <hyperlink ref="J251" r:id="rId1528" xr:uid="{C4507BE4-AD00-4D0A-BA45-76822A65A031}"/>
+    <hyperlink ref="F365" r:id="rId1529" xr:uid="{4AF6BB23-8AA7-444B-8422-89BAD383C054}"/>
+    <hyperlink ref="G365" r:id="rId1530" xr:uid="{D7CB5728-41F7-488F-8B16-21A09E32D5FC}"/>
+    <hyperlink ref="H365" r:id="rId1531" xr:uid="{3F4EAFF7-ACA0-46F3-A208-789CE07E3E62}"/>
+    <hyperlink ref="I365" r:id="rId1532" xr:uid="{DC5EC07C-DF73-4371-97CB-E8F1302FCCC5}"/>
+    <hyperlink ref="J365" r:id="rId1533" xr:uid="{6510321B-65FB-4AC4-A6DC-0CCB73F78E8F}"/>
+    <hyperlink ref="F366" r:id="rId1534" xr:uid="{FB73BC44-1121-4CC0-92C5-90341AC95D34}"/>
+    <hyperlink ref="G366" r:id="rId1535" xr:uid="{AE2306D2-ACD1-4BD6-A79A-E91CD3361113}"/>
+    <hyperlink ref="H366" r:id="rId1536" xr:uid="{B6396934-2912-4CEB-A6D4-79A2D4A97865}"/>
+    <hyperlink ref="I366" r:id="rId1537" xr:uid="{FD5CE668-D5DB-4035-98B8-4E6DAE019919}"/>
+    <hyperlink ref="J366" r:id="rId1538" xr:uid="{B057B8B3-A265-486B-9B0B-90E19A9B7C63}"/>
+    <hyperlink ref="F367" r:id="rId1539" xr:uid="{BC0738DF-B02F-4ADA-AC17-A7294B021AC0}"/>
+    <hyperlink ref="G367" r:id="rId1540" xr:uid="{94884C59-DB9D-4912-8E37-147A21751547}"/>
+    <hyperlink ref="H367" r:id="rId1541" xr:uid="{410B9CD7-D40A-4A38-8A55-1ABC04CA513D}"/>
+    <hyperlink ref="I367" r:id="rId1542" xr:uid="{1ECBFDE2-C311-4167-93E0-B206F55D1C3E}"/>
+    <hyperlink ref="J367" r:id="rId1543" xr:uid="{21CA9828-4957-487A-B676-1E1E7D99BF6F}"/>
+    <hyperlink ref="F368" r:id="rId1544" xr:uid="{8DB495DD-C0D5-4E9F-9131-8DC9DE86B793}"/>
+    <hyperlink ref="G368" r:id="rId1545" xr:uid="{189CFEA5-FDCD-4FBB-B47B-A75A7FA5FE15}"/>
+    <hyperlink ref="H368" r:id="rId1546" xr:uid="{802693E2-7869-4859-B166-B5B10E1B911C}"/>
+    <hyperlink ref="I368" r:id="rId1547" xr:uid="{6EE25A4C-B1D2-490A-AC33-75B31007851D}"/>
+    <hyperlink ref="J368" r:id="rId1548" xr:uid="{C8AF5FBB-AE92-4899-8FBC-DB0FD2BE54A2}"/>
+    <hyperlink ref="F369" r:id="rId1549" xr:uid="{F5D4AEFE-E085-4FDE-9CF8-2C5F49794E28}"/>
+    <hyperlink ref="G369" r:id="rId1550" xr:uid="{9A2F8D97-54A4-4B7D-A564-8F1673F9DD6F}"/>
+    <hyperlink ref="H369" r:id="rId1551" xr:uid="{7C877BD2-85C4-4131-8D4D-0559A796AFAE}"/>
+    <hyperlink ref="I369" r:id="rId1552" xr:uid="{1E9937CB-348B-48D8-AC96-1CB599FCF715}"/>
+    <hyperlink ref="J369" r:id="rId1553" xr:uid="{2A6DF921-0E12-40FE-91AD-12B3A08AA9C5}"/>
+    <hyperlink ref="F370" r:id="rId1554" xr:uid="{10B35B2C-0814-4C4B-BEAE-4C6D3EF1B9A4}"/>
+    <hyperlink ref="G370" r:id="rId1555" xr:uid="{91F6E176-4839-41B2-A895-C61CC5F4E47D}"/>
+    <hyperlink ref="H370" r:id="rId1556" xr:uid="{E599DB34-71C1-4C50-BE31-D8A7AE923E87}"/>
+    <hyperlink ref="I370" r:id="rId1557" xr:uid="{D77567E5-3D02-433D-AEAF-2A9B415C838E}"/>
+    <hyperlink ref="J370" r:id="rId1558" xr:uid="{C3C309FB-E04F-4CF0-AECC-E56A184AF2A3}"/>
+    <hyperlink ref="F371" r:id="rId1559" xr:uid="{6E14D059-886E-4D1F-B787-7A92D3A2CC6C}"/>
+    <hyperlink ref="G371" r:id="rId1560" xr:uid="{70CFF193-B2B4-4493-A24F-8F7A1F71E56B}"/>
+    <hyperlink ref="H371" r:id="rId1561" xr:uid="{54C60CCC-3B1A-4153-941E-F86B37794C1D}"/>
+    <hyperlink ref="I371" r:id="rId1562" xr:uid="{76FF09F2-749D-4ABF-A7D2-55009FAB9A5C}"/>
+    <hyperlink ref="J371" r:id="rId1563" xr:uid="{57454C56-ACBA-4591-8571-F2A8F5853575}"/>
+    <hyperlink ref="F372" r:id="rId1564" xr:uid="{4956C4E4-DA20-4B08-B83F-AAF9C352C30F}"/>
+    <hyperlink ref="G372" r:id="rId1565" xr:uid="{ADC7A1EA-5CAE-4D17-856F-73C9FBF6FC74}"/>
+    <hyperlink ref="H372" r:id="rId1566" xr:uid="{4C219CA8-2D9B-44F6-8B8C-84230362982B}"/>
+    <hyperlink ref="I372" r:id="rId1567" xr:uid="{A3AA06AB-8021-4A49-89C5-8158A8C5F85A}"/>
+    <hyperlink ref="J372" r:id="rId1568" xr:uid="{5451B46C-25E0-4935-B6E1-E8E7EC3AF1E2}"/>
+    <hyperlink ref="F373" r:id="rId1569" xr:uid="{09B3291D-B0F7-42EC-A74F-E711D88CB568}"/>
+    <hyperlink ref="G373" r:id="rId1570" xr:uid="{614398DD-F765-4B0A-BF87-5B16089BC1DE}"/>
+    <hyperlink ref="H373" r:id="rId1571" xr:uid="{662BB63D-AA58-4074-A3E4-903592D8762D}"/>
+    <hyperlink ref="I373" r:id="rId1572" xr:uid="{2C8AB7F6-5DE0-4340-9A33-7E86B38C0621}"/>
+    <hyperlink ref="J373" r:id="rId1573" xr:uid="{C8A54B9D-D405-40C5-82A3-6522B337290B}"/>
+    <hyperlink ref="F374" r:id="rId1574" xr:uid="{35395A29-A26D-4F22-840F-B256145FA8CB}"/>
+    <hyperlink ref="G374" r:id="rId1575" xr:uid="{7237FE3B-D443-47B3-8ED5-C83D3E2C8B6D}"/>
+    <hyperlink ref="H374" r:id="rId1576" xr:uid="{82375F44-DB41-4199-BF48-97B9EF1EEB2C}"/>
+    <hyperlink ref="I374" r:id="rId1577" xr:uid="{E4AD1F91-3E57-45DE-BB02-86CCF587CCCF}"/>
+    <hyperlink ref="J374" r:id="rId1578" xr:uid="{73BB3626-5B26-4FE6-9119-C78C21E0D588}"/>
+    <hyperlink ref="F375" r:id="rId1579" xr:uid="{4996169A-E03D-4F85-ABE5-6D87F8D941D5}"/>
+    <hyperlink ref="G375" r:id="rId1580" xr:uid="{2E777C8F-9FCD-410F-8333-3A9DA103A0CE}"/>
+    <hyperlink ref="H375" r:id="rId1581" xr:uid="{579C77E2-B052-4DAC-BA3B-44379EBAE270}"/>
+    <hyperlink ref="I375" r:id="rId1582" xr:uid="{BAE47A3D-9664-4F69-B41F-EC183F95377F}"/>
+    <hyperlink ref="J375" r:id="rId1583" xr:uid="{F18FFC5E-ECD2-49C1-811C-DB24BF8F95EB}"/>
+    <hyperlink ref="F376" r:id="rId1584" xr:uid="{BACF7074-0B1F-4326-8121-B385BF7147BB}"/>
+    <hyperlink ref="G376" r:id="rId1585" xr:uid="{08F90A5F-737D-4A6B-884B-C7A843377FF5}"/>
+    <hyperlink ref="H376" r:id="rId1586" xr:uid="{66FF8112-53BB-468F-855D-A7D8041BD1F3}"/>
+    <hyperlink ref="I376" r:id="rId1587" xr:uid="{04D6F84A-4D3F-42BD-8912-EA742B96F413}"/>
+    <hyperlink ref="J376" r:id="rId1588" xr:uid="{73299699-B176-4BE2-8A84-7B29622EE3B1}"/>
+    <hyperlink ref="F377" r:id="rId1589" xr:uid="{AE714020-1936-4E40-8FE5-E3DB8F6C54A3}"/>
+    <hyperlink ref="G377" r:id="rId1590" xr:uid="{5E326CC6-61E3-4C3B-B287-FA29D0FA5938}"/>
+    <hyperlink ref="H377" r:id="rId1591" xr:uid="{012474CC-5FB8-46B6-AB19-CE16449980E4}"/>
+    <hyperlink ref="I377" r:id="rId1592" xr:uid="{F374E775-41F4-4938-8050-52B90B415F52}"/>
+    <hyperlink ref="J377" r:id="rId1593" xr:uid="{F1E02CB8-DD7B-412B-AC37-AD95D19CD697}"/>
+    <hyperlink ref="F378" r:id="rId1594" xr:uid="{0C0AC6B7-F567-44C8-95BC-0C0602E3ED26}"/>
+    <hyperlink ref="G378" r:id="rId1595" xr:uid="{AD5E7D95-645C-44FB-97F0-1B7716ECDE6B}"/>
+    <hyperlink ref="H378" r:id="rId1596" xr:uid="{E54B87B5-4281-4870-8362-6735B607032E}"/>
+    <hyperlink ref="I378" r:id="rId1597" xr:uid="{F60B5C3A-599E-4D0A-8E43-99EE9B21ED8A}"/>
+    <hyperlink ref="J378" r:id="rId1598" xr:uid="{4A1742D3-CC68-49B2-8EF6-8FE10F32F926}"/>
+    <hyperlink ref="F379" r:id="rId1599" xr:uid="{3D52F447-DD90-41DE-9371-5A670D82F769}"/>
+    <hyperlink ref="G379" r:id="rId1600" xr:uid="{301E4134-DCB9-4864-9596-47C9AA7330AE}"/>
+    <hyperlink ref="H379" r:id="rId1601" xr:uid="{B7174A0C-3427-4A84-8CC7-1FFFEA66E988}"/>
+    <hyperlink ref="I379" r:id="rId1602" xr:uid="{CB1CD1D4-0590-4F77-B69A-A4617B3E7DA5}"/>
+    <hyperlink ref="J379" r:id="rId1603" xr:uid="{CF5F3128-3C84-440D-9431-E3267A0CDFD6}"/>
+    <hyperlink ref="F380" r:id="rId1604" xr:uid="{FACE3E33-EF4C-41A2-BB43-3041067E5933}"/>
+    <hyperlink ref="G380" r:id="rId1605" xr:uid="{97C04C51-DEAC-413C-B81B-0B3EA98D1F18}"/>
+    <hyperlink ref="H380" r:id="rId1606" xr:uid="{53142640-14D1-4096-AC42-8E65B1A7123B}"/>
+    <hyperlink ref="I380" r:id="rId1607" xr:uid="{4145A712-C811-4055-925E-F9AC9D76B5A4}"/>
+    <hyperlink ref="J380" r:id="rId1608" xr:uid="{97C43EA7-96EE-4581-8DAB-FA65D08E68D7}"/>
+    <hyperlink ref="F381" r:id="rId1609" xr:uid="{B232D9EE-BF6F-4707-9620-D4AD4FBF7862}"/>
+    <hyperlink ref="G381" r:id="rId1610" xr:uid="{EDF25348-330D-453B-997D-E503B22E306B}"/>
+    <hyperlink ref="H381" r:id="rId1611" xr:uid="{1D19374E-5008-4F4F-ADB3-DD71E7C14F63}"/>
+    <hyperlink ref="I381" r:id="rId1612" xr:uid="{791781FA-803D-4FA5-9046-B731A38C96F5}"/>
+    <hyperlink ref="J381" r:id="rId1613" xr:uid="{1A70EA56-5205-4B9D-968E-817F267436F6}"/>
+    <hyperlink ref="F382" r:id="rId1614" xr:uid="{82A42CA3-B947-4956-9FA2-2EF0E3B12163}"/>
+    <hyperlink ref="G382" r:id="rId1615" xr:uid="{C51A3C3A-0040-419F-A6A1-7C6B4AC519CB}"/>
+    <hyperlink ref="H382" r:id="rId1616" xr:uid="{569BF18B-8740-452D-8EFF-97B3AE7DE47F}"/>
+    <hyperlink ref="I382" r:id="rId1617" xr:uid="{7CD1D291-CF31-4970-8EA2-CC02C841D48B}"/>
+    <hyperlink ref="J382" r:id="rId1618" xr:uid="{A365B5D9-0F5E-4D2C-8E5B-EE2899663BEE}"/>
+    <hyperlink ref="F383" r:id="rId1619" xr:uid="{8502EE5B-2729-4643-9B6D-059CE2EEB6E9}"/>
+    <hyperlink ref="G383" r:id="rId1620" xr:uid="{52840A21-390A-4D50-A6D9-9E941A2C03FE}"/>
+    <hyperlink ref="H383" r:id="rId1621" xr:uid="{1EEB98C0-49F5-4D54-8A12-281E1987A81F}"/>
+    <hyperlink ref="F384" r:id="rId1622" xr:uid="{59035509-8F7B-4936-A8BA-10B8669D34B7}"/>
+    <hyperlink ref="G384" r:id="rId1623" xr:uid="{57488D91-1F04-468D-B997-F80D40B7699C}"/>
+    <hyperlink ref="H384" r:id="rId1624" xr:uid="{FDA8E7C1-6868-4519-9C6F-2DC2ADEA3CD0}"/>
+    <hyperlink ref="F385" r:id="rId1625" xr:uid="{15629634-7E07-49FC-9C5A-7BD177356AEF}"/>
+    <hyperlink ref="G385" r:id="rId1626" xr:uid="{4B672DAC-19B6-4666-90B5-D5E977402287}"/>
+    <hyperlink ref="H385" r:id="rId1627" xr:uid="{4BB8DA24-D25C-4382-B677-9ACDFF1823D5}"/>
+    <hyperlink ref="F386" r:id="rId1628" xr:uid="{C7C73619-A11C-4895-9EC2-F521C55ED82E}"/>
+    <hyperlink ref="G386" r:id="rId1629" xr:uid="{ECFB1C30-B67C-4521-85FE-765FC3B6B2AB}"/>
+    <hyperlink ref="I386" r:id="rId1630" xr:uid="{0B365BBD-CE90-4168-92BA-09617FA3BCB7}"/>
+    <hyperlink ref="J386" r:id="rId1631" xr:uid="{0BAD14AA-036E-4D00-A5F6-9D17EBFD29A2}"/>
+    <hyperlink ref="H386" r:id="rId1632" xr:uid="{C652D141-366A-4E21-97EB-C88BA7B2A484}"/>
+    <hyperlink ref="I208" r:id="rId1633" xr:uid="{F8952BF5-477C-4638-BA7C-58AB60830C08}"/>
+    <hyperlink ref="J208" r:id="rId1634" xr:uid="{C969372B-717F-46A1-9D0E-CEA96D373248}"/>
+    <hyperlink ref="F387" r:id="rId1635" xr:uid="{1B4EEF79-3EB1-4CAF-AF3F-ED4F5DAD892D}"/>
+    <hyperlink ref="G387" r:id="rId1636" xr:uid="{21D2BB66-21A7-497A-883A-3252A1392DD6}"/>
+    <hyperlink ref="H387" r:id="rId1637" xr:uid="{0061E6D1-1006-4320-9ABA-240D069F0D0D}"/>
+    <hyperlink ref="J387" r:id="rId1638" xr:uid="{C3B4AE90-D459-454F-8D2B-27E468E9BDE8}"/>
+    <hyperlink ref="I387" r:id="rId1639" xr:uid="{1BB83707-B23E-4499-AE32-C0717E52E7FD}"/>
+    <hyperlink ref="F388" r:id="rId1640" xr:uid="{2C77ED18-0809-4E47-93DA-23425BB122F0}"/>
+    <hyperlink ref="G388" r:id="rId1641" xr:uid="{721705EF-D274-4DE2-B5D7-A9952F03D0A2}"/>
+    <hyperlink ref="H388" r:id="rId1642" xr:uid="{8A9CFEDC-7400-4B16-8E93-36EA47D4F5A9}"/>
+    <hyperlink ref="J388" r:id="rId1643" xr:uid="{4317FF03-7B3C-49C0-AFC9-FDDB9270EE1A}"/>
+    <hyperlink ref="I388" r:id="rId1644" xr:uid="{B9C7838B-4F5C-48FF-93DE-055CC52749C4}"/>
+    <hyperlink ref="F389" r:id="rId1645" xr:uid="{6CF754D7-5839-477B-82E6-DC0B21C74DD5}"/>
+    <hyperlink ref="G389" r:id="rId1646" xr:uid="{4FFB4525-583B-425B-B55E-4E7C7E1AB243}"/>
+    <hyperlink ref="H389" r:id="rId1647" xr:uid="{360A7A43-1724-4391-B6D6-F8F9803D3E91}"/>
+    <hyperlink ref="J389" r:id="rId1648" xr:uid="{E8FF1502-3DC1-42E7-961D-13F24061BE90}"/>
+    <hyperlink ref="I389" r:id="rId1649" xr:uid="{5EA601B2-4318-400D-8A9B-A8B9F9CA6ED9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1635"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1650"/>
   <tableParts count="1">
-    <tablePart r:id="rId1636"/>
+    <tablePart r:id="rId1651"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA92DB-3C62-4306-98EF-22F3E483F8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D78B2-1103-40A9-BF1A-C069250CB374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="2701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="2715">
   <si>
     <t>id</t>
   </si>
@@ -8149,6 +8149,48 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1648781/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>Brånby</t>
+  </si>
+  <si>
+    <t>Oscar Steinke</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/oscar-steinke-branby/profil/spieler/1016301</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/oscar-steinke-branby/1423249</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423249</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423249/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423249/unique-tournament/67/season/70666/statistics/overall</t>
+  </si>
+  <si>
+    <t>Keyano</t>
+  </si>
+  <si>
+    <t>Marrah</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/keyano-marrah/profil/spieler/1120599</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/keyano-marrah/1483217</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1483217</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1483217/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1483217/unique-tournament/67/season/70666/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8225,8 +8267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J389" totalsRowShown="0">
-  <autoFilter ref="A1:J389" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J391" totalsRowShown="0">
+  <autoFilter ref="A1:J391" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -8543,10 +8585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J389"/>
+  <dimension ref="A1:J391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="I390" sqref="I390"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="J392" sqref="J392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20378,6 +20420,64 @@
       </c>
       <c r="J389" s="2" t="s">
         <v>2699</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>455</v>
+      </c>
+      <c r="B390" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D390" t="s">
+        <v>37</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="J390" s="2" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>456</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D391" t="s">
+        <v>15</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="J391" s="2" t="s">
+        <v>2714</v>
       </c>
     </row>
   </sheetData>
@@ -22032,11 +22132,21 @@
     <hyperlink ref="H389" r:id="rId1647" xr:uid="{360A7A43-1724-4391-B6D6-F8F9803D3E91}"/>
     <hyperlink ref="J389" r:id="rId1648" xr:uid="{E8FF1502-3DC1-42E7-961D-13F24061BE90}"/>
     <hyperlink ref="I389" r:id="rId1649" xr:uid="{5EA601B2-4318-400D-8A9B-A8B9F9CA6ED9}"/>
+    <hyperlink ref="F390" r:id="rId1650" xr:uid="{CB73180C-F713-4D64-94E8-3476E9BF3C67}"/>
+    <hyperlink ref="G390" r:id="rId1651" xr:uid="{6E00949C-7583-4984-952F-FBA71C609A58}"/>
+    <hyperlink ref="H390" r:id="rId1652" xr:uid="{2F590222-DDFA-4CDE-ACD3-B7DE3A210786}"/>
+    <hyperlink ref="I390" r:id="rId1653" xr:uid="{865A5719-0E7A-4ECC-9282-1A3CEC6B9DD3}"/>
+    <hyperlink ref="J390" r:id="rId1654" xr:uid="{1F3FDEDE-2648-4B63-A30C-0D97D878B284}"/>
+    <hyperlink ref="F391" r:id="rId1655" xr:uid="{6DB6ED65-79EB-4DCC-87F5-54153F289441}"/>
+    <hyperlink ref="G391" r:id="rId1656" xr:uid="{8801B0B3-E2D2-45E3-9728-9C6B28294EB2}"/>
+    <hyperlink ref="H391" r:id="rId1657" xr:uid="{54A928A0-2875-405F-BA46-D59667799EC4}"/>
+    <hyperlink ref="I391" r:id="rId1658" xr:uid="{D54BDC77-29F0-4005-B516-A5530D91C365}"/>
+    <hyperlink ref="J391" r:id="rId1659" xr:uid="{707683FB-3D14-4A3B-9728-1172B6C3EBEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1650"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1660"/>
   <tableParts count="1">
-    <tablePart r:id="rId1651"/>
+    <tablePart r:id="rId1661"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDE3A04-1DD0-4D5E-ABBB-D34257AC04E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0283D734-4532-4E6A-82EC-D295AE5D4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="2721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="2762">
   <si>
     <t>id</t>
   </si>
@@ -8209,6 +8209,129 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1423463/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Bolzan</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/alessandro-bolzan/profil/spieler/918269</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/alessandro-bolzan/1154852</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1154852</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1154852/unique-tournament/720/season/78745/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1154852/unique-tournament/720/season/78745/statistics/overall</t>
+  </si>
+  <si>
+    <t>Arafat</t>
+  </si>
+  <si>
+    <t>Doumbia</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/arafat-doumbia/profil/spieler/668970</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/arafat-doumbia/1499153</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1499153</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1499153/unique-tournament/720/season/78745/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1499153/unique-tournament/720/season/78745/statistics/overall</t>
+  </si>
+  <si>
+    <t>Koita</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mohamed-koita/profil/spieler/1376643</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mohamed-koita/2232741</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2232741</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2232741/unique-tournament/720/season/78745/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2232741/unique-tournament/720/season/78745/statistics/overall</t>
+  </si>
+  <si>
+    <t>Obi</t>
+  </si>
+  <si>
+    <t>Chima</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/obi-chima/profil/spieler/1422349</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/obi-chima/2210470</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2210470</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2210470/unique-tournament/671/season/78576/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2210470/unique-tournament/671/season/78576/statistics/overall</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Odeyinka</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/malik-odeyinka/profil/spieler/1304447</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/odeyinka-malik/1916937</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1916937</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1916937/unique-tournament/671/season/78576/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1916937/unique-tournament/671/season/78576/statistics/overall</t>
+  </si>
+  <si>
+    <t>Petik</t>
+  </si>
+  <si>
+    <t>Manukyan</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/petik-manukyan/profil/spieler/1064069</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/petik-manukyan/1423443</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423443</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423443/unique-tournament/671/season/78576/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423443/unique-tournament/671/season/78576/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8285,8 +8408,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J392" totalsRowShown="0">
-  <autoFilter ref="A1:J392" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J398" totalsRowShown="0">
+  <autoFilter ref="A1:J398" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -8603,10 +8726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J392"/>
+  <dimension ref="A1:J398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20528,6 +20651,183 @@
       </c>
       <c r="J392" s="2" t="s">
         <v>2720</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>458</v>
+      </c>
+      <c r="B393" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D393" t="s">
+        <v>15</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="J393" s="2" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>459</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D394" t="s">
+        <v>53</v>
+      </c>
+      <c r="E394" t="s">
+        <v>33</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J394" s="2" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>460</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D395" t="s">
+        <v>42</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="J395" s="2" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>461</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D396" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="J396" s="2" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>462</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D397" t="s">
+        <v>15</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="J397" s="2" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>463</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D398" t="s">
+        <v>42</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="J398" s="2" t="s">
+        <v>2761</v>
       </c>
     </row>
   </sheetData>
@@ -22197,11 +22497,41 @@
     <hyperlink ref="H392" r:id="rId1662" xr:uid="{BADA6356-0952-47CA-BE10-8698CC878160}"/>
     <hyperlink ref="I392" r:id="rId1663" xr:uid="{B1E9E8B9-9544-4407-8EBE-EE06E9E7F783}"/>
     <hyperlink ref="J392" r:id="rId1664" xr:uid="{5553ED49-3D7E-4D0F-813E-EB3212935513}"/>
+    <hyperlink ref="F393" r:id="rId1665" xr:uid="{A5175125-3A82-4D47-9A9D-407144508F94}"/>
+    <hyperlink ref="G393" r:id="rId1666" xr:uid="{A8E36EB9-7E00-4507-987F-408C105F5219}"/>
+    <hyperlink ref="H393" r:id="rId1667" xr:uid="{3156DCE3-9109-4531-A3B3-4A43427DCF54}"/>
+    <hyperlink ref="I393" r:id="rId1668" xr:uid="{9CE83A62-12A0-4546-8957-C3FC2768F541}"/>
+    <hyperlink ref="J393" r:id="rId1669" xr:uid="{2B12D054-2A12-4E9B-A4B7-C41ED4DCA0DC}"/>
+    <hyperlink ref="F394" r:id="rId1670" xr:uid="{11BC8400-AA76-4F5C-A528-A99D579FDE3D}"/>
+    <hyperlink ref="G394" r:id="rId1671" xr:uid="{7D49428C-AD59-4080-809D-02861A70DAB0}"/>
+    <hyperlink ref="H394" r:id="rId1672" xr:uid="{2B7FBCB6-52D6-46A8-BDDF-63C066ED81EB}"/>
+    <hyperlink ref="I394" r:id="rId1673" xr:uid="{BB7AAD8E-93FB-40C6-BF3E-43C447B4BD6B}"/>
+    <hyperlink ref="J394" r:id="rId1674" xr:uid="{1871BAE6-DC77-4C8D-92F1-1C707B98B665}"/>
+    <hyperlink ref="F395" r:id="rId1675" xr:uid="{EB6EAA21-546D-4374-BFA9-F9F4C2605CEA}"/>
+    <hyperlink ref="G395" r:id="rId1676" xr:uid="{848DB92C-8491-4DBE-9305-F767F8C4825A}"/>
+    <hyperlink ref="H395" r:id="rId1677" xr:uid="{5E3D18A7-C29B-4B38-9A2E-2E066F0776AE}"/>
+    <hyperlink ref="I395" r:id="rId1678" xr:uid="{23FFE415-AC65-495A-BB14-D123F818B1D6}"/>
+    <hyperlink ref="J395" r:id="rId1679" xr:uid="{2D792E54-5389-4EE9-8E8B-2938398B4D5B}"/>
+    <hyperlink ref="F396" r:id="rId1680" xr:uid="{BA18BEB6-ED8C-45E4-9E5B-DDF795CA3EBE}"/>
+    <hyperlink ref="G396" r:id="rId1681" xr:uid="{17C2D6D4-0FF4-4A67-8808-68DAD1E434C4}"/>
+    <hyperlink ref="I396" r:id="rId1682" xr:uid="{E21038B4-D378-4796-B00C-5D6C2E4C8F84}"/>
+    <hyperlink ref="J396" r:id="rId1683" xr:uid="{901D086F-86A3-4239-A9FB-E8D546FF0D2C}"/>
+    <hyperlink ref="F397" r:id="rId1684" xr:uid="{4FFB90B2-C218-4C69-AD6F-72EB857005A1}"/>
+    <hyperlink ref="G397" r:id="rId1685" xr:uid="{4002DBF8-BB57-4F56-9BFE-4C7735D12022}"/>
+    <hyperlink ref="H396" r:id="rId1686" xr:uid="{F2C3EC2B-C703-4173-A7BA-96079092CF03}"/>
+    <hyperlink ref="H397" r:id="rId1687" xr:uid="{D6A9649E-BE1B-4219-9DA2-2115C7A31878}"/>
+    <hyperlink ref="I397" r:id="rId1688" xr:uid="{CE261CD8-4052-4C59-9EE5-B70369B4E319}"/>
+    <hyperlink ref="J397" r:id="rId1689" xr:uid="{275A2645-5D23-4099-8ED2-5E1E289505E2}"/>
+    <hyperlink ref="F398" r:id="rId1690" xr:uid="{89271B49-DDC7-461B-9B09-61BDD725D1EC}"/>
+    <hyperlink ref="G398" r:id="rId1691" xr:uid="{6570893E-AECE-4A73-9772-44A75A8FE6D2}"/>
+    <hyperlink ref="H398" r:id="rId1692" xr:uid="{D3A40654-569A-4183-A3E7-340413714DF5}"/>
+    <hyperlink ref="I398" r:id="rId1693" xr:uid="{7BE8A0FA-AA07-4B1E-BA00-13D7BAE40842}"/>
+    <hyperlink ref="J398" r:id="rId1694" xr:uid="{84B41802-9893-4F72-8B5C-7E362D63AD77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1665"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1695"/>
   <tableParts count="1">
-    <tablePart r:id="rId1666"/>
+    <tablePart r:id="rId1696"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0283D734-4532-4E6A-82EC-D295AE5D4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00899DD-B316-4AC4-BA8E-EB54B380A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="2762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="2875">
   <si>
     <t>id</t>
   </si>
@@ -8332,6 +8332,345 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1423443/unique-tournament/671/season/78576/statistics/overall</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/oscar-vargas/profil/spieler/1287735</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/oscar-vargas/1897378</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897378</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897378/unique-tournament/9/season/77849/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897378/unique-tournament/9/season/77849/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/filip-matic/1487373</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/filip-matic/profil/spieler/991179</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1487373</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1487373/unique-tournament/222/season/77355/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1487373/unique-tournament/222/season/77355/statistics/overall</t>
+  </si>
+  <si>
+    <t>Dženan</t>
+  </si>
+  <si>
+    <t>Šabic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/dzenan-sabic/profil/spieler/890479</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/dzenan-sabic/1425365</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425365</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425365/unique-tournament/222/season/77355/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425365/unique-tournament/222/season/77355/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tarik</t>
+  </si>
+  <si>
+    <t>Karic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tarik-karic/profil/spieler/695495</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tarik-karic/1149054</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149054</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149054/unique-tournament/222/season/77355/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149054/unique-tournament/222/season/77355/statistics/overall</t>
+  </si>
+  <si>
+    <t>Božidar</t>
+  </si>
+  <si>
+    <t>Dimitric</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/bozidar-dimitric/profil/spieler/1168612</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bozidar-dimitric/1920798</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1920798</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1920798/unique-tournament/222/season/77355/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1920798/unique-tournament/222/season/77355/statistics/overall</t>
+  </si>
+  <si>
+    <t>Nedim</t>
+  </si>
+  <si>
+    <t>Keranovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/nedim-keranovic/profil/spieler/889366</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nedim-keranovic/1861982</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1861982</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1861982/unique-tournament/222/season/77355/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1861982/unique-tournament/222/season/77355/statistics/overall</t>
+  </si>
+  <si>
+    <t>Velev</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/axel-velev/profil/spieler/1100747</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/axel-velev/1469639</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1469639</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1469639/unique-tournament/247/season/76882/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1469639/unique-tournament/247/season/76882/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kristiyan</t>
+  </si>
+  <si>
+    <t>Balov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kristiyan-balov/profil/spieler/1068235</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/balov-kristiyan/1417062</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417062</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417062/unique-tournament/247/season/76882/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417062/unique-tournament/247/season/76882/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ognyan</t>
+  </si>
+  <si>
+    <t>Vladimirov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ognyan-vladimirov/profil/spieler/1144096</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/vladimirov-ognyan/1897045</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897045</t>
+  </si>
+  <si>
+    <t>Preslav</t>
+  </si>
+  <si>
+    <t>Bachev</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/preslav-bachev/profil/spieler/391831</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/preslav-bachev/1215573</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1215573</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1215573/unique-tournament/247/season/61477/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1215573/unique-tournament/247/season/61477/statistics/overall</t>
+  </si>
+  <si>
+    <t>Dotsev</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/valentin-dotsev/profil/spieler/1070317</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/valentin-dotsev/1417360</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417360</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417360/unique-tournament/247/season/61477/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417360/unique-tournament/247/season/61477/statistics/overall</t>
+  </si>
+  <si>
+    <t>Simeon</t>
+  </si>
+  <si>
+    <t>Turlakov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/simeon-turlakov/profil/spieler/1017396</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/simeon-turlakov/2116794</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2116794</t>
+  </si>
+  <si>
+    <t>Yulian</t>
+  </si>
+  <si>
+    <t>Gilov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/yulian-gilov/profil/spieler/1100514</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/yulian-gilov/1975278</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1975278</t>
+  </si>
+  <si>
+    <t>Vasil</t>
+  </si>
+  <si>
+    <t>Kaymakanov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/vasil-kaymakanov/profil/spieler/1100752</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/vasil-kaymakanov/1587296</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587296</t>
+  </si>
+  <si>
+    <t>Ilian</t>
+  </si>
+  <si>
+    <t>Antonov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ilian-antonov/profil/spieler/1081951</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ilian-antonov/1464635</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1464635</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1464635/unique-tournament/247/season/76882/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1464635/unique-tournament/247/season/76882/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kaloyan</t>
+  </si>
+  <si>
+    <t>Strinski</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kaloyan-strinski/profil/spieler/1042238</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kaloyan-strinski/1822451</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1822451</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1822451/unique-tournament/247/season/76882/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1822451/unique-tournament/247/season/76882/statistics/overall</t>
+  </si>
+  <si>
+    <t>Marto</t>
+  </si>
+  <si>
+    <t>Boychev</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/marto-boychev/profil/spieler/1084760</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/boychev-marto/1587291</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587291</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587291/unique-tournament/247/season/76882/statistics/overall</t>
+  </si>
+  <si>
+    <t>Savovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/lazar-savovic/profil/spieler/1139994</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/lazar-savovic/1606673</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1606673</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1606673/unique-tournament/154/season/78078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587291/unique-tournament/247/season/76882/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1606673/unique-tournament/154/season/78078/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8408,8 +8747,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J398" totalsRowShown="0">
-  <autoFilter ref="A1:J398" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J416" totalsRowShown="0">
+  <autoFilter ref="A1:J416" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -8726,10 +9065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J398"/>
+  <dimension ref="A1:J416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="D403" sqref="D403"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="G425" sqref="G425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20828,6 +21167,539 @@
       </c>
       <c r="J398" s="2" t="s">
         <v>2761</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>464</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D399" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399" t="s">
+        <v>58</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="J399" s="2" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>465</v>
+      </c>
+      <c r="B400" t="s">
+        <v>357</v>
+      </c>
+      <c r="C400" t="s">
+        <v>630</v>
+      </c>
+      <c r="D400" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" t="s">
+        <v>189</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J400" s="2" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>466</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D401" t="s">
+        <v>37</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="J401" s="2" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>467</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D402" t="s">
+        <v>155</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>2785</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="J402" s="2" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>468</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D403" t="s">
+        <v>79</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>2793</v>
+      </c>
+      <c r="J403" s="2" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>469</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D404" t="s">
+        <v>189</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>2799</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>2800</v>
+      </c>
+      <c r="J404" s="2" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>470</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C405" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D405" t="s">
+        <v>15</v>
+      </c>
+      <c r="E405" t="s">
+        <v>189</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>2805</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>2806</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>471</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C406" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E406" t="s">
+        <v>58</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J406" s="2" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>472</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D407" t="s">
+        <v>155</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>2818</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I407" s="2"/>
+      <c r="J407" s="2"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>473</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D408" t="s">
+        <v>15</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>2823</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>2824</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>474</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D409" t="s">
+        <v>53</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>2828</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>2830</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="J409" s="2" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>475</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D410" t="s">
+        <v>42</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>476</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D411" t="s">
+        <v>8</v>
+      </c>
+      <c r="E411" t="s">
+        <v>15</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>2840</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>2842</v>
+      </c>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>477</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C412" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D412" t="s">
+        <v>189</v>
+      </c>
+      <c r="E412" t="s">
+        <v>8</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>478</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D413" t="s">
+        <v>58</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>2853</v>
+      </c>
+      <c r="J413" s="2" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>479</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D414" t="s">
+        <v>8</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>480</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C415" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D415" t="s">
+        <v>189</v>
+      </c>
+      <c r="E415" t="s">
+        <v>15</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="J415" s="2" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>481</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C416" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D416" t="s">
+        <v>53</v>
+      </c>
+      <c r="E416" t="s">
+        <v>189</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>2872</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>2874</v>
       </c>
     </row>
   </sheetData>
@@ -22527,11 +23399,93 @@
     <hyperlink ref="H398" r:id="rId1692" xr:uid="{D3A40654-569A-4183-A3E7-340413714DF5}"/>
     <hyperlink ref="I398" r:id="rId1693" xr:uid="{7BE8A0FA-AA07-4B1E-BA00-13D7BAE40842}"/>
     <hyperlink ref="J398" r:id="rId1694" xr:uid="{84B41802-9893-4F72-8B5C-7E362D63AD77}"/>
+    <hyperlink ref="F399" r:id="rId1695" xr:uid="{AC3C73C4-0F0C-4AE4-9AF2-378B21AD6F0C}"/>
+    <hyperlink ref="G399" r:id="rId1696" xr:uid="{5172560F-3D89-49B9-8B0F-EE6EBB285547}"/>
+    <hyperlink ref="H399" r:id="rId1697" xr:uid="{2FE276A5-143A-4FA3-A2B3-C384B9B6F06C}"/>
+    <hyperlink ref="I399" r:id="rId1698" xr:uid="{46769A2D-BE47-4FFE-9CC9-0738DB9B5132}"/>
+    <hyperlink ref="J399" r:id="rId1699" xr:uid="{CA6E55CB-B116-4607-8F9B-E1FA79287FD0}"/>
+    <hyperlink ref="G400" r:id="rId1700" xr:uid="{EA28D65D-3303-4A62-B6D5-15ADE9459683}"/>
+    <hyperlink ref="F400" r:id="rId1701" xr:uid="{E1DA7684-0CC8-4705-84B7-1CFE80434EB4}"/>
+    <hyperlink ref="H400" r:id="rId1702" xr:uid="{4CF0EAEA-F0EE-4A73-80B0-F002183E548D}"/>
+    <hyperlink ref="I400" r:id="rId1703" xr:uid="{5443FDAD-0B0C-49CB-A5D5-90F703C31D8A}"/>
+    <hyperlink ref="J400" r:id="rId1704" xr:uid="{B4ED57FD-D6E7-4F23-A81B-DC1ACC6C7895}"/>
+    <hyperlink ref="F401" r:id="rId1705" xr:uid="{4F57B7AC-C710-4472-AD9A-6BE84CFE41E5}"/>
+    <hyperlink ref="G401" r:id="rId1706" xr:uid="{736FB5F4-8FA8-44F3-9949-4A01AB6E5D68}"/>
+    <hyperlink ref="H401" r:id="rId1707" xr:uid="{986735A9-D495-4A1B-AD25-3DEF87A1E78D}"/>
+    <hyperlink ref="I401" r:id="rId1708" xr:uid="{AAE45831-6171-4F83-89F8-001892B8E7FC}"/>
+    <hyperlink ref="J401" r:id="rId1709" xr:uid="{C71473DD-2DFE-48C4-AD03-78DB07165775}"/>
+    <hyperlink ref="F402" r:id="rId1710" xr:uid="{CD2CA42F-0F15-4724-BD44-47CBBCE33F6B}"/>
+    <hyperlink ref="G402" r:id="rId1711" xr:uid="{32EC045F-08D1-4C5E-9CAC-DC9EDEDEC780}"/>
+    <hyperlink ref="H402" r:id="rId1712" xr:uid="{A7B6987D-BD49-4CD5-AA10-9F26C1D528E7}"/>
+    <hyperlink ref="I402" r:id="rId1713" xr:uid="{09D59932-51FF-4947-BA45-080ECB96E4D9}"/>
+    <hyperlink ref="J402" r:id="rId1714" xr:uid="{733E0ADF-FCCD-463D-B16A-A4D98E9F4209}"/>
+    <hyperlink ref="F403" r:id="rId1715" xr:uid="{C5B8BED9-AE44-4FF0-B28F-D8B1766572E9}"/>
+    <hyperlink ref="G403" r:id="rId1716" xr:uid="{17255DCB-8CC8-4DE1-B7D3-C4F887C9B0B4}"/>
+    <hyperlink ref="H403" r:id="rId1717" xr:uid="{9FA9A7B5-FB4A-4FD3-B017-58E333346FF2}"/>
+    <hyperlink ref="I403" r:id="rId1718" xr:uid="{BE21E5A2-C844-49A5-AF9F-4F880C02C718}"/>
+    <hyperlink ref="J403" r:id="rId1719" xr:uid="{7C76C445-A98D-4B46-BF79-42103AACE290}"/>
+    <hyperlink ref="F404" r:id="rId1720" xr:uid="{EB71079A-C6E6-42A9-9632-4EBF44982DBF}"/>
+    <hyperlink ref="G404" r:id="rId1721" xr:uid="{6591CB77-5011-4B99-B929-E91E6578F1C1}"/>
+    <hyperlink ref="H404" r:id="rId1722" xr:uid="{9FACD654-68FF-4971-AB1A-60ABD598F3D4}"/>
+    <hyperlink ref="I404" r:id="rId1723" xr:uid="{3515CBAE-00B6-4EB7-B9F0-BEAD1043ACE7}"/>
+    <hyperlink ref="J404" r:id="rId1724" xr:uid="{DA82C4DB-9FEE-4FD6-9AB1-14F39AABE7AD}"/>
+    <hyperlink ref="F405" r:id="rId1725" xr:uid="{831A1E36-C438-4231-A405-CBF4FEAC2AA5}"/>
+    <hyperlink ref="G405" r:id="rId1726" xr:uid="{51DE6BA4-E69C-4881-B418-692613546300}"/>
+    <hyperlink ref="H405" r:id="rId1727" xr:uid="{A8A25251-C685-4F24-A902-5FFE2FBC0C56}"/>
+    <hyperlink ref="I405" r:id="rId1728" xr:uid="{B18F78D6-A0F5-4ED9-A3CC-400FB3BE5AE7}"/>
+    <hyperlink ref="J405" r:id="rId1729" xr:uid="{4325C903-D4CE-4AEB-BC6D-F3C547934CC8}"/>
+    <hyperlink ref="F406" r:id="rId1730" xr:uid="{211C3BF1-3971-40D3-B7AC-742D87626EB1}"/>
+    <hyperlink ref="G406" r:id="rId1731" xr:uid="{9AA108DC-B218-4B87-B32B-33E35B2FE341}"/>
+    <hyperlink ref="H406" r:id="rId1732" xr:uid="{FBA50D4E-831E-45FA-88F7-084400BF248A}"/>
+    <hyperlink ref="I406" r:id="rId1733" xr:uid="{5FFAD257-BCCF-486A-89AA-35D0E24C339A}"/>
+    <hyperlink ref="J406" r:id="rId1734" xr:uid="{62AD0D89-96E9-4036-8509-25D4DB03278E}"/>
+    <hyperlink ref="F407" r:id="rId1735" xr:uid="{B9A49B29-D6CB-4102-9783-C281A36AF2D7}"/>
+    <hyperlink ref="G407" r:id="rId1736" xr:uid="{E2414974-E4E4-4ECE-B029-FA8B3223D8BB}"/>
+    <hyperlink ref="H407" r:id="rId1737" xr:uid="{B82C7C54-7B10-4872-96A8-7AC5458061B6}"/>
+    <hyperlink ref="F408" r:id="rId1738" xr:uid="{807BDEBD-5CB1-4887-B133-15297EAA4FEC}"/>
+    <hyperlink ref="G408" r:id="rId1739" xr:uid="{2E1632FA-FD9C-4E43-9757-620078E4B158}"/>
+    <hyperlink ref="H408" r:id="rId1740" xr:uid="{17501DB3-0919-4685-9553-E495A02B0AD8}"/>
+    <hyperlink ref="I408" r:id="rId1741" xr:uid="{732D3D09-C65E-4349-8CCF-67E3E1FFE1C0}"/>
+    <hyperlink ref="J408" r:id="rId1742" xr:uid="{ED06ED22-3179-4AF8-8355-141B26BC21C5}"/>
+    <hyperlink ref="F409" r:id="rId1743" xr:uid="{12917BB5-AE59-481B-BDC0-B0216CA5C399}"/>
+    <hyperlink ref="G409" r:id="rId1744" xr:uid="{99C5A8B0-2141-4928-BBD1-744DEE4EE9FA}"/>
+    <hyperlink ref="H409" r:id="rId1745" xr:uid="{8B703717-C0EF-4C66-9F7D-E109214A52F3}"/>
+    <hyperlink ref="I409" r:id="rId1746" xr:uid="{59D6C5DF-C4E3-46EC-BFA2-351F53B55A43}"/>
+    <hyperlink ref="J409" r:id="rId1747" xr:uid="{1610640C-DCAE-4AB6-89B9-5AC825C912B6}"/>
+    <hyperlink ref="F410" r:id="rId1748" xr:uid="{B6372EEA-6D3D-4036-80B3-550214CD0172}"/>
+    <hyperlink ref="G410" r:id="rId1749" xr:uid="{3459A1C9-18D6-496F-B52C-2D46CD33DC34}"/>
+    <hyperlink ref="H410" r:id="rId1750" xr:uid="{47FC2F26-1515-452B-A710-03B228322C0E}"/>
+    <hyperlink ref="F411" r:id="rId1751" xr:uid="{D1D725C0-4EE3-4CA2-A905-794FCCA1A904}"/>
+    <hyperlink ref="G411" r:id="rId1752" xr:uid="{F51FA05A-45B1-478D-838D-B25E4C1A984B}"/>
+    <hyperlink ref="H411" r:id="rId1753" xr:uid="{D08B052C-2128-455E-927A-A5CD1988D2E2}"/>
+    <hyperlink ref="F412" r:id="rId1754" xr:uid="{7B22CBFD-1836-4D46-86BD-8C50BD6EC9D1}"/>
+    <hyperlink ref="G412" r:id="rId1755" xr:uid="{AF0A5EE5-DD7B-4895-A11D-EE41D360974F}"/>
+    <hyperlink ref="H412" r:id="rId1756" xr:uid="{4B436A22-25E8-47E4-A251-FC0E9E9E3D94}"/>
+    <hyperlink ref="F413" r:id="rId1757" xr:uid="{AF265FB0-E787-47DC-A5D7-AED27B129912}"/>
+    <hyperlink ref="G413" r:id="rId1758" xr:uid="{2A54EB22-F3C6-42AC-A86A-567604EFF2B1}"/>
+    <hyperlink ref="H413" r:id="rId1759" xr:uid="{4004F60E-01D7-4BC5-AD6B-60FB99D33C4E}"/>
+    <hyperlink ref="I413" r:id="rId1760" xr:uid="{986E0758-BCCD-40BC-9296-98A95A4B2C63}"/>
+    <hyperlink ref="J413" r:id="rId1761" xr:uid="{BB4A2C17-FE3F-44B6-A173-0127A3FB6EA4}"/>
+    <hyperlink ref="F414" r:id="rId1762" xr:uid="{8490D9CD-2602-4101-B7C2-2C2528086494}"/>
+    <hyperlink ref="G414" r:id="rId1763" xr:uid="{692DC00A-5968-4DFF-B97D-DCE2FB5F6183}"/>
+    <hyperlink ref="H414" r:id="rId1764" xr:uid="{7407FC67-F2CE-4CA4-8C40-06C11FBCA675}"/>
+    <hyperlink ref="I414" r:id="rId1765" xr:uid="{330620D5-34A5-47D0-8319-145310DDE8D0}"/>
+    <hyperlink ref="J414" r:id="rId1766" xr:uid="{AB4F0F27-27AD-492C-A917-42EF61C4F44F}"/>
+    <hyperlink ref="F415" r:id="rId1767" xr:uid="{40073266-781A-4CAA-A48B-B61504E5201D}"/>
+    <hyperlink ref="G415" r:id="rId1768" xr:uid="{BDF3E0CC-88A7-4568-BEBE-447FF450D4AA}"/>
+    <hyperlink ref="H415" r:id="rId1769" xr:uid="{DA768FFB-8AC4-43D1-8488-4D1FEBBA113A}"/>
+    <hyperlink ref="I415" r:id="rId1770" xr:uid="{DB80F349-A8CC-451E-965E-3F88186E2554}"/>
+    <hyperlink ref="J415" r:id="rId1771" xr:uid="{3D13F378-D40C-4792-9D8C-D190AA7F25A4}"/>
+    <hyperlink ref="F416" r:id="rId1772" xr:uid="{0B918885-3C15-468F-BC33-386A50311498}"/>
+    <hyperlink ref="G416" r:id="rId1773" xr:uid="{96B2C9D2-9DF7-4CD3-9DF9-81C6286C23F5}"/>
+    <hyperlink ref="H416" r:id="rId1774" xr:uid="{1F9BE551-3473-4A8F-B68A-91E465B6C14C}"/>
+    <hyperlink ref="I416" r:id="rId1775" xr:uid="{203A75C8-87F6-43A8-AE3F-F349CBBA7C43}"/>
+    <hyperlink ref="J416" r:id="rId1776" xr:uid="{001C312B-51BF-4D41-9081-E038F7D7DF1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1695"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1777"/>
   <tableParts count="1">
-    <tablePart r:id="rId1696"/>
+    <tablePart r:id="rId1778"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00899DD-B316-4AC4-BA8E-EB54B380A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B69324-EBCD-49DD-80D0-89D5888A674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="2875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="2934">
   <si>
     <t>id</t>
   </si>
@@ -8671,6 +8671,183 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1606673/unique-tournament/154/season/78078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tómas Óli</t>
+  </si>
+  <si>
+    <t>Kristjánsson</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tomas-oli-kristjansson/profil/spieler/1072738</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tomas-oli-kristjansson/1979997</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1979997</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1979997/unique-tournament/748/season/79947/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1979997/unique-tournament/748/season/79947/statistics/overall</t>
+  </si>
+  <si>
+    <t>Frej</t>
+  </si>
+  <si>
+    <t>Elkjaer</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/frej-elkjaer/profil/spieler/1121109</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/frej-andersen/1566227</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1566227</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1566227/unique-tournament/748/season/79947/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1566227/unique-tournament/748/season/79947/statistics/overall</t>
+  </si>
+  <si>
+    <t>Juul-Sandberg</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/nikolaj-juul-sandberg/profil/spieler/886339</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nikolaj-juul-sandberg/1385606</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1385606</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1385606/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1385606/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Berthel Askou</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/julius-berthel-askou/profil/spieler/1026588</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jens-berthel-askou/929599</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/929599</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/929599/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/929599/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bismark</t>
+  </si>
+  <si>
+    <t>Edjeodji</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/bismark-edjeodji/profil/spieler/1274269</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bismark-edjeodji/2176933</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2176933</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2176933/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2176933/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Abdoulaye</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/abdoulaye-camara/profil/spieler/1428464</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/abdoulaye-camara/2188050</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2188050</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2188050/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2188050/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tabatadze</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/giorgi-tabatadze/profil/spieler/900480</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/giorgi-tabatadze/1153206</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153206</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153206/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153206/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ousseynou Fall</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ousseynou-fall-seck/profil/spieler/1401774</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ousseynou-fall-seck/2137632</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2137632</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2137632/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2137632/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Acquah</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/stephen-acquah/profil/spieler/1268078</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/stephen-acquah/1629289</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1629289</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1629289/unique-tournament/39/season/76491/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1629289/unique-tournament/39/season/76491/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -8747,8 +8924,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J416" totalsRowShown="0">
-  <autoFilter ref="A1:J416" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J425" totalsRowShown="0">
+  <autoFilter ref="A1:J425" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -9065,10 +9242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J416"/>
+  <dimension ref="A1:J425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="G425" sqref="G425"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21700,6 +21877,276 @@
       </c>
       <c r="J416" s="2" t="s">
         <v>2874</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>482</v>
+      </c>
+      <c r="B417" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C417" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D417" t="s">
+        <v>8</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>2880</v>
+      </c>
+      <c r="J417" s="2" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>483</v>
+      </c>
+      <c r="B418" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C418" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D418" t="s">
+        <v>37</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>2884</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>2885</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>2887</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>484</v>
+      </c>
+      <c r="B419" t="s">
+        <v>772</v>
+      </c>
+      <c r="C419" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D419" t="s">
+        <v>53</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>2890</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>2891</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>2892</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>2893</v>
+      </c>
+      <c r="J419" s="2" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>458</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C420" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D420" t="s">
+        <v>42</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>2898</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>2899</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>459</v>
+      </c>
+      <c r="B421" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D421" t="s">
+        <v>189</v>
+      </c>
+      <c r="E421" t="s">
+        <v>15</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>2903</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>2904</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>2905</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>2906</v>
+      </c>
+      <c r="J421" s="2" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>460</v>
+      </c>
+      <c r="B422" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C422" t="s">
+        <v>261</v>
+      </c>
+      <c r="D422" t="s">
+        <v>8</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>461</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D423" t="s">
+        <v>37</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>462</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D424" t="s">
+        <v>53</v>
+      </c>
+      <c r="E424" t="s">
+        <v>189</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>463</v>
+      </c>
+      <c r="B425" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C425" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D425" t="s">
+        <v>42</v>
+      </c>
+      <c r="E425" t="s">
+        <v>33</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>2932</v>
+      </c>
+      <c r="J425" s="2" t="s">
+        <v>2933</v>
       </c>
     </row>
   </sheetData>
@@ -23481,11 +23928,56 @@
     <hyperlink ref="H416" r:id="rId1774" xr:uid="{1F9BE551-3473-4A8F-B68A-91E465B6C14C}"/>
     <hyperlink ref="I416" r:id="rId1775" xr:uid="{203A75C8-87F6-43A8-AE3F-F349CBBA7C43}"/>
     <hyperlink ref="J416" r:id="rId1776" xr:uid="{001C312B-51BF-4D41-9081-E038F7D7DF1E}"/>
+    <hyperlink ref="F417" r:id="rId1777" xr:uid="{78827FBC-8D52-4C35-888D-7B61BCE170F4}"/>
+    <hyperlink ref="G417" r:id="rId1778" xr:uid="{D290596C-91A0-4BF6-9B6D-E9623E1831D0}"/>
+    <hyperlink ref="H417" r:id="rId1779" xr:uid="{18438FD8-5C87-4EAF-9080-93FF1D868FC5}"/>
+    <hyperlink ref="I417" r:id="rId1780" xr:uid="{4DE6C0E7-1BFC-4232-B8F3-027DE97E2E7F}"/>
+    <hyperlink ref="J417" r:id="rId1781" xr:uid="{CF207CDD-D2E6-473B-B184-C5E3B9F08FE2}"/>
+    <hyperlink ref="F418" r:id="rId1782" xr:uid="{F7AD4D8A-ADC7-4B93-898F-40DD409AD5B7}"/>
+    <hyperlink ref="G418" r:id="rId1783" xr:uid="{94E01915-3B30-462F-98CF-CDB41C9A049C}"/>
+    <hyperlink ref="H418" r:id="rId1784" xr:uid="{8F4C0C7D-AD24-42F0-9821-B42318DECC25}"/>
+    <hyperlink ref="I418" r:id="rId1785" xr:uid="{7282279D-77A3-49F0-9079-1E4F68AE10F4}"/>
+    <hyperlink ref="J418" r:id="rId1786" xr:uid="{4F8A8CF0-EAED-475F-9C95-9E4D3CC575B1}"/>
+    <hyperlink ref="F419" r:id="rId1787" xr:uid="{9359383C-26D8-4E71-BDE0-DA37C2A5231E}"/>
+    <hyperlink ref="G419" r:id="rId1788" xr:uid="{4FACDB71-2C45-46BA-A902-69C23A17A4E4}"/>
+    <hyperlink ref="H419" r:id="rId1789" xr:uid="{3DF0DE90-B673-41A4-8118-7053E6138C31}"/>
+    <hyperlink ref="I419" r:id="rId1790" xr:uid="{CDA538C8-1D69-4CA5-8DA8-4FF0C5D5A38A}"/>
+    <hyperlink ref="J419" r:id="rId1791" xr:uid="{88139470-3A3B-4702-AEB2-CE24888D3D0D}"/>
+    <hyperlink ref="F420" r:id="rId1792" xr:uid="{EAEFC49F-D774-4768-91D8-1F6184BCC200}"/>
+    <hyperlink ref="G420" r:id="rId1793" xr:uid="{C3B06949-00E2-4C3C-8F66-AE9969179F88}"/>
+    <hyperlink ref="H420" r:id="rId1794" xr:uid="{8759808A-8D2F-4835-969F-44B4E0644417}"/>
+    <hyperlink ref="I420" r:id="rId1795" xr:uid="{9B4C8538-CE50-4AA0-AF03-9E02955AD54C}"/>
+    <hyperlink ref="J420" r:id="rId1796" xr:uid="{9A101648-328A-4A6A-9AF7-B3E6813E8C06}"/>
+    <hyperlink ref="F421" r:id="rId1797" xr:uid="{18F65C74-C477-43A8-8AAB-ED2E63030D4D}"/>
+    <hyperlink ref="G421" r:id="rId1798" xr:uid="{8B9AB414-2F29-4F41-805B-9F3E045C4462}"/>
+    <hyperlink ref="H421" r:id="rId1799" xr:uid="{34A33A18-CBD7-4400-A877-C78A89200E76}"/>
+    <hyperlink ref="I421" r:id="rId1800" xr:uid="{6BC5A3C8-2B6F-4857-9A8D-FAA1A14BBF89}"/>
+    <hyperlink ref="J421" r:id="rId1801" xr:uid="{5C03C400-FB36-42A6-A2D8-FC0487E507E5}"/>
+    <hyperlink ref="F422" r:id="rId1802" xr:uid="{BEF4FD97-C6CB-43F5-BF8E-D861943A4403}"/>
+    <hyperlink ref="G422" r:id="rId1803" xr:uid="{A6368C3A-C587-439B-897E-DD854C735E68}"/>
+    <hyperlink ref="H422" r:id="rId1804" xr:uid="{1C456354-DE2F-4461-902A-24C9AB88425B}"/>
+    <hyperlink ref="I422" r:id="rId1805" xr:uid="{15EE5118-41DE-4338-A079-70CAE6FBA777}"/>
+    <hyperlink ref="J422" r:id="rId1806" xr:uid="{D46675DC-C82A-4F59-A8FD-46A7EB24FCB5}"/>
+    <hyperlink ref="F423" r:id="rId1807" xr:uid="{6D946C54-1ECA-4977-ACDD-D88CC595AEEA}"/>
+    <hyperlink ref="G423" r:id="rId1808" xr:uid="{24AC9B01-72E5-45F3-B798-D4F8F2A90C08}"/>
+    <hyperlink ref="H423" r:id="rId1809" xr:uid="{CD8B4BCE-9B45-48C7-860D-0A31A28A85B4}"/>
+    <hyperlink ref="I423" r:id="rId1810" xr:uid="{5B7B4BC5-0988-4D62-81C0-825C49E9244C}"/>
+    <hyperlink ref="J423" r:id="rId1811" xr:uid="{EA30A66B-9DF9-400D-83A0-196FBAC1BDDA}"/>
+    <hyperlink ref="F424" r:id="rId1812" xr:uid="{7B11E0B6-C889-44B9-BE7D-EBD6CD87DE3A}"/>
+    <hyperlink ref="G424" r:id="rId1813" xr:uid="{64610B68-F7D1-4D76-92E2-F866D202CB1A}"/>
+    <hyperlink ref="H424" r:id="rId1814" xr:uid="{2F8EDAAA-5863-4934-B3EC-B3A2EE85DE91}"/>
+    <hyperlink ref="I424" r:id="rId1815" xr:uid="{48B07E10-8E5A-40C5-9929-9D1360A4C8E1}"/>
+    <hyperlink ref="J424" r:id="rId1816" xr:uid="{57D217B1-B05C-4063-B095-B298016E42F9}"/>
+    <hyperlink ref="F425" r:id="rId1817" xr:uid="{522821D2-4EA9-4B8F-901F-472BE3ACB02E}"/>
+    <hyperlink ref="G425" r:id="rId1818" xr:uid="{833FDF36-8586-433B-ACAE-20B0E29236E8}"/>
+    <hyperlink ref="H425" r:id="rId1819" xr:uid="{7830689A-7EB8-45DA-9E14-B831E004877B}"/>
+    <hyperlink ref="I425" r:id="rId1820" xr:uid="{831355AE-B29E-4802-AE48-1015943E0C1A}"/>
+    <hyperlink ref="J425" r:id="rId1821" xr:uid="{D76C72F2-01F0-42CC-9856-D50F0EBCE46F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1777"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1822"/>
   <tableParts count="1">
-    <tablePart r:id="rId1778"/>
+    <tablePart r:id="rId1823"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B69324-EBCD-49DD-80D0-89D5888A674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0934EE2-0CEC-41E9-A1E2-FF487A52D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -9244,8 +9244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
   <dimension ref="A1:J425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21968,7 +21968,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B420" t="s">
         <v>1794</v>
@@ -21997,7 +21997,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="B421" t="s">
         <v>2901</v>
@@ -22029,7 +22029,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B422" t="s">
         <v>2908</v>
@@ -22058,7 +22058,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="B423" t="s">
         <v>1689</v>
@@ -22087,7 +22087,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="B424" t="s">
         <v>2920</v>
@@ -22119,7 +22119,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B425" t="s">
         <v>2927</v>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0934EE2-0CEC-41E9-A1E2-FF487A52D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FEE9FE-EE4F-493A-B568-5ED0DE97F015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="2934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="3104">
   <si>
     <t>id</t>
   </si>
@@ -8848,6 +8848,516 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1629289/unique-tournament/39/season/76491/statistics/overall</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Moro</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/abdul-moro/profil/spieler/1295909</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/abdul-moro/1912955</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1912955</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1912955/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1912955/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Christ</t>
+  </si>
+  <si>
+    <t>Tapé</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/christ-tape/profil/spieler/1270796</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/christ-tape/1869973</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1869973</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1869973/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1869973/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Lucena</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/julius-lucena/profil/spieler/1116647</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/julius-lucena/1957742</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1957742</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1957742/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1957742/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Glindtvad</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/william-glindtvad/profil/spieler/1110414</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/william-glindtvad/1481712</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1481712</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1481712/unique-tournament/47/season/77031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1481712/unique-tournament/47/season/77031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Tiitinen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/otto-tiitinen/profil/spieler/1139748</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/otto-tiitinen/1929645</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929645</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929645/unique-tournament/41/season/70853/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929645/unique-tournament/41/season/70853/statistics/overall</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Lopes</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/antonio-lopes/profil/spieler/1250056</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/antonio-lopes/1835236</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835236</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835236/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835236/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Déo</t>
+  </si>
+  <si>
+    <t>Bassinga</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/deo-bassinga/profil/spieler/1072377</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/deo-bassinga/1464148</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1464148</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1464148/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1464148/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Arouna</t>
+  </si>
+  <si>
+    <t>Ouattara</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/arouna-ouattara/profil/spieler/1133783</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/arouna-ouattara/1542714</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1542714/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1542714</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1542714/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Borges</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/pedro-borges/profil/spieler/1127047</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/pedro-borges/2058664</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2058664</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2058664/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2058664/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Glib</t>
+  </si>
+  <si>
+    <t>Katkov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/glib-katkov/profil/spieler/1330185</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/glib-katkov/1960781</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1960781</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1960781/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1960781/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Aleko</t>
+  </si>
+  <si>
+    <t>Basiladze</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/aleko-basiladze/profil/spieler/900488</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/aleko-basiladze/1153180</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153180</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153180/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153180/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Andria</t>
+  </si>
+  <si>
+    <t>Bartishvili</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/andria-bartishvili/profil/spieler/1329836</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/andria-bartishvili/1960775</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1960775</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1960775/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1960775/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Aleksandre</t>
+  </si>
+  <si>
+    <t>Amisulashvili</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/aleksandre-amisulashvili/profil/spieler/1077440</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/aleksandre-amisulashvili/1426332</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426332</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426332/unique-tournament/704/season/71031/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1426332/unique-tournament/704/season/71031/statistics/overall</t>
+  </si>
+  <si>
+    <t>Farkaš</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/niko-farkas/profil/spieler/1271373</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/niko-farkas/1616044</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1616044</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1616044/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1616044/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Živkovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/filip-zivkovic/profil/spieler/1056459</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/filip-zivkovic/1423488</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423488</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423488/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423488/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>Lovro</t>
+  </si>
+  <si>
+    <t>Kitin</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/lovro-kitin/profil/spieler/1133004</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/lovro-kitin/1485997</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485997/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485997</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485997/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Butic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/simun-butic/profil/spieler/1249161</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/simun-butic/1523953</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1523953</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1523953/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1523953/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Gabrijel</t>
+  </si>
+  <si>
+    <t>Šivalec</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/gabrijel-sivalec/profil/spieler/1448027</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/gabrijel-sivalec/2191245</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2191245</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2191245/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2191245/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Cheikh Mbacke</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/cheikh-mbacke-diop/profil/spieler/1371221</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/cheick-mbacke-diop/1803330</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1803330</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1803330/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1803330/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Matija</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/matija-subotic/profil/spieler/1133013</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/matija-subotic/1596092</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596092</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596092/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1596092/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ivanisevic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jovan-ivanisevic/profil/spieler/1132953</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jovan-ivanisevic/1540093</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1540093</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1540093/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1540093/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/raul-kumar/profil/spieler/1137273</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/raul-kumar/1841798</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1841798</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1841798/unique-tournament/19122/season/77713/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1841798/unique-tournament/19122/season/77713/statistics/overall</t>
+  </si>
+  <si>
+    <t>Taraba</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/filip-taraba/profil/spieler/891575</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/filip-taraba/1425359</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425359</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425359/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425359/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Vrzic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/luka-vrzic/profil/spieler/1234664</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/luka-vrzic/1494814</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1494814</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1494814/unique-tournament/170/season/76980/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1494814/unique-tournament/170/season/76980/statistics/overall</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Pavlešic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/anthony-pavlesic/profil/spieler/1104725</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/anthony-pavlesic/1414973</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1414973</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1414973/unique-tournament/724/season/77306/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1414973/unique-tournament/724/season/77306/statistics/overall</t>
+  </si>
+  <si>
+    <t>Djire</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/abdoulaye-djire/profil/spieler/1120019</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/abdoulaye-djire/1499152</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1499152</t>
   </si>
 </sst>
 </file>
@@ -8924,8 +9434,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J425" totalsRowShown="0">
-  <autoFilter ref="A1:J425" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J451" totalsRowShown="0">
+  <autoFilter ref="A1:J451" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -9242,10 +9752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J425"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22148,6 +22658,774 @@
       <c r="J425" s="2" t="s">
         <v>2933</v>
       </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>491</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D426" t="s">
+        <v>33</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I426" s="2" t="s">
+        <v>2939</v>
+      </c>
+      <c r="J426" s="2" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>492</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D427" t="s">
+        <v>37</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>2946</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>493</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D428" t="s">
+        <v>8</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>2952</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>494</v>
+      </c>
+      <c r="B429" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D429" t="s">
+        <v>42</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J429" s="2" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>495</v>
+      </c>
+      <c r="B430" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C430" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D430" t="s">
+        <v>53</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>496</v>
+      </c>
+      <c r="B431" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D431" t="s">
+        <v>79</v>
+      </c>
+      <c r="E431" t="s">
+        <v>33</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>2971</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>2972</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J431" s="2" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>497</v>
+      </c>
+      <c r="B432" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C432" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D432" t="s">
+        <v>15</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I432" s="2" t="s">
+        <v>2980</v>
+      </c>
+      <c r="J432" s="2" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>498</v>
+      </c>
+      <c r="B433" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D433" t="s">
+        <v>53</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>2985</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="J433" s="2" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>499</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C434" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D434" t="s">
+        <v>58</v>
+      </c>
+      <c r="E434" t="s">
+        <v>79</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>2993</v>
+      </c>
+      <c r="I434" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="J434" s="2" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>500</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D435" t="s">
+        <v>79</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>3000</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="J435" s="2" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>501</v>
+      </c>
+      <c r="B436" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D436" t="s">
+        <v>8</v>
+      </c>
+      <c r="E436" t="s">
+        <v>37</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>3006</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J436" s="2" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>502</v>
+      </c>
+      <c r="B437" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D437" t="s">
+        <v>8</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>3012</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>3014</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J437" s="2" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>503</v>
+      </c>
+      <c r="B438" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D438" t="s">
+        <v>42</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>3019</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>3021</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>3022</v>
+      </c>
+      <c r="J438" s="2" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>504</v>
+      </c>
+      <c r="B439" t="s">
+        <v>569</v>
+      </c>
+      <c r="C439" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D439" t="s">
+        <v>53</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>3026</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>3027</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>505</v>
+      </c>
+      <c r="B440" t="s">
+        <v>357</v>
+      </c>
+      <c r="C440" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D440" t="s">
+        <v>189</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>3033</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>3035</v>
+      </c>
+      <c r="J440" s="2" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>506</v>
+      </c>
+      <c r="B441" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D441" t="s">
+        <v>42</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>3039</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>3041</v>
+      </c>
+      <c r="I441" s="2" t="s">
+        <v>3040</v>
+      </c>
+      <c r="J441" s="2" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>507</v>
+      </c>
+      <c r="B442" t="s">
+        <v>537</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D442" t="s">
+        <v>58</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>3047</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>508</v>
+      </c>
+      <c r="B443" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C443" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D443" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443" t="s">
+        <v>8</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="J443" s="2" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>509</v>
+      </c>
+      <c r="B444" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C444" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D444" t="s">
+        <v>53</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>3058</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>3059</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="J444" s="2" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>510</v>
+      </c>
+      <c r="B445" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C445" t="s">
+        <v>683</v>
+      </c>
+      <c r="D445" t="s">
+        <v>33</v>
+      </c>
+      <c r="E445" t="s">
+        <v>53</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>3066</v>
+      </c>
+      <c r="J445" s="2" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>511</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D446" t="s">
+        <v>42</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>3072</v>
+      </c>
+      <c r="J446" s="2" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>512</v>
+      </c>
+      <c r="B447" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D447" t="s">
+        <v>42</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>3078</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>3079</v>
+      </c>
+      <c r="J447" s="2" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>513</v>
+      </c>
+      <c r="B448" t="s">
+        <v>357</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D448" t="s">
+        <v>79</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>3083</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>3084</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>514</v>
+      </c>
+      <c r="B449" t="s">
+        <v>208</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D449" t="s">
+        <v>8</v>
+      </c>
+      <c r="E449" t="s">
+        <v>58</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>3089</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="J449" s="2" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>515</v>
+      </c>
+      <c r="B450" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C450" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D450" t="s">
+        <v>155</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>3098</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>516</v>
+      </c>
+      <c r="B451" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C451" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D451" t="s">
+        <v>53</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="I451" s="2"/>
+      <c r="J451" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23973,11 +25251,139 @@
     <hyperlink ref="H425" r:id="rId1819" xr:uid="{7830689A-7EB8-45DA-9E14-B831E004877B}"/>
     <hyperlink ref="I425" r:id="rId1820" xr:uid="{831355AE-B29E-4802-AE48-1015943E0C1A}"/>
     <hyperlink ref="J425" r:id="rId1821" xr:uid="{D76C72F2-01F0-42CC-9856-D50F0EBCE46F}"/>
+    <hyperlink ref="F426" r:id="rId1822" xr:uid="{B4777448-E223-4D9E-B9B8-E50FA04A412D}"/>
+    <hyperlink ref="G426" r:id="rId1823" xr:uid="{C2DAD2F9-3B48-486D-A427-306D8C8A8C47}"/>
+    <hyperlink ref="H426" r:id="rId1824" xr:uid="{635AF6BF-3DB5-40CB-87C0-D2D448F5E144}"/>
+    <hyperlink ref="I426" r:id="rId1825" xr:uid="{1DB7E77E-DE57-48C1-A042-009B1EB6D19A}"/>
+    <hyperlink ref="J426" r:id="rId1826" xr:uid="{407C9085-6EC6-4AD7-B8AB-04919981D497}"/>
+    <hyperlink ref="F427" r:id="rId1827" xr:uid="{A0A45D01-CB34-4AA0-9957-A0ACD7CD15EB}"/>
+    <hyperlink ref="G427" r:id="rId1828" xr:uid="{99CBDF3C-7CE7-4B6D-984C-D708EBBA1A29}"/>
+    <hyperlink ref="H427" r:id="rId1829" xr:uid="{40471C55-4196-46A2-AC35-CDF92EB50C83}"/>
+    <hyperlink ref="I427" r:id="rId1830" xr:uid="{5B05F317-ACD6-4DFA-9082-F60E07515065}"/>
+    <hyperlink ref="J427" r:id="rId1831" xr:uid="{5196878A-5035-4936-B1C3-23E554D356BE}"/>
+    <hyperlink ref="F428" r:id="rId1832" xr:uid="{F81A9B82-45AE-444F-A7A7-35B8FA57DF82}"/>
+    <hyperlink ref="G428" r:id="rId1833" xr:uid="{7AAE6906-E08A-42D4-8D73-77248A73CA1A}"/>
+    <hyperlink ref="H428" r:id="rId1834" xr:uid="{83262156-9C38-41EB-B770-E309ECDC59B1}"/>
+    <hyperlink ref="I428" r:id="rId1835" xr:uid="{5BF6FF7D-DCDE-43D9-8F99-BE650A6F36CC}"/>
+    <hyperlink ref="J428" r:id="rId1836" xr:uid="{43477D1E-011D-40BC-B7C6-74719C39881B}"/>
+    <hyperlink ref="F429" r:id="rId1837" xr:uid="{DFEC8575-16C6-416A-98E3-887DC1EF201E}"/>
+    <hyperlink ref="G429" r:id="rId1838" xr:uid="{A24E2742-F105-4359-AF2F-8BF235C07B30}"/>
+    <hyperlink ref="H429" r:id="rId1839" xr:uid="{45E65F38-BB76-4508-87D9-E1F4194D8C39}"/>
+    <hyperlink ref="I429" r:id="rId1840" xr:uid="{9FDD15AC-DF4C-4B53-92AD-D328DE456608}"/>
+    <hyperlink ref="J429" r:id="rId1841" xr:uid="{57026CFB-E854-4F6B-9847-438B89DEE46F}"/>
+    <hyperlink ref="F430" r:id="rId1842" xr:uid="{E8052948-74D8-4FDD-890A-9A432F0B8DBE}"/>
+    <hyperlink ref="G430" r:id="rId1843" xr:uid="{32ABB141-331E-404D-ACFC-9AE6980D72D9}"/>
+    <hyperlink ref="H430" r:id="rId1844" xr:uid="{73617295-F3A2-44DF-9423-696D38862547}"/>
+    <hyperlink ref="I430" r:id="rId1845" xr:uid="{79854D88-5038-4F6B-BE55-205F357F4F4A}"/>
+    <hyperlink ref="J430" r:id="rId1846" xr:uid="{6CC1DE75-A3FD-43B7-981C-65E09542DCC0}"/>
+    <hyperlink ref="F431" r:id="rId1847" xr:uid="{1DD489A2-2B66-49DB-8314-40F05CBBBB2F}"/>
+    <hyperlink ref="G431" r:id="rId1848" xr:uid="{4DF1076B-66CC-48EE-880C-1607B741F022}"/>
+    <hyperlink ref="H431" r:id="rId1849" xr:uid="{AFBFA847-7B13-4F9F-85AF-7B470C3574D3}"/>
+    <hyperlink ref="I431" r:id="rId1850" xr:uid="{833C366D-5806-4C49-9362-376242498DC7}"/>
+    <hyperlink ref="J431" r:id="rId1851" xr:uid="{AB1E1C2B-E42D-483B-A855-C67342B77718}"/>
+    <hyperlink ref="F432" r:id="rId1852" xr:uid="{E43028DA-EBCE-4F1A-83EF-5219C37F1D4F}"/>
+    <hyperlink ref="G432" r:id="rId1853" xr:uid="{E33DFBE2-8EBA-4992-A7C5-39315F6F33F7}"/>
+    <hyperlink ref="H432" r:id="rId1854" xr:uid="{C802B234-0783-49A1-B9DB-C30BC84B39D3}"/>
+    <hyperlink ref="I432" r:id="rId1855" xr:uid="{C2354F35-3CBE-4274-96EF-FAFF6615D6D8}"/>
+    <hyperlink ref="J432" r:id="rId1856" xr:uid="{D58CAF9A-296B-46FB-AC2D-81ADB4313740}"/>
+    <hyperlink ref="F433" r:id="rId1857" xr:uid="{021F986C-ECD6-4D53-B7E9-114A2C2F1307}"/>
+    <hyperlink ref="G433" r:id="rId1858" xr:uid="{5A48562A-B19F-486C-857C-F828F7418EF4}"/>
+    <hyperlink ref="I433" r:id="rId1859" xr:uid="{E58CB6C0-7B19-4612-A33B-C0F0CFCFC5B4}"/>
+    <hyperlink ref="H433" r:id="rId1860" xr:uid="{E7235178-68DF-475D-B7F2-1EB895E4D1BC}"/>
+    <hyperlink ref="J433" r:id="rId1861" xr:uid="{FB1E2D9C-74EC-40B6-89BC-E2EC61594183}"/>
+    <hyperlink ref="F434" r:id="rId1862" xr:uid="{C49F94B4-ECC0-4E24-B35A-4A7359851709}"/>
+    <hyperlink ref="G434" r:id="rId1863" xr:uid="{8BABF7CF-F8AB-4D3F-BF93-5A4607622AE4}"/>
+    <hyperlink ref="H434" r:id="rId1864" xr:uid="{69B0DAF5-22A5-42E2-8130-23355F23D3EB}"/>
+    <hyperlink ref="I434" r:id="rId1865" xr:uid="{E941CF65-8F5C-4949-B446-CA8EAC0C7993}"/>
+    <hyperlink ref="J434" r:id="rId1866" xr:uid="{E7C1BCA5-8B1F-4E17-B94A-3B15EE01C9C5}"/>
+    <hyperlink ref="F435" r:id="rId1867" xr:uid="{C242DE25-8F51-4F0B-863E-89050D63D470}"/>
+    <hyperlink ref="G435" r:id="rId1868" xr:uid="{D9108167-53C7-4C89-9E57-4AFCB5FD2E31}"/>
+    <hyperlink ref="H435" r:id="rId1869" xr:uid="{595E7407-7A97-4F84-97AD-9A51C92B9F03}"/>
+    <hyperlink ref="I435" r:id="rId1870" xr:uid="{879136CA-AE15-4036-B134-4D7603CAAE2C}"/>
+    <hyperlink ref="J435" r:id="rId1871" xr:uid="{C5ADC08E-68F9-4B60-871B-477640C21B1A}"/>
+    <hyperlink ref="F436" r:id="rId1872" xr:uid="{E0927591-3CD1-4FB8-999A-44570B294F0C}"/>
+    <hyperlink ref="G436" r:id="rId1873" xr:uid="{6D321E48-E393-4769-9EEB-DFE8850DDD2B}"/>
+    <hyperlink ref="H436" r:id="rId1874" xr:uid="{B6C90BB3-9D1D-4DB9-8D0D-8F6B16280ECF}"/>
+    <hyperlink ref="I436" r:id="rId1875" xr:uid="{EA56D41C-36DD-4BD0-B0B1-5C23F16A3069}"/>
+    <hyperlink ref="J436" r:id="rId1876" xr:uid="{90E52F9A-BF2A-4A94-A57A-ECEE565302D4}"/>
+    <hyperlink ref="F437" r:id="rId1877" xr:uid="{DA4D488A-9B1E-4529-9A9C-082F6F448AFF}"/>
+    <hyperlink ref="G437" r:id="rId1878" xr:uid="{13C908F4-5FE0-4CA6-B987-156BEE95ECF9}"/>
+    <hyperlink ref="H437" r:id="rId1879" xr:uid="{4948013C-142F-4E38-8D5A-83BCDFFCB28E}"/>
+    <hyperlink ref="I437" r:id="rId1880" xr:uid="{EFE0D3F5-F119-457F-8019-C66ED06F4741}"/>
+    <hyperlink ref="J437" r:id="rId1881" xr:uid="{3E47AF4E-DE20-4B65-A59B-47AB26880E42}"/>
+    <hyperlink ref="F438" r:id="rId1882" xr:uid="{78CC66F1-8B81-410B-80A8-63E9754B52D2}"/>
+    <hyperlink ref="G438" r:id="rId1883" xr:uid="{25C72C19-2AE8-47C7-A9F6-3B10C23B1B5A}"/>
+    <hyperlink ref="H438" r:id="rId1884" xr:uid="{F98DAA04-39A6-4E2B-A616-C0E4B12EE2C8}"/>
+    <hyperlink ref="I438" r:id="rId1885" xr:uid="{8CA6F00F-4161-4A9F-9A58-19359908C0CA}"/>
+    <hyperlink ref="J438" r:id="rId1886" xr:uid="{3D9BABD4-EE6C-4AB2-A7EC-0D1B2A32D99E}"/>
+    <hyperlink ref="F439" r:id="rId1887" xr:uid="{4D62B43D-8748-4A35-A626-4239AF3C2E61}"/>
+    <hyperlink ref="G439" r:id="rId1888" xr:uid="{8B0CA0E9-9FE0-4F03-93A6-4F61170355C3}"/>
+    <hyperlink ref="H439" r:id="rId1889" xr:uid="{0F546C43-946A-4DA0-9001-93BC8A24039E}"/>
+    <hyperlink ref="I439" r:id="rId1890" xr:uid="{BA12006C-7004-4324-A040-736E19CD6EBB}"/>
+    <hyperlink ref="J439" r:id="rId1891" xr:uid="{BFDD87F4-882D-46D1-9F67-C6FF846FE9C5}"/>
+    <hyperlink ref="F440" r:id="rId1892" xr:uid="{A6234051-7E05-485E-985A-1536050F9138}"/>
+    <hyperlink ref="G440" r:id="rId1893" xr:uid="{FCBFEB00-D7AA-4160-ADB8-CC2BFB1CEFBF}"/>
+    <hyperlink ref="H440" r:id="rId1894" xr:uid="{86A28813-FF0C-4034-A3F7-1A2D626091C4}"/>
+    <hyperlink ref="J440" r:id="rId1895" xr:uid="{EF21A151-6EB6-467C-80C6-A9B6AC6CBA76}"/>
+    <hyperlink ref="I440" r:id="rId1896" xr:uid="{27BBE615-C512-467F-BE13-FE28D983F7EE}"/>
+    <hyperlink ref="F441" r:id="rId1897" xr:uid="{0E8ED884-12FC-442C-AEBC-5ACE7550D91C}"/>
+    <hyperlink ref="G441" r:id="rId1898" xr:uid="{EF106542-7757-43D0-B995-CE3C7CBECA16}"/>
+    <hyperlink ref="I441" r:id="rId1899" xr:uid="{EA2AD23C-2528-43BD-BF41-84940ADB91D8}"/>
+    <hyperlink ref="H441" r:id="rId1900" xr:uid="{AAD15CEF-C34A-4CAA-A115-062800AE94ED}"/>
+    <hyperlink ref="J441" r:id="rId1901" xr:uid="{FC162433-32C5-46EF-A3B2-184FFE0C1E90}"/>
+    <hyperlink ref="F442" r:id="rId1902" xr:uid="{77895B7E-9E16-463C-8303-47807065623D}"/>
+    <hyperlink ref="G442" r:id="rId1903" xr:uid="{3F8E1051-99DA-48FB-921A-20FD326830F8}"/>
+    <hyperlink ref="H442" r:id="rId1904" xr:uid="{44C70299-9F97-494C-B0AD-56726DF67DFD}"/>
+    <hyperlink ref="I442" r:id="rId1905" xr:uid="{E74BEEC0-E62F-45B4-9F0C-7C9F1E024EDE}"/>
+    <hyperlink ref="J442" r:id="rId1906" xr:uid="{45534C82-58CC-4A3C-8F0A-823092D081B3}"/>
+    <hyperlink ref="F443" r:id="rId1907" xr:uid="{0DEEC498-B7A0-46FA-BCB7-4E5A1B951341}"/>
+    <hyperlink ref="G443" r:id="rId1908" xr:uid="{94F6C6A7-F6D4-4C00-AB1A-50D83A8D3BD9}"/>
+    <hyperlink ref="H443" r:id="rId1909" xr:uid="{3BB88738-2768-47CD-A6C4-F0A7050039C5}"/>
+    <hyperlink ref="I443" r:id="rId1910" xr:uid="{2E7D9106-E931-40A3-A1AB-31E00ED8BFAD}"/>
+    <hyperlink ref="J443" r:id="rId1911" xr:uid="{15CC8C86-BB82-40B9-82ED-FB11F32BE3D9}"/>
+    <hyperlink ref="F444" r:id="rId1912" xr:uid="{E04EC733-90EA-42F6-8E0C-CB8A5D45FDA4}"/>
+    <hyperlink ref="G444" r:id="rId1913" xr:uid="{E491A7E0-3667-405B-8E4D-F79F03EC740A}"/>
+    <hyperlink ref="H444" r:id="rId1914" xr:uid="{6B70EBFC-512D-4964-933F-A087278428A1}"/>
+    <hyperlink ref="I444" r:id="rId1915" xr:uid="{B044A0D4-6356-4941-93C3-355D9839FCBD}"/>
+    <hyperlink ref="J444" r:id="rId1916" xr:uid="{A65539A9-488A-46AC-9282-816FB1BAC6B2}"/>
+    <hyperlink ref="F445" r:id="rId1917" xr:uid="{B79D4756-1222-4505-8B68-7F8E360FE7E4}"/>
+    <hyperlink ref="G445" r:id="rId1918" xr:uid="{62C5A3A0-E063-4B09-AE3D-C6DD5D422660}"/>
+    <hyperlink ref="H445" r:id="rId1919" xr:uid="{CED76AFC-D868-44DE-BEF4-B62FABA68CE2}"/>
+    <hyperlink ref="I445" r:id="rId1920" xr:uid="{4980AAD2-5C09-4B5E-A48D-0B6A7396A492}"/>
+    <hyperlink ref="J445" r:id="rId1921" xr:uid="{A40CC23B-7B72-4F73-B573-BB7C06A8986A}"/>
+    <hyperlink ref="F446" r:id="rId1922" xr:uid="{1F75F8AD-0E72-41D4-843B-BCB00C7FE608}"/>
+    <hyperlink ref="G446" r:id="rId1923" xr:uid="{7631A9E0-C35F-41AE-B555-48C9F24996C2}"/>
+    <hyperlink ref="H446" r:id="rId1924" xr:uid="{BAEBFB72-8E4D-4468-97B7-564BEF80ECCA}"/>
+    <hyperlink ref="I446" r:id="rId1925" xr:uid="{398E1A93-BE26-48F8-8DEC-7020EFC3BE9B}"/>
+    <hyperlink ref="J446" r:id="rId1926" xr:uid="{16187D72-625E-4F4C-8F19-9545BC6260FB}"/>
+    <hyperlink ref="F447" r:id="rId1927" xr:uid="{59F612C3-E7C7-4692-AC5B-3DAD8CEC20B4}"/>
+    <hyperlink ref="G447" r:id="rId1928" xr:uid="{9C708C5D-A061-4F47-B034-EBA246FEFE3D}"/>
+    <hyperlink ref="H447" r:id="rId1929" xr:uid="{8A1599F2-AF3C-42E7-85F4-64F9124D0C14}"/>
+    <hyperlink ref="I447" r:id="rId1930" xr:uid="{C012610C-B668-47BF-8A1C-3747F03DAA9D}"/>
+    <hyperlink ref="J447" r:id="rId1931" xr:uid="{21309BD5-FE59-4D1E-9156-8BECC0DD111C}"/>
+    <hyperlink ref="F448" r:id="rId1932" xr:uid="{79BFDFB6-7C61-4044-9E48-3C7F667A80B1}"/>
+    <hyperlink ref="G448" r:id="rId1933" xr:uid="{D81FDF51-299E-4D78-9BEA-D1A14A37D0F6}"/>
+    <hyperlink ref="H448" r:id="rId1934" xr:uid="{AD480A4E-C74B-4089-8A12-72FB4AC36FF6}"/>
+    <hyperlink ref="I448" r:id="rId1935" xr:uid="{A6216493-F345-44F3-8E59-B4464595BAA1}"/>
+    <hyperlink ref="J448" r:id="rId1936" xr:uid="{22EF61C1-8E2E-4FBC-B1B3-68990A559385}"/>
+    <hyperlink ref="F449" r:id="rId1937" xr:uid="{F87E329D-A3A9-42D7-A052-512D0A27F687}"/>
+    <hyperlink ref="G449" r:id="rId1938" xr:uid="{FEED50AD-FADB-418F-A296-0F1CF6CCA1D4}"/>
+    <hyperlink ref="H449" r:id="rId1939" xr:uid="{DC92B32C-210C-41BD-BBD9-C9AC0789B3BD}"/>
+    <hyperlink ref="I449" r:id="rId1940" xr:uid="{D367FB42-3DA7-44C5-AC1F-0D5C4E59871D}"/>
+    <hyperlink ref="J449" r:id="rId1941" xr:uid="{4AC4CA30-18C1-452E-8FB3-E6FD24C6CBC4}"/>
+    <hyperlink ref="F450" r:id="rId1942" xr:uid="{D48D1C79-E77F-4F8E-8E07-94C026AEF0EB}"/>
+    <hyperlink ref="G450" r:id="rId1943" xr:uid="{6E8F15AC-9B64-4E18-84AA-E548C9FC8A58}"/>
+    <hyperlink ref="H450" r:id="rId1944" xr:uid="{B7640CBC-D18B-4388-A163-576E454CAF7B}"/>
+    <hyperlink ref="I450" r:id="rId1945" xr:uid="{7C15AF67-672C-491A-AFFA-003CB98EDB3A}"/>
+    <hyperlink ref="J450" r:id="rId1946" xr:uid="{62774ECE-B8D7-4D19-9523-C5CC4CD9DCF0}"/>
+    <hyperlink ref="F451" r:id="rId1947" xr:uid="{09D58DE1-9427-48C0-A6BF-6AE378B4598B}"/>
+    <hyperlink ref="G451" r:id="rId1948" xr:uid="{1476DD3E-6BE8-467E-B357-535AD5000DF9}"/>
+    <hyperlink ref="H451" r:id="rId1949" xr:uid="{D3674BB8-F602-425C-BFBF-EA41008AE052}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1822"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1950"/>
   <tableParts count="1">
-    <tablePart r:id="rId1823"/>
+    <tablePart r:id="rId1951"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FEE9FE-EE4F-493A-B568-5ED0DE97F015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C9E5E-5277-497B-8CE4-6030CCA41F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="3104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="3582">
   <si>
     <t>id</t>
   </si>
@@ -9358,6 +9358,1440 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1499152</t>
+  </si>
+  <si>
+    <t>Jón Breki</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jon-breki-gudmundsson/profil/spieler/1064533</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jon-breki-gudmundsson/1842327</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1842327</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1842327/unique-tournament/188/season/70501/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1842327/unique-tournament/188/season/70501/statistics/overall</t>
+  </si>
+  <si>
+    <t>Galdur</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/galdur-gudmundsson/profil/spieler/927439</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/galdur-gudmundsson/1138017</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1138017</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1138017/unique-tournament/188/season/70501/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1138017/unique-tournament/188/season/70501/statistics/overall</t>
+  </si>
+  <si>
+    <t>Vázquez</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/erik-vazquez/profil/spieler/1186241</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/erik-vazquez/1937342</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1937342</t>
+  </si>
+  <si>
+    <t>Tamás</t>
+  </si>
+  <si>
+    <t>Szűcs</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tamas-szucs/profil/spieler/933240</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tamas-szucs/1153240</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153240</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153240/unique-tournament/187/season/76944/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153240/unique-tournament/187/season/76944/statistics/overall</t>
+  </si>
+  <si>
+    <t>Okeke</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/michael-okeke/profil/spieler/1011669</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/michael-okeke/1402925</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1402925</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1402925/unique-tournament/187/season/76944/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1402925/unique-tournament/187/season/76944/statistics/overall</t>
+  </si>
+  <si>
+    <t>Edvard</t>
+  </si>
+  <si>
+    <t>Pettersen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/edvard-sundbo-pettersen/profil/spieler/939565</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/edvard-pettersen/1424642</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1424642</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1424642/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1424642/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Oprea</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/filip-oprea/profil/spieler/1062212</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/filip-oprea/1857382</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1857382</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1857382/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1857382/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Nilsen-Modebe</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/sean-nilsen-modebe/profil/spieler/1007805</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/sean-nilsen-modebe/1487053</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1487053</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1487053/unique-tournament/11090/season/70833/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1487053/unique-tournament/11090/season/70833/statistics/overall</t>
+  </si>
+  <si>
+    <t>Braut</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/daniel-braut/profil/spieler/993703</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/braut-daniel/1211000</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1211000</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1211000/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1211000/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Fuglestad</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/niklas-fuglestad/profil/spieler/1253757</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/niklas-kemp-fuglestad/1870893</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1870893</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1870893/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1870893/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Olav</t>
+  </si>
+  <si>
+    <t>Mengshoel</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/olav-dobloug-mengshoel/profil/spieler/1276670</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mengshoel-olav-dobloug/1890959</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890959</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890959/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1890959/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ødegård</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/niklas-odegard/profil/spieler/914949</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/niklas-odegard/1134558</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1134558</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1134558/unique-tournament/20/season/70174/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1134558/unique-tournament/20/season/70174/statistics/overall</t>
+  </si>
+  <si>
+    <t>Håheim-Elveseter</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/martin-haheim-elveseter/profil/spieler/1039337</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/haheim-elveseter-martin/1488507</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1488507</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1488507/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1488507/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kjelsen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/aleksander-hammer-kjelsen/profil/spieler/903556</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/aleksander-kjelsen/1177130</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1177130</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1177130/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1177130/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jesper</t>
+  </si>
+  <si>
+    <t>Robertsen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jesper-robertsen/profil/spieler/751475</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/robertsen-jesper-bergset/1065160</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1065160</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1065160/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1065160/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Moctar</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/moctar-diop/profil/spieler/1125610</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/diop-moctar/1485493</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485493</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485493/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1485493/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kparobo</t>
+  </si>
+  <si>
+    <t>Arierhi</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kparobo-arierhi/profil/spieler/1094582</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kparobo-arierhi/1809093</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1809093</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1809093/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1809093/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Wæhler</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/markus-waehler/profil/spieler/1253577</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/markus-wahler/1915996</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1915996</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1915996/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1915996/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Harald</t>
+  </si>
+  <si>
+    <t>Woxen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/harald-woxen/profil/spieler/1213680</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/harald-woxen/1931773</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1931773</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1931773/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1931773/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Eron</t>
+  </si>
+  <si>
+    <t>Isufi</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/eron-isufi/profil/spieler/1291128</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/isufi-eron/1923313</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1923313</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1923313/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1923313/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Masire</t>
+  </si>
+  <si>
+    <t>Sylla</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/massire-sylla/profil/spieler/1256870</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/massire-sylla/1897832</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897832</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897832/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1897832/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Abduljeleel</t>
+  </si>
+  <si>
+    <t>Abdulateef</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/abduljeleel-abdulateef/profil/spieler/1330103</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/abdulateef-abduljeleel/2001946</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2001946</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2001946/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2001946/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Famara</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/famara-camara/profil/spieler/1393963</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/famara-camara/1940450</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1940450</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1940450/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1940450/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Jelen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mateusz-jelen/profil/spieler/1073749</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mateusz-jelen/1510556</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1510556</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1510556/unique-tournament/515/season/77311/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1510556/unique-tournament/515/season/77311/statistics/overall</t>
+  </si>
+  <si>
+    <t>Holewinski</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/axel-holewinski/profil/spieler/999090</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/axel-holewinski/1479466</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1479466</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1479466/unique-tournament/229/season/77153/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1479466/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Cyprian</t>
+  </si>
+  <si>
+    <t>Popielec</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/cyprian-popielec/profil/spieler/1046884</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/cyprian-popielec/1405563</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1405563</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1405563/unique-tournament/202/season/76477/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1405563/unique-tournament/202/season/76477/statistics/overall</t>
+  </si>
+  <si>
+    <t>Krzyzanowski</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jakub-krzyzanowski/profil/spieler/888643#google_vignette</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jakub-krzyzanowski/1423456</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423456</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423456/unique-tournament/229/season/77153/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423456/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Maciej</t>
+  </si>
+  <si>
+    <t>Kuziemka</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/maciej-kuziemka/profil/spieler/901070</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/maciej-kuziemka/1979705</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1979705</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1979705/unique-tournament/229/season/77153/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1979705/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Sanel</t>
+  </si>
+  <si>
+    <t>Saljic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/sanel-saljic/profil/spieler/803967</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/saljic-sanel/1149208</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149208</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149208/unique-tournament/45/season/77382/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1149208/unique-tournament/45/season/77382/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ifeanyi</t>
+  </si>
+  <si>
+    <t>Ndukwe</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ifeanyi-ndukwe/profil/spieler/1167696</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ifeanyi-ndukwe/1929673</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929673</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929673/unique-tournament/135/season/77531/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929673/unique-tournament/135/season/77531/statistics/overall</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Zeidler</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/vincent-zeidler/profil/spieler/1284948</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/zeidler-vincent/2142167</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2142167</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2142167/unique-tournament/135/season/62657/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2142167/unique-tournament/135/season/62657/statistics/overall</t>
+  </si>
+  <si>
+    <t>Feiner</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/fabian-feiner/profil/spieler/772349</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/feiner-fabian/1423467</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423467</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423467/unique-tournament/135/season/77531/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423467/unique-tournament/135/season/77531/statistics/overall</t>
+  </si>
+  <si>
+    <t>Delic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/dino-delic/profil/spieler/1078642</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/dino-delic/1988985</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1988985</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1988985/unique-tournament/135/season/77531/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1988985/unique-tournament/135/season/77531/statistics/overall</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/christopher-wolbl/profil/spieler/1113014</t>
+  </si>
+  <si>
+    <t>Wölbl</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/christopher-wolbl/1929664</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929664</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929664/unique-tournament/135/season/77531/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1929664/unique-tournament/135/season/77531/statistics/overall</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Kitz</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/matteo-kitz/profil/spieler/1046038</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/matteo-kitz/1988994</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1988994</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1988994/unique-tournament/135/season/77531/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1988994/unique-tournament/135/season/77531/statistics/overall</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Stoinov</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/nikita-stoinov/profil/spieler/982567</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nikita-stoioanov/1214868</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1214868</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1214868/unique-tournament/152/season/77312/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1214868/unique-tournament/152/season/77312/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bota</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/alexandru-bota/profil/spieler/1118865</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bota-alexandru/1477485</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1477485</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1477485/unique-tournament/152/season/77312/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1477485/unique-tournament/152/season/77312/statistics/overall</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Biliboc</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/lorenzo-biliboc/profil/spieler/993687</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/lorenzo-biliboc/1476703</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1476703</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1476703/unique-tournament/152/season/77312/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1476703/unique-tournament/152/season/77312/statistics/overall</t>
+  </si>
+  <si>
+    <t>Narcis</t>
+  </si>
+  <si>
+    <t>Ilas</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/narcis-ilas/profil/spieler/992843</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/narcis-cosmin-ilas/1494820</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1494820</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1494820/unique-tournament/152/season/77312/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1494820/unique-tournament/152/season/77312/statistics/overall</t>
+  </si>
+  <si>
+    <t>Sima</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/cristian-sima/profil/spieler/1335803</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/cristian-sima/1976095</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1976095</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1976095/unique-tournament/152/season/77312/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1976095/unique-tournament/152/season/77312/statistics/overall</t>
+  </si>
+  <si>
+    <t>Remus</t>
+  </si>
+  <si>
+    <t>Gutea</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/remus-gutea/profil/spieler/1087172</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/remus-gutea/1444434</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1444434</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1444434/unique-tournament/562/season/79020/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1444434/unique-tournament/562/season/79020/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bogdan</t>
+  </si>
+  <si>
+    <t>Petre</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/bogdan-petre/profil/spieler/1176579</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/bogdan-petre/1947359</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1947359</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1947359/unique-tournament/562/season/79020/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1947359/unique-tournament/562/season/79020/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ianis</t>
+  </si>
+  <si>
+    <t>Doana</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ianis-doana/profil/spieler/1161376</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/ianis-doana/1905543</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1905543</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1905543/unique-tournament/562/season/79020/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1905543/unique-tournament/562/season/79020/statistics/overall</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Udvaros</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/nathan-udvaros/profil/spieler/1197868</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nathan-udvaros/1590957</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1590957</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1590957/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1590957/unique-tournament/211/season/77154/statistics/overall</t>
+  </si>
+  <si>
+    <t>Karol</t>
+  </si>
+  <si>
+    <t>Blaško</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/karol-blasko/profil/spieler/1084447</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/karol-blasko/1587267</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587267</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587267/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1587267/unique-tournament/211/season/77154/statistics/overall</t>
+  </si>
+  <si>
+    <t>Julien Eymard</t>
+  </si>
+  <si>
+    <t>Bationo</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/julien-eymard-bationo/profil/spieler/1380598</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/julien-eymard-bationo/2059818</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2059818</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2059818/unique-tournament/671/season/78576/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2059818/unique-tournament/671/season/78576/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bazdaric</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/antonio-bazdaric/profil/spieler/1009483</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/antonio-bazdaric/1423485</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423485</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423485/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1423485/unique-tournament/211/season/77154/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ťapaj</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/dominik-tapaj/profil/spieler/973315</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/dominik-tapaj/1383237</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1383237</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1383237/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1383237/unique-tournament/211/season/77154/statistics/overall</t>
+  </si>
+  <si>
+    <t>Nejc</t>
+  </si>
+  <si>
+    <t>Viher</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/nejc-viher/profil/spieler/1061937</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/nejc-viher/1584948</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584948</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584948/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584948/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Grlic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/niko-grlic/profil/spieler/1109144</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/niko-grlic/1469993</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1469993</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1469993/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1469993/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Petrovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/zan-petrovic/profil/spieler/1009624</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/zan-petrovic/1584958</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584958</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584958/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584958/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bameyi</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/daniel-bameyi/profil/spieler/1078234</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/daniel-bameyi/1431611</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1431611</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Acimovic</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mateo-acimovic/1584944</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mateo-acimovic/profil/spieler/1009632</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584944</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584944/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584944/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kranjcic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/gal-kranjcic/profil/spieler/991758</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/gal-kranjcic/1405685</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1405685</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1405685/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1405685/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Matičič</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/benjamin-maticic/profil/spieler/1058490</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/benjamin-maticic/1530674</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1530674</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1530674/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1530674/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Juncaj</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/flavio-juncaj/profil/spieler/1229583</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/flavio-juncaj/1894436</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1894436</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1894436/unique-tournament/212/season/77283/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1894436/unique-tournament/212/season/77283/statistics/overall</t>
+  </si>
+  <si>
+    <t>Kristjan</t>
+  </si>
+  <si>
+    <t>Kozar</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kristjan-kozar/profil/spieler/1139787</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kristjan-kozar/1908153</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1908153</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1908153/unique-tournament/532/season/77327/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1908153/unique-tournament/532/season/77327/statistics/overall</t>
+  </si>
+  <si>
+    <t>Adrovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/benjamin-adrovic/profil/spieler/1229584</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/benjamin-adrovic/2168071</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2168071</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2168071/unique-tournament/532/season/77327/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2168071/unique-tournament/532/season/77327/statistics/overall</t>
+  </si>
+  <si>
+    <t>Dokanovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/damjan-djokanovic/profil/spieler/1076521</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/damjan-dokanovic/1983681</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1983681</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1983681/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1983681/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Dordevic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/luka-djordjevic/profil/spieler/897509</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/luka-djordevic/1865407</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1865407</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1865407/unique-tournament/210/season/61448/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1865407/unique-tournament/210/season/61448/statistics/overall</t>
+  </si>
+  <si>
+    <t>Matijasevic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/filip-matijasevic/profil/spieler/1073631</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/filip-matijasevic/1981976</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1981976</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1981976/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1981976/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ciric</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jovan-ciric/profil/spieler/1184675</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jovan-ciric/1595643</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1595643</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1595643/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1595643/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tomovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/stefan-tomovic/profil/spieler/1306264</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/stefan-tomovic/2035083</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2035083</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2035083/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2035083/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Mladenovic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/stefan-mladenovic/profil/spieler/1052798</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/stefan-mladenovic/1584979</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584979</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584979/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1584979/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Brantlind</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/benjamin-brantlind/profil/spieler/1172441</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/benjamin-brantlind/1650623</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1650623</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1650623/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1650623/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tamba</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/abdoulie-tamba/profil/spieler/1446018</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/abdoulie-tamba/2230170</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2230170</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2230170/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2230170/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Busuladzic</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kenan-busuladzic/profil/spieler/1044284</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/busuladzic-kenan/1471065</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1471065</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1471065/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1471065/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Gudjohnsen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/daniel-gudjohnsen/profil/spieler/927094</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/daniel-tristan-gudjohnsen/1153194</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153194</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153194/unique-tournament/679/season/76984/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1153194/unique-tournament/679/season/76984/statistics/overall</t>
+  </si>
+  <si>
+    <t>Skogmar</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/adrian-skogmar/profil/spieler/1150261</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/skogmar-adrian/1503622</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1503622</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1503622/unique-tournament/679/season/76984/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1503622/unique-tournament/679/season/76984/statistics/overall</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Derbaci</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/dorian-derbaci/profil/spieler/995817</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/dorian-derbaci/1417042</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417042</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417042/unique-tournament/216/season/77150/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1417042/unique-tournament/216/season/77150/statistics/overall</t>
+  </si>
+  <si>
+    <t>Altin</t>
+  </si>
+  <si>
+    <t>Azemi</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/altin-azemi/profil/spieler/1267607</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/altin-azemi/2068465</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2068465</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2068465/unique-tournament/216/season/77150/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2068465/unique-tournament/216/season/77150/statistics/overall</t>
+  </si>
+  <si>
+    <t>Noha</t>
+  </si>
+  <si>
+    <t>Lemina</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/noha-lemina/profil/spieler/816124</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/noha-lemina/1145633</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1145633</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1145633/unique-tournament/216/season/77150/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1145633/unique-tournament/216/season/77150/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Pedroso</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jean-pedroso/profil/spieler/1090422</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jean-pedroso/1462756</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1462756</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1462756/unique-tournament/218/season/77625/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1462756/unique-tournament/218/season/77625/statistics/overall</t>
+  </si>
+  <si>
+    <t>Krylo</t>
+  </si>
+  <si>
+    <t>Dihtiar</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kyrylo-digtyar/profil/spieler/1074059</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kyrylo-dihtiar/1425414</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425414</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425414/unique-tournament/691/season/77971/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1425414/unique-tournament/691/season/77971/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -9434,8 +10868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J451" totalsRowShown="0">
-  <autoFilter ref="A1:J451" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J526" totalsRowShown="0">
+  <autoFilter ref="A1:J526" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -9752,10 +11186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J451"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="C456" sqref="C456"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23426,6 +24860,2215 @@
       </c>
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>517</v>
+      </c>
+      <c r="B452" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C452" t="s">
+        <v>800</v>
+      </c>
+      <c r="D452" t="s">
+        <v>53</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="J452" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>518</v>
+      </c>
+      <c r="B453" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C453" t="s">
+        <v>800</v>
+      </c>
+      <c r="D453" t="s">
+        <v>58</v>
+      </c>
+      <c r="E453" t="s">
+        <v>8</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>519</v>
+      </c>
+      <c r="B454" t="s">
+        <v>415</v>
+      </c>
+      <c r="C454" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D454" t="s">
+        <v>8</v>
+      </c>
+      <c r="E454" t="s">
+        <v>58</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="I454" s="2"/>
+      <c r="J454" s="2"/>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>520</v>
+      </c>
+      <c r="B455" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C455" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D455" t="s">
+        <v>189</v>
+      </c>
+      <c r="E455" t="s">
+        <v>8</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>3125</v>
+      </c>
+      <c r="J455" s="2" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>521</v>
+      </c>
+      <c r="B456" t="s">
+        <v>484</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D456" t="s">
+        <v>53</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>3128</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>3131</v>
+      </c>
+      <c r="J456" s="2" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>522</v>
+      </c>
+      <c r="B457" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D457" t="s">
+        <v>53</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>3136</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="J457" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>523</v>
+      </c>
+      <c r="B458" t="s">
+        <v>357</v>
+      </c>
+      <c r="C458" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D458" t="s">
+        <v>37</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>3144</v>
+      </c>
+      <c r="J458" s="2" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>524</v>
+      </c>
+      <c r="B459" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C459" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D459" t="s">
+        <v>15</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="J459" s="2" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>525</v>
+      </c>
+      <c r="B460" t="s">
+        <v>478</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D460" t="s">
+        <v>53</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="J460" s="2" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>526</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D461" t="s">
+        <v>58</v>
+      </c>
+      <c r="E461" t="s">
+        <v>8</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J461" s="2" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>527</v>
+      </c>
+      <c r="B462" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C462" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D462" t="s">
+        <v>15</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="J462" s="2" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>528</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D463" t="s">
+        <v>53</v>
+      </c>
+      <c r="E463" t="s">
+        <v>189</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>3175</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="J463" s="2" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>529</v>
+      </c>
+      <c r="B464" t="s">
+        <v>62</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D464" t="s">
+        <v>8</v>
+      </c>
+      <c r="E464" t="s">
+        <v>58</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="J464" s="2" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>530</v>
+      </c>
+      <c r="B465" t="s">
+        <v>368</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D465" t="s">
+        <v>42</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>3188</v>
+      </c>
+      <c r="J465" s="2" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>531</v>
+      </c>
+      <c r="B466" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D466" t="s">
+        <v>58</v>
+      </c>
+      <c r="E466" t="s">
+        <v>79</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>3192</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="J466" s="2" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>532</v>
+      </c>
+      <c r="B467" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C467" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D467" t="s">
+        <v>15</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J467" s="2" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>533</v>
+      </c>
+      <c r="B468" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C468" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D468" t="s">
+        <v>15</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J468" s="2" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>534</v>
+      </c>
+      <c r="B469" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C469" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D469" t="s">
+        <v>15</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>535</v>
+      </c>
+      <c r="B470" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C470" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D470" t="s">
+        <v>189</v>
+      </c>
+      <c r="E470" t="s">
+        <v>53</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="J470" s="2" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>536</v>
+      </c>
+      <c r="B471" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C471" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D471" t="s">
+        <v>53</v>
+      </c>
+      <c r="E471" t="s">
+        <v>33</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>3226</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>3227</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>537</v>
+      </c>
+      <c r="B472" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C472" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D472" t="s">
+        <v>42</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>538</v>
+      </c>
+      <c r="B473" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D473" t="s">
+        <v>58</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>3242</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>3243</v>
+      </c>
+      <c r="J473" s="2" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>539</v>
+      </c>
+      <c r="B474" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C474" t="s">
+        <v>261</v>
+      </c>
+      <c r="D474" t="s">
+        <v>53</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>3246</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J474" s="2" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>540</v>
+      </c>
+      <c r="B475" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D475" t="s">
+        <v>155</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G475" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="I475" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J475" s="2" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>541</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D476" t="s">
+        <v>155</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="G476" s="2" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H476" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="J476" s="2" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>542</v>
+      </c>
+      <c r="B477" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D477" t="s">
+        <v>189</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>3268</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>3269</v>
+      </c>
+      <c r="J477" s="2" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>543</v>
+      </c>
+      <c r="B478" t="s">
+        <v>458</v>
+      </c>
+      <c r="C478" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D478" t="s">
+        <v>37</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="G478" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>3275</v>
+      </c>
+      <c r="J478" s="2" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>544</v>
+      </c>
+      <c r="B479" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D479" t="s">
+        <v>58</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J479" s="2" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>545</v>
+      </c>
+      <c r="B480" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C480" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D480" t="s">
+        <v>189</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="G480" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="J480" s="2" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>546</v>
+      </c>
+      <c r="B481" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D481" t="s">
+        <v>42</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>3294</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>3296</v>
+      </c>
+      <c r="J481" s="2" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>547</v>
+      </c>
+      <c r="B482" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C482" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D482" t="s">
+        <v>58</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="G482" s="2" t="s">
+        <v>3301</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J482" s="2" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>548</v>
+      </c>
+      <c r="B483" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C483" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D483" t="s">
+        <v>42</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="G483" s="2" t="s">
+        <v>3307</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>3309</v>
+      </c>
+      <c r="J483" s="2" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>549</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C484" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D484" t="s">
+        <v>58</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="H484" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="J484" s="2" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>550</v>
+      </c>
+      <c r="B485" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D485" t="s">
+        <v>58</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>551</v>
+      </c>
+      <c r="B486" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C486" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D486" t="s">
+        <v>42</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>3327</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>552</v>
+      </c>
+      <c r="B487" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D487" t="s">
+        <v>42</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>3333</v>
+      </c>
+      <c r="G487" s="2" t="s">
+        <v>3334</v>
+      </c>
+      <c r="H487" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="I487" s="2" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J487" s="2" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>553</v>
+      </c>
+      <c r="B488" t="s">
+        <v>502</v>
+      </c>
+      <c r="C488" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D488" t="s">
+        <v>53</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>3342</v>
+      </c>
+      <c r="J488" s="2" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>554</v>
+      </c>
+      <c r="B489" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C489" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D489" t="s">
+        <v>58</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J489" s="2" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>555</v>
+      </c>
+      <c r="B490" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C490" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D490" t="s">
+        <v>79</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>3354</v>
+      </c>
+      <c r="H490" s="2" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I490" s="2" t="s">
+        <v>3356</v>
+      </c>
+      <c r="J490" s="2" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>556</v>
+      </c>
+      <c r="B491" t="s">
+        <v>510</v>
+      </c>
+      <c r="C491" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D491" t="s">
+        <v>8</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>3361</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="J491" s="2" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>557</v>
+      </c>
+      <c r="B492" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C492" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D492" t="s">
+        <v>8</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="H492" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I492" s="2" t="s">
+        <v>3369</v>
+      </c>
+      <c r="J492" s="2" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>558</v>
+      </c>
+      <c r="B493" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C493" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D493" t="s">
+        <v>8</v>
+      </c>
+      <c r="E493" t="s">
+        <v>189</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="H493" s="2" t="s">
+        <v>3375</v>
+      </c>
+      <c r="I493" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="J493" s="2" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>559</v>
+      </c>
+      <c r="B494" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C494" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D494" t="s">
+        <v>189</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G494" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H494" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I494" s="2" t="s">
+        <v>3383</v>
+      </c>
+      <c r="J494" s="2" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>560</v>
+      </c>
+      <c r="B495" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C495" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D495" t="s">
+        <v>53</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>3387</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I495" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="J495" s="2" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>561</v>
+      </c>
+      <c r="B496" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C496" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D496" t="s">
+        <v>53</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H496" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I496" s="2" t="s">
+        <v>3397</v>
+      </c>
+      <c r="J496" s="2" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>562</v>
+      </c>
+      <c r="B497" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C497" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D497" t="s">
+        <v>42</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="I497" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="J497" s="2" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>563</v>
+      </c>
+      <c r="B498" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C498" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D498" t="s">
+        <v>53</v>
+      </c>
+      <c r="E498" t="s">
+        <v>33</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G498" s="2" t="s">
+        <v>3408</v>
+      </c>
+      <c r="H498" s="2" t="s">
+        <v>3409</v>
+      </c>
+      <c r="I498" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="J498" s="2" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>564</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C499" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D499" t="s">
+        <v>155</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="H499" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="I499" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="J499" s="2" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>565</v>
+      </c>
+      <c r="B500" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C500" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D500" t="s">
+        <v>53</v>
+      </c>
+      <c r="E500" t="s">
+        <v>33</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="H500" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I500" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="J500" s="2" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>566</v>
+      </c>
+      <c r="B501" t="s">
+        <v>569</v>
+      </c>
+      <c r="C501" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D501" t="s">
+        <v>8</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="I501" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="J501" s="2" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>567</v>
+      </c>
+      <c r="B502" t="s">
+        <v>597</v>
+      </c>
+      <c r="C502" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D502" t="s">
+        <v>37</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G502" s="2" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H502" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I502" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="J502" s="2" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>568</v>
+      </c>
+      <c r="B503" t="s">
+        <v>478</v>
+      </c>
+      <c r="C503" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D503" t="s">
+        <v>79</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G503" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="H503" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="I503" s="2"/>
+      <c r="J503" s="2"/>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>569</v>
+      </c>
+      <c r="B504" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C504" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D504" t="s">
+        <v>189</v>
+      </c>
+      <c r="E504" t="s">
+        <v>58</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="G504" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="H504" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I504" s="2" t="s">
+        <v>3446</v>
+      </c>
+      <c r="J504" s="2" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>570</v>
+      </c>
+      <c r="B505" t="s">
+        <v>626</v>
+      </c>
+      <c r="C505" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D505" t="s">
+        <v>189</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>3450</v>
+      </c>
+      <c r="H505" s="2" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I505" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="J505" s="2" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>571</v>
+      </c>
+      <c r="B506" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C506" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D506" t="s">
+        <v>155</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="H506" s="2" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I506" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="J506" s="2" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>572</v>
+      </c>
+      <c r="B507" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C507" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D507" t="s">
+        <v>58</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G507" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="H507" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="I507" s="2" t="s">
+        <v>3466</v>
+      </c>
+      <c r="J507" s="2" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>573</v>
+      </c>
+      <c r="B508" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C508" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D508" t="s">
+        <v>15</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>3470</v>
+      </c>
+      <c r="G508" s="2" t="s">
+        <v>3471</v>
+      </c>
+      <c r="H508" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="I508" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="J508" s="2" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>574</v>
+      </c>
+      <c r="B509" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C509" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D509" t="s">
+        <v>53</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="H509" s="2" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I509" s="2" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J509" s="2" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>575</v>
+      </c>
+      <c r="B510" t="s">
+        <v>87</v>
+      </c>
+      <c r="C510" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D510" t="s">
+        <v>15</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="H510" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="I510" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="J510" s="2" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>576</v>
+      </c>
+      <c r="B511" t="s">
+        <v>208</v>
+      </c>
+      <c r="C511" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D511" t="s">
+        <v>15</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="G511" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="H511" s="2" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I511" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="J511" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>577</v>
+      </c>
+      <c r="B512" t="s">
+        <v>357</v>
+      </c>
+      <c r="C512" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D512" t="s">
+        <v>189</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="H512" s="2" t="s">
+        <v>3496</v>
+      </c>
+      <c r="I512" s="2" t="s">
+        <v>3497</v>
+      </c>
+      <c r="J512" s="2" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>578</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C513" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D513" t="s">
+        <v>8</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="H513" s="2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="I513" s="2" t="s">
+        <v>3503</v>
+      </c>
+      <c r="J513" s="2" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>579</v>
+      </c>
+      <c r="B514" t="s">
+        <v>29</v>
+      </c>
+      <c r="C514" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D514" t="s">
+        <v>189</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H514" s="2" t="s">
+        <v>3508</v>
+      </c>
+      <c r="I514" s="2" t="s">
+        <v>3509</v>
+      </c>
+      <c r="J514" s="2" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>580</v>
+      </c>
+      <c r="B515" t="s">
+        <v>29</v>
+      </c>
+      <c r="C515" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D515" t="s">
+        <v>79</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>3513</v>
+      </c>
+      <c r="H515" s="2" t="s">
+        <v>3514</v>
+      </c>
+      <c r="I515" s="2" t="s">
+        <v>3515</v>
+      </c>
+      <c r="J515" s="2" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>581</v>
+      </c>
+      <c r="B516" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D516" t="s">
+        <v>58</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="H516" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="I516" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="J516" s="2" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>582</v>
+      </c>
+      <c r="B517" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C517" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D517" t="s">
+        <v>189</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>3518</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H517" s="2" t="s">
+        <v>3520</v>
+      </c>
+      <c r="I517" s="2" t="s">
+        <v>3521</v>
+      </c>
+      <c r="J517" s="2" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>583</v>
+      </c>
+      <c r="B518" t="s">
+        <v>820</v>
+      </c>
+      <c r="C518" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D518" t="s">
+        <v>42</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="H518" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="I518" s="2" t="s">
+        <v>3527</v>
+      </c>
+      <c r="J518" s="2" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>584</v>
+      </c>
+      <c r="B519" t="s">
+        <v>835</v>
+      </c>
+      <c r="C519" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D519" t="s">
+        <v>53</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>3531</v>
+      </c>
+      <c r="H519" s="2" t="s">
+        <v>3532</v>
+      </c>
+      <c r="I519" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="J519" s="2" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>585</v>
+      </c>
+      <c r="B520" t="s">
+        <v>478</v>
+      </c>
+      <c r="C520" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D520" t="s">
+        <v>15</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>3536</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>3537</v>
+      </c>
+      <c r="H520" s="2" t="s">
+        <v>3538</v>
+      </c>
+      <c r="I520" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J520" s="2" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>586</v>
+      </c>
+      <c r="B521" t="s">
+        <v>496</v>
+      </c>
+      <c r="C521" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D521" t="s">
+        <v>79</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>3542</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>3543</v>
+      </c>
+      <c r="H521" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="I521" s="2" t="s">
+        <v>3545</v>
+      </c>
+      <c r="J521" s="2" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>587</v>
+      </c>
+      <c r="B522" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C522" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D522" t="s">
+        <v>53</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>3549</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>3550</v>
+      </c>
+      <c r="H522" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="I522" s="2" t="s">
+        <v>3552</v>
+      </c>
+      <c r="J522" s="2" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>588</v>
+      </c>
+      <c r="B523" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C523" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D523" t="s">
+        <v>189</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>3556</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>3557</v>
+      </c>
+      <c r="H523" s="2" t="s">
+        <v>3558</v>
+      </c>
+      <c r="I523" s="2" t="s">
+        <v>3559</v>
+      </c>
+      <c r="J523" s="2" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>589</v>
+      </c>
+      <c r="B524" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C524" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+      <c r="E524" t="s">
+        <v>189</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>3564</v>
+      </c>
+      <c r="H524" s="2" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I524" s="2" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J524" s="2" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>590</v>
+      </c>
+      <c r="B525" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C525" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D525" t="s">
+        <v>42</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>3571</v>
+      </c>
+      <c r="H525" s="2" t="s">
+        <v>3572</v>
+      </c>
+      <c r="I525" s="2" t="s">
+        <v>3573</v>
+      </c>
+      <c r="J525" s="2" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>591</v>
+      </c>
+      <c r="B526" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C526" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D526" t="s">
+        <v>37</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="H526" s="2" t="s">
+        <v>3579</v>
+      </c>
+      <c r="I526" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="J526" s="2" t="s">
+        <v>3581</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25379,11 +29022,381 @@
     <hyperlink ref="F451" r:id="rId1947" xr:uid="{09D58DE1-9427-48C0-A6BF-6AE378B4598B}"/>
     <hyperlink ref="G451" r:id="rId1948" xr:uid="{1476DD3E-6BE8-467E-B357-535AD5000DF9}"/>
     <hyperlink ref="H451" r:id="rId1949" xr:uid="{D3674BB8-F602-425C-BFBF-EA41008AE052}"/>
+    <hyperlink ref="F452" r:id="rId1950" xr:uid="{7D1D76F9-3391-48A9-B708-FAA361FC7590}"/>
+    <hyperlink ref="G452" r:id="rId1951" xr:uid="{DEE2BED5-71DA-44E8-A192-C3AAB7FC60C9}"/>
+    <hyperlink ref="H452" r:id="rId1952" xr:uid="{78FDD5F9-5839-48D5-92B0-9B2C1541BEF4}"/>
+    <hyperlink ref="I452" r:id="rId1953" xr:uid="{29FE60BA-3532-4A9B-B570-6C3714F754B0}"/>
+    <hyperlink ref="J452" r:id="rId1954" xr:uid="{E3C6050F-1AEE-41D0-959B-19F9488BD378}"/>
+    <hyperlink ref="F453" r:id="rId1955" xr:uid="{3195660C-23D2-4919-9772-0146A9ADBDBF}"/>
+    <hyperlink ref="G453" r:id="rId1956" xr:uid="{2D7A94A0-F65A-48F6-9FE4-5BB9529B47F6}"/>
+    <hyperlink ref="H453" r:id="rId1957" xr:uid="{67A2452C-9AAE-4713-B309-03346D8F7285}"/>
+    <hyperlink ref="I453" r:id="rId1958" xr:uid="{C4AB73DA-DB4F-454E-9F3F-7246B68F9C50}"/>
+    <hyperlink ref="J453" r:id="rId1959" xr:uid="{B92E46B5-DEFE-4CC5-BDDE-45E23F98BE61}"/>
+    <hyperlink ref="F454" r:id="rId1960" xr:uid="{015E1922-D271-4423-A6BA-4BC2AE4D6111}"/>
+    <hyperlink ref="G454" r:id="rId1961" xr:uid="{4BF6812E-842B-46D0-B13E-3D22EB7AE0A6}"/>
+    <hyperlink ref="F455" r:id="rId1962" xr:uid="{7A167451-0F61-44DB-B8B1-C7078CF6BC2B}"/>
+    <hyperlink ref="G455" r:id="rId1963" xr:uid="{C933D222-A064-48D1-8EAE-F8FF0D558ACD}"/>
+    <hyperlink ref="H454" r:id="rId1964" xr:uid="{C425254E-0E3E-4B06-A3FC-DB254E604970}"/>
+    <hyperlink ref="H455" r:id="rId1965" xr:uid="{5C72E896-6CAB-4285-9BC1-FA54EE34B5F8}"/>
+    <hyperlink ref="I455" r:id="rId1966" xr:uid="{560E9A98-6BDE-4731-BDA4-5570183736B9}"/>
+    <hyperlink ref="J455" r:id="rId1967" xr:uid="{C5B0A6B2-C629-472C-8A2B-5A13EAD5419D}"/>
+    <hyperlink ref="F456" r:id="rId1968" xr:uid="{15FB010E-3490-4F4B-B750-DF379A8205B5}"/>
+    <hyperlink ref="G456" r:id="rId1969" xr:uid="{CDB8CD58-F6A8-4DB7-B90F-1A59C3DDBA32}"/>
+    <hyperlink ref="H456" r:id="rId1970" xr:uid="{ADAFB4D5-AA15-454D-A450-56111B091D7F}"/>
+    <hyperlink ref="I456" r:id="rId1971" xr:uid="{E8507898-C037-4554-A0B8-F07036F3E101}"/>
+    <hyperlink ref="J456" r:id="rId1972" xr:uid="{029E38C6-44CE-4268-A990-62C9A35BA42A}"/>
+    <hyperlink ref="F457" r:id="rId1973" xr:uid="{18A8A851-3E1E-4AFA-80CD-6A1D1903E5D7}"/>
+    <hyperlink ref="G457" r:id="rId1974" xr:uid="{73B6BEB5-9BA5-4427-B61C-9638804EA487}"/>
+    <hyperlink ref="H457" r:id="rId1975" xr:uid="{26ED5A42-DEB9-46E2-94CD-282AAB88F60A}"/>
+    <hyperlink ref="I457" r:id="rId1976" xr:uid="{1442F7DA-E0CC-4A5B-8737-7D5E1A01C117}"/>
+    <hyperlink ref="J457" r:id="rId1977" xr:uid="{DF55A6D3-576B-48D2-9AE2-45E711EE0862}"/>
+    <hyperlink ref="F458" r:id="rId1978" xr:uid="{71EC985A-D1DC-43AE-8F25-25893FD1CEF7}"/>
+    <hyperlink ref="G458" r:id="rId1979" xr:uid="{1BF19984-9D83-4A9F-B94C-D6A5A2025107}"/>
+    <hyperlink ref="H458" r:id="rId1980" xr:uid="{0AEB853D-FD15-4280-826A-E63041CD78CF}"/>
+    <hyperlink ref="I458" r:id="rId1981" xr:uid="{3D795B83-B006-4B2B-AC63-DA1B76FA5EC6}"/>
+    <hyperlink ref="J458" r:id="rId1982" xr:uid="{7DC6F407-8270-4FC4-99BD-E3ED4298769F}"/>
+    <hyperlink ref="F459" r:id="rId1983" xr:uid="{18E50C24-2327-45E4-A9FD-56324F2AADA0}"/>
+    <hyperlink ref="G459" r:id="rId1984" xr:uid="{027E086C-10A9-4C65-B4D7-4C0C56BC5C7E}"/>
+    <hyperlink ref="H459" r:id="rId1985" xr:uid="{52319DF2-38D5-4ED8-ABF1-AA45602B564F}"/>
+    <hyperlink ref="I459" r:id="rId1986" xr:uid="{8B27EDAA-B5F7-427C-919E-4CA78CF0FCAA}"/>
+    <hyperlink ref="J459" r:id="rId1987" xr:uid="{BB5F2B57-1AE9-470E-B136-E59D909C76DD}"/>
+    <hyperlink ref="F460" r:id="rId1988" xr:uid="{2E40D98F-47BB-4B88-8BFF-4326F46E988E}"/>
+    <hyperlink ref="G460" r:id="rId1989" xr:uid="{3C4BFF9D-4465-48B8-B235-924C285F4D4B}"/>
+    <hyperlink ref="H460" r:id="rId1990" xr:uid="{E4580200-B574-4B84-87B3-90101829A10D}"/>
+    <hyperlink ref="I460" r:id="rId1991" xr:uid="{1BE67E55-7E05-486F-97AF-3A916BA89773}"/>
+    <hyperlink ref="J460" r:id="rId1992" xr:uid="{859684A9-B3D1-4E4A-B3BF-60C3BA837AF3}"/>
+    <hyperlink ref="F461" r:id="rId1993" xr:uid="{382A25EA-392B-484E-B697-EB7054524A6B}"/>
+    <hyperlink ref="G461" r:id="rId1994" xr:uid="{57D7506C-DD24-42A1-B096-8EE62D10AC2E}"/>
+    <hyperlink ref="H461" r:id="rId1995" xr:uid="{814E8E55-F686-4533-8A08-061EE38188BB}"/>
+    <hyperlink ref="I461" r:id="rId1996" xr:uid="{77F3B18A-6B43-401C-9ECD-7D4BC758F560}"/>
+    <hyperlink ref="J461" r:id="rId1997" xr:uid="{78C76842-0F34-4707-BFAC-0A30AA6D0108}"/>
+    <hyperlink ref="F462" r:id="rId1998" xr:uid="{B6E36E1D-A659-46C9-BC24-AB8CBD45C600}"/>
+    <hyperlink ref="G462" r:id="rId1999" xr:uid="{53DA4D03-3114-4BBC-92F0-83FBF5AE67C6}"/>
+    <hyperlink ref="H462" r:id="rId2000" xr:uid="{0329FB7E-09AE-4C43-923D-EB409A150E5F}"/>
+    <hyperlink ref="I462" r:id="rId2001" xr:uid="{6BDC033A-E302-4DFA-A30D-6E8A34ECBB07}"/>
+    <hyperlink ref="J462" r:id="rId2002" xr:uid="{CFA32CB4-51C8-4A38-A527-D876B7F25835}"/>
+    <hyperlink ref="F463" r:id="rId2003" xr:uid="{D1D8C4CE-DA3B-4238-8004-C4790995C1F9}"/>
+    <hyperlink ref="G463" r:id="rId2004" xr:uid="{BF17566A-73BE-445B-A41C-96199F9DD66A}"/>
+    <hyperlink ref="H463" r:id="rId2005" xr:uid="{2182DCF8-B526-4663-B94D-D1BFE0BCB9C6}"/>
+    <hyperlink ref="I463" r:id="rId2006" xr:uid="{2CF5F9F5-15A7-4AD0-934E-BCEFBBBEC9DC}"/>
+    <hyperlink ref="J463" r:id="rId2007" xr:uid="{A1F195E6-2064-4858-A35D-B47946788E68}"/>
+    <hyperlink ref="F464" r:id="rId2008" xr:uid="{B6FB3DA5-84E4-47FA-B921-BB724D24429E}"/>
+    <hyperlink ref="G464" r:id="rId2009" xr:uid="{C8E24A6E-720C-41AE-9989-0BC16E9F9503}"/>
+    <hyperlink ref="H464" r:id="rId2010" xr:uid="{7E946646-2A32-49A8-BA92-AE0AE155C270}"/>
+    <hyperlink ref="I464" r:id="rId2011" xr:uid="{80A39ABA-161C-4456-A827-85A065A74DD5}"/>
+    <hyperlink ref="J464" r:id="rId2012" xr:uid="{78B86823-FE4D-4058-A3CB-A788C4D4FD39}"/>
+    <hyperlink ref="F465" r:id="rId2013" xr:uid="{B33CB5B6-FC63-4185-9680-8FD00072DF68}"/>
+    <hyperlink ref="G465" r:id="rId2014" xr:uid="{A6BE8145-84A6-4F5C-8406-F5988905C833}"/>
+    <hyperlink ref="H465" r:id="rId2015" xr:uid="{11A573EA-5E06-411D-B5FF-487CA0FA8A57}"/>
+    <hyperlink ref="I465" r:id="rId2016" xr:uid="{78233EC1-459C-4A2F-A7F8-A2113758CA98}"/>
+    <hyperlink ref="J465" r:id="rId2017" xr:uid="{5DBD8B4F-05A7-44C7-AB8E-D97340C0E8D3}"/>
+    <hyperlink ref="F466" r:id="rId2018" xr:uid="{CDBAB791-8B3B-49A0-95E7-9774B7C6F413}"/>
+    <hyperlink ref="G466" r:id="rId2019" xr:uid="{F4B8505D-1A7C-4C20-A87F-5AEE36F3FBDF}"/>
+    <hyperlink ref="H466" r:id="rId2020" xr:uid="{49EBBB23-9FA9-429F-B5E7-587B85499EBA}"/>
+    <hyperlink ref="I466" r:id="rId2021" xr:uid="{7FC35A34-0300-4CF2-A8E6-D3EA6FD38CDE}"/>
+    <hyperlink ref="J466" r:id="rId2022" xr:uid="{8BF24147-8600-4C5B-950B-F13881B9ED3C}"/>
+    <hyperlink ref="F467" r:id="rId2023" xr:uid="{A7D0A39F-2999-4212-A257-71A4218CE607}"/>
+    <hyperlink ref="G467" r:id="rId2024" xr:uid="{D0B8B091-7F7B-41B8-AC72-46D6DE74DD34}"/>
+    <hyperlink ref="H467" r:id="rId2025" xr:uid="{B520407F-FC4B-4A8D-9275-65D3EACADFFF}"/>
+    <hyperlink ref="I467" r:id="rId2026" xr:uid="{A0BFDFD7-1F0A-40DD-A461-6DAE43870872}"/>
+    <hyperlink ref="J467" r:id="rId2027" xr:uid="{FFEFE253-57A2-4C4C-B18F-2561FB7C9ABA}"/>
+    <hyperlink ref="F468" r:id="rId2028" xr:uid="{57FA4F81-365A-4EAB-90E3-5B7F797DBE14}"/>
+    <hyperlink ref="G468" r:id="rId2029" xr:uid="{8F3D9B5E-3E9D-4EB5-B880-32E4DAD0995D}"/>
+    <hyperlink ref="H468" r:id="rId2030" xr:uid="{A4ABAF5B-EAD1-43A3-8CAA-357537FFE97D}"/>
+    <hyperlink ref="I468" r:id="rId2031" xr:uid="{1D999991-3BEC-4E05-A671-1E9F91C812E5}"/>
+    <hyperlink ref="J468" r:id="rId2032" xr:uid="{C38718AD-BB7F-4FD0-BC67-81F040CBF468}"/>
+    <hyperlink ref="F469" r:id="rId2033" xr:uid="{B1BBAEA9-3812-416D-944E-E03C5B57BD46}"/>
+    <hyperlink ref="G469" r:id="rId2034" xr:uid="{37DA782F-B719-47D3-9DC6-F01CA366154B}"/>
+    <hyperlink ref="H469" r:id="rId2035" xr:uid="{A34EAE50-D615-4BC2-97AE-1CE5950EFA88}"/>
+    <hyperlink ref="I469" r:id="rId2036" xr:uid="{111DDF8D-EEE8-4FAD-B972-2B6524D87C0B}"/>
+    <hyperlink ref="J469" r:id="rId2037" xr:uid="{9997A58D-C86C-4A78-9D33-2054034A8075}"/>
+    <hyperlink ref="F470" r:id="rId2038" xr:uid="{1CFEFE20-BB19-4DA9-9D57-BED867C61134}"/>
+    <hyperlink ref="G470" r:id="rId2039" xr:uid="{02AF27C4-97CD-4CC9-80B0-115FB34F1C72}"/>
+    <hyperlink ref="H470" r:id="rId2040" xr:uid="{CC425C9A-D6CB-4A7F-A72F-A212E84049F7}"/>
+    <hyperlink ref="I470" r:id="rId2041" xr:uid="{1E0957D1-26DE-4D8E-8275-F7D2A3685DFE}"/>
+    <hyperlink ref="J470" r:id="rId2042" xr:uid="{C78992CC-C59B-4B04-9D11-044F96E8AAA4}"/>
+    <hyperlink ref="F471" r:id="rId2043" xr:uid="{4C9B8BB8-A914-46D6-9D7B-1BBA46C36173}"/>
+    <hyperlink ref="G471" r:id="rId2044" xr:uid="{9D774ECB-B000-445E-AA67-BECD3DF39DF6}"/>
+    <hyperlink ref="H471" r:id="rId2045" xr:uid="{E5AF9E63-6756-4456-9C2D-E30DAB9C73B1}"/>
+    <hyperlink ref="I471" r:id="rId2046" xr:uid="{500F83F7-F8F5-471E-AE29-946CFB751722}"/>
+    <hyperlink ref="J471" r:id="rId2047" xr:uid="{74A7FC56-60E5-4A1F-832B-A7AE6F627B22}"/>
+    <hyperlink ref="F472" r:id="rId2048" xr:uid="{B8F32F2F-5D6C-456A-9A36-4D32E366F8DD}"/>
+    <hyperlink ref="G472" r:id="rId2049" xr:uid="{9B27932B-F06F-4556-B616-155B14D9049E}"/>
+    <hyperlink ref="H472" r:id="rId2050" xr:uid="{BEB4F958-C18A-48F0-B36E-1E896413FD6E}"/>
+    <hyperlink ref="I472" r:id="rId2051" xr:uid="{A88480E0-5EF4-4081-B169-997E4CB1276B}"/>
+    <hyperlink ref="J472" r:id="rId2052" xr:uid="{1122D993-87FB-4506-9A99-9236BA745240}"/>
+    <hyperlink ref="F473" r:id="rId2053" xr:uid="{A81AD647-DA5B-470C-A5C6-19DBD1688C93}"/>
+    <hyperlink ref="G473" r:id="rId2054" xr:uid="{56663EC3-E635-4292-B04E-0B4E5D675678}"/>
+    <hyperlink ref="H473" r:id="rId2055" xr:uid="{7AC58156-08DF-4EED-AFD4-AD87D1051B17}"/>
+    <hyperlink ref="I473" r:id="rId2056" xr:uid="{37191A01-495D-48C8-BBD9-23D3DD555599}"/>
+    <hyperlink ref="J473" r:id="rId2057" xr:uid="{828B0652-2D09-4A3A-B43B-EB5FC0B1B962}"/>
+    <hyperlink ref="F474" r:id="rId2058" xr:uid="{54C7859C-5585-4622-BEC0-CB008DFACC1E}"/>
+    <hyperlink ref="G474" r:id="rId2059" xr:uid="{864FA3CB-E003-47C6-A0DC-2E2B9C42128F}"/>
+    <hyperlink ref="H474" r:id="rId2060" xr:uid="{EB4FE7BC-1107-43C2-A2FC-CEE946489629}"/>
+    <hyperlink ref="I474" r:id="rId2061" xr:uid="{BFD612ED-C3CB-4426-8258-DB9CF27D108A}"/>
+    <hyperlink ref="J474" r:id="rId2062" xr:uid="{77B4D327-6A0E-45A4-842E-83707D1BED14}"/>
+    <hyperlink ref="F475" r:id="rId2063" xr:uid="{E08AD768-E384-4048-AC49-59AA4685529D}"/>
+    <hyperlink ref="G475" r:id="rId2064" xr:uid="{B8252A42-6E54-40E0-883C-95081B4B17E5}"/>
+    <hyperlink ref="H475" r:id="rId2065" xr:uid="{645FD253-A468-4A4F-8F97-82C53ACC9FDB}"/>
+    <hyperlink ref="I475" r:id="rId2066" xr:uid="{6638FF35-6076-48EA-BF5E-6090A280B2EF}"/>
+    <hyperlink ref="J475" r:id="rId2067" xr:uid="{8611B5D7-8CC2-4282-B4FB-B336C4F8807F}"/>
+    <hyperlink ref="F476" r:id="rId2068" xr:uid="{12708CC2-0BEE-4CBC-A8BE-887071AA1069}"/>
+    <hyperlink ref="G476" r:id="rId2069" xr:uid="{B6AF8A50-D4D8-494C-8FD2-7539638974FD}"/>
+    <hyperlink ref="H476" r:id="rId2070" xr:uid="{A96A122E-6923-4BC4-A18E-5F1FBCCD7152}"/>
+    <hyperlink ref="I476" r:id="rId2071" xr:uid="{C9B6B9F9-7A50-43D6-A6E1-1DDA2F1D1495}"/>
+    <hyperlink ref="J476" r:id="rId2072" xr:uid="{0076F424-057A-401B-AB09-6636C770620F}"/>
+    <hyperlink ref="F477" r:id="rId2073" xr:uid="{4D8CB8A8-D10C-4CD0-958D-44F08AEBB22E}"/>
+    <hyperlink ref="G477" r:id="rId2074" xr:uid="{5AFEB094-8F54-4CAE-9E97-CDF366F5CAD1}"/>
+    <hyperlink ref="H477" r:id="rId2075" xr:uid="{7A12436B-618C-4B03-8EA2-33C44DA1BC58}"/>
+    <hyperlink ref="I477" r:id="rId2076" xr:uid="{246848A1-A9C3-470A-BFB7-E02C4AC05586}"/>
+    <hyperlink ref="J477" r:id="rId2077" xr:uid="{CD4A6CED-3A72-4C63-AD21-ADC88A32EA67}"/>
+    <hyperlink ref="F478" r:id="rId2078" location="google_vignette" xr:uid="{5B640C5D-767F-46CA-8FFE-11A6088CE9B4}"/>
+    <hyperlink ref="H478" r:id="rId2079" xr:uid="{1D61F6D4-8B37-4D44-96DB-A9BF28EC8363}"/>
+    <hyperlink ref="G478" r:id="rId2080" xr:uid="{7AAD0F15-3CD6-49FF-9914-E71ADB6CA1C3}"/>
+    <hyperlink ref="I478" r:id="rId2081" xr:uid="{54BBDDA1-2A29-46BC-A7F7-2AD589FE0148}"/>
+    <hyperlink ref="J478" r:id="rId2082" xr:uid="{5F74BF49-61EF-4B9C-90CD-F82D336C5ACD}"/>
+    <hyperlink ref="F479" r:id="rId2083" xr:uid="{71959127-2F5B-4D39-B5ED-56DF77BEAF73}"/>
+    <hyperlink ref="G479" r:id="rId2084" xr:uid="{98754B5E-0414-4D37-9E90-57FCBE107E30}"/>
+    <hyperlink ref="H479" r:id="rId2085" xr:uid="{7EEDD409-9F28-4B7A-A76B-D97A044A2642}"/>
+    <hyperlink ref="I479" r:id="rId2086" xr:uid="{C043AA5E-6696-4771-AE0E-76C714302D02}"/>
+    <hyperlink ref="J479" r:id="rId2087" xr:uid="{07F4F5FB-7CEC-4597-8A99-1461DF9CBF81}"/>
+    <hyperlink ref="F480" r:id="rId2088" xr:uid="{990EB787-CF80-41B6-B6AD-BE50B2283736}"/>
+    <hyperlink ref="G480" r:id="rId2089" xr:uid="{749086E6-1678-4403-8C04-045FCB354E61}"/>
+    <hyperlink ref="H480" r:id="rId2090" xr:uid="{D72BD201-0D47-4F91-B27D-F3F86D9A1255}"/>
+    <hyperlink ref="I480" r:id="rId2091" xr:uid="{0C1130D6-AD3B-4E75-8621-1B32DB22DF60}"/>
+    <hyperlink ref="J480" r:id="rId2092" xr:uid="{DFF39B8F-D431-4DAB-92D1-DFBBF165192A}"/>
+    <hyperlink ref="F481" r:id="rId2093" xr:uid="{3DF46561-06EE-48F0-89B3-354695C7208A}"/>
+    <hyperlink ref="G481" r:id="rId2094" xr:uid="{D5C74A95-D0F9-41F1-B5F3-A894A18AF22B}"/>
+    <hyperlink ref="H481" r:id="rId2095" xr:uid="{50F73C6D-C9AE-43AF-B948-4D71CBE73F00}"/>
+    <hyperlink ref="I481" r:id="rId2096" xr:uid="{DEE4FED1-87AB-4BDE-990C-CA9A1BFBF40C}"/>
+    <hyperlink ref="J481" r:id="rId2097" xr:uid="{459D9F8A-0490-4076-A099-6D3A5CDF59E3}"/>
+    <hyperlink ref="F482" r:id="rId2098" xr:uid="{6EA67BBB-D7D7-459C-AB67-CCF3714A87DC}"/>
+    <hyperlink ref="G482" r:id="rId2099" xr:uid="{0EED22D0-6FA6-4B41-AC04-76313B5D585A}"/>
+    <hyperlink ref="H482" r:id="rId2100" xr:uid="{052B2A8C-6D6D-464C-8BD4-BB283AA479F7}"/>
+    <hyperlink ref="I482" r:id="rId2101" xr:uid="{64EA8265-1D11-4E96-AA2A-D8547C49C8EF}"/>
+    <hyperlink ref="J482" r:id="rId2102" xr:uid="{7323C4C1-F832-4504-9BEA-D4240EEA12BD}"/>
+    <hyperlink ref="F483" r:id="rId2103" xr:uid="{84080D60-71B5-44F8-A922-5C09A5D331A4}"/>
+    <hyperlink ref="G483" r:id="rId2104" xr:uid="{3F66F4A6-BCFD-41ED-AEF6-7ED7C9FE6034}"/>
+    <hyperlink ref="H483" r:id="rId2105" xr:uid="{B7D6A1D1-81E1-487A-82CB-953E46EB58DA}"/>
+    <hyperlink ref="I483" r:id="rId2106" xr:uid="{CE6556C5-AEBA-44A9-AAA1-73164C58FCDF}"/>
+    <hyperlink ref="J483" r:id="rId2107" xr:uid="{13939D19-B5E5-45CE-93F8-786F575B8471}"/>
+    <hyperlink ref="F484" r:id="rId2108" xr:uid="{78EBA2DE-50B3-4ED1-8FA8-848DD4B12D3B}"/>
+    <hyperlink ref="G484" r:id="rId2109" xr:uid="{9EA236A7-8B02-41A7-887F-0E7FE992A199}"/>
+    <hyperlink ref="H484" r:id="rId2110" xr:uid="{258DA761-9EA7-4535-8328-6008D86CFEDA}"/>
+    <hyperlink ref="I484" r:id="rId2111" xr:uid="{27C1364D-2F29-49EE-95EF-1937244C6A95}"/>
+    <hyperlink ref="J484" r:id="rId2112" xr:uid="{1CCAC1F0-72BC-4CB9-B152-5AEC129B6231}"/>
+    <hyperlink ref="F485" r:id="rId2113" xr:uid="{6C395DC3-A2C1-42E2-9741-DD2626DAB568}"/>
+    <hyperlink ref="G485" r:id="rId2114" xr:uid="{CB5F4B95-E8A0-418E-876E-0F40B2D7B08D}"/>
+    <hyperlink ref="H485" r:id="rId2115" xr:uid="{0E3BA13D-EFC0-4A6F-A44E-F2ABF1AAA1DE}"/>
+    <hyperlink ref="I485" r:id="rId2116" xr:uid="{E7806588-2841-427F-86E9-D453DE75F9E7}"/>
+    <hyperlink ref="J485" r:id="rId2117" xr:uid="{190D82BF-CA0E-428F-BC3D-3710C1B4CCE1}"/>
+    <hyperlink ref="F486" r:id="rId2118" xr:uid="{A1AF3E08-9D14-4E03-930F-CC8599544017}"/>
+    <hyperlink ref="G486" r:id="rId2119" xr:uid="{9ED75F58-E1FD-4056-BDEB-172A3F4BB5EE}"/>
+    <hyperlink ref="H486" r:id="rId2120" xr:uid="{D6ED0CB9-2B78-42BC-9DE5-EF36B624F7C7}"/>
+    <hyperlink ref="I486" r:id="rId2121" xr:uid="{91885420-6B2F-4199-813B-AECCADBE6ACA}"/>
+    <hyperlink ref="J486" r:id="rId2122" xr:uid="{729E6BD3-A4BE-4649-8E8E-87D15EDB1B8C}"/>
+    <hyperlink ref="F487" r:id="rId2123" xr:uid="{C60B4731-CB88-4983-9D79-E92C7D20ACB1}"/>
+    <hyperlink ref="G487" r:id="rId2124" xr:uid="{B45676ED-63AD-457B-BCCD-72A81AD72D5B}"/>
+    <hyperlink ref="H487" r:id="rId2125" xr:uid="{F4D89F2A-CF06-4FDC-8017-E1FDB389A0B2}"/>
+    <hyperlink ref="I487" r:id="rId2126" xr:uid="{DF42659E-0B8B-426C-B9F5-DD0ED3540B8B}"/>
+    <hyperlink ref="J487" r:id="rId2127" xr:uid="{7C812447-D3EA-4BA3-B0FD-20A45D7A558D}"/>
+    <hyperlink ref="F488" r:id="rId2128" xr:uid="{08706C64-DAAB-43A1-91BF-697CA8EFFDA8}"/>
+    <hyperlink ref="G488" r:id="rId2129" xr:uid="{B3EFA31A-B5C6-4D24-A698-386399CD6FFB}"/>
+    <hyperlink ref="H488" r:id="rId2130" xr:uid="{B94D7D2E-D1C7-4933-B9EA-2440135E5BA2}"/>
+    <hyperlink ref="I488" r:id="rId2131" xr:uid="{C03DF51D-162C-425D-BBB2-1D64AE2EC746}"/>
+    <hyperlink ref="J488" r:id="rId2132" xr:uid="{72B60722-53EC-49B6-BC87-86C219A0D18B}"/>
+    <hyperlink ref="F489" r:id="rId2133" xr:uid="{B0DD711A-E7D7-4A1D-87D0-7EBF06414ED3}"/>
+    <hyperlink ref="G489" r:id="rId2134" xr:uid="{6BD5B6D5-8D5D-45BD-9F4C-48680F28FEF5}"/>
+    <hyperlink ref="H489" r:id="rId2135" xr:uid="{416B52FF-4536-40F4-BB31-6BEAABA13EB7}"/>
+    <hyperlink ref="I489" r:id="rId2136" xr:uid="{A2D4634F-B8FD-455A-9687-1BB8E99D8523}"/>
+    <hyperlink ref="J489" r:id="rId2137" xr:uid="{3A79B941-E5AF-47C7-8C85-AE70CA60362C}"/>
+    <hyperlink ref="F490" r:id="rId2138" xr:uid="{A5F4E782-8DD4-4239-A27D-7A7011845900}"/>
+    <hyperlink ref="G490" r:id="rId2139" xr:uid="{8DD44027-22CA-43A6-BF63-6A7472149FA3}"/>
+    <hyperlink ref="H490" r:id="rId2140" xr:uid="{993E89C6-D5CC-4ED2-9ED1-93118FEDF15C}"/>
+    <hyperlink ref="I490" r:id="rId2141" xr:uid="{F8C6CABA-F3B7-4F3A-8D64-E9AFCAD5207E}"/>
+    <hyperlink ref="J490" r:id="rId2142" xr:uid="{EDC4C5E1-0E98-45F0-BB4B-3B1610DED537}"/>
+    <hyperlink ref="F491" r:id="rId2143" xr:uid="{897EE689-2E21-4872-9240-08D8F5541979}"/>
+    <hyperlink ref="G491" r:id="rId2144" xr:uid="{60DE3FF8-2C2D-4B81-9CE3-3EC7DDBD354B}"/>
+    <hyperlink ref="H491" r:id="rId2145" xr:uid="{56B48406-00C0-4933-A9E5-C92870129611}"/>
+    <hyperlink ref="I491" r:id="rId2146" xr:uid="{ECB0C79A-CF58-43BD-BEB7-6C8D81623585}"/>
+    <hyperlink ref="J491" r:id="rId2147" xr:uid="{ABAA12B9-6BF2-46F8-8022-AC280DB03C84}"/>
+    <hyperlink ref="F492" r:id="rId2148" xr:uid="{5FF0268F-EEC1-4E4E-8E97-2E6FA459F79F}"/>
+    <hyperlink ref="G492" r:id="rId2149" xr:uid="{D2FB6E3A-C372-49F4-B143-03BB8389556B}"/>
+    <hyperlink ref="H492" r:id="rId2150" xr:uid="{317B1526-86F2-4FF7-B8F8-35D1B47FB166}"/>
+    <hyperlink ref="I492" r:id="rId2151" xr:uid="{175C2EB0-2BEE-424E-891D-706CB522F9E9}"/>
+    <hyperlink ref="J492" r:id="rId2152" xr:uid="{CD142717-76E7-4E5C-B35E-930019EDF847}"/>
+    <hyperlink ref="F493" r:id="rId2153" xr:uid="{F7A536D4-2E13-4220-99F5-CE0ED7A6E306}"/>
+    <hyperlink ref="G493" r:id="rId2154" xr:uid="{0A3508C5-4F7A-42B6-BED6-AA421D45ED44}"/>
+    <hyperlink ref="H493" r:id="rId2155" xr:uid="{738AAA13-52EA-4C41-8023-67021369ED16}"/>
+    <hyperlink ref="I493" r:id="rId2156" xr:uid="{45F26C81-9C45-4E2A-BBBF-11A769293DC6}"/>
+    <hyperlink ref="J493" r:id="rId2157" xr:uid="{5DD4EBB4-4093-4B36-AC93-8201A1B2DD40}"/>
+    <hyperlink ref="F494" r:id="rId2158" xr:uid="{544561EF-4CC4-4FAF-9C12-5C47EF030C7F}"/>
+    <hyperlink ref="G494" r:id="rId2159" xr:uid="{0ADC751A-FB5C-4193-A035-271DB7FB74C5}"/>
+    <hyperlink ref="H494" r:id="rId2160" xr:uid="{2ED18F59-6958-4B05-944B-433A9E2F5F7E}"/>
+    <hyperlink ref="I494" r:id="rId2161" xr:uid="{EAF8A99D-3216-48DB-980E-BE6D2AB3D979}"/>
+    <hyperlink ref="J494" r:id="rId2162" xr:uid="{68EA95E7-BC40-4153-B66D-D4E10523E939}"/>
+    <hyperlink ref="F495" r:id="rId2163" xr:uid="{3979B7A1-2770-4E9D-BF4B-EFE4BBC50E7E}"/>
+    <hyperlink ref="G495" r:id="rId2164" xr:uid="{47875D93-6F6D-4F8B-860D-4FC6DF915FF3}"/>
+    <hyperlink ref="H495" r:id="rId2165" xr:uid="{5F7220BB-7A62-4880-889F-492561F2896D}"/>
+    <hyperlink ref="I495" r:id="rId2166" xr:uid="{CE1B721A-5B61-450F-9D90-405FCFD6F836}"/>
+    <hyperlink ref="J495" r:id="rId2167" xr:uid="{F1375085-7380-49AF-B4D1-3261B7C0E79A}"/>
+    <hyperlink ref="F496" r:id="rId2168" xr:uid="{984DA139-DC2E-476D-9824-8AD8D41BD333}"/>
+    <hyperlink ref="G496" r:id="rId2169" xr:uid="{9EC33D5F-FDA5-46B7-96D3-F25796361D36}"/>
+    <hyperlink ref="H496" r:id="rId2170" xr:uid="{440D71F7-572A-4FFF-9C04-2D2EAE43D627}"/>
+    <hyperlink ref="I496" r:id="rId2171" xr:uid="{207E74EE-9510-464E-A47D-74E560AFC56F}"/>
+    <hyperlink ref="J496" r:id="rId2172" xr:uid="{E5A6252D-5F60-46E9-9796-BC65315E3551}"/>
+    <hyperlink ref="F497" r:id="rId2173" xr:uid="{6415335D-9FFA-4AA5-AD9B-3B6EEB240FCA}"/>
+    <hyperlink ref="G497" r:id="rId2174" xr:uid="{8FAB2A64-6599-41B8-B092-4CA2685DFD38}"/>
+    <hyperlink ref="H497" r:id="rId2175" xr:uid="{6C89C4D3-DBDB-405B-B45A-C109EBD53F5F}"/>
+    <hyperlink ref="I497" r:id="rId2176" xr:uid="{075CC0DA-760B-4563-854D-99FFAC4F6017}"/>
+    <hyperlink ref="J497" r:id="rId2177" xr:uid="{1515CDED-68FC-4E63-97C8-64745B308716}"/>
+    <hyperlink ref="F498" r:id="rId2178" xr:uid="{00F02A2B-DB14-4880-BE42-AA30906979D4}"/>
+    <hyperlink ref="G498" r:id="rId2179" xr:uid="{EBB4FF94-471A-4912-B128-759C54C8F411}"/>
+    <hyperlink ref="H498" r:id="rId2180" xr:uid="{01C9A4C8-484D-4B32-A218-656171809CAB}"/>
+    <hyperlink ref="I498" r:id="rId2181" xr:uid="{2C0FB3F7-A6E8-47C2-B1BA-60CE59A44653}"/>
+    <hyperlink ref="J498" r:id="rId2182" xr:uid="{4AA8C70C-3FC7-4A17-A57D-82B682A006EB}"/>
+    <hyperlink ref="F499" r:id="rId2183" xr:uid="{EDF28BC5-3E8F-44EA-914F-E18CFD8E020B}"/>
+    <hyperlink ref="G499" r:id="rId2184" xr:uid="{6DC83E0C-B623-4B2F-BF57-163733F1F486}"/>
+    <hyperlink ref="H499" r:id="rId2185" xr:uid="{4A44B0CD-246F-4C25-8843-1DA3F3097123}"/>
+    <hyperlink ref="I499" r:id="rId2186" xr:uid="{7AF33691-158E-4407-9503-4BF31EFCDBF2}"/>
+    <hyperlink ref="J499" r:id="rId2187" xr:uid="{E1720CA3-FBF8-4580-8CF0-6341678071D0}"/>
+    <hyperlink ref="F500" r:id="rId2188" xr:uid="{00A7C165-D3EA-4EF7-9310-0557B808C97C}"/>
+    <hyperlink ref="G500" r:id="rId2189" xr:uid="{9CF01243-6E79-4313-B5F8-020B38EF2BA9}"/>
+    <hyperlink ref="H500" r:id="rId2190" xr:uid="{DD006880-A8EB-42AA-98B9-6764AFFD3AE2}"/>
+    <hyperlink ref="I500" r:id="rId2191" xr:uid="{49018521-8182-44EB-A8C6-A0AE8C1A8B06}"/>
+    <hyperlink ref="J500" r:id="rId2192" xr:uid="{8A823BEB-4E67-48EF-815C-25CA05A69E5A}"/>
+    <hyperlink ref="F501" r:id="rId2193" xr:uid="{D91B242E-AC7C-4E59-BBC1-6484C17C44CA}"/>
+    <hyperlink ref="G501" r:id="rId2194" xr:uid="{8E2593F5-754D-471B-96DB-8BE57D033C03}"/>
+    <hyperlink ref="H501" r:id="rId2195" xr:uid="{C3B40EC3-8FAF-478B-B64E-4848FAC1ED7D}"/>
+    <hyperlink ref="I501" r:id="rId2196" xr:uid="{692AB5C6-BEA9-474E-9747-E3209965CDB0}"/>
+    <hyperlink ref="J501" r:id="rId2197" xr:uid="{27B77150-4D01-4C26-ADEC-DBC7941B7AF8}"/>
+    <hyperlink ref="F502" r:id="rId2198" xr:uid="{53A8DDB3-38EB-4920-B9A4-913C197B8A16}"/>
+    <hyperlink ref="G502" r:id="rId2199" xr:uid="{D7C668EB-1580-44BE-BC00-E145FC6A4460}"/>
+    <hyperlink ref="H502" r:id="rId2200" xr:uid="{5F426CA9-F38C-441C-BCC4-76B7E4233C05}"/>
+    <hyperlink ref="I502" r:id="rId2201" xr:uid="{1B1F2763-CA63-4D07-8A52-40D59CCB8A67}"/>
+    <hyperlink ref="J502" r:id="rId2202" xr:uid="{70760CA1-D6B0-484E-A877-2E2739C0C775}"/>
+    <hyperlink ref="F503" r:id="rId2203" xr:uid="{35FEE03E-F9DE-4A2B-8D2C-26539DF31392}"/>
+    <hyperlink ref="G503" r:id="rId2204" xr:uid="{4A9CB080-A54E-4EFE-A6E6-B0E17A862829}"/>
+    <hyperlink ref="H503" r:id="rId2205" xr:uid="{67B4E21F-A0E8-44DC-A431-BCA533B5F96D}"/>
+    <hyperlink ref="G504" r:id="rId2206" xr:uid="{FF81F20C-8DAF-4301-BDBB-5C3D3F139D55}"/>
+    <hyperlink ref="H504" r:id="rId2207" xr:uid="{20A50D7F-0E1D-4214-BC9F-54DF4FE61525}"/>
+    <hyperlink ref="I504" r:id="rId2208" xr:uid="{69095DFB-095F-4978-93AB-D13A34862560}"/>
+    <hyperlink ref="J504" r:id="rId2209" xr:uid="{2B05B3A8-8E2A-46A1-8489-E79CB02E0DF4}"/>
+    <hyperlink ref="F505" r:id="rId2210" xr:uid="{D9C36AD9-8FE3-4C70-98CA-FE0AA30D0300}"/>
+    <hyperlink ref="G505" r:id="rId2211" xr:uid="{76A50466-6081-4401-858B-1E6EFC147FD6}"/>
+    <hyperlink ref="H505" r:id="rId2212" xr:uid="{F196B795-A268-4564-BEBF-DD39A6C7EB5E}"/>
+    <hyperlink ref="I505" r:id="rId2213" xr:uid="{247370E1-2CBD-4E8F-A4C1-521FAD02070F}"/>
+    <hyperlink ref="J505" r:id="rId2214" xr:uid="{21785800-34F4-4C6A-B581-493C6FAF98D4}"/>
+    <hyperlink ref="F506" r:id="rId2215" xr:uid="{47754D08-1CBB-4BD4-9FA7-9290B0668462}"/>
+    <hyperlink ref="G506" r:id="rId2216" xr:uid="{36A89A03-4828-4953-A1C5-3A34AC8CD8FC}"/>
+    <hyperlink ref="H506" r:id="rId2217" xr:uid="{C031E0F5-E8AA-496C-8648-8BBDE2585661}"/>
+    <hyperlink ref="I506" r:id="rId2218" xr:uid="{0A94EADD-B0C9-42B4-92C0-683EF109E281}"/>
+    <hyperlink ref="J506" r:id="rId2219" xr:uid="{55BE9EB3-4A5E-4F9F-866B-4A2C5B64AFEA}"/>
+    <hyperlink ref="F507" r:id="rId2220" xr:uid="{9F0BAF9A-3D28-4DF3-90E7-1B22F6B77C3A}"/>
+    <hyperlink ref="G507" r:id="rId2221" xr:uid="{80028FA5-A101-416F-84EA-8843B7A3A9C5}"/>
+    <hyperlink ref="H507" r:id="rId2222" xr:uid="{7D6F7954-A400-49FF-A879-C106DFC053C3}"/>
+    <hyperlink ref="I507" r:id="rId2223" xr:uid="{402996D2-A97F-4BE5-A9AD-052E57B18D7E}"/>
+    <hyperlink ref="J507" r:id="rId2224" xr:uid="{9ECB667C-4A50-416E-BD50-A51106749E8E}"/>
+    <hyperlink ref="F508" r:id="rId2225" xr:uid="{CECD8A92-1ED7-41B0-8F3B-BF1A671B8D2B}"/>
+    <hyperlink ref="G508" r:id="rId2226" xr:uid="{AC435519-B0FB-45B1-820C-539BDCB84859}"/>
+    <hyperlink ref="H508" r:id="rId2227" xr:uid="{A66D5B06-584C-4589-A041-52DF34ACD606}"/>
+    <hyperlink ref="I508" r:id="rId2228" xr:uid="{7A70B277-08E4-48D8-97B8-277FD9E2535C}"/>
+    <hyperlink ref="J508" r:id="rId2229" xr:uid="{5082FFE7-AE26-4C15-8316-C6E9DD851BCE}"/>
+    <hyperlink ref="F509" r:id="rId2230" xr:uid="{EE691F27-C408-4075-A1CE-79690AE70FE8}"/>
+    <hyperlink ref="G509" r:id="rId2231" xr:uid="{6114E52D-CAF2-4A64-8213-89AADB1DFA80}"/>
+    <hyperlink ref="H509" r:id="rId2232" xr:uid="{89969A62-A1FA-447D-B0CE-57560AE54B15}"/>
+    <hyperlink ref="I509" r:id="rId2233" xr:uid="{BE80A0E9-6D16-4631-85F0-DB689C945ED1}"/>
+    <hyperlink ref="J509" r:id="rId2234" xr:uid="{2CC509EA-0322-4B71-85DB-300504CBA347}"/>
+    <hyperlink ref="F510" r:id="rId2235" xr:uid="{B8046201-5B33-4375-B459-F5BB4F29664D}"/>
+    <hyperlink ref="G510" r:id="rId2236" xr:uid="{680FF448-BCA0-4A78-B78E-7CE5169F13E4}"/>
+    <hyperlink ref="H510" r:id="rId2237" xr:uid="{4A2AF3EA-3A63-4A6D-BA99-0892F095C426}"/>
+    <hyperlink ref="I510" r:id="rId2238" xr:uid="{431ABCFF-9A63-4E9A-9D85-EAFF1278226C}"/>
+    <hyperlink ref="J510" r:id="rId2239" xr:uid="{AEC15676-08D3-4701-A1FF-285CF46D2D91}"/>
+    <hyperlink ref="F511" r:id="rId2240" xr:uid="{D0F4F21F-F451-4539-8653-26FE0A38FCB6}"/>
+    <hyperlink ref="G511" r:id="rId2241" xr:uid="{B4B87F5D-4522-4406-95D1-700E4FAA3DBF}"/>
+    <hyperlink ref="H511" r:id="rId2242" xr:uid="{060DCE52-E779-4C54-A65E-4552E6EA3D4F}"/>
+    <hyperlink ref="I511" r:id="rId2243" xr:uid="{A535055E-5331-4F94-8E41-D47515FC37C8}"/>
+    <hyperlink ref="J511" r:id="rId2244" xr:uid="{1F310C56-19A0-4576-A2E8-3C098A229CC3}"/>
+    <hyperlink ref="F512" r:id="rId2245" xr:uid="{19813A48-B2B3-43F7-9461-C554090E6D2C}"/>
+    <hyperlink ref="G512" r:id="rId2246" xr:uid="{6E87F07F-ACD5-4451-8E64-61CDC52679C3}"/>
+    <hyperlink ref="H512" r:id="rId2247" xr:uid="{C04B78FF-7206-4977-ABDB-31B113B10B2C}"/>
+    <hyperlink ref="I512" r:id="rId2248" xr:uid="{CD555452-424E-412E-B792-3B72C1B890AE}"/>
+    <hyperlink ref="J512" r:id="rId2249" xr:uid="{B373E801-BEB2-4A6E-AEAF-25C3822EAED2}"/>
+    <hyperlink ref="F513" r:id="rId2250" xr:uid="{54A9848A-4706-493A-9A20-2D3FBE9CD1AE}"/>
+    <hyperlink ref="G513" r:id="rId2251" xr:uid="{7411E4B4-869D-482A-90B3-92B8DC84F561}"/>
+    <hyperlink ref="H513" r:id="rId2252" xr:uid="{2A7E4B21-AA9E-4623-B73E-7D807115BA58}"/>
+    <hyperlink ref="I513" r:id="rId2253" xr:uid="{C782674F-3FD1-4C05-9041-CBE8B33C25E4}"/>
+    <hyperlink ref="J513" r:id="rId2254" xr:uid="{F69F3A3D-A726-4769-84EF-EB491DEB6DED}"/>
+    <hyperlink ref="F514" r:id="rId2255" xr:uid="{5F9F6D76-5C11-4720-8559-2DF494059857}"/>
+    <hyperlink ref="G514" r:id="rId2256" xr:uid="{5C17E6BD-4F1D-45DC-8D95-787BDF8B62CB}"/>
+    <hyperlink ref="H514" r:id="rId2257" xr:uid="{BEC46A48-1395-4887-8F47-56DB25608989}"/>
+    <hyperlink ref="I514" r:id="rId2258" xr:uid="{1027C0A3-84DB-4FAC-983E-A57EC781375C}"/>
+    <hyperlink ref="J514" r:id="rId2259" xr:uid="{DC847171-DC24-43B1-9BDD-09FBECBF87B3}"/>
+    <hyperlink ref="F515" r:id="rId2260" xr:uid="{4DB55BFD-4F5A-4B92-BC84-C657FD9F21D7}"/>
+    <hyperlink ref="G515" r:id="rId2261" xr:uid="{3FF0E77B-557B-4A52-89BB-3884FB17E1B3}"/>
+    <hyperlink ref="H515" r:id="rId2262" xr:uid="{742949CC-482C-4BC7-8750-5D513682023B}"/>
+    <hyperlink ref="I515" r:id="rId2263" xr:uid="{6F1EF778-9A3F-41D9-9CEA-91DBC474F6EB}"/>
+    <hyperlink ref="J515" r:id="rId2264" xr:uid="{7CAB1B62-E344-4E1E-B283-85A5DE8FFC61}"/>
+    <hyperlink ref="F516" r:id="rId2265" xr:uid="{BA2F77E2-3AD4-4A7C-8556-F1F6F0D75836}"/>
+    <hyperlink ref="G516" r:id="rId2266" xr:uid="{C78F1047-D521-4818-8639-8A8E7315F06A}"/>
+    <hyperlink ref="H516" r:id="rId2267" xr:uid="{DB3364F4-5C2A-4325-B25C-9C4F4D7B0692}"/>
+    <hyperlink ref="I516" r:id="rId2268" xr:uid="{AEC2E1FF-7348-449F-9214-9F4CDCEA4CCC}"/>
+    <hyperlink ref="J516" r:id="rId2269" xr:uid="{CE2FB7BF-2BC0-47C3-90FF-826F7B7FD3D6}"/>
+    <hyperlink ref="F517" r:id="rId2270" xr:uid="{BA743178-4C29-4135-A288-1297D96BA2BC}"/>
+    <hyperlink ref="G517" r:id="rId2271" xr:uid="{A4E66175-B41C-43E0-A341-BE02D8CBE716}"/>
+    <hyperlink ref="H517" r:id="rId2272" xr:uid="{55C07046-7426-4A8A-AF35-E380100E6D4B}"/>
+    <hyperlink ref="I517" r:id="rId2273" xr:uid="{7635C255-EF6E-40AC-8263-950E460FFB8A}"/>
+    <hyperlink ref="J517" r:id="rId2274" xr:uid="{BF1BA75D-D73D-4047-BC18-79FB5D58073C}"/>
+    <hyperlink ref="F518" r:id="rId2275" xr:uid="{A787E6D9-4547-484E-9C9E-A12739FA1FBF}"/>
+    <hyperlink ref="G518" r:id="rId2276" xr:uid="{6E9BC54B-0148-4BEB-8F5B-90C555B999D6}"/>
+    <hyperlink ref="H518" r:id="rId2277" xr:uid="{9385033E-8DCA-4B01-939D-07DB8563F1BE}"/>
+    <hyperlink ref="I518" r:id="rId2278" xr:uid="{42A84F2A-78E7-4522-9D88-F19A656C699A}"/>
+    <hyperlink ref="J518" r:id="rId2279" xr:uid="{82BA63A0-3643-4296-B4D2-AAA4BDA04C47}"/>
+    <hyperlink ref="F519" r:id="rId2280" xr:uid="{46B10201-F292-44A6-B650-B7157CAFA67D}"/>
+    <hyperlink ref="G519" r:id="rId2281" xr:uid="{C62CC2DC-B6E6-47E5-8E3B-219BA3415C6A}"/>
+    <hyperlink ref="H519" r:id="rId2282" xr:uid="{72BDAEA7-8DB8-4AD8-A9A6-33B6D8663E41}"/>
+    <hyperlink ref="I519" r:id="rId2283" xr:uid="{5DF4C117-456C-4C9D-847E-080FE330EF41}"/>
+    <hyperlink ref="J519" r:id="rId2284" xr:uid="{59FDEED9-91B1-42C7-ABB1-B094EE470CDE}"/>
+    <hyperlink ref="F520" r:id="rId2285" xr:uid="{6593C04B-2BBC-4264-AC53-C15EE7E9E409}"/>
+    <hyperlink ref="G520" r:id="rId2286" xr:uid="{7B0156DF-2AE2-454D-BFF6-71E2ADDC9F69}"/>
+    <hyperlink ref="H520" r:id="rId2287" xr:uid="{80D56BD1-DA10-48C9-83D8-D3BDD1783B9C}"/>
+    <hyperlink ref="I520" r:id="rId2288" xr:uid="{56C4575C-784E-4AA2-ACC1-F88D44162CB4}"/>
+    <hyperlink ref="J520" r:id="rId2289" xr:uid="{C33BD1D6-C250-4540-A138-35F7B25A8219}"/>
+    <hyperlink ref="F521" r:id="rId2290" xr:uid="{D68C24CD-B442-4026-9D74-9E42FE6861BA}"/>
+    <hyperlink ref="G521" r:id="rId2291" xr:uid="{0C301756-41AA-4B87-8490-45F5E957A30D}"/>
+    <hyperlink ref="H521" r:id="rId2292" xr:uid="{5A6DA67C-7369-412C-99A4-98E35F0BB942}"/>
+    <hyperlink ref="I521" r:id="rId2293" xr:uid="{7E7D92FB-CF2C-4ABE-96FE-EA4B1F19D1AF}"/>
+    <hyperlink ref="J521" r:id="rId2294" xr:uid="{1B5EA030-178D-4459-B910-7401D4259764}"/>
+    <hyperlink ref="F522" r:id="rId2295" xr:uid="{D44B1741-E220-49B8-BC56-9D762960C836}"/>
+    <hyperlink ref="G522" r:id="rId2296" xr:uid="{58958DE5-2B8F-4130-8C45-8F3B4BA0660C}"/>
+    <hyperlink ref="H522" r:id="rId2297" xr:uid="{CA5A9025-40C8-44CD-BCCB-31F01DA37037}"/>
+    <hyperlink ref="I522" r:id="rId2298" xr:uid="{B2B4F19F-44A1-408B-AA4D-A75880043173}"/>
+    <hyperlink ref="J522" r:id="rId2299" xr:uid="{5127390F-E687-4B56-90A6-EC260194072E}"/>
+    <hyperlink ref="F523" r:id="rId2300" xr:uid="{8C28C316-B716-4130-94C1-CFA712F5145D}"/>
+    <hyperlink ref="G523" r:id="rId2301" xr:uid="{24CFA43E-098F-4263-A0FE-EE4076D4D7BB}"/>
+    <hyperlink ref="H523" r:id="rId2302" xr:uid="{D9E7FCD5-C605-42D8-BB0D-E3823EB3377F}"/>
+    <hyperlink ref="I523" r:id="rId2303" xr:uid="{7BBA6F6A-8295-45AE-8A25-7890F48B5ADB}"/>
+    <hyperlink ref="J523" r:id="rId2304" xr:uid="{E7F837EB-67B2-46C6-8E77-7AFC745EC9F1}"/>
+    <hyperlink ref="F524" r:id="rId2305" xr:uid="{7B0D4001-1E3C-49E3-A962-0D3113A5ED36}"/>
+    <hyperlink ref="G524" r:id="rId2306" xr:uid="{2EE4EEE1-8283-4CDE-AD94-0FF9B499B087}"/>
+    <hyperlink ref="H524" r:id="rId2307" xr:uid="{06438CB7-B396-49B6-B483-A7F85F9E30F2}"/>
+    <hyperlink ref="I524" r:id="rId2308" xr:uid="{DF46025D-617B-4184-95C0-7B7289A3DAE2}"/>
+    <hyperlink ref="J524" r:id="rId2309" xr:uid="{F860F3BE-F7ED-4062-AB7F-C43C1F840706}"/>
+    <hyperlink ref="F525" r:id="rId2310" xr:uid="{971BC51F-0825-4502-95D7-73CA83242B09}"/>
+    <hyperlink ref="G525" r:id="rId2311" xr:uid="{9BF0D08A-C8F7-4F4C-B2F1-22405A9298A0}"/>
+    <hyperlink ref="H525" r:id="rId2312" xr:uid="{FFAA59CC-A224-40A0-86D4-E085F0BC92EE}"/>
+    <hyperlink ref="I525" r:id="rId2313" xr:uid="{3DC2A207-F023-4387-80F9-4F41E84567C4}"/>
+    <hyperlink ref="J525" r:id="rId2314" xr:uid="{D5F60A74-1209-4DC5-A8EE-C2ED5305F85F}"/>
+    <hyperlink ref="F526" r:id="rId2315" xr:uid="{FE6710B6-F709-45CD-BC5A-3FABC8920EBC}"/>
+    <hyperlink ref="G526" r:id="rId2316" xr:uid="{E5B00D78-8BD1-4341-978B-124C54E17E4B}"/>
+    <hyperlink ref="H526" r:id="rId2317" xr:uid="{3B43326E-D341-44DC-AD34-37F690485C58}"/>
+    <hyperlink ref="I526" r:id="rId2318" xr:uid="{B9600840-07C9-4384-82CE-B6BF84D7EECE}"/>
+    <hyperlink ref="J526" r:id="rId2319" xr:uid="{7EA196EC-8321-4854-A365-31AD2BA4442A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1950"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2320"/>
   <tableParts count="1">
-    <tablePart r:id="rId1951"/>
+    <tablePart r:id="rId2321"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\fmscoutscz_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C9E5E-5277-497B-8CE4-6030CCA41F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0427DC9-0EE7-494C-9321-1E7247574E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="3582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4503" uniqueCount="3588">
   <si>
     <t>id</t>
   </si>
@@ -10792,6 +10792,24 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1425414/unique-tournament/691/season/77971/statistics/overall</t>
+  </si>
+  <si>
+    <t>Bjerkebo</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/isak-bjerkebo/profil/spieler/673069</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/isak-bjerkebo/1142230</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1142230</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1142230/unique-tournament/40/season/69956/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1142230/unique-tournament/40/season/69956/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -10868,8 +10886,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J526" totalsRowShown="0">
-  <autoFilter ref="A1:J526" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J527" totalsRowShown="0">
+  <autoFilter ref="A1:J527" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -11186,10 +11204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="B529" sqref="B529"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="J528" sqref="J528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27068,6 +27086,35 @@
       </c>
       <c r="J526" s="2" t="s">
         <v>3581</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>592</v>
+      </c>
+      <c r="B527" t="s">
+        <v>739</v>
+      </c>
+      <c r="C527" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D527" t="s">
+        <v>58</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>3584</v>
+      </c>
+      <c r="H527" s="2" t="s">
+        <v>3585</v>
+      </c>
+      <c r="I527" s="2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J527" s="2" t="s">
+        <v>3587</v>
       </c>
     </row>
   </sheetData>
@@ -29392,11 +29439,16 @@
     <hyperlink ref="H526" r:id="rId2317" xr:uid="{3B43326E-D341-44DC-AD34-37F690485C58}"/>
     <hyperlink ref="I526" r:id="rId2318" xr:uid="{B9600840-07C9-4384-82CE-B6BF84D7EECE}"/>
     <hyperlink ref="J526" r:id="rId2319" xr:uid="{7EA196EC-8321-4854-A365-31AD2BA4442A}"/>
+    <hyperlink ref="F527" r:id="rId2320" xr:uid="{C7FC248F-7BE6-464F-9332-B6880A219C47}"/>
+    <hyperlink ref="G527" r:id="rId2321" xr:uid="{D03BC083-4DEC-4ECC-8FB7-142BF9B87693}"/>
+    <hyperlink ref="H527" r:id="rId2322" xr:uid="{4A98CEC3-D0E8-4131-9ECF-CAE40F137117}"/>
+    <hyperlink ref="I527" r:id="rId2323" xr:uid="{17571A54-07B7-45B2-94A0-3E1F4E0FC418}"/>
+    <hyperlink ref="J527" r:id="rId2324" xr:uid="{54FBE02C-72BD-42C8-A763-1731AFAD2366}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2320"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2325"/>
   <tableParts count="1">
-    <tablePart r:id="rId2321"/>
+    <tablePart r:id="rId2326"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\fmscoutscz_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0427DC9-0EE7-494C-9321-1E7247574E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EEA3DC-9B25-49AF-83F7-5DC756F1E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4503" uniqueCount="3588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="3680">
   <si>
     <t>id</t>
   </si>
@@ -10810,6 +10810,282 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/1142230/unique-tournament/40/season/69956/statistics/overall</t>
+  </si>
+  <si>
+    <t>Patryk</t>
+  </si>
+  <si>
+    <t>Letkiewicz</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/patryk-letkiewicz/profil/spieler/911502</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/patryk-letkiewicz/1513105</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1513105</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1513105/unique-tournament/229/season/77153/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1513105/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Hermansen</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/andreas-hermansen/profil/spieler/811169</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/andreas-hermansen/1429605</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1429605</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1429605/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1429605/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Akpe</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/akpe-victory/profil/spieler/1375919</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/akpe-victory/2051886</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2051886</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2051886/unique-tournament/198/season/72229/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2051886/unique-tournament/198/season/72229/statistics/overall</t>
+  </si>
+  <si>
+    <t>Zahovaiko</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/tristan-zahovaiko/profil/spieler/1195894</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tristan-zahovaiko/1835684</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835684</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835684/unique-tournament/678/season/72078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1835684/unique-tournament/678/season/72078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Olewinski</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/oliwier-olewinski/profil/spieler/1167669</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/oliwier-olewinski/1927786</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1927786</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1927786/unique-tournament/229/season/77153/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1927786/unique-tournament/229/season/77153/statistics/overall</t>
+  </si>
+  <si>
+    <t>Mamane</t>
+  </si>
+  <si>
+    <t>Amadou Sabo</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/mamane-amadou-sabo/profil/spieler/847999</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mamane-amadou-sabo/1435246</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1435246</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1435246/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1435246/unique-tournament/210/season/76909/statistics/overall</t>
+  </si>
+  <si>
+    <t>Yakubu</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/adam-yakubu/profil/spieler/882089</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/adam-yakubu/1610225</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1610225</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1610225/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1610225/unique-tournament/211/season/77154/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jaron</t>
+  </si>
+  <si>
+    <t>Silm</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/jaron-silm/profil/spieler/1249514</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/jaron-silm/2037956</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2037956</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2037956/unique-tournament/678/season/72078/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2037956/unique-tournament/678/season/72078/statistics/overall</t>
+  </si>
+  <si>
+    <t>Ridwan</t>
+  </si>
+  <si>
+    <t>Popoola</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ridwan-popoola/profil/spieler/1385669</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/rilwan-abdulrazaq-popoola/1853710</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1853710</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1853710/unique-tournament/187/season/76944/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1853710/unique-tournament/187/season/76944/statistics/overall</t>
+  </si>
+  <si>
+    <t>Gibril</t>
+  </si>
+  <si>
+    <t>Sosseh</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/gibril-sosseh/profil/spieler/1372149</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/gibril-sosseh/2049927</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2049927</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2049927/unique-tournament/46/season/70171/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2049927/unique-tournament/46/season/70171/statistics/overall</t>
+  </si>
+  <si>
+    <t>Jakubczyk</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/kamil-jakubczyk/profil/spieler/929467</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/kamil-jakubczyk/1146194</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146194</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146194/unique-tournament/202/season/76477/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1146194/unique-tournament/202/season/76477/statistics/overall</t>
+  </si>
+  <si>
+    <t>Anej</t>
+  </si>
+  <si>
+    <t>Dukaric</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/anej-dukaric/profil/spieler/1170778</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/anej-dukaric/1541770</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1541770</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1541770/unique-tournament/532/season/77327/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1541770/unique-tournament/532/season/77327/statistics/overall</t>
+  </si>
+  <si>
+    <t>Tveiten</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/andreas-tveiten/profil/spieler/1079989</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/andreas-tveiten/1432282</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1432282</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1432282/unique-tournament/22/season/70186/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1432282/unique-tournament/22/season/70186/statistics/overall</t>
+  </si>
+  <si>
+    <t>Suwaibou</t>
+  </si>
+  <si>
+    <t>Kebbeh</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/suwaibou-kebbeh/profil/spieler/1433011</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/suwaibou-kebbeh/2232077</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2232077</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2232077/unique-tournament/67/season/70666/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2232077/unique-tournament/67/season/70666/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -10886,8 +11162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J527" totalsRowShown="0">
-  <autoFilter ref="A1:J527" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J540" totalsRowShown="0">
+  <autoFilter ref="A1:J540" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G242">
     <sortCondition ref="A1:A242"/>
   </sortState>
@@ -11204,10 +11480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="J528" sqref="J528"/>
+    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="B540" sqref="B540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26768,353 +27044,751 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B516" t="s">
-        <v>2510</v>
+        <v>3454</v>
       </c>
       <c r="C516" t="s">
-        <v>2511</v>
+        <v>3517</v>
       </c>
       <c r="D516" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>2512</v>
+        <v>3518</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>2513</v>
+        <v>3519</v>
       </c>
       <c r="H516" s="2" t="s">
-        <v>2514</v>
+        <v>3520</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>2515</v>
+        <v>3521</v>
       </c>
       <c r="J516" s="2" t="s">
-        <v>2516</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B517" t="s">
-        <v>3454</v>
+        <v>820</v>
       </c>
       <c r="C517" t="s">
-        <v>3517</v>
+        <v>3523</v>
       </c>
       <c r="D517" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>3518</v>
+        <v>3524</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>3519</v>
+        <v>3525</v>
       </c>
       <c r="H517" s="2" t="s">
-        <v>3520</v>
+        <v>3526</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>3521</v>
+        <v>3527</v>
       </c>
       <c r="J517" s="2" t="s">
-        <v>3522</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B518" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C518" t="s">
-        <v>3523</v>
+        <v>3529</v>
       </c>
       <c r="D518" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>3524</v>
+        <v>3530</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>3525</v>
+        <v>3531</v>
       </c>
       <c r="H518" s="2" t="s">
-        <v>3526</v>
+        <v>3532</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>3527</v>
+        <v>3533</v>
       </c>
       <c r="J518" s="2" t="s">
-        <v>3528</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B519" t="s">
-        <v>835</v>
+        <v>478</v>
       </c>
       <c r="C519" t="s">
-        <v>3529</v>
+        <v>3535</v>
       </c>
       <c r="D519" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>3530</v>
+        <v>3536</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>3531</v>
+        <v>3537</v>
       </c>
       <c r="H519" s="2" t="s">
-        <v>3532</v>
+        <v>3538</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>3533</v>
+        <v>3539</v>
       </c>
       <c r="J519" s="2" t="s">
-        <v>3534</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B520" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="C520" t="s">
-        <v>3535</v>
+        <v>3541</v>
       </c>
       <c r="D520" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>3536</v>
+        <v>3542</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>3537</v>
+        <v>3543</v>
       </c>
       <c r="H520" s="2" t="s">
-        <v>3538</v>
+        <v>3544</v>
       </c>
       <c r="I520" s="2" t="s">
-        <v>3539</v>
+        <v>3545</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>3540</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B521" t="s">
-        <v>496</v>
+        <v>3547</v>
       </c>
       <c r="C521" t="s">
-        <v>3541</v>
+        <v>3548</v>
       </c>
       <c r="D521" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>3542</v>
+        <v>3549</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>3543</v>
+        <v>3550</v>
       </c>
       <c r="H521" s="2" t="s">
-        <v>3544</v>
+        <v>3551</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>3545</v>
+        <v>3552</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>3546</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B522" t="s">
-        <v>3547</v>
+        <v>3554</v>
       </c>
       <c r="C522" t="s">
-        <v>3548</v>
+        <v>3555</v>
       </c>
       <c r="D522" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>3549</v>
+        <v>3556</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>3550</v>
+        <v>3557</v>
       </c>
       <c r="H522" s="2" t="s">
-        <v>3551</v>
+        <v>3558</v>
       </c>
       <c r="I522" s="2" t="s">
-        <v>3552</v>
+        <v>3559</v>
       </c>
       <c r="J522" s="2" t="s">
-        <v>3553</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B523" t="s">
-        <v>3554</v>
+        <v>3561</v>
       </c>
       <c r="C523" t="s">
-        <v>3555</v>
+        <v>3562</v>
       </c>
       <c r="D523" t="s">
+        <v>8</v>
+      </c>
+      <c r="E523" t="s">
         <v>189</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>3556</v>
+        <v>3563</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>3557</v>
+        <v>3564</v>
       </c>
       <c r="H523" s="2" t="s">
-        <v>3558</v>
+        <v>3565</v>
       </c>
       <c r="I523" s="2" t="s">
-        <v>3559</v>
+        <v>3566</v>
       </c>
       <c r="J523" s="2" t="s">
-        <v>3560</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B524" t="s">
-        <v>3561</v>
+        <v>3568</v>
       </c>
       <c r="C524" t="s">
-        <v>3562</v>
+        <v>3569</v>
       </c>
       <c r="D524" t="s">
-        <v>8</v>
-      </c>
-      <c r="E524" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>3563</v>
+        <v>3570</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>3564</v>
+        <v>3571</v>
       </c>
       <c r="H524" s="2" t="s">
-        <v>3565</v>
+        <v>3572</v>
       </c>
       <c r="I524" s="2" t="s">
-        <v>3566</v>
+        <v>3573</v>
       </c>
       <c r="J524" s="2" t="s">
-        <v>3567</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B525" t="s">
-        <v>3568</v>
+        <v>3575</v>
       </c>
       <c r="C525" t="s">
-        <v>3569</v>
+        <v>3576</v>
       </c>
       <c r="D525" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>3570</v>
+        <v>3577</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>3571</v>
+        <v>3578</v>
       </c>
       <c r="H525" s="2" t="s">
-        <v>3572</v>
+        <v>3579</v>
       </c>
       <c r="I525" s="2" t="s">
-        <v>3573</v>
+        <v>3580</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>3574</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B526" t="s">
-        <v>3575</v>
+        <v>739</v>
       </c>
       <c r="C526" t="s">
-        <v>3576</v>
+        <v>3582</v>
       </c>
       <c r="D526" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>3577</v>
+        <v>3583</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>3578</v>
+        <v>3584</v>
       </c>
       <c r="H526" s="2" t="s">
-        <v>3579</v>
+        <v>3585</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>3580</v>
+        <v>3586</v>
       </c>
       <c r="J526" s="2" t="s">
-        <v>3581</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B527" t="s">
-        <v>739</v>
+        <v>3588</v>
       </c>
       <c r="C527" t="s">
-        <v>3582</v>
+        <v>3589</v>
       </c>
       <c r="D527" t="s">
+        <v>155</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>3590</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>3591</v>
+      </c>
+      <c r="H527" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="I527" s="2" t="s">
+        <v>3593</v>
+      </c>
+      <c r="J527" s="2" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>594</v>
+      </c>
+      <c r="B528" t="s">
+        <v>136</v>
+      </c>
+      <c r="C528" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D528" t="s">
+        <v>155</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>3596</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>3597</v>
+      </c>
+      <c r="H528" s="2" t="s">
+        <v>3598</v>
+      </c>
+      <c r="I528" s="2" t="s">
+        <v>3599</v>
+      </c>
+      <c r="J528" s="2" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>595</v>
+      </c>
+      <c r="B529" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C529" t="s">
+        <v>3602</v>
+      </c>
+      <c r="D529" t="s">
+        <v>42</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>3603</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="H529" s="2" t="s">
+        <v>3605</v>
+      </c>
+      <c r="I529" s="2" t="s">
+        <v>3606</v>
+      </c>
+      <c r="J529" s="2" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>596</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C530" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D530" t="s">
+        <v>42</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>3610</v>
+      </c>
+      <c r="H530" s="2" t="s">
+        <v>3611</v>
+      </c>
+      <c r="I530" s="2" t="s">
+        <v>3612</v>
+      </c>
+      <c r="J530" s="2" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>597</v>
+      </c>
+      <c r="B531" t="s">
+        <v>434</v>
+      </c>
+      <c r="C531" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D531" t="s">
+        <v>79</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>3615</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>3616</v>
+      </c>
+      <c r="H531" s="2" t="s">
+        <v>3617</v>
+      </c>
+      <c r="I531" s="2" t="s">
+        <v>3618</v>
+      </c>
+      <c r="J531" s="2" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>598</v>
+      </c>
+      <c r="B532" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C532" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D532" t="s">
+        <v>33</v>
+      </c>
+      <c r="E532" t="s">
+        <v>53</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>3623</v>
+      </c>
+      <c r="H532" s="2" t="s">
+        <v>3624</v>
+      </c>
+      <c r="I532" s="2" t="s">
+        <v>3625</v>
+      </c>
+      <c r="J532" s="2" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>599</v>
+      </c>
+      <c r="B533" t="s">
+        <v>533</v>
+      </c>
+      <c r="C533" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D533" t="s">
+        <v>33</v>
+      </c>
+      <c r="E533" t="s">
+        <v>53</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>3628</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>3629</v>
+      </c>
+      <c r="H533" s="2" t="s">
+        <v>3630</v>
+      </c>
+      <c r="I533" s="2" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J533" s="2" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>600</v>
+      </c>
+      <c r="B534" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C534" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D534" t="s">
+        <v>33</v>
+      </c>
+      <c r="E534" t="s">
+        <v>53</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>3635</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>3636</v>
+      </c>
+      <c r="H534" s="2" t="s">
+        <v>3637</v>
+      </c>
+      <c r="I534" s="2" t="s">
+        <v>3638</v>
+      </c>
+      <c r="J534" s="2" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>601</v>
+      </c>
+      <c r="B535" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C535" t="s">
+        <v>3641</v>
+      </c>
+      <c r="D535" t="s">
+        <v>33</v>
+      </c>
+      <c r="E535" t="s">
+        <v>53</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>3642</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>3643</v>
+      </c>
+      <c r="H535" s="2" t="s">
+        <v>3644</v>
+      </c>
+      <c r="I535" s="2" t="s">
+        <v>3645</v>
+      </c>
+      <c r="J535" s="2" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>602</v>
+      </c>
+      <c r="B536" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C536" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D536" t="s">
+        <v>53</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>3649</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>3650</v>
+      </c>
+      <c r="H536" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="I536" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="J536" s="2" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>603</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C537" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D537" t="s">
+        <v>53</v>
+      </c>
+      <c r="E537" t="s">
+        <v>33</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>3655</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>3656</v>
+      </c>
+      <c r="H537" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="I537" s="2" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J537" s="2" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>604</v>
+      </c>
+      <c r="B538" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C538" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D538" t="s">
         <v>58</v>
       </c>
-      <c r="F527" s="2" t="s">
-        <v>3583</v>
-      </c>
-      <c r="G527" s="2" t="s">
-        <v>3584</v>
-      </c>
-      <c r="H527" s="2" t="s">
-        <v>3585</v>
-      </c>
-      <c r="I527" s="2" t="s">
-        <v>3586</v>
-      </c>
-      <c r="J527" s="2" t="s">
-        <v>3587</v>
+      <c r="E538" t="s">
+        <v>8</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>3662</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>3663</v>
+      </c>
+      <c r="H538" s="2" t="s">
+        <v>3664</v>
+      </c>
+      <c r="I538" s="2" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J538" s="2" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>605</v>
+      </c>
+      <c r="B539" t="s">
+        <v>136</v>
+      </c>
+      <c r="C539" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D539" t="s">
+        <v>8</v>
+      </c>
+      <c r="E539" t="s">
+        <v>58</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>3668</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>3669</v>
+      </c>
+      <c r="H539" s="2" t="s">
+        <v>3670</v>
+      </c>
+      <c r="I539" s="2" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J539" s="2" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>606</v>
+      </c>
+      <c r="B540" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C540" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D540" t="s">
+        <v>15</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>3675</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="H540" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="I540" s="2" t="s">
+        <v>3678</v>
+      </c>
+      <c r="J540" s="2" t="s">
+        <v>3679</v>
       </c>
     </row>
   </sheetData>
@@ -29384,71 +30058,136 @@
     <hyperlink ref="H515" r:id="rId2262" xr:uid="{742949CC-482C-4BC7-8750-5D513682023B}"/>
     <hyperlink ref="I515" r:id="rId2263" xr:uid="{6F1EF778-9A3F-41D9-9CEA-91DBC474F6EB}"/>
     <hyperlink ref="J515" r:id="rId2264" xr:uid="{7CAB1B62-E344-4E1E-B283-85A5DE8FFC61}"/>
-    <hyperlink ref="F516" r:id="rId2265" xr:uid="{BA2F77E2-3AD4-4A7C-8556-F1F6F0D75836}"/>
-    <hyperlink ref="G516" r:id="rId2266" xr:uid="{C78F1047-D521-4818-8639-8A8E7315F06A}"/>
-    <hyperlink ref="H516" r:id="rId2267" xr:uid="{DB3364F4-5C2A-4325-B25C-9C4F4D7B0692}"/>
-    <hyperlink ref="I516" r:id="rId2268" xr:uid="{AEC2E1FF-7348-449F-9214-9F4CDCEA4CCC}"/>
-    <hyperlink ref="J516" r:id="rId2269" xr:uid="{CE2FB7BF-2BC0-47C3-90FF-826F7B7FD3D6}"/>
-    <hyperlink ref="F517" r:id="rId2270" xr:uid="{BA743178-4C29-4135-A288-1297D96BA2BC}"/>
-    <hyperlink ref="G517" r:id="rId2271" xr:uid="{A4E66175-B41C-43E0-A341-BE02D8CBE716}"/>
-    <hyperlink ref="H517" r:id="rId2272" xr:uid="{55C07046-7426-4A8A-AF35-E380100E6D4B}"/>
-    <hyperlink ref="I517" r:id="rId2273" xr:uid="{7635C255-EF6E-40AC-8263-950E460FFB8A}"/>
-    <hyperlink ref="J517" r:id="rId2274" xr:uid="{BF1BA75D-D73D-4047-BC18-79FB5D58073C}"/>
-    <hyperlink ref="F518" r:id="rId2275" xr:uid="{A787E6D9-4547-484E-9C9E-A12739FA1FBF}"/>
-    <hyperlink ref="G518" r:id="rId2276" xr:uid="{6E9BC54B-0148-4BEB-8F5B-90C555B999D6}"/>
-    <hyperlink ref="H518" r:id="rId2277" xr:uid="{9385033E-8DCA-4B01-939D-07DB8563F1BE}"/>
-    <hyperlink ref="I518" r:id="rId2278" xr:uid="{42A84F2A-78E7-4522-9D88-F19A656C699A}"/>
-    <hyperlink ref="J518" r:id="rId2279" xr:uid="{82BA63A0-3643-4296-B4D2-AAA4BDA04C47}"/>
-    <hyperlink ref="F519" r:id="rId2280" xr:uid="{46B10201-F292-44A6-B650-B7157CAFA67D}"/>
-    <hyperlink ref="G519" r:id="rId2281" xr:uid="{C62CC2DC-B6E6-47E5-8E3B-219BA3415C6A}"/>
-    <hyperlink ref="H519" r:id="rId2282" xr:uid="{72BDAEA7-8DB8-4AD8-A9A6-33B6D8663E41}"/>
-    <hyperlink ref="I519" r:id="rId2283" xr:uid="{5DF4C117-456C-4C9D-847E-080FE330EF41}"/>
-    <hyperlink ref="J519" r:id="rId2284" xr:uid="{59FDEED9-91B1-42C7-ABB1-B094EE470CDE}"/>
-    <hyperlink ref="F520" r:id="rId2285" xr:uid="{6593C04B-2BBC-4264-AC53-C15EE7E9E409}"/>
-    <hyperlink ref="G520" r:id="rId2286" xr:uid="{7B0156DF-2AE2-454D-BFF6-71E2ADDC9F69}"/>
-    <hyperlink ref="H520" r:id="rId2287" xr:uid="{80D56BD1-DA10-48C9-83D8-D3BDD1783B9C}"/>
-    <hyperlink ref="I520" r:id="rId2288" xr:uid="{56C4575C-784E-4AA2-ACC1-F88D44162CB4}"/>
-    <hyperlink ref="J520" r:id="rId2289" xr:uid="{C33BD1D6-C250-4540-A138-35F7B25A8219}"/>
-    <hyperlink ref="F521" r:id="rId2290" xr:uid="{D68C24CD-B442-4026-9D74-9E42FE6861BA}"/>
-    <hyperlink ref="G521" r:id="rId2291" xr:uid="{0C301756-41AA-4B87-8490-45F5E957A30D}"/>
-    <hyperlink ref="H521" r:id="rId2292" xr:uid="{5A6DA67C-7369-412C-99A4-98E35F0BB942}"/>
-    <hyperlink ref="I521" r:id="rId2293" xr:uid="{7E7D92FB-CF2C-4ABE-96FE-EA4B1F19D1AF}"/>
-    <hyperlink ref="J521" r:id="rId2294" xr:uid="{1B5EA030-178D-4459-B910-7401D4259764}"/>
-    <hyperlink ref="F522" r:id="rId2295" xr:uid="{D44B1741-E220-49B8-BC56-9D762960C836}"/>
-    <hyperlink ref="G522" r:id="rId2296" xr:uid="{58958DE5-2B8F-4130-8C45-8F3B4BA0660C}"/>
-    <hyperlink ref="H522" r:id="rId2297" xr:uid="{CA5A9025-40C8-44CD-BCCB-31F01DA37037}"/>
-    <hyperlink ref="I522" r:id="rId2298" xr:uid="{B2B4F19F-44A1-408B-AA4D-A75880043173}"/>
-    <hyperlink ref="J522" r:id="rId2299" xr:uid="{5127390F-E687-4B56-90A6-EC260194072E}"/>
-    <hyperlink ref="F523" r:id="rId2300" xr:uid="{8C28C316-B716-4130-94C1-CFA712F5145D}"/>
-    <hyperlink ref="G523" r:id="rId2301" xr:uid="{24CFA43E-098F-4263-A0FE-EE4076D4D7BB}"/>
-    <hyperlink ref="H523" r:id="rId2302" xr:uid="{D9E7FCD5-C605-42D8-BB0D-E3823EB3377F}"/>
-    <hyperlink ref="I523" r:id="rId2303" xr:uid="{7BBA6F6A-8295-45AE-8A25-7890F48B5ADB}"/>
-    <hyperlink ref="J523" r:id="rId2304" xr:uid="{E7F837EB-67B2-46C6-8E77-7AFC745EC9F1}"/>
-    <hyperlink ref="F524" r:id="rId2305" xr:uid="{7B0D4001-1E3C-49E3-A962-0D3113A5ED36}"/>
-    <hyperlink ref="G524" r:id="rId2306" xr:uid="{2EE4EEE1-8283-4CDE-AD94-0FF9B499B087}"/>
-    <hyperlink ref="H524" r:id="rId2307" xr:uid="{06438CB7-B396-49B6-B483-A7F85F9E30F2}"/>
-    <hyperlink ref="I524" r:id="rId2308" xr:uid="{DF46025D-617B-4184-95C0-7B7289A3DAE2}"/>
-    <hyperlink ref="J524" r:id="rId2309" xr:uid="{F860F3BE-F7ED-4062-AB7F-C43C1F840706}"/>
-    <hyperlink ref="F525" r:id="rId2310" xr:uid="{971BC51F-0825-4502-95D7-73CA83242B09}"/>
-    <hyperlink ref="G525" r:id="rId2311" xr:uid="{9BF0D08A-C8F7-4F4C-B2F1-22405A9298A0}"/>
-    <hyperlink ref="H525" r:id="rId2312" xr:uid="{FFAA59CC-A224-40A0-86D4-E085F0BC92EE}"/>
-    <hyperlink ref="I525" r:id="rId2313" xr:uid="{3DC2A207-F023-4387-80F9-4F41E84567C4}"/>
-    <hyperlink ref="J525" r:id="rId2314" xr:uid="{D5F60A74-1209-4DC5-A8EE-C2ED5305F85F}"/>
-    <hyperlink ref="F526" r:id="rId2315" xr:uid="{FE6710B6-F709-45CD-BC5A-3FABC8920EBC}"/>
-    <hyperlink ref="G526" r:id="rId2316" xr:uid="{E5B00D78-8BD1-4341-978B-124C54E17E4B}"/>
-    <hyperlink ref="H526" r:id="rId2317" xr:uid="{3B43326E-D341-44DC-AD34-37F690485C58}"/>
-    <hyperlink ref="I526" r:id="rId2318" xr:uid="{B9600840-07C9-4384-82CE-B6BF84D7EECE}"/>
-    <hyperlink ref="J526" r:id="rId2319" xr:uid="{7EA196EC-8321-4854-A365-31AD2BA4442A}"/>
-    <hyperlink ref="F527" r:id="rId2320" xr:uid="{C7FC248F-7BE6-464F-9332-B6880A219C47}"/>
-    <hyperlink ref="G527" r:id="rId2321" xr:uid="{D03BC083-4DEC-4ECC-8FB7-142BF9B87693}"/>
-    <hyperlink ref="H527" r:id="rId2322" xr:uid="{4A98CEC3-D0E8-4131-9ECF-CAE40F137117}"/>
-    <hyperlink ref="I527" r:id="rId2323" xr:uid="{17571A54-07B7-45B2-94A0-3E1F4E0FC418}"/>
-    <hyperlink ref="J527" r:id="rId2324" xr:uid="{54FBE02C-72BD-42C8-A763-1731AFAD2366}"/>
+    <hyperlink ref="F516" r:id="rId2265" xr:uid="{BA743178-4C29-4135-A288-1297D96BA2BC}"/>
+    <hyperlink ref="G516" r:id="rId2266" xr:uid="{A4E66175-B41C-43E0-A341-BE02D8CBE716}"/>
+    <hyperlink ref="H516" r:id="rId2267" xr:uid="{55C07046-7426-4A8A-AF35-E380100E6D4B}"/>
+    <hyperlink ref="I516" r:id="rId2268" xr:uid="{7635C255-EF6E-40AC-8263-950E460FFB8A}"/>
+    <hyperlink ref="J516" r:id="rId2269" xr:uid="{BF1BA75D-D73D-4047-BC18-79FB5D58073C}"/>
+    <hyperlink ref="F517" r:id="rId2270" xr:uid="{A787E6D9-4547-484E-9C9E-A12739FA1FBF}"/>
+    <hyperlink ref="G517" r:id="rId2271" xr:uid="{6E9BC54B-0148-4BEB-8F5B-90C555B999D6}"/>
+    <hyperlink ref="H517" r:id="rId2272" xr:uid="{9385033E-8DCA-4B01-939D-07DB8563F1BE}"/>
+    <hyperlink ref="I517" r:id="rId2273" xr:uid="{42A84F2A-78E7-4522-9D88-F19A656C699A}"/>
+    <hyperlink ref="J517" r:id="rId2274" xr:uid="{82BA63A0-3643-4296-B4D2-AAA4BDA04C47}"/>
+    <hyperlink ref="F518" r:id="rId2275" xr:uid="{46B10201-F292-44A6-B650-B7157CAFA67D}"/>
+    <hyperlink ref="G518" r:id="rId2276" xr:uid="{C62CC2DC-B6E6-47E5-8E3B-219BA3415C6A}"/>
+    <hyperlink ref="H518" r:id="rId2277" xr:uid="{72BDAEA7-8DB8-4AD8-A9A6-33B6D8663E41}"/>
+    <hyperlink ref="I518" r:id="rId2278" xr:uid="{5DF4C117-456C-4C9D-847E-080FE330EF41}"/>
+    <hyperlink ref="J518" r:id="rId2279" xr:uid="{59FDEED9-91B1-42C7-ABB1-B094EE470CDE}"/>
+    <hyperlink ref="F519" r:id="rId2280" xr:uid="{6593C04B-2BBC-4264-AC53-C15EE7E9E409}"/>
+    <hyperlink ref="G519" r:id="rId2281" xr:uid="{7B0156DF-2AE2-454D-BFF6-71E2ADDC9F69}"/>
+    <hyperlink ref="H519" r:id="rId2282" xr:uid="{80D56BD1-DA10-48C9-83D8-D3BDD1783B9C}"/>
+    <hyperlink ref="I519" r:id="rId2283" xr:uid="{56C4575C-784E-4AA2-ACC1-F88D44162CB4}"/>
+    <hyperlink ref="J519" r:id="rId2284" xr:uid="{C33BD1D6-C250-4540-A138-35F7B25A8219}"/>
+    <hyperlink ref="F520" r:id="rId2285" xr:uid="{D68C24CD-B442-4026-9D74-9E42FE6861BA}"/>
+    <hyperlink ref="G520" r:id="rId2286" xr:uid="{0C301756-41AA-4B87-8490-45F5E957A30D}"/>
+    <hyperlink ref="H520" r:id="rId2287" xr:uid="{5A6DA67C-7369-412C-99A4-98E35F0BB942}"/>
+    <hyperlink ref="I520" r:id="rId2288" xr:uid="{7E7D92FB-CF2C-4ABE-96FE-EA4B1F19D1AF}"/>
+    <hyperlink ref="J520" r:id="rId2289" xr:uid="{1B5EA030-178D-4459-B910-7401D4259764}"/>
+    <hyperlink ref="F521" r:id="rId2290" xr:uid="{D44B1741-E220-49B8-BC56-9D762960C836}"/>
+    <hyperlink ref="G521" r:id="rId2291" xr:uid="{58958DE5-2B8F-4130-8C45-8F3B4BA0660C}"/>
+    <hyperlink ref="H521" r:id="rId2292" xr:uid="{CA5A9025-40C8-44CD-BCCB-31F01DA37037}"/>
+    <hyperlink ref="I521" r:id="rId2293" xr:uid="{B2B4F19F-44A1-408B-AA4D-A75880043173}"/>
+    <hyperlink ref="J521" r:id="rId2294" xr:uid="{5127390F-E687-4B56-90A6-EC260194072E}"/>
+    <hyperlink ref="F522" r:id="rId2295" xr:uid="{8C28C316-B716-4130-94C1-CFA712F5145D}"/>
+    <hyperlink ref="G522" r:id="rId2296" xr:uid="{24CFA43E-098F-4263-A0FE-EE4076D4D7BB}"/>
+    <hyperlink ref="H522" r:id="rId2297" xr:uid="{D9E7FCD5-C605-42D8-BB0D-E3823EB3377F}"/>
+    <hyperlink ref="I522" r:id="rId2298" xr:uid="{7BBA6F6A-8295-45AE-8A25-7890F48B5ADB}"/>
+    <hyperlink ref="J522" r:id="rId2299" xr:uid="{E7F837EB-67B2-46C6-8E77-7AFC745EC9F1}"/>
+    <hyperlink ref="F523" r:id="rId2300" xr:uid="{7B0D4001-1E3C-49E3-A962-0D3113A5ED36}"/>
+    <hyperlink ref="G523" r:id="rId2301" xr:uid="{2EE4EEE1-8283-4CDE-AD94-0FF9B499B087}"/>
+    <hyperlink ref="H523" r:id="rId2302" xr:uid="{06438CB7-B396-49B6-B483-A7F85F9E30F2}"/>
+    <hyperlink ref="I523" r:id="rId2303" xr:uid="{DF46025D-617B-4184-95C0-7B7289A3DAE2}"/>
+    <hyperlink ref="J523" r:id="rId2304" xr:uid="{F860F3BE-F7ED-4062-AB7F-C43C1F840706}"/>
+    <hyperlink ref="F524" r:id="rId2305" xr:uid="{971BC51F-0825-4502-95D7-73CA83242B09}"/>
+    <hyperlink ref="G524" r:id="rId2306" xr:uid="{9BF0D08A-C8F7-4F4C-B2F1-22405A9298A0}"/>
+    <hyperlink ref="H524" r:id="rId2307" xr:uid="{FFAA59CC-A224-40A0-86D4-E085F0BC92EE}"/>
+    <hyperlink ref="I524" r:id="rId2308" xr:uid="{3DC2A207-F023-4387-80F9-4F41E84567C4}"/>
+    <hyperlink ref="J524" r:id="rId2309" xr:uid="{D5F60A74-1209-4DC5-A8EE-C2ED5305F85F}"/>
+    <hyperlink ref="F525" r:id="rId2310" xr:uid="{FE6710B6-F709-45CD-BC5A-3FABC8920EBC}"/>
+    <hyperlink ref="G525" r:id="rId2311" xr:uid="{E5B00D78-8BD1-4341-978B-124C54E17E4B}"/>
+    <hyperlink ref="H525" r:id="rId2312" xr:uid="{3B43326E-D341-44DC-AD34-37F690485C58}"/>
+    <hyperlink ref="I525" r:id="rId2313" xr:uid="{B9600840-07C9-4384-82CE-B6BF84D7EECE}"/>
+    <hyperlink ref="J525" r:id="rId2314" xr:uid="{7EA196EC-8321-4854-A365-31AD2BA4442A}"/>
+    <hyperlink ref="F526" r:id="rId2315" xr:uid="{C7FC248F-7BE6-464F-9332-B6880A219C47}"/>
+    <hyperlink ref="G526" r:id="rId2316" xr:uid="{D03BC083-4DEC-4ECC-8FB7-142BF9B87693}"/>
+    <hyperlink ref="H526" r:id="rId2317" xr:uid="{4A98CEC3-D0E8-4131-9ECF-CAE40F137117}"/>
+    <hyperlink ref="I526" r:id="rId2318" xr:uid="{17571A54-07B7-45B2-94A0-3E1F4E0FC418}"/>
+    <hyperlink ref="J526" r:id="rId2319" xr:uid="{54FBE02C-72BD-42C8-A763-1731AFAD2366}"/>
+    <hyperlink ref="F527" r:id="rId2320" xr:uid="{2BE6E8E6-8DCC-4E94-A7AB-FAF9DCBC1E6F}"/>
+    <hyperlink ref="G527" r:id="rId2321" xr:uid="{9C9C68A5-42B1-4B3A-85C0-B13F8295E07E}"/>
+    <hyperlink ref="H527" r:id="rId2322" xr:uid="{5764B176-9BF2-4F8C-824A-C371E1BB610F}"/>
+    <hyperlink ref="I527" r:id="rId2323" xr:uid="{0593B7F3-1B2E-414D-AFCE-CCA4F1F5664E}"/>
+    <hyperlink ref="J527" r:id="rId2324" xr:uid="{2650EDAD-3635-4D8D-8FD7-90653CAE1D12}"/>
+    <hyperlink ref="F528" r:id="rId2325" xr:uid="{601A9B14-34EE-4292-ACCD-2AE5FEB8C604}"/>
+    <hyperlink ref="G528" r:id="rId2326" xr:uid="{5FE84084-E1D4-459C-9FE2-72F1CB8380C2}"/>
+    <hyperlink ref="H528" r:id="rId2327" xr:uid="{F4986AB3-9756-46BA-809F-9DFD803F4582}"/>
+    <hyperlink ref="I528" r:id="rId2328" xr:uid="{1EDE2765-1E53-47CE-9A18-747F2FE1224B}"/>
+    <hyperlink ref="J528" r:id="rId2329" xr:uid="{FD7C974E-7204-4B55-9DB8-C4205BF6D250}"/>
+    <hyperlink ref="F529" r:id="rId2330" xr:uid="{92B23051-C48A-4C20-BD5E-B6BC8C3F91A5}"/>
+    <hyperlink ref="G529" r:id="rId2331" xr:uid="{3397663C-CA74-4A64-832A-88AE535C14AA}"/>
+    <hyperlink ref="H529" r:id="rId2332" xr:uid="{0BECBBF8-B691-4196-B677-CD64E7CEB909}"/>
+    <hyperlink ref="I529" r:id="rId2333" xr:uid="{21B20541-5A6A-4820-B957-8856E0744781}"/>
+    <hyperlink ref="J529" r:id="rId2334" xr:uid="{04129760-8E20-4DE0-9056-EDEC2DAD7C5A}"/>
+    <hyperlink ref="F530" r:id="rId2335" xr:uid="{E42693B1-BE0F-4656-8A7C-C26C0FAC60F6}"/>
+    <hyperlink ref="G530" r:id="rId2336" xr:uid="{16F042E5-688F-42D9-80E2-0672C30A4F49}"/>
+    <hyperlink ref="H530" r:id="rId2337" xr:uid="{5D872479-4823-49B8-AE1F-D9C698DCE76E}"/>
+    <hyperlink ref="I530" r:id="rId2338" xr:uid="{98CBB0F7-A1E8-4DDD-8291-8771C97A3489}"/>
+    <hyperlink ref="J530" r:id="rId2339" xr:uid="{1FAEFEC6-9B74-4D96-8109-64E902F7E9E4}"/>
+    <hyperlink ref="F531" r:id="rId2340" xr:uid="{F1E3EDA6-5D01-435C-9369-1EAF4DDA4C6C}"/>
+    <hyperlink ref="G531" r:id="rId2341" xr:uid="{2A185FBD-F977-4DD3-AA47-45E9D601D417}"/>
+    <hyperlink ref="H531" r:id="rId2342" xr:uid="{D69CEDD1-4E1D-403B-B6D8-47926F68992F}"/>
+    <hyperlink ref="I531" r:id="rId2343" xr:uid="{01630D87-BE1E-4C66-AE08-8EAB6EC18D65}"/>
+    <hyperlink ref="J531" r:id="rId2344" xr:uid="{30882BE5-DE36-414D-AE3C-07752F2A9189}"/>
+    <hyperlink ref="F532" r:id="rId2345" xr:uid="{EDD9878C-A9C6-47D6-BFEB-2B9ADAF84A62}"/>
+    <hyperlink ref="G532" r:id="rId2346" xr:uid="{21FA7257-F588-450F-A29E-AA862213172E}"/>
+    <hyperlink ref="H532" r:id="rId2347" xr:uid="{A8286C1F-427B-4A45-94C6-1E8AA31C2230}"/>
+    <hyperlink ref="I532" r:id="rId2348" xr:uid="{F7292AEB-14DD-4255-9B4E-6314CD5BF922}"/>
+    <hyperlink ref="J532" r:id="rId2349" xr:uid="{C5510C50-E5CE-4DB5-9D1C-B5F733958F73}"/>
+    <hyperlink ref="F533" r:id="rId2350" xr:uid="{A83D2F5D-4F54-43D5-B5DD-A4F5110A4868}"/>
+    <hyperlink ref="G533" r:id="rId2351" xr:uid="{DD10B52D-AC5A-41A9-8E29-9483712242B8}"/>
+    <hyperlink ref="H533" r:id="rId2352" xr:uid="{4ED89866-C0E8-4782-A2C9-09DC5B44D035}"/>
+    <hyperlink ref="I533" r:id="rId2353" xr:uid="{E1C1AEC0-D66E-4B1E-A236-5484E2C7502C}"/>
+    <hyperlink ref="J533" r:id="rId2354" xr:uid="{8FA0D81C-A435-4795-84D5-ECF592CA6EFC}"/>
+    <hyperlink ref="F534" r:id="rId2355" xr:uid="{9378D577-B645-4A1C-92C5-6D989578625A}"/>
+    <hyperlink ref="G534" r:id="rId2356" xr:uid="{249DF92D-0FFD-412C-903B-13F69E1706A1}"/>
+    <hyperlink ref="H534" r:id="rId2357" xr:uid="{39C9E62F-63D0-4C5A-9B95-A25224AB1987}"/>
+    <hyperlink ref="I534" r:id="rId2358" xr:uid="{161C5817-2735-4445-8121-0CDB855704A3}"/>
+    <hyperlink ref="J534" r:id="rId2359" xr:uid="{9E51F0EE-DD7F-4E30-80F6-A59F1E79D8E3}"/>
+    <hyperlink ref="F535" r:id="rId2360" xr:uid="{5B8D9A7F-BC4F-4C91-9B85-6FFFEF988314}"/>
+    <hyperlink ref="G535" r:id="rId2361" xr:uid="{6ED0A6D2-31CA-4687-A5C1-9D464C30E4ED}"/>
+    <hyperlink ref="H535" r:id="rId2362" xr:uid="{C30FD15D-BB4B-4A25-98EC-39294E5CAF83}"/>
+    <hyperlink ref="I535" r:id="rId2363" xr:uid="{144FD0B5-577C-433E-9B33-CBDE2E319370}"/>
+    <hyperlink ref="J535" r:id="rId2364" xr:uid="{647FBAEB-EFF4-4426-86D0-2E15A465111A}"/>
+    <hyperlink ref="F536" r:id="rId2365" xr:uid="{C2355E07-7657-425C-ACBE-9D15E6AFB405}"/>
+    <hyperlink ref="G536" r:id="rId2366" xr:uid="{923249AC-2992-46B2-B7D4-5B0AE8E59E4E}"/>
+    <hyperlink ref="H536" r:id="rId2367" xr:uid="{9EFF10C3-05EB-418D-B511-BED2DB8E04EE}"/>
+    <hyperlink ref="I536" r:id="rId2368" xr:uid="{0B8B4534-4E79-44A8-A71E-7DB5A2C2566B}"/>
+    <hyperlink ref="J536" r:id="rId2369" xr:uid="{CD7EDF98-550F-46DF-BF3D-A9682BD06EDB}"/>
+    <hyperlink ref="F537" r:id="rId2370" xr:uid="{D819D4B6-6425-48B4-9DBF-7751C49E563E}"/>
+    <hyperlink ref="G537" r:id="rId2371" xr:uid="{4665DFA2-92DF-441B-8F96-6E8662A66DF5}"/>
+    <hyperlink ref="H537" r:id="rId2372" xr:uid="{F521F95A-A5AF-4237-B2D2-347C6A93F0CB}"/>
+    <hyperlink ref="I537" r:id="rId2373" xr:uid="{F9A1D07F-98F8-482D-9385-4022C7CC633F}"/>
+    <hyperlink ref="J537" r:id="rId2374" xr:uid="{D35B334C-1F88-4526-93D3-7F1BA7FDDB65}"/>
+    <hyperlink ref="F538" r:id="rId2375" xr:uid="{51F46955-DFB4-4F4E-BB29-551C694637A1}"/>
+    <hyperlink ref="G538" r:id="rId2376" xr:uid="{7337AB75-E640-4491-B437-E2D7A164124C}"/>
+    <hyperlink ref="H538" r:id="rId2377" xr:uid="{7C303CF4-8A17-4BE5-849B-C25DD32A4A29}"/>
+    <hyperlink ref="I538" r:id="rId2378" xr:uid="{3DCDEFD4-8216-48D3-99BC-52615B638D9B}"/>
+    <hyperlink ref="J538" r:id="rId2379" xr:uid="{725A6FD8-B571-45B7-BA43-78A97238B731}"/>
+    <hyperlink ref="F539" r:id="rId2380" xr:uid="{15F16334-5DE0-4B89-9474-D3C155F3AD1C}"/>
+    <hyperlink ref="G539" r:id="rId2381" xr:uid="{9EC5A6D0-562C-4A53-A3B3-ACE74093009D}"/>
+    <hyperlink ref="H539" r:id="rId2382" xr:uid="{FCF2E3F8-70F9-428B-BACA-ABD80A36B8AB}"/>
+    <hyperlink ref="I539" r:id="rId2383" xr:uid="{399C9DEA-7FAA-4F24-88B0-63BFAA374380}"/>
+    <hyperlink ref="J539" r:id="rId2384" xr:uid="{3D1BFC2E-C0FD-4158-A09D-839A07ABF2EF}"/>
+    <hyperlink ref="F540" r:id="rId2385" xr:uid="{AE6D0D41-6AF2-4314-BE7E-AE2072C39DEE}"/>
+    <hyperlink ref="G540" r:id="rId2386" xr:uid="{2C6741DF-E16D-469C-84AA-EC7A7AEA97D9}"/>
+    <hyperlink ref="H540" r:id="rId2387" xr:uid="{D996FB09-F197-4551-B74E-D3AFA22A3D7C}"/>
+    <hyperlink ref="I540" r:id="rId2388" xr:uid="{AC7C2E38-EC69-40F9-9340-BAD453D7EF43}"/>
+    <hyperlink ref="J540" r:id="rId2389" xr:uid="{1D5D623E-8300-45E7-BD37-98A6C32D6081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2325"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2390"/>
   <tableParts count="1">
-    <tablePart r:id="rId2326"/>
+    <tablePart r:id="rId2391"/>
   </tableParts>
 </worksheet>
 </file>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D82AA7A-4FE4-4986-A288-BDC6C74A3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C174738-8DC8-4A34-8FFF-411865D6E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="3684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="3688">
   <si>
     <t>id</t>
   </si>
@@ -11098,6 +11098,18 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/2227819/unique-tournament/532/season/77327/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/alieu-conateh/2217006</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2217006</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2217006/unique-tournament/135/season/77531/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/2217006/unique-tournament/135/season/77531/statistics/overall</t>
   </si>
 </sst>
 </file>
@@ -11494,8 +11506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="G546" sqref="G546"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="J528" sqref="J528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27381,16 +27393,16 @@
         <v>3589</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>3583</v>
+        <v>3684</v>
       </c>
       <c r="H527" s="2" t="s">
-        <v>3584</v>
+        <v>3685</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>3585</v>
+        <v>3686</v>
       </c>
       <c r="J527" s="2" t="s">
-        <v>3586</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
@@ -30148,77 +30160,77 @@
     <hyperlink ref="G527" r:id="rId2335" xr:uid="{A1760354-0C6F-4030-A202-58BD2559B745}"/>
     <hyperlink ref="H527" r:id="rId2336" xr:uid="{A4B7E84A-DDA1-43A7-B5B4-C8E3B05E56F5}"/>
     <hyperlink ref="I527" r:id="rId2337" xr:uid="{72168D11-AB35-4EE2-BA02-DAF4DB618964}"/>
-    <hyperlink ref="J527" r:id="rId2338" xr:uid="{54351D77-ECD3-4026-AEB6-4AF3CE850E1F}"/>
-    <hyperlink ref="F528" r:id="rId2339" xr:uid="{0B282F1B-1476-4C40-9750-DBBBE1293C88}"/>
-    <hyperlink ref="G528" r:id="rId2340" xr:uid="{7FFEE950-B4D6-4BC5-A898-D44F45B36A2A}"/>
-    <hyperlink ref="H528" r:id="rId2341" xr:uid="{080B4F96-2D51-4CC1-B936-9E08997F05D8}"/>
-    <hyperlink ref="I528" r:id="rId2342" xr:uid="{9E73E1EE-D8BA-4A8B-81DE-45027731F396}"/>
-    <hyperlink ref="J528" r:id="rId2343" xr:uid="{A1F8E45C-22EA-4591-9392-ECFEF9287897}"/>
-    <hyperlink ref="F529" r:id="rId2344" xr:uid="{C12A07F3-8750-423B-99DA-0F9104118049}"/>
-    <hyperlink ref="G529" r:id="rId2345" xr:uid="{7683C06A-2CD0-4A47-874A-9E725ED14E52}"/>
-    <hyperlink ref="H529" r:id="rId2346" xr:uid="{FE2EF04C-C30F-45F4-8989-083C75C554CC}"/>
-    <hyperlink ref="I529" r:id="rId2347" xr:uid="{01C9CBA3-D7E5-4D73-B01C-8EFBCF16029E}"/>
-    <hyperlink ref="J529" r:id="rId2348" xr:uid="{F37D6522-932B-4C48-A745-E41B9085F398}"/>
-    <hyperlink ref="F530" r:id="rId2349" xr:uid="{53B63128-EF47-4D15-895E-DAB17303D3B5}"/>
-    <hyperlink ref="G530" r:id="rId2350" xr:uid="{7FAF8F7C-6A6B-4EBA-BD7E-5F9D6CD598D8}"/>
-    <hyperlink ref="H530" r:id="rId2351" xr:uid="{BBFA89DD-626B-417F-9987-6C946EAAE270}"/>
-    <hyperlink ref="I530" r:id="rId2352" xr:uid="{AAD41F1C-5435-4492-A45D-67A6C59FCE4D}"/>
-    <hyperlink ref="J530" r:id="rId2353" xr:uid="{28E9577C-EB49-45AA-B12F-3F260D4BAC4B}"/>
-    <hyperlink ref="F531" r:id="rId2354" xr:uid="{D2D436DF-35C0-4AC0-A373-C7D72A10A441}"/>
-    <hyperlink ref="G531" r:id="rId2355" xr:uid="{76CE82D0-FFFA-4DC9-8B1E-2DA95705BD31}"/>
-    <hyperlink ref="H531" r:id="rId2356" xr:uid="{2F754148-C8AA-4630-A7C7-8594AD325832}"/>
-    <hyperlink ref="I531" r:id="rId2357" xr:uid="{E4BF9B9B-1C57-4C0F-9E48-0AA6ED1D9754}"/>
-    <hyperlink ref="J531" r:id="rId2358" xr:uid="{0546E715-FD42-4FFE-A317-FAC83C75B24D}"/>
-    <hyperlink ref="F532" r:id="rId2359" xr:uid="{C119650F-B683-4EEF-886C-DDCE993981A7}"/>
-    <hyperlink ref="G532" r:id="rId2360" xr:uid="{E0BC5C87-02D1-438F-9B7C-D1DA5E3A3423}"/>
-    <hyperlink ref="H532" r:id="rId2361" xr:uid="{AC963072-CD4A-4656-A9EC-53552825F7A2}"/>
-    <hyperlink ref="I532" r:id="rId2362" xr:uid="{A0829A88-6ADF-422A-877B-0DA244E246DB}"/>
-    <hyperlink ref="J532" r:id="rId2363" xr:uid="{AF3EC516-B883-437A-A27D-589F3122C650}"/>
-    <hyperlink ref="F533" r:id="rId2364" xr:uid="{4EBAD27F-24EB-4947-BAC6-443565864930}"/>
-    <hyperlink ref="G533" r:id="rId2365" xr:uid="{B9D779F3-EF57-4F49-9813-5E98BE5B6A5B}"/>
-    <hyperlink ref="H533" r:id="rId2366" xr:uid="{1EEDD3B8-3598-4E3C-919C-E2064B30BFF2}"/>
-    <hyperlink ref="I533" r:id="rId2367" xr:uid="{D3CA925A-3142-4B81-9A03-4F82C9636151}"/>
-    <hyperlink ref="J533" r:id="rId2368" xr:uid="{58524C02-9F8A-4976-9D66-34085DC8C4D4}"/>
-    <hyperlink ref="F534" r:id="rId2369" xr:uid="{9323198D-C94E-4943-8AE9-D85FAAEE5863}"/>
-    <hyperlink ref="G534" r:id="rId2370" xr:uid="{F3E4EF69-829A-4E48-82AC-62B518440858}"/>
-    <hyperlink ref="H534" r:id="rId2371" xr:uid="{90C7C9FB-B9B8-4D73-977C-BCB2DEB563D5}"/>
-    <hyperlink ref="I534" r:id="rId2372" xr:uid="{6EE47BFD-939E-44D2-96D7-BBA8A174C520}"/>
-    <hyperlink ref="J534" r:id="rId2373" xr:uid="{FD416CA8-14B9-4AF3-B222-5D64E75EB62E}"/>
-    <hyperlink ref="F535" r:id="rId2374" xr:uid="{434553A2-7D97-4EDF-BAAB-DD83AC27038D}"/>
-    <hyperlink ref="G535" r:id="rId2375" xr:uid="{F9866DAD-6714-46CB-AF72-92EDB3845B6A}"/>
-    <hyperlink ref="H535" r:id="rId2376" xr:uid="{C74C04DB-EBA8-4DF7-BEDB-A4476E954362}"/>
-    <hyperlink ref="I535" r:id="rId2377" xr:uid="{5DD99B4F-EF6E-4A2E-949B-479FDF5B387F}"/>
-    <hyperlink ref="J535" r:id="rId2378" xr:uid="{722FD566-7772-4BEB-AB6E-7D478DAD629F}"/>
-    <hyperlink ref="F536" r:id="rId2379" xr:uid="{AEB2373A-16E9-4D67-8DEB-72F3131E002D}"/>
-    <hyperlink ref="G536" r:id="rId2380" xr:uid="{F94D1E40-954C-49FC-BF74-70C3EEF2EAB1}"/>
-    <hyperlink ref="H536" r:id="rId2381" xr:uid="{74D3FCC5-6F41-4DC0-9458-5ED254B981A5}"/>
-    <hyperlink ref="I536" r:id="rId2382" xr:uid="{0A5B441E-8521-4BD7-9C1E-2BCAAF75A123}"/>
-    <hyperlink ref="J536" r:id="rId2383" xr:uid="{395DD8AB-DDE6-42F3-90B1-6458289C8843}"/>
-    <hyperlink ref="F537" r:id="rId2384" xr:uid="{C37FA738-2ECD-495C-8E75-129904CAF34F}"/>
-    <hyperlink ref="G537" r:id="rId2385" xr:uid="{669E8A12-948C-4070-AA6B-7C462A5AD82E}"/>
-    <hyperlink ref="H537" r:id="rId2386" xr:uid="{2D534C0B-BE6F-40E0-A886-13A78C782E69}"/>
-    <hyperlink ref="I537" r:id="rId2387" xr:uid="{2DF8CFFE-F0C1-4BC1-A00C-2D56E22453C3}"/>
-    <hyperlink ref="J537" r:id="rId2388" xr:uid="{C01B1273-E37C-460B-8658-8B5CEB995F5B}"/>
-    <hyperlink ref="F538" r:id="rId2389" xr:uid="{C9A1CB54-BB8E-45E4-BE7B-C024DF35C561}"/>
-    <hyperlink ref="G538" r:id="rId2390" xr:uid="{55967FFA-1FAE-47C9-874B-6FE7F19B6897}"/>
-    <hyperlink ref="H538" r:id="rId2391" xr:uid="{04E74B89-E0A4-4B01-A82E-ED272DDD8D08}"/>
-    <hyperlink ref="I538" r:id="rId2392" xr:uid="{3B056DB2-AB76-4745-ACC8-0A62DD103893}"/>
-    <hyperlink ref="J538" r:id="rId2393" xr:uid="{D909E543-1B3F-4C46-B381-74A22964F3DE}"/>
-    <hyperlink ref="F539" r:id="rId2394" xr:uid="{0A8BCD54-B75A-4EF6-8C60-F729F79AA58C}"/>
-    <hyperlink ref="G539" r:id="rId2395" xr:uid="{A8B1C9A4-2CE4-4FE7-B4B9-271B10580160}"/>
-    <hyperlink ref="H539" r:id="rId2396" xr:uid="{7484240D-3179-4D7B-AAC8-077F3D948C9D}"/>
-    <hyperlink ref="I539" r:id="rId2397" xr:uid="{776D7933-45CA-4988-A2B4-E3E6F32A58FE}"/>
-    <hyperlink ref="J539" r:id="rId2398" xr:uid="{E030C336-C24D-4DBA-A052-0AC3053E3C36}"/>
-    <hyperlink ref="F540" r:id="rId2399" xr:uid="{3C1B7D43-DB4A-4952-822A-AC49A012BE29}"/>
-    <hyperlink ref="G540" r:id="rId2400" xr:uid="{B337B90F-0E40-4040-AF39-A8050213751B}"/>
-    <hyperlink ref="H540" r:id="rId2401" xr:uid="{38BD2BED-361C-483D-9613-BBBD5D3C73BE}"/>
-    <hyperlink ref="I540" r:id="rId2402" xr:uid="{D7C1390B-36C7-426E-8ECE-482CBC038AD4}"/>
-    <hyperlink ref="J540" r:id="rId2403" xr:uid="{94D51E7D-710A-482A-92AE-5DCC83BD92C2}"/>
-    <hyperlink ref="F541" r:id="rId2404" xr:uid="{CCBD41DC-384C-4D9A-8160-2D9097A11B00}"/>
-    <hyperlink ref="G541" r:id="rId2405" xr:uid="{8EE3470F-256A-4808-86DE-D9C42D21CBA7}"/>
-    <hyperlink ref="H541" r:id="rId2406" xr:uid="{A98C5E4F-B9DC-4454-9F00-73E3976EE637}"/>
-    <hyperlink ref="I541" r:id="rId2407" xr:uid="{4A6CBE79-F902-4A4C-909F-933EC6B18C91}"/>
-    <hyperlink ref="J541" r:id="rId2408" xr:uid="{4C75432D-03F6-4DDC-90C3-83CD9107F177}"/>
+    <hyperlink ref="F528" r:id="rId2338" xr:uid="{0B282F1B-1476-4C40-9750-DBBBE1293C88}"/>
+    <hyperlink ref="G528" r:id="rId2339" xr:uid="{7FFEE950-B4D6-4BC5-A898-D44F45B36A2A}"/>
+    <hyperlink ref="H528" r:id="rId2340" xr:uid="{080B4F96-2D51-4CC1-B936-9E08997F05D8}"/>
+    <hyperlink ref="I528" r:id="rId2341" xr:uid="{9E73E1EE-D8BA-4A8B-81DE-45027731F396}"/>
+    <hyperlink ref="J528" r:id="rId2342" xr:uid="{A1F8E45C-22EA-4591-9392-ECFEF9287897}"/>
+    <hyperlink ref="F529" r:id="rId2343" xr:uid="{C12A07F3-8750-423B-99DA-0F9104118049}"/>
+    <hyperlink ref="G529" r:id="rId2344" xr:uid="{7683C06A-2CD0-4A47-874A-9E725ED14E52}"/>
+    <hyperlink ref="H529" r:id="rId2345" xr:uid="{FE2EF04C-C30F-45F4-8989-083C75C554CC}"/>
+    <hyperlink ref="I529" r:id="rId2346" xr:uid="{01C9CBA3-D7E5-4D73-B01C-8EFBCF16029E}"/>
+    <hyperlink ref="J529" r:id="rId2347" xr:uid="{F37D6522-932B-4C48-A745-E41B9085F398}"/>
+    <hyperlink ref="F530" r:id="rId2348" xr:uid="{53B63128-EF47-4D15-895E-DAB17303D3B5}"/>
+    <hyperlink ref="G530" r:id="rId2349" xr:uid="{7FAF8F7C-6A6B-4EBA-BD7E-5F9D6CD598D8}"/>
+    <hyperlink ref="H530" r:id="rId2350" xr:uid="{BBFA89DD-626B-417F-9987-6C946EAAE270}"/>
+    <hyperlink ref="I530" r:id="rId2351" xr:uid="{AAD41F1C-5435-4492-A45D-67A6C59FCE4D}"/>
+    <hyperlink ref="J530" r:id="rId2352" xr:uid="{28E9577C-EB49-45AA-B12F-3F260D4BAC4B}"/>
+    <hyperlink ref="F531" r:id="rId2353" xr:uid="{D2D436DF-35C0-4AC0-A373-C7D72A10A441}"/>
+    <hyperlink ref="G531" r:id="rId2354" xr:uid="{76CE82D0-FFFA-4DC9-8B1E-2DA95705BD31}"/>
+    <hyperlink ref="H531" r:id="rId2355" xr:uid="{2F754148-C8AA-4630-A7C7-8594AD325832}"/>
+    <hyperlink ref="I531" r:id="rId2356" xr:uid="{E4BF9B9B-1C57-4C0F-9E48-0AA6ED1D9754}"/>
+    <hyperlink ref="J531" r:id="rId2357" xr:uid="{0546E715-FD42-4FFE-A317-FAC83C75B24D}"/>
+    <hyperlink ref="F532" r:id="rId2358" xr:uid="{C119650F-B683-4EEF-886C-DDCE993981A7}"/>
+    <hyperlink ref="G532" r:id="rId2359" xr:uid="{E0BC5C87-02D1-438F-9B7C-D1DA5E3A3423}"/>
+    <hyperlink ref="H532" r:id="rId2360" xr:uid="{AC963072-CD4A-4656-A9EC-53552825F7A2}"/>
+    <hyperlink ref="I532" r:id="rId2361" xr:uid="{A0829A88-6ADF-422A-877B-0DA244E246DB}"/>
+    <hyperlink ref="J532" r:id="rId2362" xr:uid="{AF3EC516-B883-437A-A27D-589F3122C650}"/>
+    <hyperlink ref="F533" r:id="rId2363" xr:uid="{4EBAD27F-24EB-4947-BAC6-443565864930}"/>
+    <hyperlink ref="G533" r:id="rId2364" xr:uid="{B9D779F3-EF57-4F49-9813-5E98BE5B6A5B}"/>
+    <hyperlink ref="H533" r:id="rId2365" xr:uid="{1EEDD3B8-3598-4E3C-919C-E2064B30BFF2}"/>
+    <hyperlink ref="I533" r:id="rId2366" xr:uid="{D3CA925A-3142-4B81-9A03-4F82C9636151}"/>
+    <hyperlink ref="J533" r:id="rId2367" xr:uid="{58524C02-9F8A-4976-9D66-34085DC8C4D4}"/>
+    <hyperlink ref="F534" r:id="rId2368" xr:uid="{9323198D-C94E-4943-8AE9-D85FAAEE5863}"/>
+    <hyperlink ref="G534" r:id="rId2369" xr:uid="{F3E4EF69-829A-4E48-82AC-62B518440858}"/>
+    <hyperlink ref="H534" r:id="rId2370" xr:uid="{90C7C9FB-B9B8-4D73-977C-BCB2DEB563D5}"/>
+    <hyperlink ref="I534" r:id="rId2371" xr:uid="{6EE47BFD-939E-44D2-96D7-BBA8A174C520}"/>
+    <hyperlink ref="J534" r:id="rId2372" xr:uid="{FD416CA8-14B9-4AF3-B222-5D64E75EB62E}"/>
+    <hyperlink ref="F535" r:id="rId2373" xr:uid="{434553A2-7D97-4EDF-BAAB-DD83AC27038D}"/>
+    <hyperlink ref="G535" r:id="rId2374" xr:uid="{F9866DAD-6714-46CB-AF72-92EDB3845B6A}"/>
+    <hyperlink ref="H535" r:id="rId2375" xr:uid="{C74C04DB-EBA8-4DF7-BEDB-A4476E954362}"/>
+    <hyperlink ref="I535" r:id="rId2376" xr:uid="{5DD99B4F-EF6E-4A2E-949B-479FDF5B387F}"/>
+    <hyperlink ref="J535" r:id="rId2377" xr:uid="{722FD566-7772-4BEB-AB6E-7D478DAD629F}"/>
+    <hyperlink ref="F536" r:id="rId2378" xr:uid="{AEB2373A-16E9-4D67-8DEB-72F3131E002D}"/>
+    <hyperlink ref="G536" r:id="rId2379" xr:uid="{F94D1E40-954C-49FC-BF74-70C3EEF2EAB1}"/>
+    <hyperlink ref="H536" r:id="rId2380" xr:uid="{74D3FCC5-6F41-4DC0-9458-5ED254B981A5}"/>
+    <hyperlink ref="I536" r:id="rId2381" xr:uid="{0A5B441E-8521-4BD7-9C1E-2BCAAF75A123}"/>
+    <hyperlink ref="J536" r:id="rId2382" xr:uid="{395DD8AB-DDE6-42F3-90B1-6458289C8843}"/>
+    <hyperlink ref="F537" r:id="rId2383" xr:uid="{C37FA738-2ECD-495C-8E75-129904CAF34F}"/>
+    <hyperlink ref="G537" r:id="rId2384" xr:uid="{669E8A12-948C-4070-AA6B-7C462A5AD82E}"/>
+    <hyperlink ref="H537" r:id="rId2385" xr:uid="{2D534C0B-BE6F-40E0-A886-13A78C782E69}"/>
+    <hyperlink ref="I537" r:id="rId2386" xr:uid="{2DF8CFFE-F0C1-4BC1-A00C-2D56E22453C3}"/>
+    <hyperlink ref="J537" r:id="rId2387" xr:uid="{C01B1273-E37C-460B-8658-8B5CEB995F5B}"/>
+    <hyperlink ref="F538" r:id="rId2388" xr:uid="{C9A1CB54-BB8E-45E4-BE7B-C024DF35C561}"/>
+    <hyperlink ref="G538" r:id="rId2389" xr:uid="{55967FFA-1FAE-47C9-874B-6FE7F19B6897}"/>
+    <hyperlink ref="H538" r:id="rId2390" xr:uid="{04E74B89-E0A4-4B01-A82E-ED272DDD8D08}"/>
+    <hyperlink ref="I538" r:id="rId2391" xr:uid="{3B056DB2-AB76-4745-ACC8-0A62DD103893}"/>
+    <hyperlink ref="J538" r:id="rId2392" xr:uid="{D909E543-1B3F-4C46-B381-74A22964F3DE}"/>
+    <hyperlink ref="F539" r:id="rId2393" xr:uid="{0A8BCD54-B75A-4EF6-8C60-F729F79AA58C}"/>
+    <hyperlink ref="G539" r:id="rId2394" xr:uid="{A8B1C9A4-2CE4-4FE7-B4B9-271B10580160}"/>
+    <hyperlink ref="H539" r:id="rId2395" xr:uid="{7484240D-3179-4D7B-AAC8-077F3D948C9D}"/>
+    <hyperlink ref="I539" r:id="rId2396" xr:uid="{776D7933-45CA-4988-A2B4-E3E6F32A58FE}"/>
+    <hyperlink ref="J539" r:id="rId2397" xr:uid="{E030C336-C24D-4DBA-A052-0AC3053E3C36}"/>
+    <hyperlink ref="F540" r:id="rId2398" xr:uid="{3C1B7D43-DB4A-4952-822A-AC49A012BE29}"/>
+    <hyperlink ref="G540" r:id="rId2399" xr:uid="{B337B90F-0E40-4040-AF39-A8050213751B}"/>
+    <hyperlink ref="H540" r:id="rId2400" xr:uid="{38BD2BED-361C-483D-9613-BBBD5D3C73BE}"/>
+    <hyperlink ref="I540" r:id="rId2401" xr:uid="{D7C1390B-36C7-426E-8ECE-482CBC038AD4}"/>
+    <hyperlink ref="J540" r:id="rId2402" xr:uid="{94D51E7D-710A-482A-92AE-5DCC83BD92C2}"/>
+    <hyperlink ref="F541" r:id="rId2403" xr:uid="{CCBD41DC-384C-4D9A-8160-2D9097A11B00}"/>
+    <hyperlink ref="G541" r:id="rId2404" xr:uid="{8EE3470F-256A-4808-86DE-D9C42D21CBA7}"/>
+    <hyperlink ref="H541" r:id="rId2405" xr:uid="{A98C5E4F-B9DC-4454-9F00-73E3976EE637}"/>
+    <hyperlink ref="I541" r:id="rId2406" xr:uid="{4A6CBE79-F902-4A4C-909F-933EC6B18C91}"/>
+    <hyperlink ref="J541" r:id="rId2407" xr:uid="{4C75432D-03F6-4DDC-90C3-83CD9107F177}"/>
+    <hyperlink ref="J527" r:id="rId2408" xr:uid="{2C8AAE73-1A8B-442F-B33A-32CDF67CD93E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2409"/>

--- a/players.xlsx
+++ b/players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrm\Documents\Python\data_scout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C174738-8DC8-4A34-8FFF-411865D6E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D41774E-EA90-4E18-85D0-8DB3BBBD758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74451770-FF53-415F-8FE2-EAFB6BA6C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hráči" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="3688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="3699">
   <si>
     <t>id</t>
   </si>
@@ -7575,27 +7575,6 @@
     <t>https://www.sofascore.com/api/v1/player/1545383/unique-tournament/178/season/71438/statistics/overall</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Priske</t>
-  </si>
-  <si>
-    <t>https://www.transfermarkt.com/august-priske/profil/spieler/664808</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/cs/football/player/august-priske/1157614</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1157614</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1157614/unique-tournament/40/season/69956/ratings</t>
-  </si>
-  <si>
-    <t>https://www.sofascore.com/api/v1/player/1157614/unique-tournament/40/season/69956/statistics/overall</t>
-  </si>
-  <si>
     <t>Björn</t>
   </si>
   <si>
@@ -11110,6 +11089,60 @@
   </si>
   <si>
     <t>https://www.sofascore.com/api/v1/player/2217006/unique-tournament/135/season/77531/statistics/overall</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/petar-petrovic/profil/spieler/942034</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/petar-petrovic/1500275</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1500275</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1500275/unique-tournament/210/season/76909/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1500275/unique-tournament/210/season/76909/heatmap/overall</t>
+  </si>
+  <si>
+    <t>Ceti Junior</t>
+  </si>
+  <si>
+    <t>Tchibinda</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/ceti-junior-tchibinda/profil/spieler/1078180</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/tchibinda-ceti-junior/1951641</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1951641</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1951641/unique-tournament/197/season/72074/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1951641/unique-tournament/197/season/72074/heatmap/overall</t>
+  </si>
+  <si>
+    <t>Mielke</t>
+  </si>
+  <si>
+    <t>https://www.transfermarkt.com/filip-mielke/profil/spieler/804559</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/cs/football/player/mielke-filip/1150925</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1150925</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1150925/unique-tournament/211/season/77154/ratings</t>
+  </si>
+  <si>
+    <t>https://www.sofascore.com/api/v1/player/1150925/unique-tournament/211/season/77154/heatmap/overall</t>
   </si>
 </sst>
 </file>
@@ -11186,8 +11219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J541" totalsRowShown="0">
-  <autoFilter ref="A1:J541" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}" name="Tabulka1" displayName="Tabulka1" ref="A1:J543" totalsRowShown="0">
+  <autoFilter ref="A1:J543" xr:uid="{1A3377AB-106B-4B39-9B7B-989296654869}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G226">
     <sortCondition ref="A1:A226"/>
   </sortState>
@@ -11504,10 +11537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8716247E-1F35-4206-BB80-F74D5865F4AF}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="J528" sqref="J528"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13552,10 +13585,10 @@
         <v>1127</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2605</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -14494,10 +14527,10 @@
         <v>1153</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -15633,10 +15666,10 @@
         <v>1188</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>2594</v>
+        <v>2587</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -17411,10 +17444,10 @@
         <v>1240</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>2557</v>
+        <v>2550</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>2558</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -19160,10 +19193,10 @@
         <v>1297</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>2606</v>
+        <v>2599</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2607</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -20005,10 +20038,10 @@
         <v>1639</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>2599</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -21107,10 +21140,10 @@
         <v>1852</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>2602</v>
+        <v>2595</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -22130,10 +22163,10 @@
         <v>2417</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>2596</v>
+        <v>2589</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>2597</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -22527,7 +22560,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B363" t="s">
         <v>2509</v>
@@ -22536,7 +22569,7 @@
         <v>2510</v>
       </c>
       <c r="D363" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>2511</v>
@@ -22556,7 +22589,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B364" t="s">
         <v>2516</v>
@@ -22565,7 +22598,7 @@
         <v>2517</v>
       </c>
       <c r="D364" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>2518</v>
@@ -22585,7 +22618,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B365" t="s">
         <v>2523</v>
@@ -22594,7 +22627,7 @@
         <v>2524</v>
       </c>
       <c r="D365" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>2525</v>
@@ -22614,7 +22647,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B366" t="s">
         <v>2530</v>
@@ -22623,7 +22656,7 @@
         <v>2531</v>
       </c>
       <c r="D366" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>2532</v>
@@ -22634,123 +22667,123 @@
       <c r="H366" s="2" t="s">
         <v>2534</v>
       </c>
-      <c r="I366" s="2" t="s">
-        <v>2535</v>
-      </c>
-      <c r="J366" s="2" t="s">
-        <v>2536</v>
-      </c>
+      <c r="I366" s="2"/>
+      <c r="J366" s="2"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B367" t="s">
+        <v>691</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D367" t="s">
+        <v>63</v>
+      </c>
+      <c r="E367" t="s">
+        <v>46</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>2537</v>
       </c>
-      <c r="C367" t="s">
+      <c r="H367" s="2" t="s">
         <v>2538</v>
-      </c>
-      <c r="D367" t="s">
-        <v>10</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>2539</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>2540</v>
-      </c>
-      <c r="H367" s="2" t="s">
-        <v>2541</v>
       </c>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B368" t="s">
-        <v>691</v>
+        <v>2539</v>
       </c>
       <c r="C368" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D368" t="s">
+        <v>10</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>2542</v>
       </c>
-      <c r="D368" t="s">
-        <v>63</v>
-      </c>
-      <c r="E368" t="s">
-        <v>46</v>
-      </c>
-      <c r="F368" s="2" t="s">
+      <c r="H368" s="2" t="s">
         <v>2543</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>2544</v>
-      </c>
-      <c r="H368" s="2" t="s">
-        <v>2545</v>
       </c>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B369" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C369" t="s">
+        <v>672</v>
+      </c>
+      <c r="D369" t="s">
+        <v>41</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>2546</v>
       </c>
-      <c r="C369" t="s">
+      <c r="H369" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I369" s="2" t="s">
         <v>2547</v>
       </c>
-      <c r="D369" t="s">
-        <v>10</v>
-      </c>
-      <c r="F369" s="2" t="s">
+      <c r="J369" s="2" t="s">
         <v>2548</v>
       </c>
-      <c r="G369" s="2" t="s">
-        <v>2549</v>
-      </c>
-      <c r="H369" s="2" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I369" s="2"/>
-      <c r="J369" s="2"/>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B370" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="C370" t="s">
-        <v>672</v>
+        <v>2553</v>
       </c>
       <c r="D370" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="H370" s="2" t="s">
         <v>2556</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="J370" s="2" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B371" t="s">
         <v>2559</v>
@@ -22759,7 +22792,10 @@
         <v>2560</v>
       </c>
       <c r="D371" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="E371" t="s">
+        <v>10</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>2561</v>
@@ -22779,7 +22815,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B372" t="s">
         <v>2566</v>
@@ -22788,10 +22824,7 @@
         <v>2567</v>
       </c>
       <c r="D372" t="s">
-        <v>6</v>
-      </c>
-      <c r="E372" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>2568</v>
@@ -22811,16 +22844,16 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B373" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C373" t="s">
         <v>2573</v>
       </c>
-      <c r="C373" t="s">
-        <v>2574</v>
-      </c>
       <c r="D373" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>2575</v>
@@ -22832,24 +22865,24 @@
         <v>2577</v>
       </c>
       <c r="I373" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="J373" s="2" t="s">
         <v>2579</v>
-      </c>
-      <c r="J373" s="2" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B374" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C374" t="s">
         <v>2581</v>
       </c>
-      <c r="C374" t="s">
-        <v>2580</v>
-      </c>
       <c r="D374" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>2582</v>
@@ -22869,48 +22902,48 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B375" t="s">
-        <v>2587</v>
+        <v>421</v>
       </c>
       <c r="C375" t="s">
-        <v>2588</v>
+        <v>2601</v>
       </c>
       <c r="D375" t="s">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="E375" t="s">
+        <v>41</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>2589</v>
+        <v>2602</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>2590</v>
+        <v>2603</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>2591</v>
+        <v>2604</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>2592</v>
+        <v>2605</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>2593</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B376" t="s">
-        <v>421</v>
+        <v>2607</v>
       </c>
       <c r="C376" t="s">
         <v>2608</v>
       </c>
       <c r="D376" t="s">
-        <v>160</v>
-      </c>
-      <c r="E376" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>2609</v>
@@ -22930,7 +22963,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B377" t="s">
         <v>2614</v>
@@ -22939,7 +22972,10 @@
         <v>2615</v>
       </c>
       <c r="D377" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="E377" t="s">
+        <v>21</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>2616</v>
@@ -22959,48 +22995,45 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B378" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C378" t="s">
         <v>2621</v>
       </c>
-      <c r="C378" t="s">
+      <c r="D378" t="s">
+        <v>30</v>
+      </c>
+      <c r="F378" s="2" t="s">
         <v>2622</v>
       </c>
-      <c r="D378" t="s">
-        <v>41</v>
-      </c>
-      <c r="E378" t="s">
-        <v>21</v>
-      </c>
-      <c r="F378" s="2" t="s">
+      <c r="G378" s="2" t="s">
         <v>2623</v>
       </c>
-      <c r="G378" s="2" t="s">
+      <c r="H378" s="2" t="s">
         <v>2624</v>
       </c>
-      <c r="H378" s="2" t="s">
+      <c r="I378" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="I378" s="2" t="s">
+      <c r="J378" s="2" t="s">
         <v>2626</v>
-      </c>
-      <c r="J378" s="2" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B379" t="s">
-        <v>1741</v>
+        <v>2627</v>
       </c>
       <c r="C379" t="s">
         <v>2628</v>
       </c>
       <c r="D379" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>2629</v>
@@ -23020,7 +23053,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B380" t="s">
         <v>2634</v>
@@ -23029,7 +23062,7 @@
         <v>2635</v>
       </c>
       <c r="D380" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>2636</v>
@@ -23049,7 +23082,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B381" t="s">
         <v>2641</v>
@@ -23058,7 +23091,7 @@
         <v>2642</v>
       </c>
       <c r="D381" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>2643</v>
@@ -23078,7 +23111,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B382" t="s">
         <v>2648</v>
@@ -23087,7 +23120,10 @@
         <v>2649</v>
       </c>
       <c r="D382" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>46</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>2650</v>
@@ -23107,57 +23143,54 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B383" t="s">
+        <v>328</v>
+      </c>
+      <c r="C383" t="s">
+        <v>582</v>
+      </c>
+      <c r="D383" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" t="s">
+        <v>160</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G383" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="C383" t="s">
-        <v>2656</v>
-      </c>
-      <c r="D383" t="s">
-        <v>6</v>
-      </c>
-      <c r="E383" t="s">
-        <v>46</v>
-      </c>
-      <c r="F383" s="2" t="s">
+      <c r="H383" s="2" t="s">
         <v>2657</v>
       </c>
-      <c r="G383" s="2" t="s">
+      <c r="I383" s="2" t="s">
         <v>2658</v>
       </c>
-      <c r="H383" s="2" t="s">
+      <c r="J383" s="2" t="s">
         <v>2659</v>
-      </c>
-      <c r="I383" s="2" t="s">
-        <v>2660</v>
-      </c>
-      <c r="J383" s="2" t="s">
-        <v>2661</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B384" t="s">
-        <v>328</v>
+        <v>2660</v>
       </c>
       <c r="C384" t="s">
-        <v>582</v>
+        <v>2661</v>
       </c>
       <c r="D384" t="s">
-        <v>10</v>
-      </c>
-      <c r="E384" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="F384" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G384" s="2" t="s">
         <v>2663</v>
-      </c>
-      <c r="G384" s="2" t="s">
-        <v>2662</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>2664</v>
@@ -23171,7 +23204,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B385" t="s">
         <v>2667</v>
@@ -23180,7 +23213,7 @@
         <v>2668</v>
       </c>
       <c r="D385" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>2669</v>
@@ -23200,7 +23233,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B386" t="s">
         <v>2674</v>
@@ -23209,7 +23242,7 @@
         <v>2675</v>
       </c>
       <c r="D386" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>2676</v>
@@ -23229,7 +23262,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B387" t="s">
         <v>2681</v>
@@ -23238,7 +23271,7 @@
         <v>2682</v>
       </c>
       <c r="D387" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>2683</v>
@@ -23258,48 +23291,51 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B388" t="s">
+        <v>959</v>
+      </c>
+      <c r="C388" t="s">
         <v>2688</v>
       </c>
-      <c r="C388" t="s">
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388" t="s">
+        <v>160</v>
+      </c>
+      <c r="F388" s="2" t="s">
         <v>2689</v>
       </c>
-      <c r="D388" t="s">
-        <v>160</v>
-      </c>
-      <c r="F388" s="2" t="s">
+      <c r="G388" s="2" t="s">
         <v>2690</v>
       </c>
-      <c r="G388" s="2" t="s">
+      <c r="H388" s="2" t="s">
         <v>2691</v>
       </c>
-      <c r="H388" s="2" t="s">
+      <c r="I388" s="2" t="s">
         <v>2692</v>
       </c>
-      <c r="I388" s="2" t="s">
+      <c r="J388" s="2" t="s">
         <v>2693</v>
-      </c>
-      <c r="J388" s="2" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B389" t="s">
-        <v>959</v>
+        <v>2694</v>
       </c>
       <c r="C389" t="s">
         <v>2695</v>
       </c>
       <c r="D389" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E389" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>2696</v>
@@ -23319,7 +23355,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B390" t="s">
         <v>2701</v>
@@ -23328,10 +23364,7 @@
         <v>2702</v>
       </c>
       <c r="D390" t="s">
-        <v>6</v>
-      </c>
-      <c r="E390" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>2703</v>
@@ -23342,79 +23375,79 @@
       <c r="H390" s="2" t="s">
         <v>2705</v>
       </c>
-      <c r="I390" s="2" t="s">
-        <v>2706</v>
-      </c>
-      <c r="J390" s="2" t="s">
-        <v>2707</v>
-      </c>
+      <c r="I390" s="2"/>
+      <c r="J390" s="2"/>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B391" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D391" t="s">
+        <v>10</v>
+      </c>
+      <c r="F391" s="2" t="s">
         <v>2708</v>
       </c>
-      <c r="C391" t="s">
+      <c r="G391" s="2" t="s">
         <v>2709</v>
       </c>
-      <c r="D391" t="s">
-        <v>129</v>
-      </c>
-      <c r="F391" s="2" t="s">
+      <c r="H391" s="2" t="s">
         <v>2710</v>
       </c>
-      <c r="G391" s="2" t="s">
+      <c r="I391" s="2" t="s">
         <v>2711</v>
       </c>
-      <c r="H391" s="2" t="s">
+      <c r="J391" s="2" t="s">
         <v>2712</v>
       </c>
-      <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B392" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C392" t="s">
         <v>2713</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392" t="s">
+        <v>41</v>
+      </c>
+      <c r="F392" s="2" t="s">
         <v>2714</v>
       </c>
-      <c r="D392" t="s">
-        <v>10</v>
-      </c>
-      <c r="F392" s="2" t="s">
+      <c r="G392" s="2" t="s">
         <v>2715</v>
       </c>
-      <c r="G392" s="2" t="s">
+      <c r="H392" s="2" t="s">
         <v>2716</v>
       </c>
-      <c r="H392" s="2" t="s">
+      <c r="I392" s="2" t="s">
         <v>2717</v>
       </c>
-      <c r="I392" s="2" t="s">
+      <c r="J392" s="2" t="s">
         <v>2718</v>
-      </c>
-      <c r="J392" s="2" t="s">
-        <v>2719</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B393" t="s">
-        <v>1690</v>
+        <v>2719</v>
       </c>
       <c r="C393" t="s">
         <v>2720</v>
       </c>
       <c r="D393" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>2721</v>
@@ -23425,97 +23458,100 @@
       <c r="H393" s="2" t="s">
         <v>2723</v>
       </c>
-      <c r="I393" s="2" t="s">
-        <v>2724</v>
-      </c>
-      <c r="J393" s="2" t="s">
-        <v>2725</v>
-      </c>
+      <c r="I393" s="2"/>
+      <c r="J393" s="2"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B394" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D394" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" t="s">
+        <v>10</v>
+      </c>
+      <c r="F394" s="2" t="s">
         <v>2726</v>
       </c>
-      <c r="C394" t="s">
+      <c r="G394" s="2" t="s">
         <v>2727</v>
       </c>
-      <c r="D394" t="s">
-        <v>30</v>
-      </c>
-      <c r="F394" s="2" t="s">
+      <c r="H394" s="2" t="s">
         <v>2728</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>2729</v>
-      </c>
-      <c r="H394" s="2" t="s">
-        <v>2730</v>
       </c>
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B395" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D395" t="s">
+        <v>160</v>
+      </c>
+      <c r="E395" t="s">
+        <v>6</v>
+      </c>
+      <c r="F395" s="2" t="s">
         <v>2731</v>
       </c>
-      <c r="C395" t="s">
+      <c r="G395" s="2" t="s">
         <v>2732</v>
       </c>
-      <c r="D395" t="s">
-        <v>6</v>
-      </c>
-      <c r="E395" t="s">
-        <v>10</v>
-      </c>
-      <c r="F395" s="2" t="s">
+      <c r="H395" s="2" t="s">
         <v>2733</v>
-      </c>
-      <c r="G395" s="2" t="s">
-        <v>2734</v>
-      </c>
-      <c r="H395" s="2" t="s">
-        <v>2735</v>
       </c>
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B396" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C396" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="D396" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="E396" t="s">
         <v>6</v>
       </c>
       <c r="F396" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="H396" s="2" t="s">
         <v>2738</v>
       </c>
-      <c r="G396" s="2" t="s">
+      <c r="I396" s="2" t="s">
         <v>2739</v>
       </c>
-      <c r="H396" s="2" t="s">
+      <c r="J396" s="2" t="s">
         <v>2740</v>
       </c>
-      <c r="I396" s="2"/>
-      <c r="J396" s="2"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B397" t="s">
         <v>2741</v>
@@ -23524,9 +23560,6 @@
         <v>2742</v>
       </c>
       <c r="D397" t="s">
-        <v>46</v>
-      </c>
-      <c r="E397" t="s">
         <v>6</v>
       </c>
       <c r="F397" s="2" t="s">
@@ -23547,7 +23580,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B398" t="s">
         <v>2748</v>
@@ -23556,7 +23589,10 @@
         <v>2749</v>
       </c>
       <c r="D398" t="s">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="E398" t="s">
+        <v>10</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>2750</v>
@@ -23568,39 +23604,39 @@
         <v>2752</v>
       </c>
       <c r="I398" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="J398" s="2" t="s">
         <v>2753</v>
-      </c>
-      <c r="J398" s="2" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B399" t="s">
+        <v>966</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D399" t="s">
+        <v>41</v>
+      </c>
+      <c r="E399" t="s">
+        <v>160</v>
+      </c>
+      <c r="F399" s="2" t="s">
         <v>2755</v>
       </c>
-      <c r="C399" t="s">
+      <c r="G399" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="D399" t="s">
-        <v>160</v>
-      </c>
-      <c r="E399" t="s">
-        <v>10</v>
-      </c>
-      <c r="F399" s="2" t="s">
+      <c r="H399" s="2" t="s">
         <v>2757</v>
       </c>
-      <c r="G399" s="2" t="s">
+      <c r="I399" s="2" t="s">
         <v>2758</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>2759</v>
-      </c>
-      <c r="I399" s="2" t="s">
-        <v>2766</v>
       </c>
       <c r="J399" s="2" t="s">
         <v>2760</v>
@@ -23608,31 +23644,28 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B400" t="s">
-        <v>966</v>
+        <v>2761</v>
       </c>
       <c r="C400" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="D400" t="s">
-        <v>41</v>
-      </c>
-      <c r="E400" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="J400" s="2" t="s">
         <v>2767</v>
@@ -23640,7 +23673,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B401" t="s">
         <v>2768</v>
@@ -23649,7 +23682,7 @@
         <v>2769</v>
       </c>
       <c r="D401" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>2770</v>
@@ -23669,74 +23702,77 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B402" t="s">
+        <v>720</v>
+      </c>
+      <c r="C402" t="s">
         <v>2775</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402" t="s">
+        <v>41</v>
+      </c>
+      <c r="F402" s="2" t="s">
         <v>2776</v>
       </c>
-      <c r="D402" t="s">
-        <v>25</v>
-      </c>
-      <c r="F402" s="2" t="s">
+      <c r="G402" s="2" t="s">
         <v>2777</v>
       </c>
-      <c r="G402" s="2" t="s">
+      <c r="H402" s="2" t="s">
         <v>2778</v>
       </c>
-      <c r="H402" s="2" t="s">
+      <c r="I402" s="2" t="s">
         <v>2779</v>
       </c>
-      <c r="I402" s="2" t="s">
+      <c r="J402" s="2" t="s">
         <v>2780</v>
-      </c>
-      <c r="J402" s="2" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B403" t="s">
-        <v>720</v>
+        <v>1707</v>
       </c>
       <c r="C403" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D403" t="s">
+        <v>30</v>
+      </c>
+      <c r="F403" s="2" t="s">
         <v>2782</v>
       </c>
-      <c r="D403" t="s">
-        <v>41</v>
-      </c>
-      <c r="F403" s="2" t="s">
+      <c r="G403" s="2" t="s">
         <v>2783</v>
       </c>
-      <c r="G403" s="2" t="s">
+      <c r="H403" s="2" t="s">
         <v>2784</v>
       </c>
-      <c r="H403" s="2" t="s">
+      <c r="I403" s="2" t="s">
         <v>2785</v>
       </c>
-      <c r="I403" s="2" t="s">
+      <c r="J403" s="2" t="s">
         <v>2786</v>
-      </c>
-      <c r="J403" s="2" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B404" t="s">
-        <v>1707</v>
+        <v>2787</v>
       </c>
       <c r="C404" t="s">
         <v>2788</v>
       </c>
       <c r="D404" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="E404" t="s">
+        <v>10</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>2789</v>
@@ -23756,77 +23792,77 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B405" t="s">
         <v>2794</v>
       </c>
       <c r="C405" t="s">
+        <v>232</v>
+      </c>
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+      <c r="F405" s="2" t="s">
         <v>2795</v>
       </c>
-      <c r="D405" t="s">
-        <v>160</v>
-      </c>
-      <c r="E405" t="s">
-        <v>10</v>
-      </c>
-      <c r="F405" s="2" t="s">
+      <c r="G405" s="2" t="s">
         <v>2796</v>
       </c>
-      <c r="G405" s="2" t="s">
+      <c r="H405" s="2" t="s">
         <v>2797</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>2798</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="2" t="s">
         <v>2799</v>
-      </c>
-      <c r="J405" s="2" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B406" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C406" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D406" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" s="2" t="s">
         <v>2801</v>
       </c>
-      <c r="C406" t="s">
-        <v>232</v>
-      </c>
-      <c r="D406" t="s">
-        <v>6</v>
-      </c>
-      <c r="F406" s="2" t="s">
+      <c r="G406" s="2" t="s">
         <v>2802</v>
       </c>
-      <c r="G406" s="2" t="s">
+      <c r="H406" s="2" t="s">
         <v>2803</v>
       </c>
-      <c r="H406" s="2" t="s">
+      <c r="I406" s="2" t="s">
         <v>2804</v>
       </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="2" t="s">
         <v>2805</v>
-      </c>
-      <c r="J406" s="2" t="s">
-        <v>2806</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B407" t="s">
-        <v>1602</v>
+        <v>2806</v>
       </c>
       <c r="C407" t="s">
         <v>2807</v>
       </c>
       <c r="D407" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="E407" t="s">
+        <v>160</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>2808</v>
@@ -23846,7 +23882,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B408" t="s">
         <v>2813</v>
@@ -23855,10 +23891,10 @@
         <v>2814</v>
       </c>
       <c r="D408" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E408" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>2815</v>
@@ -23878,7 +23914,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B409" t="s">
         <v>2820</v>
@@ -23887,9 +23923,6 @@
         <v>2821</v>
       </c>
       <c r="D409" t="s">
-        <v>30</v>
-      </c>
-      <c r="E409" t="s">
         <v>21</v>
       </c>
       <c r="F409" s="2" t="s">
@@ -23910,7 +23943,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B410" t="s">
         <v>2827</v>
@@ -23919,7 +23952,7 @@
         <v>2828</v>
       </c>
       <c r="D410" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>2829</v>
@@ -23939,45 +23972,45 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B411" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C411" t="s">
         <v>2834</v>
       </c>
-      <c r="C411" t="s">
+      <c r="D411" t="s">
+        <v>6</v>
+      </c>
+      <c r="F411" s="2" t="s">
         <v>2835</v>
       </c>
-      <c r="D411" t="s">
-        <v>25</v>
-      </c>
-      <c r="F411" s="2" t="s">
+      <c r="G411" s="2" t="s">
         <v>2836</v>
       </c>
-      <c r="G411" s="2" t="s">
+      <c r="H411" s="2" t="s">
         <v>2837</v>
       </c>
-      <c r="H411" s="2" t="s">
+      <c r="I411" s="2" t="s">
         <v>2838</v>
       </c>
-      <c r="I411" s="2" t="s">
+      <c r="J411" s="2" t="s">
         <v>2839</v>
-      </c>
-      <c r="J411" s="2" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B412" t="s">
-        <v>1707</v>
+        <v>2840</v>
       </c>
       <c r="C412" t="s">
         <v>2841</v>
       </c>
       <c r="D412" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>2842</v>
@@ -23997,7 +24030,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B413" t="s">
         <v>2847</v>
@@ -24006,7 +24039,7 @@
         <v>2848</v>
       </c>
       <c r="D413" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>2849</v>
@@ -24026,7 +24059,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B414" t="s">
         <v>2854</v>
@@ -24035,7 +24068,10 @@
         <v>2855</v>
       </c>
       <c r="D414" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="E414" t="s">
+        <v>21</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>2856</v>
@@ -24055,7 +24091,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B415" t="s">
         <v>2861</v>
@@ -24064,10 +24100,7 @@
         <v>2862</v>
       </c>
       <c r="D415" t="s">
-        <v>63</v>
-      </c>
-      <c r="E415" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>2863</v>
@@ -24087,7 +24120,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B416" t="s">
         <v>2868</v>
@@ -24096,7 +24129,7 @@
         <v>2869</v>
       </c>
       <c r="D416" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>2870</v>
@@ -24105,10 +24138,10 @@
         <v>2871</v>
       </c>
       <c r="H416" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="I416" s="2" t="s">
         <v>2872</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>2873</v>
       </c>
       <c r="J416" s="2" t="s">
         <v>2874</v>
@@ -24116,7 +24149,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B417" t="s">
         <v>2875</v>
@@ -24125,7 +24158,10 @@
         <v>2876</v>
       </c>
       <c r="D417" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E417" t="s">
+        <v>63</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>2877</v>
@@ -24134,10 +24170,10 @@
         <v>2878</v>
       </c>
       <c r="H417" s="2" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I417" s="2" t="s">
         <v>2880</v>
-      </c>
-      <c r="I417" s="2" t="s">
-        <v>2879</v>
       </c>
       <c r="J417" s="2" t="s">
         <v>2881</v>
@@ -24145,7 +24181,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B418" t="s">
         <v>2882</v>
@@ -24154,9 +24190,6 @@
         <v>2883</v>
       </c>
       <c r="D418" t="s">
-        <v>46</v>
-      </c>
-      <c r="E418" t="s">
         <v>63</v>
       </c>
       <c r="F418" s="2" t="s">
@@ -24177,7 +24210,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B419" t="s">
         <v>2889</v>
@@ -24186,7 +24219,10 @@
         <v>2890</v>
       </c>
       <c r="D419" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="E419" t="s">
+        <v>25</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>2891</v>
@@ -24206,7 +24242,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B420" t="s">
         <v>2896</v>
@@ -24217,9 +24253,6 @@
       <c r="D420" t="s">
         <v>6</v>
       </c>
-      <c r="E420" t="s">
-        <v>25</v>
-      </c>
       <c r="F420" s="2" t="s">
         <v>2898</v>
       </c>
@@ -24238,7 +24271,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B421" t="s">
         <v>2903</v>
@@ -24247,7 +24280,7 @@
         <v>2904</v>
       </c>
       <c r="D421" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>2905</v>
@@ -24267,74 +24300,74 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B422" t="s">
+        <v>525</v>
+      </c>
+      <c r="C422" t="s">
         <v>2910</v>
       </c>
-      <c r="C422" t="s">
+      <c r="D422" t="s">
+        <v>41</v>
+      </c>
+      <c r="F422" s="2" t="s">
         <v>2911</v>
       </c>
-      <c r="D422" t="s">
-        <v>30</v>
-      </c>
-      <c r="F422" s="2" t="s">
+      <c r="G422" s="2" t="s">
         <v>2912</v>
       </c>
-      <c r="G422" s="2" t="s">
+      <c r="H422" s="2" t="s">
         <v>2913</v>
       </c>
-      <c r="H422" s="2" t="s">
+      <c r="I422" s="2" t="s">
         <v>2914</v>
       </c>
-      <c r="I422" s="2" t="s">
+      <c r="J422" s="2" t="s">
         <v>2915</v>
-      </c>
-      <c r="J422" s="2" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B423" t="s">
-        <v>525</v>
+        <v>328</v>
       </c>
       <c r="C423" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D423" t="s">
+        <v>160</v>
+      </c>
+      <c r="F423" s="2" t="s">
         <v>2917</v>
       </c>
-      <c r="D423" t="s">
-        <v>41</v>
-      </c>
-      <c r="F423" s="2" t="s">
+      <c r="G423" s="2" t="s">
         <v>2918</v>
       </c>
-      <c r="G423" s="2" t="s">
+      <c r="H423" s="2" t="s">
         <v>2919</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>2920</v>
       </c>
       <c r="I423" s="2" t="s">
         <v>2921</v>
       </c>
       <c r="J423" s="2" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B424" t="s">
-        <v>328</v>
+        <v>2922</v>
       </c>
       <c r="C424" t="s">
         <v>2923</v>
       </c>
       <c r="D424" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>2924</v>
@@ -24343,56 +24376,59 @@
         <v>2925</v>
       </c>
       <c r="H424" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I424" s="2" t="s">
         <v>2926</v>
       </c>
-      <c r="I424" s="2" t="s">
+      <c r="J424" s="2" t="s">
         <v>2928</v>
-      </c>
-      <c r="J424" s="2" t="s">
-        <v>2927</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B425" t="s">
+        <v>493</v>
+      </c>
+      <c r="C425" t="s">
         <v>2929</v>
       </c>
-      <c r="C425" t="s">
+      <c r="D425" t="s">
+        <v>46</v>
+      </c>
+      <c r="F425" s="2" t="s">
         <v>2930</v>
       </c>
-      <c r="D425" t="s">
-        <v>30</v>
-      </c>
-      <c r="F425" s="2" t="s">
+      <c r="G425" s="2" t="s">
         <v>2931</v>
       </c>
-      <c r="G425" s="2" t="s">
+      <c r="H425" s="2" t="s">
         <v>2932</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>2934</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>2933</v>
       </c>
       <c r="J425" s="2" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B426" t="s">
-        <v>493</v>
+        <v>2935</v>
       </c>
       <c r="C426" t="s">
         <v>2936</v>
       </c>
       <c r="D426" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="E426" t="s">
+        <v>6</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>2937</v>
@@ -24412,103 +24448,100 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B427" t="s">
         <v>2942</v>
       </c>
       <c r="C427" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D427" t="s">
+        <v>41</v>
+      </c>
+      <c r="F427" s="2" t="s">
         <v>2943</v>
       </c>
-      <c r="D427" t="s">
-        <v>10</v>
-      </c>
-      <c r="E427" t="s">
-        <v>6</v>
-      </c>
-      <c r="F427" s="2" t="s">
+      <c r="G427" s="2" t="s">
         <v>2944</v>
       </c>
-      <c r="G427" s="2" t="s">
+      <c r="H427" s="2" t="s">
         <v>2945</v>
       </c>
-      <c r="H427" s="2" t="s">
+      <c r="I427" s="2" t="s">
         <v>2946</v>
       </c>
-      <c r="I427" s="2" t="s">
+      <c r="J427" s="2" t="s">
         <v>2947</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>2948</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B428" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C428" t="s">
+        <v>635</v>
+      </c>
+      <c r="D428" t="s">
+        <v>21</v>
+      </c>
+      <c r="E428" t="s">
+        <v>41</v>
+      </c>
+      <c r="F428" s="2" t="s">
         <v>2949</v>
       </c>
-      <c r="C428" t="s">
-        <v>2302</v>
-      </c>
-      <c r="D428" t="s">
-        <v>41</v>
-      </c>
-      <c r="F428" s="2" t="s">
+      <c r="G428" s="2" t="s">
         <v>2950</v>
       </c>
-      <c r="G428" s="2" t="s">
+      <c r="H428" s="2" t="s">
         <v>2951</v>
       </c>
-      <c r="H428" s="2" t="s">
+      <c r="I428" s="2" t="s">
         <v>2952</v>
       </c>
-      <c r="I428" s="2" t="s">
+      <c r="J428" s="2" t="s">
         <v>2953</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>2954</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B429" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D429" t="s">
+        <v>30</v>
+      </c>
+      <c r="F429" s="2" t="s">
         <v>2955</v>
       </c>
-      <c r="C429" t="s">
-        <v>635</v>
-      </c>
-      <c r="D429" t="s">
-        <v>21</v>
-      </c>
-      <c r="E429" t="s">
-        <v>41</v>
-      </c>
-      <c r="F429" s="2" t="s">
+      <c r="G429" s="2" t="s">
         <v>2956</v>
       </c>
-      <c r="G429" s="2" t="s">
+      <c r="H429" s="2" t="s">
         <v>2957</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="I429" s="2" t="s">
         <v>2958</v>
       </c>
-      <c r="I429" s="2" t="s">
+      <c r="J429" s="2" t="s">
         <v>2959</v>
-      </c>
-      <c r="J429" s="2" t="s">
-        <v>2960</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B430" t="s">
-        <v>1799</v>
+        <v>2960</v>
       </c>
       <c r="C430" t="s">
         <v>2961</v>
@@ -24534,77 +24567,77 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B431" t="s">
+        <v>328</v>
+      </c>
+      <c r="C431" t="s">
         <v>2967</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
+        <v>63</v>
+      </c>
+      <c r="F431" s="2" t="s">
         <v>2968</v>
       </c>
-      <c r="D431" t="s">
-        <v>30</v>
-      </c>
-      <c r="F431" s="2" t="s">
+      <c r="G431" s="2" t="s">
         <v>2969</v>
       </c>
-      <c r="G431" s="2" t="s">
+      <c r="H431" s="2" t="s">
         <v>2970</v>
       </c>
-      <c r="H431" s="2" t="s">
+      <c r="I431" s="2" t="s">
         <v>2971</v>
       </c>
-      <c r="I431" s="2" t="s">
+      <c r="J431" s="2" t="s">
         <v>2972</v>
-      </c>
-      <c r="J431" s="2" t="s">
-        <v>2973</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B432" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="C432" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D432" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>46</v>
+      </c>
+      <c r="F432" s="2" t="s">
         <v>2974</v>
       </c>
-      <c r="D432" t="s">
-        <v>63</v>
-      </c>
-      <c r="F432" s="2" t="s">
+      <c r="G432" s="2" t="s">
         <v>2975</v>
       </c>
-      <c r="G432" s="2" t="s">
+      <c r="H432" s="2" t="s">
         <v>2976</v>
       </c>
-      <c r="H432" s="2" t="s">
+      <c r="I432" s="2" t="s">
         <v>2977</v>
       </c>
-      <c r="I432" s="2" t="s">
+      <c r="J432" s="2" t="s">
         <v>2978</v>
-      </c>
-      <c r="J432" s="2" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B433" t="s">
-        <v>179</v>
+        <v>2979</v>
       </c>
       <c r="C433" t="s">
         <v>2980</v>
       </c>
       <c r="D433" t="s">
-        <v>6</v>
-      </c>
-      <c r="E433" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>2981</v>
@@ -24624,185 +24657,185 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B434" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C434" t="s">
         <v>2986</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" t="s">
+        <v>41</v>
+      </c>
+      <c r="F434" s="2" t="s">
         <v>2987</v>
       </c>
-      <c r="D434" t="s">
-        <v>129</v>
-      </c>
-      <c r="F434" s="2" t="s">
+      <c r="G434" s="2" t="s">
         <v>2988</v>
       </c>
-      <c r="G434" s="2" t="s">
+      <c r="H434" s="2" t="s">
         <v>2989</v>
       </c>
-      <c r="H434" s="2" t="s">
-        <v>2990</v>
-      </c>
-      <c r="I434" s="2" t="s">
-        <v>2991</v>
-      </c>
-      <c r="J434" s="2" t="s">
-        <v>2992</v>
-      </c>
+      <c r="I434" s="2"/>
+      <c r="J434" s="2"/>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B435" t="s">
-        <v>2801</v>
+        <v>2990</v>
       </c>
       <c r="C435" t="s">
-        <v>2993</v>
+        <v>748</v>
       </c>
       <c r="D435" t="s">
         <v>41</v>
       </c>
       <c r="F435" s="2" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>2993</v>
+      </c>
+      <c r="I435" s="2" t="s">
         <v>2994</v>
       </c>
-      <c r="G435" s="2" t="s">
+      <c r="J435" s="2" t="s">
         <v>2995</v>
       </c>
-      <c r="H435" s="2" t="s">
-        <v>2996</v>
-      </c>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2"/>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B436" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C436" t="s">
         <v>748</v>
       </c>
       <c r="D436" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E436" t="s">
+        <v>6</v>
       </c>
       <c r="F436" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G436" s="2" t="s">
         <v>2998</v>
       </c>
-      <c r="G436" s="2" t="s">
+      <c r="H436" s="2" t="s">
         <v>2999</v>
       </c>
-      <c r="H436" s="2" t="s">
+      <c r="I436" s="2" t="s">
         <v>3000</v>
       </c>
-      <c r="I436" s="2" t="s">
+      <c r="J436" s="2" t="s">
         <v>3001</v>
-      </c>
-      <c r="J436" s="2" t="s">
-        <v>3002</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B437" t="s">
+        <v>382</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" t="s">
+        <v>46</v>
+      </c>
+      <c r="F437" s="2" t="s">
         <v>3003</v>
       </c>
-      <c r="C437" t="s">
-        <v>748</v>
-      </c>
-      <c r="D437" t="s">
-        <v>46</v>
-      </c>
-      <c r="E437" t="s">
-        <v>6</v>
-      </c>
-      <c r="F437" s="2" t="s">
+      <c r="G437" s="2" t="s">
         <v>3004</v>
       </c>
-      <c r="G437" s="2" t="s">
+      <c r="H437" s="2" t="s">
         <v>3005</v>
       </c>
-      <c r="H437" s="2" t="s">
-        <v>3006</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>3007</v>
-      </c>
-      <c r="J437" s="2" t="s">
-        <v>3008</v>
-      </c>
+      <c r="I437" s="2"/>
+      <c r="J437" s="2"/>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B438" t="s">
-        <v>382</v>
+        <v>3006</v>
       </c>
       <c r="C438" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D438" t="s">
+        <v>160</v>
+      </c>
+      <c r="E438" t="s">
+        <v>6</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>3008</v>
+      </c>
+      <c r="G438" s="2" t="s">
         <v>3009</v>
       </c>
-      <c r="D438" t="s">
-        <v>6</v>
-      </c>
-      <c r="E438" t="s">
-        <v>46</v>
-      </c>
-      <c r="F438" s="2" t="s">
+      <c r="H438" s="2" t="s">
         <v>3010</v>
       </c>
-      <c r="G438" s="2" t="s">
+      <c r="I438" s="2" t="s">
         <v>3011</v>
       </c>
-      <c r="H438" s="2" t="s">
+      <c r="J438" s="2" t="s">
         <v>3012</v>
       </c>
-      <c r="I438" s="2"/>
-      <c r="J438" s="2"/>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B439" t="s">
+        <v>440</v>
+      </c>
+      <c r="C439" t="s">
         <v>3013</v>
       </c>
-      <c r="C439" t="s">
+      <c r="D439" t="s">
+        <v>41</v>
+      </c>
+      <c r="F439" s="2" t="s">
         <v>3014</v>
       </c>
-      <c r="D439" t="s">
-        <v>160</v>
-      </c>
-      <c r="E439" t="s">
-        <v>6</v>
-      </c>
-      <c r="F439" s="2" t="s">
+      <c r="G439" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="G439" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>3016</v>
       </c>
-      <c r="H439" s="2" t="s">
+      <c r="I439" s="2" t="s">
         <v>3017</v>
       </c>
-      <c r="I439" s="2" t="s">
+      <c r="J439" s="2" t="s">
         <v>3018</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B440" t="s">
-        <v>440</v>
+        <v>3019</v>
       </c>
       <c r="C440" t="s">
         <v>3020</v>
@@ -24828,45 +24861,45 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B441" t="s">
+        <v>328</v>
+      </c>
+      <c r="C441" t="s">
         <v>3026</v>
       </c>
-      <c r="C441" t="s">
+      <c r="D441" t="s">
+        <v>25</v>
+      </c>
+      <c r="F441" s="2" t="s">
         <v>3027</v>
       </c>
-      <c r="D441" t="s">
-        <v>41</v>
-      </c>
-      <c r="F441" s="2" t="s">
+      <c r="G441" s="2" t="s">
         <v>3028</v>
       </c>
-      <c r="G441" s="2" t="s">
+      <c r="H441" s="2" t="s">
         <v>3029</v>
       </c>
-      <c r="H441" s="2" t="s">
+      <c r="I441" s="2" t="s">
         <v>3030</v>
       </c>
-      <c r="I441" s="2" t="s">
+      <c r="J441" s="2" t="s">
         <v>3031</v>
-      </c>
-      <c r="J441" s="2" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B442" t="s">
-        <v>328</v>
+        <v>3032</v>
       </c>
       <c r="C442" t="s">
         <v>3033</v>
       </c>
       <c r="D442" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>3034</v>
@@ -24886,77 +24919,77 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B443" t="s">
+        <v>437</v>
+      </c>
+      <c r="C443" t="s">
         <v>3039</v>
       </c>
-      <c r="C443" t="s">
+      <c r="D443" t="s">
+        <v>41</v>
+      </c>
+      <c r="F443" s="2" t="s">
         <v>3040</v>
       </c>
-      <c r="D443" t="s">
-        <v>10</v>
-      </c>
-      <c r="F443" s="2" t="s">
+      <c r="G443" s="2" t="s">
         <v>3041</v>
       </c>
-      <c r="G443" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>3042</v>
       </c>
-      <c r="H443" s="2" t="s">
+      <c r="I443" s="2" t="s">
         <v>3043</v>
       </c>
-      <c r="I443" s="2" t="s">
+      <c r="J443" s="2" t="s">
         <v>3044</v>
-      </c>
-      <c r="J443" s="2" t="s">
-        <v>3045</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B444" t="s">
-        <v>437</v>
+        <v>978</v>
       </c>
       <c r="C444" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D444" t="s">
+        <v>46</v>
+      </c>
+      <c r="E444" t="s">
+        <v>6</v>
+      </c>
+      <c r="F444" s="2" t="s">
         <v>3046</v>
       </c>
-      <c r="D444" t="s">
-        <v>41</v>
-      </c>
-      <c r="F444" s="2" t="s">
+      <c r="G444" s="2" t="s">
         <v>3047</v>
       </c>
-      <c r="G444" s="2" t="s">
+      <c r="H444" s="2" t="s">
         <v>3048</v>
       </c>
-      <c r="H444" s="2" t="s">
+      <c r="I444" s="2" t="s">
         <v>3049</v>
       </c>
-      <c r="I444" s="2" t="s">
+      <c r="J444" s="2" t="s">
         <v>3050</v>
-      </c>
-      <c r="J444" s="2" t="s">
-        <v>3051</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B445" t="s">
-        <v>978</v>
+        <v>3051</v>
       </c>
       <c r="C445" t="s">
         <v>3052</v>
       </c>
       <c r="D445" t="s">
-        <v>46</v>
-      </c>
-      <c r="E445" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>3053</v>
@@ -24976,109 +25009,112 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B446" t="s">
+        <v>978</v>
+      </c>
+      <c r="C446" t="s">
         <v>3058</v>
       </c>
-      <c r="C446" t="s">
+      <c r="D446" t="s">
+        <v>41</v>
+      </c>
+      <c r="E446" t="s">
+        <v>160</v>
+      </c>
+      <c r="F446" s="2" t="s">
         <v>3059</v>
       </c>
-      <c r="D446" t="s">
-        <v>10</v>
-      </c>
-      <c r="F446" s="2" t="s">
+      <c r="G446" s="2" t="s">
         <v>3060</v>
       </c>
-      <c r="G446" s="2" t="s">
+      <c r="H446" s="2" t="s">
         <v>3061</v>
       </c>
-      <c r="H446" s="2" t="s">
+      <c r="I446" s="2" t="s">
         <v>3062</v>
       </c>
-      <c r="I446" s="2" t="s">
+      <c r="J446" s="2" t="s">
         <v>3063</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B447" t="s">
-        <v>978</v>
+        <v>50</v>
       </c>
       <c r="C447" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>46</v>
+      </c>
+      <c r="F447" s="2" t="s">
         <v>3065</v>
       </c>
-      <c r="D447" t="s">
-        <v>41</v>
-      </c>
-      <c r="E447" t="s">
-        <v>160</v>
-      </c>
-      <c r="F447" s="2" t="s">
+      <c r="G447" s="2" t="s">
         <v>3066</v>
       </c>
-      <c r="G447" s="2" t="s">
+      <c r="H447" s="2" t="s">
         <v>3067</v>
       </c>
-      <c r="H447" s="2" t="s">
+      <c r="I447" s="2" t="s">
         <v>3068</v>
       </c>
-      <c r="I447" s="2" t="s">
+      <c r="J447" s="2" t="s">
         <v>3069</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>3070</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B448" t="s">
-        <v>50</v>
+        <v>339</v>
       </c>
       <c r="C448" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D448" t="s">
+        <v>30</v>
+      </c>
+      <c r="F448" s="2" t="s">
         <v>3071</v>
       </c>
-      <c r="D448" t="s">
-        <v>6</v>
-      </c>
-      <c r="E448" t="s">
-        <v>46</v>
-      </c>
-      <c r="F448" s="2" t="s">
+      <c r="G448" s="2" t="s">
         <v>3072</v>
       </c>
-      <c r="G448" s="2" t="s">
+      <c r="H448" s="2" t="s">
         <v>3073</v>
       </c>
-      <c r="H448" s="2" t="s">
+      <c r="I448" s="2" t="s">
         <v>3074</v>
       </c>
-      <c r="I448" s="2" t="s">
+      <c r="J448" s="2" t="s">
         <v>3075</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B449" t="s">
-        <v>339</v>
+        <v>3076</v>
       </c>
       <c r="C449" t="s">
         <v>3077</v>
       </c>
       <c r="D449" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="E449" t="s">
+        <v>63</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>3078</v>
@@ -25098,45 +25134,42 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B450" t="s">
         <v>3083</v>
       </c>
       <c r="C450" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D450" t="s">
+        <v>10</v>
+      </c>
+      <c r="F450" s="2" t="s">
         <v>3084</v>
       </c>
-      <c r="D450" t="s">
-        <v>46</v>
-      </c>
-      <c r="E450" t="s">
-        <v>63</v>
-      </c>
-      <c r="F450" s="2" t="s">
+      <c r="G450" s="2" t="s">
         <v>3085</v>
       </c>
-      <c r="G450" s="2" t="s">
+      <c r="H450" s="2" t="s">
         <v>3086</v>
       </c>
-      <c r="H450" s="2" t="s">
+      <c r="I450" s="2" t="s">
         <v>3087</v>
       </c>
-      <c r="I450" s="2" t="s">
+      <c r="J450" s="2" t="s">
         <v>3088</v>
-      </c>
-      <c r="J450" s="2" t="s">
-        <v>3089</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B451" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C451" t="s">
         <v>3090</v>
-      </c>
-      <c r="C451" t="s">
-        <v>2302</v>
       </c>
       <c r="D451" t="s">
         <v>10</v>
@@ -25159,7 +25192,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B452" t="s">
         <v>3096</v>
@@ -25188,7 +25221,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B453" t="s">
         <v>3103</v>
@@ -25197,7 +25230,10 @@
         <v>3104</v>
       </c>
       <c r="D453" t="s">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="E453" t="s">
+        <v>41</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>3105</v>
@@ -25217,7 +25253,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B454" t="s">
         <v>3110</v>
@@ -25226,10 +25262,10 @@
         <v>3111</v>
       </c>
       <c r="D454" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="E454" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>3112</v>
@@ -25249,7 +25285,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B455" t="s">
         <v>3117</v>
@@ -25258,10 +25294,7 @@
         <v>3118</v>
       </c>
       <c r="D455" t="s">
-        <v>41</v>
-      </c>
-      <c r="E455" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>3119</v>
@@ -25281,7 +25314,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B456" t="s">
         <v>3124</v>
@@ -25290,7 +25323,7 @@
         <v>3125</v>
       </c>
       <c r="D456" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>3126</v>
@@ -25310,45 +25343,45 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B457" t="s">
         <v>3131</v>
       </c>
       <c r="C457" t="s">
+        <v>232</v>
+      </c>
+      <c r="D457" t="s">
+        <v>41</v>
+      </c>
+      <c r="F457" s="2" t="s">
         <v>3132</v>
       </c>
-      <c r="D457" t="s">
-        <v>46</v>
-      </c>
-      <c r="F457" s="2" t="s">
+      <c r="G457" s="2" t="s">
         <v>3133</v>
       </c>
-      <c r="G457" s="2" t="s">
+      <c r="H457" s="2" t="s">
         <v>3134</v>
       </c>
-      <c r="H457" s="2" t="s">
+      <c r="I457" s="2" t="s">
         <v>3135</v>
       </c>
-      <c r="I457" s="2" t="s">
+      <c r="J457" s="2" t="s">
         <v>3136</v>
-      </c>
-      <c r="J457" s="2" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B458" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C458" t="s">
         <v>3138</v>
       </c>
-      <c r="C458" t="s">
-        <v>232</v>
-      </c>
       <c r="D458" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>3139</v>
@@ -25368,45 +25401,45 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B459" t="s">
+        <v>959</v>
+      </c>
+      <c r="C459" t="s">
         <v>3144</v>
-      </c>
-      <c r="C459" t="s">
-        <v>3145</v>
       </c>
       <c r="D459" t="s">
         <v>129</v>
       </c>
       <c r="F459" s="2" t="s">
+        <v>3145</v>
+      </c>
+      <c r="G459" s="2" t="s">
         <v>3146</v>
       </c>
-      <c r="G459" s="2" t="s">
+      <c r="H459" s="2" t="s">
         <v>3147</v>
       </c>
-      <c r="H459" s="2" t="s">
+      <c r="I459" s="2" t="s">
         <v>3148</v>
       </c>
-      <c r="I459" s="2" t="s">
+      <c r="J459" s="2" t="s">
         <v>3149</v>
-      </c>
-      <c r="J459" s="2" t="s">
-        <v>3150</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B460" t="s">
-        <v>959</v>
+        <v>3150</v>
       </c>
       <c r="C460" t="s">
         <v>3151</v>
       </c>
       <c r="D460" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>3152</v>
@@ -25426,45 +25459,45 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B461" t="s">
+        <v>417</v>
+      </c>
+      <c r="C461" t="s">
         <v>3157</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
+        <v>25</v>
+      </c>
+      <c r="F461" s="2" t="s">
         <v>3158</v>
       </c>
-      <c r="D461" t="s">
-        <v>160</v>
-      </c>
-      <c r="F461" s="2" t="s">
+      <c r="G461" s="2" t="s">
         <v>3159</v>
       </c>
-      <c r="G461" s="2" t="s">
+      <c r="H461" s="2" t="s">
         <v>3160</v>
       </c>
-      <c r="H461" s="2" t="s">
+      <c r="I461" s="2" t="s">
         <v>3161</v>
       </c>
-      <c r="I461" s="2" t="s">
+      <c r="J461" s="2" t="s">
         <v>3162</v>
-      </c>
-      <c r="J461" s="2" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B462" t="s">
-        <v>417</v>
+        <v>3163</v>
       </c>
       <c r="C462" t="s">
         <v>3164</v>
       </c>
       <c r="D462" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>3165</v>
@@ -25484,7 +25517,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B463" t="s">
         <v>3170</v>
@@ -25493,7 +25526,7 @@
         <v>3171</v>
       </c>
       <c r="D463" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>3172</v>
@@ -25513,7 +25546,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B464" t="s">
         <v>3177</v>
@@ -25522,7 +25555,7 @@
         <v>3178</v>
       </c>
       <c r="D464" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>3179</v>
@@ -25542,7 +25575,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B465" t="s">
         <v>3184</v>
@@ -25551,7 +25584,7 @@
         <v>3185</v>
       </c>
       <c r="D465" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>3186</v>
@@ -25571,77 +25604,77 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B466" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C466" t="s">
         <v>3191</v>
       </c>
-      <c r="C466" t="s">
+      <c r="D466" t="s">
+        <v>30</v>
+      </c>
+      <c r="F466" s="2" t="s">
         <v>3192</v>
       </c>
-      <c r="D466" t="s">
-        <v>46</v>
-      </c>
-      <c r="F466" s="2" t="s">
+      <c r="G466" s="2" t="s">
         <v>3193</v>
       </c>
-      <c r="G466" s="2" t="s">
+      <c r="H466" s="2" t="s">
         <v>3194</v>
       </c>
-      <c r="H466" s="2" t="s">
+      <c r="I466" s="2" t="s">
         <v>3195</v>
       </c>
-      <c r="I466" s="2" t="s">
+      <c r="J466" s="2" t="s">
         <v>3196</v>
-      </c>
-      <c r="J466" s="2" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B467" t="s">
-        <v>2551</v>
+        <v>1062</v>
       </c>
       <c r="C467" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D467" t="s">
+        <v>46</v>
+      </c>
+      <c r="F467" s="2" t="s">
         <v>3198</v>
       </c>
-      <c r="D467" t="s">
-        <v>30</v>
-      </c>
-      <c r="F467" s="2" t="s">
+      <c r="G467" s="2" t="s">
         <v>3199</v>
       </c>
-      <c r="G467" s="2" t="s">
+      <c r="H467" s="2" t="s">
         <v>3200</v>
       </c>
-      <c r="H467" s="2" t="s">
+      <c r="I467" s="2" t="s">
         <v>3201</v>
       </c>
-      <c r="I467" s="2" t="s">
+      <c r="J467" s="2" t="s">
         <v>3202</v>
-      </c>
-      <c r="J467" s="2" t="s">
-        <v>3203</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B468" t="s">
-        <v>1062</v>
+        <v>3203</v>
       </c>
       <c r="C468" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="D468" t="s">
         <v>46</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="G468" s="2" t="s">
         <v>3206</v>
@@ -25658,19 +25691,19 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B469" t="s">
         <v>3210</v>
       </c>
       <c r="C469" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D469" t="s">
+        <v>30</v>
+      </c>
+      <c r="F469" s="2" t="s">
         <v>3212</v>
-      </c>
-      <c r="D469" t="s">
-        <v>46</v>
-      </c>
-      <c r="F469" s="2" t="s">
-        <v>3211</v>
       </c>
       <c r="G469" s="2" t="s">
         <v>3213</v>
@@ -25687,7 +25720,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B470" t="s">
         <v>3217</v>
@@ -25716,45 +25749,45 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B471" t="s">
+        <v>458</v>
+      </c>
+      <c r="C471" t="s">
         <v>3224</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" t="s">
+        <v>41</v>
+      </c>
+      <c r="F471" s="2" t="s">
         <v>3225</v>
       </c>
-      <c r="D471" t="s">
-        <v>30</v>
-      </c>
-      <c r="F471" s="2" t="s">
+      <c r="G471" s="2" t="s">
         <v>3226</v>
       </c>
-      <c r="G471" s="2" t="s">
+      <c r="H471" s="2" t="s">
         <v>3227</v>
       </c>
-      <c r="H471" s="2" t="s">
+      <c r="I471" s="2" t="s">
         <v>3228</v>
       </c>
-      <c r="I471" s="2" t="s">
+      <c r="J471" s="2" t="s">
         <v>3229</v>
-      </c>
-      <c r="J471" s="2" t="s">
-        <v>3230</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B472" t="s">
-        <v>458</v>
+        <v>3230</v>
       </c>
       <c r="C472" t="s">
         <v>3231</v>
       </c>
       <c r="D472" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>3232</v>
@@ -25774,7 +25807,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B473" t="s">
         <v>3237</v>
@@ -25783,7 +25816,7 @@
         <v>3238</v>
       </c>
       <c r="D473" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>3239</v>
@@ -25803,39 +25836,39 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B474" t="s">
+        <v>466</v>
+      </c>
+      <c r="C474" t="s">
         <v>3244</v>
       </c>
-      <c r="C474" t="s">
+      <c r="D474" t="s">
+        <v>6</v>
+      </c>
+      <c r="F474" s="2" t="s">
         <v>3245</v>
       </c>
-      <c r="D474" t="s">
-        <v>63</v>
-      </c>
-      <c r="F474" s="2" t="s">
+      <c r="G474" s="2" t="s">
         <v>3246</v>
       </c>
-      <c r="G474" s="2" t="s">
+      <c r="H474" s="2" t="s">
         <v>3247</v>
       </c>
-      <c r="H474" s="2" t="s">
+      <c r="I474" s="2" t="s">
         <v>3248</v>
       </c>
-      <c r="I474" s="2" t="s">
+      <c r="J474" s="2" t="s">
         <v>3249</v>
-      </c>
-      <c r="J474" s="2" t="s">
-        <v>3250</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B475" t="s">
-        <v>466</v>
+        <v>3250</v>
       </c>
       <c r="C475" t="s">
         <v>3251</v>
@@ -25861,7 +25894,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B476" t="s">
         <v>3257</v>
@@ -25872,6 +25905,9 @@
       <c r="D476" t="s">
         <v>6</v>
       </c>
+      <c r="E476" t="s">
+        <v>160</v>
+      </c>
       <c r="F476" s="2" t="s">
         <v>3259</v>
       </c>
@@ -25890,7 +25926,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B477" t="s">
         <v>3264</v>
@@ -25899,9 +25935,6 @@
         <v>3265</v>
       </c>
       <c r="D477" t="s">
-        <v>6</v>
-      </c>
-      <c r="E477" t="s">
         <v>160</v>
       </c>
       <c r="F477" s="2" t="s">
@@ -25922,7 +25955,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B478" t="s">
         <v>3271</v>
@@ -25931,7 +25964,7 @@
         <v>3272</v>
       </c>
       <c r="D478" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>3273</v>
@@ -25951,7 +25984,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B479" t="s">
         <v>3278</v>
@@ -25980,7 +26013,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B480" t="s">
         <v>3285</v>
@@ -25989,7 +26022,7 @@
         <v>3286</v>
       </c>
       <c r="D480" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>3287</v>
@@ -26009,77 +26042,80 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B481" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C481" t="s">
         <v>3292</v>
       </c>
-      <c r="C481" t="s">
+      <c r="D481" t="s">
+        <v>41</v>
+      </c>
+      <c r="E481" t="s">
+        <v>21</v>
+      </c>
+      <c r="F481" s="2" t="s">
         <v>3293</v>
       </c>
-      <c r="D481" t="s">
-        <v>30</v>
-      </c>
-      <c r="F481" s="2" t="s">
+      <c r="G481" s="2" t="s">
         <v>3294</v>
       </c>
-      <c r="G481" s="2" t="s">
+      <c r="H481" s="2" t="s">
         <v>3295</v>
       </c>
-      <c r="H481" s="2" t="s">
+      <c r="I481" s="2" t="s">
         <v>3296</v>
       </c>
-      <c r="I481" s="2" t="s">
+      <c r="J481" s="2" t="s">
         <v>3297</v>
-      </c>
-      <c r="J481" s="2" t="s">
-        <v>3298</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B482" t="s">
-        <v>2861</v>
+        <v>964</v>
       </c>
       <c r="C482" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D482" t="s">
+        <v>129</v>
+      </c>
+      <c r="F482" s="2" t="s">
         <v>3299</v>
       </c>
-      <c r="D482" t="s">
-        <v>41</v>
-      </c>
-      <c r="E482" t="s">
-        <v>21</v>
-      </c>
-      <c r="F482" s="2" t="s">
+      <c r="G482" s="2" t="s">
         <v>3300</v>
       </c>
-      <c r="G482" s="2" t="s">
+      <c r="H482" s="2" t="s">
         <v>3301</v>
       </c>
-      <c r="H482" s="2" t="s">
+      <c r="I482" s="2" t="s">
         <v>3302</v>
       </c>
-      <c r="I482" s="2" t="s">
+      <c r="J482" s="2" t="s">
         <v>3303</v>
-      </c>
-      <c r="J482" s="2" t="s">
-        <v>3304</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>964</v>
+        <v>3304</v>
       </c>
       <c r="C483" t="s">
         <v>3305</v>
       </c>
       <c r="D483" t="s">
-        <v>129</v>
+        <v>41</v>
+      </c>
+      <c r="E483" t="s">
+        <v>21</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>3306</v>
@@ -26099,163 +26135,160 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B484" t="s">
+        <v>525</v>
+      </c>
+      <c r="C484" t="s">
         <v>3311</v>
       </c>
-      <c r="C484" t="s">
+      <c r="D484" t="s">
+        <v>6</v>
+      </c>
+      <c r="F484" s="2" t="s">
         <v>3312</v>
       </c>
-      <c r="D484" t="s">
-        <v>41</v>
-      </c>
-      <c r="E484" t="s">
-        <v>21</v>
-      </c>
-      <c r="F484" s="2" t="s">
+      <c r="G484" s="2" t="s">
         <v>3313</v>
       </c>
-      <c r="G484" s="2" t="s">
+      <c r="H484" s="2" t="s">
         <v>3314</v>
       </c>
-      <c r="H484" s="2" t="s">
+      <c r="I484" s="2" t="s">
         <v>3315</v>
       </c>
-      <c r="I484" s="2" t="s">
+      <c r="J484" s="2" t="s">
         <v>3316</v>
-      </c>
-      <c r="J484" s="2" t="s">
-        <v>3317</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B485" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="C485" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D485" t="s">
+        <v>25</v>
+      </c>
+      <c r="F485" s="2" t="s">
         <v>3318</v>
       </c>
-      <c r="D485" t="s">
-        <v>6</v>
-      </c>
-      <c r="F485" s="2" t="s">
+      <c r="G485" s="2" t="s">
         <v>3319</v>
       </c>
-      <c r="G485" s="2" t="s">
+      <c r="H485" s="2" t="s">
         <v>3320</v>
       </c>
-      <c r="H485" s="2" t="s">
+      <c r="I485" s="2" t="s">
         <v>3321</v>
       </c>
-      <c r="I485" s="2" t="s">
+      <c r="J485" s="2" t="s">
         <v>3322</v>
-      </c>
-      <c r="J485" s="2" t="s">
-        <v>3323</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B486" t="s">
-        <v>553</v>
+        <v>437</v>
       </c>
       <c r="C486" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D486" t="s">
+        <v>63</v>
+      </c>
+      <c r="F486" s="2" t="s">
         <v>3324</v>
       </c>
-      <c r="D486" t="s">
-        <v>25</v>
-      </c>
-      <c r="F486" s="2" t="s">
+      <c r="G486" s="2" t="s">
         <v>3325</v>
       </c>
-      <c r="G486" s="2" t="s">
+      <c r="H486" s="2" t="s">
         <v>3326</v>
       </c>
-      <c r="H486" s="2" t="s">
-        <v>3327</v>
-      </c>
-      <c r="I486" s="2" t="s">
-        <v>3328</v>
-      </c>
-      <c r="J486" s="2" t="s">
-        <v>3329</v>
-      </c>
+      <c r="I486" s="2"/>
+      <c r="J486" s="2"/>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B487" t="s">
-        <v>437</v>
+        <v>3327</v>
       </c>
       <c r="C487" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D487" t="s">
+        <v>160</v>
+      </c>
+      <c r="E487" t="s">
+        <v>46</v>
+      </c>
+      <c r="F487" s="2" t="s">
         <v>3330</v>
       </c>
-      <c r="D487" t="s">
-        <v>63</v>
-      </c>
-      <c r="F487" s="2" t="s">
+      <c r="G487" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="H487" s="2" t="s">
         <v>3331</v>
       </c>
-      <c r="G487" s="2" t="s">
+      <c r="I487" s="2" t="s">
         <v>3332</v>
       </c>
-      <c r="H487" s="2" t="s">
+      <c r="J487" s="2" t="s">
         <v>3333</v>
       </c>
-      <c r="I487" s="2"/>
-      <c r="J487" s="2"/>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B488" t="s">
+        <v>578</v>
+      </c>
+      <c r="C488" t="s">
         <v>3334</v>
-      </c>
-      <c r="C488" t="s">
-        <v>3335</v>
       </c>
       <c r="D488" t="s">
         <v>160</v>
       </c>
-      <c r="E488" t="s">
-        <v>46</v>
-      </c>
       <c r="F488" s="2" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>3336</v>
       </c>
       <c r="H488" s="2" t="s">
+        <v>3337</v>
+      </c>
+      <c r="I488" s="2" t="s">
         <v>3338</v>
       </c>
-      <c r="I488" s="2" t="s">
+      <c r="J488" s="2" t="s">
         <v>3339</v>
-      </c>
-      <c r="J488" s="2" t="s">
-        <v>3340</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B489" t="s">
-        <v>578</v>
+        <v>3340</v>
       </c>
       <c r="C489" t="s">
         <v>3341</v>
       </c>
       <c r="D489" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>3342</v>
@@ -26275,7 +26308,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B490" t="s">
         <v>3347</v>
@@ -26284,7 +26317,7 @@
         <v>3348</v>
       </c>
       <c r="D490" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>3349</v>
@@ -26304,7 +26337,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B491" t="s">
         <v>3354</v>
@@ -26313,7 +26346,7 @@
         <v>3355</v>
       </c>
       <c r="D491" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>3356</v>
@@ -26333,364 +26366,364 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B492" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C492" t="s">
         <v>3361</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" t="s">
+        <v>41</v>
+      </c>
+      <c r="F492" s="2" t="s">
         <v>3362</v>
       </c>
-      <c r="D492" t="s">
-        <v>10</v>
-      </c>
-      <c r="F492" s="2" t="s">
+      <c r="G492" s="2" t="s">
         <v>3363</v>
       </c>
-      <c r="G492" s="2" t="s">
+      <c r="H492" s="2" t="s">
         <v>3364</v>
       </c>
-      <c r="H492" s="2" t="s">
+      <c r="I492" s="2" t="s">
         <v>3365</v>
       </c>
-      <c r="I492" s="2" t="s">
+      <c r="J492" s="2" t="s">
         <v>3366</v>
-      </c>
-      <c r="J492" s="2" t="s">
-        <v>3367</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B493" t="s">
-        <v>3347</v>
+        <v>71</v>
       </c>
       <c r="C493" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D493" t="s">
+        <v>10</v>
+      </c>
+      <c r="F493" s="2" t="s">
         <v>3368</v>
       </c>
-      <c r="D493" t="s">
-        <v>41</v>
-      </c>
-      <c r="F493" s="2" t="s">
+      <c r="G493" s="2" t="s">
         <v>3369</v>
       </c>
-      <c r="G493" s="2" t="s">
+      <c r="H493" s="2" t="s">
         <v>3370</v>
       </c>
-      <c r="H493" s="2" t="s">
+      <c r="I493" s="2" t="s">
         <v>3371</v>
       </c>
-      <c r="I493" s="2" t="s">
+      <c r="J493" s="2" t="s">
         <v>3372</v>
-      </c>
-      <c r="J493" s="2" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B494" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="C494" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D494" t="s">
         <v>10</v>
       </c>
       <c r="F494" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="G494" s="2" t="s">
         <v>3375</v>
       </c>
-      <c r="G494" s="2" t="s">
+      <c r="H494" s="2" t="s">
         <v>3376</v>
       </c>
-      <c r="H494" s="2" t="s">
+      <c r="I494" s="2" t="s">
         <v>3377</v>
       </c>
-      <c r="I494" s="2" t="s">
+      <c r="J494" s="2" t="s">
         <v>3378</v>
-      </c>
-      <c r="J494" s="2" t="s">
-        <v>3379</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B495" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="C495" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D495" t="s">
+        <v>160</v>
+      </c>
+      <c r="F495" s="2" t="s">
         <v>3380</v>
       </c>
-      <c r="D495" t="s">
-        <v>10</v>
-      </c>
-      <c r="F495" s="2" t="s">
+      <c r="G495" s="2" t="s">
         <v>3381</v>
       </c>
-      <c r="G495" s="2" t="s">
+      <c r="H495" s="2" t="s">
         <v>3382</v>
       </c>
-      <c r="H495" s="2" t="s">
+      <c r="I495" s="2" t="s">
         <v>3383</v>
       </c>
-      <c r="I495" s="2" t="s">
+      <c r="J495" s="2" t="s">
         <v>3384</v>
-      </c>
-      <c r="J495" s="2" t="s">
-        <v>3385</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B496" t="s">
-        <v>328</v>
+        <v>1799</v>
       </c>
       <c r="C496" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D496" t="s">
+        <v>6</v>
+      </c>
+      <c r="F496" s="2" t="s">
         <v>3386</v>
       </c>
-      <c r="D496" t="s">
-        <v>160</v>
-      </c>
-      <c r="F496" s="2" t="s">
+      <c r="G496" s="2" t="s">
         <v>3387</v>
       </c>
-      <c r="G496" s="2" t="s">
+      <c r="H496" s="2" t="s">
         <v>3388</v>
       </c>
-      <c r="H496" s="2" t="s">
+      <c r="I496" s="2" t="s">
         <v>3389</v>
       </c>
-      <c r="I496" s="2" t="s">
+      <c r="J496" s="2" t="s">
         <v>3390</v>
-      </c>
-      <c r="J496" s="2" t="s">
-        <v>3391</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B497" t="s">
-        <v>1799</v>
+        <v>17</v>
       </c>
       <c r="C497" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D497" t="s">
+        <v>160</v>
+      </c>
+      <c r="F497" s="2" t="s">
         <v>3392</v>
       </c>
-      <c r="D497" t="s">
-        <v>6</v>
-      </c>
-      <c r="F497" s="2" t="s">
+      <c r="G497" s="2" t="s">
         <v>3393</v>
       </c>
-      <c r="G497" s="2" t="s">
+      <c r="H497" s="2" t="s">
         <v>3394</v>
       </c>
-      <c r="H497" s="2" t="s">
+      <c r="I497" s="2" t="s">
         <v>3395</v>
       </c>
-      <c r="I497" s="2" t="s">
+      <c r="J497" s="2" t="s">
         <v>3396</v>
-      </c>
-      <c r="J497" s="2" t="s">
-        <v>3397</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B498" t="s">
         <v>17</v>
       </c>
       <c r="C498" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D498" t="s">
+        <v>63</v>
+      </c>
+      <c r="F498" s="2" t="s">
         <v>3398</v>
       </c>
-      <c r="D498" t="s">
-        <v>160</v>
-      </c>
-      <c r="F498" s="2" t="s">
+      <c r="G498" s="2" t="s">
         <v>3399</v>
       </c>
-      <c r="G498" s="2" t="s">
+      <c r="H498" s="2" t="s">
         <v>3400</v>
       </c>
-      <c r="H498" s="2" t="s">
+      <c r="I498" s="2" t="s">
         <v>3401</v>
       </c>
-      <c r="I498" s="2" t="s">
+      <c r="J498" s="2" t="s">
         <v>3402</v>
-      </c>
-      <c r="J498" s="2" t="s">
-        <v>3403</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B499" t="s">
-        <v>17</v>
+        <v>3340</v>
       </c>
       <c r="C499" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D499" t="s">
+        <v>160</v>
+      </c>
+      <c r="F499" s="2" t="s">
         <v>3404</v>
       </c>
-      <c r="D499" t="s">
-        <v>63</v>
-      </c>
-      <c r="F499" s="2" t="s">
+      <c r="G499" s="2" t="s">
         <v>3405</v>
       </c>
-      <c r="G499" s="2" t="s">
+      <c r="H499" s="2" t="s">
         <v>3406</v>
       </c>
-      <c r="H499" s="2" t="s">
+      <c r="I499" s="2" t="s">
         <v>3407</v>
       </c>
-      <c r="I499" s="2" t="s">
+      <c r="J499" s="2" t="s">
         <v>3408</v>
-      </c>
-      <c r="J499" s="2" t="s">
-        <v>3409</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B500" t="s">
-        <v>3347</v>
+        <v>768</v>
       </c>
       <c r="C500" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D500" t="s">
+        <v>30</v>
+      </c>
+      <c r="F500" s="2" t="s">
         <v>3410</v>
       </c>
-      <c r="D500" t="s">
-        <v>160</v>
-      </c>
-      <c r="F500" s="2" t="s">
+      <c r="G500" s="2" t="s">
         <v>3411</v>
       </c>
-      <c r="G500" s="2" t="s">
+      <c r="H500" s="2" t="s">
         <v>3412</v>
       </c>
-      <c r="H500" s="2" t="s">
+      <c r="I500" s="2" t="s">
         <v>3413</v>
       </c>
-      <c r="I500" s="2" t="s">
+      <c r="J500" s="2" t="s">
         <v>3414</v>
-      </c>
-      <c r="J500" s="2" t="s">
-        <v>3415</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B501" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="C501" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D501" t="s">
+        <v>41</v>
+      </c>
+      <c r="F501" s="2" t="s">
         <v>3416</v>
       </c>
-      <c r="D501" t="s">
-        <v>30</v>
-      </c>
-      <c r="F501" s="2" t="s">
+      <c r="G501" s="2" t="s">
         <v>3417</v>
       </c>
-      <c r="G501" s="2" t="s">
+      <c r="H501" s="2" t="s">
         <v>3418</v>
       </c>
-      <c r="H501" s="2" t="s">
+      <c r="I501" s="2" t="s">
         <v>3419</v>
       </c>
-      <c r="I501" s="2" t="s">
+      <c r="J501" s="2" t="s">
         <v>3420</v>
-      </c>
-      <c r="J501" s="2" t="s">
-        <v>3421</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B502" t="s">
-        <v>783</v>
+        <v>437</v>
       </c>
       <c r="C502" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D502" t="s">
+        <v>10</v>
+      </c>
+      <c r="F502" s="2" t="s">
         <v>3422</v>
       </c>
-      <c r="D502" t="s">
-        <v>41</v>
-      </c>
-      <c r="F502" s="2" t="s">
+      <c r="G502" s="2" t="s">
         <v>3423</v>
       </c>
-      <c r="G502" s="2" t="s">
+      <c r="H502" s="2" t="s">
         <v>3424</v>
       </c>
-      <c r="H502" s="2" t="s">
+      <c r="I502" s="2" t="s">
         <v>3425</v>
       </c>
-      <c r="I502" s="2" t="s">
+      <c r="J502" s="2" t="s">
         <v>3426</v>
-      </c>
-      <c r="J502" s="2" t="s">
-        <v>3427</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B503" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C503" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D503" t="s">
+        <v>63</v>
+      </c>
+      <c r="F503" s="2" t="s">
         <v>3428</v>
       </c>
-      <c r="D503" t="s">
-        <v>10</v>
-      </c>
-      <c r="F503" s="2" t="s">
+      <c r="G503" s="2" t="s">
         <v>3429</v>
       </c>
-      <c r="G503" s="2" t="s">
+      <c r="H503" s="2" t="s">
         <v>3430</v>
       </c>
-      <c r="H503" s="2" t="s">
+      <c r="I503" s="2" t="s">
         <v>3431</v>
       </c>
-      <c r="I503" s="2" t="s">
+      <c r="J503" s="2" t="s">
         <v>3432</v>
-      </c>
-      <c r="J503" s="2" t="s">
-        <v>3433</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B504" t="s">
-        <v>452</v>
+        <v>3433</v>
       </c>
       <c r="C504" t="s">
         <v>3434</v>
       </c>
       <c r="D504" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>3435</v>
@@ -26710,7 +26743,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B505" t="s">
         <v>3440</v>
@@ -26719,7 +26752,7 @@
         <v>3441</v>
       </c>
       <c r="D505" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>3442</v>
@@ -26739,7 +26772,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B506" t="s">
         <v>3447</v>
@@ -26748,6 +26781,9 @@
         <v>3448</v>
       </c>
       <c r="D506" t="s">
+        <v>6</v>
+      </c>
+      <c r="E506" t="s">
         <v>160</v>
       </c>
       <c r="F506" s="2" t="s">
@@ -26768,7 +26804,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B507" t="s">
         <v>3454</v>
@@ -26777,10 +26813,7 @@
         <v>3455</v>
       </c>
       <c r="D507" t="s">
-        <v>6</v>
-      </c>
-      <c r="E507" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>3456</v>
@@ -26800,7 +26833,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B508" t="s">
         <v>3461</v>
@@ -26809,7 +26842,7 @@
         <v>3462</v>
       </c>
       <c r="D508" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>3463</v>
@@ -26829,45 +26862,45 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B509" t="s">
+        <v>687</v>
+      </c>
+      <c r="C509" t="s">
         <v>3468</v>
       </c>
-      <c r="C509" t="s">
+      <c r="D509" t="s">
+        <v>46</v>
+      </c>
+      <c r="F509" s="2" t="s">
         <v>3469</v>
       </c>
-      <c r="D509" t="s">
-        <v>25</v>
-      </c>
-      <c r="F509" s="2" t="s">
+      <c r="G509" s="2" t="s">
         <v>3470</v>
       </c>
-      <c r="G509" s="2" t="s">
+      <c r="H509" s="2" t="s">
         <v>3471</v>
       </c>
-      <c r="H509" s="2" t="s">
+      <c r="I509" s="2" t="s">
         <v>3472</v>
       </c>
-      <c r="I509" s="2" t="s">
+      <c r="J509" s="2" t="s">
         <v>3473</v>
-      </c>
-      <c r="J509" s="2" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B510" t="s">
-        <v>687</v>
+        <v>3474</v>
       </c>
       <c r="C510" t="s">
         <v>3475</v>
       </c>
       <c r="D510" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>3476</v>
@@ -26887,45 +26920,45 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B511" t="s">
+        <v>113</v>
+      </c>
+      <c r="C511" t="s">
         <v>3481</v>
-      </c>
-      <c r="C511" t="s">
-        <v>3482</v>
       </c>
       <c r="D511" t="s">
         <v>129</v>
       </c>
       <c r="F511" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G511" s="2" t="s">
         <v>3483</v>
       </c>
-      <c r="G511" s="2" t="s">
+      <c r="H511" s="2" t="s">
         <v>3484</v>
       </c>
-      <c r="H511" s="2" t="s">
+      <c r="I511" s="2" t="s">
         <v>3485</v>
       </c>
-      <c r="I511" s="2" t="s">
+      <c r="J511" s="2" t="s">
         <v>3486</v>
-      </c>
-      <c r="J511" s="2" t="s">
-        <v>3487</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B512" t="s">
-        <v>113</v>
+        <v>3487</v>
       </c>
       <c r="C512" t="s">
         <v>3488</v>
       </c>
       <c r="D512" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>3489</v>
@@ -26945,74 +26978,77 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B513" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C513" t="s">
         <v>3494</v>
-      </c>
-      <c r="C513" t="s">
-        <v>3495</v>
       </c>
       <c r="D513" t="s">
         <v>30</v>
       </c>
       <c r="F513" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G513" s="2" t="s">
         <v>3496</v>
       </c>
-      <c r="G513" s="2" t="s">
+      <c r="H513" s="2" t="s">
         <v>3497</v>
       </c>
-      <c r="H513" s="2" t="s">
+      <c r="I513" s="2" t="s">
         <v>3498</v>
       </c>
-      <c r="I513" s="2" t="s">
+      <c r="J513" s="2" t="s">
         <v>3499</v>
-      </c>
-      <c r="J513" s="2" t="s">
-        <v>3500</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B514" t="s">
-        <v>1562</v>
+        <v>397</v>
       </c>
       <c r="C514" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D514" t="s">
+        <v>63</v>
+      </c>
+      <c r="F514" s="2" t="s">
         <v>3501</v>
       </c>
-      <c r="D514" t="s">
-        <v>30</v>
-      </c>
-      <c r="F514" s="2" t="s">
+      <c r="G514" s="2" t="s">
         <v>3502</v>
       </c>
-      <c r="G514" s="2" t="s">
+      <c r="H514" s="2" t="s">
         <v>3503</v>
       </c>
-      <c r="H514" s="2" t="s">
+      <c r="I514" s="2" t="s">
         <v>3504</v>
       </c>
-      <c r="I514" s="2" t="s">
+      <c r="J514" s="2" t="s">
         <v>3505</v>
-      </c>
-      <c r="J514" s="2" t="s">
-        <v>3506</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B515" t="s">
-        <v>397</v>
+        <v>3506</v>
       </c>
       <c r="C515" t="s">
         <v>3507</v>
       </c>
       <c r="D515" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="E515" t="s">
+        <v>41</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>3508</v>
@@ -27032,13 +27068,13 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B516" t="s">
+        <v>489</v>
+      </c>
+      <c r="C516" t="s">
         <v>3513</v>
-      </c>
-      <c r="C516" t="s">
-        <v>3514</v>
       </c>
       <c r="D516" t="s">
         <v>21</v>
@@ -27047,27 +27083,27 @@
         <v>41</v>
       </c>
       <c r="F516" s="2" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G516" s="2" t="s">
         <v>3515</v>
       </c>
-      <c r="G516" s="2" t="s">
+      <c r="H516" s="2" t="s">
         <v>3516</v>
       </c>
-      <c r="H516" s="2" t="s">
+      <c r="I516" s="2" t="s">
         <v>3517</v>
       </c>
-      <c r="I516" s="2" t="s">
+      <c r="J516" s="2" t="s">
         <v>3518</v>
-      </c>
-      <c r="J516" s="2" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B517" t="s">
-        <v>489</v>
+        <v>3519</v>
       </c>
       <c r="C517" t="s">
         <v>3520</v>
@@ -27096,7 +27132,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B518" t="s">
         <v>3526</v>
@@ -27128,7 +27164,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B519" t="s">
         <v>3533</v>
@@ -27137,9 +27173,6 @@
         <v>3534</v>
       </c>
       <c r="D519" t="s">
-        <v>21</v>
-      </c>
-      <c r="E519" t="s">
         <v>41</v>
       </c>
       <c r="F519" s="2" t="s">
@@ -27160,48 +27193,51 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B520" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C520" t="s">
         <v>3540</v>
-      </c>
-      <c r="C520" t="s">
-        <v>3541</v>
       </c>
       <c r="D520" t="s">
         <v>41</v>
       </c>
+      <c r="E520" t="s">
+        <v>21</v>
+      </c>
       <c r="F520" s="2" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G520" s="2" t="s">
         <v>3542</v>
       </c>
-      <c r="G520" s="2" t="s">
+      <c r="H520" s="2" t="s">
         <v>3543</v>
       </c>
-      <c r="H520" s="2" t="s">
+      <c r="I520" s="2" t="s">
         <v>3544</v>
       </c>
-      <c r="I520" s="2" t="s">
+      <c r="J520" s="2" t="s">
         <v>3545</v>
-      </c>
-      <c r="J520" s="2" t="s">
-        <v>3546</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B521" t="s">
-        <v>1025</v>
+        <v>3546</v>
       </c>
       <c r="C521" t="s">
         <v>3547</v>
       </c>
       <c r="D521" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E521" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>3548</v>
@@ -27221,51 +27257,48 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B522" t="s">
+        <v>113</v>
+      </c>
+      <c r="C522" t="s">
         <v>3553</v>
       </c>
-      <c r="C522" t="s">
+      <c r="D522" t="s">
+        <v>6</v>
+      </c>
+      <c r="E522" t="s">
+        <v>46</v>
+      </c>
+      <c r="F522" s="2" t="s">
         <v>3554</v>
       </c>
-      <c r="D522" t="s">
-        <v>46</v>
-      </c>
-      <c r="E522" t="s">
-        <v>6</v>
-      </c>
-      <c r="F522" s="2" t="s">
+      <c r="G522" s="2" t="s">
         <v>3555</v>
       </c>
-      <c r="G522" s="2" t="s">
+      <c r="H522" s="2" t="s">
         <v>3556</v>
       </c>
-      <c r="H522" s="2" t="s">
+      <c r="I522" s="2" t="s">
         <v>3557</v>
       </c>
-      <c r="I522" s="2" t="s">
+      <c r="J522" s="2" t="s">
         <v>3558</v>
-      </c>
-      <c r="J522" s="2" t="s">
-        <v>3559</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B523" t="s">
-        <v>113</v>
+        <v>3559</v>
       </c>
       <c r="C523" t="s">
         <v>3560</v>
       </c>
       <c r="D523" t="s">
-        <v>6</v>
-      </c>
-      <c r="E523" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>3561</v>
@@ -27285,7 +27318,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B524" t="s">
         <v>3566</v>
@@ -27294,7 +27327,7 @@
         <v>3567</v>
       </c>
       <c r="D524" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>3568</v>
@@ -27314,7 +27347,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B525" t="s">
         <v>3573</v>
@@ -27323,7 +27356,10 @@
         <v>3574</v>
       </c>
       <c r="D525" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="E525" t="s">
+        <v>160</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>3575</v>
@@ -27343,7 +27379,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B526" t="s">
         <v>3580</v>
@@ -27355,59 +27391,56 @@
         <v>6</v>
       </c>
       <c r="E526" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>3582</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>3583</v>
+        <v>3677</v>
       </c>
       <c r="H526" s="2" t="s">
-        <v>3584</v>
+        <v>3678</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>3585</v>
+        <v>3679</v>
       </c>
       <c r="J526" s="2" t="s">
-        <v>3586</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B527" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C527" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D527" t="s">
+        <v>30</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>3585</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="H527" s="2" t="s">
         <v>3587</v>
       </c>
-      <c r="C527" t="s">
+      <c r="I527" s="2" t="s">
         <v>3588</v>
       </c>
-      <c r="D527" t="s">
-        <v>6</v>
-      </c>
-      <c r="E527" t="s">
-        <v>46</v>
-      </c>
-      <c r="F527" s="2" t="s">
+      <c r="J527" s="2" t="s">
         <v>3589</v>
-      </c>
-      <c r="G527" s="2" t="s">
-        <v>3684</v>
-      </c>
-      <c r="H527" s="2" t="s">
-        <v>3685</v>
-      </c>
-      <c r="I527" s="2" t="s">
-        <v>3686</v>
-      </c>
-      <c r="J527" s="2" t="s">
-        <v>3687</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B528" t="s">
         <v>3590</v>
@@ -27416,7 +27449,10 @@
         <v>3591</v>
       </c>
       <c r="D528" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="E528" t="s">
+        <v>41</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>3592</v>
@@ -27436,48 +27472,48 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B529" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C529" t="s">
         <v>3597</v>
       </c>
-      <c r="C529" t="s">
+      <c r="D529" t="s">
+        <v>41</v>
+      </c>
+      <c r="F529" s="2" t="s">
         <v>3598</v>
       </c>
-      <c r="D529" t="s">
-        <v>160</v>
-      </c>
-      <c r="E529" t="s">
-        <v>41</v>
-      </c>
-      <c r="F529" s="2" t="s">
+      <c r="G529" s="2" t="s">
         <v>3599</v>
       </c>
-      <c r="G529" s="2" t="s">
+      <c r="H529" s="2" t="s">
         <v>3600</v>
       </c>
-      <c r="H529" s="2" t="s">
+      <c r="I529" s="2" t="s">
         <v>3601</v>
       </c>
-      <c r="I529" s="2" t="s">
+      <c r="J529" s="2" t="s">
         <v>3602</v>
-      </c>
-      <c r="J529" s="2" t="s">
-        <v>3603</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B530" t="s">
-        <v>1707</v>
+        <v>3603</v>
       </c>
       <c r="C530" t="s">
         <v>3604</v>
       </c>
       <c r="D530" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="E530" t="s">
+        <v>30</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>3605</v>
@@ -27497,7 +27533,7 @@
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B531" t="s">
         <v>3610</v>
@@ -27506,10 +27542,7 @@
         <v>3611</v>
       </c>
       <c r="D531" t="s">
-        <v>21</v>
-      </c>
-      <c r="E531" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>3612</v>
@@ -27529,7 +27562,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B532" t="s">
         <v>3617</v>
@@ -27538,7 +27571,10 @@
         <v>3618</v>
       </c>
       <c r="D532" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="E532" t="s">
+        <v>41</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>3619</v>
@@ -27558,7 +27594,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B533" t="s">
         <v>3624</v>
@@ -27567,10 +27603,7 @@
         <v>3625</v>
       </c>
       <c r="D533" t="s">
-        <v>21</v>
-      </c>
-      <c r="E533" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>3626</v>
@@ -27590,7 +27623,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B534" t="s">
         <v>3631</v>
@@ -27599,7 +27632,7 @@
         <v>3632</v>
       </c>
       <c r="D534" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>3633</v>
@@ -27619,74 +27652,74 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B535" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C535" t="s">
         <v>3638</v>
       </c>
-      <c r="C535" t="s">
+      <c r="D535" t="s">
+        <v>30</v>
+      </c>
+      <c r="F535" s="2" t="s">
         <v>3639</v>
       </c>
-      <c r="D535" t="s">
-        <v>6</v>
-      </c>
-      <c r="F535" s="2" t="s">
+      <c r="G535" s="2" t="s">
         <v>3640</v>
       </c>
-      <c r="G535" s="2" t="s">
+      <c r="H535" s="2" t="s">
         <v>3641</v>
       </c>
-      <c r="H535" s="2" t="s">
+      <c r="I535" s="2" t="s">
         <v>3642</v>
       </c>
-      <c r="I535" s="2" t="s">
+      <c r="J535" s="2" t="s">
         <v>3643</v>
-      </c>
-      <c r="J535" s="2" t="s">
-        <v>3644</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B536" t="s">
-        <v>2523</v>
+        <v>17</v>
       </c>
       <c r="C536" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D536" t="s">
+        <v>63</v>
+      </c>
+      <c r="F536" s="2" t="s">
         <v>3645</v>
       </c>
-      <c r="D536" t="s">
-        <v>30</v>
-      </c>
-      <c r="F536" s="2" t="s">
+      <c r="G536" s="2" t="s">
         <v>3646</v>
       </c>
-      <c r="G536" s="2" t="s">
+      <c r="H536" s="2" t="s">
         <v>3647</v>
       </c>
-      <c r="H536" s="2" t="s">
+      <c r="I536" s="2" t="s">
         <v>3648</v>
       </c>
-      <c r="I536" s="2" t="s">
+      <c r="J536" s="2" t="s">
         <v>3649</v>
-      </c>
-      <c r="J536" s="2" t="s">
-        <v>3650</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B537" t="s">
-        <v>17</v>
+        <v>3650</v>
       </c>
       <c r="C537" t="s">
         <v>3651</v>
       </c>
       <c r="D537" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>3652</v>
@@ -27706,7 +27739,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B538" t="s">
         <v>3657</v>
@@ -27715,7 +27748,7 @@
         <v>3658</v>
       </c>
       <c r="D538" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>3659</v>
@@ -27735,39 +27768,39 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B539" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C539" t="s">
         <v>3664</v>
       </c>
-      <c r="C539" t="s">
+      <c r="D539" t="s">
+        <v>30</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>3665</v>
       </c>
-      <c r="D539" t="s">
-        <v>46</v>
-      </c>
-      <c r="F539" s="2" t="s">
+      <c r="G539" s="2" t="s">
         <v>3666</v>
       </c>
-      <c r="G539" s="2" t="s">
+      <c r="H539" s="2" t="s">
         <v>3667</v>
       </c>
-      <c r="H539" s="2" t="s">
+      <c r="I539" s="2" t="s">
         <v>3668</v>
       </c>
-      <c r="I539" s="2" t="s">
+      <c r="J539" s="2" t="s">
         <v>3669</v>
-      </c>
-      <c r="J539" s="2" t="s">
-        <v>3670</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B540" t="s">
-        <v>3334</v>
+        <v>3670</v>
       </c>
       <c r="C540" t="s">
         <v>3671</v>
@@ -27793,31 +27826,92 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B541" t="s">
-        <v>3677</v>
+        <v>617</v>
       </c>
       <c r="C541" t="s">
-        <v>3678</v>
+        <v>3317</v>
       </c>
       <c r="D541" t="s">
         <v>30</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>3680</v>
+        <v>3682</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>3681</v>
+        <v>3683</v>
       </c>
       <c r="I541" s="2" t="s">
-        <v>3682</v>
+        <v>3684</v>
       </c>
       <c r="J541" s="2" t="s">
-        <v>3683</v>
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>625</v>
+      </c>
+      <c r="B542" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C542" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D542" t="s">
+        <v>30</v>
+      </c>
+      <c r="E542" t="s">
+        <v>21</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>3688</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>3689</v>
+      </c>
+      <c r="H542" s="2" t="s">
+        <v>3690</v>
+      </c>
+      <c r="I542" s="2" t="s">
+        <v>3691</v>
+      </c>
+      <c r="J542" s="2" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>626</v>
+      </c>
+      <c r="B543" t="s">
+        <v>328</v>
+      </c>
+      <c r="C543" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D543" t="s">
+        <v>30</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>3695</v>
+      </c>
+      <c r="H543" s="2" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I543" s="2" t="s">
+        <v>3697</v>
+      </c>
+      <c r="J543" s="2" t="s">
+        <v>3698</v>
       </c>
     </row>
   </sheetData>
@@ -29347,895 +29441,905 @@
     <hyperlink ref="H362" r:id="rId1522" xr:uid="{E54B87B5-4281-4870-8362-6735B607032E}"/>
     <hyperlink ref="I362" r:id="rId1523" xr:uid="{F60B5C3A-599E-4D0A-8E43-99EE9B21ED8A}"/>
     <hyperlink ref="J362" r:id="rId1524" xr:uid="{4A1742D3-CC68-49B2-8EF6-8FE10F32F926}"/>
-    <hyperlink ref="F363" r:id="rId1525" xr:uid="{3D52F447-DD90-41DE-9371-5A670D82F769}"/>
-    <hyperlink ref="G363" r:id="rId1526" xr:uid="{301E4134-DCB9-4864-9596-47C9AA7330AE}"/>
-    <hyperlink ref="H363" r:id="rId1527" xr:uid="{B7174A0C-3427-4A84-8CC7-1FFFEA66E988}"/>
-    <hyperlink ref="I363" r:id="rId1528" xr:uid="{CB1CD1D4-0590-4F77-B69A-A4617B3E7DA5}"/>
-    <hyperlink ref="J363" r:id="rId1529" xr:uid="{CF5F3128-3C84-440D-9431-E3267A0CDFD6}"/>
-    <hyperlink ref="F364" r:id="rId1530" xr:uid="{FACE3E33-EF4C-41A2-BB43-3041067E5933}"/>
-    <hyperlink ref="G364" r:id="rId1531" xr:uid="{97C04C51-DEAC-413C-B81B-0B3EA98D1F18}"/>
-    <hyperlink ref="H364" r:id="rId1532" xr:uid="{53142640-14D1-4096-AC42-8E65B1A7123B}"/>
-    <hyperlink ref="I364" r:id="rId1533" xr:uid="{4145A712-C811-4055-925E-F9AC9D76B5A4}"/>
-    <hyperlink ref="J364" r:id="rId1534" xr:uid="{97C43EA7-96EE-4581-8DAB-FA65D08E68D7}"/>
-    <hyperlink ref="F365" r:id="rId1535" xr:uid="{B232D9EE-BF6F-4707-9620-D4AD4FBF7862}"/>
-    <hyperlink ref="G365" r:id="rId1536" xr:uid="{EDF25348-330D-453B-997D-E503B22E306B}"/>
-    <hyperlink ref="H365" r:id="rId1537" xr:uid="{1D19374E-5008-4F4F-ADB3-DD71E7C14F63}"/>
-    <hyperlink ref="I365" r:id="rId1538" xr:uid="{791781FA-803D-4FA5-9046-B731A38C96F5}"/>
-    <hyperlink ref="J365" r:id="rId1539" xr:uid="{1A70EA56-5205-4B9D-968E-817F267436F6}"/>
-    <hyperlink ref="F366" r:id="rId1540" xr:uid="{82A42CA3-B947-4956-9FA2-2EF0E3B12163}"/>
-    <hyperlink ref="G366" r:id="rId1541" xr:uid="{C51A3C3A-0040-419F-A6A1-7C6B4AC519CB}"/>
-    <hyperlink ref="H366" r:id="rId1542" xr:uid="{569BF18B-8740-452D-8EFF-97B3AE7DE47F}"/>
-    <hyperlink ref="I366" r:id="rId1543" xr:uid="{7CD1D291-CF31-4970-8EA2-CC02C841D48B}"/>
-    <hyperlink ref="J366" r:id="rId1544" xr:uid="{A365B5D9-0F5E-4D2C-8E5B-EE2899663BEE}"/>
-    <hyperlink ref="F367" r:id="rId1545" xr:uid="{8502EE5B-2729-4643-9B6D-059CE2EEB6E9}"/>
-    <hyperlink ref="G367" r:id="rId1546" xr:uid="{52840A21-390A-4D50-A6D9-9E941A2C03FE}"/>
-    <hyperlink ref="H367" r:id="rId1547" xr:uid="{1EEB98C0-49F5-4D54-8A12-281E1987A81F}"/>
-    <hyperlink ref="F368" r:id="rId1548" xr:uid="{59035509-8F7B-4936-A8BA-10B8669D34B7}"/>
-    <hyperlink ref="G368" r:id="rId1549" xr:uid="{57488D91-1F04-468D-B997-F80D40B7699C}"/>
-    <hyperlink ref="H368" r:id="rId1550" xr:uid="{FDA8E7C1-6868-4519-9C6F-2DC2ADEA3CD0}"/>
-    <hyperlink ref="F369" r:id="rId1551" xr:uid="{15629634-7E07-49FC-9C5A-7BD177356AEF}"/>
-    <hyperlink ref="G369" r:id="rId1552" xr:uid="{4B672DAC-19B6-4666-90B5-D5E977402287}"/>
-    <hyperlink ref="H369" r:id="rId1553" xr:uid="{4BB8DA24-D25C-4382-B677-9ACDFF1823D5}"/>
-    <hyperlink ref="F370" r:id="rId1554" xr:uid="{C7C73619-A11C-4895-9EC2-F521C55ED82E}"/>
-    <hyperlink ref="G370" r:id="rId1555" xr:uid="{ECFB1C30-B67C-4521-85FE-765FC3B6B2AB}"/>
-    <hyperlink ref="I370" r:id="rId1556" xr:uid="{0B365BBD-CE90-4168-92BA-09617FA3BCB7}"/>
-    <hyperlink ref="J370" r:id="rId1557" xr:uid="{0BAD14AA-036E-4D00-A5F6-9D17EBFD29A2}"/>
-    <hyperlink ref="H370" r:id="rId1558" xr:uid="{C652D141-366A-4E21-97EB-C88BA7B2A484}"/>
-    <hyperlink ref="I192" r:id="rId1559" xr:uid="{F8952BF5-477C-4638-BA7C-58AB60830C08}"/>
-    <hyperlink ref="J192" r:id="rId1560" xr:uid="{C969372B-717F-46A1-9D0E-CEA96D373248}"/>
-    <hyperlink ref="F371" r:id="rId1561" xr:uid="{1B4EEF79-3EB1-4CAF-AF3F-ED4F5DAD892D}"/>
-    <hyperlink ref="G371" r:id="rId1562" xr:uid="{21D2BB66-21A7-497A-883A-3252A1392DD6}"/>
-    <hyperlink ref="H371" r:id="rId1563" xr:uid="{0061E6D1-1006-4320-9ABA-240D069F0D0D}"/>
-    <hyperlink ref="J371" r:id="rId1564" xr:uid="{C3B4AE90-D459-454F-8D2B-27E468E9BDE8}"/>
-    <hyperlink ref="I371" r:id="rId1565" xr:uid="{1BB83707-B23E-4499-AE32-C0717E52E7FD}"/>
-    <hyperlink ref="F372" r:id="rId1566" xr:uid="{2C77ED18-0809-4E47-93DA-23425BB122F0}"/>
-    <hyperlink ref="G372" r:id="rId1567" xr:uid="{721705EF-D274-4DE2-B5D7-A9952F03D0A2}"/>
-    <hyperlink ref="H372" r:id="rId1568" xr:uid="{8A9CFEDC-7400-4B16-8E93-36EA47D4F5A9}"/>
-    <hyperlink ref="J372" r:id="rId1569" xr:uid="{4317FF03-7B3C-49C0-AFC9-FDDB9270EE1A}"/>
-    <hyperlink ref="I372" r:id="rId1570" xr:uid="{B9C7838B-4F5C-48FF-93DE-055CC52749C4}"/>
-    <hyperlink ref="F373" r:id="rId1571" xr:uid="{6CF754D7-5839-477B-82E6-DC0B21C74DD5}"/>
-    <hyperlink ref="G373" r:id="rId1572" xr:uid="{4FFB4525-583B-425B-B55E-4E7C7E1AB243}"/>
-    <hyperlink ref="H373" r:id="rId1573" xr:uid="{360A7A43-1724-4391-B6D6-F8F9803D3E91}"/>
-    <hyperlink ref="J373" r:id="rId1574" xr:uid="{E8FF1502-3DC1-42E7-961D-13F24061BE90}"/>
-    <hyperlink ref="I373" r:id="rId1575" xr:uid="{5EA601B2-4318-400D-8A9B-A8B9F9CA6ED9}"/>
-    <hyperlink ref="F374" r:id="rId1576" xr:uid="{CB73180C-F713-4D64-94E8-3476E9BF3C67}"/>
-    <hyperlink ref="G374" r:id="rId1577" xr:uid="{6E00949C-7583-4984-952F-FBA71C609A58}"/>
-    <hyperlink ref="H374" r:id="rId1578" xr:uid="{2F590222-DDFA-4CDE-ACD3-B7DE3A210786}"/>
-    <hyperlink ref="I374" r:id="rId1579" xr:uid="{865A5719-0E7A-4ECC-9282-1A3CEC6B9DD3}"/>
-    <hyperlink ref="J374" r:id="rId1580" xr:uid="{1F3FDEDE-2648-4B63-A30C-0D97D878B284}"/>
-    <hyperlink ref="F375" r:id="rId1581" xr:uid="{6DB6ED65-79EB-4DCC-87F5-54153F289441}"/>
-    <hyperlink ref="G375" r:id="rId1582" xr:uid="{8801B0B3-E2D2-45E3-9728-9C6B28294EB2}"/>
-    <hyperlink ref="H375" r:id="rId1583" xr:uid="{54A928A0-2875-405F-BA46-D59667799EC4}"/>
-    <hyperlink ref="I375" r:id="rId1584" xr:uid="{D54BDC77-29F0-4005-B516-A5530D91C365}"/>
-    <hyperlink ref="J375" r:id="rId1585" xr:uid="{707683FB-3D14-4A3B-9728-1172B6C3EBEE}"/>
-    <hyperlink ref="J134" r:id="rId1586" xr:uid="{90AF3CBE-EC4E-46D9-A673-689F90C561AB}"/>
-    <hyperlink ref="J349" r:id="rId1587" xr:uid="{79796A28-AFEF-4A13-A7A7-2E1D776E8253}"/>
-    <hyperlink ref="J277" r:id="rId1588" xr:uid="{5FF97F4A-06A1-4772-81D2-EF486C5C3D96}"/>
-    <hyperlink ref="J97" r:id="rId1589" xr:uid="{74E995E5-1408-4585-A5BA-C084D3BF35F1}"/>
-    <hyperlink ref="J314" r:id="rId1590" xr:uid="{EFD649EF-AE87-48ED-A52D-C5E2EC3A3138}"/>
-    <hyperlink ref="J66" r:id="rId1591" xr:uid="{6FDD7CD5-F0D8-4A6D-8B26-8702D1EE42F2}"/>
-    <hyperlink ref="J178" r:id="rId1592" xr:uid="{A9BF0D50-ED00-4365-B708-07949585BA0F}"/>
-    <hyperlink ref="J249" r:id="rId1593" xr:uid="{7C1A33C5-89BF-4DBA-BB2B-A49A1F52DA82}"/>
-    <hyperlink ref="F376" r:id="rId1594" xr:uid="{51D3671A-91D1-48CB-AA83-74EF34912972}"/>
-    <hyperlink ref="G376" r:id="rId1595" xr:uid="{BF4A1380-BC97-44F4-8DD3-0614A5A216E5}"/>
-    <hyperlink ref="H376" r:id="rId1596" xr:uid="{BADA6356-0952-47CA-BE10-8698CC878160}"/>
-    <hyperlink ref="I376" r:id="rId1597" xr:uid="{B1E9E8B9-9544-4407-8EBE-EE06E9E7F783}"/>
-    <hyperlink ref="J376" r:id="rId1598" xr:uid="{5553ED49-3D7E-4D0F-813E-EB3212935513}"/>
-    <hyperlink ref="F377" r:id="rId1599" xr:uid="{A5175125-3A82-4D47-9A9D-407144508F94}"/>
-    <hyperlink ref="G377" r:id="rId1600" xr:uid="{A8E36EB9-7E00-4507-987F-408C105F5219}"/>
-    <hyperlink ref="H377" r:id="rId1601" xr:uid="{3156DCE3-9109-4531-A3B3-4A43427DCF54}"/>
-    <hyperlink ref="I377" r:id="rId1602" xr:uid="{9CE83A62-12A0-4546-8957-C3FC2768F541}"/>
-    <hyperlink ref="J377" r:id="rId1603" xr:uid="{2B12D054-2A12-4E9B-A4B7-C41ED4DCA0DC}"/>
-    <hyperlink ref="F378" r:id="rId1604" xr:uid="{11BC8400-AA76-4F5C-A528-A99D579FDE3D}"/>
-    <hyperlink ref="G378" r:id="rId1605" xr:uid="{7D49428C-AD59-4080-809D-02861A70DAB0}"/>
-    <hyperlink ref="H378" r:id="rId1606" xr:uid="{2B7FBCB6-52D6-46A8-BDDF-63C066ED81EB}"/>
-    <hyperlink ref="I378" r:id="rId1607" xr:uid="{BB7AAD8E-93FB-40C6-BF3E-43C447B4BD6B}"/>
-    <hyperlink ref="J378" r:id="rId1608" xr:uid="{1871BAE6-DC77-4C8D-92F1-1C707B98B665}"/>
-    <hyperlink ref="F379" r:id="rId1609" xr:uid="{EB6EAA21-546D-4374-BFA9-F9F4C2605CEA}"/>
-    <hyperlink ref="G379" r:id="rId1610" xr:uid="{848DB92C-8491-4DBE-9305-F767F8C4825A}"/>
-    <hyperlink ref="H379" r:id="rId1611" xr:uid="{5E3D18A7-C29B-4B38-9A2E-2E066F0776AE}"/>
-    <hyperlink ref="I379" r:id="rId1612" xr:uid="{23FFE415-AC65-495A-BB14-D123F818B1D6}"/>
-    <hyperlink ref="J379" r:id="rId1613" xr:uid="{2D792E54-5389-4EE9-8E8B-2938398B4D5B}"/>
-    <hyperlink ref="F380" r:id="rId1614" xr:uid="{BA18BEB6-ED8C-45E4-9E5B-DDF795CA3EBE}"/>
-    <hyperlink ref="G380" r:id="rId1615" xr:uid="{17C2D6D4-0FF4-4A67-8808-68DAD1E434C4}"/>
-    <hyperlink ref="I380" r:id="rId1616" xr:uid="{E21038B4-D378-4796-B00C-5D6C2E4C8F84}"/>
-    <hyperlink ref="J380" r:id="rId1617" xr:uid="{901D086F-86A3-4239-A9FB-E8D546FF0D2C}"/>
-    <hyperlink ref="F381" r:id="rId1618" xr:uid="{4FFB90B2-C218-4C69-AD6F-72EB857005A1}"/>
-    <hyperlink ref="G381" r:id="rId1619" xr:uid="{4002DBF8-BB57-4F56-9BFE-4C7735D12022}"/>
-    <hyperlink ref="H380" r:id="rId1620" xr:uid="{F2C3EC2B-C703-4173-A7BA-96079092CF03}"/>
-    <hyperlink ref="H381" r:id="rId1621" xr:uid="{D6A9649E-BE1B-4219-9DA2-2115C7A31878}"/>
-    <hyperlink ref="I381" r:id="rId1622" xr:uid="{CE261CD8-4052-4C59-9EE5-B70369B4E319}"/>
-    <hyperlink ref="J381" r:id="rId1623" xr:uid="{275A2645-5D23-4099-8ED2-5E1E289505E2}"/>
-    <hyperlink ref="F382" r:id="rId1624" xr:uid="{89271B49-DDC7-461B-9B09-61BDD725D1EC}"/>
-    <hyperlink ref="G382" r:id="rId1625" xr:uid="{6570893E-AECE-4A73-9772-44A75A8FE6D2}"/>
-    <hyperlink ref="H382" r:id="rId1626" xr:uid="{D3A40654-569A-4183-A3E7-340413714DF5}"/>
-    <hyperlink ref="I382" r:id="rId1627" xr:uid="{7BE8A0FA-AA07-4B1E-BA00-13D7BAE40842}"/>
-    <hyperlink ref="J382" r:id="rId1628" xr:uid="{84B41802-9893-4F72-8B5C-7E362D63AD77}"/>
-    <hyperlink ref="F383" r:id="rId1629" xr:uid="{AC3C73C4-0F0C-4AE4-9AF2-378B21AD6F0C}"/>
-    <hyperlink ref="G383" r:id="rId1630" xr:uid="{5172560F-3D89-49B9-8B0F-EE6EBB285547}"/>
-    <hyperlink ref="H383" r:id="rId1631" xr:uid="{2FE276A5-143A-4FA3-A2B3-C384B9B6F06C}"/>
-    <hyperlink ref="I383" r:id="rId1632" xr:uid="{46769A2D-BE47-4FFE-9CC9-0738DB9B5132}"/>
-    <hyperlink ref="J383" r:id="rId1633" xr:uid="{CA6E55CB-B116-4607-8F9B-E1FA79287FD0}"/>
-    <hyperlink ref="G384" r:id="rId1634" xr:uid="{EA28D65D-3303-4A62-B6D5-15ADE9459683}"/>
-    <hyperlink ref="F384" r:id="rId1635" xr:uid="{E1DA7684-0CC8-4705-84B7-1CFE80434EB4}"/>
-    <hyperlink ref="H384" r:id="rId1636" xr:uid="{4CF0EAEA-F0EE-4A73-80B0-F002183E548D}"/>
-    <hyperlink ref="I384" r:id="rId1637" xr:uid="{5443FDAD-0B0C-49CB-A5D5-90F703C31D8A}"/>
-    <hyperlink ref="J384" r:id="rId1638" xr:uid="{B4ED57FD-D6E7-4F23-A81B-DC1ACC6C7895}"/>
-    <hyperlink ref="F385" r:id="rId1639" xr:uid="{4F57B7AC-C710-4472-AD9A-6BE84CFE41E5}"/>
-    <hyperlink ref="G385" r:id="rId1640" xr:uid="{736FB5F4-8FA8-44F3-9949-4A01AB6E5D68}"/>
-    <hyperlink ref="H385" r:id="rId1641" xr:uid="{986735A9-D495-4A1B-AD25-3DEF87A1E78D}"/>
-    <hyperlink ref="I385" r:id="rId1642" xr:uid="{AAE45831-6171-4F83-89F8-001892B8E7FC}"/>
-    <hyperlink ref="J385" r:id="rId1643" xr:uid="{C71473DD-2DFE-48C4-AD03-78DB07165775}"/>
-    <hyperlink ref="F386" r:id="rId1644" xr:uid="{CD2CA42F-0F15-4724-BD44-47CBBCE33F6B}"/>
-    <hyperlink ref="G386" r:id="rId1645" xr:uid="{32EC045F-08D1-4C5E-9CAC-DC9EDEDEC780}"/>
-    <hyperlink ref="H386" r:id="rId1646" xr:uid="{A7B6987D-BD49-4CD5-AA10-9F26C1D528E7}"/>
-    <hyperlink ref="I386" r:id="rId1647" xr:uid="{09D59932-51FF-4947-BA45-080ECB96E4D9}"/>
-    <hyperlink ref="J386" r:id="rId1648" xr:uid="{733E0ADF-FCCD-463D-B16A-A4D98E9F4209}"/>
-    <hyperlink ref="F387" r:id="rId1649" xr:uid="{C5B8BED9-AE44-4FF0-B28F-D8B1766572E9}"/>
-    <hyperlink ref="G387" r:id="rId1650" xr:uid="{17255DCB-8CC8-4DE1-B7D3-C4F887C9B0B4}"/>
-    <hyperlink ref="H387" r:id="rId1651" xr:uid="{9FA9A7B5-FB4A-4FD3-B017-58E333346FF2}"/>
-    <hyperlink ref="I387" r:id="rId1652" xr:uid="{BE21E5A2-C844-49A5-AF9F-4F880C02C718}"/>
-    <hyperlink ref="J387" r:id="rId1653" xr:uid="{7C76C445-A98D-4B46-BF79-42103AACE290}"/>
-    <hyperlink ref="F388" r:id="rId1654" xr:uid="{EB71079A-C6E6-42A9-9632-4EBF44982DBF}"/>
-    <hyperlink ref="G388" r:id="rId1655" xr:uid="{6591CB77-5011-4B99-B929-E91E6578F1C1}"/>
-    <hyperlink ref="H388" r:id="rId1656" xr:uid="{9FACD654-68FF-4971-AB1A-60ABD598F3D4}"/>
-    <hyperlink ref="I388" r:id="rId1657" xr:uid="{3515CBAE-00B6-4EB7-B9F0-BEAD1043ACE7}"/>
-    <hyperlink ref="J388" r:id="rId1658" xr:uid="{DA82C4DB-9FEE-4FD6-9AB1-14F39AABE7AD}"/>
-    <hyperlink ref="F389" r:id="rId1659" xr:uid="{831A1E36-C438-4231-A405-CBF4FEAC2AA5}"/>
-    <hyperlink ref="G389" r:id="rId1660" xr:uid="{51DE6BA4-E69C-4881-B418-692613546300}"/>
-    <hyperlink ref="H389" r:id="rId1661" xr:uid="{A8A25251-C685-4F24-A902-5FFE2FBC0C56}"/>
-    <hyperlink ref="I389" r:id="rId1662" xr:uid="{B18F78D6-A0F5-4ED9-A3CC-400FB3BE5AE7}"/>
-    <hyperlink ref="J389" r:id="rId1663" xr:uid="{4325C903-D4CE-4AEB-BC6D-F3C547934CC8}"/>
-    <hyperlink ref="F390" r:id="rId1664" xr:uid="{211C3BF1-3971-40D3-B7AC-742D87626EB1}"/>
-    <hyperlink ref="G390" r:id="rId1665" xr:uid="{9AA108DC-B218-4B87-B32B-33E35B2FE341}"/>
-    <hyperlink ref="H390" r:id="rId1666" xr:uid="{FBA50D4E-831E-45FA-88F7-084400BF248A}"/>
-    <hyperlink ref="I390" r:id="rId1667" xr:uid="{5FFAD257-BCCF-486A-89AA-35D0E24C339A}"/>
-    <hyperlink ref="J390" r:id="rId1668" xr:uid="{62AD0D89-96E9-4036-8509-25D4DB03278E}"/>
-    <hyperlink ref="F391" r:id="rId1669" xr:uid="{B9A49B29-D6CB-4102-9783-C281A36AF2D7}"/>
-    <hyperlink ref="G391" r:id="rId1670" xr:uid="{E2414974-E4E4-4ECE-B029-FA8B3223D8BB}"/>
-    <hyperlink ref="H391" r:id="rId1671" xr:uid="{B82C7C54-7B10-4872-96A8-7AC5458061B6}"/>
-    <hyperlink ref="F392" r:id="rId1672" xr:uid="{807BDEBD-5CB1-4887-B133-15297EAA4FEC}"/>
-    <hyperlink ref="G392" r:id="rId1673" xr:uid="{2E1632FA-FD9C-4E43-9757-620078E4B158}"/>
-    <hyperlink ref="H392" r:id="rId1674" xr:uid="{17501DB3-0919-4685-9553-E495A02B0AD8}"/>
-    <hyperlink ref="I392" r:id="rId1675" xr:uid="{732D3D09-C65E-4349-8CCF-67E3E1FFE1C0}"/>
-    <hyperlink ref="J392" r:id="rId1676" xr:uid="{ED06ED22-3179-4AF8-8355-141B26BC21C5}"/>
-    <hyperlink ref="F393" r:id="rId1677" xr:uid="{12917BB5-AE59-481B-BDC0-B0216CA5C399}"/>
-    <hyperlink ref="G393" r:id="rId1678" xr:uid="{99C5A8B0-2141-4928-BBD1-744DEE4EE9FA}"/>
-    <hyperlink ref="H393" r:id="rId1679" xr:uid="{8B703717-C0EF-4C66-9F7D-E109214A52F3}"/>
-    <hyperlink ref="I393" r:id="rId1680" xr:uid="{59D6C5DF-C4E3-46EC-BFA2-351F53B55A43}"/>
-    <hyperlink ref="J393" r:id="rId1681" xr:uid="{1610640C-DCAE-4AB6-89B9-5AC825C912B6}"/>
-    <hyperlink ref="F394" r:id="rId1682" xr:uid="{B6372EEA-6D3D-4036-80B3-550214CD0172}"/>
-    <hyperlink ref="G394" r:id="rId1683" xr:uid="{3459A1C9-18D6-496F-B52C-2D46CD33DC34}"/>
-    <hyperlink ref="H394" r:id="rId1684" xr:uid="{47FC2F26-1515-452B-A710-03B228322C0E}"/>
-    <hyperlink ref="F395" r:id="rId1685" xr:uid="{D1D725C0-4EE3-4CA2-A905-794FCCA1A904}"/>
-    <hyperlink ref="G395" r:id="rId1686" xr:uid="{F51FA05A-45B1-478D-838D-B25E4C1A984B}"/>
-    <hyperlink ref="H395" r:id="rId1687" xr:uid="{D08B052C-2128-455E-927A-A5CD1988D2E2}"/>
-    <hyperlink ref="F396" r:id="rId1688" xr:uid="{7B22CBFD-1836-4D46-86BD-8C50BD6EC9D1}"/>
-    <hyperlink ref="G396" r:id="rId1689" xr:uid="{AF0A5EE5-DD7B-4895-A11D-EE41D360974F}"/>
-    <hyperlink ref="H396" r:id="rId1690" xr:uid="{4B436A22-25E8-47E4-A251-FC0E9E9E3D94}"/>
-    <hyperlink ref="F397" r:id="rId1691" xr:uid="{AF265FB0-E787-47DC-A5D7-AED27B129912}"/>
-    <hyperlink ref="G397" r:id="rId1692" xr:uid="{2A54EB22-F3C6-42AC-A86A-567604EFF2B1}"/>
-    <hyperlink ref="H397" r:id="rId1693" xr:uid="{4004F60E-01D7-4BC5-AD6B-60FB99D33C4E}"/>
-    <hyperlink ref="I397" r:id="rId1694" xr:uid="{986E0758-BCCD-40BC-9296-98A95A4B2C63}"/>
-    <hyperlink ref="J397" r:id="rId1695" xr:uid="{BB4A2C17-FE3F-44B6-A173-0127A3FB6EA4}"/>
-    <hyperlink ref="F398" r:id="rId1696" xr:uid="{8490D9CD-2602-4101-B7C2-2C2528086494}"/>
-    <hyperlink ref="G398" r:id="rId1697" xr:uid="{692DC00A-5968-4DFF-B97D-DCE2FB5F6183}"/>
-    <hyperlink ref="H398" r:id="rId1698" xr:uid="{7407FC67-F2CE-4CA4-8C40-06C11FBCA675}"/>
-    <hyperlink ref="I398" r:id="rId1699" xr:uid="{330620D5-34A5-47D0-8319-145310DDE8D0}"/>
-    <hyperlink ref="J398" r:id="rId1700" xr:uid="{AB4F0F27-27AD-492C-A917-42EF61C4F44F}"/>
-    <hyperlink ref="F399" r:id="rId1701" xr:uid="{40073266-781A-4CAA-A48B-B61504E5201D}"/>
-    <hyperlink ref="G399" r:id="rId1702" xr:uid="{BDF3E0CC-88A7-4568-BEBE-447FF450D4AA}"/>
-    <hyperlink ref="H399" r:id="rId1703" xr:uid="{DA768FFB-8AC4-43D1-8488-4D1FEBBA113A}"/>
-    <hyperlink ref="I399" r:id="rId1704" xr:uid="{DB80F349-A8CC-451E-965E-3F88186E2554}"/>
-    <hyperlink ref="J399" r:id="rId1705" xr:uid="{3D13F378-D40C-4792-9D8C-D190AA7F25A4}"/>
-    <hyperlink ref="F400" r:id="rId1706" xr:uid="{0B918885-3C15-468F-BC33-386A50311498}"/>
-    <hyperlink ref="G400" r:id="rId1707" xr:uid="{96B2C9D2-9DF7-4CD3-9DF9-81C6286C23F5}"/>
-    <hyperlink ref="H400" r:id="rId1708" xr:uid="{1F9BE551-3473-4A8F-B68A-91E465B6C14C}"/>
-    <hyperlink ref="I400" r:id="rId1709" xr:uid="{203A75C8-87F6-43A8-AE3F-F349CBBA7C43}"/>
-    <hyperlink ref="J400" r:id="rId1710" xr:uid="{001C312B-51BF-4D41-9081-E038F7D7DF1E}"/>
-    <hyperlink ref="F401" r:id="rId1711" xr:uid="{78827FBC-8D52-4C35-888D-7B61BCE170F4}"/>
-    <hyperlink ref="G401" r:id="rId1712" xr:uid="{D290596C-91A0-4BF6-9B6D-E9623E1831D0}"/>
-    <hyperlink ref="H401" r:id="rId1713" xr:uid="{18438FD8-5C87-4EAF-9080-93FF1D868FC5}"/>
-    <hyperlink ref="I401" r:id="rId1714" xr:uid="{4DE6C0E7-1BFC-4232-B8F3-027DE97E2E7F}"/>
-    <hyperlink ref="J401" r:id="rId1715" xr:uid="{CF207CDD-D2E6-473B-B184-C5E3B9F08FE2}"/>
-    <hyperlink ref="F402" r:id="rId1716" xr:uid="{F7AD4D8A-ADC7-4B93-898F-40DD409AD5B7}"/>
-    <hyperlink ref="G402" r:id="rId1717" xr:uid="{94E01915-3B30-462F-98CF-CDB41C9A049C}"/>
-    <hyperlink ref="H402" r:id="rId1718" xr:uid="{8F4C0C7D-AD24-42F0-9821-B42318DECC25}"/>
-    <hyperlink ref="I402" r:id="rId1719" xr:uid="{7282279D-77A3-49F0-9079-1E4F68AE10F4}"/>
-    <hyperlink ref="J402" r:id="rId1720" xr:uid="{4F8A8CF0-EAED-475F-9C95-9E4D3CC575B1}"/>
-    <hyperlink ref="F403" r:id="rId1721" xr:uid="{9359383C-26D8-4E71-BDE0-DA37C2A5231E}"/>
-    <hyperlink ref="G403" r:id="rId1722" xr:uid="{4FACDB71-2C45-46BA-A902-69C23A17A4E4}"/>
-    <hyperlink ref="H403" r:id="rId1723" xr:uid="{3DF0DE90-B673-41A4-8118-7053E6138C31}"/>
-    <hyperlink ref="I403" r:id="rId1724" xr:uid="{CDA538C8-1D69-4CA5-8DA8-4FF0C5D5A38A}"/>
-    <hyperlink ref="J403" r:id="rId1725" xr:uid="{88139470-3A3B-4702-AEB2-CE24888D3D0D}"/>
-    <hyperlink ref="F404" r:id="rId1726" xr:uid="{EAEFC49F-D774-4768-91D8-1F6184BCC200}"/>
-    <hyperlink ref="G404" r:id="rId1727" xr:uid="{C3B06949-00E2-4C3C-8F66-AE9969179F88}"/>
-    <hyperlink ref="H404" r:id="rId1728" xr:uid="{8759808A-8D2F-4835-969F-44B4E0644417}"/>
-    <hyperlink ref="I404" r:id="rId1729" xr:uid="{9B4C8538-CE50-4AA0-AF03-9E02955AD54C}"/>
-    <hyperlink ref="J404" r:id="rId1730" xr:uid="{9A101648-328A-4A6A-9AF7-B3E6813E8C06}"/>
-    <hyperlink ref="F405" r:id="rId1731" xr:uid="{18F65C74-C477-43A8-8AAB-ED2E63030D4D}"/>
-    <hyperlink ref="G405" r:id="rId1732" xr:uid="{8B9AB414-2F29-4F41-805B-9F3E045C4462}"/>
-    <hyperlink ref="H405" r:id="rId1733" xr:uid="{34A33A18-CBD7-4400-A877-C78A89200E76}"/>
-    <hyperlink ref="I405" r:id="rId1734" xr:uid="{6BC5A3C8-2B6F-4857-9A8D-FAA1A14BBF89}"/>
-    <hyperlink ref="J405" r:id="rId1735" xr:uid="{5C03C400-FB36-42A6-A2D8-FC0487E507E5}"/>
-    <hyperlink ref="F406" r:id="rId1736" xr:uid="{BEF4FD97-C6CB-43F5-BF8E-D861943A4403}"/>
-    <hyperlink ref="G406" r:id="rId1737" xr:uid="{A6368C3A-C587-439B-897E-DD854C735E68}"/>
-    <hyperlink ref="H406" r:id="rId1738" xr:uid="{1C456354-DE2F-4461-902A-24C9AB88425B}"/>
-    <hyperlink ref="I406" r:id="rId1739" xr:uid="{15EE5118-41DE-4338-A079-70CAE6FBA777}"/>
-    <hyperlink ref="J406" r:id="rId1740" xr:uid="{D46675DC-C82A-4F59-A8FD-46A7EB24FCB5}"/>
-    <hyperlink ref="F407" r:id="rId1741" xr:uid="{6D946C54-1ECA-4977-ACDD-D88CC595AEEA}"/>
-    <hyperlink ref="G407" r:id="rId1742" xr:uid="{24AC9B01-72E5-45F3-B798-D4F8F2A90C08}"/>
-    <hyperlink ref="H407" r:id="rId1743" xr:uid="{CD8B4BCE-9B45-48C7-860D-0A31A28A85B4}"/>
-    <hyperlink ref="I407" r:id="rId1744" xr:uid="{5B7B4BC5-0988-4D62-81C0-825C49E9244C}"/>
-    <hyperlink ref="J407" r:id="rId1745" xr:uid="{EA30A66B-9DF9-400D-83A0-196FBAC1BDDA}"/>
-    <hyperlink ref="F408" r:id="rId1746" xr:uid="{7B11E0B6-C889-44B9-BE7D-EBD6CD87DE3A}"/>
-    <hyperlink ref="G408" r:id="rId1747" xr:uid="{64610B68-F7D1-4D76-92E2-F866D202CB1A}"/>
-    <hyperlink ref="H408" r:id="rId1748" xr:uid="{2F8EDAAA-5863-4934-B3EC-B3A2EE85DE91}"/>
-    <hyperlink ref="I408" r:id="rId1749" xr:uid="{48B07E10-8E5A-40C5-9929-9D1360A4C8E1}"/>
-    <hyperlink ref="J408" r:id="rId1750" xr:uid="{57D217B1-B05C-4063-B095-B298016E42F9}"/>
-    <hyperlink ref="F409" r:id="rId1751" xr:uid="{522821D2-4EA9-4B8F-901F-472BE3ACB02E}"/>
-    <hyperlink ref="G409" r:id="rId1752" xr:uid="{833FDF36-8586-433B-ACAE-20B0E29236E8}"/>
-    <hyperlink ref="H409" r:id="rId1753" xr:uid="{7830689A-7EB8-45DA-9E14-B831E004877B}"/>
-    <hyperlink ref="I409" r:id="rId1754" xr:uid="{831355AE-B29E-4802-AE48-1015943E0C1A}"/>
-    <hyperlink ref="J409" r:id="rId1755" xr:uid="{D76C72F2-01F0-42CC-9856-D50F0EBCE46F}"/>
-    <hyperlink ref="F410" r:id="rId1756" xr:uid="{B4777448-E223-4D9E-B9B8-E50FA04A412D}"/>
-    <hyperlink ref="G410" r:id="rId1757" xr:uid="{C2DAD2F9-3B48-486D-A427-306D8C8A8C47}"/>
-    <hyperlink ref="H410" r:id="rId1758" xr:uid="{635AF6BF-3DB5-40CB-87C0-D2D448F5E144}"/>
-    <hyperlink ref="I410" r:id="rId1759" xr:uid="{1DB7E77E-DE57-48C1-A042-009B1EB6D19A}"/>
-    <hyperlink ref="J410" r:id="rId1760" xr:uid="{407C9085-6EC6-4AD7-B8AB-04919981D497}"/>
-    <hyperlink ref="F411" r:id="rId1761" xr:uid="{A0A45D01-CB34-4AA0-9957-A0ACD7CD15EB}"/>
-    <hyperlink ref="G411" r:id="rId1762" xr:uid="{99CBDF3C-7CE7-4B6D-984C-D708EBBA1A29}"/>
-    <hyperlink ref="H411" r:id="rId1763" xr:uid="{40471C55-4196-46A2-AC35-CDF92EB50C83}"/>
-    <hyperlink ref="I411" r:id="rId1764" xr:uid="{5B05F317-ACD6-4DFA-9082-F60E07515065}"/>
-    <hyperlink ref="J411" r:id="rId1765" xr:uid="{5196878A-5035-4936-B1C3-23E554D356BE}"/>
-    <hyperlink ref="F412" r:id="rId1766" xr:uid="{F81A9B82-45AE-444F-A7A7-35B8FA57DF82}"/>
-    <hyperlink ref="G412" r:id="rId1767" xr:uid="{7AAE6906-E08A-42D4-8D73-77248A73CA1A}"/>
-    <hyperlink ref="H412" r:id="rId1768" xr:uid="{83262156-9C38-41EB-B770-E309ECDC59B1}"/>
-    <hyperlink ref="I412" r:id="rId1769" xr:uid="{5BF6FF7D-DCDE-43D9-8F99-BE650A6F36CC}"/>
-    <hyperlink ref="J412" r:id="rId1770" xr:uid="{43477D1E-011D-40BC-B7C6-74719C39881B}"/>
-    <hyperlink ref="F413" r:id="rId1771" xr:uid="{DFEC8575-16C6-416A-98E3-887DC1EF201E}"/>
-    <hyperlink ref="G413" r:id="rId1772" xr:uid="{A24E2742-F105-4359-AF2F-8BF235C07B30}"/>
-    <hyperlink ref="H413" r:id="rId1773" xr:uid="{45E65F38-BB76-4508-87D9-E1F4194D8C39}"/>
-    <hyperlink ref="I413" r:id="rId1774" xr:uid="{9FDD15AC-DF4C-4B53-92AD-D328DE456608}"/>
-    <hyperlink ref="J413" r:id="rId1775" xr:uid="{57026CFB-E854-4F6B-9847-438B89DEE46F}"/>
-    <hyperlink ref="F414" r:id="rId1776" xr:uid="{E8052948-74D8-4FDD-890A-9A432F0B8DBE}"/>
-    <hyperlink ref="G414" r:id="rId1777" xr:uid="{32ABB141-331E-404D-ACFC-9AE6980D72D9}"/>
-    <hyperlink ref="H414" r:id="rId1778" xr:uid="{73617295-F3A2-44DF-9423-696D38862547}"/>
-    <hyperlink ref="I414" r:id="rId1779" xr:uid="{79854D88-5038-4F6B-BE55-205F357F4F4A}"/>
-    <hyperlink ref="J414" r:id="rId1780" xr:uid="{6CC1DE75-A3FD-43B7-981C-65E09542DCC0}"/>
-    <hyperlink ref="F415" r:id="rId1781" xr:uid="{1DD489A2-2B66-49DB-8314-40F05CBBBB2F}"/>
-    <hyperlink ref="G415" r:id="rId1782" xr:uid="{4DF1076B-66CC-48EE-880C-1607B741F022}"/>
-    <hyperlink ref="H415" r:id="rId1783" xr:uid="{AFBFA847-7B13-4F9F-85AF-7B470C3574D3}"/>
-    <hyperlink ref="I415" r:id="rId1784" xr:uid="{833C366D-5806-4C49-9362-376242498DC7}"/>
-    <hyperlink ref="J415" r:id="rId1785" xr:uid="{AB1E1C2B-E42D-483B-A855-C67342B77718}"/>
-    <hyperlink ref="F416" r:id="rId1786" xr:uid="{E43028DA-EBCE-4F1A-83EF-5219C37F1D4F}"/>
-    <hyperlink ref="G416" r:id="rId1787" xr:uid="{E33DFBE2-8EBA-4992-A7C5-39315F6F33F7}"/>
-    <hyperlink ref="H416" r:id="rId1788" xr:uid="{C802B234-0783-49A1-B9DB-C30BC84B39D3}"/>
-    <hyperlink ref="I416" r:id="rId1789" xr:uid="{C2354F35-3CBE-4274-96EF-FAFF6615D6D8}"/>
-    <hyperlink ref="J416" r:id="rId1790" xr:uid="{D58CAF9A-296B-46FB-AC2D-81ADB4313740}"/>
-    <hyperlink ref="F417" r:id="rId1791" xr:uid="{021F986C-ECD6-4D53-B7E9-114A2C2F1307}"/>
-    <hyperlink ref="G417" r:id="rId1792" xr:uid="{5A48562A-B19F-486C-857C-F828F7418EF4}"/>
-    <hyperlink ref="I417" r:id="rId1793" xr:uid="{E58CB6C0-7B19-4612-A33B-C0F0CFCFC5B4}"/>
-    <hyperlink ref="H417" r:id="rId1794" xr:uid="{E7235178-68DF-475D-B7F2-1EB895E4D1BC}"/>
-    <hyperlink ref="J417" r:id="rId1795" xr:uid="{FB1E2D9C-74EC-40B6-89BC-E2EC61594183}"/>
-    <hyperlink ref="F418" r:id="rId1796" xr:uid="{C49F94B4-ECC0-4E24-B35A-4A7359851709}"/>
-    <hyperlink ref="G418" r:id="rId1797" xr:uid="{8BABF7CF-F8AB-4D3F-BF93-5A4607622AE4}"/>
-    <hyperlink ref="H418" r:id="rId1798" xr:uid="{69B0DAF5-22A5-42E2-8130-23355F23D3EB}"/>
-    <hyperlink ref="I418" r:id="rId1799" xr:uid="{E941CF65-8F5C-4949-B446-CA8EAC0C7993}"/>
-    <hyperlink ref="J418" r:id="rId1800" xr:uid="{E7C1BCA5-8B1F-4E17-B94A-3B15EE01C9C5}"/>
-    <hyperlink ref="F419" r:id="rId1801" xr:uid="{C242DE25-8F51-4F0B-863E-89050D63D470}"/>
-    <hyperlink ref="G419" r:id="rId1802" xr:uid="{D9108167-53C7-4C89-9E57-4AFCB5FD2E31}"/>
-    <hyperlink ref="H419" r:id="rId1803" xr:uid="{595E7407-7A97-4F84-97AD-9A51C92B9F03}"/>
-    <hyperlink ref="I419" r:id="rId1804" xr:uid="{879136CA-AE15-4036-B134-4D7603CAAE2C}"/>
-    <hyperlink ref="J419" r:id="rId1805" xr:uid="{C5ADC08E-68F9-4B60-871B-477640C21B1A}"/>
-    <hyperlink ref="F420" r:id="rId1806" xr:uid="{E0927591-3CD1-4FB8-999A-44570B294F0C}"/>
-    <hyperlink ref="G420" r:id="rId1807" xr:uid="{6D321E48-E393-4769-9EEB-DFE8850DDD2B}"/>
-    <hyperlink ref="H420" r:id="rId1808" xr:uid="{B6C90BB3-9D1D-4DB9-8D0D-8F6B16280ECF}"/>
-    <hyperlink ref="I420" r:id="rId1809" xr:uid="{EA56D41C-36DD-4BD0-B0B1-5C23F16A3069}"/>
-    <hyperlink ref="J420" r:id="rId1810" xr:uid="{90E52F9A-BF2A-4A94-A57A-ECEE565302D4}"/>
-    <hyperlink ref="F421" r:id="rId1811" xr:uid="{DA4D488A-9B1E-4529-9A9C-082F6F448AFF}"/>
-    <hyperlink ref="G421" r:id="rId1812" xr:uid="{13C908F4-5FE0-4CA6-B987-156BEE95ECF9}"/>
-    <hyperlink ref="H421" r:id="rId1813" xr:uid="{4948013C-142F-4E38-8D5A-83BCDFFCB28E}"/>
-    <hyperlink ref="I421" r:id="rId1814" xr:uid="{EFE0D3F5-F119-457F-8019-C66ED06F4741}"/>
-    <hyperlink ref="J421" r:id="rId1815" xr:uid="{3E47AF4E-DE20-4B65-A59B-47AB26880E42}"/>
-    <hyperlink ref="F422" r:id="rId1816" xr:uid="{78CC66F1-8B81-410B-80A8-63E9754B52D2}"/>
-    <hyperlink ref="G422" r:id="rId1817" xr:uid="{25C72C19-2AE8-47C7-A9F6-3B10C23B1B5A}"/>
-    <hyperlink ref="H422" r:id="rId1818" xr:uid="{F98DAA04-39A6-4E2B-A616-C0E4B12EE2C8}"/>
-    <hyperlink ref="I422" r:id="rId1819" xr:uid="{8CA6F00F-4161-4A9F-9A58-19359908C0CA}"/>
-    <hyperlink ref="J422" r:id="rId1820" xr:uid="{3D9BABD4-EE6C-4AB2-A7EC-0D1B2A32D99E}"/>
-    <hyperlink ref="F423" r:id="rId1821" xr:uid="{4D62B43D-8748-4A35-A626-4239AF3C2E61}"/>
-    <hyperlink ref="G423" r:id="rId1822" xr:uid="{8B0CA0E9-9FE0-4F03-93A6-4F61170355C3}"/>
-    <hyperlink ref="H423" r:id="rId1823" xr:uid="{0F546C43-946A-4DA0-9001-93BC8A24039E}"/>
-    <hyperlink ref="I423" r:id="rId1824" xr:uid="{BA12006C-7004-4324-A040-736E19CD6EBB}"/>
-    <hyperlink ref="J423" r:id="rId1825" xr:uid="{BFDD87F4-882D-46D1-9F67-C6FF846FE9C5}"/>
-    <hyperlink ref="F424" r:id="rId1826" xr:uid="{A6234051-7E05-485E-985A-1536050F9138}"/>
-    <hyperlink ref="G424" r:id="rId1827" xr:uid="{FCBFEB00-D7AA-4160-ADB8-CC2BFB1CEFBF}"/>
-    <hyperlink ref="H424" r:id="rId1828" xr:uid="{86A28813-FF0C-4034-A3F7-1A2D626091C4}"/>
-    <hyperlink ref="J424" r:id="rId1829" xr:uid="{EF21A151-6EB6-467C-80C6-A9B6AC6CBA76}"/>
-    <hyperlink ref="I424" r:id="rId1830" xr:uid="{27BBE615-C512-467F-BE13-FE28D983F7EE}"/>
-    <hyperlink ref="F425" r:id="rId1831" xr:uid="{0E8ED884-12FC-442C-AEBC-5ACE7550D91C}"/>
-    <hyperlink ref="G425" r:id="rId1832" xr:uid="{EF106542-7757-43D0-B995-CE3C7CBECA16}"/>
-    <hyperlink ref="I425" r:id="rId1833" xr:uid="{EA2AD23C-2528-43BD-BF41-84940ADB91D8}"/>
-    <hyperlink ref="H425" r:id="rId1834" xr:uid="{AAD15CEF-C34A-4CAA-A115-062800AE94ED}"/>
-    <hyperlink ref="J425" r:id="rId1835" xr:uid="{FC162433-32C5-46EF-A3B2-184FFE0C1E90}"/>
-    <hyperlink ref="F426" r:id="rId1836" xr:uid="{77895B7E-9E16-463C-8303-47807065623D}"/>
-    <hyperlink ref="G426" r:id="rId1837" xr:uid="{3F8E1051-99DA-48FB-921A-20FD326830F8}"/>
-    <hyperlink ref="H426" r:id="rId1838" xr:uid="{44C70299-9F97-494C-B0AD-56726DF67DFD}"/>
-    <hyperlink ref="I426" r:id="rId1839" xr:uid="{E74BEEC0-E62F-45B4-9F0C-7C9F1E024EDE}"/>
-    <hyperlink ref="J426" r:id="rId1840" xr:uid="{45534C82-58CC-4A3C-8F0A-823092D081B3}"/>
-    <hyperlink ref="F427" r:id="rId1841" xr:uid="{0DEEC498-B7A0-46FA-BCB7-4E5A1B951341}"/>
-    <hyperlink ref="G427" r:id="rId1842" xr:uid="{94F6C6A7-F6D4-4C00-AB1A-50D83A8D3BD9}"/>
-    <hyperlink ref="H427" r:id="rId1843" xr:uid="{3BB88738-2768-47CD-A6C4-F0A7050039C5}"/>
-    <hyperlink ref="I427" r:id="rId1844" xr:uid="{2E7D9106-E931-40A3-A1AB-31E00ED8BFAD}"/>
-    <hyperlink ref="J427" r:id="rId1845" xr:uid="{15CC8C86-BB82-40B9-82ED-FB11F32BE3D9}"/>
-    <hyperlink ref="F428" r:id="rId1846" xr:uid="{E04EC733-90EA-42F6-8E0C-CB8A5D45FDA4}"/>
-    <hyperlink ref="G428" r:id="rId1847" xr:uid="{E491A7E0-3667-405B-8E4D-F79F03EC740A}"/>
-    <hyperlink ref="H428" r:id="rId1848" xr:uid="{6B70EBFC-512D-4964-933F-A087278428A1}"/>
-    <hyperlink ref="I428" r:id="rId1849" xr:uid="{B044A0D4-6356-4941-93C3-355D9839FCBD}"/>
-    <hyperlink ref="J428" r:id="rId1850" xr:uid="{A65539A9-488A-46AC-9282-816FB1BAC6B2}"/>
-    <hyperlink ref="F429" r:id="rId1851" xr:uid="{B79D4756-1222-4505-8B68-7F8E360FE7E4}"/>
-    <hyperlink ref="G429" r:id="rId1852" xr:uid="{62C5A3A0-E063-4B09-AE3D-C6DD5D422660}"/>
-    <hyperlink ref="H429" r:id="rId1853" xr:uid="{CED76AFC-D868-44DE-BEF4-B62FABA68CE2}"/>
-    <hyperlink ref="I429" r:id="rId1854" xr:uid="{4980AAD2-5C09-4B5E-A48D-0B6A7396A492}"/>
-    <hyperlink ref="J429" r:id="rId1855" xr:uid="{A40CC23B-7B72-4F73-B573-BB7C06A8986A}"/>
-    <hyperlink ref="F430" r:id="rId1856" xr:uid="{1F75F8AD-0E72-41D4-843B-BCB00C7FE608}"/>
-    <hyperlink ref="G430" r:id="rId1857" xr:uid="{7631A9E0-C35F-41AE-B555-48C9F24996C2}"/>
-    <hyperlink ref="H430" r:id="rId1858" xr:uid="{BAEBFB72-8E4D-4468-97B7-564BEF80ECCA}"/>
-    <hyperlink ref="I430" r:id="rId1859" xr:uid="{398E1A93-BE26-48F8-8DEC-7020EFC3BE9B}"/>
-    <hyperlink ref="J430" r:id="rId1860" xr:uid="{16187D72-625E-4F4C-8F19-9545BC6260FB}"/>
-    <hyperlink ref="F431" r:id="rId1861" xr:uid="{59F612C3-E7C7-4692-AC5B-3DAD8CEC20B4}"/>
-    <hyperlink ref="G431" r:id="rId1862" xr:uid="{9C708C5D-A061-4F47-B034-EBA246FEFE3D}"/>
-    <hyperlink ref="H431" r:id="rId1863" xr:uid="{8A1599F2-AF3C-42E7-85F4-64F9124D0C14}"/>
-    <hyperlink ref="I431" r:id="rId1864" xr:uid="{C012610C-B668-47BF-8A1C-3747F03DAA9D}"/>
-    <hyperlink ref="J431" r:id="rId1865" xr:uid="{21309BD5-FE59-4D1E-9156-8BECC0DD111C}"/>
-    <hyperlink ref="F432" r:id="rId1866" xr:uid="{79BFDFB6-7C61-4044-9E48-3C7F667A80B1}"/>
-    <hyperlink ref="G432" r:id="rId1867" xr:uid="{D81FDF51-299E-4D78-9BEA-D1A14A37D0F6}"/>
-    <hyperlink ref="H432" r:id="rId1868" xr:uid="{AD480A4E-C74B-4089-8A12-72FB4AC36FF6}"/>
-    <hyperlink ref="I432" r:id="rId1869" xr:uid="{A6216493-F345-44F3-8E59-B4464595BAA1}"/>
-    <hyperlink ref="J432" r:id="rId1870" xr:uid="{22EF61C1-8E2E-4FBC-B1B3-68990A559385}"/>
-    <hyperlink ref="F433" r:id="rId1871" xr:uid="{F87E329D-A3A9-42D7-A052-512D0A27F687}"/>
-    <hyperlink ref="G433" r:id="rId1872" xr:uid="{FEED50AD-FADB-418F-A296-0F1CF6CCA1D4}"/>
-    <hyperlink ref="H433" r:id="rId1873" xr:uid="{DC92B32C-210C-41BD-BBD9-C9AC0789B3BD}"/>
-    <hyperlink ref="I433" r:id="rId1874" xr:uid="{D367FB42-3DA7-44C5-AC1F-0D5C4E59871D}"/>
-    <hyperlink ref="J433" r:id="rId1875" xr:uid="{4AC4CA30-18C1-452E-8FB3-E6FD24C6CBC4}"/>
-    <hyperlink ref="F434" r:id="rId1876" xr:uid="{D48D1C79-E77F-4F8E-8E07-94C026AEF0EB}"/>
-    <hyperlink ref="G434" r:id="rId1877" xr:uid="{6E8F15AC-9B64-4E18-84AA-E548C9FC8A58}"/>
-    <hyperlink ref="H434" r:id="rId1878" xr:uid="{B7640CBC-D18B-4388-A163-576E454CAF7B}"/>
-    <hyperlink ref="I434" r:id="rId1879" xr:uid="{7C15AF67-672C-491A-AFFA-003CB98EDB3A}"/>
-    <hyperlink ref="J434" r:id="rId1880" xr:uid="{62774ECE-B8D7-4D19-9523-C5CC4CD9DCF0}"/>
-    <hyperlink ref="F435" r:id="rId1881" xr:uid="{09D58DE1-9427-48C0-A6BF-6AE378B4598B}"/>
-    <hyperlink ref="G435" r:id="rId1882" xr:uid="{1476DD3E-6BE8-467E-B357-535AD5000DF9}"/>
-    <hyperlink ref="H435" r:id="rId1883" xr:uid="{D3674BB8-F602-425C-BFBF-EA41008AE052}"/>
-    <hyperlink ref="F436" r:id="rId1884" xr:uid="{7D1D76F9-3391-48A9-B708-FAA361FC7590}"/>
-    <hyperlink ref="G436" r:id="rId1885" xr:uid="{DEE2BED5-71DA-44E8-A192-C3AAB7FC60C9}"/>
-    <hyperlink ref="H436" r:id="rId1886" xr:uid="{78FDD5F9-5839-48D5-92B0-9B2C1541BEF4}"/>
-    <hyperlink ref="I436" r:id="rId1887" xr:uid="{29FE60BA-3532-4A9B-B570-6C3714F754B0}"/>
-    <hyperlink ref="J436" r:id="rId1888" xr:uid="{E3C6050F-1AEE-41D0-959B-19F9488BD378}"/>
-    <hyperlink ref="F437" r:id="rId1889" xr:uid="{3195660C-23D2-4919-9772-0146A9ADBDBF}"/>
-    <hyperlink ref="G437" r:id="rId1890" xr:uid="{2D7A94A0-F65A-48F6-9FE4-5BB9529B47F6}"/>
-    <hyperlink ref="H437" r:id="rId1891" xr:uid="{67A2452C-9AAE-4713-B309-03346D8F7285}"/>
-    <hyperlink ref="I437" r:id="rId1892" xr:uid="{C4AB73DA-DB4F-454E-9F3F-7246B68F9C50}"/>
-    <hyperlink ref="J437" r:id="rId1893" xr:uid="{B92E46B5-DEFE-4CC5-BDDE-45E23F98BE61}"/>
-    <hyperlink ref="F438" r:id="rId1894" xr:uid="{015E1922-D271-4423-A6BA-4BC2AE4D6111}"/>
-    <hyperlink ref="G438" r:id="rId1895" xr:uid="{4BF6812E-842B-46D0-B13E-3D22EB7AE0A6}"/>
-    <hyperlink ref="F439" r:id="rId1896" xr:uid="{7A167451-0F61-44DB-B8B1-C7078CF6BC2B}"/>
-    <hyperlink ref="G439" r:id="rId1897" xr:uid="{C933D222-A064-48D1-8EAE-F8FF0D558ACD}"/>
-    <hyperlink ref="H438" r:id="rId1898" xr:uid="{C425254E-0E3E-4B06-A3FC-DB254E604970}"/>
-    <hyperlink ref="H439" r:id="rId1899" xr:uid="{5C72E896-6CAB-4285-9BC1-FA54EE34B5F8}"/>
-    <hyperlink ref="I439" r:id="rId1900" xr:uid="{560E9A98-6BDE-4731-BDA4-5570183736B9}"/>
-    <hyperlink ref="J439" r:id="rId1901" xr:uid="{C5B0A6B2-C629-472C-8A2B-5A13EAD5419D}"/>
-    <hyperlink ref="F440" r:id="rId1902" xr:uid="{15FB010E-3490-4F4B-B750-DF379A8205B5}"/>
-    <hyperlink ref="G440" r:id="rId1903" xr:uid="{CDB8CD58-F6A8-4DB7-B90F-1A59C3DDBA32}"/>
-    <hyperlink ref="H440" r:id="rId1904" xr:uid="{ADAFB4D5-AA15-454D-A450-56111B091D7F}"/>
-    <hyperlink ref="I440" r:id="rId1905" xr:uid="{E8507898-C037-4554-A0B8-F07036F3E101}"/>
-    <hyperlink ref="J440" r:id="rId1906" xr:uid="{029E38C6-44CE-4268-A990-62C9A35BA42A}"/>
-    <hyperlink ref="F441" r:id="rId1907" xr:uid="{18A8A851-3E1E-4AFA-80CD-6A1D1903E5D7}"/>
-    <hyperlink ref="G441" r:id="rId1908" xr:uid="{73B6BEB5-9BA5-4427-B61C-9638804EA487}"/>
-    <hyperlink ref="H441" r:id="rId1909" xr:uid="{26ED5A42-DEB9-46E2-94CD-282AAB88F60A}"/>
-    <hyperlink ref="I441" r:id="rId1910" xr:uid="{1442F7DA-E0CC-4A5B-8737-7D5E1A01C117}"/>
-    <hyperlink ref="J441" r:id="rId1911" xr:uid="{DF55A6D3-576B-48D2-9AE2-45E711EE0862}"/>
-    <hyperlink ref="F442" r:id="rId1912" xr:uid="{71EC985A-D1DC-43AE-8F25-25893FD1CEF7}"/>
-    <hyperlink ref="G442" r:id="rId1913" xr:uid="{1BF19984-9D83-4A9F-B94C-D6A5A2025107}"/>
-    <hyperlink ref="H442" r:id="rId1914" xr:uid="{0AEB853D-FD15-4280-826A-E63041CD78CF}"/>
-    <hyperlink ref="I442" r:id="rId1915" xr:uid="{3D795B83-B006-4B2B-AC63-DA1B76FA5EC6}"/>
-    <hyperlink ref="J442" r:id="rId1916" xr:uid="{7DC6F407-8270-4FC4-99BD-E3ED4298769F}"/>
-    <hyperlink ref="F443" r:id="rId1917" xr:uid="{18E50C24-2327-45E4-A9FD-56324F2AADA0}"/>
-    <hyperlink ref="G443" r:id="rId1918" xr:uid="{027E086C-10A9-4C65-B4D7-4C0C56BC5C7E}"/>
-    <hyperlink ref="H443" r:id="rId1919" xr:uid="{52319DF2-38D5-4ED8-ABF1-AA45602B564F}"/>
-    <hyperlink ref="I443" r:id="rId1920" xr:uid="{8B27EDAA-B5F7-427C-919E-4CA78CF0FCAA}"/>
-    <hyperlink ref="J443" r:id="rId1921" xr:uid="{BB5F2B57-1AE9-470E-B136-E59D909C76DD}"/>
-    <hyperlink ref="F444" r:id="rId1922" xr:uid="{2E40D98F-47BB-4B88-8BFF-4326F46E988E}"/>
-    <hyperlink ref="G444" r:id="rId1923" xr:uid="{3C4BFF9D-4465-48B8-B235-924C285F4D4B}"/>
-    <hyperlink ref="H444" r:id="rId1924" xr:uid="{E4580200-B574-4B84-87B3-90101829A10D}"/>
-    <hyperlink ref="I444" r:id="rId1925" xr:uid="{1BE67E55-7E05-486F-97AF-3A916BA89773}"/>
-    <hyperlink ref="J444" r:id="rId1926" xr:uid="{859684A9-B3D1-4E4A-B3BF-60C3BA837AF3}"/>
-    <hyperlink ref="F445" r:id="rId1927" xr:uid="{382A25EA-392B-484E-B697-EB7054524A6B}"/>
-    <hyperlink ref="G445" r:id="rId1928" xr:uid="{57D7506C-DD24-42A1-B096-8EE62D10AC2E}"/>
-    <hyperlink ref="H445" r:id="rId1929" xr:uid="{814E8E55-F686-4533-8A08-061EE38188BB}"/>
-    <hyperlink ref="I445" r:id="rId1930" xr:uid="{77F3B18A-6B43-401C-9ECD-7D4BC758F560}"/>
-    <hyperlink ref="J445" r:id="rId1931" xr:uid="{78C76842-0F34-4707-BFAC-0A30AA6D0108}"/>
-    <hyperlink ref="F446" r:id="rId1932" xr:uid="{B6E36E1D-A659-46C9-BC24-AB8CBD45C600}"/>
-    <hyperlink ref="G446" r:id="rId1933" xr:uid="{53DA4D03-3114-4BBC-92F0-83FBF5AE67C6}"/>
-    <hyperlink ref="H446" r:id="rId1934" xr:uid="{0329FB7E-09AE-4C43-923D-EB409A150E5F}"/>
-    <hyperlink ref="I446" r:id="rId1935" xr:uid="{6BDC033A-E302-4DFA-A30D-6E8A34ECBB07}"/>
-    <hyperlink ref="J446" r:id="rId1936" xr:uid="{CFA32CB4-51C8-4A38-A527-D876B7F25835}"/>
-    <hyperlink ref="F447" r:id="rId1937" xr:uid="{D1D8C4CE-DA3B-4238-8004-C4790995C1F9}"/>
-    <hyperlink ref="G447" r:id="rId1938" xr:uid="{BF17566A-73BE-445B-A41C-96199F9DD66A}"/>
-    <hyperlink ref="H447" r:id="rId1939" xr:uid="{2182DCF8-B526-4663-B94D-D1BFE0BCB9C6}"/>
-    <hyperlink ref="I447" r:id="rId1940" xr:uid="{2CF5F9F5-15A7-4AD0-934E-BCEFBBBEC9DC}"/>
-    <hyperlink ref="J447" r:id="rId1941" xr:uid="{A1F195E6-2064-4858-A35D-B47946788E68}"/>
-    <hyperlink ref="F448" r:id="rId1942" xr:uid="{B6FB3DA5-84E4-47FA-B921-BB724D24429E}"/>
-    <hyperlink ref="G448" r:id="rId1943" xr:uid="{C8E24A6E-720C-41AE-9989-0BC16E9F9503}"/>
-    <hyperlink ref="H448" r:id="rId1944" xr:uid="{7E946646-2A32-49A8-BA92-AE0AE155C270}"/>
-    <hyperlink ref="I448" r:id="rId1945" xr:uid="{80A39ABA-161C-4456-A827-85A065A74DD5}"/>
-    <hyperlink ref="J448" r:id="rId1946" xr:uid="{78B86823-FE4D-4058-A3CB-A788C4D4FD39}"/>
-    <hyperlink ref="F449" r:id="rId1947" xr:uid="{B33CB5B6-FC63-4185-9680-8FD00072DF68}"/>
-    <hyperlink ref="G449" r:id="rId1948" xr:uid="{A6BE8145-84A6-4F5C-8406-F5988905C833}"/>
-    <hyperlink ref="H449" r:id="rId1949" xr:uid="{11A573EA-5E06-411D-B5FF-487CA0FA8A57}"/>
-    <hyperlink ref="I449" r:id="rId1950" xr:uid="{78233EC1-459C-4A2F-A7F8-A2113758CA98}"/>
-    <hyperlink ref="J449" r:id="rId1951" xr:uid="{5DBD8B4F-05A7-44C7-AB8E-D97340C0E8D3}"/>
-    <hyperlink ref="F450" r:id="rId1952" xr:uid="{CDBAB791-8B3B-49A0-95E7-9774B7C6F413}"/>
-    <hyperlink ref="G450" r:id="rId1953" xr:uid="{F4B8505D-1A7C-4C20-A87F-5AEE36F3FBDF}"/>
-    <hyperlink ref="H450" r:id="rId1954" xr:uid="{49EBBB23-9FA9-429F-B5E7-587B85499EBA}"/>
-    <hyperlink ref="I450" r:id="rId1955" xr:uid="{7FC35A34-0300-4CF2-A8E6-D3EA6FD38CDE}"/>
-    <hyperlink ref="J450" r:id="rId1956" xr:uid="{8BF24147-8600-4C5B-950B-F13881B9ED3C}"/>
-    <hyperlink ref="F451" r:id="rId1957" xr:uid="{A7D0A39F-2999-4212-A257-71A4218CE607}"/>
-    <hyperlink ref="G451" r:id="rId1958" xr:uid="{D0B8B091-7F7B-41B8-AC72-46D6DE74DD34}"/>
-    <hyperlink ref="H451" r:id="rId1959" xr:uid="{B520407F-FC4B-4A8D-9275-65D3EACADFFF}"/>
-    <hyperlink ref="I451" r:id="rId1960" xr:uid="{A0BFDFD7-1F0A-40DD-A461-6DAE43870872}"/>
-    <hyperlink ref="J451" r:id="rId1961" xr:uid="{FFEFE253-57A2-4C4C-B18F-2561FB7C9ABA}"/>
-    <hyperlink ref="F452" r:id="rId1962" xr:uid="{57FA4F81-365A-4EAB-90E3-5B7F797DBE14}"/>
-    <hyperlink ref="G452" r:id="rId1963" xr:uid="{8F3D9B5E-3E9D-4EB5-B880-32E4DAD0995D}"/>
-    <hyperlink ref="H452" r:id="rId1964" xr:uid="{A4ABAF5B-EAD1-43A3-8CAA-357537FFE97D}"/>
-    <hyperlink ref="I452" r:id="rId1965" xr:uid="{1D999991-3BEC-4E05-A671-1E9F91C812E5}"/>
-    <hyperlink ref="J452" r:id="rId1966" xr:uid="{C38718AD-BB7F-4FD0-BC67-81F040CBF468}"/>
-    <hyperlink ref="F453" r:id="rId1967" xr:uid="{B1BBAEA9-3812-416D-944E-E03C5B57BD46}"/>
-    <hyperlink ref="G453" r:id="rId1968" xr:uid="{37DA782F-B719-47D3-9DC6-F01CA366154B}"/>
-    <hyperlink ref="H453" r:id="rId1969" xr:uid="{A34EAE50-D615-4BC2-97AE-1CE5950EFA88}"/>
-    <hyperlink ref="I453" r:id="rId1970" xr:uid="{111DDF8D-EEE8-4FAD-B972-2B6524D87C0B}"/>
-    <hyperlink ref="J453" r:id="rId1971" xr:uid="{9997A58D-C86C-4A78-9D33-2054034A8075}"/>
-    <hyperlink ref="F454" r:id="rId1972" xr:uid="{1CFEFE20-BB19-4DA9-9D57-BED867C61134}"/>
-    <hyperlink ref="G454" r:id="rId1973" xr:uid="{02AF27C4-97CD-4CC9-80B0-115FB34F1C72}"/>
-    <hyperlink ref="H454" r:id="rId1974" xr:uid="{CC425C9A-D6CB-4A7F-A72F-A212E84049F7}"/>
-    <hyperlink ref="I454" r:id="rId1975" xr:uid="{1E0957D1-26DE-4D8E-8275-F7D2A3685DFE}"/>
-    <hyperlink ref="J454" r:id="rId1976" xr:uid="{C78992CC-C59B-4B04-9D11-044F96E8AAA4}"/>
-    <hyperlink ref="F455" r:id="rId1977" xr:uid="{4C9B8BB8-A914-46D6-9D7B-1BBA46C36173}"/>
-    <hyperlink ref="G455" r:id="rId1978" xr:uid="{9D774ECB-B000-445E-AA67-BECD3DF39DF6}"/>
-    <hyperlink ref="H455" r:id="rId1979" xr:uid="{E5AF9E63-6756-4456-9C2D-E30DAB9C73B1}"/>
-    <hyperlink ref="I455" r:id="rId1980" xr:uid="{500F83F7-F8F5-471E-AE29-946CFB751722}"/>
-    <hyperlink ref="J455" r:id="rId1981" xr:uid="{74A7FC56-60E5-4A1F-832B-A7AE6F627B22}"/>
-    <hyperlink ref="F456" r:id="rId1982" xr:uid="{B8F32F2F-5D6C-456A-9A36-4D32E366F8DD}"/>
-    <hyperlink ref="G456" r:id="rId1983" xr:uid="{9B27932B-F06F-4556-B616-155B14D9049E}"/>
-    <hyperlink ref="H456" r:id="rId1984" xr:uid="{BEB4F958-C18A-48F0-B36E-1E896413FD6E}"/>
-    <hyperlink ref="I456" r:id="rId1985" xr:uid="{A88480E0-5EF4-4081-B169-997E4CB1276B}"/>
-    <hyperlink ref="J456" r:id="rId1986" xr:uid="{1122D993-87FB-4506-9A99-9236BA745240}"/>
-    <hyperlink ref="F457" r:id="rId1987" xr:uid="{A81AD647-DA5B-470C-A5C6-19DBD1688C93}"/>
-    <hyperlink ref="G457" r:id="rId1988" xr:uid="{56663EC3-E635-4292-B04E-0B4E5D675678}"/>
-    <hyperlink ref="H457" r:id="rId1989" xr:uid="{7AC58156-08DF-4EED-AFD4-AD87D1051B17}"/>
-    <hyperlink ref="I457" r:id="rId1990" xr:uid="{37191A01-495D-48C8-BBD9-23D3DD555599}"/>
-    <hyperlink ref="J457" r:id="rId1991" xr:uid="{828B0652-2D09-4A3A-B43B-EB5FC0B1B962}"/>
-    <hyperlink ref="F458" r:id="rId1992" xr:uid="{54C7859C-5585-4622-BEC0-CB008DFACC1E}"/>
-    <hyperlink ref="G458" r:id="rId1993" xr:uid="{864FA3CB-E003-47C6-A0DC-2E2B9C42128F}"/>
-    <hyperlink ref="H458" r:id="rId1994" xr:uid="{EB4FE7BC-1107-43C2-A2FC-CEE946489629}"/>
-    <hyperlink ref="I458" r:id="rId1995" xr:uid="{BFD612ED-C3CB-4426-8258-DB9CF27D108A}"/>
-    <hyperlink ref="J458" r:id="rId1996" xr:uid="{77B4D327-6A0E-45A4-842E-83707D1BED14}"/>
-    <hyperlink ref="F459" r:id="rId1997" xr:uid="{E08AD768-E384-4048-AC49-59AA4685529D}"/>
-    <hyperlink ref="G459" r:id="rId1998" xr:uid="{B8252A42-6E54-40E0-883C-95081B4B17E5}"/>
-    <hyperlink ref="H459" r:id="rId1999" xr:uid="{645FD253-A468-4A4F-8F97-82C53ACC9FDB}"/>
-    <hyperlink ref="I459" r:id="rId2000" xr:uid="{6638FF35-6076-48EA-BF5E-6090A280B2EF}"/>
-    <hyperlink ref="J459" r:id="rId2001" xr:uid="{8611B5D7-8CC2-4282-B4FB-B336C4F8807F}"/>
-    <hyperlink ref="F460" r:id="rId2002" xr:uid="{12708CC2-0BEE-4CBC-A8BE-887071AA1069}"/>
-    <hyperlink ref="G460" r:id="rId2003" xr:uid="{B6AF8A50-D4D8-494C-8FD2-7539638974FD}"/>
-    <hyperlink ref="H460" r:id="rId2004" xr:uid="{A96A122E-6923-4BC4-A18E-5F1FBCCD7152}"/>
-    <hyperlink ref="I460" r:id="rId2005" xr:uid="{C9B6B9F9-7A50-43D6-A6E1-1DDA2F1D1495}"/>
-    <hyperlink ref="J460" r:id="rId2006" xr:uid="{0076F424-057A-401B-AB09-6636C770620F}"/>
-    <hyperlink ref="F461" r:id="rId2007" xr:uid="{4D8CB8A8-D10C-4CD0-958D-44F08AEBB22E}"/>
-    <hyperlink ref="G461" r:id="rId2008" xr:uid="{5AFEB094-8F54-4CAE-9E97-CDF366F5CAD1}"/>
-    <hyperlink ref="H461" r:id="rId2009" xr:uid="{7A12436B-618C-4B03-8EA2-33C44DA1BC58}"/>
-    <hyperlink ref="I461" r:id="rId2010" xr:uid="{246848A1-A9C3-470A-BFB7-E02C4AC05586}"/>
-    <hyperlink ref="J461" r:id="rId2011" xr:uid="{CD4A6CED-3A72-4C63-AD21-ADC88A32EA67}"/>
-    <hyperlink ref="F462" r:id="rId2012" location="google_vignette" xr:uid="{5B640C5D-767F-46CA-8FFE-11A6088CE9B4}"/>
-    <hyperlink ref="H462" r:id="rId2013" xr:uid="{1D61F6D4-8B37-4D44-96DB-A9BF28EC8363}"/>
-    <hyperlink ref="G462" r:id="rId2014" xr:uid="{7AAD0F15-3CD6-49FF-9914-E71ADB6CA1C3}"/>
-    <hyperlink ref="I462" r:id="rId2015" xr:uid="{54BBDDA1-2A29-46BC-A7F7-2AD589FE0148}"/>
-    <hyperlink ref="J462" r:id="rId2016" xr:uid="{5F74BF49-61EF-4B9C-90CD-F82D336C5ACD}"/>
-    <hyperlink ref="F463" r:id="rId2017" xr:uid="{71959127-2F5B-4D39-B5ED-56DF77BEAF73}"/>
-    <hyperlink ref="G463" r:id="rId2018" xr:uid="{98754B5E-0414-4D37-9E90-57FCBE107E30}"/>
-    <hyperlink ref="H463" r:id="rId2019" xr:uid="{7EEDD409-9F28-4B7A-A76B-D97A044A2642}"/>
-    <hyperlink ref="I463" r:id="rId2020" xr:uid="{C043AA5E-6696-4771-AE0E-76C714302D02}"/>
-    <hyperlink ref="J463" r:id="rId2021" xr:uid="{07F4F5FB-7CEC-4597-8A99-1461DF9CBF81}"/>
-    <hyperlink ref="F464" r:id="rId2022" xr:uid="{990EB787-CF80-41B6-B6AD-BE50B2283736}"/>
-    <hyperlink ref="G464" r:id="rId2023" xr:uid="{749086E6-1678-4403-8C04-045FCB354E61}"/>
-    <hyperlink ref="H464" r:id="rId2024" xr:uid="{D72BD201-0D47-4F91-B27D-F3F86D9A1255}"/>
-    <hyperlink ref="I464" r:id="rId2025" xr:uid="{0C1130D6-AD3B-4E75-8621-1B32DB22DF60}"/>
-    <hyperlink ref="J464" r:id="rId2026" xr:uid="{DFF39B8F-D431-4DAB-92D1-DFBBF165192A}"/>
-    <hyperlink ref="F465" r:id="rId2027" xr:uid="{3DF46561-06EE-48F0-89B3-354695C7208A}"/>
-    <hyperlink ref="G465" r:id="rId2028" xr:uid="{D5C74A95-D0F9-41F1-B5F3-A894A18AF22B}"/>
-    <hyperlink ref="H465" r:id="rId2029" xr:uid="{50F73C6D-C9AE-43AF-B948-4D71CBE73F00}"/>
-    <hyperlink ref="I465" r:id="rId2030" xr:uid="{DEE4FED1-87AB-4BDE-990C-CA9A1BFBF40C}"/>
-    <hyperlink ref="J465" r:id="rId2031" xr:uid="{459D9F8A-0490-4076-A099-6D3A5CDF59E3}"/>
-    <hyperlink ref="F466" r:id="rId2032" xr:uid="{6EA67BBB-D7D7-459C-AB67-CCF3714A87DC}"/>
-    <hyperlink ref="G466" r:id="rId2033" xr:uid="{0EED22D0-6FA6-4B41-AC04-76313B5D585A}"/>
-    <hyperlink ref="H466" r:id="rId2034" xr:uid="{052B2A8C-6D6D-464C-8BD4-BB283AA479F7}"/>
-    <hyperlink ref="I466" r:id="rId2035" xr:uid="{64EA8265-1D11-4E96-AA2A-D8547C49C8EF}"/>
-    <hyperlink ref="J466" r:id="rId2036" xr:uid="{7323C4C1-F832-4504-9BEA-D4240EEA12BD}"/>
-    <hyperlink ref="F467" r:id="rId2037" xr:uid="{84080D60-71B5-44F8-A922-5C09A5D331A4}"/>
-    <hyperlink ref="G467" r:id="rId2038" xr:uid="{3F66F4A6-BCFD-41ED-AEF6-7ED7C9FE6034}"/>
-    <hyperlink ref="H467" r:id="rId2039" xr:uid="{B7D6A1D1-81E1-487A-82CB-953E46EB58DA}"/>
-    <hyperlink ref="I467" r:id="rId2040" xr:uid="{CE6556C5-AEBA-44A9-AAA1-73164C58FCDF}"/>
-    <hyperlink ref="J467" r:id="rId2041" xr:uid="{13939D19-B5E5-45CE-93F8-786F575B8471}"/>
-    <hyperlink ref="F468" r:id="rId2042" xr:uid="{78EBA2DE-50B3-4ED1-8FA8-848DD4B12D3B}"/>
-    <hyperlink ref="G468" r:id="rId2043" xr:uid="{9EA236A7-8B02-41A7-887F-0E7FE992A199}"/>
-    <hyperlink ref="H468" r:id="rId2044" xr:uid="{258DA761-9EA7-4535-8328-6008D86CFEDA}"/>
-    <hyperlink ref="I468" r:id="rId2045" xr:uid="{27C1364D-2F29-49EE-95EF-1937244C6A95}"/>
-    <hyperlink ref="J468" r:id="rId2046" xr:uid="{1CCAC1F0-72BC-4CB9-B152-5AEC129B6231}"/>
-    <hyperlink ref="F469" r:id="rId2047" xr:uid="{6C395DC3-A2C1-42E2-9741-DD2626DAB568}"/>
-    <hyperlink ref="G469" r:id="rId2048" xr:uid="{CB5F4B95-E8A0-418E-876E-0F40B2D7B08D}"/>
-    <hyperlink ref="H469" r:id="rId2049" xr:uid="{0E3BA13D-EFC0-4A6F-A44E-F2ABF1AAA1DE}"/>
-    <hyperlink ref="I469" r:id="rId2050" xr:uid="{E7806588-2841-427F-86E9-D453DE75F9E7}"/>
-    <hyperlink ref="J469" r:id="rId2051" xr:uid="{190D82BF-CA0E-428F-BC3D-3710C1B4CCE1}"/>
-    <hyperlink ref="F470" r:id="rId2052" xr:uid="{A1AF3E08-9D14-4E03-930F-CC8599544017}"/>
-    <hyperlink ref="G470" r:id="rId2053" xr:uid="{9ED75F58-E1FD-4056-BDEB-172A3F4BB5EE}"/>
-    <hyperlink ref="H470" r:id="rId2054" xr:uid="{D6ED0CB9-2B78-42BC-9DE5-EF36B624F7C7}"/>
-    <hyperlink ref="I470" r:id="rId2055" xr:uid="{91885420-6B2F-4199-813B-AECCADBE6ACA}"/>
-    <hyperlink ref="J470" r:id="rId2056" xr:uid="{729E6BD3-A4BE-4649-8E8E-87D15EDB1B8C}"/>
-    <hyperlink ref="F471" r:id="rId2057" xr:uid="{C60B4731-CB88-4983-9D79-E92C7D20ACB1}"/>
-    <hyperlink ref="G471" r:id="rId2058" xr:uid="{B45676ED-63AD-457B-BCCD-72A81AD72D5B}"/>
-    <hyperlink ref="H471" r:id="rId2059" xr:uid="{F4D89F2A-CF06-4FDC-8017-E1FDB389A0B2}"/>
-    <hyperlink ref="I471" r:id="rId2060" xr:uid="{DF42659E-0B8B-426C-B9F5-DD0ED3540B8B}"/>
-    <hyperlink ref="J471" r:id="rId2061" xr:uid="{7C812447-D3EA-4BA3-B0FD-20A45D7A558D}"/>
-    <hyperlink ref="F472" r:id="rId2062" xr:uid="{08706C64-DAAB-43A1-91BF-697CA8EFFDA8}"/>
-    <hyperlink ref="G472" r:id="rId2063" xr:uid="{B3EFA31A-B5C6-4D24-A698-386399CD6FFB}"/>
-    <hyperlink ref="H472" r:id="rId2064" xr:uid="{B94D7D2E-D1C7-4933-B9EA-2440135E5BA2}"/>
-    <hyperlink ref="I472" r:id="rId2065" xr:uid="{C03DF51D-162C-425D-BBB2-1D64AE2EC746}"/>
-    <hyperlink ref="J472" r:id="rId2066" xr:uid="{72B60722-53EC-49B6-BC87-86C219A0D18B}"/>
-    <hyperlink ref="F473" r:id="rId2067" xr:uid="{B0DD711A-E7D7-4A1D-87D0-7EBF06414ED3}"/>
-    <hyperlink ref="G473" r:id="rId2068" xr:uid="{6BD5B6D5-8D5D-45BD-9F4C-48680F28FEF5}"/>
-    <hyperlink ref="H473" r:id="rId2069" xr:uid="{416B52FF-4536-40F4-BB31-6BEAABA13EB7}"/>
-    <hyperlink ref="I473" r:id="rId2070" xr:uid="{A2D4634F-B8FD-455A-9687-1BB8E99D8523}"/>
-    <hyperlink ref="J473" r:id="rId2071" xr:uid="{3A79B941-E5AF-47C7-8C85-AE70CA60362C}"/>
-    <hyperlink ref="F474" r:id="rId2072" xr:uid="{A5F4E782-8DD4-4239-A27D-7A7011845900}"/>
-    <hyperlink ref="G474" r:id="rId2073" xr:uid="{8DD44027-22CA-43A6-BF63-6A7472149FA3}"/>
-    <hyperlink ref="H474" r:id="rId2074" xr:uid="{993E89C6-D5CC-4ED2-9ED1-93118FEDF15C}"/>
-    <hyperlink ref="I474" r:id="rId2075" xr:uid="{F8C6CABA-F3B7-4F3A-8D64-E9AFCAD5207E}"/>
-    <hyperlink ref="J474" r:id="rId2076" xr:uid="{EDC4C5E1-0E98-45F0-BB4B-3B1610DED537}"/>
-    <hyperlink ref="F475" r:id="rId2077" xr:uid="{897EE689-2E21-4872-9240-08D8F5541979}"/>
-    <hyperlink ref="G475" r:id="rId2078" xr:uid="{60DE3FF8-2C2D-4B81-9CE3-3EC7DDBD354B}"/>
-    <hyperlink ref="H475" r:id="rId2079" xr:uid="{56B48406-00C0-4933-A9E5-C92870129611}"/>
-    <hyperlink ref="I475" r:id="rId2080" xr:uid="{ECB0C79A-CF58-43BD-BEB7-6C8D81623585}"/>
-    <hyperlink ref="J475" r:id="rId2081" xr:uid="{ABAA12B9-6BF2-46F8-8022-AC280DB03C84}"/>
-    <hyperlink ref="F476" r:id="rId2082" xr:uid="{5FF0268F-EEC1-4E4E-8E97-2E6FA459F79F}"/>
-    <hyperlink ref="G476" r:id="rId2083" xr:uid="{D2FB6E3A-C372-49F4-B143-03BB8389556B}"/>
-    <hyperlink ref="H476" r:id="rId2084" xr:uid="{317B1526-86F2-4FF7-B8F8-35D1B47FB166}"/>
-    <hyperlink ref="I476" r:id="rId2085" xr:uid="{175C2EB0-2BEE-424E-891D-706CB522F9E9}"/>
-    <hyperlink ref="J476" r:id="rId2086" xr:uid="{CD142717-76E7-4E5C-B35E-930019EDF847}"/>
-    <hyperlink ref="F477" r:id="rId2087" xr:uid="{F7A536D4-2E13-4220-99F5-CE0ED7A6E306}"/>
-    <hyperlink ref="G477" r:id="rId2088" xr:uid="{0A3508C5-4F7A-42B6-BED6-AA421D45ED44}"/>
-    <hyperlink ref="H477" r:id="rId2089" xr:uid="{738AAA13-52EA-4C41-8023-67021369ED16}"/>
-    <hyperlink ref="I477" r:id="rId2090" xr:uid="{45F26C81-9C45-4E2A-BBBF-11A769293DC6}"/>
-    <hyperlink ref="J477" r:id="rId2091" xr:uid="{5DD4EBB4-4093-4B36-AC93-8201A1B2DD40}"/>
-    <hyperlink ref="F478" r:id="rId2092" xr:uid="{544561EF-4CC4-4FAF-9C12-5C47EF030C7F}"/>
-    <hyperlink ref="G478" r:id="rId2093" xr:uid="{0ADC751A-FB5C-4193-A035-271DB7FB74C5}"/>
-    <hyperlink ref="H478" r:id="rId2094" xr:uid="{2ED18F59-6958-4B05-944B-433A9E2F5F7E}"/>
-    <hyperlink ref="I478" r:id="rId2095" xr:uid="{EAF8A99D-3216-48DB-980E-BE6D2AB3D979}"/>
-    <hyperlink ref="J478" r:id="rId2096" xr:uid="{68EA95E7-BC40-4153-B66D-D4E10523E939}"/>
-    <hyperlink ref="F479" r:id="rId2097" xr:uid="{3979B7A1-2770-4E9D-BF4B-EFE4BBC50E7E}"/>
-    <hyperlink ref="G479" r:id="rId2098" xr:uid="{47875D93-6F6D-4F8B-860D-4FC6DF915FF3}"/>
-    <hyperlink ref="H479" r:id="rId2099" xr:uid="{5F7220BB-7A62-4880-889F-492561F2896D}"/>
-    <hyperlink ref="I479" r:id="rId2100" xr:uid="{CE1B721A-5B61-450F-9D90-405FCFD6F836}"/>
-    <hyperlink ref="J479" r:id="rId2101" xr:uid="{F1375085-7380-49AF-B4D1-3261B7C0E79A}"/>
-    <hyperlink ref="F480" r:id="rId2102" xr:uid="{984DA139-DC2E-476D-9824-8AD8D41BD333}"/>
-    <hyperlink ref="G480" r:id="rId2103" xr:uid="{9EC33D5F-FDA5-46B7-96D3-F25796361D36}"/>
-    <hyperlink ref="H480" r:id="rId2104" xr:uid="{440D71F7-572A-4FFF-9C04-2D2EAE43D627}"/>
-    <hyperlink ref="I480" r:id="rId2105" xr:uid="{207E74EE-9510-464E-A47D-74E560AFC56F}"/>
-    <hyperlink ref="J480" r:id="rId2106" xr:uid="{E5A6252D-5F60-46E9-9796-BC65315E3551}"/>
-    <hyperlink ref="F481" r:id="rId2107" xr:uid="{6415335D-9FFA-4AA5-AD9B-3B6EEB240FCA}"/>
-    <hyperlink ref="G481" r:id="rId2108" xr:uid="{8FAB2A64-6599-41B8-B092-4CA2685DFD38}"/>
-    <hyperlink ref="H481" r:id="rId2109" xr:uid="{6C89C4D3-DBDB-405B-B45A-C109EBD53F5F}"/>
-    <hyperlink ref="I481" r:id="rId2110" xr:uid="{075CC0DA-760B-4563-854D-99FFAC4F6017}"/>
-    <hyperlink ref="J481" r:id="rId2111" xr:uid="{1515CDED-68FC-4E63-97C8-64745B308716}"/>
-    <hyperlink ref="F482" r:id="rId2112" xr:uid="{00F02A2B-DB14-4880-BE42-AA30906979D4}"/>
-    <hyperlink ref="G482" r:id="rId2113" xr:uid="{EBB4FF94-471A-4912-B128-759C54C8F411}"/>
-    <hyperlink ref="H482" r:id="rId2114" xr:uid="{01C9A4C8-484D-4B32-A218-656171809CAB}"/>
-    <hyperlink ref="I482" r:id="rId2115" xr:uid="{2C0FB3F7-A6E8-47C2-B1BA-60CE59A44653}"/>
-    <hyperlink ref="J482" r:id="rId2116" xr:uid="{4AA8C70C-3FC7-4A17-A57D-82B682A006EB}"/>
-    <hyperlink ref="F483" r:id="rId2117" xr:uid="{EDF28BC5-3E8F-44EA-914F-E18CFD8E020B}"/>
-    <hyperlink ref="G483" r:id="rId2118" xr:uid="{6DC83E0C-B623-4B2F-BF57-163733F1F486}"/>
-    <hyperlink ref="H483" r:id="rId2119" xr:uid="{4A44B0CD-246F-4C25-8843-1DA3F3097123}"/>
-    <hyperlink ref="I483" r:id="rId2120" xr:uid="{7AF33691-158E-4407-9503-4BF31EFCDBF2}"/>
-    <hyperlink ref="J483" r:id="rId2121" xr:uid="{E1720CA3-FBF8-4580-8CF0-6341678071D0}"/>
-    <hyperlink ref="F484" r:id="rId2122" xr:uid="{00A7C165-D3EA-4EF7-9310-0557B808C97C}"/>
-    <hyperlink ref="G484" r:id="rId2123" xr:uid="{9CF01243-6E79-4313-B5F8-020B38EF2BA9}"/>
-    <hyperlink ref="H484" r:id="rId2124" xr:uid="{DD006880-A8EB-42AA-98B9-6764AFFD3AE2}"/>
-    <hyperlink ref="I484" r:id="rId2125" xr:uid="{49018521-8182-44EB-A8C6-A0AE8C1A8B06}"/>
-    <hyperlink ref="J484" r:id="rId2126" xr:uid="{8A823BEB-4E67-48EF-815C-25CA05A69E5A}"/>
-    <hyperlink ref="F485" r:id="rId2127" xr:uid="{D91B242E-AC7C-4E59-BBC1-6484C17C44CA}"/>
-    <hyperlink ref="G485" r:id="rId2128" xr:uid="{8E2593F5-754D-471B-96DB-8BE57D033C03}"/>
-    <hyperlink ref="H485" r:id="rId2129" xr:uid="{C3B40EC3-8FAF-478B-B64E-4848FAC1ED7D}"/>
-    <hyperlink ref="I485" r:id="rId2130" xr:uid="{692AB5C6-BEA9-474E-9747-E3209965CDB0}"/>
-    <hyperlink ref="J485" r:id="rId2131" xr:uid="{27B77150-4D01-4C26-ADEC-DBC7941B7AF8}"/>
-    <hyperlink ref="F486" r:id="rId2132" xr:uid="{53A8DDB3-38EB-4920-B9A4-913C197B8A16}"/>
-    <hyperlink ref="G486" r:id="rId2133" xr:uid="{D7C668EB-1580-44BE-BC00-E145FC6A4460}"/>
-    <hyperlink ref="H486" r:id="rId2134" xr:uid="{5F426CA9-F38C-441C-BCC4-76B7E4233C05}"/>
-    <hyperlink ref="I486" r:id="rId2135" xr:uid="{1B1F2763-CA63-4D07-8A52-40D59CCB8A67}"/>
-    <hyperlink ref="J486" r:id="rId2136" xr:uid="{70760CA1-D6B0-484E-A877-2E2739C0C775}"/>
-    <hyperlink ref="F487" r:id="rId2137" xr:uid="{35FEE03E-F9DE-4A2B-8D2C-26539DF31392}"/>
-    <hyperlink ref="G487" r:id="rId2138" xr:uid="{4A9CB080-A54E-4EFE-A6E6-B0E17A862829}"/>
-    <hyperlink ref="H487" r:id="rId2139" xr:uid="{67B4E21F-A0E8-44DC-A431-BCA533B5F96D}"/>
-    <hyperlink ref="G488" r:id="rId2140" xr:uid="{FF81F20C-8DAF-4301-BDBB-5C3D3F139D55}"/>
-    <hyperlink ref="H488" r:id="rId2141" xr:uid="{20A50D7F-0E1D-4214-BC9F-54DF4FE61525}"/>
-    <hyperlink ref="I488" r:id="rId2142" xr:uid="{69095DFB-095F-4978-93AB-D13A34862560}"/>
-    <hyperlink ref="J488" r:id="rId2143" xr:uid="{2B05B3A8-8E2A-46A1-8489-E79CB02E0DF4}"/>
-    <hyperlink ref="F489" r:id="rId2144" xr:uid="{D9C36AD9-8FE3-4C70-98CA-FE0AA30D0300}"/>
-    <hyperlink ref="G489" r:id="rId2145" xr:uid="{76A50466-6081-4401-858B-1E6EFC147FD6}"/>
-    <hyperlink ref="H489" r:id="rId2146" xr:uid="{F196B795-A268-4564-BEBF-DD39A6C7EB5E}"/>
-    <hyperlink ref="I489" r:id="rId2147" xr:uid="{247370E1-2CBD-4E8F-A4C1-521FAD02070F}"/>
-    <hyperlink ref="J489" r:id="rId2148" xr:uid="{21785800-34F4-4C6A-B581-493C6FAF98D4}"/>
-    <hyperlink ref="F490" r:id="rId2149" xr:uid="{47754D08-1CBB-4BD4-9FA7-9290B0668462}"/>
-    <hyperlink ref="G490" r:id="rId2150" xr:uid="{36A89A03-4828-4953-A1C5-3A34AC8CD8FC}"/>
-    <hyperlink ref="H490" r:id="rId2151" xr:uid="{C031E0F5-E8AA-496C-8648-8BBDE2585661}"/>
-    <hyperlink ref="I490" r:id="rId2152" xr:uid="{0A94EADD-B0C9-42B4-92C0-683EF109E281}"/>
-    <hyperlink ref="J490" r:id="rId2153" xr:uid="{55BE9EB3-4A5E-4F9F-866B-4A2C5B64AFEA}"/>
-    <hyperlink ref="F491" r:id="rId2154" xr:uid="{9F0BAF9A-3D28-4DF3-90E7-1B22F6B77C3A}"/>
-    <hyperlink ref="G491" r:id="rId2155" xr:uid="{80028FA5-A101-416F-84EA-8843B7A3A9C5}"/>
-    <hyperlink ref="H491" r:id="rId2156" xr:uid="{7D6F7954-A400-49FF-A879-C106DFC053C3}"/>
-    <hyperlink ref="I491" r:id="rId2157" xr:uid="{402996D2-A97F-4BE5-A9AD-052E57B18D7E}"/>
-    <hyperlink ref="J491" r:id="rId2158" xr:uid="{9ECB667C-4A50-416E-BD50-A51106749E8E}"/>
-    <hyperlink ref="F492" r:id="rId2159" xr:uid="{CECD8A92-1ED7-41B0-8F3B-BF1A671B8D2B}"/>
-    <hyperlink ref="G492" r:id="rId2160" xr:uid="{AC435519-B0FB-45B1-820C-539BDCB84859}"/>
-    <hyperlink ref="H492" r:id="rId2161" xr:uid="{A66D5B06-584C-4589-A041-52DF34ACD606}"/>
-    <hyperlink ref="I492" r:id="rId2162" xr:uid="{7A70B277-08E4-48D8-97B8-277FD9E2535C}"/>
-    <hyperlink ref="J492" r:id="rId2163" xr:uid="{5082FFE7-AE26-4C15-8316-C6E9DD851BCE}"/>
-    <hyperlink ref="F493" r:id="rId2164" xr:uid="{EE691F27-C408-4075-A1CE-79690AE70FE8}"/>
-    <hyperlink ref="G493" r:id="rId2165" xr:uid="{6114E52D-CAF2-4A64-8213-89AADB1DFA80}"/>
-    <hyperlink ref="H493" r:id="rId2166" xr:uid="{89969A62-A1FA-447D-B0CE-57560AE54B15}"/>
-    <hyperlink ref="I493" r:id="rId2167" xr:uid="{BE80A0E9-6D16-4631-85F0-DB689C945ED1}"/>
-    <hyperlink ref="J493" r:id="rId2168" xr:uid="{2CC509EA-0322-4B71-85DB-300504CBA347}"/>
-    <hyperlink ref="F494" r:id="rId2169" xr:uid="{B8046201-5B33-4375-B459-F5BB4F29664D}"/>
-    <hyperlink ref="G494" r:id="rId2170" xr:uid="{680FF448-BCA0-4A78-B78E-7CE5169F13E4}"/>
-    <hyperlink ref="H494" r:id="rId2171" xr:uid="{4A2AF3EA-3A63-4A6D-BA99-0892F095C426}"/>
-    <hyperlink ref="I494" r:id="rId2172" xr:uid="{431ABCFF-9A63-4E9A-9D85-EAFF1278226C}"/>
-    <hyperlink ref="J494" r:id="rId2173" xr:uid="{AEC15676-08D3-4701-A1FF-285CF46D2D91}"/>
-    <hyperlink ref="F495" r:id="rId2174" xr:uid="{D0F4F21F-F451-4539-8653-26FE0A38FCB6}"/>
-    <hyperlink ref="G495" r:id="rId2175" xr:uid="{B4B87F5D-4522-4406-95D1-700E4FAA3DBF}"/>
-    <hyperlink ref="H495" r:id="rId2176" xr:uid="{060DCE52-E779-4C54-A65E-4552E6EA3D4F}"/>
-    <hyperlink ref="I495" r:id="rId2177" xr:uid="{A535055E-5331-4F94-8E41-D47515FC37C8}"/>
-    <hyperlink ref="J495" r:id="rId2178" xr:uid="{1F310C56-19A0-4576-A2E8-3C098A229CC3}"/>
-    <hyperlink ref="F496" r:id="rId2179" xr:uid="{19813A48-B2B3-43F7-9461-C554090E6D2C}"/>
-    <hyperlink ref="G496" r:id="rId2180" xr:uid="{6E87F07F-ACD5-4451-8E64-61CDC52679C3}"/>
-    <hyperlink ref="H496" r:id="rId2181" xr:uid="{C04B78FF-7206-4977-ABDB-31B113B10B2C}"/>
-    <hyperlink ref="I496" r:id="rId2182" xr:uid="{CD555452-424E-412E-B792-3B72C1B890AE}"/>
-    <hyperlink ref="J496" r:id="rId2183" xr:uid="{B373E801-BEB2-4A6E-AEAF-25C3822EAED2}"/>
-    <hyperlink ref="F497" r:id="rId2184" xr:uid="{54A9848A-4706-493A-9A20-2D3FBE9CD1AE}"/>
-    <hyperlink ref="G497" r:id="rId2185" xr:uid="{7411E4B4-869D-482A-90B3-92B8DC84F561}"/>
-    <hyperlink ref="H497" r:id="rId2186" xr:uid="{2A7E4B21-AA9E-4623-B73E-7D807115BA58}"/>
-    <hyperlink ref="I497" r:id="rId2187" xr:uid="{C782674F-3FD1-4C05-9041-CBE8B33C25E4}"/>
-    <hyperlink ref="J497" r:id="rId2188" xr:uid="{F69F3A3D-A726-4769-84EF-EB491DEB6DED}"/>
-    <hyperlink ref="F498" r:id="rId2189" xr:uid="{5F9F6D76-5C11-4720-8559-2DF494059857}"/>
-    <hyperlink ref="G498" r:id="rId2190" xr:uid="{5C17E6BD-4F1D-45DC-8D95-787BDF8B62CB}"/>
-    <hyperlink ref="H498" r:id="rId2191" xr:uid="{BEC46A48-1395-4887-8F47-56DB25608989}"/>
-    <hyperlink ref="I498" r:id="rId2192" xr:uid="{1027C0A3-84DB-4FAC-983E-A57EC781375C}"/>
-    <hyperlink ref="J498" r:id="rId2193" xr:uid="{DC847171-DC24-43B1-9BDD-09FBECBF87B3}"/>
-    <hyperlink ref="F499" r:id="rId2194" xr:uid="{4DB55BFD-4F5A-4B92-BC84-C657FD9F21D7}"/>
-    <hyperlink ref="G499" r:id="rId2195" xr:uid="{3FF0E77B-557B-4A52-89BB-3884FB17E1B3}"/>
-    <hyperlink ref="H499" r:id="rId2196" xr:uid="{742949CC-482C-4BC7-8750-5D513682023B}"/>
-    <hyperlink ref="I499" r:id="rId2197" xr:uid="{6F1EF778-9A3F-41D9-9CEA-91DBC474F6EB}"/>
-    <hyperlink ref="J499" r:id="rId2198" xr:uid="{7CAB1B62-E344-4E1E-B283-85A5DE8FFC61}"/>
-    <hyperlink ref="F500" r:id="rId2199" xr:uid="{BA743178-4C29-4135-A288-1297D96BA2BC}"/>
-    <hyperlink ref="G500" r:id="rId2200" xr:uid="{A4E66175-B41C-43E0-A341-BE02D8CBE716}"/>
-    <hyperlink ref="H500" r:id="rId2201" xr:uid="{55C07046-7426-4A8A-AF35-E380100E6D4B}"/>
-    <hyperlink ref="I500" r:id="rId2202" xr:uid="{7635C255-EF6E-40AC-8263-950E460FFB8A}"/>
-    <hyperlink ref="J500" r:id="rId2203" xr:uid="{BF1BA75D-D73D-4047-BC18-79FB5D58073C}"/>
-    <hyperlink ref="F501" r:id="rId2204" xr:uid="{A787E6D9-4547-484E-9C9E-A12739FA1FBF}"/>
-    <hyperlink ref="G501" r:id="rId2205" xr:uid="{6E9BC54B-0148-4BEB-8F5B-90C555B999D6}"/>
-    <hyperlink ref="H501" r:id="rId2206" xr:uid="{9385033E-8DCA-4B01-939D-07DB8563F1BE}"/>
-    <hyperlink ref="I501" r:id="rId2207" xr:uid="{42A84F2A-78E7-4522-9D88-F19A656C699A}"/>
-    <hyperlink ref="J501" r:id="rId2208" xr:uid="{82BA63A0-3643-4296-B4D2-AAA4BDA04C47}"/>
-    <hyperlink ref="F502" r:id="rId2209" xr:uid="{46B10201-F292-44A6-B650-B7157CAFA67D}"/>
-    <hyperlink ref="G502" r:id="rId2210" xr:uid="{C62CC2DC-B6E6-47E5-8E3B-219BA3415C6A}"/>
-    <hyperlink ref="H502" r:id="rId2211" xr:uid="{72BDAEA7-8DB8-4AD8-A9A6-33B6D8663E41}"/>
-    <hyperlink ref="I502" r:id="rId2212" xr:uid="{5DF4C117-456C-4C9D-847E-080FE330EF41}"/>
-    <hyperlink ref="J502" r:id="rId2213" xr:uid="{59FDEED9-91B1-42C7-ABB1-B094EE470CDE}"/>
-    <hyperlink ref="F503" r:id="rId2214" xr:uid="{6593C04B-2BBC-4264-AC53-C15EE7E9E409}"/>
-    <hyperlink ref="G503" r:id="rId2215" xr:uid="{7B0156DF-2AE2-454D-BFF6-71E2ADDC9F69}"/>
-    <hyperlink ref="H503" r:id="rId2216" xr:uid="{80D56BD1-DA10-48C9-83D8-D3BDD1783B9C}"/>
-    <hyperlink ref="I503" r:id="rId2217" xr:uid="{56C4575C-784E-4AA2-ACC1-F88D44162CB4}"/>
-    <hyperlink ref="J503" r:id="rId2218" xr:uid="{C33BD1D6-C250-4540-A138-35F7B25A8219}"/>
-    <hyperlink ref="F504" r:id="rId2219" xr:uid="{D68C24CD-B442-4026-9D74-9E42FE6861BA}"/>
-    <hyperlink ref="G504" r:id="rId2220" xr:uid="{0C301756-41AA-4B87-8490-45F5E957A30D}"/>
-    <hyperlink ref="H504" r:id="rId2221" xr:uid="{5A6DA67C-7369-412C-99A4-98E35F0BB942}"/>
-    <hyperlink ref="I504" r:id="rId2222" xr:uid="{7E7D92FB-CF2C-4ABE-96FE-EA4B1F19D1AF}"/>
-    <hyperlink ref="J504" r:id="rId2223" xr:uid="{1B5EA030-178D-4459-B910-7401D4259764}"/>
-    <hyperlink ref="F505" r:id="rId2224" xr:uid="{D44B1741-E220-49B8-BC56-9D762960C836}"/>
-    <hyperlink ref="G505" r:id="rId2225" xr:uid="{58958DE5-2B8F-4130-8C45-8F3B4BA0660C}"/>
-    <hyperlink ref="H505" r:id="rId2226" xr:uid="{CA5A9025-40C8-44CD-BCCB-31F01DA37037}"/>
-    <hyperlink ref="I505" r:id="rId2227" xr:uid="{B2B4F19F-44A1-408B-AA4D-A75880043173}"/>
-    <hyperlink ref="J505" r:id="rId2228" xr:uid="{5127390F-E687-4B56-90A6-EC260194072E}"/>
-    <hyperlink ref="F506" r:id="rId2229" xr:uid="{8C28C316-B716-4130-94C1-CFA712F5145D}"/>
-    <hyperlink ref="G506" r:id="rId2230" xr:uid="{24CFA43E-098F-4263-A0FE-EE4076D4D7BB}"/>
-    <hyperlink ref="H506" r:id="rId2231" xr:uid="{D9E7FCD5-C605-42D8-BB0D-E3823EB3377F}"/>
-    <hyperlink ref="I506" r:id="rId2232" xr:uid="{7BBA6F6A-8295-45AE-8A25-7890F48B5ADB}"/>
-    <hyperlink ref="J506" r:id="rId2233" xr:uid="{E7F837EB-67B2-46C6-8E77-7AFC745EC9F1}"/>
-    <hyperlink ref="F507" r:id="rId2234" xr:uid="{7B0D4001-1E3C-49E3-A962-0D3113A5ED36}"/>
-    <hyperlink ref="G507" r:id="rId2235" xr:uid="{2EE4EEE1-8283-4CDE-AD94-0FF9B499B087}"/>
-    <hyperlink ref="H507" r:id="rId2236" xr:uid="{06438CB7-B396-49B6-B483-A7F85F9E30F2}"/>
-    <hyperlink ref="I507" r:id="rId2237" xr:uid="{DF46025D-617B-4184-95C0-7B7289A3DAE2}"/>
-    <hyperlink ref="J507" r:id="rId2238" xr:uid="{F860F3BE-F7ED-4062-AB7F-C43C1F840706}"/>
-    <hyperlink ref="F508" r:id="rId2239" xr:uid="{971BC51F-0825-4502-95D7-73CA83242B09}"/>
-    <hyperlink ref="G508" r:id="rId2240" xr:uid="{9BF0D08A-C8F7-4F4C-B2F1-22405A9298A0}"/>
-    <hyperlink ref="H508" r:id="rId2241" xr:uid="{FFAA59CC-A224-40A0-86D4-E085F0BC92EE}"/>
-    <hyperlink ref="I508" r:id="rId2242" xr:uid="{3DC2A207-F023-4387-80F9-4F41E84567C4}"/>
-    <hyperlink ref="J508" r:id="rId2243" xr:uid="{D5F60A74-1209-4DC5-A8EE-C2ED5305F85F}"/>
-    <hyperlink ref="F509" r:id="rId2244" xr:uid="{FE6710B6-F709-45CD-BC5A-3FABC8920EBC}"/>
-    <hyperlink ref="G509" r:id="rId2245" xr:uid="{E5B00D78-8BD1-4341-978B-124C54E17E4B}"/>
-    <hyperlink ref="H509" r:id="rId2246" xr:uid="{3B43326E-D341-44DC-AD34-37F690485C58}"/>
-    <hyperlink ref="I509" r:id="rId2247" xr:uid="{B9600840-07C9-4384-82CE-B6BF84D7EECE}"/>
-    <hyperlink ref="J509" r:id="rId2248" xr:uid="{7EA196EC-8321-4854-A365-31AD2BA4442A}"/>
-    <hyperlink ref="F510" r:id="rId2249" xr:uid="{C7FC248F-7BE6-464F-9332-B6880A219C47}"/>
-    <hyperlink ref="G510" r:id="rId2250" xr:uid="{D03BC083-4DEC-4ECC-8FB7-142BF9B87693}"/>
-    <hyperlink ref="H510" r:id="rId2251" xr:uid="{4A98CEC3-D0E8-4131-9ECF-CAE40F137117}"/>
-    <hyperlink ref="I510" r:id="rId2252" xr:uid="{17571A54-07B7-45B2-94A0-3E1F4E0FC418}"/>
-    <hyperlink ref="J510" r:id="rId2253" xr:uid="{54FBE02C-72BD-42C8-A763-1731AFAD2366}"/>
-    <hyperlink ref="F511" r:id="rId2254" xr:uid="{2BE6E8E6-8DCC-4E94-A7AB-FAF9DCBC1E6F}"/>
-    <hyperlink ref="G511" r:id="rId2255" xr:uid="{9C9C68A5-42B1-4B3A-85C0-B13F8295E07E}"/>
-    <hyperlink ref="H511" r:id="rId2256" xr:uid="{5764B176-9BF2-4F8C-824A-C371E1BB610F}"/>
-    <hyperlink ref="I511" r:id="rId2257" xr:uid="{0593B7F3-1B2E-414D-AFCE-CCA4F1F5664E}"/>
-    <hyperlink ref="J511" r:id="rId2258" xr:uid="{2650EDAD-3635-4D8D-8FD7-90653CAE1D12}"/>
-    <hyperlink ref="F512" r:id="rId2259" xr:uid="{601A9B14-34EE-4292-ACCD-2AE5FEB8C604}"/>
-    <hyperlink ref="G512" r:id="rId2260" xr:uid="{5FE84084-E1D4-459C-9FE2-72F1CB8380C2}"/>
-    <hyperlink ref="H512" r:id="rId2261" xr:uid="{F4986AB3-9756-46BA-809F-9DFD803F4582}"/>
-    <hyperlink ref="I512" r:id="rId2262" xr:uid="{1EDE2765-1E53-47CE-9A18-747F2FE1224B}"/>
-    <hyperlink ref="J512" r:id="rId2263" xr:uid="{FD7C974E-7204-4B55-9DB8-C4205BF6D250}"/>
-    <hyperlink ref="F513" r:id="rId2264" xr:uid="{92B23051-C48A-4C20-BD5E-B6BC8C3F91A5}"/>
-    <hyperlink ref="G513" r:id="rId2265" xr:uid="{3397663C-CA74-4A64-832A-88AE535C14AA}"/>
-    <hyperlink ref="H513" r:id="rId2266" xr:uid="{0BECBBF8-B691-4196-B677-CD64E7CEB909}"/>
-    <hyperlink ref="I513" r:id="rId2267" xr:uid="{21B20541-5A6A-4820-B957-8856E0744781}"/>
-    <hyperlink ref="J513" r:id="rId2268" xr:uid="{04129760-8E20-4DE0-9056-EDEC2DAD7C5A}"/>
-    <hyperlink ref="F514" r:id="rId2269" xr:uid="{E42693B1-BE0F-4656-8A7C-C26C0FAC60F6}"/>
-    <hyperlink ref="G514" r:id="rId2270" xr:uid="{16F042E5-688F-42D9-80E2-0672C30A4F49}"/>
-    <hyperlink ref="H514" r:id="rId2271" xr:uid="{5D872479-4823-49B8-AE1F-D9C698DCE76E}"/>
-    <hyperlink ref="I514" r:id="rId2272" xr:uid="{98CBB0F7-A1E8-4DDD-8291-8771C97A3489}"/>
-    <hyperlink ref="J514" r:id="rId2273" xr:uid="{1FAEFEC6-9B74-4D96-8109-64E902F7E9E4}"/>
-    <hyperlink ref="F515" r:id="rId2274" xr:uid="{F1E3EDA6-5D01-435C-9369-1EAF4DDA4C6C}"/>
-    <hyperlink ref="G515" r:id="rId2275" xr:uid="{2A185FBD-F977-4DD3-AA47-45E9D601D417}"/>
-    <hyperlink ref="H515" r:id="rId2276" xr:uid="{D69CEDD1-4E1D-403B-B6D8-47926F68992F}"/>
-    <hyperlink ref="I515" r:id="rId2277" xr:uid="{01630D87-BE1E-4C66-AE08-8EAB6EC18D65}"/>
-    <hyperlink ref="J515" r:id="rId2278" xr:uid="{30882BE5-DE36-414D-AE3C-07752F2A9189}"/>
-    <hyperlink ref="F516" r:id="rId2279" xr:uid="{EDD9878C-A9C6-47D6-BFEB-2B9ADAF84A62}"/>
-    <hyperlink ref="G516" r:id="rId2280" xr:uid="{21FA7257-F588-450F-A29E-AA862213172E}"/>
-    <hyperlink ref="H516" r:id="rId2281" xr:uid="{A8286C1F-427B-4A45-94C6-1E8AA31C2230}"/>
-    <hyperlink ref="I516" r:id="rId2282" xr:uid="{F7292AEB-14DD-4255-9B4E-6314CD5BF922}"/>
-    <hyperlink ref="J516" r:id="rId2283" xr:uid="{C5510C50-E5CE-4DB5-9D1C-B5F733958F73}"/>
-    <hyperlink ref="F517" r:id="rId2284" xr:uid="{A83D2F5D-4F54-43D5-B5DD-A4F5110A4868}"/>
-    <hyperlink ref="G517" r:id="rId2285" xr:uid="{DD10B52D-AC5A-41A9-8E29-9483712242B8}"/>
-    <hyperlink ref="H517" r:id="rId2286" xr:uid="{4ED89866-C0E8-4782-A2C9-09DC5B44D035}"/>
-    <hyperlink ref="I517" r:id="rId2287" xr:uid="{E1C1AEC0-D66E-4B1E-A236-5484E2C7502C}"/>
-    <hyperlink ref="J517" r:id="rId2288" xr:uid="{8FA0D81C-A435-4795-84D5-ECF592CA6EFC}"/>
-    <hyperlink ref="F518" r:id="rId2289" xr:uid="{9378D577-B645-4A1C-92C5-6D989578625A}"/>
-    <hyperlink ref="G518" r:id="rId2290" xr:uid="{249DF92D-0FFD-412C-903B-13F69E1706A1}"/>
-    <hyperlink ref="H518" r:id="rId2291" xr:uid="{39C9E62F-63D0-4C5A-9B95-A25224AB1987}"/>
-    <hyperlink ref="I518" r:id="rId2292" xr:uid="{161C5817-2735-4445-8121-0CDB855704A3}"/>
-    <hyperlink ref="J518" r:id="rId2293" xr:uid="{9E51F0EE-DD7F-4E30-80F6-A59F1E79D8E3}"/>
-    <hyperlink ref="F519" r:id="rId2294" xr:uid="{5B8D9A7F-BC4F-4C91-9B85-6FFFEF988314}"/>
-    <hyperlink ref="G519" r:id="rId2295" xr:uid="{6ED0A6D2-31CA-4687-A5C1-9D464C30E4ED}"/>
-    <hyperlink ref="H519" r:id="rId2296" xr:uid="{C30FD15D-BB4B-4A25-98EC-39294E5CAF83}"/>
-    <hyperlink ref="I519" r:id="rId2297" xr:uid="{144FD0B5-577C-433E-9B33-CBDE2E319370}"/>
-    <hyperlink ref="J519" r:id="rId2298" xr:uid="{647FBAEB-EFF4-4426-86D0-2E15A465111A}"/>
-    <hyperlink ref="F520" r:id="rId2299" xr:uid="{C2355E07-7657-425C-ACBE-9D15E6AFB405}"/>
-    <hyperlink ref="G520" r:id="rId2300" xr:uid="{923249AC-2992-46B2-B7D4-5B0AE8E59E4E}"/>
-    <hyperlink ref="H520" r:id="rId2301" xr:uid="{9EFF10C3-05EB-418D-B511-BED2DB8E04EE}"/>
-    <hyperlink ref="I520" r:id="rId2302" xr:uid="{0B8B4534-4E79-44A8-A71E-7DB5A2C2566B}"/>
-    <hyperlink ref="J520" r:id="rId2303" xr:uid="{CD7EDF98-550F-46DF-BF3D-A9682BD06EDB}"/>
-    <hyperlink ref="F521" r:id="rId2304" xr:uid="{D819D4B6-6425-48B4-9DBF-7751C49E563E}"/>
-    <hyperlink ref="G521" r:id="rId2305" xr:uid="{4665DFA2-92DF-441B-8F96-6E8662A66DF5}"/>
-    <hyperlink ref="H521" r:id="rId2306" xr:uid="{F521F95A-A5AF-4237-B2D2-347C6A93F0CB}"/>
-    <hyperlink ref="I521" r:id="rId2307" xr:uid="{F9A1D07F-98F8-482D-9385-4022C7CC633F}"/>
-    <hyperlink ref="J521" r:id="rId2308" xr:uid="{D35B334C-1F88-4526-93D3-7F1BA7FDDB65}"/>
-    <hyperlink ref="F522" r:id="rId2309" xr:uid="{51F46955-DFB4-4F4E-BB29-551C694637A1}"/>
-    <hyperlink ref="G522" r:id="rId2310" xr:uid="{7337AB75-E640-4491-B437-E2D7A164124C}"/>
-    <hyperlink ref="H522" r:id="rId2311" xr:uid="{7C303CF4-8A17-4BE5-849B-C25DD32A4A29}"/>
-    <hyperlink ref="I522" r:id="rId2312" xr:uid="{3DCDEFD4-8216-48D3-99BC-52615B638D9B}"/>
-    <hyperlink ref="J522" r:id="rId2313" xr:uid="{725A6FD8-B571-45B7-BA43-78A97238B731}"/>
-    <hyperlink ref="F523" r:id="rId2314" xr:uid="{15F16334-5DE0-4B89-9474-D3C155F3AD1C}"/>
-    <hyperlink ref="G523" r:id="rId2315" xr:uid="{9EC5A6D0-562C-4A53-A3B3-ACE74093009D}"/>
-    <hyperlink ref="H523" r:id="rId2316" xr:uid="{FCF2E3F8-70F9-428B-BACA-ABD80A36B8AB}"/>
-    <hyperlink ref="I523" r:id="rId2317" xr:uid="{399C9DEA-7FAA-4F24-88B0-63BFAA374380}"/>
-    <hyperlink ref="J523" r:id="rId2318" xr:uid="{3D1BFC2E-C0FD-4158-A09D-839A07ABF2EF}"/>
-    <hyperlink ref="F524" r:id="rId2319" xr:uid="{AE6D0D41-6AF2-4314-BE7E-AE2072C39DEE}"/>
-    <hyperlink ref="G524" r:id="rId2320" xr:uid="{2C6741DF-E16D-469C-84AA-EC7A7AEA97D9}"/>
-    <hyperlink ref="H524" r:id="rId2321" xr:uid="{D996FB09-F197-4551-B74E-D3AFA22A3D7C}"/>
-    <hyperlink ref="I524" r:id="rId2322" xr:uid="{AC7C2E38-EC69-40F9-9340-BAD453D7EF43}"/>
-    <hyperlink ref="J524" r:id="rId2323" xr:uid="{1D5D623E-8300-45E7-BD37-98A6C32D6081}"/>
-    <hyperlink ref="F525" r:id="rId2324" xr:uid="{47F2886A-EEDE-43E1-987F-02952C31F89C}"/>
-    <hyperlink ref="G525" r:id="rId2325" xr:uid="{A328A87E-96DA-45AB-889B-EEB447586684}"/>
-    <hyperlink ref="H525" r:id="rId2326" xr:uid="{2A3E27DA-7B0F-4E7D-BF44-775741246263}"/>
-    <hyperlink ref="I525" r:id="rId2327" xr:uid="{CF898369-4035-46F6-AACF-36C477DEDD39}"/>
-    <hyperlink ref="J525" r:id="rId2328" xr:uid="{F58F87C2-2043-4D25-BF93-2641FD8BC24C}"/>
-    <hyperlink ref="F526" r:id="rId2329" xr:uid="{3E2CA78D-F30D-4BBB-9A4F-3B8251B1BE5E}"/>
-    <hyperlink ref="G526" r:id="rId2330" xr:uid="{95302D28-6DB9-44B9-A850-8504A5A776C7}"/>
-    <hyperlink ref="H526" r:id="rId2331" xr:uid="{08F11F8C-5F59-4CF6-B45C-2D0C377658C7}"/>
-    <hyperlink ref="I526" r:id="rId2332" xr:uid="{31537154-6684-47F3-8E49-8164066494D7}"/>
-    <hyperlink ref="J526" r:id="rId2333" xr:uid="{7141FB44-B3A7-4A0E-82B7-9EA630986B71}"/>
-    <hyperlink ref="F527" r:id="rId2334" xr:uid="{6D1C4404-BD2A-424A-A6DB-CAC76CE9F07E}"/>
-    <hyperlink ref="G527" r:id="rId2335" xr:uid="{A1760354-0C6F-4030-A202-58BD2559B745}"/>
-    <hyperlink ref="H527" r:id="rId2336" xr:uid="{A4B7E84A-DDA1-43A7-B5B4-C8E3B05E56F5}"/>
-    <hyperlink ref="I527" r:id="rId2337" xr:uid="{72168D11-AB35-4EE2-BA02-DAF4DB618964}"/>
-    <hyperlink ref="F528" r:id="rId2338" xr:uid="{0B282F1B-1476-4C40-9750-DBBBE1293C88}"/>
-    <hyperlink ref="G528" r:id="rId2339" xr:uid="{7FFEE950-B4D6-4BC5-A898-D44F45B36A2A}"/>
-    <hyperlink ref="H528" r:id="rId2340" xr:uid="{080B4F96-2D51-4CC1-B936-9E08997F05D8}"/>
-    <hyperlink ref="I528" r:id="rId2341" xr:uid="{9E73E1EE-D8BA-4A8B-81DE-45027731F396}"/>
-    <hyperlink ref="J528" r:id="rId2342" xr:uid="{A1F8E45C-22EA-4591-9392-ECFEF9287897}"/>
-    <hyperlink ref="F529" r:id="rId2343" xr:uid="{C12A07F3-8750-423B-99DA-0F9104118049}"/>
-    <hyperlink ref="G529" r:id="rId2344" xr:uid="{7683C06A-2CD0-4A47-874A-9E725ED14E52}"/>
-    <hyperlink ref="H529" r:id="rId2345" xr:uid="{FE2EF04C-C30F-45F4-8989-083C75C554CC}"/>
-    <hyperlink ref="I529" r:id="rId2346" xr:uid="{01C9CBA3-D7E5-4D73-B01C-8EFBCF16029E}"/>
-    <hyperlink ref="J529" r:id="rId2347" xr:uid="{F37D6522-932B-4C48-A745-E41B9085F398}"/>
-    <hyperlink ref="F530" r:id="rId2348" xr:uid="{53B63128-EF47-4D15-895E-DAB17303D3B5}"/>
-    <hyperlink ref="G530" r:id="rId2349" xr:uid="{7FAF8F7C-6A6B-4EBA-BD7E-5F9D6CD598D8}"/>
-    <hyperlink ref="H530" r:id="rId2350" xr:uid="{BBFA89DD-626B-417F-9987-6C946EAAE270}"/>
-    <hyperlink ref="I530" r:id="rId2351" xr:uid="{AAD41F1C-5435-4492-A45D-67A6C59FCE4D}"/>
-    <hyperlink ref="J530" r:id="rId2352" xr:uid="{28E9577C-EB49-45AA-B12F-3F260D4BAC4B}"/>
-    <hyperlink ref="F531" r:id="rId2353" xr:uid="{D2D436DF-35C0-4AC0-A373-C7D72A10A441}"/>
-    <hyperlink ref="G531" r:id="rId2354" xr:uid="{76CE82D0-FFFA-4DC9-8B1E-2DA95705BD31}"/>
-    <hyperlink ref="H531" r:id="rId2355" xr:uid="{2F754148-C8AA-4630-A7C7-8594AD325832}"/>
-    <hyperlink ref="I531" r:id="rId2356" xr:uid="{E4BF9B9B-1C57-4C0F-9E48-0AA6ED1D9754}"/>
-    <hyperlink ref="J531" r:id="rId2357" xr:uid="{0546E715-FD42-4FFE-A317-FAC83C75B24D}"/>
-    <hyperlink ref="F532" r:id="rId2358" xr:uid="{C119650F-B683-4EEF-886C-DDCE993981A7}"/>
-    <hyperlink ref="G532" r:id="rId2359" xr:uid="{E0BC5C87-02D1-438F-9B7C-D1DA5E3A3423}"/>
-    <hyperlink ref="H532" r:id="rId2360" xr:uid="{AC963072-CD4A-4656-A9EC-53552825F7A2}"/>
-    <hyperlink ref="I532" r:id="rId2361" xr:uid="{A0829A88-6ADF-422A-877B-0DA244E246DB}"/>
-    <hyperlink ref="J532" r:id="rId2362" xr:uid="{AF3EC516-B883-437A-A27D-589F3122C650}"/>
-    <hyperlink ref="F533" r:id="rId2363" xr:uid="{4EBAD27F-24EB-4947-BAC6-443565864930}"/>
-    <hyperlink ref="G533" r:id="rId2364" xr:uid="{B9D779F3-EF57-4F49-9813-5E98BE5B6A5B}"/>
-    <hyperlink ref="H533" r:id="rId2365" xr:uid="{1EEDD3B8-3598-4E3C-919C-E2064B30BFF2}"/>
-    <hyperlink ref="I533" r:id="rId2366" xr:uid="{D3CA925A-3142-4B81-9A03-4F82C9636151}"/>
-    <hyperlink ref="J533" r:id="rId2367" xr:uid="{58524C02-9F8A-4976-9D66-34085DC8C4D4}"/>
-    <hyperlink ref="F534" r:id="rId2368" xr:uid="{9323198D-C94E-4943-8AE9-D85FAAEE5863}"/>
-    <hyperlink ref="G534" r:id="rId2369" xr:uid="{F3E4EF69-829A-4E48-82AC-62B518440858}"/>
-    <hyperlink ref="H534" r:id="rId2370" xr:uid="{90C7C9FB-B9B8-4D73-977C-BCB2DEB563D5}"/>
-    <hyperlink ref="I534" r:id="rId2371" xr:uid="{6EE47BFD-939E-44D2-96D7-BBA8A174C520}"/>
-    <hyperlink ref="J534" r:id="rId2372" xr:uid="{FD416CA8-14B9-4AF3-B222-5D64E75EB62E}"/>
-    <hyperlink ref="F535" r:id="rId2373" xr:uid="{434553A2-7D97-4EDF-BAAB-DD83AC27038D}"/>
-    <hyperlink ref="G535" r:id="rId2374" xr:uid="{F9866DAD-6714-46CB-AF72-92EDB3845B6A}"/>
-    <hyperlink ref="H535" r:id="rId2375" xr:uid="{C74C04DB-EBA8-4DF7-BEDB-A4476E954362}"/>
-    <hyperlink ref="I535" r:id="rId2376" xr:uid="{5DD99B4F-EF6E-4A2E-949B-479FDF5B387F}"/>
-    <hyperlink ref="J535" r:id="rId2377" xr:uid="{722FD566-7772-4BEB-AB6E-7D478DAD629F}"/>
-    <hyperlink ref="F536" r:id="rId2378" xr:uid="{AEB2373A-16E9-4D67-8DEB-72F3131E002D}"/>
-    <hyperlink ref="G536" r:id="rId2379" xr:uid="{F94D1E40-954C-49FC-BF74-70C3EEF2EAB1}"/>
-    <hyperlink ref="H536" r:id="rId2380" xr:uid="{74D3FCC5-6F41-4DC0-9458-5ED254B981A5}"/>
-    <hyperlink ref="I536" r:id="rId2381" xr:uid="{0A5B441E-8521-4BD7-9C1E-2BCAAF75A123}"/>
-    <hyperlink ref="J536" r:id="rId2382" xr:uid="{395DD8AB-DDE6-42F3-90B1-6458289C8843}"/>
-    <hyperlink ref="F537" r:id="rId2383" xr:uid="{C37FA738-2ECD-495C-8E75-129904CAF34F}"/>
-    <hyperlink ref="G537" r:id="rId2384" xr:uid="{669E8A12-948C-4070-AA6B-7C462A5AD82E}"/>
-    <hyperlink ref="H537" r:id="rId2385" xr:uid="{2D534C0B-BE6F-40E0-A886-13A78C782E69}"/>
-    <hyperlink ref="I537" r:id="rId2386" xr:uid="{2DF8CFFE-F0C1-4BC1-A00C-2D56E22453C3}"/>
-    <hyperlink ref="J537" r:id="rId2387" xr:uid="{C01B1273-E37C-460B-8658-8B5CEB995F5B}"/>
-    <hyperlink ref="F538" r:id="rId2388" xr:uid="{C9A1CB54-BB8E-45E4-BE7B-C024DF35C561}"/>
-    <hyperlink ref="G538" r:id="rId2389" xr:uid="{55967FFA-1FAE-47C9-874B-6FE7F19B6897}"/>
-    <hyperlink ref="H538" r:id="rId2390" xr:uid="{04E74B89-E0A4-4B01-A82E-ED272DDD8D08}"/>
-    <hyperlink ref="I538" r:id="rId2391" xr:uid="{3B056DB2-AB76-4745-ACC8-0A62DD103893}"/>
-    <hyperlink ref="J538" r:id="rId2392" xr:uid="{D909E543-1B3F-4C46-B381-74A22964F3DE}"/>
-    <hyperlink ref="F539" r:id="rId2393" xr:uid="{0A8BCD54-B75A-4EF6-8C60-F729F79AA58C}"/>
-    <hyperlink ref="G539" r:id="rId2394" xr:uid="{A8B1C9A4-2CE4-4FE7-B4B9-271B10580160}"/>
-    <hyperlink ref="H539" r:id="rId2395" xr:uid="{7484240D-3179-4D7B-AAC8-077F3D948C9D}"/>
-    <hyperlink ref="I539" r:id="rId2396" xr:uid="{776D7933-45CA-4988-A2B4-E3E6F32A58FE}"/>
-    <hyperlink ref="J539" r:id="rId2397" xr:uid="{E030C336-C24D-4DBA-A052-0AC3053E3C36}"/>
-    <hyperlink ref="F540" r:id="rId2398" xr:uid="{3C1B7D43-DB4A-4952-822A-AC49A012BE29}"/>
-    <hyperlink ref="G540" r:id="rId2399" xr:uid="{B337B90F-0E40-4040-AF39-A8050213751B}"/>
-    <hyperlink ref="H540" r:id="rId2400" xr:uid="{38BD2BED-361C-483D-9613-BBBD5D3C73BE}"/>
-    <hyperlink ref="I540" r:id="rId2401" xr:uid="{D7C1390B-36C7-426E-8ECE-482CBC038AD4}"/>
-    <hyperlink ref="J540" r:id="rId2402" xr:uid="{94D51E7D-710A-482A-92AE-5DCC83BD92C2}"/>
-    <hyperlink ref="F541" r:id="rId2403" xr:uid="{CCBD41DC-384C-4D9A-8160-2D9097A11B00}"/>
-    <hyperlink ref="G541" r:id="rId2404" xr:uid="{8EE3470F-256A-4808-86DE-D9C42D21CBA7}"/>
-    <hyperlink ref="H541" r:id="rId2405" xr:uid="{A98C5E4F-B9DC-4454-9F00-73E3976EE637}"/>
-    <hyperlink ref="I541" r:id="rId2406" xr:uid="{4A6CBE79-F902-4A4C-909F-933EC6B18C91}"/>
-    <hyperlink ref="J541" r:id="rId2407" xr:uid="{4C75432D-03F6-4DDC-90C3-83CD9107F177}"/>
-    <hyperlink ref="J527" r:id="rId2408" xr:uid="{2C8AAE73-1A8B-442F-B33A-32CDF67CD93E}"/>
+    <hyperlink ref="F363" r:id="rId1525" xr:uid="{FACE3E33-EF4C-41A2-BB43-3041067E5933}"/>
+    <hyperlink ref="G363" r:id="rId1526" xr:uid="{97C04C51-DEAC-413C-B81B-0B3EA98D1F18}"/>
+    <hyperlink ref="H363" r:id="rId1527" xr:uid="{53142640-14D1-4096-AC42-8E65B1A7123B}"/>
+    <hyperlink ref="I363" r:id="rId1528" xr:uid="{4145A712-C811-4055-925E-F9AC9D76B5A4}"/>
+    <hyperlink ref="J363" r:id="rId1529" xr:uid="{97C43EA7-96EE-4581-8DAB-FA65D08E68D7}"/>
+    <hyperlink ref="F364" r:id="rId1530" xr:uid="{B232D9EE-BF6F-4707-9620-D4AD4FBF7862}"/>
+    <hyperlink ref="G364" r:id="rId1531" xr:uid="{EDF25348-330D-453B-997D-E503B22E306B}"/>
+    <hyperlink ref="H364" r:id="rId1532" xr:uid="{1D19374E-5008-4F4F-ADB3-DD71E7C14F63}"/>
+    <hyperlink ref="I364" r:id="rId1533" xr:uid="{791781FA-803D-4FA5-9046-B731A38C96F5}"/>
+    <hyperlink ref="J364" r:id="rId1534" xr:uid="{1A70EA56-5205-4B9D-968E-817F267436F6}"/>
+    <hyperlink ref="F365" r:id="rId1535" xr:uid="{82A42CA3-B947-4956-9FA2-2EF0E3B12163}"/>
+    <hyperlink ref="G365" r:id="rId1536" xr:uid="{C51A3C3A-0040-419F-A6A1-7C6B4AC519CB}"/>
+    <hyperlink ref="H365" r:id="rId1537" xr:uid="{569BF18B-8740-452D-8EFF-97B3AE7DE47F}"/>
+    <hyperlink ref="I365" r:id="rId1538" xr:uid="{7CD1D291-CF31-4970-8EA2-CC02C841D48B}"/>
+    <hyperlink ref="J365" r:id="rId1539" xr:uid="{A365B5D9-0F5E-4D2C-8E5B-EE2899663BEE}"/>
+    <hyperlink ref="F366" r:id="rId1540" xr:uid="{8502EE5B-2729-4643-9B6D-059CE2EEB6E9}"/>
+    <hyperlink ref="G366" r:id="rId1541" xr:uid="{52840A21-390A-4D50-A6D9-9E941A2C03FE}"/>
+    <hyperlink ref="H366" r:id="rId1542" xr:uid="{1EEB98C0-49F5-4D54-8A12-281E1987A81F}"/>
+    <hyperlink ref="F367" r:id="rId1543" xr:uid="{59035509-8F7B-4936-A8BA-10B8669D34B7}"/>
+    <hyperlink ref="G367" r:id="rId1544" xr:uid="{57488D91-1F04-468D-B997-F80D40B7699C}"/>
+    <hyperlink ref="H367" r:id="rId1545" xr:uid="{FDA8E7C1-6868-4519-9C6F-2DC2ADEA3CD0}"/>
+    <hyperlink ref="F368" r:id="rId1546" xr:uid="{15629634-7E07-49FC-9C5A-7BD177356AEF}"/>
+    <hyperlink ref="G368" r:id="rId1547" xr:uid="{4B672DAC-19B6-4666-90B5-D5E977402287}"/>
+    <hyperlink ref="H368" r:id="rId1548" xr:uid="{4BB8DA24-D25C-4382-B677-9ACDFF1823D5}"/>
+    <hyperlink ref="F369" r:id="rId1549" xr:uid="{C7C73619-A11C-4895-9EC2-F521C55ED82E}"/>
+    <hyperlink ref="G369" r:id="rId1550" xr:uid="{ECFB1C30-B67C-4521-85FE-765FC3B6B2AB}"/>
+    <hyperlink ref="I369" r:id="rId1551" xr:uid="{0B365BBD-CE90-4168-92BA-09617FA3BCB7}"/>
+    <hyperlink ref="J369" r:id="rId1552" xr:uid="{0BAD14AA-036E-4D00-A5F6-9D17EBFD29A2}"/>
+    <hyperlink ref="H369" r:id="rId1553" xr:uid="{C652D141-366A-4E21-97EB-C88BA7B2A484}"/>
+    <hyperlink ref="I192" r:id="rId1554" xr:uid="{F8952BF5-477C-4638-BA7C-58AB60830C08}"/>
+    <hyperlink ref="J192" r:id="rId1555" xr:uid="{C969372B-717F-46A1-9D0E-CEA96D373248}"/>
+    <hyperlink ref="F370" r:id="rId1556" xr:uid="{1B4EEF79-3EB1-4CAF-AF3F-ED4F5DAD892D}"/>
+    <hyperlink ref="G370" r:id="rId1557" xr:uid="{21D2BB66-21A7-497A-883A-3252A1392DD6}"/>
+    <hyperlink ref="H370" r:id="rId1558" xr:uid="{0061E6D1-1006-4320-9ABA-240D069F0D0D}"/>
+    <hyperlink ref="J370" r:id="rId1559" xr:uid="{C3B4AE90-D459-454F-8D2B-27E468E9BDE8}"/>
+    <hyperlink ref="I370" r:id="rId1560" xr:uid="{1BB83707-B23E-4499-AE32-C0717E52E7FD}"/>
+    <hyperlink ref="F371" r:id="rId1561" xr:uid="{2C77ED18-0809-4E47-93DA-23425BB122F0}"/>
+    <hyperlink ref="G371" r:id="rId1562" xr:uid="{721705EF-D274-4DE2-B5D7-A9952F03D0A2}"/>
+    <hyperlink ref="H371" r:id="rId1563" xr:uid="{8A9CFEDC-7400-4B16-8E93-36EA47D4F5A9}"/>
+    <hyperlink ref="J371" r:id="rId1564" xr:uid="{4317FF03-7B3C-49C0-AFC9-FDDB9270EE1A}"/>
+    <hyperlink ref="I371" r:id="rId1565" xr:uid="{B9C7838B-4F5C-48FF-93DE-055CC52749C4}"/>
+    <hyperlink ref="F372" r:id="rId1566" xr:uid="{6CF754D7-5839-477B-82E6-DC0B21C74DD5}"/>
+    <hyperlink ref="G372" r:id="rId1567" xr:uid="{4FFB4525-583B-425B-B55E-4E7C7E1AB243}"/>
+    <hyperlink ref="H372" r:id="rId1568" xr:uid="{360A7A43-1724-4391-B6D6-F8F9803D3E91}"/>
+    <hyperlink ref="J372" r:id="rId1569" xr:uid="{E8FF1502-3DC1-42E7-961D-13F24061BE90}"/>
+    <hyperlink ref="I372" r:id="rId1570" xr:uid="{5EA601B2-4318-400D-8A9B-A8B9F9CA6ED9}"/>
+    <hyperlink ref="F373" r:id="rId1571" xr:uid="{CB73180C-F713-4D64-94E8-3476E9BF3C67}"/>
+    <hyperlink ref="G373" r:id="rId1572" xr:uid="{6E00949C-7583-4984-952F-FBA71C609A58}"/>
+    <hyperlink ref="H373" r:id="rId1573" xr:uid="{2F590222-DDFA-4CDE-ACD3-B7DE3A210786}"/>
+    <hyperlink ref="I373" r:id="rId1574" xr:uid="{865A5719-0E7A-4ECC-9282-1A3CEC6B9DD3}"/>
+    <hyperlink ref="J373" r:id="rId1575" xr:uid="{1F3FDEDE-2648-4B63-A30C-0D97D878B284}"/>
+    <hyperlink ref="F374" r:id="rId1576" xr:uid="{6DB6ED65-79EB-4DCC-87F5-54153F289441}"/>
+    <hyperlink ref="G374" r:id="rId1577" xr:uid="{8801B0B3-E2D2-45E3-9728-9C6B28294EB2}"/>
+    <hyperlink ref="H374" r:id="rId1578" xr:uid="{54A928A0-2875-405F-BA46-D59667799EC4}"/>
+    <hyperlink ref="I374" r:id="rId1579" xr:uid="{D54BDC77-29F0-4005-B516-A5530D91C365}"/>
+    <hyperlink ref="J374" r:id="rId1580" xr:uid="{707683FB-3D14-4A3B-9728-1172B6C3EBEE}"/>
+    <hyperlink ref="J134" r:id="rId1581" xr:uid="{90AF3CBE-EC4E-46D9-A673-689F90C561AB}"/>
+    <hyperlink ref="J349" r:id="rId1582" xr:uid="{79796A28-AFEF-4A13-A7A7-2E1D776E8253}"/>
+    <hyperlink ref="J277" r:id="rId1583" xr:uid="{5FF97F4A-06A1-4772-81D2-EF486C5C3D96}"/>
+    <hyperlink ref="J97" r:id="rId1584" xr:uid="{74E995E5-1408-4585-A5BA-C084D3BF35F1}"/>
+    <hyperlink ref="J314" r:id="rId1585" xr:uid="{EFD649EF-AE87-48ED-A52D-C5E2EC3A3138}"/>
+    <hyperlink ref="J66" r:id="rId1586" xr:uid="{6FDD7CD5-F0D8-4A6D-8B26-8702D1EE42F2}"/>
+    <hyperlink ref="J178" r:id="rId1587" xr:uid="{A9BF0D50-ED00-4365-B708-07949585BA0F}"/>
+    <hyperlink ref="J249" r:id="rId1588" xr:uid="{7C1A33C5-89BF-4DBA-BB2B-A49A1F52DA82}"/>
+    <hyperlink ref="F375" r:id="rId1589" xr:uid="{51D3671A-91D1-48CB-AA83-74EF34912972}"/>
+    <hyperlink ref="G375" r:id="rId1590" xr:uid="{BF4A1380-BC97-44F4-8DD3-0614A5A216E5}"/>
+    <hyperlink ref="H375" r:id="rId1591" xr:uid="{BADA6356-0952-47CA-BE10-8698CC878160}"/>
+    <hyperlink ref="I375" r:id="rId1592" xr:uid="{B1E9E8B9-9544-4407-8EBE-EE06E9E7F783}"/>
+    <hyperlink ref="J375" r:id="rId1593" xr:uid="{5553ED49-3D7E-4D0F-813E-EB3212935513}"/>
+    <hyperlink ref="F376" r:id="rId1594" xr:uid="{A5175125-3A82-4D47-9A9D-407144508F94}"/>
+    <hyperlink ref="G376" r:id="rId1595" xr:uid="{A8E36EB9-7E00-4507-987F-408C105F5219}"/>
+    <hyperlink ref="H376" r:id="rId1596" xr:uid="{3156DCE3-9109-4531-A3B3-4A43427DCF54}"/>
+    <hyperlink ref="I376" r:id="rId1597" xr:uid="{9CE83A62-12A0-4546-8957-C3FC2768F541}"/>
+    <hyperlink ref="J376" r:id="rId1598" xr:uid="{2B12D054-2A12-4E9B-A4B7-C41ED4DCA0DC}"/>
+    <hyperlink ref="F377" r:id="rId1599" xr:uid="{11BC8400-AA76-4F5C-A528-A99D579FDE3D}"/>
+    <hyperlink ref="G377" r:id="rId1600" xr:uid="{7D49428C-AD59-4080-809D-02861A70DAB0}"/>
+    <hyperlink ref="H377" r:id="rId1601" xr:uid="{2B7FBCB6-52D6-46A8-BDDF-63C066ED81EB}"/>
+    <hyperlink ref="I377" r:id="rId1602" xr:uid="{BB7AAD8E-93FB-40C6-BF3E-43C447B4BD6B}"/>
+    <hyperlink ref="J377" r:id="rId1603" xr:uid="{1871BAE6-DC77-4C8D-92F1-1C707B98B665}"/>
+    <hyperlink ref="F378" r:id="rId1604" xr:uid="{EB6EAA21-546D-4374-BFA9-F9F4C2605CEA}"/>
+    <hyperlink ref="G378" r:id="rId1605" xr:uid="{848DB92C-8491-4DBE-9305-F767F8C4825A}"/>
+    <hyperlink ref="H378" r:id="rId1606" xr:uid="{5E3D18A7-C29B-4B38-9A2E-2E066F0776AE}"/>
+    <hyperlink ref="I378" r:id="rId1607" xr:uid="{23FFE415-AC65-495A-BB14-D123F818B1D6}"/>
+    <hyperlink ref="J378" r:id="rId1608" xr:uid="{2D792E54-5389-4EE9-8E8B-2938398B4D5B}"/>
+    <hyperlink ref="F379" r:id="rId1609" xr:uid="{BA18BEB6-ED8C-45E4-9E5B-DDF795CA3EBE}"/>
+    <hyperlink ref="G379" r:id="rId1610" xr:uid="{17C2D6D4-0FF4-4A67-8808-68DAD1E434C4}"/>
+    <hyperlink ref="I379" r:id="rId1611" xr:uid="{E21038B4-D378-4796-B00C-5D6C2E4C8F84}"/>
+    <hyperlink ref="J379" r:id="rId1612" xr:uid="{901D086F-86A3-4239-A9FB-E8D546FF0D2C}"/>
+    <hyperlink ref="F380" r:id="rId1613" xr:uid="{4FFB90B2-C218-4C69-AD6F-72EB857005A1}"/>
+    <hyperlink ref="G380" r:id="rId1614" xr:uid="{4002DBF8-BB57-4F56-9BFE-4C7735D12022}"/>
+    <hyperlink ref="H379" r:id="rId1615" xr:uid="{F2C3EC2B-C703-4173-A7BA-96079092CF03}"/>
+    <hyperlink ref="H380" r:id="rId1616" xr:uid="{D6A9649E-BE1B-4219-9DA2-2115C7A31878}"/>
+    <hyperlink ref="I380" r:id="rId1617" xr:uid="{CE261CD8-4052-4C59-9EE5-B70369B4E319}"/>
+    <hyperlink ref="J380" r:id="rId1618" xr:uid="{275A2645-5D23-4099-8ED2-5E1E289505E2}"/>
+    <hyperlink ref="F381" r:id="rId1619" xr:uid="{89271B49-DDC7-461B-9B09-61BDD725D1EC}"/>
+    <hyperlink ref="G381" r:id="rId1620" xr:uid="{6570893E-AECE-4A73-9772-44A75A8FE6D2}"/>
+    <hyperlink ref="H381" r:id="rId1621" xr:uid="{D3A40654-569A-4183-A3E7-340413714DF5}"/>
+    <hyperlink ref="I381" r:id="rId1622" xr:uid="{7BE8A0FA-AA07-4B1E-BA00-13D7BAE40842}"/>
+    <hyperlink ref="J381" r:id="rId1623" xr:uid="{84B41802-9893-4F72-8B5C-7E362D63AD77}"/>
+    <hyperlink ref="F382" r:id="rId1624" xr:uid="{AC3C73C4-0F0C-4AE4-9AF2-378B21AD6F0C}"/>
+    <hyperlink ref="G382" r:id="rId1625" xr:uid="{5172560F-3D89-49B9-8B0F-EE6EBB285547}"/>
+    <hyperlink ref="H382" r:id="rId1626" xr:uid="{2FE276A5-143A-4FA3-A2B3-C384B9B6F06C}"/>
+    <hyperlink ref="I382" r:id="rId1627" xr:uid="{46769A2D-BE47-4FFE-9CC9-0738DB9B5132}"/>
+    <hyperlink ref="J382" r:id="rId1628" xr:uid="{CA6E55CB-B116-4607-8F9B-E1FA79287FD0}"/>
+    <hyperlink ref="G383" r:id="rId1629" xr:uid="{EA28D65D-3303-4A62-B6D5-15ADE9459683}"/>
+    <hyperlink ref="F383" r:id="rId1630" xr:uid="{E1DA7684-0CC8-4705-84B7-1CFE80434EB4}"/>
+    <hyperlink ref="H383" r:id="rId1631" xr:uid="{4CF0EAEA-F0EE-4A73-80B0-F002183E548D}"/>
+    <hyperlink ref="I383" r:id="rId1632" xr:uid="{5443FDAD-0B0C-49CB-A5D5-90F703C31D8A}"/>
+    <hyperlink ref="J383" r:id="rId1633" xr:uid="{B4ED57FD-D6E7-4F23-A81B-DC1ACC6C7895}"/>
+    <hyperlink ref="F384" r:id="rId1634" xr:uid="{4F57B7AC-C710-4472-AD9A-6BE84CFE41E5}"/>
+    <hyperlink ref="G384" r:id="rId1635" xr:uid="{736FB5F4-8FA8-44F3-9949-4A01AB6E5D68}"/>
+    <hyperlink ref="H384" r:id="rId1636" xr:uid="{986735A9-D495-4A1B-AD25-3DEF87A1E78D}"/>
+    <hyperlink ref="I384" r:id="rId1637" xr:uid="{AAE45831-6171-4F83-89F8-001892B8E7FC}"/>
+    <hyperlink ref="J384" r:id="rId1638" xr:uid="{C71473DD-2DFE-48C4-AD03-78DB07165775}"/>
+    <hyperlink ref="F385" r:id="rId1639" xr:uid="{CD2CA42F-0F15-4724-BD44-47CBBCE33F6B}"/>
+    <hyperlink ref="G385" r:id="rId1640" xr:uid="{32EC045F-08D1-4C5E-9CAC-DC9EDEDEC780}"/>
+    <hyperlink ref="H385" r:id="rId1641" xr:uid="{A7B6987D-BD49-4CD5-AA10-9F26C1D528E7}"/>
+    <hyperlink ref="I385" r:id="rId1642" xr:uid="{09D59932-51FF-4947-BA45-080ECB96E4D9}"/>
+    <hyperlink ref="J385" r:id="rId1643" xr:uid="{733E0ADF-FCCD-463D-B16A-A4D98E9F4209}"/>
+    <hyperlink ref="F386" r:id="rId1644" xr:uid="{C5B8BED9-AE44-4FF0-B28F-D8B1766572E9}"/>
+    <hyperlink ref="G386" r:id="rId1645" xr:uid="{17255DCB-8CC8-4DE1-B7D3-C4F887C9B0B4}"/>
+    <hyperlink ref="H386" r:id="rId1646" xr:uid="{9FA9A7B5-FB4A-4FD3-B017-58E333346FF2}"/>
+    <hyperlink ref="I386" r:id="rId1647" xr:uid="{BE21E5A2-C844-49A5-AF9F-4F880C02C718}"/>
+    <hyperlink ref="J386" r:id="rId1648" xr:uid="{7C76C445-A98D-4B46-BF79-42103AACE290}"/>
+    <hyperlink ref="F387" r:id="rId1649" xr:uid="{EB71079A-C6E6-42A9-9632-4EBF44982DBF}"/>
+    <hyperlink ref="G387" r:id="rId1650" xr:uid="{6591CB77-5011-4B99-B929-E91E6578F1C1}"/>
+    <hyperlink ref="H387" r:id="rId1651" xr:uid="{9FACD654-68FF-4971-AB1A-60ABD598F3D4}"/>
+    <hyperlink ref="I387" r:id="rId1652" xr:uid="{3515CBAE-00B6-4EB7-B9F0-BEAD1043ACE7}"/>
+    <hyperlink ref="J387" r:id="rId1653" xr:uid="{DA82C4DB-9FEE-4FD6-9AB1-14F39AABE7AD}"/>
+    <hyperlink ref="F388" r:id="rId1654" xr:uid="{831A1E36-C438-4231-A405-CBF4FEAC2AA5}"/>
+    <hyperlink ref="G388" r:id="rId1655" xr:uid="{51DE6BA4-E69C-4881-B418-692613546300}"/>
+    <hyperlink ref="H388" r:id="rId1656" xr:uid="{A8A25251-C685-4F24-A902-5FFE2FBC0C56}"/>
+    <hyperlink ref="I388" r:id="rId1657" xr:uid="{B18F78D6-A0F5-4ED9-A3CC-400FB3BE5AE7}"/>
+    <hyperlink ref="J388" r:id="rId1658" xr:uid="{4325C903-D4CE-4AEB-BC6D-F3C547934CC8}"/>
+    <hyperlink ref="F389" r:id="rId1659" xr:uid="{211C3BF1-3971-40D3-B7AC-742D87626EB1}"/>
+    <hyperlink ref="G389" r:id="rId1660" xr:uid="{9AA108DC-B218-4B87-B32B-33E35B2FE341}"/>
+    <hyperlink ref="H389" r:id="rId1661" xr:uid="{FBA50D4E-831E-45FA-88F7-084400BF248A}"/>
+    <hyperlink ref="I389" r:id="rId1662" xr:uid="{5FFAD257-BCCF-486A-89AA-35D0E24C339A}"/>
+    <hyperlink ref="J389" r:id="rId1663" xr:uid="{62AD0D89-96E9-4036-8509-25D4DB03278E}"/>
+    <hyperlink ref="F390" r:id="rId1664" xr:uid="{B9A49B29-D6CB-4102-9783-C281A36AF2D7}"/>
+    <hyperlink ref="G390" r:id="rId1665" xr:uid="{E2414974-E4E4-4ECE-B029-FA8B3223D8BB}"/>
+    <hyperlink ref="H390" r:id="rId1666" xr:uid="{B82C7C54-7B10-4872-96A8-7AC5458061B6}"/>
+    <hyperlink ref="F391" r:id="rId1667" xr:uid="{807BDEBD-5CB1-4887-B133-15297EAA4FEC}"/>
+    <hyperlink ref="G391" r:id="rId1668" xr:uid="{2E1632FA-FD9C-4E43-9757-620078E4B158}"/>
+    <hyperlink ref="H391" r:id="rId1669" xr:uid="{17501DB3-0919-4685-9553-E495A02B0AD8}"/>
+    <hyperlink ref="I391" r:id="rId1670" xr:uid="{732D3D09-C65E-4349-8CCF-67E3E1FFE1C0}"/>
+    <hyperlink ref="J391" r:id="rId1671" xr:uid="{ED06ED22-3179-4AF8-8355-141B26BC21C5}"/>
+    <hyperlink ref="F392" r:id="rId1672" xr:uid="{12917BB5-AE59-481B-BDC0-B0216CA5C399}"/>
+    <hyperlink ref="G392" r:id="rId1673" xr:uid="{99C5A8B0-2141-4928-BBD1-744DEE4EE9FA}"/>
+    <hyperlink ref="H392" r:id="rId1674" xr:uid="{8B703717-C0EF-4C66-9F7D-E109214A52F3}"/>
+    <hyperlink ref="I392" r:id="rId1675" xr:uid="{59D6C5DF-C4E3-46EC-BFA2-351F53B55A43}"/>
+    <hyperlink ref="J392" r:id="rId1676" xr:uid="{1610640C-DCAE-4AB6-89B9-5AC825C912B6}"/>
+    <hyperlink ref="F393" r:id="rId1677" xr:uid="{B6372EEA-6D3D-4036-80B3-550214CD0172}"/>
+    <hyperlink ref="G393" r:id="rId1678" xr:uid="{3459A1C9-18D6-496F-B52C-2D46CD33DC34}"/>
+    <hyperlink ref="H393" r:id="rId1679" xr:uid="{47FC2F26-1515-452B-A710-03B228322C0E}"/>
+    <hyperlink ref="F394" r:id="rId1680" xr:uid="{D1D725C0-4EE3-4CA2-A905-794FCCA1A904}"/>
+    <hyperlink ref="G394" r:id="rId1681" xr:uid="{F51FA05A-45B1-478D-838D-B25E4C1A984B}"/>
+    <hyperlink ref="H394" r:id="rId1682" xr:uid="{D08B052C-2128-455E-927A-A5CD1988D2E2}"/>
+    <hyperlink ref="F395" r:id="rId1683" xr:uid="{7B22CBFD-1836-4D46-86BD-8C50BD6EC9D1}"/>
+    <hyperlink ref="G395" r:id="rId1684" xr:uid="{AF0A5EE5-DD7B-4895-A11D-EE41D360974F}"/>
+    <hyperlink ref="H395" r:id="rId1685" xr:uid="{4B436A22-25E8-47E4-A251-FC0E9E9E3D94}"/>
+    <hyperlink ref="F396" r:id="rId1686" xr:uid="{AF265FB0-E787-47DC-A5D7-AED27B129912}"/>
+    <hyperlink ref="G396" r:id="rId1687" xr:uid="{2A54EB22-F3C6-42AC-A86A-567604EFF2B1}"/>
+    <hyperlink ref="H396" r:id="rId1688" xr:uid="{4004F60E-01D7-4BC5-AD6B-60FB99D33C4E}"/>
+    <hyperlink ref="I396" r:id="rId1689" xr:uid="{986E0758-BCCD-40BC-9296-98A95A4B2C63}"/>
+    <hyperlink ref="J396" r:id="rId1690" xr:uid="{BB4A2C17-FE3F-44B6-A173-0127A3FB6EA4}"/>
+    <hyperlink ref="F397" r:id="rId1691" xr:uid="{8490D9CD-2602-4101-B7C2-2C2528086494}"/>
+    <hyperlink ref="G397" r:id="rId1692" xr:uid="{692DC00A-5968-4DFF-B97D-DCE2FB5F6183}"/>
+    <hyperlink ref="H397" r:id="rId1693" xr:uid="{7407FC67-F2CE-4CA4-8C40-06C11FBCA675}"/>
+    <hyperlink ref="I397" r:id="rId1694" xr:uid="{330620D5-34A5-47D0-8319-145310DDE8D0}"/>
+    <hyperlink ref="J397" r:id="rId1695" xr:uid="{AB4F0F27-27AD-492C-A917-42EF61C4F44F}"/>
+    <hyperlink ref="F398" r:id="rId1696" xr:uid="{40073266-781A-4CAA-A48B-B61504E5201D}"/>
+    <hyperlink ref="G398" r:id="rId1697" xr:uid="{BDF3E0CC-88A7-4568-BEBE-447FF450D4AA}"/>
+    <hyperlink ref="H398" r:id="rId1698" xr:uid="{DA768FFB-8AC4-43D1-8488-4D1FEBBA113A}"/>
+    <hyperlink ref="I398" r:id="rId1699" xr:uid="{DB80F349-A8CC-451E-965E-3F88186E2554}"/>
+    <hyperlink ref="J398" r:id="rId1700" xr:uid="{3D13F378-D40C-4792-9D8C-D190AA7F25A4}"/>
+    <hyperlink ref="F399" r:id="rId1701" xr:uid="{0B918885-3C15-468F-BC33-386A50311498}"/>
+    <hyperlink ref="G399" r:id="rId1702" xr:uid="{96B2C9D2-9DF7-4CD3-9DF9-81C6286C23F5}"/>
+    <hyperlink ref="H399" r:id="rId1703" xr:uid="{1F9BE551-3473-4A8F-B68A-91E465B6C14C}"/>
+    <hyperlink ref="I399" r:id="rId1704" xr:uid="{203A75C8-87F6-43A8-AE3F-F349CBBA7C43}"/>
+    <hyperlink ref="J399" r:id="rId1705" xr:uid="{001C312B-51BF-4D41-9081-E038F7D7DF1E}"/>
+    <hyperlink ref="F400" r:id="rId1706" xr:uid="{78827FBC-8D52-4C35-888D-7B61BCE170F4}"/>
+    <hyperlink ref="G400" r:id="rId1707" xr:uid="{D290596C-91A0-4BF6-9B6D-E9623E1831D0}"/>
+    <hyperlink ref="H400" r:id="rId1708" xr:uid="{18438FD8-5C87-4EAF-9080-93FF1D868FC5}"/>
+    <hyperlink ref="I400" r:id="rId1709" xr:uid="{4DE6C0E7-1BFC-4232-B8F3-027DE97E2E7F}"/>
+    <hyperlink ref="J400" r:id="rId1710" xr:uid="{CF207CDD-D2E6-473B-B184-C5E3B9F08FE2}"/>
+    <hyperlink ref="F401" r:id="rId1711" xr:uid="{F7AD4D8A-ADC7-4B93-898F-40DD409AD5B7}"/>
+    <hyperlink ref="G401" r:id="rId1712" xr:uid="{94E01915-3B30-462F-98CF-CDB41C9A049C}"/>
+    <hyperlink ref="H401" r:id="rId1713" xr:uid="{8F4C0C7D-AD24-42F0-9821-B42318DECC25}"/>
+    <hyperlink ref="I401" r:id="rId1714" xr:uid="{7282279D-77A3-49F0-9079-1E4F68AE10F4}"/>
+    <hyperlink ref="J401" r:id="rId1715" xr:uid="{4F8A8CF0-EAED-475F-9C95-9E4D3CC575B1}"/>
+    <hyperlink ref="F402" r:id="rId1716" xr:uid="{9359383C-26D8-4E71-BDE0-DA37C2A5231E}"/>
+    <hyperlink ref="G402" r:id="rId1717" xr:uid="{4FACDB71-2C45-46BA-A902-69C23A17A4E4}"/>
+    <hyperlink ref="H402" r:id="rId1718" xr:uid="{3DF0DE90-B673-41A4-8118-7053E6138C31}"/>
+    <hyperlink ref="I402" r:id="rId1719" xr:uid="{CDA538C8-1D69-4CA5-8DA8-4FF0C5D5A38A}"/>
+    <hyperlink ref="J402" r:id="rId1720" xr:uid="{88139470-3A3B-4702-AEB2-CE24888D3D0D}"/>
+    <hyperlink ref="F403" r:id="rId1721" xr:uid="{EAEFC49F-D774-4768-91D8-1F6184BCC200}"/>
+    <hyperlink ref="G403" r:id="rId1722" xr:uid="{C3B06949-00E2-4C3C-8F66-AE9969179F88}"/>
+    <hyperlink ref="H403" r:id="rId1723" xr:uid="{8759808A-8D2F-4835-969F-44B4E0644417}"/>
+    <hyperlink ref="I403" r:id="rId1724" xr:uid="{9B4C8538-CE50-4AA0-AF03-9E02955AD54C}"/>
+    <hyperlink ref="J403" r:id="rId1725" xr:uid="{9A101648-328A-4A6A-9AF7-B3E6813E8C06}"/>
+    <hyperlink ref="F404" r:id="rId1726" xr:uid="{18F65C74-C477-43A8-8AAB-ED2E63030D4D}"/>
+    <hyperlink ref="G404" r:id="rId1727" xr:uid="{8B9AB414-2F29-4F41-805B-9F3E045C4462}"/>
+    <hyperlink ref="H404" r:id="rId1728" xr:uid="{34A33A18-CBD7-4400-A877-C78A89200E76}"/>
+    <hyperlink ref="I404" r:id="rId1729" xr:uid="{6BC5A3C8-2B6F-4857-9A8D-FAA1A14BBF89}"/>
+    <hyperlink ref="J404" r:id="rId1730" xr:uid="{5C03C400-FB36-42A6-A2D8-FC0487E507E5}"/>
+    <hyperlink ref="F405" r:id="rId1731" xr:uid="{BEF4FD97-C6CB-43F5-BF8E-D861943A4403}"/>
+    <hyperlink ref="G405" r:id="rId1732" xr:uid="{A6368C3A-C587-439B-897E-DD854C735E68}"/>
+    <hyperlink ref="H405" r:id="rId1733" xr:uid="{1C456354-DE2F-4461-902A-24C9AB88425B}"/>
+    <hyperlink ref="I405" r:id="rId1734" xr:uid="{15EE5118-41DE-4338-A079-70CAE6FBA777}"/>
+    <hyperlink ref="J405" r:id="rId1735" xr:uid="{D46675DC-C82A-4F59-A8FD-46A7EB24FCB5}"/>
+    <hyperlink ref="F406" r:id="rId1736" xr:uid="{6D946C54-1ECA-4977-ACDD-D88CC595AEEA}"/>
+    <hyperlink ref="G406" r:id="rId1737" xr:uid="{24AC9B01-72E5-45F3-B798-D4F8F2A90C08}"/>
+    <hyperlink ref="H406" r:id="rId1738" xr:uid="{CD8B4BCE-9B45-48C7-860D-0A31A28A85B4}"/>
+    <hyperlink ref="I406" r:id="rId1739" xr:uid="{5B7B4BC5-0988-4D62-81C0-825C49E9244C}"/>
+    <hyperlink ref="J406" r:id="rId1740" xr:uid="{EA30A66B-9DF9-400D-83A0-196FBAC1BDDA}"/>
+    <hyperlink ref="F407" r:id="rId1741" xr:uid="{7B11E0B6-C889-44B9-BE7D-EBD6CD87DE3A}"/>
+    <hyperlink ref="G407" r:id="rId1742" xr:uid="{64610B68-F7D1-4D76-92E2-F866D202CB1A}"/>
+    <hyperlink ref="H407" r:id="rId1743" xr:uid="{2F8EDAAA-5863-4934-B3EC-B3A2EE85DE91}"/>
+    <hyperlink ref="I407" r:id="rId1744" xr:uid="{48B07E10-8E5A-40C5-9929-9D1360A4C8E1}"/>
+    <hyperlink ref="J407" r:id="rId1745" xr:uid="{57D217B1-B05C-4063-B095-B298016E42F9}"/>
+    <hyperlink ref="F408" r:id="rId1746" xr:uid="{522821D2-4EA9-4B8F-901F-472BE3ACB02E}"/>
+    <hyperlink ref="G408" r:id="rId1747" xr:uid="{833FDF36-8586-433B-ACAE-20B0E29236E8}"/>
+    <hyperlink ref="H408" r:id="rId1748" xr:uid="{7830689A-7EB8-45DA-9E14-B831E004877B}"/>
+    <hyperlink ref="I408" r:id="rId1749" xr:uid="{831355AE-B29E-4802-AE48-1015943E0C1A}"/>
+    <hyperlink ref="J408" r:id="rId1750" xr:uid="{D76C72F2-01F0-42CC-9856-D50F0EBCE46F}"/>
+    <hyperlink ref="F409" r:id="rId1751" xr:uid="{B4777448-E223-4D9E-B9B8-E50FA04A412D}"/>
+    <hyperlink ref="G409" r:id="rId1752" xr:uid="{C2DAD2F9-3B48-486D-A427-306D8C8A8C47}"/>
+    <hyperlink ref="H409" r:id="rId1753" xr:uid="{635AF6BF-3DB5-40CB-87C0-D2D448F5E144}"/>
+    <hyperlink ref="I409" r:id="rId1754" xr:uid="{1DB7E77E-DE57-48C1-A042-009B1EB6D19A}"/>
+    <hyperlink ref="J409" r:id="rId1755" xr:uid="{407C9085-6EC6-4AD7-B8AB-04919981D497}"/>
+    <hyperlink ref="F410" r:id="rId1756" xr:uid="{A0A45D01-CB34-4AA0-9957-A0ACD7CD15EB}"/>
+    <hyperlink ref="G410" r:id="rId1757" xr:uid="{99CBDF3C-7CE7-4B6D-984C-D708EBBA1A29}"/>
+    <hyperlink ref="H410" r:id="rId1758" xr:uid="{40471C55-4196-46A2-AC35-CDF92EB50C83}"/>
+    <hyperlink ref="I410" r:id="rId1759" xr:uid="{5B05F317-ACD6-4DFA-9082-F60E07515065}"/>
+    <hyperlink ref="J410" r:id="rId1760" xr:uid="{5196878A-5035-4936-B1C3-23E554D356BE}"/>
+    <hyperlink ref="F411" r:id="rId1761" xr:uid="{F81A9B82-45AE-444F-A7A7-35B8FA57DF82}"/>
+    <hyperlink ref="G411" r:id="rId1762" xr:uid="{7AAE6906-E08A-42D4-8D73-77248A73CA1A}"/>
+    <hyperlink ref="H411" r:id="rId1763" xr:uid="{83262156-9C38-41EB-B770-E309ECDC59B1}"/>
+    <hyperlink ref="I411" r:id="rId1764" xr:uid="{5BF6FF7D-DCDE-43D9-8F99-BE650A6F36CC}"/>
+    <hyperlink ref="J411" r:id="rId1765" xr:uid="{43477D1E-011D-40BC-B7C6-74719C39881B}"/>
+    <hyperlink ref="F412" r:id="rId1766" xr:uid="{DFEC8575-16C6-416A-98E3-887DC1EF201E}"/>
+    <hyperlink ref="G412" r:id="rId1767" xr:uid="{A24E2742-F105-4359-AF2F-8BF235C07B30}"/>
+    <hyperlink ref="H412" r:id="rId1768" xr:uid="{45E65F38-BB76-4508-87D9-E1F4194D8C39}"/>
+    <hyperlink ref="I412" r:id="rId1769" xr:uid="{9FDD15AC-DF4C-4B53-92AD-D328DE456608}"/>
+    <hyperlink ref="J412" r:id="rId1770" xr:uid="{57026CFB-E854-4F6B-9847-438B89DEE46F}"/>
+    <hyperlink ref="F413" r:id="rId1771" xr:uid="{E8052948-74D8-4FDD-890A-9A432F0B8DBE}"/>
+    <hyperlink ref="G413" r:id="rId1772" xr:uid="{32ABB141-331E-404D-ACFC-9AE6980D72D9}"/>
+    <hyperlink ref="H413" r:id="rId1773" xr:uid="{73617295-F3A2-44DF-9423-696D38862547}"/>
+    <hyperlink ref="I413" r:id="rId1774" xr:uid="{79854D88-5038-4F6B-BE55-205F357F4F4A}"/>
+    <hyperlink ref="J413" r:id="rId1775" xr:uid="{6CC1DE75-A3FD-43B7-981C-65E09542DCC0}"/>
+    <hyperlink ref="F414" r:id="rId1776" xr:uid="{1DD489A2-2B66-49DB-8314-40F05CBBBB2F}"/>
+    <hyperlink ref="G414" r:id="rId1777" xr:uid="{4DF1076B-66CC-48EE-880C-1607B741F022}"/>
+    <hyperlink ref="H414" r:id="rId1778" xr:uid="{AFBFA847-7B13-4F9F-85AF-7B470C3574D3}"/>
+    <hyperlink ref="I414" r:id="rId1779" xr:uid="{833C366D-5806-4C49-9362-376242498DC7}"/>
+    <hyperlink ref="J414" r:id="rId1780" xr:uid="{AB1E1C2B-E42D-483B-A855-C67342B77718}"/>
+    <hyperlink ref="F415" r:id="rId1781" xr:uid="{E43028DA-EBCE-4F1A-83EF-5219C37F1D4F}"/>
+    <hyperlink ref="G415" r:id="rId1782" xr:uid="{E33DFBE2-8EBA-4992-A7C5-39315F6F33F7}"/>
+    <hyperlink ref="H415" r:id="rId1783" xr:uid="{C802B234-0783-49A1-B9DB-C30BC84B39D3}"/>
+    <hyperlink ref="I415" r:id="rId1784" xr:uid="{C2354F35-3CBE-4274-96EF-FAFF6615D6D8}"/>
+    <hyperlink ref="J415" r:id="rId1785" xr:uid="{D58CAF9A-296B-46FB-AC2D-81ADB4313740}"/>
+    <hyperlink ref="F416" r:id="rId1786" xr:uid="{021F986C-ECD6-4D53-B7E9-114A2C2F1307}"/>
+    <hyperlink ref="G416" r:id="rId1787" xr:uid="{5A48562A-B19F-486C-857C-F828F7418EF4}"/>
+    <hyperlink ref="I416" r:id="rId1788" xr:uid="{E58CB6C0-7B19-4612-A33B-C0F0CFCFC5B4}"/>
+    <hyperlink ref="H416" r:id="rId1789" xr:uid="{E7235178-68DF-475D-B7F2-1EB895E4D1BC}"/>
+    <hyperlink ref="J416" r:id="rId1790" xr:uid="{FB1E2D9C-74EC-40B6-89BC-E2EC61594183}"/>
+    <hyperlink ref="F417" r:id="rId1791" xr:uid="{C49F94B4-ECC0-4E24-B35A-4A7359851709}"/>
+    <hyperlink ref="G417" r:id="rId1792" xr:uid="{8BABF7CF-F8AB-4D3F-BF93-5A4607622AE4}"/>
+    <hyperlink ref="H417" r:id="rId1793" xr:uid="{69B0DAF5-22A5-42E2-8130-23355F23D3EB}"/>
+    <hyperlink ref="I417" r:id="rId1794" xr:uid="{E941CF65-8F5C-4949-B446-CA8EAC0C7993}"/>
+    <hyperlink ref="J417" r:id="rId1795" xr:uid="{E7C1BCA5-8B1F-4E17-B94A-3B15EE01C9C5}"/>
+    <hyperlink ref="F418" r:id="rId1796" xr:uid="{C242DE25-8F51-4F0B-863E-89050D63D470}"/>
+    <hyperlink ref="G418" r:id="rId1797" xr:uid="{D9108167-53C7-4C89-9E57-4AFCB5FD2E31}"/>
+    <hyperlink ref="H418" r:id="rId1798" xr:uid="{595E7407-7A97-4F84-97AD-9A51C92B9F03}"/>
+    <hyperlink ref="I418" r:id="rId1799" xr:uid="{879136CA-AE15-4036-B134-4D7603CAAE2C}"/>
+    <hyperlink ref="J418" r:id="rId1800" xr:uid="{C5ADC08E-68F9-4B60-871B-477640C21B1A}"/>
+    <hyperlink ref="F419" r:id="rId1801" xr:uid="{E0927591-3CD1-4FB8-999A-44570B294F0C}"/>
+    <hyperlink ref="G419" r:id="rId1802" xr:uid="{6D321E48-E393-4769-9EEB-DFE8850DDD2B}"/>
+    <hyperlink ref="H419" r:id="rId1803" xr:uid="{B6C90BB3-9D1D-4DB9-8D0D-8F6B16280ECF}"/>
+    <hyperlink ref="I419" r:id="rId1804" xr:uid="{EA56D41C-36DD-4BD0-B0B1-5C23F16A3069}"/>
+    <hyperlink ref="J419" r:id="rId1805" xr:uid="{90E52F9A-BF2A-4A94-A57A-ECEE565302D4}"/>
+    <hyperlink ref="F420" r:id="rId1806" xr:uid="{DA4D488A-9B1E-4529-9A9C-082F6F448AFF}"/>
+    <hyperlink ref="G420" r:id="rId1807" xr:uid="{13C908F4-5FE0-4CA6-B987-156BEE95ECF9}"/>
+    <hyperlink ref="H420" r:id="rId1808" xr:uid="{4948013C-142F-4E38-8D5A-83BCDFFCB28E}"/>
+    <hyperlink ref="I420" r:id="rId1809" xr:uid="{EFE0D3F5-F119-457F-8019-C66ED06F4741}"/>
+    <hyperlink ref="J420" r:id="rId1810" xr:uid="{3E47AF4E-DE20-4B65-A59B-47AB26880E42}"/>
+    <hyperlink ref="F421" r:id="rId1811" xr:uid="{78CC66F1-8B81-410B-80A8-63E9754B52D2}"/>
+    <hyperlink ref="G421" r:id="rId1812" xr:uid="{25C72C19-2AE8-47C7-A9F6-3B10C23B1B5A}"/>
+    <hyperlink ref="H421" r:id="rId1813" xr:uid="{F98DAA04-39A6-4E2B-A616-C0E4B12EE2C8}"/>
+    <hyperlink ref="I421" r:id="rId1814" xr:uid="{8CA6F00F-4161-4A9F-9A58-19359908C0CA}"/>
+    <hyperlink ref="J421" r:id="rId1815" xr:uid="{3D9BABD4-EE6C-4AB2-A7EC-0D1B2A32D99E}"/>
+    <hyperlink ref="F422" r:id="rId1816" xr:uid="{4D62B43D-8748-4A35-A626-4239AF3C2E61}"/>
+    <hyperlink ref="G422" r:id="rId1817" xr:uid="{8B0CA0E9-9FE0-4F03-93A6-4F61170355C3}"/>
+    <hyperlink ref="H422" r:id="rId1818" xr:uid="{0F546C43-946A-4DA0-9001-93BC8A24039E}"/>
+    <hyperlink ref="I422" r:id="rId1819" xr:uid="{BA12006C-7004-4324-A040-736E19CD6EBB}"/>
+    <hyperlink ref="J422" r:id="rId1820" xr:uid="{BFDD87F4-882D-46D1-9F67-C6FF846FE9C5}"/>
+    <hyperlink ref="F423" r:id="rId1821" xr:uid="{A6234051-7E05-485E-985A-1536050F9138}"/>
+    <hyperlink ref="G423" r:id="rId1822" xr:uid="{FCBFEB00-D7AA-4160-ADB8-CC2BFB1CEFBF}"/>
+    <hyperlink ref="H423" r:id="rId1823" xr:uid="{86A28813-FF0C-4034-A3F7-1A2D626091C4}"/>
+    <hyperlink ref="J423" r:id="rId1824" xr:uid="{EF21A151-6EB6-467C-80C6-A9B6AC6CBA76}"/>
+    <hyperlink ref="I423" r:id="rId1825" xr:uid="{27BBE615-C512-467F-BE13-FE28D983F7EE}"/>
+    <hyperlink ref="F424" r:id="rId1826" xr:uid="{0E8ED884-12FC-442C-AEBC-5ACE7550D91C}"/>
+    <hyperlink ref="G424" r:id="rId1827" xr:uid="{EF106542-7757-43D0-B995-CE3C7CBECA16}"/>
+    <hyperlink ref="I424" r:id="rId1828" xr:uid="{EA2AD23C-2528-43BD-BF41-84940ADB91D8}"/>
+    <hyperlink ref="H424" r:id="rId1829" xr:uid="{AAD15CEF-C34A-4CAA-A115-062800AE94ED}"/>
+    <hyperlink ref="J424" r:id="rId1830" xr:uid="{FC162433-32C5-46EF-A3B2-184FFE0C1E90}"/>
+    <hyperlink ref="F425" r:id="rId1831" xr:uid="{77895B7E-9E16-463C-8303-47807065623D}"/>
+    <hyperlink ref="G425" r:id="rId1832" xr:uid="{3F8E1051-99DA-48FB-921A-20FD326830F8}"/>
+    <hyperlink ref="H425" r:id="rId1833" xr:uid="{44C70299-9F97-494C-B0AD-56726DF67DFD}"/>
+    <hyperlink ref="I425" r:id="rId1834" xr:uid="{E74BEEC0-E62F-45B4-9F0C-7C9F1E024EDE}"/>
+    <hyperlink ref="J425" r:id="rId1835" xr:uid="{45534C82-58CC-4A3C-8F0A-823092D081B3}"/>
+    <hyperlink ref="F426" r:id="rId1836" xr:uid="{0DEEC498-B7A0-46FA-BCB7-4E5A1B951341}"/>
+    <hyperlink ref="G426" r:id="rId1837" xr:uid="{94F6C6A7-F6D4-4C00-AB1A-50D83A8D3BD9}"/>
+    <hyperlink ref="H426" r:id="rId1838" xr:uid="{3BB88738-2768-47CD-A6C4-F0A7050039C5}"/>
+    <hyperlink ref="I426" r:id="rId1839" xr:uid="{2E7D9106-E931-40A3-A1AB-31E00ED8BFAD}"/>
+    <hyperlink ref="J426" r:id="rId1840" xr:uid="{15CC8C86-BB82-40B9-82ED-FB11F32BE3D9}"/>
+    <hyperlink ref="F427" r:id="rId1841" xr:uid="{E04EC733-90EA-42F6-8E0C-CB8A5D45FDA4}"/>
+    <hyperlink ref="G427" r:id="rId1842" xr:uid="{E491A7E0-3667-405B-8E4D-F79F03EC740A}"/>
+    <hyperlink ref="H427" r:id="rId1843" xr:uid="{6B70EBFC-512D-4964-933F-A087278428A1}"/>
+    <hyperlink ref="I427" r:id="rId1844" xr:uid="{B044A0D4-6356-4941-93C3-355D9839FCBD}"/>
+    <hyperlink ref="J427" r:id="rId1845" xr:uid="{A65539A9-488A-46AC-9282-816FB1BAC6B2}"/>
+    <hyperlink ref="F428" r:id="rId1846" xr:uid="{B79D4756-1222-4505-8B68-7F8E360FE7E4}"/>
+    <hyperlink ref="G428" r:id="rId1847" xr:uid="{62C5A3A0-E063-4B09-AE3D-C6DD5D422660}"/>
+    <hyperlink ref="H428" r:id="rId1848" xr:uid="{CED76AFC-D868-44DE-BEF4-B62FABA68CE2}"/>
+    <hyperlink ref="I428" r:id="rId1849" xr:uid="{4980AAD2-5C09-4B5E-A48D-0B6A7396A492}"/>
+    <hyperlink ref="J428" r:id="rId1850" xr:uid="{A40CC23B-7B72-4F73-B573-BB7C06A8986A}"/>
+    <hyperlink ref="F429" r:id="rId1851" xr:uid="{1F75F8AD-0E72-41D4-843B-BCB00C7FE608}"/>
+    <hyperlink ref="G429" r:id="rId1852" xr:uid="{7631A9E0-C35F-41AE-B555-48C9F24996C2}"/>
+    <hyperlink ref="H429" r:id="rId1853" xr:uid="{BAEBFB72-8E4D-4468-97B7-564BEF80ECCA}"/>
+    <hyperlink ref="I429" r:id="rId1854" xr:uid="{398E1A93-BE26-48F8-8DEC-7020EFC3BE9B}"/>
+    <hyperlink ref="J429" r:id="rId1855" xr:uid="{16187D72-625E-4F4C-8F19-9545BC6260FB}"/>
+    <hyperlink ref="F430" r:id="rId1856" xr:uid="{59F612C3-E7C7-4692-AC5B-3DAD8CEC20B4}"/>
+    <hyperlink ref="G430" r:id="rId1857" xr:uid="{9C708C5D-A061-4F47-B034-EBA246FEFE3D}"/>
+    <hyperlink ref="H430" r:id="rId1858" xr:uid="{8A1599F2-AF3C-42E7-85F4-64F9124D0C14}"/>
+    <hyperlink ref="I430" r:id="rId1859" xr:uid="{C012610C-B668-47BF-8A1C-3747F03DAA9D}"/>
+    <hyperlink ref="J430" r:id="rId1860" xr:uid="{21309BD5-FE59-4D1E-9156-8BECC0DD111C}"/>
+    <hyperlink ref="F431" r:id="rId1861" xr:uid="{79BFDFB6-7C61-4044-9E48-3C7F667A80B1}"/>
+    <hyperlink ref="G431" r:id="rId1862" xr:uid="{D81FDF51-299E-4D78-9BEA-D1A14A37D0F6}"/>
+    <hyperlink ref="H431" r:id="rId1863" xr:uid="{AD480A4E-C74B-4089-8A12-72FB4AC36FF6}"/>
+    <hyperlink ref="I431" r:id="rId1864" xr:uid="{A6216493-F345-44F3-8E59-B4464595BAA1}"/>
+    <hyperlink ref="J431" r:id="rId1865" xr:uid="{22EF61C1-8E2E-4FBC-B1B3-68990A559385}"/>
+    <hyperlink ref="F432" r:id="rId1866" xr:uid="{F87E329D-A3A9-42D7-A052-512D0A27F687}"/>
+    <hyperlink ref="G432" r:id="rId1867" xr:uid="{FEED50AD-FADB-418F-A296-0F1CF6CCA1D4}"/>
+    <hyperlink ref="H432" r:id="rId1868" xr:uid="{DC92B32C-210C-41BD-BBD9-C9AC0789B3BD}"/>
+    <hyperlink ref="I432" r:id="rId1869" xr:uid="{D367FB42-3DA7-44C5-AC1F-0D5C4E59871D}"/>
+    <hyperlink ref="J432" r:id="rId1870" xr:uid="{4AC4CA30-18C1-452E-8FB3-E6FD24C6CBC4}"/>
+    <hyperlink ref="F433" r:id="rId1871" xr:uid="{D48D1C79-E77F-4F8E-8E07-94C026AEF0EB}"/>
+    <hyperlink ref="G433" r:id="rId1872" xr:uid="{6E8F15AC-9B64-4E18-84AA-E548C9FC8A58}"/>
+    <hyperlink ref="H433" r:id="rId1873" xr:uid="{B7640CBC-D18B-4388-A163-576E454CAF7B}"/>
+    <hyperlink ref="I433" r:id="rId1874" xr:uid="{7C15AF67-672C-491A-AFFA-003CB98EDB3A}"/>
+    <hyperlink ref="J433" r:id="rId1875" xr:uid="{62774ECE-B8D7-4D19-9523-C5CC4CD9DCF0}"/>
+    <hyperlink ref="F434" r:id="rId1876" xr:uid="{09D58DE1-9427-48C0-A6BF-6AE378B4598B}"/>
+    <hyperlink ref="G434" r:id="rId1877" xr:uid="{1476DD3E-6BE8-467E-B357-535AD5000DF9}"/>
+    <hyperlink ref="H434" r:id="rId1878" xr:uid="{D3674BB8-F602-425C-BFBF-EA41008AE052}"/>
+    <hyperlink ref="F435" r:id="rId1879" xr:uid="{7D1D76F9-3391-48A9-B708-FAA361FC7590}"/>
+    <hyperlink ref="G435" r:id="rId1880" xr:uid="{DEE2BED5-71DA-44E8-A192-C3AAB7FC60C9}"/>
+    <hyperlink ref="H435" r:id="rId1881" xr:uid="{78FDD5F9-5839-48D5-92B0-9B2C1541BEF4}"/>
+    <hyperlink ref="I435" r:id="rId1882" xr:uid="{29FE60BA-3532-4A9B-B570-6C3714F754B0}"/>
+    <hyperlink ref="J435" r:id="rId1883" xr:uid="{E3C6050F-1AEE-41D0-959B-19F9488BD378}"/>
+    <hyperlink ref="F436" r:id="rId1884" xr:uid="{3195660C-23D2-4919-9772-0146A9ADBDBF}"/>
+    <hyperlink ref="G436" r:id="rId1885" xr:uid="{2D7A94A0-F65A-48F6-9FE4-5BB9529B47F6}"/>
+    <hyperlink ref="H436" r:id="rId1886" xr:uid="{67A2452C-9AAE-4713-B309-03346D8F7285}"/>
+    <hyperlink ref="I436" r:id="rId1887" xr:uid="{C4AB73DA-DB4F-454E-9F3F-7246B68F9C50}"/>
+    <hyperlink ref="J436" r:id="rId1888" xr:uid="{B92E46B5-DEFE-4CC5-BDDE-45E23F98BE61}"/>
+    <hyperlink ref="F437" r:id="rId1889" xr:uid="{015E1922-D271-4423-A6BA-4BC2AE4D6111}"/>
+    <hyperlink ref="G437" r:id="rId1890" xr:uid="{4BF6812E-842B-46D0-B13E-3D22EB7AE0A6}"/>
+    <hyperlink ref="F438" r:id="rId1891" xr:uid="{7A167451-0F61-44DB-B8B1-C7078CF6BC2B}"/>
+    <hyperlink ref="G438" r:id="rId1892" xr:uid="{C933D222-A064-48D1-8EAE-F8FF0D558ACD}"/>
+    <hyperlink ref="H437" r:id="rId1893" xr:uid="{C425254E-0E3E-4B06-A3FC-DB254E604970}"/>
+    <hyperlink ref="H438" r:id="rId1894" xr:uid="{5C72E896-6CAB-4285-9BC1-FA54EE34B5F8}"/>
+    <hyperlink ref="I438" r:id="rId1895" xr:uid="{560E9A98-6BDE-4731-BDA4-5570183736B9}"/>
+    <hyperlink ref="J438" r:id="rId1896" xr:uid="{C5B0A6B2-C629-472C-8A2B-5A13EAD5419D}"/>
+    <hyperlink ref="F439" r:id="rId1897" xr:uid="{15FB010E-3490-4F4B-B750-DF379A8205B5}"/>
+    <hyperlink ref="G439" r:id="rId1898" xr:uid="{CDB8CD58-F6A8-4DB7-B90F-1A59C3DDBA32}"/>
+    <hyperlink ref="H439" r:id="rId1899" xr:uid="{ADAFB4D5-AA15-454D-A450-56111B091D7F}"/>
+    <hyperlink ref="I439" r:id="rId1900" xr:uid="{E8507898-C037-4554-A0B8-F07036F3E101}"/>
+    <hyperlink ref="J439" r:id="rId1901" xr:uid="{029E38C6-44CE-4268-A990-62C9A35BA42A}"/>
+    <hyperlink ref="F440" r:id="rId1902" xr:uid="{18A8A851-3E1E-4AFA-80CD-6A1D1903E5D7}"/>
+    <hyperlink ref="G440" r:id="rId1903" xr:uid="{73B6BEB5-9BA5-4427-B61C-9638804EA487}"/>
+    <hyperlink ref="H440" r:id="rId1904" xr:uid="{26ED5A42-DEB9-46E2-94CD-282AAB88F60A}"/>
+    <hyperlink ref="I440" r:id="rId1905" xr:uid="{1442F7DA-E0CC-4A5B-8737-7D5E1A01C117}"/>
+    <hyperlink ref="J440" r:id="rId1906" xr:uid="{DF55A6D3-576B-48D2-9AE2-45E711EE0862}"/>
+    <hyperlink ref="F441" r:id="rId1907" xr:uid="{71EC985A-D1DC-43AE-8F25-25893FD1CEF7}"/>
+    <hyperlink ref="G441" r:id="rId1908" xr:uid="{1BF19984-9D83-4A9F-B94C-D6A5A2025107}"/>
+    <hyperlink ref="H441" r:id="rId1909" xr:uid="{0AEB853D-FD15-4280-826A-E63041CD78CF}"/>
+    <hyperlink ref="I441" r:id="rId1910" xr:uid="{3D795B83-B006-4B2B-AC63-DA1B76FA5EC6}"/>
+    <hyperlink ref="J441" r:id="rId1911" xr:uid="{7DC6F407-8270-4FC4-99BD-E3ED4298769F}"/>
+    <hyperlink ref="F442" r:id="rId1912" xr:uid="{18E50C24-2327-45E4-A9FD-56324F2AADA0}"/>
+    <hyperlink ref="G442" r:id="rId1913" xr:uid="{027E086C-10A9-4C65-B4D7-4C0C56BC5C7E}"/>
+    <hyperlink ref="H442" r:id="rId1914" xr:uid="{52319DF2-38D5-4ED8-ABF1-AA45602B564F}"/>
+    <hyperlink ref="I442" r:id="rId1915" xr:uid="{8B27EDAA-B5F7-427C-919E-4CA78CF0FCAA}"/>
+    <hyperlink ref="J442" r:id="rId1916" xr:uid="{BB5F2B57-1AE9-470E-B136-E59D909C76DD}"/>
+    <hyperlink ref="F443" r:id="rId1917" xr:uid="{2E40D98F-47BB-4B88-8BFF-4326F46E988E}"/>
+    <hyperlink ref="G443" r:id="rId1918" xr:uid="{3C4BFF9D-4465-48B8-B235-924C285F4D4B}"/>
+    <hyperlink ref="H443" r:id="rId1919" xr:uid="{E4580200-B574-4B84-87B3-90101829A10D}"/>
+    <hyperlink ref="I443" r:id="rId1920" xr:uid="{1BE67E55-7E05-486F-97AF-3A916BA89773}"/>
+    <hyperlink ref="J443" r:id="rId1921" xr:uid="{859684A9-B3D1-4E4A-B3BF-60C3BA837AF3}"/>
+    <hyperlink ref="F444" r:id="rId1922" xr:uid="{382A25EA-392B-484E-B697-EB7054524A6B}"/>
+    <hyperlink ref="G444" r:id="rId1923" xr:uid="{57D7506C-DD24-42A1-B096-8EE62D10AC2E}"/>
+    <hyperlink ref="H444" r:id="rId1924" xr:uid="{814E8E55-F686-4533-8A08-061EE38188BB}"/>
+    <hyperlink ref="I444" r:id="rId1925" xr:uid="{77F3B18A-6B43-401C-9ECD-7D4BC758F560}"/>
+    <hyperlink ref="J444" r:id="rId1926" xr:uid="{78C76842-0F34-4707-BFAC-0A30AA6D0108}"/>
+    <hyperlink ref="F445" r:id="rId1927" xr:uid="{B6E36E1D-A659-46C9-BC24-AB8CBD45C600}"/>
+    <hyperlink ref="G445" r:id="rId1928" xr:uid="{53DA4D03-3114-4BBC-92F0-83FBF5AE67C6}"/>
+    <hyperlink ref="H445" r:id="rId1929" xr:uid="{0329FB7E-09AE-4C43-923D-EB409A150E5F}"/>
+    <hyperlink ref="I445" r:id="rId1930" xr:uid="{6BDC033A-E302-4DFA-A30D-6E8A34ECBB07}"/>
+    <hyperlink ref="J445" r:id="rId1931" xr:uid="{CFA32CB4-51C8-4A38-A527-D876B7F25835}"/>
+    <hyperlink ref="F446" r:id="rId1932" xr:uid="{D1D8C4CE-DA3B-4238-8004-C4790995C1F9}"/>
+    <hyperlink ref="G446" r:id="rId1933" xr:uid="{BF17566A-73BE-445B-A41C-96199F9DD66A}"/>
+    <hyperlink ref="H446" r:id="rId1934" xr:uid="{2182DCF8-B526-4663-B94D-D1BFE0BCB9C6}"/>
+    <hyperlink ref="I446" r:id="rId1935" xr:uid="{2CF5F9F5-15A7-4AD0-934E-BCEFBBBEC9DC}"/>
+    <hyperlink ref="J446" r:id="rId1936" xr:uid="{A1F195E6-2064-4858-A35D-B47946788E68}"/>
+    <hyperlink ref="F447" r:id="rId1937" xr:uid="{B6FB3DA5-84E4-47FA-B921-BB724D24429E}"/>
+    <hyperlink ref="G447" r:id="rId1938" xr:uid="{C8E24A6E-720C-41AE-9989-0BC16E9F9503}"/>
+    <hyperlink ref="H447" r:id="rId1939" xr:uid="{7E946646-2A32-49A8-BA92-AE0AE155C270}"/>
+    <hyperlink ref="I447" r:id="rId1940" xr:uid="{80A39ABA-161C-4456-A827-85A065A74DD5}"/>
+    <hyperlink ref="J447" r:id="rId1941" xr:uid="{78B86823-FE4D-4058-A3CB-A788C4D4FD39}"/>
+    <hyperlink ref="F448" r:id="rId1942" xr:uid="{B33CB5B6-FC63-4185-9680-8FD00072DF68}"/>
+    <hyperlink ref="G448" r:id="rId1943" xr:uid="{A6BE8145-84A6-4F5C-8406-F5988905C833}"/>
+    <hyperlink ref="H448" r:id="rId1944" xr:uid="{11A573EA-5E06-411D-B5FF-487CA0FA8A57}"/>
+    <hyperlink ref="I448" r:id="rId1945" xr:uid="{78233EC1-459C-4A2F-A7F8-A2113758CA98}"/>
+    <hyperlink ref="J448" r:id="rId1946" xr:uid="{5DBD8B4F-05A7-44C7-AB8E-D97340C0E8D3}"/>
+    <hyperlink ref="F449" r:id="rId1947" xr:uid="{CDBAB791-8B3B-49A0-95E7-9774B7C6F413}"/>
+    <hyperlink ref="G449" r:id="rId1948" xr:uid="{F4B8505D-1A7C-4C20-A87F-5AEE36F3FBDF}"/>
+    <hyperlink ref="H449" r:id="rId1949" xr:uid="{49EBBB23-9FA9-429F-B5E7-587B85499EBA}"/>
+    <hyperlink ref="I449" r:id="rId1950" xr:uid="{7FC35A34-0300-4CF2-A8E6-D3EA6FD38CDE}"/>
+    <hyperlink ref="J449" r:id="rId1951" xr:uid="{8BF24147-8600-4C5B-950B-F13881B9ED3C}"/>
+    <hyperlink ref="F450" r:id="rId1952" xr:uid="{A7D0A39F-2999-4212-A257-71A4218CE607}"/>
+    <hyperlink ref="G450" r:id="rId1953" xr:uid="{D0B8B091-7F7B-41B8-AC72-46D6DE74DD34}"/>
+    <hyperlink ref="H450" r:id="rId1954" xr:uid="{B520407F-FC4B-4A8D-9275-65D3EACADFFF}"/>
+    <hyperlink ref="I450" r:id="rId1955" xr:uid="{A0BFDFD7-1F0A-40DD-A461-6DAE43870872}"/>
+    <hyperlink ref="J450" r:id="rId1956" xr:uid="{FFEFE253-57A2-4C4C-B18F-2561FB7C9ABA}"/>
+    <hyperlink ref="F451" r:id="rId1957" xr:uid="{57FA4F81-365A-4EAB-90E3-5B7F797DBE14}"/>
+    <hyperlink ref="G451" r:id="rId1958" xr:uid="{8F3D9B5E-3E9D-4EB5-B880-32E4DAD0995D}"/>
+    <hyperlink ref="H451" r:id="rId1959" xr:uid="{A4ABAF5B-EAD1-43A3-8CAA-357537FFE97D}"/>
+    <hyperlink ref="I451" r:id="rId1960" xr:uid="{1D999991-3BEC-4E05-A671-1E9F91C812E5}"/>
+    <hyperlink ref="J451" r:id="rId1961" xr:uid="{C38718AD-BB7F-4FD0-BC67-81F040CBF468}"/>
+    <hyperlink ref="F452" r:id="rId1962" xr:uid="{B1BBAEA9-3812-416D-944E-E03C5B57BD46}"/>
+    <hyperlink ref="G452" r:id="rId1963" xr:uid="{37DA782F-B719-47D3-9DC6-F01CA366154B}"/>
+    <hyperlink ref="H452" r:id="rId1964" xr:uid="{A34EAE50-D615-4BC2-97AE-1CE5950EFA88}"/>
+    <hyperlink ref="I452" r:id="rId1965" xr:uid="{111DDF8D-EEE8-4FAD-B972-2B6524D87C0B}"/>
+    <hyperlink ref="J452" r:id="rId1966" xr:uid="{9997A58D-C86C-4A78-9D33-2054034A8075}"/>
+    <hyperlink ref="F453" r:id="rId1967" xr:uid="{1CFEFE20-BB19-4DA9-9D57-BED867C61134}"/>
+    <hyperlink ref="G453" r:id="rId1968" xr:uid="{02AF27C4-97CD-4CC9-80B0-115FB34F1C72}"/>
+    <hyperlink ref="H453" r:id="rId1969" xr:uid="{CC425C9A-D6CB-4A7F-A72F-A212E84049F7}"/>
+    <hyperlink ref="I453" r:id="rId1970" xr:uid="{1E0957D1-26DE-4D8E-8275-F7D2A3685DFE}"/>
+    <hyperlink ref="J453" r:id="rId1971" xr:uid="{C78992CC-C59B-4B04-9D11-044F96E8AAA4}"/>
+    <hyperlink ref="F454" r:id="rId1972" xr:uid="{4C9B8BB8-A914-46D6-9D7B-1BBA46C36173}"/>
+    <hyperlink ref="G454" r:id="rId1973" xr:uid="{9D774ECB-B000-445E-AA67-BECD3DF39DF6}"/>
+    <hyperlink ref="H454" r:id="rId1974" xr:uid="{E5AF9E63-6756-4456-9C2D-E30DAB9C73B1}"/>
+    <hyperlink ref="I454" r:id="rId1975" xr:uid="{500F83F7-F8F5-471E-AE29-946CFB751722}"/>
+    <hyperlink ref="J454" r:id="rId1976" xr:uid="{74A7FC56-60E5-4A1F-832B-A7AE6F627B22}"/>
+    <hyperlink ref="F455" r:id="rId1977" xr:uid="{B8F32F2F-5D6C-456A-9A36-4D32E366F8DD}"/>
+    <hyperlink ref="G455" r:id="rId1978" xr:uid="{9B27932B-F06F-4556-B616-155B14D9049E}"/>
+    <hyperlink ref="H455" r:id="rId1979" xr:uid="{BEB4F958-C18A-48F0-B36E-1E896413FD6E}"/>
+    <hyperlink ref="I455" r:id="rId1980" xr:uid="{A88480E0-5EF4-4081-B169-997E4CB1276B}"/>
+    <hyperlink ref="J455" r:id="rId1981" xr:uid="{1122D993-87FB-4506-9A99-9236BA745240}"/>
+    <hyperlink ref="F456" r:id="rId1982" xr:uid="{A81AD647-DA5B-470C-A5C6-19DBD1688C93}"/>
+    <hyperlink ref="G456" r:id="rId1983" xr:uid="{56663EC3-E635-4292-B04E-0B4E5D675678}"/>
+    <hyperlink ref="H456" r:id="rId1984" xr:uid="{7AC58156-08DF-4EED-AFD4-AD87D1051B17}"/>
+    <hyperlink ref="I456" r:id="rId1985" xr:uid="{37191A01-495D-48C8-BBD9-23D3DD555599}"/>
+    <hyperlink ref="J456" r:id="rId1986" xr:uid="{828B0652-2D09-4A3A-B43B-EB5FC0B1B962}"/>
+    <hyperlink ref="F457" r:id="rId1987" xr:uid="{54C7859C-5585-4622-BEC0-CB008DFACC1E}"/>
+    <hyperlink ref="G457" r:id="rId1988" xr:uid="{864FA3CB-E003-47C6-A0DC-2E2B9C42128F}"/>
+    <hyperlink ref="H457" r:id="rId1989" xr:uid="{EB4FE7BC-1107-43C2-A2FC-CEE946489629}"/>
+    <hyperlink ref="I457" r:id="rId1990" xr:uid="{BFD612ED-C3CB-4426-8258-DB9CF27D108A}"/>
+    <hyperlink ref="J457" r:id="rId1991" xr:uid="{77B4D327-6A0E-45A4-842E-83707D1BED14}"/>
+    <hyperlink ref="F458" r:id="rId1992" xr:uid="{E08AD768-E384-4048-AC49-59AA4685529D}"/>
+    <hyperlink ref="G458" r:id="rId1993" xr:uid="{B8252A42-6E54-40E0-883C-95081B4B17E5}"/>
+    <hyperlink ref="H458" r:id="rId1994" xr:uid="{645FD253-A468-4A4F-8F97-82C53ACC9FDB}"/>
+    <hyperlink ref="I458" r:id="rId1995" xr:uid="{6638FF35-6076-48EA-BF5E-6090A280B2EF}"/>
+    <hyperlink ref="J458" r:id="rId1996" xr:uid="{8611B5D7-8CC2-4282-B4FB-B336C4F8807F}"/>
+    <hyperlink ref="F459" r:id="rId1997" xr:uid="{12708CC2-0BEE-4CBC-A8BE-887071AA1069}"/>
+    <hyperlink ref="G459" r:id="rId1998" xr:uid="{B6AF8A50-D4D8-494C-8FD2-7539638974FD}"/>
+    <hyperlink ref="H459" r:id="rId1999" xr:uid="{A96A122E-6923-4BC4-A18E-5F1FBCCD7152}"/>
+    <hyperlink ref="I459" r:id="rId2000" xr:uid="{C9B6B9F9-7A50-43D6-A6E1-1DDA2F1D1495}"/>
+    <hyperlink ref="J459" r:id="rId2001" xr:uid="{0076F424-057A-401B-AB09-6636C770620F}"/>
+    <hyperlink ref="F460" r:id="rId2002" xr:uid="{4D8CB8A8-D10C-4CD0-958D-44F08AEBB22E}"/>
+    <hyperlink ref="G460" r:id="rId2003" xr:uid="{5AFEB094-8F54-4CAE-9E97-CDF366F5CAD1}"/>
+    <hyperlink ref="H460" r:id="rId2004" xr:uid="{7A12436B-618C-4B03-8EA2-33C44DA1BC58}"/>
+    <hyperlink ref="I460" r:id="rId2005" xr:uid="{246848A1-A9C3-470A-BFB7-E02C4AC05586}"/>
+    <hyperlink ref="J460" r:id="rId2006" xr:uid="{CD4A6CED-3A72-4C63-AD21-ADC88A32EA67}"/>
+    <hyperlink ref="F461" r:id="rId2007" location="google_vignette" xr:uid="{5B640C5D-767F-46CA-8FFE-11A6088CE9B4}"/>
+    <hyperlink ref="H461" r:id="rId2008" xr:uid="{1D61F6D4-8B37-4D44-96DB-A9BF28EC8363}"/>
+    <hyperlink ref="G461" r:id="rId2009" xr:uid="{7AAD0F15-3CD6-49FF-9914-E71ADB6CA1C3}"/>
+    <hyperlink ref="I461" r:id="rId2010" xr:uid="{54BBDDA1-2A29-46BC-A7F7-2AD589FE0148}"/>
+    <hyperlink ref="J461" r:id="rId2011" xr:uid="{5F74BF49-61EF-4B9C-90CD-F82D336C5ACD}"/>
+    <hyperlink ref="F462" r:id="rId2012" xr:uid="{71959127-2F5B-4D39-B5ED-56DF77BEAF73}"/>
+    <hyperlink ref="G462" r:id="rId2013" xr:uid="{98754B5E-0414-4D37-9E90-57FCBE107E30}"/>
+    <hyperlink ref="H462" r:id="rId2014" xr:uid="{7EEDD409-9F28-4B7A-A76B-D97A044A2642}"/>
+    <hyperlink ref="I462" r:id="rId2015" xr:uid="{C043AA5E-6696-4771-AE0E-76C714302D02}"/>
+    <hyperlink ref="J462" r:id="rId2016" xr:uid="{07F4F5FB-7CEC-4597-8A99-1461DF9CBF81}"/>
+    <hyperlink ref="F463" r:id="rId2017" xr:uid="{990EB787-CF80-41B6-B6AD-BE50B2283736}"/>
+    <hyperlink ref="G463" r:id="rId2018" xr:uid="{749086E6-1678-4403-8C04-045FCB354E61}"/>
+    <hyperlink ref="H463" r:id="rId2019" xr:uid="{D72BD201-0D47-4F91-B27D-F3F86D9A1255}"/>
+    <hyperlink ref="I463" r:id="rId2020" xr:uid="{0C1130D6-AD3B-4E75-8621-1B32DB22DF60}"/>
+    <hyperlink ref="J463" r:id="rId2021" xr:uid="{DFF39B8F-D431-4DAB-92D1-DFBBF165192A}"/>
+    <hyperlink ref="F464" r:id="rId2022" xr:uid="{3DF46561-06EE-48F0-89B3-354695C7208A}"/>
+    <hyperlink ref="G464" r:id="rId2023" xr:uid="{D5C74A95-D0F9-41F1-B5F3-A894A18AF22B}"/>
+    <hyperlink ref="H464" r:id="rId2024" xr:uid="{50F73C6D-C9AE-43AF-B948-4D71CBE73F00}"/>
+    <hyperlink ref="I464" r:id="rId2025" xr:uid="{DEE4FED1-87AB-4BDE-990C-CA9A1BFBF40C}"/>
+    <hyperlink ref="J464" r:id="rId2026" xr:uid="{459D9F8A-0490-4076-A099-6D3A5CDF59E3}"/>
+    <hyperlink ref="F465" r:id="rId2027" xr:uid="{6EA67BBB-D7D7-459C-AB67-CCF3714A87DC}"/>
+    <hyperlink ref="G465" r:id="rId2028" xr:uid="{0EED22D0-6FA6-4B41-AC04-76313B5D585A}"/>
+    <hyperlink ref="H465" r:id="rId2029" xr:uid="{052B2A8C-6D6D-464C-8BD4-BB283AA479F7}"/>
+    <hyperlink ref="I465" r:id="rId2030" xr:uid="{64EA8265-1D11-4E96-AA2A-D8547C49C8EF}"/>
+    <hyperlink ref="J465" r:id="rId2031" xr:uid="{7323C4C1-F832-4504-9BEA-D4240EEA12BD}"/>
+    <hyperlink ref="F466" r:id="rId2032" xr:uid="{84080D60-71B5-44F8-A922-5C09A5D331A4}"/>
+    <hyperlink ref="G466" r:id="rId2033" xr:uid="{3F66F4A6-BCFD-41ED-AEF6-7ED7C9FE6034}"/>
+    <hyperlink ref="H466" r:id="rId2034" xr:uid="{B7D6A1D1-81E1-487A-82CB-953E46EB58DA}"/>
+    <hyperlink ref="I466" r:id="rId2035" xr:uid="{CE6556C5-AEBA-44A9-AAA1-73164C58FCDF}"/>
+    <hyperlink ref="J466" r:id="rId2036" xr:uid="{13939D19-B5E5-45CE-93F8-786F575B8471}"/>
+    <hyperlink ref="F467" r:id="rId2037" xr:uid="{78EBA2DE-50B3-4ED1-8FA8-848DD4B12D3B}"/>
+    <hyperlink ref="G467" r:id="rId2038" xr:uid="{9EA236A7-8B02-41A7-887F-0E7FE992A199}"/>
+    <hyperlink ref="H467" r:id="rId2039" xr:uid="{258DA761-9EA7-4535-8328-6008D86CFEDA}"/>
+    <hyperlink ref="I467" r:id="rId2040" xr:uid="{27C1364D-2F29-49EE-95EF-1937244C6A95}"/>
+    <hyperlink ref="J467" r:id="rId2041" xr:uid="{1CCAC1F0-72BC-4CB9-B152-5AEC129B6231}"/>
+    <hyperlink ref="F468" r:id="rId2042" xr:uid="{6C395DC3-A2C1-42E2-9741-DD2626DAB568}"/>
+    <hyperlink ref="G468" r:id="rId2043" xr:uid="{CB5F4B95-E8A0-418E-876E-0F40B2D7B08D}"/>
+    <hyperlink ref="H468" r:id="rId2044" xr:uid="{0E3BA13D-EFC0-4A6F-A44E-F2ABF1AAA1DE}"/>
+    <hyperlink ref="I468" r:id="rId2045" xr:uid="{E7806588-2841-427F-86E9-D453DE75F9E7}"/>
+    <hyperlink ref="J468" r:id="rId2046" xr:uid="{190D82BF-CA0E-428F-BC3D-3710C1B4CCE1}"/>
+    <hyperlink ref="F469" r:id="rId2047" xr:uid="{A1AF3E08-9D14-4E03-930F-CC8599544017}"/>
+    <hyperlink ref="G469" r:id="rId2048" xr:uid="{9ED75F58-E1FD-4056-BDEB-172A3F4BB5EE}"/>
+    <hyperlink ref="H469" r:id="rId2049" xr:uid="{D6ED0CB9-2B78-42BC-9DE5-EF36B624F7C7}"/>
+    <hyperlink ref="I469" r:id="rId2050" xr:uid="{91885420-6B2F-4199-813B-AECCADBE6ACA}"/>
+    <hyperlink ref="J469" r:id="rId2051" xr:uid="{729E6BD3-A4BE-4649-8E8E-87D15EDB1B8C}"/>
+    <hyperlink ref="F470" r:id="rId2052" xr:uid="{C60B4731-CB88-4983-9D79-E92C7D20ACB1}"/>
+    <hyperlink ref="G470" r:id="rId2053" xr:uid="{B45676ED-63AD-457B-BCCD-72A81AD72D5B}"/>
+    <hyperlink ref="H470" r:id="rId2054" xr:uid="{F4D89F2A-CF06-4FDC-8017-E1FDB389A0B2}"/>
+    <hyperlink ref="I470" r:id="rId2055" xr:uid="{DF42659E-0B8B-426C-B9F5-DD0ED3540B8B}"/>
+    <hyperlink ref="J470" r:id="rId2056" xr:uid="{7C812447-D3EA-4BA3-B0FD-20A45D7A558D}"/>
+    <hyperlink ref="F471" r:id="rId2057" xr:uid="{08706C64-DAAB-43A1-91BF-697CA8EFFDA8}"/>
+    <hyperlink ref="G471" r:id="rId2058" xr:uid="{B3EFA31A-B5C6-4D24-A698-386399CD6FFB}"/>
+    <hyperlink ref="H471" r:id="rId2059" xr:uid="{B94D7D2E-D1C7-4933-B9EA-2440135E5BA2}"/>
+    <hyperlink ref="I471" r:id="rId2060" xr:uid="{C03DF51D-162C-425D-BBB2-1D64AE2EC746}"/>
+    <hyperlink ref="J471" r:id="rId2061" xr:uid="{72B60722-53EC-49B6-BC87-86C219A0D18B}"/>
+    <hyperlink ref="F472" r:id="rId2062" xr:uid="{B0DD711A-E7D7-4A1D-87D0-7EBF06414ED3}"/>
+    <hyperlink ref="G472" r:id="rId2063" xr:uid="{6BD5B6D5-8D5D-45BD-9F4C-48680F28FEF5}"/>
+    <hyperlink ref="H472" r:id="rId2064" xr:uid="{416B52FF-4536-40F4-BB31-6BEAABA13EB7}"/>
+    <hyperlink ref="I472" r:id="rId2065" xr:uid="{A2D4634F-B8FD-455A-9687-1BB8E99D8523}"/>
+    <hyperlink ref="J472" r:id="rId2066" xr:uid="{3A79B941-E5AF-47C7-8C85-AE70CA60362C}"/>
+    <hyperlink ref="F473" r:id="rId2067" xr:uid="{A5F4E782-8DD4-4239-A27D-7A7011845900}"/>
+    <hyperlink ref="G473" r:id="rId2068" xr:uid="{8DD44027-22CA-43A6-BF63-6A7472149FA3}"/>
+    <hyperlink ref="H473" r:id="rId2069" xr:uid="{993E89C6-D5CC-4ED2-9ED1-93118FEDF15C}"/>
+    <hyperlink ref="I473" r:id="rId2070" xr:uid="{F8C6CABA-F3B7-4F3A-8D64-E9AFCAD5207E}"/>
+    <hyperlink ref="J473" r:id="rId2071" xr:uid="{EDC4C5E1-0E98-45F0-BB4B-3B1610DED537}"/>
+    <hyperlink ref="F474" r:id="rId2072" xr:uid="{897EE689-2E21-4872-9240-08D8F5541979}"/>
+    <hyperlink ref="G474" r:id="rId2073" xr:uid="{60DE3FF8-2C2D-4B81-9CE3-3EC7DDBD354B}"/>
+    <hyperlink ref="H474" r:id="rId2074" xr:uid="{56B48406-00C0-4933-A9E5-C92870129611}"/>
+    <hyperlink ref="I474" r:id="rId2075" xr:uid="{ECB0C79A-CF58-43BD-BEB7-6C8D81623585}"/>
+    <hyperlink ref="J474" r:id="rId2076" xr:uid="{ABAA12B9-6BF2-46F8-8022-AC280DB03C84}"/>
+    <hyperlink ref="F475" r:id="rId2077" xr:uid="{5FF0268F-EEC1-4E4E-8E97-2E6FA459F79F}"/>
+    <hyperlink ref="G475" r:id="rId2078" xr:uid="{D2FB6E3A-C372-49F4-B143-03BB8389556B}"/>
+    <hyperlink ref="H475" r:id="rId2079" xr:uid="{317B1526-86F2-4FF7-B8F8-35D1B47FB166}"/>
+    <hyperlink ref="I475" r:id="rId2080" xr:uid="{175C2EB0-2BEE-424E-891D-706CB522F9E9}"/>
+    <hyperlink ref="J475" r:id="rId2081" xr:uid="{CD142717-76E7-4E5C-B35E-930019EDF847}"/>
+    <hyperlink ref="F476" r:id="rId2082" xr:uid="{F7A536D4-2E13-4220-99F5-CE0ED7A6E306}"/>
+    <hyperlink ref="G476" r:id="rId2083" xr:uid="{0A3508C5-4F7A-42B6-BED6-AA421D45ED44}"/>
+    <hyperlink ref="H476" r:id="rId2084" xr:uid="{738AAA13-52EA-4C41-8023-67021369ED16}"/>
+    <hyperlink ref="I476" r:id="rId2085" xr:uid="{45F26C81-9C45-4E2A-BBBF-11A769293DC6}"/>
+    <hyperlink ref="J476" r:id="rId2086" xr:uid="{5DD4EBB4-4093-4B36-AC93-8201A1B2DD40}"/>
+    <hyperlink ref="F477" r:id="rId2087" xr:uid="{544561EF-4CC4-4FAF-9C12-5C47EF030C7F}"/>
+    <hyperlink ref="G477" r:id="rId2088" xr:uid="{0ADC751A-FB5C-4193-A035-271DB7FB74C5}"/>
+    <hyperlink ref="H477" r:id="rId2089" xr:uid="{2ED18F59-6958-4B05-944B-433A9E2F5F7E}"/>
+    <hyperlink ref="I477" r:id="rId2090" xr:uid="{EAF8A99D-3216-48DB-980E-BE6D2AB3D979}"/>
+    <hyperlink ref="J477" r:id="rId2091" xr:uid="{68EA95E7-BC40-4153-B66D-D4E10523E939}"/>
+    <hyperlink ref="F478" r:id="rId2092" xr:uid="{3979B7A1-2770-4E9D-BF4B-EFE4BBC50E7E}"/>
+    <hyperlink ref="G478" r:id="rId2093" xr:uid="{47875D93-6F6D-4F8B-860D-4FC6DF915FF3}"/>
+    <hyperlink ref="H478" r:id="rId2094" xr:uid="{5F7220BB-7A62-4880-889F-492561F2896D}"/>
+    <hyperlink ref="I478" r:id="rId2095" xr:uid="{CE1B721A-5B61-450F-9D90-405FCFD6F836}"/>
+    <hyperlink ref="J478" r:id="rId2096" xr:uid="{F1375085-7380-49AF-B4D1-3261B7C0E79A}"/>
+    <hyperlink ref="F479" r:id="rId2097" xr:uid="{984DA139-DC2E-476D-9824-8AD8D41BD333}"/>
+    <hyperlink ref="G479" r:id="rId2098" xr:uid="{9EC33D5F-FDA5-46B7-96D3-F25796361D36}"/>
+    <hyperlink ref="H479" r:id="rId2099" xr:uid="{440D71F7-572A-4FFF-9C04-2D2EAE43D627}"/>
+    <hyperlink ref="I479" r:id="rId2100" xr:uid="{207E74EE-9510-464E-A47D-74E560AFC56F}"/>
+    <hyperlink ref="J479" r:id="rId2101" xr:uid="{E5A6252D-5F60-46E9-9796-BC65315E3551}"/>
+    <hyperlink ref="F480" r:id="rId2102" xr:uid="{6415335D-9FFA-4AA5-AD9B-3B6EEB240FCA}"/>
+    <hyperlink ref="G480" r:id="rId2103" xr:uid="{8FAB2A64-6599-41B8-B092-4CA2685DFD38}"/>
+    <hyperlink ref="H480" r:id="rId2104" xr:uid="{6C89C4D3-DBDB-405B-B45A-C109EBD53F5F}"/>
+    <hyperlink ref="I480" r:id="rId2105" xr:uid="{075CC0DA-760B-4563-854D-99FFAC4F6017}"/>
+    <hyperlink ref="J480" r:id="rId2106" xr:uid="{1515CDED-68FC-4E63-97C8-64745B308716}"/>
+    <hyperlink ref="F481" r:id="rId2107" xr:uid="{00F02A2B-DB14-4880-BE42-AA30906979D4}"/>
+    <hyperlink ref="G481" r:id="rId2108" xr:uid="{EBB4FF94-471A-4912-B128-759C54C8F411}"/>
+    <hyperlink ref="H481" r:id="rId2109" xr:uid="{01C9A4C8-484D-4B32-A218-656171809CAB}"/>
+    <hyperlink ref="I481" r:id="rId2110" xr:uid="{2C0FB3F7-A6E8-47C2-B1BA-60CE59A44653}"/>
+    <hyperlink ref="J481" r:id="rId2111" xr:uid="{4AA8C70C-3FC7-4A17-A57D-82B682A006EB}"/>
+    <hyperlink ref="F482" r:id="rId2112" xr:uid="{EDF28BC5-3E8F-44EA-914F-E18CFD8E020B}"/>
+    <hyperlink ref="G482" r:id="rId2113" xr:uid="{6DC83E0C-B623-4B2F-BF57-163733F1F486}"/>
+    <hyperlink ref="H482" r:id="rId2114" xr:uid="{4A44B0CD-246F-4C25-8843-1DA3F3097123}"/>
+    <hyperlink ref="I482" r:id="rId2115" xr:uid="{7AF33691-158E-4407-9503-4BF31EFCDBF2}"/>
+    <hyperlink ref="J482" r:id="rId2116" xr:uid="{E1720CA3-FBF8-4580-8CF0-6341678071D0}"/>
+    <hyperlink ref="F483" r:id="rId2117" xr:uid="{00A7C165-D3EA-4EF7-9310-0557B808C97C}"/>
+    <hyperlink ref="G483" r:id="rId2118" xr:uid="{9CF01243-6E79-4313-B5F8-020B38EF2BA9}"/>
+    <hyperlink ref="H483" r:id="rId2119" xr:uid="{DD006880-A8EB-42AA-98B9-6764AFFD3AE2}"/>
+    <hyperlink ref="I483" r:id="rId2120" xr:uid="{49018521-8182-44EB-A8C6-A0AE8C1A8B06}"/>
+    <hyperlink ref="J483" r:id="rId2121" xr:uid="{8A823BEB-4E67-48EF-815C-25CA05A69E5A}"/>
+    <hyperlink ref="F484" r:id="rId2122" xr:uid="{D91B242E-AC7C-4E59-BBC1-6484C17C44CA}"/>
+    <hyperlink ref="G484" r:id="rId2123" xr:uid="{8E2593F5-754D-471B-96DB-8BE57D033C03}"/>
+    <hyperlink ref="H484" r:id="rId2124" xr:uid="{C3B40EC3-8FAF-478B-B64E-4848FAC1ED7D}"/>
+    <hyperlink ref="I484" r:id="rId2125" xr:uid="{692AB5C6-BEA9-474E-9747-E3209965CDB0}"/>
+    <hyperlink ref="J484" r:id="rId2126" xr:uid="{27B77150-4D01-4C26-ADEC-DBC7941B7AF8}"/>
+    <hyperlink ref="F485" r:id="rId2127" xr:uid="{53A8DDB3-38EB-4920-B9A4-913C197B8A16}"/>
+    <hyperlink ref="G485" r:id="rId2128" xr:uid="{D7C668EB-1580-44BE-BC00-E145FC6A4460}"/>
+    <hyperlink ref="H485" r:id="rId2129" xr:uid="{5F426CA9-F38C-441C-BCC4-76B7E4233C05}"/>
+    <hyperlink ref="I485" r:id="rId2130" xr:uid="{1B1F2763-CA63-4D07-8A52-40D59CCB8A67}"/>
+    <hyperlink ref="J485" r:id="rId2131" xr:uid="{70760CA1-D6B0-484E-A877-2E2739C0C775}"/>
+    <hyperlink ref="F486" r:id="rId2132" xr:uid="{35FEE03E-F9DE-4A2B-8D2C-26539DF31392}"/>
+    <hyperlink ref="G486" r:id="rId2133" xr:uid="{4A9CB080-A54E-4EFE-A6E6-B0E17A862829}"/>
+    <hyperlink ref="H486" r:id="rId2134" xr:uid="{67B4E21F-A0E8-44DC-A431-BCA533B5F96D}"/>
+    <hyperlink ref="G487" r:id="rId2135" xr:uid="{FF81F20C-8DAF-4301-BDBB-5C3D3F139D55}"/>
+    <hyperlink ref="H487" r:id="rId2136" xr:uid="{20A50D7F-0E1D-4214-BC9F-54DF4FE61525}"/>
+    <hyperlink ref="I487" r:id="rId2137" xr:uid="{69095DFB-095F-4978-93AB-D13A34862560}"/>
+    <hyperlink ref="J487" r:id="rId2138" xr:uid="{2B05B3A8-8E2A-46A1-8489-E79CB02E0DF4}"/>
+    <hyperlink ref="F488" r:id="rId2139" xr:uid="{D9C36AD9-8FE3-4C70-98CA-FE0AA30D0300}"/>
+    <hyperlink ref="G488" r:id="rId2140" xr:uid="{76A50466-6081-4401-858B-1E6EFC147FD6}"/>
+    <hyperlink ref="H488" r:id="rId2141" xr:uid="{F196B795-A268-4564-BEBF-DD39A6C7EB5E}"/>
+    <hyperlink ref="I488" r:id="rId2142" xr:uid="{247370E1-2CBD-4E8F-A4C1-521FAD02070F}"/>
+    <hyperlink ref="J488" r:id="rId2143" xr:uid="{21785800-34F4-4C6A-B581-493C6FAF98D4}"/>
+    <hyperlink ref="F489" r:id="rId2144" xr:uid="{47754D08-1CBB-4BD4-9FA7-9290B0668462}"/>
+    <hyperlink ref="G489" r:id="rId2145" xr:uid="{36A89A03-4828-4953-A1C5-3A34AC8CD8FC}"/>
+    <hyperlink ref="H489" r:id="rId2146" xr:uid="{C031E0F5-E8AA-496C-8648-8BBDE2585661}"/>
+    <hyperlink ref="I489" r:id="rId2147" xr:uid="{0A94EADD-B0C9-42B4-92C0-683EF109E281}"/>
+    <hyperlink ref="J489" r:id="rId2148" xr:uid="{55BE9EB3-4A5E-4F9F-866B-4A2C5B64AFEA}"/>
+    <hyperlink ref="F490" r:id="rId2149" xr:uid="{9F0BAF9A-3D28-4DF3-90E7-1B22F6B77C3A}"/>
+    <hyperlink ref="G490" r:id="rId2150" xr:uid="{80028FA5-A101-416F-84EA-8843B7A3A9C5}"/>
+    <hyperlink ref="H490" r:id="rId2151" xr:uid="{7D6F7954-A400-49FF-A879-C106DFC053C3}"/>
+    <hyperlink ref="I490" r:id="rId2152" xr:uid="{402996D2-A97F-4BE5-A9AD-052E57B18D7E}"/>
+    <hyperlink ref="J490" r:id="rId2153" xr:uid="{9ECB667C-4A50-416E-BD50-A51106749E8E}"/>
+    <hyperlink ref="F491" r:id="rId2154" xr:uid="{CECD8A92-1ED7-41B0-8F3B-BF1A671B8D2B}"/>
+    <hyperlink ref="G491" r:id="rId2155" xr:uid="{AC435519-B0FB-45B1-820C-539BDCB84859}"/>
+    <hyperlink ref="H491" r:id="rId2156" xr:uid="{A66D5B06-584C-4589-A041-52DF34ACD606}"/>
+    <hyperlink ref="I491" r:id="rId2157" xr:uid="{7A70B277-08E4-48D8-97B8-277FD9E2535C}"/>
+    <hyperlink ref="J491" r:id="rId2158" xr:uid="{5082FFE7-AE26-4C15-8316-C6E9DD851BCE}"/>
+    <hyperlink ref="F492" r:id="rId2159" xr:uid="{EE691F27-C408-4075-A1CE-79690AE70FE8}"/>
+    <hyperlink ref="G492" r:id="rId2160" xr:uid="{6114E52D-CAF2-4A64-8213-89AADB1DFA80}"/>
+    <hyperlink ref="H492" r:id="rId2161" xr:uid="{89969A62-A1FA-447D-B0CE-57560AE54B15}"/>
+    <hyperlink ref="I492" r:id="rId2162" xr:uid="{BE80A0E9-6D16-4631-85F0-DB689C945ED1}"/>
+    <hyperlink ref="J492" r:id="rId2163" xr:uid="{2CC509EA-0322-4B71-85DB-300504CBA347}"/>
+    <hyperlink ref="F493" r:id="rId2164" xr:uid="{B8046201-5B33-4375-B459-F5BB4F29664D}"/>
+    <hyperlink ref="G493" r:id="rId2165" xr:uid="{680FF448-BCA0-4A78-B78E-7CE5169F13E4}"/>
+    <hyperlink ref="H493" r:id="rId2166" xr:uid="{4A2AF3EA-3A63-4A6D-BA99-0892F095C426}"/>
+    <hyperlink ref="I493" r:id="rId2167" xr:uid="{431ABCFF-9A63-4E9A-9D85-EAFF1278226C}"/>
+    <hyperlink ref="J493" r:id="rId2168" xr:uid="{AEC15676-08D3-4701-A1FF-285CF46D2D91}"/>
+    <hyperlink ref="F494" r:id="rId2169" xr:uid="{D0F4F21F-F451-4539-8653-26FE0A38FCB6}"/>
+    <hyperlink ref="G494" r:id="rId2170" xr:uid="{B4B87F5D-4522-4406-95D1-700E4FAA3DBF}"/>
+    <hyperlink ref="H494" r:id="rId2171" xr:uid="{060DCE52-E779-4C54-A65E-4552E6EA3D4F}"/>
+    <hyperlink ref="I494" r:id="rId2172" xr:uid="{A535055E-5331-4F94-8E41-D47515FC37C8}"/>
+    <hyperlink ref="J494" r:id="rId2173" xr:uid="{1F310C56-19A0-4576-A2E8-3C098A229CC3}"/>
+    <hyperlink ref="F495" r:id="rId2174" xr:uid="{19813A48-B2B3-43F7-9461-C554090E6D2C}"/>
+    <hyperlink ref="G495" r:id="rId2175" xr:uid="{6E87F07F-ACD5-4451-8E64-61CDC52679C3}"/>
+    <hyperlink ref="H495" r:id="rId2176" xr:uid="{C04B78FF-7206-4977-ABDB-31B113B10B2C}"/>
+    <hyperlink ref="I495" r:id="rId2177" xr:uid="{CD555452-424E-412E-B792-3B72C1B890AE}"/>
+    <hyperlink ref="J495" r:id="rId2178" xr:uid="{B373E801-BEB2-4A6E-AEAF-25C3822EAED2}"/>
+    <hyperlink ref="F496" r:id="rId2179" xr:uid="{54A9848A-4706-493A-9A20-2D3FBE9CD1AE}"/>
+    <hyperlink ref="G496" r:id="rId2180" xr:uid="{7411E4B4-869D-482A-90B3-92B8DC84F561}"/>
+    <hyperlink ref="H496" r:id="rId2181" xr:uid="{2A7E4B21-AA9E-4623-B73E-7D807115BA58}"/>
+    <hyperlink ref="I496" r:id="rId2182" xr:uid="{C782674F-3FD1-4C05-9041-CBE8B33C25E4}"/>
+    <hyperlink ref="J496" r:id="rId2183" xr:uid="{F69F3A3D-A726-4769-84EF-EB491DEB6DED}"/>
+    <hyperlink ref="F497" r:id="rId2184" xr:uid="{5F9F6D76-5C11-4720-8559-2DF494059857}"/>
+    <hyperlink ref="G497" r:id="rId2185" xr:uid="{5C17E6BD-4F1D-45DC-8D95-787BDF8B62CB}"/>
+    <hyperlink ref="H497" r:id="rId2186" xr:uid="{BEC46A48-1395-4887-8F47-56DB25608989}"/>
+    <hyperlink ref="I497" r:id="rId2187" xr:uid="{1027C0A3-84DB-4FAC-983E-A57EC781375C}"/>
+    <hyperlink ref="J497" r:id="rId2188" xr:uid="{DC847171-DC24-43B1-9BDD-09FBECBF87B3}"/>
+    <hyperlink ref="F498" r:id="rId2189" xr:uid="{4DB55BFD-4F5A-4B92-BC84-C657FD9F21D7}"/>
+    <hyperlink ref="G498" r:id="rId2190" xr:uid="{3FF0E77B-557B-4A52-89BB-3884FB17E1B3}"/>
+    <hyperlink ref="H498" r:id="rId2191" xr:uid="{742949CC-482C-4BC7-8750-5D513682023B}"/>
+    <hyperlink ref="I498" r:id="rId2192" xr:uid="{6F1EF778-9A3F-41D9-9CEA-91DBC474F6EB}"/>
+    <hyperlink ref="J498" r:id="rId2193" xr:uid="{7CAB1B62-E344-4E1E-B283-85A5DE8FFC61}"/>
+    <hyperlink ref="F499" r:id="rId2194" xr:uid="{BA743178-4C29-4135-A288-1297D96BA2BC}"/>
+    <hyperlink ref="G499" r:id="rId2195" xr:uid="{A4E66175-B41C-43E0-A341-BE02D8CBE716}"/>
+    <hyperlink ref="H499" r:id="rId2196" xr:uid="{55C07046-7426-4A8A-AF35-E380100E6D4B}"/>
+    <hyperlink ref="I499" r:id="rId2197" xr:uid="{7635C255-EF6E-40AC-8263-950E460FFB8A}"/>
+    <hyperlink ref="J499" r:id="rId2198" xr:uid="{BF1BA75D-D73D-4047-BC18-79FB5D58073C}"/>
+    <hyperlink ref="F500" r:id="rId2199" xr:uid="{A787E6D9-4547-484E-9C9E-A12739FA1FBF}"/>
+    <hyperlink ref="G500" r:id="rId2200" xr:uid="{6E9BC54B-0148-4BEB-8F5B-90C555B999D6}"/>
+    <hyperlink ref="H500" r:id="rId2201" xr:uid="{9385033E-8DCA-4B01-939D-07DB8563F1BE}"/>
+    <hyperlink ref="I500" r:id="rId2202" xr:uid="{42A84F2A-78E7-4522-9D88-F19A656C699A}"/>
+    <hyperlink ref="J500" r:id="rId2203" xr:uid="{82BA63A0-3643-4296-B4D2-AAA4BDA04C47}"/>
+    <hyperlink ref="F501" r:id="rId2204" xr:uid="{46B10201-F292-44A6-B650-B7157CAFA67D}"/>
+    <hyperlink ref="G501" r:id="rId2205" xr:uid="{C62CC2DC-B6E6-47E5-8E3B-219BA3415C6A}"/>
+    <hyperlink ref="H501" r:id="rId2206" xr:uid="{72BDAEA7-8DB8-4AD8-A9A6-33B6D8663E41}"/>
+    <hyperlink ref="I501" r:id="rId2207" xr:uid="{5DF4C117-456C-4C9D-847E-080FE330EF41}"/>
+    <hyperlink ref="J501" r:id="rId2208" xr:uid="{59FDEED9-91B1-42C7-ABB1-B094EE470CDE}"/>
+    <hyperlink ref="F502" r:id="rId2209" xr:uid="{6593C04B-2BBC-4264-AC53-C15EE7E9E409}"/>
+    <hyperlink ref="G502" r:id="rId2210" xr:uid="{7B0156DF-2AE2-454D-BFF6-71E2ADDC9F69}"/>
+    <hyperlink ref="H502" r:id="rId2211" xr:uid="{80D56BD1-DA10-48C9-83D8-D3BDD1783B9C}"/>
+    <hyperlink ref="I502" r:id="rId2212" xr:uid="{56C4575C-784E-4AA2-ACC1-F88D44162CB4}"/>
+    <hyperlink ref="J502" r:id="rId2213" xr:uid="{C33BD1D6-C250-4540-A138-35F7B25A8219}"/>
+    <hyperlink ref="F503" r:id="rId2214" xr:uid="{D68C24CD-B442-4026-9D74-9E42FE6861BA}"/>
+    <hyperlink ref="G503" r:id="rId2215" xr:uid="{0C301756-41AA-4B87-8490-45F5E957A30D}"/>
+    <hyperlink ref="H503" r:id="rId2216" xr:uid="{5A6DA67C-7369-412C-99A4-98E35F0BB942}"/>
+    <hyperlink ref="I503" r:id="rId2217" xr:uid="{7E7D92FB-CF2C-4ABE-96FE-EA4B1F19D1AF}"/>
+    <hyperlink ref="J503" r:id="rId2218" xr:uid="{1B5EA030-178D-4459-B910-7401D4259764}"/>
+    <hyperlink ref="F504" r:id="rId2219" xr:uid="{D44B1741-E220-49B8-BC56-9D762960C836}"/>
+    <hyperlink ref="G504" r:id="rId2220" xr:uid="{58958DE5-2B8F-4130-8C45-8F3B4BA0660C}"/>
+    <hyperlink ref="H504" r:id="rId2221" xr:uid="{CA5A9025-40C8-44CD-BCCB-31F01DA37037}"/>
+    <hyperlink ref="I504" r:id="rId2222" xr:uid="{B2B4F19F-44A1-408B-AA4D-A75880043173}"/>
+    <hyperlink ref="J504" r:id="rId2223" xr:uid="{5127390F-E687-4B56-90A6-EC260194072E}"/>
+    <hyperlink ref="F505" r:id="rId2224" xr:uid="{8C28C316-B716-4130-94C1-CFA712F5145D}"/>
+    <hyperlink ref="G505" r:id="rId2225" xr:uid="{24CFA43E-098F-4263-A0FE-EE4076D4D7BB}"/>
+    <hyperlink ref="H505" r:id="rId2226" xr:uid="{D9E7FCD5-C605-42D8-BB0D-E3823EB3377F}"/>
+    <hyperlink ref="I505" r:id="rId2227" xr:uid="{7BBA6F6A-8295-45AE-8A25-7890F48B5ADB}"/>
+    <hyperlink ref="J505" r:id="rId2228" xr:uid="{E7F837EB-67B2-46C6-8E77-7AFC745EC9F1}"/>
+    <hyperlink ref="F506" r:id="rId2229" xr:uid="{7B0D4001-1E3C-49E3-A962-0D3113A5ED36}"/>
+    <hyperlink ref="G506" r:id="rId2230" xr:uid="{2EE4EEE1-8283-4CDE-AD94-0FF9B499B087}"/>
+    <hyperlink ref="H506" r:id="rId2231" xr:uid="{06438CB7-B396-49B6-B483-A7F85F9E30F2}"/>
+    <hyperlink ref="I506" r:id="rId2232" xr:uid="{DF46025D-617B-4184-95C0-7B7289A3DAE2}"/>
+    <hyperlink ref="J506" r:id="rId2233" xr:uid="{F860F3BE-F7ED-4062-AB7F-C43C1F840706}"/>
+    <hyperlink ref="F507" r:id="rId2234" xr:uid="{971BC51F-0825-4502-95D7-73CA83242B09}"/>
+    <hyperlink ref="G507" r:id="rId2235" xr:uid="{9BF0D08A-C8F7-4F4C-B2F1-22405A9298A0}"/>
+    <hyperlink ref="H507" r:id="rId2236" xr:uid="{FFAA59CC-A224-40A0-86D4-E085F0BC92EE}"/>
+    <hyperlink ref="I507" r:id="rId2237" xr:uid="{3DC2A207-F023-4387-80F9-4F41E84567C4}"/>
+    <hyperlink ref="J507" r:id="rId2238" xr:uid="{D5F60A74-1209-4DC5-A8EE-C2ED5305F85F}"/>
+    <hyperlink ref="F508" r:id="rId2239" xr:uid="{FE6710B6-F709-45CD-BC5A-3FABC8920EBC}"/>
+    <hyperlink ref="G508" r:id="rId2240" xr:uid="{E5B00D78-8BD1-4341-978B-124C54E17E4B}"/>
+    <hyperlink ref="H508" r:id="rId2241" xr:uid="{3B43326E-D341-44DC-AD34-37F690485C58}"/>
+    <hyperlink ref="I508" r:id="rId2242" xr:uid="{B9600840-07C9-4384-82CE-B6BF84D7EECE}"/>
+    <hyperlink ref="J508" r:id="rId2243" xr:uid="{7EA196EC-8321-4854-A365-31AD2BA4442A}"/>
+    <hyperlink ref="F509" r:id="rId2244" xr:uid="{C7FC248F-7BE6-464F-9332-B6880A219C47}"/>
+    <hyperlink ref="G509" r:id="rId2245" xr:uid="{D03BC083-4DEC-4ECC-8FB7-142BF9B87693}"/>
+    <hyperlink ref="H509" r:id="rId2246" xr:uid="{4A98CEC3-D0E8-4131-9ECF-CAE40F137117}"/>
+    <hyperlink ref="I509" r:id="rId2247" xr:uid="{17571A54-07B7-45B2-94A0-3E1F4E0FC418}"/>
+    <hyperlink ref="J509" r:id="rId2248" xr:uid="{54FBE02C-72BD-42C8-A763-1731AFAD2366}"/>
+    <hyperlink ref="F510" r:id="rId2249" xr:uid="{2BE6E8E6-8DCC-4E94-A7AB-FAF9DCBC1E6F}"/>
+    <hyperlink ref="G510" r:id="rId2250" xr:uid="{9C9C68A5-42B1-4B3A-85C0-B13F8295E07E}"/>
+    <hyperlink ref="H510" r:id="rId2251" xr:uid="{5764B176-9BF2-4F8C-824A-C371E1BB610F}"/>
+    <hyperlink ref="I510" r:id="rId2252" xr:uid="{0593B7F3-1B2E-414D-AFCE-CCA4F1F5664E}"/>
+    <hyperlink ref="J510" r:id="rId2253" xr:uid="{2650EDAD-3635-4D8D-8FD7-90653CAE1D12}"/>
+    <hyperlink ref="F511" r:id="rId2254" xr:uid="{601A9B14-34EE-4292-ACCD-2AE5FEB8C604}"/>
+    <hyperlink ref="G511" r:id="rId2255" xr:uid="{5FE84084-E1D4-459C-9FE2-72F1CB8380C2}"/>
+    <hyperlink ref="H511" r:id="rId2256" xr:uid="{F4986AB3-9756-46BA-809F-9DFD803F4582}"/>
+    <hyperlink ref="I511" r:id="rId2257" xr:uid="{1EDE2765-1E53-47CE-9A18-747F2FE1224B}"/>
+    <hyperlink ref="J511" r:id="rId2258" xr:uid="{FD7C974E-7204-4B55-9DB8-C4205BF6D250}"/>
+    <hyperlink ref="F512" r:id="rId2259" xr:uid="{92B23051-C48A-4C20-BD5E-B6BC8C3F91A5}"/>
+    <hyperlink ref="G512" r:id="rId2260" xr:uid="{3397663C-CA74-4A64-832A-88AE535C14AA}"/>
+    <hyperlink ref="H512" r:id="rId2261" xr:uid="{0BECBBF8-B691-4196-B677-CD64E7CEB909}"/>
+    <hyperlink ref="I512" r:id="rId2262" xr:uid="{21B20541-5A6A-4820-B957-8856E0744781}"/>
+    <hyperlink ref="J512" r:id="rId2263" xr:uid="{04129760-8E20-4DE0-9056-EDEC2DAD7C5A}"/>
+    <hyperlink ref="F513" r:id="rId2264" xr:uid="{E42693B1-BE0F-4656-8A7C-C26C0FAC60F6}"/>
+    <hyperlink ref="G513" r:id="rId2265" xr:uid="{16F042E5-688F-42D9-80E2-0672C30A4F49}"/>
+    <hyperlink ref="H513" r:id="rId2266" xr:uid="{5D872479-4823-49B8-AE1F-D9C698DCE76E}"/>
+    <hyperlink ref="I513" r:id="rId2267" xr:uid="{98CBB0F7-A1E8-4DDD-8291-8771C97A3489}"/>
+    <hyperlink ref="J513" r:id="rId2268" xr:uid="{1FAEFEC6-9B74-4D96-8109-64E902F7E9E4}"/>
+    <hyperlink ref="F514" r:id="rId2269" xr:uid="{F1E3EDA6-5D01-435C-9369-1EAF4DDA4C6C}"/>
+    <hyperlink ref="G514" r:id="rId2270" xr:uid="{2A185FBD-F977-4DD3-AA47-45E9D601D417}"/>
+    <hyperlink ref="H514" r:id="rId2271" xr:uid="{D69CEDD1-4E1D-403B-B6D8-47926F68992F}"/>
+    <hyperlink ref="I514" r:id="rId2272" xr:uid="{01630D87-BE1E-4C66-AE08-8EAB6EC18D65}"/>
+    <hyperlink ref="J514" r:id="rId2273" xr:uid="{30882BE5-DE36-414D-AE3C-07752F2A9189}"/>
+    <hyperlink ref="F515" r:id="rId2274" xr:uid="{EDD9878C-A9C6-47D6-BFEB-2B9ADAF84A62}"/>
+    <hyperlink ref="G515" r:id="rId2275" xr:uid="{21FA7257-F588-450F-A29E-AA862213172E}"/>
+    <hyperlink ref="H515" r:id="rId2276" xr:uid="{A8286C1F-427B-4A45-94C6-1E8AA31C2230}"/>
+    <hyperlink ref="I515" r:id="rId2277" xr:uid="{F7292AEB-14DD-4255-9B4E-6314CD5BF922}"/>
+    <hyperlink ref="J515" r:id="rId2278" xr:uid="{C5510C50-E5CE-4DB5-9D1C-B5F733958F73}"/>
+    <hyperlink ref="F516" r:id="rId2279" xr:uid="{A83D2F5D-4F54-43D5-B5DD-A4F5110A4868}"/>
+    <hyperlink ref="G516" r:id="rId2280" xr:uid="{DD10B52D-AC5A-41A9-8E29-9483712242B8}"/>
+    <hyperlink ref="H516" r:id="rId2281" xr:uid="{4ED89866-C0E8-4782-A2C9-09DC5B44D035}"/>
+    <hyperlink ref="I516" r:id="rId2282" xr:uid="{E1C1AEC0-D66E-4B1E-A236-5484E2C7502C}"/>
+    <hyperlink ref="J516" r:id="rId2283" xr:uid="{8FA0D81C-A435-4795-84D5-ECF592CA6EFC}"/>
+    <hyperlink ref="F517" r:id="rId2284" xr:uid="{9378D577-B645-4A1C-92C5-6D989578625A}"/>
+    <hyperlink ref="G517" r:id="rId2285" xr:uid="{249DF92D-0FFD-412C-903B-13F69E1706A1}"/>
+    <hyperlink ref="H517" r:id="rId2286" xr:uid="{39C9E62F-63D0-4C5A-9B95-A25224AB1987}"/>
+    <hyperlink ref="I517" r:id="rId2287" xr:uid="{161C5817-2735-4445-8121-0CDB855704A3}"/>
+    <hyperlink ref="J517" r:id="rId2288" xr:uid="{9E51F0EE-DD7F-4E30-80F6-A59F1E79D8E3}"/>
+    <hyperlink ref="F518" r:id="rId2289" xr:uid="{5B8D9A7F-BC4F-4C91-9B85-6FFFEF988314}"/>
+    <hyperlink ref="G518" r:id="rId2290" xr:uid="{6ED0A6D2-31CA-4687-A5C1-9D464C30E4ED}"/>
+    <hyperlink ref="H518" r:id="rId2291" xr:uid="{C30FD15D-BB4B-4A25-98EC-39294E5CAF83}"/>
+    <hyperlink ref="I518" r:id="rId2292" xr:uid="{144FD0B5-577C-433E-9B33-CBDE2E319370}"/>
+    <hyperlink ref="J518" r:id="rId2293" xr:uid="{647FBAEB-EFF4-4426-86D0-2E15A465111A}"/>
+    <hyperlink ref="F519" r:id="rId2294" xr:uid="{C2355E07-7657-425C-ACBE-9D15E6AFB405}"/>
+    <hyperlink ref="G519" r:id="rId2295" xr:uid="{923249AC-2992-46B2-B7D4-5B0AE8E59E4E}"/>
+    <hyperlink ref="H519" r:id="rId2296" xr:uid="{9EFF10C3-05EB-418D-B511-BED2DB8E04EE}"/>
+    <hyperlink ref="I519" r:id="rId2297" xr:uid="{0B8B4534-4E79-44A8-A71E-7DB5A2C2566B}"/>
+    <hyperlink ref="J519" r:id="rId2298" xr:uid="{CD7EDF98-550F-46DF-BF3D-A9682BD06EDB}"/>
+    <hyperlink ref="F520" r:id="rId2299" xr:uid="{D819D4B6-6425-48B4-9DBF-7751C49E563E}"/>
+    <hyperlink ref="G520" r:id="rId2300" xr:uid="{4665DFA2-92DF-441B-8F96-6E8662A66DF5}"/>
+    <hyperlink ref="H520" r:id="rId2301" xr:uid="{F521F95A-A5AF-4237-B2D2-347C6A93F0CB}"/>
+    <hyperlink ref="I520" r:id="rId2302" xr:uid="{F9A1D07F-98F8-482D-9385-4022C7CC633F}"/>
+    <hyperlink ref="J520" r:id="rId2303" xr:uid="{D35B334C-1F88-4526-93D3-7F1BA7FDDB65}"/>
+    <hyperlink ref="F521" r:id="rId2304" xr:uid="{51F46955-DFB4-4F4E-BB29-551C694637A1}"/>
+    <hyperlink ref="G521" r:id="rId2305" xr:uid="{7337AB75-E640-4491-B437-E2D7A164124C}"/>
+    <hyperlink ref="H521" r:id="rId2306" xr:uid="{7C303CF4-8A17-4BE5-849B-C25DD32A4A29}"/>
+    <hyperlink ref="I521" r:id="rId2307" xr:uid="{3DCDEFD4-8216-48D3-99BC-52615B638D9B}"/>
+    <hyperlink ref="J521" r:id="rId2308" xr:uid="{725A6FD8-B571-45B7-BA43-78A97238B731}"/>
+    <hyperlink ref="F522" r:id="rId2309" xr:uid="{15F16334-5DE0-4B89-9474-D3C155F3AD1C}"/>
+    <hyperlink ref="G522" r:id="rId2310" xr:uid="{9EC5A6D0-562C-4A53-A3B3-ACE74093009D}"/>
+    <hyperlink ref="H522" r:id="rId2311" xr:uid="{FCF2E3F8-70F9-428B-BACA-ABD80A36B8AB}"/>
+    <hyperlink ref="I522" r:id="rId2312" xr:uid="{399C9DEA-7FAA-4F24-88B0-63BFAA374380}"/>
+    <hyperlink ref="J522" r:id="rId2313" xr:uid="{3D1BFC2E-C0FD-4158-A09D-839A07ABF2EF}"/>
+    <hyperlink ref="F523" r:id="rId2314" xr:uid="{AE6D0D41-6AF2-4314-BE7E-AE2072C39DEE}"/>
+    <hyperlink ref="G523" r:id="rId2315" xr:uid="{2C6741DF-E16D-469C-84AA-EC7A7AEA97D9}"/>
+    <hyperlink ref="H523" r:id="rId2316" xr:uid="{D996FB09-F197-4551-B74E-D3AFA22A3D7C}"/>
+    <hyperlink ref="I523" r:id="rId2317" xr:uid="{AC7C2E38-EC69-40F9-9340-BAD453D7EF43}"/>
+    <hyperlink ref="J523" r:id="rId2318" xr:uid="{1D5D623E-8300-45E7-BD37-98A6C32D6081}"/>
+    <hyperlink ref="F524" r:id="rId2319" xr:uid="{47F2886A-EEDE-43E1-987F-02952C31F89C}"/>
+    <hyperlink ref="G524" r:id="rId2320" xr:uid="{A328A87E-96DA-45AB-889B-EEB447586684}"/>
+    <hyperlink ref="H524" r:id="rId2321" xr:uid="{2A3E27DA-7B0F-4E7D-BF44-775741246263}"/>
+    <hyperlink ref="I524" r:id="rId2322" xr:uid="{CF898369-4035-46F6-AACF-36C477DEDD39}"/>
+    <hyperlink ref="J524" r:id="rId2323" xr:uid="{F58F87C2-2043-4D25-BF93-2641FD8BC24C}"/>
+    <hyperlink ref="F525" r:id="rId2324" xr:uid="{3E2CA78D-F30D-4BBB-9A4F-3B8251B1BE5E}"/>
+    <hyperlink ref="G525" r:id="rId2325" xr:uid="{95302D28-6DB9-44B9-A850-8504A5A776C7}"/>
+    <hyperlink ref="H525" r:id="rId2326" xr:uid="{08F11F8C-5F59-4CF6-B45C-2D0C377658C7}"/>
+    <hyperlink ref="I525" r:id="rId2327" xr:uid="{31537154-6684-47F3-8E49-8164066494D7}"/>
+    <hyperlink ref="J525" r:id="rId2328" xr:uid="{7141FB44-B3A7-4A0E-82B7-9EA630986B71}"/>
+    <hyperlink ref="F526" r:id="rId2329" xr:uid="{6D1C4404-BD2A-424A-A6DB-CAC76CE9F07E}"/>
+    <hyperlink ref="G526" r:id="rId2330" xr:uid="{A1760354-0C6F-4030-A202-58BD2559B745}"/>
+    <hyperlink ref="H526" r:id="rId2331" xr:uid="{A4B7E84A-DDA1-43A7-B5B4-C8E3B05E56F5}"/>
+    <hyperlink ref="I526" r:id="rId2332" xr:uid="{72168D11-AB35-4EE2-BA02-DAF4DB618964}"/>
+    <hyperlink ref="F527" r:id="rId2333" xr:uid="{0B282F1B-1476-4C40-9750-DBBBE1293C88}"/>
+    <hyperlink ref="G527" r:id="rId2334" xr:uid="{7FFEE950-B4D6-4BC5-A898-D44F45B36A2A}"/>
+    <hyperlink ref="H527" r:id="rId2335" xr:uid="{080B4F96-2D51-4CC1-B936-9E08997F05D8}"/>
+    <hyperlink ref="I527" r:id="rId2336" xr:uid="{9E73E1EE-D8BA-4A8B-81DE-45027731F396}"/>
+    <hyperlink ref="J527" r:id="rId2337" xr:uid="{A1F8E45C-22EA-4591-9392-ECFEF9287897}"/>
+    <hyperlink ref="F528" r:id="rId2338" xr:uid="{C12A07F3-8750-423B-99DA-0F9104118049}"/>
+    <hyperlink ref="G528" r:id="rId2339" xr:uid="{7683C06A-2CD0-4A47-874A-9E725ED14E52}"/>
+    <hyperlink ref="H528" r:id="rId2340" xr:uid="{FE2EF04C-C30F-45F4-8989-083C75C554CC}"/>
+    <hyperlink ref="I528" r:id="rId2341" xr:uid="{01C9CBA3-D7E5-4D73-B01C-8EFBCF16029E}"/>
+    <hyperlink ref="J528" r:id="rId2342" xr:uid="{F37D6522-932B-4C48-A745-E41B9085F398}"/>
+    <hyperlink ref="F529" r:id="rId2343" xr:uid="{53B63128-EF47-4D15-895E-DAB17303D3B5}"/>
+    <hyperlink ref="G529" r:id="rId2344" xr:uid="{7FAF8F7C-6A6B-4EBA-BD7E-5F9D6CD598D8}"/>
+    <hyperlink ref="H529" r:id="rId2345" xr:uid="{BBFA89DD-626B-417F-9987-6C946EAAE270}"/>
+    <hyperlink ref="I529" r:id="rId2346" xr:uid="{AAD41F1C-5435-4492-A45D-67A6C59FCE4D}"/>
+    <hyperlink ref="J529" r:id="rId2347" xr:uid="{28E9577C-EB49-45AA-B12F-3F260D4BAC4B}"/>
+    <hyperlink ref="F530" r:id="rId2348" xr:uid="{D2D436DF-35C0-4AC0-A373-C7D72A10A441}"/>
+    <hyperlink ref="G530" r:id="rId2349" xr:uid="{76CE82D0-FFFA-4DC9-8B1E-2DA95705BD31}"/>
+    <hyperlink ref="H530" r:id="rId2350" xr:uid="{2F754148-C8AA-4630-A7C7-8594AD325832}"/>
+    <hyperlink ref="I530" r:id="rId2351" xr:uid="{E4BF9B9B-1C57-4C0F-9E48-0AA6ED1D9754}"/>
+    <hyperlink ref="J530" r:id="rId2352" xr:uid="{0546E715-FD42-4FFE-A317-FAC83C75B24D}"/>
+    <hyperlink ref="F531" r:id="rId2353" xr:uid="{C119650F-B683-4EEF-886C-DDCE993981A7}"/>
+    <hyperlink ref="G531" r:id="rId2354" xr:uid="{E0BC5C87-02D1-438F-9B7C-D1DA5E3A3423}"/>
+    <hyperlink ref="H531" r:id="rId2355" xr:uid="{AC963072-CD4A-4656-A9EC-53552825F7A2}"/>
+    <hyperlink ref="I531" r:id="rId2356" xr:uid="{A0829A88-6ADF-422A-877B-0DA244E246DB}"/>
+    <hyperlink ref="J531" r:id="rId2357" xr:uid="{AF3EC516-B883-437A-A27D-589F3122C650}"/>
+    <hyperlink ref="F532" r:id="rId2358" xr:uid="{4EBAD27F-24EB-4947-BAC6-443565864930}"/>
+    <hyperlink ref="G532" r:id="rId2359" xr:uid="{B9D779F3-EF57-4F49-9813-5E98BE5B6A5B}"/>
+    <hyperlink ref="H532" r:id="rId2360" xr:uid="{1EEDD3B8-3598-4E3C-919C-E2064B30BFF2}"/>
+    <hyperlink ref="I532" r:id="rId2361" xr:uid="{D3CA925A-3142-4B81-9A03-4F82C9636151}"/>
+    <hyperlink ref="J532" r:id="rId2362" xr:uid="{58524C02-9F8A-4976-9D66-34085DC8C4D4}"/>
+    <hyperlink ref="F533" r:id="rId2363" xr:uid="{9323198D-C94E-4943-8AE9-D85FAAEE5863}"/>
+    <hyperlink ref="G533" r:id="rId2364" xr:uid="{F3E4EF69-829A-4E48-82AC-62B518440858}"/>
+    <hyperlink ref="H533" r:id="rId2365" xr:uid="{90C7C9FB-B9B8-4D73-977C-BCB2DEB563D5}"/>
+    <hyperlink ref="I533" r:id="rId2366" xr:uid="{6EE47BFD-939E-44D2-96D7-BBA8A174C520}"/>
+    <hyperlink ref="J533" r:id="rId2367" xr:uid="{FD416CA8-14B9-4AF3-B222-5D64E75EB62E}"/>
+    <hyperlink ref="F534" r:id="rId2368" xr:uid="{434553A2-7D97-4EDF-BAAB-DD83AC27038D}"/>
+    <hyperlink ref="G534" r:id="rId2369" xr:uid="{F9866DAD-6714-46CB-AF72-92EDB3845B6A}"/>
+    <hyperlink ref="H534" r:id="rId2370" xr:uid="{C74C04DB-EBA8-4DF7-BEDB-A4476E954362}"/>
+    <hyperlink ref="I534" r:id="rId2371" xr:uid="{5DD99B4F-EF6E-4A2E-949B-479FDF5B387F}"/>
+    <hyperlink ref="J534" r:id="rId2372" xr:uid="{722FD566-7772-4BEB-AB6E-7D478DAD629F}"/>
+    <hyperlink ref="F535" r:id="rId2373" xr:uid="{AEB2373A-16E9-4D67-8DEB-72F3131E002D}"/>
+    <hyperlink ref="G535" r:id="rId2374" xr:uid="{F94D1E40-954C-49FC-BF74-70C3EEF2EAB1}"/>
+    <hyperlink ref="H535" r:id="rId2375" xr:uid="{74D3FCC5-6F41-4DC0-9458-5ED254B981A5}"/>
+    <hyperlink ref="I535" r:id="rId2376" xr:uid="{0A5B441E-8521-4BD7-9C1E-2BCAAF75A123}"/>
+    <hyperlink ref="J535" r:id="rId2377" xr:uid="{395DD8AB-DDE6-42F3-90B1-6458289C8843}"/>
+    <hyperlink ref="F536" r:id="rId2378" xr:uid="{C37FA738-2ECD-495C-8E75-129904CAF34F}"/>
+    <hyperlink ref="G536" r:id="rId2379" xr:uid="{669E8A12-948C-4070-AA6B-7C462A5AD82E}"/>
+    <hyperlink ref="H536" r:id="rId2380" xr:uid="{2D534C0B-BE6F-40E0-A886-13A78C782E69}"/>
+    <hyperlink ref="I536" r:id="rId2381" xr:uid="{2DF8CFFE-F0C1-4BC1-A00C-2D56E22453C3}"/>
+    <hyperlink ref="J536" r:id="rId2382" xr:uid="{C01B1273-E37C-460B-8658-8B5CEB995F5B}"/>
+    <hyperlink ref="F537" r:id="rId2383" xr:uid="{C9A1CB54-BB8E-45E4-BE7B-C024DF35C561}"/>
+    <hyperlink ref="G537" r:id="rId2384" xr:uid="{55967FFA-1FAE-47C9-874B-6FE7F19B6897}"/>
+    <hyperlink ref="H537" r:id="rId2385" xr:uid="{04E74B89-E0A4-4B01-A82E-ED272DDD8D08}"/>
+    <hyperlink ref="I537" r:id="rId2386" xr:uid="{3B056DB2-AB76-4745-ACC8-0A62DD103893}"/>
+    <hyperlink ref="J537" r:id="rId2387" xr:uid="{D909E543-1B3F-4C46-B381-74A22964F3DE}"/>
+    <hyperlink ref="F538" r:id="rId2388" xr:uid="{0A8BCD54-B75A-4EF6-8C60-F729F79AA58C}"/>
+    <hyperlink ref="G538" r:id="rId2389" xr:uid="{A8B1C9A4-2CE4-4FE7-B4B9-271B10580160}"/>
+    <hyperlink ref="H538" r:id="rId2390" xr:uid="{7484240D-3179-4D7B-AAC8-077F3D948C9D}"/>
+    <hyperlink ref="I538" r:id="rId2391" xr:uid="{776D7933-45CA-4988-A2B4-E3E6F32A58FE}"/>
+    <hyperlink ref="J538" r:id="rId2392" xr:uid="{E030C336-C24D-4DBA-A052-0AC3053E3C36}"/>
+    <hyperlink ref="F539" r:id="rId2393" xr:uid="{3C1B7D43-DB4A-4952-822A-AC49A012BE29}"/>
+    <hyperlink ref="G539" r:id="rId2394" xr:uid="{B337B90F-0E40-4040-AF39-A8050213751B}"/>
+    <hyperlink ref="H539" r:id="rId2395" xr:uid="{38BD2BED-361C-483D-9613-BBBD5D3C73BE}"/>
+    <hyperlink ref="I539" r:id="rId2396" xr:uid="{D7C1390B-36C7-426E-8ECE-482CBC038AD4}"/>
+    <hyperlink ref="J539" r:id="rId2397" xr:uid="{94D51E7D-710A-482A-92AE-5DCC83BD92C2}"/>
+    <hyperlink ref="F540" r:id="rId2398" xr:uid="{CCBD41DC-384C-4D9A-8160-2D9097A11B00}"/>
+    <hyperlink ref="G540" r:id="rId2399" xr:uid="{8EE3470F-256A-4808-86DE-D9C42D21CBA7}"/>
+    <hyperlink ref="H540" r:id="rId2400" xr:uid="{A98C5E4F-B9DC-4454-9F00-73E3976EE637}"/>
+    <hyperlink ref="I540" r:id="rId2401" xr:uid="{4A6CBE79-F902-4A4C-909F-933EC6B18C91}"/>
+    <hyperlink ref="J540" r:id="rId2402" xr:uid="{4C75432D-03F6-4DDC-90C3-83CD9107F177}"/>
+    <hyperlink ref="J526" r:id="rId2403" xr:uid="{2C8AAE73-1A8B-442F-B33A-32CDF67CD93E}"/>
+    <hyperlink ref="F541" r:id="rId2404" xr:uid="{F2A16182-2C83-4D16-B0C1-41744272ABA2}"/>
+    <hyperlink ref="G541" r:id="rId2405" xr:uid="{BE73A2BE-49E7-4417-A3C7-B592BD718ADB}"/>
+    <hyperlink ref="H541" r:id="rId2406" xr:uid="{D9C3A7DC-0E61-4EC9-8453-7E99FD4C6922}"/>
+    <hyperlink ref="I541" r:id="rId2407" xr:uid="{125B55DA-9365-4A22-A3E6-FF0003075C58}"/>
+    <hyperlink ref="J541" r:id="rId2408" xr:uid="{EBA3AA0A-C53C-41CD-813E-ECEE8CA17969}"/>
+    <hyperlink ref="F542" r:id="rId2409" xr:uid="{49E1A480-F681-466A-89BC-C773E1E89F00}"/>
+    <hyperlink ref="G542" r:id="rId2410" xr:uid="{26146360-4535-419B-9D65-7636CB0EFD4B}"/>
+    <hyperlink ref="H542" r:id="rId2411" xr:uid="{D44CCF38-E6A4-4729-9D25-8555137D715D}"/>
+    <hyperlink ref="I542" r:id="rId2412" xr:uid="{2A79164F-AAB4-47B4-940E-7A46CDAA80E1}"/>
+    <hyperlink ref="J542" r:id="rId2413" xr:uid="{2BF4854A-C085-4889-98E2-FBD4EC08751B}"/>
+    <hyperlink ref="F543" r:id="rId2414" xr:uid="{0044D045-1C6A-4901-B217-EA2C5BDD2ABB}"/>
+    <hyperlink ref="G543" r:id="rId2415" xr:uid="{7A88176F-8CFF-4CDB-B5CE-838456CF6725}"/>
+    <hyperlink ref="H543" r:id="rId2416" xr:uid="{A2FEBF81-61A8-41B6-9A81-3706EBF8766E}"/>
+    <hyperlink ref="I543" r:id="rId2417" xr:uid="{C4C34AA0-414A-4129-BF21-690B6CCD090A}"/>
+    <hyperlink ref="J543" r:id="rId2418" xr:uid="{93202B67-75D8-4166-BE11-AC1F8A375D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2409"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2419"/>
   <tableParts count="1">
-    <tablePart r:id="rId2410"/>
+    <tablePart r:id="rId2420"/>
   </tableParts>
 </worksheet>
 </file>
